--- a/ingredients/result.xlsx
+++ b/ingredients/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="733">
   <si>
     <t>ingredients_ori</t>
   </si>
@@ -25,724 +25,2206 @@
     <t>result</t>
   </si>
   <si>
-    <t>ビスケット（小麦粉、砂糖、ショートニング、植物油脂、その他）（国内製造）、準チョコレート（砂糖、植物油脂、ココアパウダー、全粉乳、脱脂粉乳、その他）／乳化剤、香料、カラメル色素、膨脹剤、（一部に卵・乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、全粉乳、ショートニング、ココアバター、マーガリ（乳成分を含む）、液全卵、イースト、食用加工油脂（小麦を含む）、カラメル粉末（乳成分を含む）、乳糖、キャラメル粉末（乳成分を含む）、洋酒、うるちひえパフ、食塩、液卵白(卵を含む)、カカオマス、水飴／ソルビトール、卵殻未焼成カルシウム（卵由来）、酒精、乳化剤（大豆由来）、香料（乳由来）、イーストフード（小麦由来）、トレハロース、ビタミンＣ、ビタミンＤ、着色料（カロテン）</t>
-  </si>
-  <si>
-    <t>マルトース（国内製造）、水飴、もち粉、植物油脂、砂糖、乳糖、デキストリン、全粉乳、ココアバター、脱脂粉乳、ココアパウダー、ホエイパウダー（乳成分を含む）、コーヒー、洋酒、クリーム（乳成分を含む）、チーズ粉末／トレハロース、乳化剤（大豆由来）、調味料（アミノ酸）、加工デンプン、酒精、香料、カゼインＮａ（乳由来）</t>
+    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（しょうゆ、チキンエキス、食塩、植物油、鶏脂、ポークエキス、香辛料、砂糖、野菜エキス、発酵調味料、たん白加水分解物、酵母エキス、ミート風味パウダー、香味油脂）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（みそ、ポークエキス、食塩、香辛料、香味油脂、野菜エキス、植物油、ラード、砂糖、発酵調味料、デーツ果汁、たん白加水分解物）／加工でん粉、調味料（アミノ酸等）、トレハロース、酒精、かんすい、炭酸カルシウム、カラメル色素、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（チキンエキス、食塩、ポークエキス、香味油脂、しょうゆ、野菜エキス、植物油、砂糖、香辛料、魚介エキス、たん白加水分解物、豚脂）／加工でん粉、調味料（アミノ酸等）、酒精、トレハロース、かんすい、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、増粘多糖類、香料、クチナシ色素、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（ポークエキス、しょうゆ、鶏脂、食塩、でん粉、砂糖、香辛料、たん白加水分解物、野菜エキス、植物油）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、カラメル色素、炭酸カルシウム、増粘多糖類、酒精、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、植物油脂、食塩、植物性たん白、卵白）、添付調味料（しょうゆ、ラード、魚介エキス、食塩、チキンエキス、ポークエキス、香味油脂、砂糖、香辛料、酵母エキス）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、（一部に小麦・卵・さば・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、食塩、チキンエキス、ラード、砂糖、香味油脂、たん白加水分解物、植物油、粉末野菜、ポークエキス、香辛料、ねぎ、酵母エキス、発酵調味料）、かやく（ワンタン、味付鶏挽肉、コーン）、加工でん粉、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、増粘多糖類、香料、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（みそ、ポークエキス、醤油、香味油脂、ラード、香辛料、植物油、砂糖、食塩、たん白加水分解物、酵母エキス、ねぎ、発酵調味料）、かやく（コーン、味付鶏挽肉）、加工でん粉、調味料（アミノ酸等）、カラメル色素、酒精、炭酸カルシウム、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、ｐＨ調整剤、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、ポークエキス、食塩、ラード、でん粉、植物油、香味油脂、砂糖、たん白加水分解物、香辛料、ねぎ、粉末煮干し）、かやく（焼豚、なると）、加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ、ビタミンＣ）、クチナシ色素、ｐＨ調整剤、カラメル色素、香料、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、鶏肉、ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、かやく（ワンタン、味付鶏挽肉）、添付調味料（チキンエキス、香辛料、砂糖、食塩、粉末野菜、しょうゆ、ねぎ、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（チキンエキス、しょうゆ、食塩、植物油、発酵調味料、砂糖、野菜エキス、こんぶエキス、香辛料、酵母エキス、鶏脂、ラード、魚介エキス）、かやく（ワンタン、卵）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、かんすい、酸化防止剤（ビタミンＣ、ビタミンＥ）、レシチン、クチナシ色素、カラメル色素、増粘多糖類、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩、植物性たん白）、添付調味料（食塩、香辛料、チキンエキス、しょうゆ、酵母エキス、砂糖、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、酸味料、クチナシ色素、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩）、添付調味料（食塩、しょうゆ、デキストリン、チキンエキス、ポークエキス、香辛料（黒こしょう、ガーリックパウダー））／加工でん粉、カラメル色素、炭酸カルシウム、調味料（アミノ酸等）、かんすい、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ホタテエキス、乳たん白）、スープ（食塩、ポークエキス、香辛料、たん白加水分解物、糖類、香味調味料、酵母エキス、しょうゆ、ローストオニオン粉末）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、炭酸マグネシウム、増粘多糖類、香料、酸化防止剤（ビタミンＥ）、カロチノイド色素、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料、香味油、たん白加水分解物、酵母エキス、しょうゆ、デキストリン、糖類、ローストオニオン粉末、香味調味料、植物油脂）、かやく（卵、豚・鶏味付肉、ニラ）/加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、カロチノイド色素、微粒二酸化ケイ素、乳化剤、酸化防止剤（ビタミンE）、酸味料、甘味料（スクラロース）、香辛料抽出物、ビタミンB2、ビタミンB1、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（みそ、糖類、豚脂、食塩、豚・鶏エキス、デキストリン、香辛料、たん白加水分解物、香味油、植物油脂、酵母エキス、とろみ粉末（でん粉、デキストリン、植物油脂）、ねぎ、ホタテエキス、香味調味料）、かやく（キャベツ、味付豚肉、コーン、人参）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、かんすい、カラメル色素、香料、炭酸マグネシウム、増粘多糖類、乳化剤、カロチノイド色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に卵・乳成分・小麦・えび・ごま・さば・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（食塩、ポークエキス、香辛料、トマトペースト、デキストリン、糖類、しょうゆ、たん白加水分解物、酵母エキス、ローストオニオン粉末、醸造酢、豚脂、香味調味料）、かやく（豚･鶏味付肉、卵、ニラ、赤唐辛子）／加工デンプン、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、かんすい、増粘多糖類、ソルビット、酒精、香料、グリセリン、カロチノイド色素、酸化防止剤（ビタミンＥ）、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩）、ソース（半固体状ドレッシング、しょうゆ、糖類、豚脂、食塩、ポークエキス、魚醤、魚介エキス、たん白加水分解物、香味調味料、香辛料）、かやく（キャベツ）、ふりかけ（たらこ加工品、香辛料、のり）／調味料（アミノ酸等）、炭酸カルシウム、酒精、かんすい、増粘剤（加工デンプン、キサンタンガム）、乳化剤、酸味料、カロチノイド色素、ベニコウジ色素、香料、酸化防止剤（ビタミンＥ）、香辛料抽出物、カラメル色素、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･かに･いか･さけ･さば･大豆･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵粉、米麹調味料（でん粉、米麹加工品、塩麹、食塩）、ポークエキス）、スープ（食塩、糖類、香辛料、豚脂、香味調味料、豚･鶏エキス、しょうゆ、たん白加水分解物、酵母エキス、しょうゆもろみ、ローストオニオン粉末、植物油脂）／加工デンプン、調味料（アミノ酸等）、膨張剤、酒精、かんすい、炭酸カルシウム、増粘剤（加工デンプン、増粘多糖類）、香料、カラメル色素、炭酸マグネシウム、カロチノイド色素、酸味料、酸化防止剤（ビタミンＥ）、乳化剤、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉･ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、植物油脂、食塩、でん粉、しょうゆ、植物性たん白、香味調味料）、スープ（食塩、しょうゆ、チキンオイル、糖類、豚脂、たん白加水分解物、香味調味料、香辛料、香味油、植物油脂、鶏肉エキス）、かやく（わかめ、卵、ごま）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、かんすい、カラメル色素、酒精、増粘多糖類、酸味料、乳化剤、香料、カロチノイド色素、微粒二酸化ケイ素、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部に卵･乳成分･小麦･えび･牛肉･ごま･さけ･さば･大豆･鶏肉･豚肉･ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、しょうゆ、食塩、香辛料）、ソース（糖類、香辛料、食塩、粉末しょうゆ、チキン調味料、ごま、酵母エキス、野菜調味油）／加工でん粉、乳化剤、調味料（アミノ酸等）、炭酸Ｃａ、カラメル色素、かんすい、ベニコウジ色素、カロチノイド色素、香料、香辛料抽出物、酸味料、甘味料（カンゾウ、スクラロース）、増粘剤（グァーガム）、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ、サイリウム種皮、大豆食物繊維、チキンエキス、チキン調味料）、スープ（香辛料、糖類、食塩、粉末みそ、唐辛子みそ、魚醤、ポーク調味料、魚介調味料、にぼし粉末、酵母エキス、乳化油脂、粉末しょうゆ、たん白加水分解物）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、かんすい、増粘剤（キサンタンガム）、カラメル色素、香料、香辛料抽出物、酸化防止剤（ビタミンＥ）、乳化剤、甘味料（アセスルファムＫ、スクラロース）、ビタミンＢ２、ビタミンＢ１、酸味料、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、小麦全粒粉、食塩、小麦たん白、植物油脂、大豆食物繊維、たん白加水分解物）、スープ（しょうゆ、ポークエキス、動物油脂、唐辛子、糖類、香味油、粉末かつお節、たん白加水分解物、チキンエキス、ポーク調味油、しょうゆ調味料、デキストリン、食塩、ポークパウダー、ガーリックペースト）、かやく（ねぎ）／加工デンプン、調味料（アミノ酸等）、増粘剤（加工デンプン、増粘多糖類）、着色料（カラメル、クチナシ、パプリカ色素）、炭酸カルシウム、かんすい、乳化剤、香辛料抽出物、酸化防止剤（Ｖ.Ｅ）、香料、（一部に卵・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、乳化剤（大豆由来）、貝カルシウム、香料、着色料（カラメル）、膨張剤</t>
+  </si>
+  <si>
+    <t>チョコレート（乳糖、ココアバター、砂糖、植物油脂、全粉乳、乾燥いちご）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、香料、乳化剤（大豆由来）、着色料（アカビート、紅麹）貝カルシウム、膨張剤、酸味料</t>
+  </si>
+  <si>
+    <t>＜パインアップル	＞ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、紅花色素、香料＜メロン＞ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、香料、着色料（紅花黄、クチナシ）＜コーラ＞ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、カラメル色素、香料＜ソーダ＞ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、香料＜ぶどう＞ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、香料、着色料（野菜色素、クチナシ）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、全粉乳、でん粉、カカオマス、ショートニング、加糖れん乳、ココアパウダー、クリームパウダー、モルトエキス、食塩、ココアバター、大豆胚芽エキス／膨脹剤、乳化剤、香料</t>
+  </si>
+  <si>
+    <t>コーンパフ（コーングリッツ、砂糖、植物油脂、水あめ、ココアパウダー、食塩）（国内製造）、砂糖、植物油脂、カカオマス、乳糖、全粉乳、ココアバター、水あめ　／　光沢剤、増粘剤（アラビアガム）、乳化剤（大豆由来）、香料、カラメル色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造又は韓国製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、ぶどう糖、水あめ、ゼラチン、ウーロン茶抽出物／ガムベース、酸味料、軟化剤、香料、ビタミンＣ、クチナシ色素</t>
+  </si>
+  <si>
+    <t>【青リンゴ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮青リンゴ果汁／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、着色料（黄色４号、青色１号）、（一部にりんご・ゼラチンを含む）　【レモン】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮レモン果汁／酸味料、香料、ゲル化剤（ペクチン）、光沢剤、着色料（黄色４号）、（一部にゼラチンを含む）　【グレープ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮グレープ果汁／酸味料、香料、ゲル化剤（ペクチン）、光沢剤、甘味料（アセスルファムＫ、ステビア）、着色料（赤色４０号、青色１号）、（一部にゼラチンを含む）　【イチゴ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮イチゴ果汁／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、着色料（赤色４０号）、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、食塩／乳化剤、調味料（アミノ酸）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、コンソメシーズニング（チキンエキスパウダー、ぶどう糖、食塩、砂糖、オニオンパウダー、野菜エキスパウダー、酵母エキスパウダー、デキストリン、乳糖、香辛料、たん白加水分解物、植物油脂）、砂糖、オニオンパウダー、食塩、香辛料／調味料（アミノ酸等）、乳化剤、パプリカ色素、加工デンプン、香料、酸味料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、ラード、しょうゆ、食塩、香辛料）、添付調味料（糖類、たん白加水分解物、食塩、しょうゆ、醸造酢、ポークエキス、植物油脂、りんご、香辛料、トマト、野菜エキス、でん粉）、かやく（キャベツ、味付け鶏ひき肉）、調味料（アミノ酸等）、酒精、カラメル色素、パプリカ色素、香辛料抽出物、増粘剤（グァーガム）、かんすい、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、甘味料（ステビア、カンゾウ）、重曹、ビタミンＢ２</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、チョコレート（乳成分を含む）、ショートニング（大豆を含む）、還元水あめ、白練餡（生餡、砂糖、水あめ、還元麦芽水あめ）、ココアパウダー、大豆粉、鶏卵加工品（鶏卵、砂糖）、水あめ、脱脂粉乳、卵黄粉末（卵を含む）、全粉乳、でん粉分解物、カカオマス、食塩、酵母エキス／加工でん粉、乳化剤（大豆由来）、香料、膨張剤</t>
+  </si>
+  <si>
+    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料（青色1号）</t>
+  </si>
+  <si>
+    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料（黄色4号、赤色40号）</t>
+  </si>
+  <si>
+    <t>砂糖混合ぶどう糖果糖液糖、食塩、香料 、酸味料、果実色素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">植物油脂（国内製造）、砂糖、ビスケット（小麦粉、砂糖、ショートニング、ココアパウダー、食塩）、小麦粉、カカオマス、乳糖、全粉乳、ココアバター、ココアパウダー、イースト／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、砂糖、ショートニング、小麦全粒粉、食塩）、小麦粉、乳糖、植物油脂、砂糖、ココアパウダー、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、カラメル色素、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、植物油脂、乳糖、抹茶、砂糖、ココアパウダー、緑茶、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、いちご果汁パウダー、乾燥いちご加工品、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、酸味料、膨脹剤、香料、着色料（赤ビート、紅麹）、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）　</t>
+  </si>
+  <si>
+    <t>カカオマス（コートジボワール製造又は国内製造又はその他）、砂糖、小麦粉、ココアバター、乳糖、ココアパウダー、植物油脂、カカオニブ、全粉乳、イースト/乳化剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂糖（外国製造、国内製造）、全粉乳、乳糖、カカオマス、小麦粉、植物油脂、ココアバター、オレンジ果汁パウダー、イースト、ココアパウダー／乳化剤、香料、酸味料、重曹、イーストフード、（一部に小麦・乳成分・オレンジ・大豆を含む）　</t>
+  </si>
+  <si>
+    <t>準チョコレート（砂糖、乳糖、植物油脂、全粉乳、ココアバター）（国内製造）、小麦粉、植物油脂、乳糖、砂糖、ナチュラルチーズ、食塩、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む</t>
+  </si>
+  <si>
+    <t>カカオマス（コートジボワール製造又は国内製造又はその他）、砂糖、小麦粉、乳糖、植物油脂、ココアバター、カカオニブ、ココアパウダー、全粉乳、イースト／乳化剤、アラビアガム、光沢剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、小麦粉、植物油脂、カカオマス、ココアバター、ココアパウダー、イースト／乳化剤、アラビアガム、光沢剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、植物油脂、小麦粉、カカオマス、ココアバター、いちご果汁パウダー、イースト、ココアパウダー／乳化剤、酸味料、アラビアガム、香料、光沢剤、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、乳糖、小麦粉、全粉乳、植物油脂、ビスケット（小麦粉、砂糖、ショートニング、ココアパウダー、食塩）、カカオマス、ココアバター、ココアパウダー、イースト/乳化剤、アラビアガム、膨張剤、光沢剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ(遺伝子組換えでない)(国内製造)、植物油、デキストリン、砂糖、食塩、ぶどう糖、チーズパウダー、酵母エキスパウダー、たんぱく質濃縮ホエイパウダー、赤唐辛子パウダー、オニオンパウダー／香料、調味料(アミノ酸等)、着色料(カロチノイド、カラメル)、酸味料、(一部に乳成分・大豆を含む)</t>
+  </si>
+  <si>
+    <t>コーン(遺伝子組換えでない)(米国産)、植物油、砂糖、粉末醤油、ぶどう糖、食塩、オニオンパウダー、香辛料、ポークエキスパウダー、酵母エキスパウダー／調味料(アミノ酸等)、香料、着色料(カラメル、カロチノイド)、甘味料(アセスルファムK、ステビア、カンゾウ)、酸味料、(一部に小麦・ごま・大豆・豚肉を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(遺伝子組換えでない)(国内製造)、植物油、砂糖、粉末醤油、ぶどう糖、たん白加水分解物、オニオンパウダー、食塩、酵母エキスパウダー、ビーフエキス調味料、ブラックペッパー／調味料(アミノ酸等)、着色料(カラメル、カロチノイド)、香料、酸味料、甘味料(アスパルテーム・L-フェニルアラニン化合物、スクラロース)、香辛料抽出物、(一部に小麦・牛肉・ごま・大豆・豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、粉末卵、糖類）、スープ（みそ、食塩、糖類、ポークエキス、コチュジャン、植物油脂、豚脂、豆板醤、香辛料、香味食用油、調味油脂、たん白加水分解物）、かやく（ねぎ、鶏・豚味付肉そぼろ、コーン）、加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、カラメル色素、香料、クチナシ色素、かんすい、増粘剤（キサンタン）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、ビタミンＢ2、ビタミンＢ１、香辛料抽出物、（原材料の一部にごまを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、みそ、糖類）、スープ（豚脂、しょうゆ、食塩、糖類、ポークエキス、チキンエキス、たん白加水分解物、植物油脂、香辛料、酵母エキス）、かやく（チャーシュー、ねぎ）、加工でん粉、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、かんすい、レシチン、クチナシ色素、増粘剤（キサンタン）、香料、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に卵、乳成分を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩）、ソース（ソース、糖類、食塩、豚脂、植物油脂、香辛料、たん白加水分解物、香味調味料）、かやく（キャベツ）、カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、酸化防止剤（ビタミンＥ）、香料、増粘剤（キサンタン）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、大豆、りんご、ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、大豆食物繊維）、スープ（しょうゆ、食塩、たん白加水分解物、ポークエキス、糖類、豚脂、植物油脂、かつお節エキス、酵母エキス、香辛料、煮干いわし粉末）、かやく（チャーシュー、メンマ、ナルト、ねぎ）、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、香料、かんすい、増粘剤（キサンタン）、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（原材料の一部に卵、乳成分を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉(国内製造)、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、野菜粉末、チキンエキス、ポークエキス、えびエキス、香辛料、たん白加水分解物）、かやく（かまぼこ、コーン）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>麦芽（外国製造又は国内製造（５％未満））、ホップ、米、コーン、スターチ</t>
+  </si>
+  <si>
+    <t>麦芽・ホップ</t>
+  </si>
+  <si>
+    <t>発泡酒（国内製造）（麦芽、ホップ、大麦）、スピリッツ（大麦）</t>
+  </si>
+  <si>
+    <t>発泡酒（国内製造）（麦芽（大麦麦芽・小麦麦芽）、ホップ、大麦、コリアンダーシード、オレンジピール）、スピリッツ（大麦）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）､ぶどう糖、水あめ､還元水あめ ／ガムベース、酸味料、香料</t>
+  </si>
+  <si>
+    <t>ぶどう糖、砂糖、イソマルトオリゴ糖、でん粉、乳化剤、酸味料、糊料(プルラン)、乳酸カルシウム、アントシアニン色素、香料</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、砂糖／乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料、カラメル色素</t>
+  </si>
+  <si>
+    <t>（レモン味）砂糖（国内製造）、水飴、濃縮レモン果汁、ハーブエキス（オレンジを含む）
+（ピーチ味）砂糖（国内製造）、水飴、濃縮ピーチ果汁、ハーブエキス（オレンジを含む）
+（グレープ味）砂糖（国内製造）、水飴、濃縮グレープ果汁、ハーブエキス（オレンジを含む）
+（オレンジ味）砂糖（国内製造）、水飴、濃縮オレンジ果汁、ハーブエキス（オレンジを含む）
+（青りんご味）砂糖（国内製造）、水飴、濃縮りんご果汁、ハーブエキス（オレンジを含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖、砂糖、でん粉、ゼラチン、酸味料、乳化剤、光沢剤、香料、着色料（クチナシ、野菜色素、カロチノイド）、糊料（アラビアガム）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（粉末みそ、みそ、砂糖、食塩、でん粉、香辛料、ポークエキス、ポーク調味料、豚脂、乳化油脂、酵母エキス、みそ加工品、香味調味料、たん白加水分解物、魚介エキス、植物油脂）、かやく（大豆加工品、メンマ、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、香料、酒精、増粘多糖類、カラメル色素、カロチノイド色素、かんすい、酸化防止剤（ビタミンＥ）、微粒二酸化ケイ素、甘味料（カンゾウ）、酸味料、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ‐カルニチンＬ‐酒石酸塩、塩化Ｎａ、　　　　　　　ガラナ種子エキス、クエン酸、香料、甘味料（Ｄ‐リボース、スクラロース）、Ｌ‐アルギニン、　　　　クエン酸Ｎａ、カフェイン、保存料（安息香酸）、ナイアシン、着色料（アントシアニン）、　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
+  </si>
+  <si>
+    <t>果実（りんご、オレンジ、グァバ、パインアップル、パッションフルーツ）、砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、植物油、塩化Ｎａ、ガラナ種子エキス／炭酸、クエン酸、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、クエン酸Ｎａ、カフェイン、甘味料（スクラロース）、ナイアシン、イノシトール、ビタミンＢ６、ビタミンＢ２、着色料（β－カロテン）、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>砂糖、植物油脂、コーングリッツ（遺伝子組換えでない）、パン粉、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、クリーム粉末、卵殻未焼成Ｃａ、カラメル色素、香料、乳化剤、トレハロース、（原材料の一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（遺伝子組換えでない）、砂糖、植物油脂、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、たんぱく加水分解物、クリーム粉末、カラメル色素、卵殻未焼成Ca、香料、乳化剤、トレハロース、（原材料の一部に小麦、大豆を含む）</t>
+  </si>
+  <si>
+    <t>〈グレープ〉砂糖（国内製造）、水あめ、グレープペースト/酸味料、香料、着色料（アントシアニン、クチナシ）、チャ抽出物 〈オレンジ〉砂糖（国内製造）、水あめ、オレンジペースト/酸味料、香料、着色料（カロテノイド）、チャ抽出物 〈ストロベリー〉砂糖（国内製造）、水あめ、ストロベリーペースト/酸味料、香料、着色料（アントシアニン、カロテノイド）、チャ抽出物 〈メロン〉砂糖（国内製造）、水あめ、濃縮メロン果汁/酸味料、着色料（紅麹、クチナシ）、香料、チャ抽出物</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、加糖練乳、上白糖、生クリーム（乳成分を含む）、植物油脂、牛乳、食塩／乳化剤</t>
+  </si>
+  <si>
+    <t>ブドウ糖（国内製造）、澱粉／酸味料、乳化剤、香料</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、植物油脂、しょうゆ、砂糖、食塩、チキンエキス、たんぱく加水分解物、ミート調味エキス、ミート調味パウダー、酵母エキスパウダー、ポークパウダー、魚介パウダー/加工デンプン、調味料(アミノ酸等）、炭酸Ca、酸化防止剤（ビタミンE）、（一部に小麦・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、ソース(砂糖、野菜・果実、醸造酢、食塩、アミノ酸液、その他)、砂糖、食塩、ソース風味パウダー、香辛料、アオサ粉、野菜パウダー、ミート調味エキス、野菜エキス、魚介エキス、魚醤パウダー（魚介類）／加工デンプン、調味料(アミノ酸等)、炭酸Ca、香料、カラメル色素、乳化剤、酸味料、酸化防止剤(ビタミンE)、香辛料抽出物、（一部に小麦・卵・乳成分・魚醤パウダー（魚介類）・牛肉・さば・大豆・鶏肉・豚肉・もも・りんごを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造又は外国製造）、小麦粉、植物油脂、カカオマス、でん粉、ショートニング、乳糖、全粉乳、液卵、ホエイパウダー、クリームパウダー、脱脂粉乳、食塩、ココアパウダー、ココアバター／炭酸Ｃａ、膨脹剤、カラメル色素、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、ストロベリーパウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、紅麹、アカビート）、香料、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、外国製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、小麦全粒粉、乳等を主要原料とする食品（はっ酵バター、植物油脂、バターオイル、脱脂粉乳、食塩）、脱脂粉乳、クリームパウダー、食塩／膨脹剤、カラメル色素、香料、乳化剤（大豆由来）</t>
   </si>
   <si>
     <t>小麦粉（国内製造）、砂糖、カカオマス、全粉乳、植物油脂、ショートニング、マーガリン（乳成分を含む）、乳糖、バター、ココアバター、脱脂粉乳、加糖練乳、液全卵、うるちひえパフ、ごま、ぶどう糖、食塩、乾燥卵白（卵を含む）／リン酸Ca、乳化剤（大豆由来）、膨脹剤、香料（乳由来）、着色料（カロテノイド）、ビタミンＤ</t>
   </si>
   <si>
-    <t>落花生（アメリカ産）、乾燥ポテト、植物油脂、唐辛子パウダー、食塩、ガーリックパウダー、オニオンパウダー、砂糖、酵母エキスパウダー、ガーリック風味パウダー、たんぱく加水分解物、ブドウ糖、野菜エキスパウダー、チリパウダー、チキンパウダー、乳糖、ホワイトペッパーパウダー、クミンパウダー、パプリカパウダー、オリゴ糖、ハバネロペースト／加工澱粉、調味料（アミノ酸等）、炭酸Ca、香料、カロチノイド色素、酸化防止剤（ビタミンE）、香辛料抽出物、酸味料、カラメル色素、（一部に乳成分・小麦・落花生・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、唐辛子パウダー、食塩、ガーリックパウダー、オニオンパウダー、砂糖、酵母エキスパウダー、ガーリック風味パウダー、たんぱく加水分解物、ブドウ糖、野菜エキスパウダー、チリパウダー、チキンパウダー、乳糖、ホワイトペッパーパウダー、クミンパウダー、パプリカパウダー、ハバネロペースト／加工澱粉、調味料（アミノ酸等）、炭酸Ca、香料、カロチノイド色素、酸化防止剤（ビタミンE）、香辛料抽出物、酸味料、カラメル色素、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、食塩、砂糖、ポテト風味パウダー（デキストリン、食塩、ポテトパウダー、醤油風味調味料、酵母エキスパウダー、粉末香味油、ビーフ風味パウダー、香味油）、ブドウ糖、粉末油脂、ビーフ風味パウダー（ビーフエキスパウダー、食塩、たんぱく加水分解物、ビーフ風味調味料、乳糖、野菜エキスパウダー、香辛料）、澱粉、酵母エキスパウダー／加工澱粉、トレハロース、調味料（アミノ酸等）、増粘剤（カードラン）、炭酸Ca、香料、甘味料（スクラロース）、酸化防止剤（ビタミンE）、酸味料、（一部に乳成分・小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、サワークリームオニオン風味パウダー（食塩、ホエイパウダー（乳製品）、砂糖、オニオンパウダー、粉末酢、たんぱく加水分解物、ねぎエキスパウダー、デキストリン、酵母エキスパウダー）、食塩、オニオンパウダー、粉末油脂、砂糖、澱粉／加工澱粉、トレハロース、調味料（アミノ酸等）、増粘剤（カードラン）、酸味料、香料、炭酸Ca、香辛料抽出物、甘味料（スクラロース、ステビア）、酸化防止剤（ビタミンE）、（一部に乳成分を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、コーングリッツ、小麦粉、粉末油脂、食塩（鳴門の焼塩59%）、砂糖、ビーフオイル、デキストリン、ブドウ糖、酵母エキスパウダー／トレハロース、セルロース、調味料（アミノ酸等）、香料、卵殻Ca、増粘剤（カードラン）、乳酸Ca、塩化Ca、炭酸Ca、（一部に卵・小麦を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂（パーム油、ヤシ油、米油、ごま油）、コーングリッツ、小麦粉、粉末油脂、食塩、砂糖、あおさ、酵母エキスパウダー、調味パウダー（食塩、ブドウ糖、酵母エキスパウダー）、青のり、唐辛子パウダー／トレハロース、セルロース、調味料（アミノ酸等）、香料、卵殻Ca、増粘剤（カードラン）、乳酸Ca、塩化Ca、炭酸Ca、（一部に卵・小麦・えび・かに・ごまを含む）</t>
-  </si>
-  <si>
-    <t>砂糖、植物油脂、コーングリッツ（遺伝子組換えでない）、パン粉、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、クリーム粉末、卵殻未焼成Ｃａ、カラメル色素、香料、乳化剤、トレハロース、（原材料の一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（遺伝子組換えでない）、植物油脂、コーンパウダー（遺伝子組換えでない）、砂糖、ショートニング、澱粉、食塩、チーズパウダー、バターパウダー、ブドウ糖、発酵調味パウダー、酵母エキスパウダー、オニオンパウダー、ほうれん草パウダー、デキストリン、キャロットエキスパウダー、小麦粉、キャベツパウダー、粉末醤油、チキンエキスパウダー/加工澱粉、トレハロース、乳化剤、塩化Ca、調味料（アミノ酸等）、炭酸Ca、乳酸Ca、香料、カラメル色素、カロチノイド色素、（一部に乳成分・小麦・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（遺伝子組換えでない）、砂糖、植物油脂、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、たんぱく加水分解物、クリーム粉末、カラメル色素、卵殻未焼成Ca、香料、乳化剤、トレハロース、（原材料の一部に小麦、大豆を含む）</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖（国内製造）、食塩、高麗人参エキス、調製ローヤルゼリー、ガラナ、マカ／炭酸、酸味料、香料、Ｖ．Ｃ、甘味料（アセスルファムＫ、アスパルテーム・Ｌ－フェニルアラニン化合物）、カロテン色素、カフェイン、アルギニン、アラニン、グリシン、ロイシン、ナイアシン、イソロイシン、バリン、Ｖ．Ｂ６</t>
-  </si>
-  <si>
-    <t>牛乳、コーヒー、砂糖、脱脂粉乳、全粉乳、デキストリン、カゼインNa、乳化剤、香料、酸化防止剤(ビタミンC)</t>
-  </si>
-  <si>
-    <t>牛乳、コーヒー、砂糖、全粉乳、デキストリン／乳化剤、カゼインＮａ、香料、酸化防止剤（ビタミンＣ）、甘味料（アセスルファムＫ、スクラロース）</t>
-  </si>
-  <si>
-    <t>コーヒー（コーヒー豆（ブラジル産、エチオピア産、その他））／香料、酸化防止剤（ビタミンＣ）</t>
-  </si>
-  <si>
-    <t>牛乳、砂糖、コーヒー、脱脂粉乳、全粉乳、ミルクソース、デキストリン、乳化剤、香料、カゼインＮａ、酸化防止剤（ビタミンＣ）</t>
-  </si>
-  <si>
-    <t>コーヒー、牛乳、砂糖、全粉乳、脱脂粉乳、デキストリン／香料、乳化剤、カゼインＮａ、                  甘味料（アセスルファムＫ、スクラロース）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（粉末みそ、みそ、砂糖、食塩、でん粉、香辛料、ポークエキス、ポーク調味料、豚脂、乳化油脂、酵母エキス、みそ加工品、香味調味料、たん白加水分解物、魚介エキス、植物油脂）、かやく（大豆加工品、メンマ、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、香料、酒精、増粘多糖類、カラメル色素、カロチノイド色素、かんすい、酸化防止剤（ビタミンＥ）、微粒二酸化ケイ素、甘味料（カンゾウ）、酸味料、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、でん粉、ゼラチン、酸味料、乳化剤、光沢剤、香料、着色料（クチナシ、野菜色素、カロチノイド）、糊料（アラビアガム）</t>
-  </si>
-  <si>
-    <t>野菜（にんじん（輸入）、ケール、ほうれん草、アスパラガス、クレソン、パセリ、かぼちゃ、レタス、キャベツ、ビート、だいこん、はくさい、たまねぎ、セロリ）、果実（ぶどう、りんご、レモン、バナナ）、クリーミングパウダー、食物繊維、寒天、植物性乳酸菌（殺菌）／ｐＨ調整剤、乳化剤、ビタミンＣ、香料、（一部に乳成分・バナナ・りんごを含む）</t>
+    <t>小麦粉（国内製造）、植物油脂、アーモンド、でん粉、砂糖、オニオンペースト、ポークエキスパウダー、ショートニング、にんにくパウダー、モルトエキス、チキンエキスパウダー、小麦たんぱく、食塩、しょうゆシーズニング、こしょう、乾燥ビール酵母、酵母エキスパウダー、ベーコンエキス、たまねぎシーズニング、イースト／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、くん液、（一部に乳成分・小麦・大豆・鶏肉・豚肉・ごま・アーモンドを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、植物油脂、ゼラチン、濃縮いちご果汁、いちご果汁パウダー、乳酸菌飲料（乳成分を含む）／酸味料、アカキャベツ色素、グリセリン、香料、乳化剤</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、植物油脂、ゼラチン、ぶどう果汁、濃縮ヨーグルト（乳成分を含む）／酸味料、グリセリン、乳化剤、香料、ベニバナ黄色素、クチナシ青色素</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ぶどう糖、植物油脂、ゼラチン、濃縮みかん果汁／ソルビトール、増粘多糖類、酸味料、グリセリン、香料、乳化剤、パプリカ色素、ベニバナ黄色素</t>
+  </si>
+  <si>
+    <t>砂糖、マルトース、ゼラチン、濃縮リンゴ果汁、食塩、その他</t>
+  </si>
+  <si>
+    <t>うるち米（国産）、植物油脂、かつおだし味シーズニング（ぶどう糖、味付けかつおぶし粉末、たん白加水分解物、食塩、その他）、でん粉、えび、その他</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、マーガリン、砂糖、小麦全粒粉、発酵風味液、食塩、殺菌乳酸菌末／香料、カロテン色素、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、水あめ、でん粉／加工でん粉、乳化剤、カラメル色素、香料</t>
+  </si>
+  <si>
+    <t>水飴（国内製造）、砂糖、植物油脂、ぶどう濃縮果汁／酸味料、香料、着色料（アントシアニン、クチナシ、紅麹、金箔）、チャ抽出物、タンニン（抽出物）、乳化剤</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、甘えびパウダー、食塩／加工デンプン、乳化剤、調味料（アミノ酸）、（一部にえびを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、加工油脂、乳糖、いちごパウダー、食塩、いちご果汁パウダー／加工デンプン、トレハロース、膨脹剤、紅麹色素、酸味料、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ショートニング、ホエイパウダー、加工油脂、チーズパウダー、砂糖、ぶどう糖果糖液糖、モルトエキス、食塩、発酵種、モルトフラワー、イースト／膨脹剤、乳化剤、アナトー色素、香料、加工デンプン、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ショートニング、ホエイパウダー、加工油脂、チーズパウダー、砂糖、ぶどう糖果糖液糖、ガーリックパウダー、オリーブオイル、アヒージョシーズニング、モルトエキス、アンチョビパウダー、食塩、発酵種、モルトフラワー、イースト／膨脹剤、乳化剤、香料、香辛料抽出物、（一部に小麦・乳成分・大豆・魚醤（魚介類）を含む）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 小麦粉（国内製造）、砂糖、加工油脂、乳糖、乳等を主要原料とする食品（加糖練乳、脱脂濃縮乳、濃縮乳、クリーム、脱脂粉乳、乳糖、砂糖）、還元水あめ、卵、植物油脂、脱脂粉乳、マーガリン、食塩、麦芽糖、小麦ファイバー、水あめ／乳化剤（大豆由来）、結晶セルロース、香料</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、ビーフシチュー風味シーズニング、砂糖、食塩／調味料（アミノ酸等）、重曹、香料、酸味料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、スクラロース）、酸化防止剤（ビタミンＥ）、香辛料抽出物、（一部に乳成分・小麦・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、脱脂粉乳、イチゴ果汁／酸味料、香料、アントシアニン色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、濃縮果汁（オレンジ、うんしゅうみかん）／酸味料、香料、着色料（紅花黄、パプリカ色素）、（一部にオレンジを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、全粉乳、植物油脂、ぶどう果汁、食塩／酸味料、香料、着色料（アントシアニン、クチナシ）、乳化剤、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、全粉乳、植物油脂、オレンジ濃縮果汁、食塩／酸味料、香料、着色料（パプリカ色素）、乳化剤、（一部に乳成分・オレンジ・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、全粉乳、植物油脂、ココアパウダー、食塩／香料、酸味料、着色料（カラメル）、乳化剤、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>じゃがいも（北海道美瑛町産１００％）、植物油、食塩、デキストリン、こんぶエキスパウダー / 調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>じゃがいも（北海道美瑛町産１００％）、植物油、粉末しょうゆ（小麦・大豆を含む）、ぶどう糖、食塩、でん粉、脱脂粉乳、マルチトール、デキストリン、全粉乳、バター、バターミルクパウダー、ホエイパウダー、粉末酒 / 調味料（アミノ酸等）、香料、カラメル色素、酸味料、苦味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（北海道産１００％）、植物油、食塩、デキストリン、でん粉 / 調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>じゃがいも（北海道産１００％）、植物油、砂糖、食塩、脱脂粉乳、たん白加水分解物、ぶどう糖、チーズパウダー（チェダーチーズパウダー、カマンベールチーズパウダー、ゴーダチーズパウダー）、酵母エキスパウダー / 調味料（アミノ酸等）、香料、酸味料、甘味料（ステビア、甘草）、パプリカ色素</t>
+  </si>
+  <si>
+    <t>乾燥じゃがいも（アメリカ製造又はドイツ製造）、植物油、食塩、砂糖、デキストリン、粉末しょうゆ（小麦・大豆を含む）、たん白加水分解物、ブラックペッパー、酵母エキスパウダー、チキンエキスパウダー、ガーリック、ジンジャー、セロリシード、タイム、フェンネル、オールスパイス、クミン、オレガノ、セージ、パプリカ、ナツメグ、コリアンダー / 乳化剤、調味料（アミノ酸等）、香料（卵・ごまを含む）、着色料（カロチノイド、カラメル）、酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（アメリカ）、植物油、粉末しょうゆ（小麦・大豆を含む）、デキストリン、食塩、たんぱく質濃縮ホエイパウダー、バターパウダー、酵母エキスパウダー、バター / 調味料（アミノ酸等）、香料、カラメル色素、酸味料、甘味料（ステビア）、酸化防止剤（Ｖ．Ｃ）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、ぶどう糖、食塩、たん白加水分解物（小麦・大豆・鶏肉を含む）、でん粉、デキストリン、ブラックペッパー、ホエイパウダー、ガーリックパウダー、チーズパウダー、酵母エキスパウダー、唐辛子 / 調味料（アミノ酸等）、香料、パプリカ色素、酸味料</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、スイートコーンパウダー、ぶどう糖、食塩、砂糖、チーズパウダー、たん白加水分解物（大豆を含む）、でん粉 / 調味料（アミノ酸等）、香料（小麦を含む）、炭酸カルシウム、酸味料、パプリカ色素、甘味料（ステビア、甘草）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油、でん粉、えび、砂糖、食塩、クリーミングパウダー、油脂調整粉末、たん白加水分解物（大豆を含む）、オニオンパウダー、チェダーチーズパウダー、乳等を主要原料とする食品 / 調味料（アミノ酸等）、膨脹剤、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、甘草、ステビア）、パプリカ色素</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、水飴、マルトース、ゼラチン、濃縮いちご果汁、植物油脂</t>
+  </si>
+  <si>
+    <t>米（うるち米（国産）、うるち米粉（国産））、植物油脂、でん粉、砂糖、食塩、ガーリックパウダー、乳等を主要原料とする食品、粉末油脂（乳成分・大豆を含む）、たんぱく加水分解物（豚肉を含む）、チーズパウダー、バターパウダー、粉末しょう油（小麦・大豆を含む）／調味料（アミノ酸等）、香料（卵・乳・鶏由来）、酸味料、甘味料（ステビア）、カラメル色素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、カカオマス、植物油脂、全粉乳、ココアバター、ライ麦粉、ショートニング、脱脂粉乳、麦芽エキス、バターシーズニング、練乳パウダー、カラメルソース、食塩／乳化剤、膨脹剤、香料、カラメル色素、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、外国製造）、水あめ、ゼラチン、濃縮果汁（レモン、ラズベリー）、植物油脂、でん粉／ソルビトール、酸味料、増粘多糖類、香料、光沢剤、着色料（カラメル、アントシアニン、スピルリナ青、紅麹）、（一部にりんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ、砂糖、ゼラチン、濃縮果汁（バナナ、レモン、すもも）、植物油脂／ソルビトール、酸味料、骨Ca、香料、着色料（アントシアニン、クチナシ）、光沢剤、（一部にバナナ・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、外国製造）、水あめ、ゼラチン、濃縮果汁（ぶどう、りんご、レモン、ラズベリー）、植物油脂、でん粉／ソルビトール、酸味料、増粘多糖類、光沢剤、香料、着色料（フラボノイド、アントシアニン、クチナシ、紅麹）、（一部にりんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、植物油脂／ソルビトール、酸味料、骨Ca、着色料（カラメル、フラボノイド、クチナシ、紅麹）、香料、光沢剤、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、チョコレートチップ（乳成分を含む）、還元水あめ、白ねりあん（乳成分を含む）、卵、全脂大豆粉、カカオマス、水あめ、脱脂粉乳、食塩、卵黄（卵を含む）、全粉乳／加工デンプン、乳化剤（乳・大豆由来）、香料（乳・大豆由来）、安定剤（加工デンプン）、膨脹剤、カラメル色素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、バター、全粉乳、発酵種（小麦を含む）、食塩、乳等を主原料とする食品/乳化剤（小麦・大豆由来）、香料（乳・大豆由来）、カロテノイド色素</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、でん粉、食塩、植物性たん白、砂糖、しょうゆ、チキンエキス、卵白）、添付調味料（みそ、香辛料、砂糖、ポークエキス、脱脂大豆粉、たん白加水分解物、チキンエキス、香味油脂、食塩、粉末野菜）、かやく（味付豚肉、キャベツ、コーン）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、増粘多糖類、かんすい、クチナシ色素、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香料、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部にえび・小麦・卵・乳成分・いか・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、卵粉、植物油、たん白加水分解物、大豆食物繊維）、添付調味料（チキンエキス、植物油、ポークエキス、でん粉、食塩、鶏脂、デキストリン、香辛料、砂糖、たん白加水分解物、豚脂、酵母エキス）、かやく（チンゲン菜、メンマ、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、かんすい、増粘多糖類、乳化剤、ｐＨ調整剤、クチナシ色素、酸化防止剤（ビタミンＥ）、香料、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、卵粉、植物油、たん白加水分解物、大豆食物繊維）、添付調味料（ポークエキス、食塩、香味油脂、ラード、香辛料、しょうゆ、砂糖、チキンエキス、粉末野菜、たん白加水分解物、酵母エキス、植物油）、かやく（味付挽肉、卵、ねぎ）／加工でん粉、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、かんすい、増粘多糖類、乳化剤、クチナシ色素、パプリカ色素、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香辛料抽出物、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、でん粉、食塩、植物性たん白、砂糖、しょうゆ、チキンエキス、卵白）、添付調味料（ポークエキス、みそ、香辛料、しょうゆ、キムチ風味調味料、食塩、粉末野菜、砂糖、植物油、たん白加水分解物、酵母エキス、魚醤（魚介類））、かやく（味付豚肉、白菜キムチ、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、かんすい、着色料（クチナシ、パプリカ色素、カラメル、パプリカ粉末、紅麹）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香料、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部にえび・小麦・卵・乳成分・いか・ごま・大豆・鶏肉・豚</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、でん粉、食塩、植物性たん白、乾燥酵母、卵白）、かやく（あおさてんぷら、あおさ揚玉、かまぼこ）、添付調味料（食塩、しょうゆ、砂糖、粉末かつおぶし、粉末こんぶ、わかめ、粉末煮干し、たん白加水分解物、ねぎ、香辛料、植物油）／加工でん粉、調味料（アミノ酸等）、リン酸塩（Ｎａ）、炭酸カルシウム、カラメル色素、レシチン、増粘多糖類、酸化防止剤（ビタミンＥ）、クチナシ色素、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、カロチン色素、（一部にえび・小麦・卵・乳成分・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、そば粉、植物油脂、植物性たん白、食塩、とろろ芋、卵白）、かやく（紅生姜入り小えびてんぷら、かまぼこ）、添付調味料（砂糖、食塩、しょうゆ、粉末かつおぶし、たん白加水分解物、ねぎ、香辛料、香味油脂）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、リン酸塩（Ｎａ）、カラメル色素、増粘多糖類、レシチン、酸化防止剤（ビタミンＥ）、ベニコウジ色素、クチナシ色素、酸味料、香料、アカダイコン色素、ビタミンＢ２、ビタミンＢ１、カロチン色素、香辛料抽出物、（一部にえび・小麦・そば・卵・乳成分・大豆・豚肉・やまいも・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ、香辛料）、ソース（たん白加水分解物、豚脂、牛脂、糖類、香味調味料、食塩、しょうゆ、ビーフ調味料、食物繊維、赤ワイン、野菜ペースト）、かやく（にんじん、大豆たん白加工品）／加工でん粉、調味料（アミノ酸等）、カラメル色素、酒精、香料、炭酸Ｃａ、かんすい、酸味料、グリセリン、増粘剤（キサンタンガム）、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・牛肉・大豆・鶏肉・豚肉・りんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、植物性たん白、こんぶエキス、大豆食物繊維、糖類）、スープ（糖類、食塩、牛脂、たん白加水分解物、乳化油脂、オニオンパウダー、還元水あめ、香辛料、カレー粉、ビーフ調味料、コーヒーパウダー、小麦粉、乳等を主要原料とする食品、植物油脂、赤ワイン）、かやく（大豆たん白加工品、にんじん）／加工でん粉、調味料（アミノ酸等）、カラメル色素、増粘剤（増粘多糖類、加工でん粉）、炭酸Ｃａ、リン酸塩（Ｎａ）、香料、ｐＨ調整剤、酸味料、酸化防止剤（ビタミンＥ）、乳化剤、甘味料（スクラロース、アセスルファムＫ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・乳成分・牛肉・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（砂糖、食塩、ソース、香辛料、デキストリン、たん白加水分解物）、かやく（キャベツ）/加工でんぷん、調味料（アミノ酸等）、カラメル色素、炭酸Ca、かんすい、酸味料、増粘多糖類、炭酸Mg、酸化防止剤（ビタミンE）、香料、ビタミンB2、ビタミンB1、（一部に小麦・大豆・ごまを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、野菜エキス、しょうゆ）、スープ（糖類、食塩、香辛料、ポーク調味料、ポークエキス、たん白加水分解物、酵母エキス）、かやく（フライドポテト、鶏・豚味付肉そぼろ、かまぼこ）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、クチナシ色素、香料、かんすい、微粒二酸化ケイ素、レシチン、酸化防止剤（ビタミンＥ）、イカスミ色素、酸味料、ビタミンＢ２、くん液、ビタミンＢ１、（一部に小麦・卵・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、でん粉、食塩、植物性たん白、粉末卵、チキン調味料）、ソース（ソース、豚脂、植物油脂、調味油脂）、かやく（キャベツ）／加工でん粉、カラメル色素、増粘剤（加工でん粉、タマリンド）、調味料（アミノ酸等）、かんすい、焼成カルシウム、香料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香辛料抽出物、パプリカ色素、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・もも・りんごを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（しょうゆ、植物油脂、たん白加水分解物、豚脂、食塩、発酵調味料、チキンエキス、砂糖、カツオ調味料、ニボシエキス、香辛料、酵母エキス）、ふりかけ（ぶどう糖、乳等を主要原料とする食品、明太子加工品、乳化油脂、酵母エキス、魚介エキス、ポークエキス、全卵粉）、かやく（卵、ねぎ）／加工でん粉、調味料（アミノ酸等）、増粘剤（加工でん粉、キサンタンガム）、酒精、炭酸Ｃａ、カロチノイド色素、香料、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、微粒二酸化ケイ素、ベニコウジ色素、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部にえび・小麦・卵・乳成分・さけ・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（みそ、豚脂、ポークエキス、ガーリックペースト、植物油脂、ポーク調味料、食塩、オニオンペースト、魚介エキス、酵母エキス、香味油、ジンジャーペースト、唐辛子）、かやく（キャベツ、コーン、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、ソルビット、炭酸Ｃａ、香料、カラメル色素、かんすい、カロチノイド色素、酸化防止剤（ビタミンＥ）、酒精、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部に小麦・卵・乳成分・牛肉・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、植物性たん白、食塩）、スープ（植物油脂、ポークエキス、豚脂、乳化油脂、食塩、豆板醤、ポーク調味料、みそ、香辛料、しょうゆ、たん白加水分解物、酵母エキス、香味調味料、オニオンパウダー、チキンエキス、全卵粉）、かやく（大豆加工品、キクラゲ、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、ソルビット、増粘剤（増粘多糖類、アルギン酸エステル）、重曹、酒精、微粒二酸化ケイ素、かんすい、香料、ベニコウジ色素、酸化防止剤（ビタミンＥ）、カラメル色素、甘味料（スクラロース、アセスルファムＫ）、酸味料、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩）、スープ（乳化油脂、食用加工油脂、食塩、糖類、ポーク調味料、香辛料、酵母エキス、乳等を主要原料とする食品、全卵粉）、かやく（大豆加工品、コーン、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、増粘剤（加工でん粉、増粘多糖類）、かんすい、酸化防止剤（ビタミンＥ）、微粒二酸化ケイ素、香料、カロチノイド色素、カラメル色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>春雨（中国製造（でん粉、醸造酢））、かやく入りスープ（食塩、キャベツ、乳化油脂、砂糖、大豆加工品、チキン調味料、酵母エキス、人参、ゆず胡椒パウダー、ねぎ、コンブエキス、魚介調味料、たん白加水分解物、オニオンエキス、香辛料）／調味料（アミノ酸等）、増粘剤（加工でん粉、増粘多糖類）、香料、微粒二酸化ケイ素、カラメル色素、酸味料、（一部に小麦・卵・乳成分・ごま・さば・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造、国内製造)、牛乳、全粉乳、脱脂粉乳、デキストリン、ココナッツオイル、バターパウダー、食塩／香料、乳化剤、ビタミンC、カロテン色素、甘味料(ステビア)</t>
+  </si>
+  <si>
+    <t>砂糖､ぶどう糖、水あめ､還元水あめ／ガムベース、酸味料、香料</t>
+  </si>
+  <si>
+    <t>果実(りんご、トマト、たまねぎ、レモン、プルーン、にんじん)、醸造酢、砂糖、食塩、酵母エキス、香辛料、煮干エキス</t>
+  </si>
+  <si>
+    <t>果実類（りんご、もも、うめ）、醤油、砂糖、還元水あめ、アミノ酸液、蜂蜜、りんご酢、食塩、白ごま、オニ オンエキス、ごま油、蛋白加水分解物、にんにく、香辛料／カラメル色素、（一部に小麦・ごま・大豆・もも・ りんごを含む）</t>
+  </si>
+  <si>
+    <t>果実類（りんご、もも、うめ）、醤油、砂糖、アミノ酸液、にんにく、還元水あめ、食塩、蜂蜜、りんご酢、白 ごま、ごま油、蛋白加水分解物、オニオンエキス、香辛料／カラメル色素、（一部に小麦・ごま・大豆・もも・ りんごを含む）</t>
+  </si>
+  <si>
+    <t>果実（りんご、オレンジ、もも、タンジェリン、パインアップル、ぶどう）、砂糖類 （砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子 エキス、クエン酸、香料、炭酸ガス、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギニン 、カフェイン、クエン酸Ｎａ、着色料（β－カロチン、アントシアニン）、ナイアシン、　　　　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
+  </si>
+  <si>
+    <t>砂糖類（砂糖（国内製造）、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／炭酸、リン酸、クエン酸Ｎａ、カラメル色素、クエン酸、保存料（安息香酸Ｎａ）、香料、Ｌ－アルギニン、カフェイン、ナイアシン、甘味料（スクラロース）、イノシトール、　　　　　ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／クエン酸、炭酸、香料、クエン酸Ｎａ、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギ二ン、保存料（安息香酸）、カフェイン、ナイアシン、着色料（アントシアニン）、イノシトール、ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>砂糖類（砂糖（国内製造）、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒、石酸塩、塩化Ｎａ、ガラナ種子エキス／炭酸、リン酸、クエン酸Ｎａ、カラメル色素、クエン酸、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、香料、カフェイン、ナイアシン、安定剤（アラビアガム）、甘味料（スクラロース）、イノシトール、ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、塩化Ｎａ／クエン酸、クエン酸Ｎａ、香料、Ｌ－ロイシン、クエン酸Ｋ、乳酸Ｃａ、Ｌ－イソロイシン、Ｌ－バリン、カフェイン、甘味料（スクラロース）、塩化Ｍｇ、ナイアシン、イノシトール、ビタミンＢ６、着色料（黄色４号、青色１号）</t>
+  </si>
+  <si>
+    <t>醤油、砂糖、みそ、果実類（りんご、レモン）、発酵調味料、食塩、野菜類（玉ねぎ、生姜、にんにく）、果糖ぶどう糖液糖、ラージャン、蜂蜜、ごま油、白ごま</t>
+  </si>
+  <si>
+    <t>醤油、砂糖、りんご、ラージャン、発酵調味料、コチュジャン、食塩、果糖ぶどう糖液糖、野菜類（にんにく、玉ねぎ）、ごま油、りんご酢、白ごま、蜂蜜、香辛料、カラメル色素</t>
+  </si>
+  <si>
+    <t>醤油、砂糖、果実類（りんご、レモン）、食塩、果糖ぶどう糖液糖、黒蜜、発酵調味料、白ごま、ごま油、蜂蜜、もろみ、香辛料、にんにく</t>
+  </si>
+  <si>
+    <t>ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）（国内製造）、乳糖、砂糖、ココアバター、植物油脂、全粉乳、ぶどう糖、紅茶エキス、粉末レモン果汁／加工デンプン、乳化剤（大豆由来）、着色料（アカビート、カラメル、アナトー）、香料、ビタミンＣ、貝カルシウム、膨脹剤、酸味料</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、食塩、青のり、あおさ／乳化剤、調味料（アミノ酸）</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、たん白加水分解物（大豆を含む）、粉末しょうゆ（小麦を含む）、食塩、ビーフパウダー（鶏肉・ゼラチンを含む）、粉末ソース、酵母エキスパウダー、ガーリックパウダー、唐辛子、オニオンパウダー、ぶどう糖、デキストリン、わさびパウダー／調味料（アミノ酸等）、香料、甘味料（ステビア、スクラロース）、酸味料、カゼインナトリウム（乳由来）、カラメル色素、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、食塩、粉末しょうゆ（小麦・大豆を含む）、粉末油脂、酵母エキスパウダー、香辛料、調味油、たん白加水分解物、乳糖、バター（北海道産使用）/調味料（アミノ酸等）、香料（ごま由来）、甘味料（ステビア）、酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、食塩、オニオンパウダー、オニオンエキスパウダー、たん白加水分解物（大豆・豚肉を含む）、酵母エキスパウダー、パセリ、オリゴ糖、サワークリームパウダー（北海道産サワークリーム使用）、乳糖/調味料（アミノ酸等）、酸味料、香料、甘味料（スクラロース、ステビア、カンゾウ）</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、香辛料、たん白加水分解物（大豆・豚肉を含む）、粉末しょうゆ（小麦を含む）、食塩、マヨネーズ風味パウダー（卵を含む）、乳等を主要原料とする食品、オリゴ糖、デキストリン、明太子パウダー（ゼラチンを含む）、ビーフパウダー（鶏肉を含む）/調味料（アミノ酸等）、香料、酸味料、カロチノイド色素、甘味料（ステビア、スクラロース）、香辛料抽出物、ウコン色素</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、たん白加水分解物（大豆・豚肉を含む）、粉末しょうゆ（小麦を含む）、ビーフパウダー（鶏肉・ゼラチンを含む）、食塩、ガーリックパウダー、デキストリン、わさびパウダー/調味料（アミノ酸等）、香料、甘味料（ステビア、スクラロース）、カゼインナトリウム（乳由来）、香辛料抽出物、酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、ぶどう糖、食塩、たん白加水分解物、オニオンパウダー、デキストリン、酵母エキスパウダー、ガーリックパウダー、唐辛子、ねぎパウダー／調味料（アミノ酸）、香料、パプリカ色素、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、香味油、デキストリン、岩塩、酵母エキスパウダー、ブラックペパー／調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、香味油、ぶどう糖、食塩、たんぱく加水分解物（大豆・豚肉を含む）、粉末酢、クリーミングパウダー（乳成分を含む）、粉末しょうゆ（小麦・大豆を含む）、チキンブイヨンパウダー、酵母エキス、レモン果汁パウダー、粉末酒／調味料（アミノ酸等）、酸味料、香料</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油（ごまを含む）、香味油、デキストリン、食塩、焼のり、あおさ、青のり、粉末ごま油、酵母エキスパウダー、香辛料／調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、デキストリン、香味油、ぶどう糖、昆布、たんぱく加水分解物（大豆を含む）、酵母エキスパウダー、昆布エキスパウダー、かきパウダー</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、香辛料（大豆を含む）、たんぱく加水分解物（大豆を含む）、食塩、ミートエキス調味パウダー（乳成分・小麦・牛肉・ごま・大豆・鶏肉・豚肉を含む）、オリゴ糖、昆布、しいたけエキスパウダー、酵母エキスパウダー、粉末油脂、香味油（小麦・大豆を含む）／調味料（アミノ酸等）、パプリカ色素、香辛料抽出物、甘味料（ステビア）、香料（大豆由来）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、食塩、オニオン、チーズパウダー（乳成分を含む）、たんぱく加水分解物（大豆を含む）、オリゴ糖、レモン果汁パウダー、サワークリームパウダー（乳成分を含む）、酵母エキスパウダー、パセリ／調味料（アミノ酸等）、香料（乳由来）、酸味料、甘味料（ステビア、スクラロース）、カロチノイド色素</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、香辛料、食塩、野菜エキスパウダー（乳成分・大豆・豚肉・ゼラチンを含む）、ビーフエキスパウダー、たんぱく加水分解物（大豆を含む）、赤パプリカ、香味油／調味料（アミノ酸等）、香料（乳由来）、着色料（ココア）、香辛料抽出物、カラメル色素、酸味料</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、食塩、デキストリン／調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ガーリックパウダー、ぶどう糖、食塩、砂糖、たんぱく加水分解物(大豆を含む)、野菜エキスパウダー（乳成分・大豆・豚肉・ゼラチンを含む）、オニオン、ホワイトペパー、唐辛子／調味料（アミノ酸等）、香辛料抽出物、甘味料（ステビア、カンゾウ）、香料、カラメル色素、酸味料</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、食塩、青のり、あおさ、香辛料、酵母エキスパウダー／調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、香辛料(大豆を含む）、肉エキスパウダー（乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）、たんぱく加水分解物(大豆を含む)、食塩、オリゴ糖、香味油(小麦・大豆を含む)／調味料（アミノ酸等）、酸味料、パプリカ色素、甘味料（ステビア、カンゾウ）、香料、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、ぶどう糖、粉末しょうゆ（小麦・大豆を含む）、食塩、焼のり、たんぱく加水分解物（大豆・鶏肉・豚肉を含む）、あおさ、香辛料、魚介エキスパウダー（さばを含む）、粉末みりん風味調味料（小麦・大豆を含む）、ごま、青のり、香味油、オリゴ糖／調味料（アミノ酸等）、香料</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、でん粉分解物、食塩（オホーツクの塩５０％、岩塩５０％）、たんぱく加水分解物（鶏肉を含む）、鶏油／調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、食塩、砂糖、たんぱく加水分解物（大豆を含む）、粉末しょうゆ（小麦・大豆を含む）、オリゴ糖、粉末酢（小麦を含む）、香辛料／酸味料、調味料（アミノ酸等）、香料、カラメル色素、甘味料（アセスルファムＫ、カンゾウ）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、食塩、香辛料、ミートエキス調味パウダー、粉末酢、たんぱく加水分解物、酵母エキスパウダー、粉末しょうゆ、粉末油脂／調味料（アミノ酸等）、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、スクラロース）、酸味料、パプリカ色素、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉・りんごを含む）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ぶどう糖、粉末酢（小麦を含む）、食塩、たんぱく加水分解物（鶏肉を含む）、砂糖、粉末しょうゆ（小麦・大豆を含む）、ホエイパウダー（乳成分を含む）、酵母エキス、オリゴ糖、香辛料／調味料（アミノ酸等）、酸味料、香料</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、ぶどう糖、梅酢パウダー、食塩、粉末酢、粉末しょうゆ（小麦・大豆を含む）、梅調味パウダー、あおさ、オリゴ糖／調味料（アミノ酸等）、酸味料、甘味料（ステビア）、香料、アントシアニン色素</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ぶどう糖、岩塩、トリュフエキスチップ、ブラックペッパー、粉末油脂、オニオンエキスパウダー、チーズパウダー、トリュフ／調味料（アミノ酸）、香料、イカスミ色素、カラメル色素、（一部に乳成分・小麦・いか・大豆を含　む）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油（パーム油、米油、ごま油）、ぶどう糖、デキストリン、岩塩、たんぱく加水分解物、粉末油脂、米粉、チキンパウダー、唐辛子、昆布／調味料（アミノ酸等）、香料、酸味料、くん液、（一部に乳成分・ごま・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ぶどう糖、デキストリン、岩塩、たんぱく加水分解物（大豆を含む）、ミートエキス調味パウダー（乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）、ブラックペッパー（カンポートペッパー３％）、でん粉、花椒、レモン果汁パウダー、香味油（豚肉を含む）／調味料（アミノ酸等）、酸味料、香辛料抽出物、香料</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産）、植物油、乾燥じゃがいも、ミルクパウダー、粉末植物油脂、砂糖、粉末しょうゆ（小麦・大豆を含む）、食塩、乳糖、でん粉、デキストリン、酵母エキスパウダー、たん白加水分解物、焼きのり、酒粕パウダー、チキンエキスパウダー、混合節エキスパウダー（さばを含む）、わさびパウダー / 調味料（アミノ酸等）、香料、加工デンプン、乳化剤、酸味料、カラメル色素、酸化防止剤（Ｖ．Ｃ）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産）、植物油（パーム油、米油、ごま油）、乾燥じゃがいも、ミルクパウダー、粉末植物油脂、豚そぼろ肉風味フレーク（大豆・鶏肉・ゼラチンを含む）、デキストリン、食塩、ぶどう糖、乳糖、豆板醤パウダー（小麦を含む）、砂糖、唐辛子風味フレーク、たん白加水分解物、ポークエキスパウダー、でん粉、酵母エキスパウダー、粉末みそ、ホエイパウダー、唐辛子、花椒、山椒 / 調味料（アミノ酸等）、香料、加工デンプン、乳化剤、着色料（カラメル、カロチノイド、紅麹）、酸味料、酸化防止剤（Ｖ．Ｃ）、甘味料（ステビア、甘草）、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、デキストリン / 調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、砂糖、チキンコンソメパウダー（小麦・大豆・豚肉を含む）、食塩、デキストリン、でん粉、粉末しょうゆ、粉末ソース（りんごを含む）、たまねぎエキスパウダー、香辛料パウダー、ビーフコンソメパウダー、野菜パウダー（トマト、にんじん）、発酵トマトエキスパウダー、梅肉パウダー / 調味料（アミノ酸等）、香料（ごまを含む）、カラメル色素、酸味料、パプリカ色素、甘味料（ステビア）、香辛料抽出物、ベニコウジ色素</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、パーム油、米油、食塩、青のり、あおさ、唐辛子、ごま油 / 調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、コーンスターチ、ほたてエキスパウダー、こんぶエキスパウダー、ぶどう糖、かつお節エキスパウダー、香味油 / 調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、砂糖、食塩、チキンコンソメパウダー、コーンスターチ、たん白加水分解物（大豆を含む）、粉末しょうゆ（小麦を含む）、チキンパウダー、粉末ソース（りんごを含む）、はくさいエキスパウダー、香辛料パウダー、トマトパウダー、ミルポワパウダー（豚肉を含む）、オニオンエキスパウダー、マッシュルームエキスパウダー、酵母エキスパウダー、オニオンパウダー、梅肉パウダー / 調味料（アミノ酸等）、香料（ごまを含む）、酸味料、着色料（カロチノイド、紅麹）、甘味料（ステビア（乳成分を含む））、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、パーム油、米油、ぶどう糖、食塩、デキストリン、焼きのり、でん粉、唐辛子、ごまパウダー、ごま油、たん白加水分解物（大豆を含む）、こしょう / 調味料（アミノ酸等）、香料、酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、砂糖、オニオンパウダー、ポークエキスパウダー（小麦・大豆・鶏肉を含む）、たん白加水分解物、粉末植物油脂、ガーリックパウダー、でん粉、粉末しょうゆ、チリパウダー、唐辛子、酵母エキスパウダー、香味油 / 調味料（アミノ酸等）、酸味料、パプリカ色素、香辛料抽出物、甘味料（ステビア、甘草）、香料</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、砂糖、オニオンエキスパウダー、オニオンパウダー、でん粉、ホエイパウダー、サワークリームパウダー、ガーリックパウダー、脱脂粉乳、パセリ、酵母エキスパウダー / 調味料（アミノ酸等）、香料、酸味料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物）</t>
   </si>
   <si>
     <t>じゃがいも（国産又はアメリカ）、植物油、でん粉、食塩、砂糖、粉末しょうゆ（小麦・大豆を含む）、たん白加水分解物、唐辛子、ガーリックパウダー、酵母エキスパウダー（乳成分を含む）、ビーフパウダー、こしょう、粉末植物油脂 / 調味料（アミノ酸等）、香料（ゼラチンを含む）、酸味料、着色料（カラメル、カロチノイド、炭末、クチナシ）、甘味料（ステビア）、香辛料抽出物</t>
   </si>
   <si>
-    <t>ぶどう糖、砂糖／乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、イソマルトオリゴ糖、でん粉、乳化剤、酸味料、糊料(プルラン)、乳酸カルシウム、アントシアニン色素、香料</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖／乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料、着色料（アントシアニン、クチナシ）</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、砂糖／乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料、カラメル色素</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、水あめ、還元水あめ/ガムベース、酸味料、香料、軟化剤、着色料（カラメル、フラボノイド）</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、水あめ、還元水あめ/ガムベース、酸味料、香料、軟化剤、着色料（クチナシ、フラボノイド）</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、水あめ、還元水あめ、ガムベース、酸味料、香料、乳酸カルシウム、軟化剤、アントシアニン色素、緑茶抽出物</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造)､ぶどう糖､水あめ､還元水あめ､ 酵母エキス､デキストリン／ガムベース､酸味料､ 香料､軟化剤､カロチノイド色素</t>
-  </si>
-  <si>
-    <t>砂糖、ぶどう糖、でん粉、水あめ/ガムベース、香料、酸味料、糊料（アラビアガム）、フラボノイド色素、リン酸カルシウム</t>
-  </si>
-  <si>
-    <t>砂糖､加工油脂､水あめ､でん粉､ゼラチン／酸味料､乳化剤､増粘剤(プルラン)､香料､クチナシ色素</t>
+    <t>じゃがいも（国産又はアメリカ）、植物油、チーズ味フレーク、砂糖、ぶどう糖、食塩、ガーリックパウダー、酵母エキスパウダー、ビーフパウダー（小麦・大豆・鶏肉・ゼラチンを含む）、野菜エキスパウダー、粉末植物油脂、たん白加水分解物、チーズパウダー、ミート風味調味料、トマトパウダー、赤唐辛子、パセリ、サラミ風チップ（豚肉を含む）、オレガノ / 調味料（アミノ酸等）、香料（りんごを含む）、酸味料、乳化剤、着色料（カロチノイド、カラメル、紅麹）、香辛料抽出物、くん液、甘味料（ステビア）</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）、植物油、食塩、コーンスターチ、こんぶエキスパウダー / 調味料（アミノ酸等）、酸化防止剤（ビタミンＣ）</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）、植物油、食塩、黒こしょう、デキストリン、砂糖、ぶどう糖、オニオンパウダー、コーンスターチ、酵母エキスパウダー（豚肉を含む）、還元水あめ、粉末しょうゆ（小麦・大豆を含む）、シナモン、調味動物油脂 / 調味料（アミノ酸等）、香辛料抽出物、酸味料、香料、酸化防止剤（ビタミンＣ）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、砂糖、食塩、バターパウダー、果糖、コーンスターチ、たん白加水分解物（大豆を含む）、マスカルポーネチーズパウダー、クリーミングパウダー、酵母エキスパウダー、パセリ、はちみつパウダー / 調味料（アミノ酸等）、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、スクラロース、ステビア）、酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、乳糖、オニオン、でん粉、粉末オリーブオイル、粉末加工油脂、ぶどう糖、砂糖、赤ピーマン、食物繊維、パセリ、粉末酢、ガーリックパウダー、ブラックペッパー、セロリ、トマトパウダー、マスタードパウダー / 酸味料、調味料（アミノ酸等）、香辛料抽出物、着色料（ウコン）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、粉末しょうゆ（小麦・大豆を含む）、デキストリン、砂糖、食塩、ポークエキスパウダー、マスタードパウダー、唐辛子パウダー、卵黄パウダー（卵を含む）、マヨネーズ風味パウダー（ごま・鶏肉を含む）、粉末酢 / 香料（乳成分を含む）、調味料（アミノ酸等）、酸味料、甘味料（ステビア、甘草）、着色料（ウコン）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、パーム油、米油、食塩、デキストリン、麦芽糖、でん粉、マルチトール、ごま、ごま油、全粉乳、たん白加水分解物（大豆を含む）、酵母エキスパウダー、こしょう / 調味料（アミノ酸等）、香料、酸味料、酸化防止剤（ビタミンＣ）</t>
+  </si>
+  <si>
+    <t>乾燥じゃがいも（アメリカ製造又はドイツ製造又はその他）、植物油、食塩、デキストリン、でん粉、こんぶエキスパウダー / 乳化剤、調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>乾燥じゃがいも（遺伝子組換えでない）、植物油、食塩、コーンスターチ、砂糖、チキンコンソメパウダー（小麦・大豆・豚肉を含む）、粉末しょうゆ、粉末ソース（りんごを含む）、ビーフコンソメパウダー、香辛料パウダー、オニオンエキスパウダー、トマトパウダー、発酵トマトエキスパウダー、調味動物油脂、キャロットパウダー、梅肉パウダー／乳化剤、調味料（アミノ酸等）、香料（ごまを含む）、酸味料、着色料（カラメル、カロチノイド、紅麹）、甘味料（ステビア）、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産）、植物油、食塩、加工油脂、デキストリン、コーンスターチ、香味油、こんぶエキスパウダー、乳糖 / 糊料（加工デンプン、アルギン酸Ｎａ）、トレハロース、調味料（アミノ酸等）、酸化防止剤（Ｖ．Ｃ）、香料</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産）、植物油、砂糖、食塩、チキンコンソメパウダー、コーンスターチ、チキンパウダー、香辛料パウダー、粉末ソース（りんごを含む）、粉末しょうゆ（大豆を含む）、酵母エキスパウダー、マッシュルームエキスパウダー、ミルポワパウダー（豚肉を含む）、オニオンエキスパウダー、トマトパウダー、オニオンパウダー、はくさいエキスパウダー、梅肉パウダー、発酵酵母エキスパウダー / 糊料（加工デンプン、アルギン酸Ｎａ）、トレハロース、調味料（アミノ酸等）、香料、酸味料、酸化防止剤（Ｖ．Ｃ）、着色料（カロチノイド、紅麹）、甘味料（ステビア：乳成分を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト、植物油脂、食塩、昆布調味エキス、かつお節調味エキス、果糖／乳化剤（大豆を含む）、調味料（アミノ酸）酸化防止剤（ビタミンＥ、ビタミンＣ）、香料、微粒酸化ケイ素、増粘剤（グアーガム）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、カカオマス、ココアパウダー、液全卵、植物油脂、バター、油脂加工食品（乳成分を含む）、乳糖、全粉乳、食塩、水飴、シナモン粉末／膨張剤、乳化剤（大豆由来）、香料、カゼインナトリウム（乳由来）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、小麦粉、マーガリン（乳成分を含む）、液卵白（卵を含む）、全粉乳、植物油脂、ココアパウダー、バター、カカオマス、食塩 ／ 乳化剤（大豆由来）、香料（乳由来）、膨脹剤</t>
+  </si>
+  <si>
+    <t>乾燥ポテト、植物油脂、食塩、たまねぎ粉末、デキストリン、砂糖、野菜エキス粉末、香辛料、酵母エキス粉末（乳成分・卵・鶏肉を含む）、たんぱく加水分解物（大豆を含む）、ブドウ糖、野菜粉末、チキンオイル、ローストしょうゆ調味料（小麦・大豆を含む）、でん粉、大豆たんぱく、チキン粉末（小麦・大豆を含む）／乳化剤（大豆由を含む）、調味料（アミノ酸）、酸味料、酸化防止剤（ビタミンＥ、ビタミンＣ）、加工デンプン、香料、微粒ケイ素</t>
+  </si>
+  <si>
+    <t>でん粉、植物油脂、米粉、食用加工油脂、えび粉、食塩、香味油（小麦・えび・大豆を含む）、えび調味料粉末、青のり、昆布粉、えびシーズニング（大豆を含む）／ソルビトール、乳化剤（大豆由来）、加工デンプン、調味料（アミノ酸）、香料（えび由来）、セルロース、酸化防止剤（ビタミンＥ、ビタミンＣ）、着色料（カロテノイド、ウコン）、微粒ケイ素</t>
+  </si>
+  <si>
+    <t>砂糖、小麦粉。マーガリン（乳成分を含む）、液卵白（卵を含む）、植物油脂、全粉乳、ホエイパウダー（乳成分を含む）、乳糖、バター、ココアパウダー脱脂粉乳、クリーミングパウダー（乳成分を含む）、食塩／トレハロース、乳化剤（大豆由来）、膨張剤、香料（乳由来）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト、植物油脂（ごまを含む）、食塩、アオサ粉末、かつお節調味エキス、青のり粉、昆布エキス粉末、酵母エキス粉末、デキストリン／乳化剤（大豆を含む）、調味料（アミノ酸等）、酸化防止剤（ビタミンＥ、ビタミンＣ）リン酸三カルシウム、微粒ケイ素、香料、増粘剤（グアーガム）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト、植物油脂、デキストリン、食塩、ぶどう糖、乳化剤（大豆を含む）、調味料（アミノ酸等）、酸化防止剤（ビタミンＥ、ビタミンＣ、チャ抽出物）</t>
+  </si>
+  <si>
+    <t>砂糖（韓国製造）、ポテトペレット（乾燥ポテト、でん粉、食塩）、植物油脂、カカオマス、全粉乳／乳化剤（大豆由来）、香料、着色料（ウコン）、酸化防止剤（ビタミンＥ、ビタミンＣ）</t>
+  </si>
+  <si>
+    <t>ポテトペレット（乾燥ポテト、でん粉、食塩）（スペイン製造）、植物油脂、砂糖、全粉乳、乳糖、デキストリン、ココアバター、クリーミングパウダー（乳成分を含む）、食塩／乳化剤（大豆由来）、香料（乳由来）、着色料（ウコン）、酸化防止剤（ビタミンＥ、ビタミンＣ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野菜・果実（トマト、たまねぎ、りんご、その他）、糖類（ぶどう糖果糖液糖、砂糖）、醸造酢、醤油、食塩、アミノ酸液、香辛料、オイスターエキス、肉エキス、ホタテエキス、魚肉エキス、昆布、酵母エキス、カラメル色素、増粘剤（加工でんぷん、タマリンド）、調味料（アミノ酸等）、（原材料の一部として小麦、大豆、鶏肉、豚肉、もも、りんごを含む） 　</t>
+  </si>
+  <si>
+    <t>野菜・果実(トマト、りんご、プルーン、レモン、にんじん、たまねぎ)、醸造酢、糖類(ぶどう糖果糖液糖、砂糖)、食塩、澱粉、酵母エキス、香辛料(原材料の一部に大豆を含む)</t>
+  </si>
+  <si>
+    <t>野菜・果実（トマト、プルーン、りんご、レモン、にんじん、たまねぎ、）、醸造酢、砂糖類（ぶどう糖果糖液糖、砂糖）、食塩、澱粉、酵母エキス、香辛料</t>
+  </si>
+  <si>
+    <t>果実（ぶどう、グレープフルーツ、ライチ）、砂糖類（果糖ぶどう糖液糖（国内製造）、果糖）、食塩（沖縄県産）／酸味料、香料</t>
+  </si>
+  <si>
+    <t>めん〔小麦粉（国内製造）、食塩、植物性たん白、還元水飴〕、スープ〔ポークエキス、ポークオイル、食塩、煎りごま、野菜粉末、糖類（砂糖、麦芽糖、ぶどう糖）、粉末油脂、粉末しょうゆ、植物油脂、たん白加水分解物、香辛料、でん粉、ねぎ、すりごま、ホタテエキス、酵母エキス〕／調味料（アミノ酸等）、かんすい、ｐＨ調整剤、クチナシ色素、カラメル色素、香料、酸化防止剤（ビタミンＥ）、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、にんにく醤油シーズニング（ぶどう糖、しょうゆパウダー、食塩、砂糖、たん白加水分解物、でん粉、ビーフエキス調味料、酵母エキスパウダー、ガーリックパウダー）、焦がししょうゆパウダー／調味料（アミノ酸等）、香辛料抽出物、香料、乳化剤、カラメル色素、甘味料（スクラロース）、（一部に小麦・乳成分・牛肉・ごま・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、バターしょうゆシーズニング（乳等を主要原料とする食品、砂糖、しょうゆパウダー、食塩、たん白加水分解物、バターパウダー、チーズパウダー、酵母エキスパウダー、かつお節パウダー）、バターミルクパウダー／調味料（アミノ酸等）、香料、乳化剤、甘味料（カンゾウ、スクラロース）、（一部に小麦・乳成分・大豆を含む）</t>
   </si>
   <si>
     <t xml:space="preserve"> ぶどう糖、砂糖、イソマルトオリゴ糖、乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料、乳酸カルシウム</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、粉末卵、糖類）、スープ（みそ、食塩、糖類、ポークエキス、コチュジャン、植物油脂、豚脂、豆板醤、香辛料、香味食用油、調味油脂、たん白加水分解物）、かやく（ねぎ、鶏・豚味付肉そぼろ、コーン）、加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、カラメル色素、香料、クチナシ色素、かんすい、増粘剤（キサンタン）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、ビタミンＢ2、ビタミンＢ１、香辛料抽出物、（原材料の一部にごまを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、みそ、糖類）、スープ（豚脂、しょうゆ、食塩、糖類、ポークエキス、チキンエキス、たん白加水分解物、植物油脂、香辛料、酵母エキス）、かやく（チャーシュー、ねぎ）、加工でん粉、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、かんすい、レシチン、クチナシ色素、増粘剤（キサンタン）、香料、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に卵、乳成分を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩）、ソース（ソース、糖類、食塩、豚脂、植物油脂、香辛料、たん白加水分解物、香味調味料）、かやく（キャベツ）、カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、酸化防止剤（ビタミンＥ）、香料、増粘剤（キサンタン）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、大豆、りんご、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、大豆食物繊維）、スープ（しょうゆ、食塩、たん白加水分解物、ポークエキス、糖類、豚脂、植物油脂、かつお節エキス、酵母エキス、香辛料、煮干いわし粉末）、かやく（チャーシュー、メンマ、ナルト、ねぎ）、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、香料、かんすい、増粘剤（キサンタン）、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（原材料の一部に卵、乳成分を含む）</t>
-  </si>
-  <si>
-    <t>牛乳、砂糖、コーヒー、脱脂粉乳／乳化剤</t>
-  </si>
-  <si>
-    <t>牛乳、コーヒー、砂糖、脱脂粉乳／乳化剤、カゼインNa、甘味料（アセスルファムK、スクラロース）</t>
-  </si>
-  <si>
-    <t>牛乳、砂糖、コーヒー、加糖れん乳、クリーム/乳化剤、カゼインＮａ</t>
+    <t>コーングリッツ（国内製造）、植物油脂、でん粉、砂糖、食塩（アルペンザルツ８８％使用）、しょうゆパウダー、たん白加水分解物、チキンエキスパウダー、香辛料、鰹節エキスパウダー、香味油、スイートコーンパウダー／加工デンプン、調味料（アミノ酸等）、重曹、香料、（一部に小麦・乳成分・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、でん粉、ショートニング、乳糖、砂糖、チーズパウダー、食塩、ぶどう糖、たん白加水分解物、乳等を主要原料とする食品、クリーミングパウダー、酵母エキスパウダー、オニオンパウダー、香辛料、デキストリン、みそパウダー／加工デンプン、調味料（アミノ酸等）、香料、重曹、パプリカ色素、乳化剤、甘味料（スクラロース）、香辛料抽出物、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、でん粉、砂糖、しょうゆ、しょうゆパウダー、食塩、還元麦芽糖水あめ、たん白加水分解物、スイートコーンパウダー、デキストリン、チキンパウダー／加工デンプン、調味料（アミノ酸等）、重曹、香料、カラメル色素、甘味料（カンゾウ、スクラロース）、（一部に小麦・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、でん粉、砂糖、ショートニング、乳糖、食塩、ぶどう糖、スイートコーンパウダー、乳等を主要原料とする食品、果糖、たん白加水分解物、全粉乳、酵母エキスパウダー、オニオンパウダー、バターパウダー、パセリ／加工デンプン、調味料（アミノ酸等）、香料、重曹、紅花黄色素、乳化剤、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、スクラロース）、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖、ぶどう糖果糖液糖(国内製造)/炭酸ガス、酸味料、香料</t>
   </si>
   <si>
     <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料（赤色40号）</t>
   </si>
   <si>
+    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料（黄色4号、青色1号）</t>
+  </si>
+  <si>
+    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料(黄色4号）</t>
+  </si>
+  <si>
+    <t>砂糖・ぶどう糖果糖液糖/炭酸ガス、カラメル色素、酸味料、香料</t>
+  </si>
+  <si>
     <t>砂糖・ぶどう糖果糖液糖（国内製造）/炭酸ガス、酸味料、香料</t>
   </si>
   <si>
-    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料（青色1号）</t>
-  </si>
-  <si>
-    <t>砂糖混合ぶどう糖果糖液糖、食塩、香料 、酸味料、果実色素</t>
-  </si>
-  <si>
-    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料（黄色4号、赤色40号）</t>
+    <t>砂糖・ぶどう糖果糖液糖/炭酸ガス、酸味料、香料 、着色料（黄色4号、 青色1号）</t>
+  </si>
+  <si>
+    <t>砂糖・ぶどう糖果糖液糖（国内製造）/炭酸ガス、香料、酸味料、着色料（黄色4号）</t>
   </si>
   <si>
     <t>砂糖・ぶどう糖果糖液糖（国内製造）/炭酸ガス、香料、酸味料</t>
   </si>
   <si>
-    <t>小麦粉、砂糖、チョコレート（乳成分を含む）、ショートニング（大豆を含む）、還元水あめ、白練餡（生餡、砂糖、水あめ、還元麦芽水あめ）、ココアパウダー、大豆粉、鶏卵加工品（鶏卵、砂糖）、水あめ、脱脂粉乳、卵黄粉末（卵を含む）、全粉乳、でん粉分解物、カカオマス、食塩、酵母エキス／加工でん粉、乳化剤（大豆由来）、香料、膨張剤</t>
-  </si>
-  <si>
-    <t>水飴、砂糖、澱粉、餅粉、植物油、ソルビトール、乳化剤、香料、酸味料、着色料（赤１０６）</t>
-  </si>
-  <si>
-    <t>水飴、砂糖、澱粉、餅粉、植物油、ソルビトール、乳化剤、香料、酸味料、着色料（青１、黄４、赤２）</t>
-  </si>
-  <si>
-    <t>水飴、砂糖、でん粉（馬鈴薯）、植物油（パームヤシ）、ソルビトール、乳化剤（パームヤシ）、香料、酸味料、着色料（黄5）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、小麦全粒粉、食塩、小麦たん白、植物油脂、大豆食物繊維、たん白加水分解物）、スープ（しょうゆ、ポークエキス、動物油脂、唐辛子、糖類、香味油、粉末かつお節、たん白加水分解物、チキンエキス、ポーク調味油、しょうゆ調味料、デキストリン、食塩、ポークパウダー、ガーリックペースト）、かやく（ねぎ）／加工デンプン、調味料（アミノ酸等）、増粘剤（加工デンプン、増粘多糖類）、着色料（カラメル、クチナシ、パプリカ色素）、炭酸カルシウム、かんすい、乳化剤、香辛料抽出物、酸化防止剤（Ｖ.Ｅ）、香料、（一部に卵・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>牛乳（国内製造）、砂糖、コーヒー、食塩 / 香料、乳化剤、 カゼインNa、安定剤（カラギナン）</t>
-  </si>
-  <si>
-    <t>コーヒー（コーヒー豆（ブラジル又はベトナム（5%未満））） / 香料</t>
-  </si>
-  <si>
-    <t>牛乳（国内製造）、コーヒー、砂糖、食塩 / 香料、カゼインNa、乳化剤、安定剤（カラギナン）、甘味料（アセスルファムK）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ココナッツオイル、ショートニング、玄米粉、醤油風味シーズニング（大豆を含む）、ココナッツ、食塩、乳糖/膨張剤、調味料（アミノ酸）、乳化剤、カラメル色素</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ココナッツオイル、ショートニング、玄米粉、食塩、ココナッツ、梅干しエキスパウダー、コーンスターチ、乳糖/膨張剤、酸味料、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ホタテエキス、乳たん白）、スープ（食塩、ポークエキス、香辛料、たん白加水分解物、糖類、香味調味料、酵母エキス、しょうゆ、ローストオニオン粉末）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、炭酸マグネシウム、増粘多糖類、香料、酸化防止剤（ビタミンＥ）、カロチノイド色素、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料、香味油、たん白加水分解物、酵母エキス、しょうゆ、デキストリン、糖類、ローストオニオン粉末、香味調味料、植物油脂）、かやく（卵、豚・鶏味付肉、ニラ）/加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、カロチノイド色素、微粒二酸化ケイ素、乳化剤、酸化防止剤（ビタミンE）、酸味料、甘味料（スクラロース）、香辛料抽出物、ビタミンB2、ビタミンB1、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（みそ、糖類、豚脂、食塩、豚・鶏エキス、デキストリン、香辛料、たん白加水分解物、香味油、植物油脂、酵母エキス、とろみ粉末（でん粉、デキストリン、植物油脂）、ねぎ、ホタテエキス、香味調味料）、かやく（キャベツ、味付豚肉、コーン、人参）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、かんすい、カラメル色素、香料、炭酸マグネシウム、増粘多糖類、乳化剤、カロチノイド色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に卵・乳成分・小麦・えび・ごま・さば・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（食塩、ポークエキス、香辛料、トマトペースト、デキストリン、糖類、しょうゆ、たん白加水分解物、酵母エキス、ローストオニオン粉末、醸造酢、豚脂、香味調味料）、かやく（豚･鶏味付肉、卵、ニラ、赤唐辛子）／加工デンプン、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、かんすい、増粘多糖類、ソルビット、酒精、香料、グリセリン、カロチノイド色素、酸化防止剤（ビタミンＥ）、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩）、ソース（半固体状ドレッシング、しょうゆ、糖類、豚脂、食塩、ポークエキス、魚醤、魚介エキス、たん白加水分解物、香味調味料、香辛料）、かやく（キャベツ）、ふりかけ（たらこ加工品、香辛料、のり）／調味料（アミノ酸等）、炭酸カルシウム、酒精、かんすい、増粘剤（加工デンプン、キサンタンガム）、乳化剤、酸味料、カロチノイド色素、ベニコウジ色素、香料、酸化防止剤（ビタミンＥ）、香辛料抽出物、カラメル色素、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･かに･いか･さけ･さば･大豆･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵粉、米麹調味料（でん粉、米麹加工品、塩麹、食塩）、ポークエキス）、スープ（食塩、糖類、香辛料、豚脂、香味調味料、豚･鶏エキス、しょうゆ、たん白加水分解物、酵母エキス、しょうゆもろみ、ローストオニオン粉末、植物油脂）／加工デンプン、調味料（アミノ酸等）、膨張剤、酒精、かんすい、炭酸カルシウム、増粘剤（加工デンプン、増粘多糖類）、香料、カラメル色素、炭酸マグネシウム、カロチノイド色素、酸味料、酸化防止剤（ビタミンＥ）、乳化剤、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉･ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、植物油脂、食塩、でん粉、しょうゆ、植物性たん白、香味調味料）、スープ（食塩、しょうゆ、チキンオイル、糖類、豚脂、たん白加水分解物、香味調味料、香辛料、香味油、植物油脂、鶏肉エキス）、かやく（わかめ、卵、ごま）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、かんすい、カラメル色素、酒精、増粘多糖類、酸味料、乳化剤、香料、カロチノイド色素、微粒二酸化ケイ素、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部に卵･乳成分･小麦･えび･牛肉･ごま･さけ･さば･大豆･鶏肉･豚肉･ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造）、水あめ、ゼラチン、食用油脂／甘味料（ソルビトール）、酸味料、香料、ゲル化剤（ペクチン：オレンジ由来）、着色料（クチナシ、野菜色素）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（しょうゆ、チキンエキス、食塩、植物油、鶏脂、ポークエキス、香辛料、砂糖、野菜エキス、発酵調味料、たん白加水分解物、酵母エキス、ミート風味パウダー、香味油脂）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（みそ、ポークエキス、食塩、香辛料、香味油脂、野菜エキス、植物油、ラード、砂糖、発酵調味料、デーツ果汁、たん白加水分解物）／加工でん粉、調味料（アミノ酸等）、トレハロース、酒精、かんすい、炭酸カルシウム、カラメル色素、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（チキンエキス、食塩、ポークエキス、香味油脂、しょうゆ、野菜エキス、植物油、砂糖、香辛料、魚介エキス、たん白加水分解物、豚脂）／加工でん粉、調味料（アミノ酸等）、酒精、トレハロース、かんすい、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、増粘多糖類、香料、クチナシ色素、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（ポークエキス、しょうゆ、鶏脂、食塩、でん粉、砂糖、香辛料、たん白加水分解物、野菜エキス、植物油）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、カラメル色素、炭酸カルシウム、増粘多糖類、酒精、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、植物油脂、食塩、植物性たん白、卵白）、添付調味料（しょうゆ、ラード、魚介エキス、食塩、チキンエキス、ポークエキス、香味油脂、砂糖、香辛料、酵母エキス）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、（一部に小麦・卵・さば・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、食塩、チキンエキス、ラード、砂糖、香味油脂、たん白加水分解物、植物油、粉末野菜、ポークエキス、香辛料、ねぎ、酵母エキス、発酵調味料）、かやく（ワンタン、味付鶏挽肉、コーン）、加工でん粉、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、増粘多糖類、香料、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（みそ、ポークエキス、醤油、香味油脂、ラード、香辛料、植物油、砂糖、食塩、たん白加水分解物、酵母エキス、ねぎ、発酵調味料）、かやく（コーン、味付鶏挽肉）、加工でん粉、調味料（アミノ酸等）、カラメル色素、酒精、炭酸カルシウム、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、ｐＨ調整剤、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、ポークエキス、食塩、ラード、でん粉、植物油、香味油脂、砂糖、たん白加水分解物、香辛料、ねぎ、粉末煮干し）、かやく（焼豚、なると）、加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ、ビタミンＣ）、クチナシ色素、ｐＨ調整剤、カラメル色素、香料、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、鶏肉、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、かやく（ワンタン、味付鶏挽肉）、添付調味料（チキンエキス、香辛料、砂糖、食塩、粉末野菜、しょうゆ、ねぎ、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（チキンエキス、しょうゆ、食塩、植物油、発酵調味料、砂糖、野菜エキス、こんぶエキス、香辛料、酵母エキス、鶏脂、ラード、魚介エキス）、かやく（ワンタン、卵）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、かんすい、酸化防止剤（ビタミンＣ、ビタミンＥ）、レシチン、クチナシ色素、カラメル色素、増粘多糖類、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩、植物性たん白）、添付調味料（食塩、香辛料、チキンエキス、しょうゆ、酵母エキス、砂糖、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、酸味料、クチナシ色素、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩）、添付調味料（食塩、しょうゆ、デキストリン、チキンエキス、ポークエキス、香辛料（黒こしょう、ガーリックパウダー））／加工でん粉、カラメル色素、炭酸カルシウム、調味料（アミノ酸等）、かんすい、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、小麦粉、植物油脂、全粉乳、カカオマス、乳糖、ココアバター、ショートニング、ココアパウダー、加糖脱脂練乳、異性化液糖、生クリーム、食塩／乳化剤、膨脹剤、香料、着色料(カラメル)、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>麦芽、ホップ、大麦、コーン、糖類</t>
-  </si>
-  <si>
-    <t>発泡酒（国内製造）（麦芽、ホップ、大麦）、スピリッツ（大麦）</t>
-  </si>
-  <si>
-    <t>ビスケット(小麦粉, 砂糖, ショートニング, 植物油脂, その他)(国内製造), 準チョコレート(砂糖, 植物油脂, ココアパウダー, 全粉乳, 脱脂粉乳, その他)/乳化剤, 香料, カラメル色素, 膨脹剤, (一部に卵, 乳成分, 小麦を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, 全粉乳, ショートニング, ココアバター, マーガリ(乳成分を含む), 液全卵, イースト, 食用加工油脂(小麦を含む), カラメル粉末(乳成分を含む), 乳糖, キャラメル粉末(乳成分を含む), 洋酒, うるちひえパフ, 食塩, 液卵白(卵を含む), カカオマス, 水飴/ソルビトール, 卵殻未焼成カルシウム(卵由来), 酒精, 乳化剤(大豆由来), 香料(乳由来), イーストフード(小麦由来), トレハロース, ビタミンC, ビタミンD, 着色料(カロテン)</t>
-  </si>
-  <si>
-    <t>マルトース(国内製造), 水飴, もち粉, 植物油脂, 砂糖, 乳糖, デキストリン, 全粉乳, ココアバター, 脱脂粉乳, ココアパウダー, ホエイパウダー(乳成分を含む), コーヒー, 洋酒, クリーム(乳成分を含む), チーズ粉末/トレハロース, 乳化剤(大豆由来), 調味料(アミノ酸), 加工デンプン, 酒精, 香料, カゼインNa(乳由来)</t>
+    <t>糖類（果糖ぶどう糖液糖、砂糖）、酸味料、香料、ビタミンＣ</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖、桜の花エキス(国産)、炭酸、香料、酸味料、アントシアニン色素</t>
+  </si>
+  <si>
+    <t>エリスリトール、酸味料、香料、甘味料</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖、緑茶（静岡県産）、香料、 酸味料、ベニバナ黄色素、クチナシ青色素</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖、みそ、炭酸、カラメル色素、香料、酸味料、塩化ナトリウム、エルダベリー色素、カフェイン（抽出物）</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖、はるみ果汁（静岡県産）／炭酸、香料、カロテン色素、ビタミンC、酸味料、カフェイン（抽出物）</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖、酸味料、香料</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖、香料、酸味料</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、砂糖、ビスケット（小麦粉、砂糖、ショートニング、食塩）、カカオマス、小麦粉、全粉乳、乳糖、ココアバター、ココアパウダー、キャラメルパウダー、食塩、イースト／乳化剤、膨脹剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、カカオマス、植物油脂、全粉乳、小麦粉、乳糖、ココアバター、乾燥あんず加工品、ココアパウダー、イースト／乳化剤、酸味料、香料、イーストフード、重曹、リンゴ酸、パプリカ色素、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>焼酎（国内製造）、烏龍茶／香料、ビタミンＣ</t>
+  </si>
+  <si>
+    <t>レモンエキス、グレープフルーツエキス、オレンジエキス、ウォッカ／炭酸、酸味料、香料、甘味料（ステビア）、ビタミンC</t>
+  </si>
+  <si>
+    <t>焼酎、レモン、グレープフルーツ、香料、紅花色素</t>
+  </si>
+  <si>
+    <t>ぶどう、ぶどうエキス、ぶどうスピリッツ（国内製造）、焼酎、糖類／炭酸、香料、酸味料、アントシアニン色素</t>
+  </si>
+  <si>
+    <t>もも、ももエキス、ももスピリッツ（国内製造）、焼酎、糖類／炭酸、香料、酸味料</t>
+  </si>
+  <si>
+    <t>グレープフルーツ果汁、スピリッツ（国内製造）／炭酸、酸味料、甘味料（アセスルファムＫ、スクラロース）、香料</t>
+  </si>
+  <si>
+    <t>○ソーダ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、着色料（クチナシ、紅花黄）○オレンジ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、カロテノイド色素○グレープ味：砂糖（国内製造）、水飴（国内製造）、濃縮グレープ果汁／酸味料、香料、野菜色素、クチナシ色素○コーラ味：砂糖（国内製造）、水飴（国内製造）／酸味料、カラメル色素、香料</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 食塩, 植物油脂, 植物性たん白, 卵白), 添付調味料(しょうゆ, チキンエキス, 食塩, 植物油, 鶏脂, ポークエキス, 香辛料, 砂糖, 野菜エキス, 発酵調味料, たん白加水分解物, 酵母エキス, ミート風味パウダー, 香味油脂)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, 酒精, 炭酸カルシウム, レシチン, 酸化防止剤(ビタミンC, ビタミンE), カラメル色素, クチナシ色素, 増粘多糖類, 香料, 甘味料(カンゾウ), 香辛料抽出物, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 食塩, 植物性たん白, 植物油脂, 卵白), 添付調味料(みそ, ポークエキス, 食塩, 香辛料, 香味油脂, 野菜エキス, 植物油, ラード, 砂糖, 発酵調味料, デーツ果汁, たん白加水分解物)/加工でん粉, 調味料(アミノ酸等), トレハロース, 酒精, かんすい, 炭酸カルシウム, カラメル色素, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, (一部に小麦, 卵, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 食塩, 植物油脂, 植物性たん白, 卵白), 添付調味料(チキンエキス, 食塩, ポークエキス, 香味油脂, しょうゆ, 野菜エキス, 植物油, 砂糖, 香辛料, 魚介エキス, たん白加水分解物, 豚脂)/加工でん粉, 調味料(アミノ酸等), 酒精, トレハロース, かんすい, 炭酸カルシウム, レシチン, 酸化防止剤(ビタミンC, ビタミンE), 増粘多糖類, 香料, クチナシ色素, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 食塩, 植物性たん白, 植物油脂, 卵白), 添付調味料(ポークエキス, しょうゆ, 鶏脂, 食塩, でん粉, 砂糖, 香辛料, たん白加水分解物, 野菜エキス, 植物油)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, カラメル色素, 炭酸カルシウム, 増粘多糖類, 酒精, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 植物油脂, 食塩, 植物性たん白, 卵白), 添付調味料(しょうゆ, ラード, 魚介エキス, 食塩, チキンエキス, ポークエキス, 香味油脂, 砂糖, 香辛料, 酵母エキス)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, 酒精, 炭酸カルシウム, レシチン, 酸化防止剤(ビタミンC, ビタミンE), カラメル色素, クチナシ色素, 増粘多糖類, 香料, (一部に小麦, 卵, さば, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(醤油, 食塩, チキンエキス, ラード, 砂糖, 香味油脂, たん白加水分解物, 植物油, 粉末野菜, ポークエキス, 香辛料, ねぎ, 酵母エキス, 発酵調味料), かやく(ワンタン, 味付鶏挽肉, コーン), 加工でん粉, 調味料(アミノ酸等), カラメル色素, 炭酸カルシウム, 酒精, かんすい, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, 増粘多糖類, 香料, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, ごま, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(みそ, ポークエキス, 醤油, 香味油脂, ラード, 香辛料, 植物油, 砂糖, 食塩, たん白加水分解物, 酵母エキス, ねぎ, 発酵調味料), かやく(コーン, 味付鶏挽肉), 加工でん粉, 調味料(アミノ酸等), カラメル色素, 酒精, 炭酸カルシウム, かんすい, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, 香料, 香辛料抽出物, pH調整剤, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, ごま, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(醤油, ポークエキス, 食塩, ラード, でん粉, 植物油, 香味油脂, 砂糖, たん白加水分解物, 香辛料, ねぎ, 粉末煮干し), かやく(焼豚, なると), 加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, 増粘多糖類, 酒精, かんすい, レシチン, 酸化防止剤(ビタミンE, ビタミンC), クチナシ色素, pH調整剤, カラメル色素, 香料, ベニコウジ色素, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, 鶏肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), かやく(ワンタン, 味付鶏挽肉), 添付調味料(チキンエキス, 香辛料, 砂糖, 食塩, 粉末野菜, しょうゆ, ねぎ, 植物油)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, レシチン, クチナシ色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(チキンエキス, しょうゆ, 食塩, 植物油, 発酵調味料, 砂糖, 野菜エキス, こんぶエキス, 香辛料, 酵母エキス, 鶏脂, ラード, 魚介エキス), かやく(ワンタン, 卵)/加工でん粉, 調味料(アミノ酸等), 酒精, 炭酸カルシウム, かんすい, 酸化防止剤(ビタミンC, ビタミンE), レシチン, クチナシ色素, カラメル色素, 増粘多糖類, カロチン色素, ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 精製ラード, 食塩, 植物性たん白), 添付調味料(食塩, 香辛料, チキンエキス, しょうゆ, 酵母エキス, 砂糖, 植物油)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 酸化防止剤(ビタミンE), 酸味料, クチナシ色素, (一部に小麦, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 精製ラード, 食塩), 添付調味料(食塩, しょうゆ, デキストリン, チキンエキス, ポークエキス, 香辛料(黒こしょう, ガーリックパウダー))/加工でん粉, カラメル色素, 炭酸カルシウム, 調味料(アミノ酸等), かんすい, 酸化防止剤(ビタミンE), クチナシ色素, 香料, 香辛料抽出物, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, ホタテエキス, 乳たん白), スープ(食塩, ポークエキス, 香辛料, たん白加水分解物, 糖類, 香味調味料, 酵母エキス, しょうゆ, ローストオニオン粉末)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 炭酸マグネシウム, 増粘多糖類, 香料, 酸化防止剤(ビタミンE), カロチノイド色素, 酸味料, 甘味料(スクラロース), ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 卵粉, しょうゆ), スープ(食塩, 豚脂, ポークエキス, 香辛料, 香味油, たん白加水分解物, 酵母エキス, しょうゆ, デキストリン, 糖類, ローストオニオン粉末, 香味調味料, 植物油脂), かやく(卵, 豚, 鶏味付肉, ニラ)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 香料, 増粘多糖類, ソルビット, グリセリン, カロチノイド色素, 微粒二酸化ケイ素, 乳化剤, 酸化防止剤(ビタミンE), 酸味料, 甘味料(スクラロース), 香辛料抽出物, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 卵粉, しょうゆ), スープ(みそ, 糖類, 豚脂, 食塩, 豚, 鶏エキス, デキストリン, 香辛料, たん白加水分解物, 香味油, 植物油脂, 酵母エキス, とろみ粉末(でん粉, デキストリン, 植物油脂), ねぎ, ホタテエキス, 香味調味料), かやく(キャベツ, 味付豚肉, コーン, 人参)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, カラメル色素, 香料, 炭酸マグネシウム, 増粘多糖類, 乳化剤, カロチノイド色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, ごま, さば, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), スープ(食塩, ポークエキス, 香辛料, トマトペースト, デキストリン, 糖類, しょうゆ, たん白加水分解物, 酵母エキス, ローストオニオン粉末, 醸造酢, 豚脂, 香味調味料), かやく(豚, 鶏味付肉, 卵, ニラ, 赤唐辛子)/加工デンプン, 調味料(アミノ酸等), カラメル色素, 炭酸カルシウム, かんすい, 増粘多糖類, ソルビット, 酒精, 香料, グリセリン, カロチノイド色素, 酸化防止剤(ビタミンE), 酸味料, 甘味料(スクラロース), ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩), ソース(半固体状ドレッシング, しょうゆ, 糖類, 豚脂, 食塩, ポークエキス, 魚醤, 魚介エキス, たん白加水分解物, 香味調味料, 香辛料), かやく(キャベツ), ふりかけ(たらこ加工品, 香辛料, のり)/調味料(アミノ酸等), 炭酸カルシウム, 酒精, かんすい, 増粘剤(加工デンプン, キサンタンガム), 乳化剤, 酸味料, カロチノイド色素, ベニコウジ色素, 香料, 酸化防止剤(ビタミンE), 香辛料抽出物, カラメル色素, 炭酸マグネシウム, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, かに, いか, さけ, さば, 大豆, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 食塩, 植物油脂, 植物性たん白, 卵粉, 米麹調味料(でん粉, 米麹加工品, 塩麹, 食塩), ポークエキス), スープ(食塩, 糖類, 香辛料, 豚脂, 香味調味料, 豚, 鶏エキス, しょうゆ, たん白加水分解物, 酵母エキス, しょうゆもろみ, ローストオニオン粉末, 植物油脂)/加工デンプン, 調味料(アミノ酸等), 膨張剤, 酒精, かんすい, 炭酸カルシウム, 増粘剤(加工デンプン, 増粘多糖類), 香料, カラメル色素, 炭酸マグネシウム, カロチノイド色素, 酸味料, 酸化防止剤(ビタミンE), 乳化剤, (一部に卵, 乳成分, 小麦, えび, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 植物油脂, 食塩, でん粉, しょうゆ, 植物性たん白, 香味調味料), スープ(食塩, しょうゆ, チキンオイル, 糖類, 豚脂, たん白加水分解物, 香味調味料, 香辛料, 香味油, 植物油脂, 鶏肉エキス), かやく(わかめ, 卵, ごま)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, カラメル色素, 酒精, 増粘多糖類, 酸味料, 乳化剤, 香料, カロチノイド色素, 微粒二酸化ケイ素, 甘味料(スクラロース), ビタミンB2, ビタミンB1, 香辛料抽出物, (一部に卵, 乳成分, 小麦, えび, 牛肉, ごま, さけ, さば, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, しょうゆ, 食塩, 香辛料), ソース(糖類, 香辛料, 食塩, 粉末しょうゆ, チキン調味料, ごま, 酵母エキス, 野菜調味油)/加工でん粉, 乳化剤, 調味料(アミノ酸等), 炭酸Ca, カラメル色素, かんすい, ベニコウジ色素, カロチノイド色素, 香料, 香辛料抽出物, 酸味料, 甘味料(カンゾウ, スクラロース), 増粘剤(グァーガム), 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (一部に小麦, 乳成分, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ, サイリウム種皮, 大豆食物繊維, チキンエキス, チキン調味料), スープ(香辛料, 糖類, 食塩, 粉末みそ, 唐辛子みそ, 魚醤, ポーク調味料, 魚介調味料, にぼし粉末, 酵母エキス, 乳化油脂, 粉末しょうゆ, たん白加水分解物)/加工でん粉, 調味料(アミノ酸等), 炭酸Ca, かんすい, 増粘剤(キサンタンガム), カラメル色素, 香料, 香辛料抽出物, 酸化防止剤(ビタミンE), 乳化剤, 甘味料(アセスルファムK, スクラロース), ビタミンB2, ビタミンB1, 酸味料, (一部に小麦, 乳成分, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 小麦全粒粉, 食塩, 小麦たん白, 植物油脂, 大豆食物繊維, たん白加水分解物), スープ(しょうゆ, ポークエキス, 動物油脂, 唐辛子, 糖類, 香味油, 粉末かつお節, たん白加水分解物, チキンエキス, ポーク調味油, しょうゆ調味料, デキストリン, 食塩, ポークパウダー, ガーリックペースト), かやく(ねぎ)/加工デンプン, 調味料(アミノ酸等), 増粘剤(加工デンプン, 増粘多糖類), 着色料(カラメル, クチナシ, パプリカ色素), 炭酸カルシウム, かんすい, 乳化剤, 香辛料抽出物, 酸化防止剤(V.E), 香料, (一部に卵, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>チョコレート(砂糖, 全粉乳, 植物油脂, ココアバター, カカオマス, 乳糖), ウエハース(小麦粉, 砂糖, でんぷん, 植物油脂, 食塩)/加工でんぷん, 乳化剤(大豆由来), 貝カルシウム, 香料, 着色料(カラメル), 膨張剤</t>
+  </si>
+  <si>
+    <t>チョコレート(乳糖, ココアバター, 砂糖, 植物油脂, 全粉乳, 乾燥いちご), ウエハース(小麦粉, 砂糖, でんぷん, 植物油脂, 食塩)/加工でんぷん, 香料, 乳化剤(大豆由来), 着色料(アカビート, 紅麹)貝カルシウム, 膨張剤, 酸味料</t>
+  </si>
+  <si>
+    <t>&lt;パインアップル	&gt;ぶどう糖(国内製造), でん粉/加工でん粉, 酸味料, 乳化剤, 紅花色素, 香料&lt;メロン&gt;ぶどう糖(国内製造), でん粉/加工でん粉, 酸味料, 乳化剤, 香料, 着色料(紅花黄, クチナシ)&lt;コーラ&gt;ぶどう糖(国内製造), でん粉/加工でん粉, 酸味料, 乳化剤, カラメル色素, 香料&lt;ソーダ&gt;ぶどう糖(国内製造), でん粉/加工でん粉, 酸味料, 乳化剤, 香料&lt;ぶどう&gt;ぶどう糖(国内製造), でん粉/加工でん粉, 酸味料, 乳化剤, 香料, 着色料(野菜色素, クチナシ)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 植物油脂, 全粉乳, でん粉, カカオマス, ショートニング, 加糖れん乳, ココアパウダー, クリームパウダー, モルトエキス, 食塩, ココアバター, 大豆胚芽エキス/膨脹剤, 乳化剤, 香料</t>
+  </si>
+  <si>
+    <t>コーンパフ(コーングリッツ, 砂糖, 植物油脂, 水あめ, ココアパウダー, 食塩)(国内製造), 砂糖, 植物油脂, カカオマス, 乳糖, 全粉乳, ココアバター, 水あめ/光沢剤, 増粘剤(アラビアガム), 乳化剤(大豆由来), 香料, カラメル色素</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造又は韓国製造), 小麦粉, 植物油脂, 全粉乳, 乳糖, カカオマス, ホエイパウダー, クッキークランチ, ココアパウダー, でん粉, ショートニング, 食塩/乳化剤(大豆由来), カラメル色素, 膨脹剤, 香料</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), ぶどう糖, 水あめ, ゼラチン, ウーロン茶抽出物/ガムベース, 酸味料, 軟化剤, 香料, ビタミンC, クチナシ色素</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (青リンゴ)砂糖(国内製造), 水飴, ゼラチン, 果糖ぶどう糖液糖, 濃縮青リンゴ果汁/酸味料, ゲル化剤(ペクチン), 香料, 光沢剤, 着色料(黄色4号, 青色1号), (一部にりんご, ゼラチンを含む) (レモン)砂糖(国内製造), 水飴, ゼラチン, 果糖ぶどう糖液糖, 濃縮レモン果汁/酸味料, 香料, ゲル化剤(ペクチン), 光沢剤, 着色料(黄色4号), (一部にゼラチンを含む) (グレープ)砂糖(国内製造), 水飴, ゼラチン, 果糖ぶどう糖液糖, 濃縮グレープ果汁/酸味料, 香料, ゲル化剤(ペクチン), 光沢剤, 甘味料(アセスルファムK, ステビア), 着色料(赤色40号, 青色1号), (一部にゼラチンを含む) (イチゴ)砂糖(国内製造), 水飴, ゼラチン, 果糖ぶどう糖液糖, 濃縮イチゴ果汁/酸味料, ゲル化剤(ペクチン), 香料, 光沢剤, 着色料(赤色40号), (一部にゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, 食塩/乳化剤, 調味料(アミノ酸)</t>
+  </si>
+  <si>
+    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, コンソメシーズニング(チキンエキスパウダー, ぶどう糖, 食塩, 砂糖, オニオンパウダー, 野菜エキスパウダー, 酵母エキスパウダー, デキストリン, 乳糖, 香辛料, たん白加水分解物, 植物油脂), 砂糖, オニオンパウダー, 食塩, 香辛料/調味料(アミノ酸等), 乳化剤, パプリカ色素, 加工デンプン, 香料, 酸味料, 甘味料(カンゾウ), 香辛料抽出物, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, ラード, しょうゆ, 食塩, 香辛料), 添付調味料(糖類, たん白加水分解物, 食塩, しょうゆ, 醸造酢, ポークエキス, 植物油脂, りんご, 香辛料, トマト, 野菜エキス, でん粉), かやく(キャベツ, 味付け鶏ひき肉), 調味料(アミノ酸等), 酒精, カラメル色素, パプリカ色素, 香辛料抽出物, 増粘剤(グァーガム), かんすい, 酸化防止剤(ビタミンE, ローズマリー抽出物), 甘味料(ステビア, カンゾウ), 重曹, ビタミンB2</t>
+  </si>
+  <si>
+    <t>小麦粉, 砂糖, チョコレート(乳成分を含む), ショートニング(大豆を含む), 還元水あめ, 白練餡(生餡, 砂糖, 水あめ, 還元麦芽水あめ), ココアパウダー, 大豆粉, 鶏卵加工品(鶏卵, 砂糖), 水あめ, 脱脂粉乳, 卵黄粉末(卵を含む), 全粉乳, でん粉分解物, カカオマス, 食塩, 酵母エキス/加工でん粉, 乳化剤(大豆由来), 香料, 膨張剤</t>
+  </si>
+  <si>
+    <t>砂糖混合ぶどう糖果糖液糖, 酸味料, 香料, 着色料(青色1号)</t>
+  </si>
+  <si>
+    <t>砂糖混合ぶどう糖果糖液糖, 酸味料, 香料, 着色料(黄色4号, 赤色40号)</t>
+  </si>
+  <si>
+    <t>砂糖混合ぶどう糖果糖液糖, 食塩, 香料, 酸味料, 果実色素</t>
+  </si>
+  <si>
+    <t>植物油脂(国内製造), 砂糖, ビスケット(小麦粉, 砂糖, ショートニング, ココアパウダー, 食塩), 小麦粉, カカオマス, 乳糖, 全粉乳, ココアバター, ココアパウダー, イースト/乳化剤, 膨脹剤, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), 全粒粉ビスケット(小麦粉, 砂糖, ショートニング, 小麦全粒粉, 食塩), 小麦粉, 乳糖, 植物油脂, 砂糖, ココアパウダー, 全粉乳, カカオマス, イースト, ココアバター/乳化剤, 膨脹剤, カラメル色素, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), ビスケット(小麦粉, 砂糖, ショートニング, 食塩), 小麦粉, 植物油脂, 乳糖, 抹茶, 砂糖, ココアパウダー, 緑茶, 全粉乳, カカオマス, イースト, ココアバター/乳化剤, 膨脹剤, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), ビスケット(小麦粉, 砂糖, ショートニング, 食塩), 小麦粉, 乳糖, 植物油脂, 砂糖, いちご果汁パウダー, 乾燥いちご加工品, イースト, ココアパウダー, 全粉乳, カカオマス, ココアバター/乳化剤, 酸味料, 膨脹剤, 香料, 着色料(赤ビート, 紅麹), 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>カカオマス(コートジボワール製造又は国内製造又はその他), 砂糖, 小麦粉, ココアバター, 乳糖, ココアパウダー, 植物油脂, カカオニブ, 全粉乳, イースト/乳化剤, 重曹, イーストフード, 香料, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造, 国内製造), 全粉乳, 乳糖, カカオマス, 小麦粉, 植物油脂, ココアバター, オレンジ果汁パウダー, イースト, ココアパウダー/乳化剤, 香料, 酸味料, 重曹, イーストフード, (一部に小麦, 乳成分, オレンジ, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>準チョコレート(砂糖, 乳糖, 植物油脂, 全粉乳, ココアバター)(国内製造), 小麦粉, 植物油脂, 乳糖, 砂糖, ナチュラルチーズ, 食塩, イースト, ココアパウダー, 全粉乳, カカオマス, ココアバター/乳化剤, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む</t>
+  </si>
+  <si>
+    <t>カカオマス(コートジボワール製造又は国内製造又はその他), 砂糖, 小麦粉, 乳糖, 植物油脂, ココアバター, カカオニブ, ココアパウダー, 全粉乳, イースト/乳化剤, アラビアガム, 光沢剤, 重曹, イーストフード, 香料, (一部に小麦, 乳成分, 大豆を含む</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造, 国内製造), 全粉乳, 乳糖, 小麦粉, 植物油脂, カカオマス, ココアバター, ココアパウダー, イースト/乳化剤, アラビアガム, 光沢剤, 重曹, イーストフード, 香料, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造, 国内製造), 全粉乳, 乳糖, 植物油脂, 小麦粉, カカオマス, ココアバター, いちご果汁パウダー, イースト, ココアパウダー/乳化剤, 酸味料, アラビアガム, 香料, 光沢剤, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造, 国内製造), 乳糖, 小麦粉, 全粉乳, 植物油脂, ビスケット(小麦粉, 砂糖, ショートニング, ココアパウダー, 食塩), カカオマス, ココアバター, ココアパウダー, イースト/乳化剤, アラビアガム, 膨張剤, 光沢剤, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(遺伝子組換えでない)(国内製造), 植物油, デキストリン, 砂糖, 食塩, ぶどう糖, チーズパウダー, 酵母エキスパウダー, たんぱく質濃縮ホエイパウダー, 赤唐辛子パウダー, オニオンパウダー/香料, 調味料(アミノ酸等), 着色料(カロチノイド, カラメル), 酸味料, (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>コーン(遺伝子組換えでない)(米国産), 植物油, 砂糖, 粉末醤油, ぶどう糖, 食塩, オニオンパウダー, 香辛料, ポークエキスパウダー, 酵母エキスパウダー/調味料(アミノ酸等), 香料, 着色料(カラメル, カロチノイド), 甘味料(アセスルファムK, ステビア, カンゾウ), 酸味料, (一部に小麦, ごま, 大豆, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(遺伝子組換えでない)(国内製造), 植物油, 砂糖, 粉末醤油, ぶどう糖, たん白加水分解物, オニオンパウダー, 食塩, 酵母エキスパウダー, ビーフエキス調味料, ブラックペッパー/調味料(アミノ酸等), 着色料(カラメル, カロチノイド), 香料, 酸味料, 甘味料(アスパルテーム, Lーフェニルアラニン化合物, スクラロース), 香辛料抽出物, (一部に小麦, 牛肉, ごま, 大豆, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, 粉末卵, 糖類), スープ(みそ, 食塩, 糖類, ポークエキス, コチュジャン, 植物油脂, 豚脂, 豆板醤, 香辛料, 香味食用油, 調味油脂, たん白加水分解物), かやく(ねぎ, 鶏, 豚味付肉そぼろ, コーン), 加工でん粉, 調味料(アミノ酸等), 酒精, 炭酸カルシウム, カラメル色素, 香料, クチナシ色素, かんすい, 増粘剤(キサンタン), 酸味料, 酸化防止剤(ビタミンE, ローズマリー抽出物), ビタミンB2, ビタミンB1, 香辛料抽出物, (原材料の一部にごまを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, みそ, 糖類), スープ(豚脂, しょうゆ, 食塩, 糖類, ポークエキス, チキンエキス, たん白加水分解物, 植物油脂, 香辛料, 酵母エキス), かやく(チャーシュー, ねぎ), 加工でん粉, 調味料(アミノ酸等), 酒精, カラメル色素, 炭酸カルシウム, かんすい, レシチン, クチナシ色素, 増粘剤(キサンタン), 香料, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (原材料の一部に卵, 乳成分を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, 食塩), ソース(ソース, 糖類, 食塩, 豚脂, 植物油脂, 香辛料, たん白加水分解物, 香味調味料), かやく(キャベツ), カラメル色素, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, 酸味料, 酸化防止剤(ビタミンE), 香料, 増粘剤(キサンタン), ビタミンB2, ビタミンB1, (原材料の一部に乳成分, 大豆, りんご, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, 大豆食物繊維), スープ(しょうゆ, 食塩, たん白加水分解物, ポークエキス, 糖類, 豚脂, 植物油脂, かつお節エキス, 酵母エキス, 香辛料, 煮干いわし粉末), かやく(チャーシュー, メンマ, ナルト, ねぎ), 調味料(アミノ酸等), 酒精, カラメル色素, 炭酸カルシウム, 香料, かんすい, 増粘剤(キサンタン), レシチン, クチナシ色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, ベニコウジ色素, (原材料の一部に卵, 乳成分を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, でん粉, 食塩, しょうゆ, たん白加水分解物), スープ(糖類, 食塩, しょうゆ, 貝エキス, 野菜粉末, チキンエキス, ポークエキス, えびエキス, 香辛料, たん白加水分解物), かやく(かまぼこ, コーン)/調味料(アミノ酸等), 加工でん粉, 炭酸カルシウム, カラメル色素, かんすい, 増粘多糖類, 酸味料, 酸化防止剤(ビタミンE), クチナシ色素, イカスミ色素, ビタミンB2, ビタミンB1, ベニコウジ色素, (一部にえび, 小麦, 乳成分, いか, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>麦芽(外国製造又は国内製造(5%未満)), ホップ, 米, コーン, スターチ</t>
+  </si>
+  <si>
+    <t>麦芽, ホップ</t>
+  </si>
+  <si>
+    <t>発泡酒(国内製造)(麦芽, ホップ, 大麦), スピリッツ(大麦)</t>
+  </si>
+  <si>
+    <t>発泡酒(国内製造)(麦芽(大麦麦芽, 小麦麦芽), ホップ, 大麦, コリアンダーシード, オレンジピール), スピリッツ(大麦)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), ぶどう糖, 水あめ, 還元水あめ/ガムベース, 酸味料, 香料</t>
+  </si>
+  <si>
+    <t>ぶどう糖, 砂糖, イソマルトオリゴ糖, でん粉, 乳化剤, 酸味料, 糊料(プルラン), 乳酸カルシウム, アントシアニン色素, 香料</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造), 砂糖/乳化剤, 酸味料, 糊料(プルラン, 加工でん粉), 香料, カラメル色素</t>
+  </si>
+  <si>
+    <t>(レモン味)砂糖(国内製造), 水飴, 濃縮レモン果汁, ハーブエキス(オレンジを含む)
+(ピーチ味)砂糖(国内製造), 水飴, 濃縮ピーチ果汁, ハーブエキス(オレンジを含む)
+(グレープ味)砂糖(国内製造), 水飴, 濃縮グレープ果汁, ハーブエキス(オレンジを含む)
+(オレンジ味)砂糖(国内製造), 水飴, 濃縮オレンジ果汁, ハーブエキス(オレンジを含む)
+(青りんご味)砂糖(国内製造), 水飴, 濃縮りんご果汁, ハーブエキス(オレンジを含む)</t>
+  </si>
+  <si>
+    <t>ぶどう糖, 砂糖, でん粉, ゼラチン, 酸味料, 乳化剤, 光沢剤, 香料, 着色料(クチナシ, 野菜色素, カロチノイド), 糊料(アラビアガム)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), スープ(粉末みそ, みそ, 砂糖, 食塩, でん粉, 香辛料, ポークエキス, ポーク調味料, 豚脂, 乳化油脂, 酵母エキス, みそ加工品, 香味調味料, たん白加水分解物, 魚介エキス, 植物油脂), かやく(大豆加工品, メンマ, ねぎ, 唐辛子)/加工でん粉, 調味料(アミノ酸等), 炭酸Ca, 香料, 酒精, 増粘多糖類, カラメル色素, カロチノイド色素, かんすい, 酸化防止剤(ビタミンE), 微粒二酸化ケイ素, 甘味料(カンゾウ), 酸味料, 香辛料抽出物, ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>砂糖類(砂糖, ぶどう糖), 高麗人参根エキス, L‐カルニチンL‐酒石酸塩, 塩化Na, ガラナ種子エキス, クエン酸, 香料, 甘味料(D‐リボース, スクラロース), L‐アルギニン, クエン酸Na, カフェイン, 保存料(安息香酸), ナイアシン, 着色料(アントシアニン), イノシトール, V.B6, V.B2, V.B12</t>
+  </si>
+  <si>
+    <t>果実(りんご, オレンジ, グァバ, パインアップル, パッションフルーツ), 砂糖類(砂糖, ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒石酸塩, 植物油, 塩化Na, ガラナ種子エキス/炭酸, クエン酸, 香料, 保存料(安息香酸Na), Lーアルギニン, クエン酸Na, カフェイン, 甘味料(スクラロース), ナイアシン, イノシトール, ビタミンB6, ビタミンB2, 着色料(βーカロテン), ビタミンB12</t>
+  </si>
+  <si>
+    <t>砂糖, 植物油脂, コーングリッツ(遺伝子組換えでない), パン粉, マーガリン, ココアパウダー, 加糖れん乳, カラメルソース, 食塩, クリーム(乳製品), 発酵風味パウダー, 乳糖, カカオマス, 全粉乳, クリーム粉末, 卵殻未焼成Ca, カラメル色素, 香料, 乳化剤, トレハロース, (原材料の一部に大豆を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(遺伝子組換えでない), 砂糖, 植物油脂, マーガリン, ココアパウダー, 加糖れん乳, カラメルソース, 食塩, クリーム(乳製品), 発酵風味パウダー, 乳糖, カカオマス, 全粉乳, たんぱく加水分解物, クリーム粉末, カラメル色素, 卵殻未焼成Ca, 香料, 乳化剤, トレハロース, (原材料の一部に小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>〈グレープ〉砂糖(国内製造), 水あめ, グレープペースト/酸味料, 香料, 着色料(アントシアニン, クチナシ), チャ抽出物〈オレンジ〉砂糖(国内製造), 水あめ, オレンジペースト/酸味料, 香料, 着色料(カロテノイド), チャ抽出物〈ストロベリー〉砂糖(国内製造), 水あめ, ストロベリーペースト/酸味料, 香料, 着色料(アントシアニン, カロテノイド), チャ抽出物〈メロン〉砂糖(国内製造), 水あめ, 濃縮メロン果汁/酸味料, 着色料(紅麹, クチナシ), 香料, チャ抽出物</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 加糖練乳, 上白糖, 生クリーム(乳成分を含む), 植物油脂, 牛乳, 食塩/乳化剤</t>
+  </si>
+  <si>
+    <t>ブドウ糖(国内製造), 澱粉/酸味料, 乳化剤, 香料</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, しょうゆ, 砂糖, 食塩, チキンエキス, たんぱく加水分解物, ミート調味エキス, ミート調味パウダー, 酵母エキスパウダー, ポークパウダー, 魚介パウダー/加工デンプン, 調味料(アミノ酸等), 炭酸Ca, 酸化防止剤(ビタミンE), (一部に小麦, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, ソース(砂糖, 野菜, 果実, 醸造酢, 食塩, アミノ酸液, その他), 砂糖, 食塩, ソース風味パウダー, 香辛料, アオサ粉, 野菜パウダー, ミート調味エキス, 野菜エキス, 魚介エキス, 魚醤パウダー(魚介類)/加工デンプン, 調味料(アミノ酸等), 炭酸Ca, 香料, カラメル色素, 乳化剤, 酸味料, 酸化防止剤(ビタミンE), 香辛料抽出物, (一部に小麦, 卵, 乳成分, 魚醤パウダー(魚介類), 牛肉, さば, 大豆, 鶏肉, 豚肉, もも, りんごを含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造又は外国製造), 小麦粉, 植物油脂, カカオマス, でん粉, ショートニング, 乳糖, 全粉乳, 液卵, ホエイパウダー, クリームパウダー, 脱脂粉乳, 食塩, ココアパウダー, ココアバター/炭酸Ca, 膨脹剤, カラメル色素, 乳化剤(大豆由来), 香料</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 小麦粉, 植物油脂, 乳糖, でん粉, ショートニング, ココアバター, 全粉乳, ホエイパウダー, 液卵, マルチトール, ストロベリーパウダー, クリームパウダー, 食塩/炭酸Ca, 膨脹剤, 着色料(カラメル, 紅麹, アカビート), 香料, 乳化剤(大豆由来)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造, 外国製造), 小麦粉, 植物油脂, 乳糖, でん粉, ショートニング, ココアバター, 全粉乳, ホエイパウダー, 液卵, 小麦全粒粉, 乳等を主要原料とする食品(はっ酵バター, 植物油脂, バターオイル, 脱脂粉乳, 食塩), 脱脂粉乳, クリームパウダー, 食塩/膨脹剤, カラメル色素, 香料, 乳化剤(大豆由来)</t>
   </si>
   <si>
     <t>小麦粉(国内製造), 砂糖, カカオマス, 全粉乳, 植物油脂, ショートニング, マーガリン(乳成分を含む), 乳糖, バター, ココアバター, 脱脂粉乳, 加糖練乳, 液全卵, うるちひえパフ, ごま, ぶどう糖, 食塩, 乾燥卵白(卵を含む)/リン酸Ca, 乳化剤(大豆由来), 膨脹剤, 香料(乳由来), 着色料(カロテノイド), ビタミンD</t>
   </si>
   <si>
-    <t>落花生(アメリカ産), 乾燥ポテト, 植物油脂, 唐辛子パウダー, 食塩, ガーリックパウダー, オニオンパウダー, 砂糖, 酵母エキスパウダー, ガーリック風味パウダー, たんぱく加水分解物, ブドウ糖, 野菜エキスパウダー, チリパウダー, チキンパウダー, 乳糖, ホワイトペッパーパウダー, クミンパウダー, パプリカパウダー, オリゴ糖, ハバネロペースト/加工澱粉, 調味料(アミノ酸等), 炭酸Ca, 香料, カロチノイド色素, 酸化防止剤(ビタミンE), 香辛料抽出物, 酸味料, カラメル色素, (一部に乳成分, 小麦, 落花生, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>乾燥ポテト(外国製造), 植物油脂, 唐辛子パウダー, 食塩, ガーリックパウダー, オニオンパウダー, 砂糖, 酵母エキスパウダー, ガーリック風味パウダー, たんぱく加水分解物, ブドウ糖, 野菜エキスパウダー, チリパウダー, チキンパウダー, 乳糖, ホワイトペッパーパウダー, クミンパウダー, パプリカパウダー, ハバネロペースト/加工澱粉, 調味料(アミノ酸等), 炭酸Ca, 香料, カロチノイド色素, 酸化防止剤(ビタミンE), 香辛料抽出物, 酸味料, カラメル色素, (一部に乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>乾燥ポテト(外国製造), 植物油脂, 食塩, 砂糖, ポテト風味パウダー(デキストリン, 食塩, ポテトパウダー, 醤油風味調味料, 酵母エキスパウダー, 粉末香味油, ビーフ風味パウダー, 香味油), ブドウ糖, 粉末油脂, ビーフ風味パウダー(ビーフエキスパウダー, 食塩, たんぱく加水分解物, ビーフ風味調味料, 乳糖, 野菜エキスパウダー, 香辛料), 澱粉, 酵母エキスパウダー/加工澱粉, トレハロース, 調味料(アミノ酸等), 増粘剤(カードラン), 炭酸Ca, 香料, 甘味料(スクラロース), 酸化防止剤(ビタミンE), 酸味料, (一部に乳成分, 小麦, 牛肉, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>乾燥ポテト(外国製造), 植物油脂, サワークリームオニオン風味パウダー(食塩, ホエイパウダー(乳製品), 砂糖, オニオンパウダー, 粉末酢, たんぱく加水分解物, ねぎエキスパウダー, デキストリン, 酵母エキスパウダー), 食塩, オニオンパウダー, 粉末油脂, 砂糖, 澱粉/加工澱粉, トレハロース, 調味料(アミノ酸等), 増粘剤(カードラン), 酸味料, 香料, 炭酸Ca, 香辛料抽出物, 甘味料(スクラロース, ステビア), 酸化防止剤(ビタミンE), (一部に乳成分を含む)</t>
-  </si>
-  <si>
-    <t>乾燥ポテト(外国製造), 植物油脂, コーングリッツ, 小麦粉, 粉末油脂, 食塩(鳴門の焼塩59%), 砂糖, ビーフオイル, デキストリン, ブドウ糖, 酵母エキスパウダー/トレハロース, セルロース, 調味料(アミノ酸等), 香料, 卵殻Ca, 増粘剤(カードラン), 乳酸Ca, 塩化Ca, 炭酸Ca, (一部に卵, 小麦を含む)</t>
-  </si>
-  <si>
-    <t>乾燥ポテト(外国製造), 植物油脂(パーム油, ヤシ油, 米油, ごま油), コーングリッツ, 小麦粉, 粉末油脂, 食塩, 砂糖, あおさ, 酵母エキスパウダー, 調味パウダー(食塩, ブドウ糖, 酵母エキスパウダー), 青のり, 唐辛子パウダー/トレハロース, セルロース, 調味料(アミノ酸等), 香料, 卵殻Ca, 増粘剤(カードラン), 乳酸Ca, 塩化Ca, 炭酸Ca, (一部に卵, 小麦, えび, かに, ごまを含む)</t>
-  </si>
-  <si>
-    <t>砂糖, 植物油脂, コーングリッツ(遺伝子組換えでない), パン粉, マーガリン, ココアパウダー, 加糖れん乳, カラメルソース, 食塩, クリーム(乳製品), 発酵風味パウダー, 乳糖, カカオマス, 全粉乳, クリーム粉末, 卵殻未焼成Ca, カラメル色素, 香料, 乳化剤, トレハロース, (原材料の一部に大豆を含む)</t>
-  </si>
-  <si>
-    <t>乾燥ポテト(遺伝子組換えでない), 植物油脂, コーンパウダー(遺伝子組換えでない), 砂糖, ショートニング, 澱粉, 食塩, チーズパウダー, バターパウダー, ブドウ糖, 発酵調味パウダー, 酵母エキスパウダー, オニオンパウダー, ほうれん草パウダー, デキストリン, キャロットエキスパウダー, 小麦粉, キャベツパウダー, 粉末醤油, チキンエキスパウダー/加工澱粉, トレハロース, 乳化剤, 塩化Ca, 調味料(アミノ酸等), 炭酸Ca, 乳酸Ca, 香料, カラメル色素, カロチノイド色素, (一部に乳成分, 小麦, 大豆, 鶏肉を含む)</t>
-  </si>
-  <si>
-    <t>コーングリッツ(遺伝子組換えでない), 砂糖, 植物油脂, マーガリン, ココアパウダー, 加糖れん乳, カラメルソース, 食塩, クリーム(乳製品), 発酵風味パウダー, 乳糖, カカオマス, 全粉乳, たんぱく加水分解物, クリーム粉末, カラメル色素, 卵殻未焼成Ca, 香料, 乳化剤, トレハロース, (原材料の一部に小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖(国内製造), 食塩, 高麗人参エキス, 調製ローヤルゼリー, ガラナ, マカ/炭酸, 酸味料, 香料, V.C, 甘味料(アセスルファムK, アスパルテーム, Lーフェニルアラニン化合物), カロテン色素, カフェイン, アルギニン, アラニン, グリシン, ロイシン, ナイアシン, イソロイシン, バリン, V.B6</t>
-  </si>
-  <si>
-    <t>牛乳, コーヒー, 砂糖, 脱脂粉乳, 全粉乳, デキストリン, カゼインNa, 乳化剤, 香料, 酸化防止剤(ビタミンC)</t>
-  </si>
-  <si>
-    <t>牛乳, コーヒー, 砂糖, 全粉乳, デキストリン/乳化剤, カゼインNa, 香料, 酸化防止剤(ビタミンC), 甘味料(アセスルファムK, スクラロース)</t>
-  </si>
-  <si>
-    <t>コーヒー(コーヒー豆(ブラジル産, エチオピア産, その他))/香料, 酸化防止剤(ビタミンC)</t>
-  </si>
-  <si>
-    <t>牛乳, 砂糖, コーヒー, 脱脂粉乳, 全粉乳, ミルクソース, デキストリン, 乳化剤, 香料, カゼインNa, 酸化防止剤(ビタミンC)</t>
-  </si>
-  <si>
-    <t>コーヒー, 牛乳, 砂糖, 全粉乳, 脱脂粉乳, デキストリン/香料, 乳化剤, カゼインNa, 甘味料(アセスルファムK, スクラロース)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), スープ(粉末みそ, みそ, 砂糖, 食塩, でん粉, 香辛料, ポークエキス, ポーク調味料, 豚脂, 乳化油脂, 酵母エキス, みそ加工品, 香味調味料, たん白加水分解物, 魚介エキス, 植物油脂), かやく(大豆加工品, メンマ, ねぎ, 唐辛子)/加工でん粉, 調味料(アミノ酸等), 炭酸Ca, 香料, 酒精, 増粘多糖類, カラメル色素, カロチノイド色素, かんすい, 酸化防止剤(ビタミンE), 微粒二酸化ケイ素, 甘味料(カンゾウ), 酸味料, 香辛料抽出物, ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>ぶどう糖, 砂糖, でん粉, ゼラチン, 酸味料, 乳化剤, 光沢剤, 香料, 着色料(クチナシ, 野菜色素, カロチノイド), 糊料(アラビアガム)</t>
-  </si>
-  <si>
-    <t>野菜(にんじん(輸入), ケール, ほうれん草, アスパラガス, クレソン, パセリ, かぼちゃ, レタス, キャベツ, ビート, だいこん, はくさい, たまねぎ, セロリ), 果実(ぶどう, りんご, レモン, バナナ), クリーミングパウダー, 食物繊維, 寒天, 植物性乳酸菌(殺菌)/pH調整剤, 乳化剤, ビタミンC, 香料, (一部に乳成分, バナナ, りんごを含む)</t>
+    <t>小麦粉(国内製造), 植物油脂, アーモンド, でん粉, 砂糖, オニオンペースト, ポークエキスパウダー, ショートニング, にんにくパウダー, モルトエキス, チキンエキスパウダー, 小麦たんぱく, 食塩, しょうゆシーズニング, こしょう, 乾燥ビール酵母, 酵母エキスパウダー, ベーコンエキス, たまねぎシーズニング, イースト/加工デンプン, 調味料(アミノ酸等), 香料, 乳化剤, くん液, (一部に乳成分, 小麦, 大豆, 鶏肉, 豚肉, ごま, アーモンドを含む)</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, 植物油脂, ゼラチン, 濃縮いちご果汁, いちご果汁パウダー, 乳酸菌飲料(乳成分を含む)/酸味料, アカキャベツ色素, グリセリン, 香料, 乳化剤</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, 植物油脂, ゼラチン, ぶどう果汁, 濃縮ヨーグルト(乳成分を含む)/酸味料, グリセリン, 乳化剤, 香料, ベニバナ黄色素, クチナシ青色素</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, ぶどう糖, 植物油脂, ゼラチン, 濃縮みかん果汁/ソルビトール, 増粘多糖類, 酸味料, グリセリン, 香料, 乳化剤, パプリカ色素, ベニバナ黄色素</t>
+  </si>
+  <si>
+    <t>砂糖, マルトース, ゼラチン, 濃縮リンゴ果汁, 食塩, その他</t>
+  </si>
+  <si>
+    <t>うるち米(国産), 植物油脂, かつおだし味シーズニング(ぶどう糖, 味付けかつおぶし粉末, たん白加水分解物, 食塩, その他), でん粉, えび, その他</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), マーガリン, 砂糖, 小麦全粒粉, 発酵風味液, 食塩, 殺菌乳酸菌末/香料, カロテン色素, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造), 水あめ, でん粉/加工でん粉, 乳化剤, カラメル色素, 香料</t>
+  </si>
+  <si>
+    <t>水飴(国内製造), 砂糖, 植物油脂, ぶどう濃縮果汁/酸味料, 香料, 着色料(アントシアニン, クチナシ, 紅麹, 金箔), チャ抽出物, タンニン(抽出物), 乳化剤</t>
+  </si>
+  <si>
+    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, 甘えびパウダー, 食塩/加工デンプン, 乳化剤, 調味料(アミノ酸), (一部にえびを含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, 加工油脂, 乳糖, いちごパウダー, 食塩, いちご果汁パウダー/加工デンプン, トレハロース, 膨脹剤, 紅麹色素, 酸味料, 乳化剤(大豆由来), 香料</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), ショートニング, ホエイパウダー, 加工油脂, チーズパウダー, 砂糖, ぶどう糖果糖液糖, モルトエキス, 食塩, 発酵種, モルトフラワー, イースト/膨脹剤, 乳化剤, アナトー色素, 香料, 加工デンプン, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), ショートニング, ホエイパウダー, 加工油脂, チーズパウダー, 砂糖, ぶどう糖果糖液糖, ガーリックパウダー, オリーブオイル, アヒージョシーズニング, モルトエキス, アンチョビパウダー, 食塩, 発酵種, モルトフラワー, イースト/膨脹剤, 乳化剤, 香料, 香辛料抽出物, (一部に小麦, 乳成分, 大豆, 魚醤(魚介類)を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 加工油脂, 乳糖, 乳等を主要原料とする食品(加糖練乳, 脱脂濃縮乳, 濃縮乳, クリーム, 脱脂粉乳, 乳糖, 砂糖), 還元水あめ, 卵, 植物油脂, 脱脂粉乳, マーガリン, 食塩, 麦芽糖, 小麦ファイバー, 水あめ/乳化剤(大豆由来), 結晶セルロース, 香料</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油脂, ビーフシチュー風味シーズニング, 砂糖, 食塩/調味料(アミノ酸等), 重曹, 香料, 酸味料, 甘味料(アスパルテーム, Lーフェニルアラニン化合物, スクラロース), 酸化防止剤(ビタミンE), 香辛料抽出物, (一部に乳成分, 小麦, 大豆, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水飴, 脱脂粉乳, イチゴ果汁/酸味料, 香料, アントシアニン色素</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水飴, 濃縮果汁(オレンジ, うんしゅうみかん)/酸味料, 香料, 着色料(紅花黄, パプリカ色素), (一部にオレンジを含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水飴, 全粉乳, 植物油脂, ぶどう果汁, 食塩/酸味料, 香料, 着色料(アントシアニン, クチナシ), 乳化剤, (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水飴, 全粉乳, 植物油脂, オレンジ濃縮果汁, 食塩/酸味料, 香料, 着色料(パプリカ色素), 乳化剤, (一部に乳成分, オレンジ, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水飴, 全粉乳, 植物油脂, ココアパウダー, 食塩/香料, 酸味料, 着色料(カラメル), 乳化剤, (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>じゃがいも(北海道美瑛町産100%), 植物油, 食塩, デキストリン, こんぶエキスパウダー/調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>じゃがいも(北海道美瑛町産100%), 植物油, 粉末しょうゆ(小麦, 大豆を含む), ぶどう糖, 食塩, でん粉, 脱脂粉乳, マルチトール, デキストリン, 全粉乳, バター, バターミルクパウダー, ホエイパウダー, 粉末酒/調味料(アミノ酸等), 香料, カラメル色素, 酸味料, 苦味料</t>
+  </si>
+  <si>
+    <t>じゃがいも(北海道産100%), 植物油, 食塩, デキストリン, でん粉/調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>じゃがいも(北海道産100%), 植物油, 砂糖, 食塩, 脱脂粉乳, たん白加水分解物, ぶどう糖, チーズパウダー(チェダーチーズパウダー, カマンベールチーズパウダー, ゴーダチーズパウダー), 酵母エキスパウダー/調味料(アミノ酸等), 香料, 酸味料, 甘味料(ステビア, 甘草), パプリカ色素</t>
+  </si>
+  <si>
+    <t>乾燥じゃがいも(アメリカ製造又はドイツ製造), 植物油, 食塩, 砂糖, デキストリン, 粉末しょうゆ(小麦, 大豆を含む), たん白加水分解物, ブラックペッパー, 酵母エキスパウダー, チキンエキスパウダー, ガーリック, ジンジャー, セロリシード, タイム, フェンネル, オールスパイス, クミン, オレガノ, セージ, パプリカ, ナツメグ, コリアンダー/乳化剤, 調味料(アミノ酸等), 香料(卵, ごまを含む), 着色料(カロチノイド, カラメル), 酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも(アメリカ), 植物油, 粉末しょうゆ(小麦, 大豆を含む), デキストリン, 食塩, たんぱく質濃縮ホエイパウダー, バターパウダー, 酵母エキスパウダー, バター/調味料(アミノ酸等), 香料, カラメル色素, 酸味料, 甘味料(ステビア), 酸化防止剤(V.C)</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), 植物油, ぶどう糖, 食塩, たん白加水分解物(小麦, 大豆, 鶏肉を含む), でん粉, デキストリン, ブラックペッパー, ホエイパウダー, ガーリックパウダー, チーズパウダー, 酵母エキスパウダー, 唐辛子/調味料(アミノ酸等), 香料, パプリカ色素, 酸味料</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油, スイートコーンパウダー, ぶどう糖, 食塩, 砂糖, チーズパウダー, たん白加水分解物(大豆を含む), でん粉/調味料(アミノ酸等), 香料(小麦を含む), 炭酸カルシウム, 酸味料, パプリカ色素, 甘味料(ステビア, 甘草)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油, でん粉, えび, 砂糖, 食塩, クリーミングパウダー, 油脂調整粉末, たん白加水分解物(大豆を含む), オニオンパウダー, チェダーチーズパウダー, 乳等を主要原料とする食品/調味料(アミノ酸等), 膨脹剤, 香料, 甘味料(アスパルテーム, Lーフェニルアラニン化合物, 甘草, ステビア), パプリカ色素</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造, 国内製造), 水飴, マルトース, ゼラチン, 濃縮いちご果汁, 植物油脂</t>
+  </si>
+  <si>
+    <t>米(うるち米(国産), うるち米粉(国産)), 植物油脂, でん粉, 砂糖, 食塩, ガーリックパウダー, 乳等を主要原料とする食品, 粉末油脂(乳成分, 大豆を含む), たんぱく加水分解物(豚肉を含む), チーズパウダー, バターパウダー, 粉末しょう油(小麦, 大豆を含む)/調味料(アミノ酸等), 香料(卵, 乳, 鶏由来), 酸味料, 甘味料(ステビア), カラメル色素</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, カカオマス, 植物油脂, 全粉乳, ココアバター, ライ麦粉, ショートニング, 脱脂粉乳, 麦芽エキス, バターシーズニング, 練乳パウダー, カラメルソース, 食塩/乳化剤, 膨脹剤, 香料, カラメル色素, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造, 外国製造), 水あめ, ゼラチン, 濃縮果汁(レモン, ラズベリー), 植物油脂, でん粉/ソルビトール, 酸味料, 増粘多糖類, 香料, 光沢剤, 着色料(カラメル, アントシアニン, スピルリナ青, 紅麹), (一部にりんご, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>水あめ, 砂糖, ゼラチン, 濃縮果汁(バナナ, レモン, すもも), 植物油脂/ソルビトール, 酸味料, 骨Ca, 香料, 着色料(アントシアニン, クチナシ), 光沢剤, (一部にバナナ, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造, 外国製造), 水あめ, ゼラチン, 濃縮果汁(ぶどう, りんご, レモン, ラズベリー), 植物油脂, でん粉/ソルビトール, 酸味料, 増粘多糖類, 光沢剤, 香料, 着色料(フラボノイド, アントシアニン, クチナシ, 紅麹), (一部にりんご, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, ゼラチン, 植物油脂/ソルビトール, 酸味料, 骨Ca, 着色料(カラメル, フラボノイド, クチナシ, 紅麹), 香料, 光沢剤, (一部にゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 植物油脂, チョコレートチップ(乳成分を含む), 還元水あめ, 白ねりあん(乳成分を含む), 卵, 全脂大豆粉, カカオマス, 水あめ, 脱脂粉乳, 食塩, 卵黄(卵を含む), 全粉乳/加工デンプン, 乳化剤(乳, 大豆由来), 香料(乳, 大豆由来), 安定剤(加工デンプン), 膨脹剤, カラメル色素</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 植物油脂, バター, 全粉乳, 発酵種(小麦を含む), 食塩, 乳等を主原料とする食品/乳化剤(小麦, 大豆由来), 香料(乳, 大豆由来), カロテノイド色素</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 精製ラード, でん粉, 食塩, 植物性たん白, 砂糖, しょうゆ, チキンエキス, 卵白), 添付調味料(みそ, 香辛料, 砂糖, ポークエキス, 脱脂大豆粉, たん白加水分解物, チキンエキス, 香味油脂, 食塩, 粉末野菜), かやく(味付豚肉, キャベツ, コーン)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, 増粘多糖類, かんすい, クチナシ色素, 酸化防止剤(ビタミンE, ローズマリー抽出物), 香料, ビタミンB2, ビタミンB1, 香辛料抽出物, (一部にえび, 小麦, 卵, 乳成分, いか, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 食塩, 卵粉, 植物油, たん白加水分解物, 大豆食物繊維), 添付調味料(チキンエキス, 植物油, ポークエキス, でん粉, 食塩, 鶏脂, デキストリン, 香辛料, 砂糖, たん白加水分解物, 豚脂, 酵母エキス), かやく(チンゲン菜, メンマ, ねぎ)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, 増粘多糖類, 乳化剤, pH調整剤, クチナシ色素, 酸化防止剤(ビタミンE), 香料, ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 食塩, 卵粉, 植物油, たん白加水分解物, 大豆食物繊維), 添付調味料(ポークエキス, 食塩, 香味油脂, ラード, 香辛料, しょうゆ, 砂糖, チキンエキス, 粉末野菜, たん白加水分解物, 酵母エキス, 植物油), かやく(味付挽肉, 卵, ねぎ)/加工でん粉, 調味料(アミノ酸等), カラメル色素, 炭酸カルシウム, かんすい, 増粘多糖類, 乳化剤, クチナシ色素, パプリカ色素, 酸化防止剤(ビタミンE, ローズマリー抽出物), 香辛料抽出物, カロチン色素, ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 精製ラード, でん粉, 食塩, 植物性たん白, 砂糖, しょうゆ, チキンエキス, 卵白), 添付調味料(ポークエキス, みそ, 香辛料, しょうゆ, キムチ風味調味料, 食塩, 粉末野菜, 砂糖, 植物油, たん白加水分解物, 酵母エキス, 魚醤(魚介類)), かやく(味付豚肉, 白菜キムチ, ねぎ)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, 増粘多糖類, かんすい, 着色料(クチナシ, パプリカ色素, カラメル, パプリカ粉末, 紅麹), 酸味料, 酸化防止剤(ビタミンE, ローズマリー抽出物), 香料, 香辛料抽出物, ビタミンB2, ビタミンB1, (一部にえび, 小麦, 卵, 乳成分, いか, ごま, 大豆, 鶏肉, 豚</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, でん粉, 食塩, 植物性たん白, 乾燥酵母, 卵白), かやく(あおさてんぷら, あおさ揚玉, かまぼこ), 添付調味料(食塩, しょうゆ, 砂糖, 粉末かつおぶし, 粉末こんぶ, わかめ, 粉末煮干し, たん白加水分解物, ねぎ, 香辛料, 植物油)/加工でん粉, 調味料(アミノ酸等), リン酸塩(Na), 炭酸カルシウム, カラメル色素, レシチン, 増粘多糖類, 酸化防止剤(ビタミンE), クチナシ色素, ベニコウジ色素, ビタミンB2, ビタミンB1, カロチン色素, (一部にえび, 小麦, 卵, 乳成分, 大豆, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), そば粉, 植物油脂, 植物性たん白, 食塩, とろろ芋, 卵白), かやく(紅生姜入り小えびてんぷら, かまぼこ), 添付調味料(砂糖, 食塩, しょうゆ, 粉末かつおぶし, たん白加水分解物, ねぎ, 香辛料, 香味油脂)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, リン酸塩(Na), カラメル色素, 増粘多糖類, レシチン, 酸化防止剤(ビタミンE), ベニコウジ色素, クチナシ色素, 酸味料, 香料, アカダイコン色素, ビタミンB2, ビタミンB1, カロチン色素, 香辛料抽出物, (一部にえび, 小麦, そば, 卵, 乳成分, 大豆, 豚肉, やまいも, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ, 香辛料), ソース(たん白加水分解物, 豚脂, 牛脂, 糖類, 香味調味料, 食塩, しょうゆ, ビーフ調味料, 食物繊維, 赤ワイン, 野菜ペースト), かやく(にんじん, 大豆たん白加工品)/加工でん粉, 調味料(アミノ酸等), カラメル色素, 酒精, 香料, 炭酸Ca, かんすい, 酸味料, グリセリン, 増粘剤(キサンタンガム), 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, 牛肉, 大豆, 鶏肉, 豚肉, りんご, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 植物性たん白, こんぶエキス, 大豆食物繊維, 糖類), スープ(糖類, 食塩, 牛脂, たん白加水分解物, 乳化油脂, オニオンパウダー, 還元水あめ, 香辛料, カレー粉, ビーフ調味料, コーヒーパウダー, 小麦粉, 乳等を主要原料とする食品, 植物油脂, 赤ワイン), かやく(大豆たん白加工品, にんじん)/加工でん粉, 調味料(アミノ酸等), カラメル色素, 増粘剤(増粘多糖類, 加工でん粉), 炭酸Ca, リン酸塩(Na), 香料, pH調整剤, 酸味料, 酸化防止剤(ビタミンE), 乳化剤, 甘味料(スクラロース, アセスルファムK), ビタミンB2, ビタミンB1, (一部に小麦, 乳成分, 牛肉, 大豆, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), ソース(砂糖, 食塩, ソース, 香辛料, デキストリン, たん白加水分解物), かやく(キャベツ)/加工でんぷん, 調味料(アミノ酸等), カラメル色素, 炭酸Ca, かんすい, 酸味料, 増粘多糖類, 炭酸Mg, 酸化防止剤(ビタミンE), 香料, ビタミンB2, ビタミンB1, (一部に小麦, 大豆, ごまを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 野菜エキス, しょうゆ), スープ(糖類, 食塩, 香辛料, ポーク調味料, ポークエキス, たん白加水分解物, 酵母エキス), かやく(フライドポテト, 鶏, 豚味付肉そぼろ, かまぼこ)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, クチナシ色素, 香料, かんすい, 微粒二酸化ケイ素, レシチン, 酸化防止剤(ビタミンE), イカスミ色素, 酸味料, ビタミンB2, くん液, ビタミンB1, (一部に小麦, 卵, 乳成分, いか, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, でん粉, 食塩, 植物性たん白, 粉末卵, チキン調味料), ソース(ソース, 豚脂, 植物油脂, 調味油脂), かやく(キャベツ)/加工でん粉, カラメル色素, 増粘剤(加工でん粉, タマリンド), 調味料(アミノ酸等), かんすい, 焼成カルシウム, 香料, 酸化防止剤(ビタミンE, ローズマリー抽出物), 香辛料抽出物, パプリカ色素, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, もも, りんごを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), スープ(しょうゆ, 植物油脂, たん白加水分解物, 豚脂, 食塩, 発酵調味料, チキンエキス, 砂糖, カツオ調味料, ニボシエキス, 香辛料, 酵母エキス), ふりかけ(ぶどう糖, 乳等を主要原料とする食品, 明太子加工品, 乳化油脂, 酵母エキス, 魚介エキス, ポークエキス, 全卵粉), かやく(卵, ねぎ)/加工でん粉, 調味料(アミノ酸等), 増粘剤(加工でん粉, キサンタンガム), 酒精, 炭酸Ca, カロチノイド色素, 香料, カラメル色素, かんすい, 酸化防止剤(ビタミンE), 微粒二酸化ケイ素, ベニコウジ色素, 香辛料抽出物, ビタミンB2, ビタミンB1, (一部にえび, 小麦, 卵, 乳成分, さけ, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), スープ(みそ, 豚脂, ポークエキス, ガーリックペースト, 植物油脂, ポーク調味料, 食塩, オニオンペースト, 魚介エキス, 酵母エキス, 香味油, ジンジャーペースト, 唐辛子), かやく(キャベツ, コーン, ねぎ, 唐辛子)/加工でん粉, 調味料(アミノ酸等), ソルビット, 炭酸Ca, 香料, カラメル色素, かんすい, カロチノイド色素, 酸化防止剤(ビタミンE), 酒精, ビタミンB2, ビタミンB1, 香辛料抽出物, (一部に小麦, 卵, 乳成分, 牛肉, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 植物性たん白, 食塩), スープ(植物油脂, ポークエキス, 豚脂, 乳化油脂, 食塩, 豆板醤, ポーク調味料, みそ, 香辛料, しょうゆ, たん白加水分解物, 酵母エキス, 香味調味料, オニオンパウダー, チキンエキス, 全卵粉), かやく(大豆加工品, キクラゲ, ねぎ)/加工でん粉, 調味料(アミノ酸等), 炭酸Ca, ソルビット, 増粘剤(増粘多糖類, アルギン酸エステル), 重曹, 酒精, 微粒二酸化ケイ素, かんすい, 香料, ベニコウジ色素, 酸化防止剤(ビタミンE), カラメル色素, 甘味料(スクラロース, アセスルファムK), 酸味料, ビタミンB2, ビタミンB1, 香辛料抽出物, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩), スープ(乳化油脂, 食用加工油脂, 食塩, 糖類, ポーク調味料, 香辛料, 酵母エキス, 乳等を主要原料とする食品, 全卵粉), かやく(大豆加工品, コーン, ねぎ)/加工でん粉, 調味料(アミノ酸等), 炭酸Ca, 増粘剤(加工でん粉, 増粘多糖類), かんすい, 酸化防止剤(ビタミンE), 微粒二酸化ケイ素, 香料, カロチノイド色素, カラメル色素, ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, 大豆, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>春雨(中国製造(でん粉, 醸造酢)), かやく入りスープ(食塩, キャベツ, 乳化油脂, 砂糖, 大豆加工品, チキン調味料, 酵母エキス, 人参, ゆず胡椒パウダー, ねぎ, コンブエキス, 魚介調味料, たん白加水分解物, オニオンエキス, 香辛料)/調味料(アミノ酸等), 増粘剤(加工でん粉, 増粘多糖類), 香料, 微粒二酸化ケイ素, カラメル色素, 酸味料, (一部に小麦, 卵, 乳成分, ごま, さば, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造, 国内製造), 牛乳, 全粉乳, 脱脂粉乳, デキストリン, ココナッツオイル, バターパウダー, 食塩/香料, 乳化剤, ビタミンC, カロテン色素, 甘味料(ステビア)</t>
+  </si>
+  <si>
+    <t>砂糖, ぶどう糖, 水あめ, 還元水あめ/ガムベース, 酸味料, 香料</t>
+  </si>
+  <si>
+    <t>果実(りんご, トマト, たまねぎ, レモン, プルーン, にんじん), 醸造酢, 砂糖, 食塩, 酵母エキス, 香辛料, 煮干エキス</t>
+  </si>
+  <si>
+    <t>果実類(りんご, もも, うめ), 醤油, 砂糖, 還元水あめ, アミノ酸液, 蜂蜜, りんご酢, 食塩, 白ごま, オニオンエキス, ごま油, 蛋白加水分解物, にんにく, 香辛料/カラメル色素, (一部に小麦, ごま, 大豆, もも, りんごを含む)</t>
+  </si>
+  <si>
+    <t>果実類(りんご, もも, うめ), 醤油, 砂糖, アミノ酸液, にんにく, 還元水あめ, 食塩, 蜂蜜, りんご酢, 白ごま, ごま油, 蛋白加水分解物, オニオンエキス, 香辛料/カラメル色素, (一部に小麦, ごま, 大豆, もも, りんごを含む)</t>
+  </si>
+  <si>
+    <t>果実(りんご, オレンジ, もも, タンジェリン, パインアップル, ぶどう), 砂糖類(砂糖, ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒石酸塩, 塩化Na, ガラナ種子エキス, クエン酸, 香料, 炭酸ガス, 甘味料(Dーリボース, スクラロース), Lーアルギニン, カフェイン, クエン酸Na, 着色料(βーカロチン, アントシアニン), ナイアシン, イノシトール, V.B6, V.B2, V.B12</t>
+  </si>
+  <si>
+    <t>砂糖類(砂糖(国内製造), ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒石酸塩, 塩化Na, ガラナ種子エキス/炭酸, リン酸, クエン酸Na, カラメル色素, クエン酸, 保存料(安息香酸Na), 香料, Lーアルギニン, カフェイン, ナイアシン, 甘味料(スクラロース), イノシトール, ビタミンB6, ビタミンB2, ビタミンB12</t>
+  </si>
+  <si>
+    <t>砂糖類(砂糖, ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒石酸塩, 塩化Na, ガラナ種子エキス/クエン酸, 炭酸, 香料, クエン酸Na, 甘味料(Dーリボース, スクラロース), Lーアルギ二ン, 保存料(安息香酸), カフェイン, ナイアシン, 着色料(アントシアニン), イノシトール, ビタミンB6, ビタミンB2, ビタミンB12</t>
+  </si>
+  <si>
+    <t>砂糖類(砂糖(国内製造), ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒, 石酸塩, 塩化Na, ガラナ種子エキス/炭酸, リン酸, クエン酸Na, カラメル色素, クエン酸, 保存料(安息香酸Na), Lーアルギニン, 香料, カフェイン, ナイアシン, 安定剤(アラビアガム), 甘味料(スクラロース), イノシトール, ビタミンB6, ビタミンB2, ビタミンB12</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造), 塩化Na/クエン酸, クエン酸Na, 香料, Lーロイシン, クエン酸K, 乳酸Ca, Lーイソロイシン, Lーバリン, カフェイン, 甘味料(スクラロース), 塩化Mg, ナイアシン, イノシトール, ビタミンB6, 着色料(黄色4号, 青色1号)</t>
+  </si>
+  <si>
+    <t>醤油, 砂糖, みそ, 果実類(りんご, レモン), 発酵調味料, 食塩, 野菜類(玉ねぎ, 生姜, にんにく), 果糖ぶどう糖液糖, ラージャン, 蜂蜜, ごま油, 白ごま</t>
+  </si>
+  <si>
+    <t>醤油, 砂糖, りんご, ラージャン, 発酵調味料, コチュジャン, 食塩, 果糖ぶどう糖液糖, 野菜類(にんにく, 玉ねぎ), ごま油, りんご酢, 白ごま, 蜂蜜, 香辛料, カラメル色素</t>
+  </si>
+  <si>
+    <t>醤油, 砂糖, 果実類(りんご, レモン), 食塩, 果糖ぶどう糖液糖, 黒蜜, 発酵調味料, 白ごま, ごま油, 蜂蜜, もろみ, 香辛料, にんにく</t>
+  </si>
+  <si>
+    <t>ウエハース(小麦粉, 砂糖, でんぷん, 植物油脂, 食塩)(国内製造), 乳糖, 砂糖, ココアバター, 植物油脂, 全粉乳, ぶどう糖, 紅茶エキス, 粉末レモン果汁/加工デンプン, 乳化剤(大豆由来), 着色料(アカビート, カラメル, アナトー), 香料, ビタミンC, 貝カルシウム, 膨脹剤, 酸味料</t>
+  </si>
+  <si>
+    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, 食塩, 青のり, あおさ/乳化剤, 調味料(アミノ酸)</t>
+  </si>
+  <si>
+    <t>じゃがいも(遺伝子組換えでない)(国産), 植物油脂, 砂糖, たん白加水分解物(大豆を含む), 粉末しょうゆ(小麦を含む), 食塩, ビーフパウダー(鶏肉, ゼラチンを含む), 粉末ソース, 酵母エキスパウダー, ガーリックパウダー, 唐辛子, オニオンパウダー, ぶどう糖, デキストリン, わさびパウダー/調味料(アミノ酸等), 香料, 甘味料(ステビア, スクラロース), 酸味料, カゼインナトリウム(乳由来), カラメル色素, 香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも(遺伝子組換えでない)(国産), 植物油脂, 砂糖, 食塩, 粉末しょうゆ(小麦, 大豆を含む), 粉末油脂, 酵母エキスパウダー, 香辛料, 調味油, たん白加水分解物, 乳糖, バター(北海道産使用)/調味料(アミノ酸等), 香料(ごま由来), 甘味料(ステビア), 酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも(遺伝子組換えでない)(国産), 植物油脂, 砂糖, 食塩, オニオンパウダー, オニオンエキスパウダー, たん白加水分解物(大豆, 豚肉を含む), 酵母エキスパウダー, パセリ, オリゴ糖, サワークリームパウダー(北海道産サワークリーム使用), 乳糖/調味料(アミノ酸等), 酸味料, 香料, 甘味料(スクラロース, ステビア, カンゾウ)</t>
+  </si>
+  <si>
+    <t>じゃがいも(遺伝子組換えでない)(国産), 植物油脂, 砂糖, 香辛料, たん白加水分解物(大豆, 豚肉を含む), 粉末しょうゆ(小麦を含む), 食塩, マヨネーズ風味パウダー(卵を含む), 乳等を主要原料とする食品, オリゴ糖, デキストリン, 明太子パウダー(ゼラチンを含む), ビーフパウダー(鶏肉を含む)/調味料(アミノ酸等), 香料, 酸味料, カロチノイド色素, 甘味料(ステビア, スクラロース), 香辛料抽出物, ウコン色素</t>
+  </si>
+  <si>
+    <t>じゃがいも(遺伝子組換えでない)(国産), 植物油脂, 砂糖, たん白加水分解物(大豆, 豚肉を含む), 粉末しょうゆ(小麦を含む), ビーフパウダー(鶏肉, ゼラチンを含む), 食塩, ガーリックパウダー, デキストリン, わさびパウダー/調味料(アミノ酸等), 香料, 甘味料(ステビア, スクラロース), カゼインナトリウム(乳由来), 香辛料抽出物, 酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも(遺伝子組換えでない)(国産), 植物油脂, 砂糖, ぶどう糖, 食塩, たん白加水分解物, オニオンパウダー, デキストリン, 酵母エキスパウダー, ガーリックパウダー, 唐辛子, ねぎパウダー/調味料(アミノ酸), 香料, パプリカ色素, 香辛料抽出物</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 香味油, デキストリン, 岩塩, 酵母エキスパウダー, ブラックペパー/調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 香味油, ぶどう糖, 食塩, たんぱく加水分解物(大豆, 豚肉を含む), 粉末酢, クリーミングパウダー(乳成分を含む), 粉末しょうゆ(小麦, 大豆を含む), チキンブイヨンパウダー, 酵母エキス, レモン果汁パウダー, 粉末酒/調味料(アミノ酸等), 酸味料, 香料</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油(ごまを含む), 香味油, デキストリン, 食塩, 焼のり, あおさ, 青のり, 粉末ごま油, 酵母エキスパウダー, 香辛料/調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, デキストリン, 香味油, ぶどう糖, 昆布, たんぱく加水分解物(大豆を含む), 酵母エキスパウダー, 昆布エキスパウダー, かきパウダー</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 砂糖, 香辛料(大豆を含む), たんぱく加水分解物(大豆を含む), 食塩, ミートエキス調味パウダー(乳成分, 小麦, 牛肉, ごま, 大豆, 鶏肉, 豚肉を含む), オリゴ糖, 昆布, しいたけエキスパウダー, 酵母エキスパウダー, 粉末油脂, 香味油(小麦, 大豆を含む)/調味料(アミノ酸等), パプリカ色素, 香辛料抽出物, 甘味料(ステビア), 香料(大豆由来)</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 砂糖, 食塩, オニオン, チーズパウダー(乳成分を含む), たんぱく加水分解物(大豆を含む), オリゴ糖, レモン果汁パウダー, サワークリームパウダー(乳成分を含む), 酵母エキスパウダー, パセリ/調味料(アミノ酸等), 香料(乳由来), 酸味料, 甘味料(ステビア, スクラロース), カロチノイド色素</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 砂糖, 香辛料, 食塩, 野菜エキスパウダー(乳成分, 大豆, 豚肉, ゼラチンを含む), ビーフエキスパウダー, たんぱく加水分解物(大豆を含む), 赤パプリカ, 香味油/調味料(アミノ酸等), 香料(乳由来), 着色料(ココア), 香辛料抽出物, カラメル色素, 酸味料</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 食塩, デキストリン/調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, ガーリックパウダー, ぶどう糖, 食塩, 砂糖, たんぱく加水分解物(大豆を含む), 野菜エキスパウダー(乳成分, 大豆, 豚肉, ゼラチンを含む), オニオン, ホワイトペパー, 唐辛子/調味料(アミノ酸等), 香辛料抽出物, 甘味料(ステビア, カンゾウ), 香料, カラメル色素, 酸味料</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 食塩, 青のり, あおさ, 香辛料, 酵母エキスパウダー/調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 砂糖, 香辛料(大豆を含む), 肉エキスパウダー(乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む), たんぱく加水分解物(大豆を含む), 食塩, オリゴ糖, 香味油(小麦, 大豆を含む)/調味料(アミノ酸等), 酸味料, パプリカ色素, 甘味料(ステビア, カンゾウ), 香料, 香辛料抽出物</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 砂糖, ぶどう糖, 粉末しょうゆ(小麦, 大豆を含む), 食塩, 焼のり, たんぱく加水分解物(大豆, 鶏肉, 豚肉を含む), あおさ, 香辛料, 魚介エキスパウダー(さばを含む), 粉末みりん風味調味料(小麦, 大豆を含む), ごま, 青のり, 香味油, オリゴ糖/調味料(アミノ酸等), 香料</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, でん粉分解物, 食塩(オホーツクの塩50%, 岩塩50%), たんぱく加水分解物(鶏肉を含む), 鶏油/調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 食塩, 砂糖, たんぱく加水分解物(大豆を含む), 粉末しょうゆ(小麦, 大豆を含む), オリゴ糖, 粉末酢(小麦を含む), 香辛料/酸味料, 調味料(アミノ酸等), 香料, カラメル色素, 甘味料(アセスルファムK, カンゾウ)</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 砂糖, 食塩, 香辛料, ミートエキス調味パウダー, 粉末酢, たんぱく加水分解物, 酵母エキスパウダー, 粉末しょうゆ, 粉末油脂/調味料(アミノ酸等), 香料, 甘味料(アスパルテーム, Lーフェニルアラニン化合物, スクラロース), 酸味料, パプリカ色素, (一部に乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉, りんごを含む)</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, ぶどう糖, 粉末酢(小麦を含む), 食塩, たんぱく加水分解物(鶏肉を含む), 砂糖, 粉末しょうゆ(小麦, 大豆を含む), ホエイパウダー(乳成分を含む), 酵母エキス, オリゴ糖, 香辛料/調味料(アミノ酸等), 酸味料, 香料</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 砂糖, ぶどう糖, 梅酢パウダー, 食塩, 粉末酢, 粉末しょうゆ(小麦, 大豆を含む), 梅調味パウダー, あおさ, オリゴ糖/調味料(アミノ酸等), 酸味料, 甘味料(ステビア), 香料, アントシアニン色素</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, ぶどう糖, 岩塩, トリュフエキスチップ, ブラックペッパー, 粉末油脂, オニオンエキスパウダー, チーズパウダー, トリュフ/調味料(アミノ酸), 香料, イカスミ色素, カラメル色素, (一部に乳成分, 小麦, いか, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油(パーム油, 米油, ごま油), ぶどう糖, デキストリン, 岩塩, たんぱく加水分解物, 粉末油脂, 米粉, チキンパウダー, 唐辛子, 昆布/調味料(アミノ酸等), 香料, 酸味料, くん液, (一部に乳成分, ごま, 大豆, 鶏肉を含む)</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, ぶどう糖, デキストリン, 岩塩, たんぱく加水分解物(大豆を含む), ミートエキス調味パウダー(乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む), ブラックペッパー(カンポートペッパー3%), でん粉, 花椒, レモン果汁パウダー, 香味油(豚肉を含む)/調味料(アミノ酸等), 酸味料, 香辛料抽出物, 香料</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産), 植物油, 乾燥じゃがいも, ミルクパウダー, 粉末植物油脂, 砂糖, 粉末しょうゆ(小麦, 大豆を含む), 食塩, 乳糖, でん粉, デキストリン, 酵母エキスパウダー, たん白加水分解物, 焼きのり, 酒粕パウダー, チキンエキスパウダー, 混合節エキスパウダー(さばを含む), わさびパウダー/調味料(アミノ酸等), 香料, 加工デンプン, 乳化剤, 酸味料, カラメル色素, 酸化防止剤(V.C)</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産), 植物油(パーム油, 米油, ごま油), 乾燥じゃがいも, ミルクパウダー, 粉末植物油脂, 豚そぼろ肉風味フレーク(大豆, 鶏肉, ゼラチンを含む), デキストリン, 食塩, ぶどう糖, 乳糖, 豆板醤パウダー(小麦を含む), 砂糖, 唐辛子風味フレーク, たん白加水分解物, ポークエキスパウダー, でん粉, 酵母エキスパウダー, 粉末みそ, ホエイパウダー, 唐辛子, 花椒, 山椒/調味料(アミノ酸等), 香料, 加工デンプン, 乳化剤, 着色料(カラメル, カロチノイド, 紅麹), 酸味料, 酸化防止剤(V.C), 甘味料(ステビア, 甘草), 香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), 植物油, 食塩, デキストリン/調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), 植物油, 砂糖, チキンコンソメパウダー(小麦, 大豆, 豚肉を含む), 食塩, デキストリン, でん粉, 粉末しょうゆ, 粉末ソース(りんごを含む), たまねぎエキスパウダー, 香辛料パウダー, ビーフコンソメパウダー, 野菜パウダー(トマト, にんじん), 発酵トマトエキスパウダー, 梅肉パウダー/調味料(アミノ酸等), 香料(ごまを含む), カラメル色素, 酸味料, パプリカ色素, 甘味料(ステビア), 香辛料抽出物, ベニコウジ色素</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), パーム油, 米油, 食塩, 青のり, あおさ, 唐辛子, ごま油/調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), 植物油, 食塩, コーンスターチ, ほたてエキスパウダー, こんぶエキスパウダー, ぶどう糖, かつお節エキスパウダー, 香味油/調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), 植物油, 砂糖, 食塩, チキンコンソメパウダー, コーンスターチ, たん白加水分解物(大豆を含む), 粉末しょうゆ(小麦を含む), チキンパウダー, 粉末ソース(りんごを含む), はくさいエキスパウダー, 香辛料パウダー, トマトパウダー, ミルポワパウダー(豚肉を含む), オニオンエキスパウダー, マッシュルームエキスパウダー, 酵母エキスパウダー, オニオンパウダー, 梅肉パウダー/調味料(アミノ酸等), 香料(ごまを含む), 酸味料, 着色料(カロチノイド, 紅麹), 甘味料(ステビア(乳成分を含む)), 香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), パーム油, 米油, ぶどう糖, 食塩, デキストリン, 焼きのり, でん粉, 唐辛子, ごまパウダー, ごま油, たん白加水分解物(大豆を含む), こしょう/調味料(アミノ酸等), 香料, 酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), 植物油, 食塩, 砂糖, オニオンパウダー, ポークエキスパウダー(小麦, 大豆, 鶏肉を含む), たん白加水分解物, 粉末植物油脂, ガーリックパウダー, でん粉, 粉末しょうゆ, チリパウダー, 唐辛子, 酵母エキスパウダー, 香味油/調味料(アミノ酸等), 酸味料, パプリカ色素, 香辛料抽出物, 甘味料(ステビア, 甘草), 香料</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), 植物油, 食塩, 砂糖, オニオンエキスパウダー, オニオンパウダー, でん粉, ホエイパウダー, サワークリームパウダー, ガーリックパウダー, 脱脂粉乳, パセリ, 酵母エキスパウダー/調味料(アミノ酸等), 香料, 酸味料, 甘味料(アスパルテーム, Lーフェニルアラニン化合物)</t>
   </si>
   <si>
     <t>じゃがいも(国産又はアメリカ), 植物油, でん粉, 食塩, 砂糖, 粉末しょうゆ(小麦, 大豆を含む), たん白加水分解物, 唐辛子, ガーリックパウダー, 酵母エキスパウダー(乳成分を含む), ビーフパウダー, こしょう, 粉末植物油脂/調味料(アミノ酸等), 香料(ゼラチンを含む), 酸味料, 着色料(カラメル, カロチノイド, 炭末, クチナシ), 甘味料(ステビア), 香辛料抽出物</t>
   </si>
   <si>
-    <t>ぶどう糖, 砂糖/乳化剤, 酸味料, 糊料(プルラン, 加工でん粉), 香料</t>
-  </si>
-  <si>
-    <t>ぶどう糖, 砂糖, イソマルトオリゴ糖, でん粉, 乳化剤, 酸味料, 糊料(プルラン), 乳酸カルシウム, アントシアニン色素, 香料</t>
-  </si>
-  <si>
-    <t>ぶどう糖, 砂糖/乳化剤, 酸味料, 糊料(プルラン, 加工でん粉), 香料, 着色料(アントシアニン, クチナシ)</t>
-  </si>
-  <si>
-    <t>ぶどう糖(国内製造), 砂糖/乳化剤, 酸味料, 糊料(プルラン, 加工でん粉), 香料, カラメル色素</t>
-  </si>
-  <si>
-    <t>ぶどう糖, 砂糖, 水あめ, 還元水あめ/ガムベース, 酸味料, 香料, 軟化剤, 着色料(カラメル, フラボノイド)</t>
-  </si>
-  <si>
-    <t>ぶどう糖, 砂糖, 水あめ, 還元水あめ/ガムベース, 酸味料, 香料, 軟化剤, 着色料(クチナシ, フラボノイド)</t>
-  </si>
-  <si>
-    <t>ぶどう糖, 砂糖, 水あめ, 還元水あめ, ガムベース, 酸味料, 香料, 乳酸カルシウム, 軟化剤, アントシアニン色素, 緑茶抽出物</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), ぶどう糖, 水あめ, 還元水あめ, 酵母エキス, デキストリン/ガムベース, 酸味料, 香料, 軟化剤, カロチノイド色素</t>
-  </si>
-  <si>
-    <t>砂糖, ぶどう糖, でん粉, 水あめ/ガムベース, 香料, 酸味料, 糊料(アラビアガム), フラボノイド色素, リン酸カルシウム</t>
-  </si>
-  <si>
-    <t>砂糖, 加工油脂, 水あめ, でん粉, ゼラチン/酸味料, 乳化剤, 増粘剤(プルラン), 香料, クチナシ色素</t>
+    <t>じゃがいも(国産又はアメリカ), 植物油, チーズ味フレーク, 砂糖, ぶどう糖, 食塩, ガーリックパウダー, 酵母エキスパウダー, ビーフパウダー(小麦, 大豆, 鶏肉, ゼラチンを含む), 野菜エキスパウダー, 粉末植物油脂, たん白加水分解物, チーズパウダー, ミート風味調味料, トマトパウダー, 赤唐辛子, パセリ, サラミ風チップ(豚肉を含む), オレガノ/調味料(アミノ酸等), 香料(りんごを含む), 酸味料, 乳化剤, 着色料(カロチノイド, カラメル, 紅麹), 香辛料抽出物, くん液, 甘味料(ステビア)</t>
+  </si>
+  <si>
+    <t>じゃがいも(遺伝子組換えでない), 植物油, 食塩, コーンスターチ, こんぶエキスパウダー/調味料(アミノ酸等), 酸化防止剤(ビタミンC)</t>
+  </si>
+  <si>
+    <t>じゃがいも(遺伝子組換えでない), 植物油, 食塩, 黒こしょう, デキストリン, 砂糖, ぶどう糖, オニオンパウダー, コーンスターチ, 酵母エキスパウダー(豚肉を含む), 還元水あめ, 粉末しょうゆ(小麦, 大豆を含む), シナモン, 調味動物油脂/調味料(アミノ酸等), 香辛料抽出物, 酸味料, 香料, 酸化防止剤(ビタミンC)</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), 植物油, 砂糖, 食塩, バターパウダー, 果糖, コーンスターチ, たん白加水分解物(大豆を含む), マスカルポーネチーズパウダー, クリーミングパウダー, 酵母エキスパウダー, パセリ, はちみつパウダー/調味料(アミノ酸等), 香料, 甘味料(アスパルテーム, Lーフェニルアラニン化合物, スクラロース, ステビア), 酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), 植物油, 食塩, 乳糖, オニオン, でん粉, 粉末オリーブオイル, 粉末加工油脂, ぶどう糖, 砂糖, 赤ピーマン, 食物繊維, パセリ, 粉末酢, ガーリックパウダー, ブラックペッパー, セロリ, トマトパウダー, マスタードパウダー/酸味料, 調味料(アミノ酸等), 香辛料抽出物, 着色料(ウコン)</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), 植物油, 粉末しょうゆ(小麦, 大豆を含む), デキストリン, 砂糖, 食塩, ポークエキスパウダー, マスタードパウダー, 唐辛子パウダー, 卵黄パウダー(卵を含む), マヨネーズ風味パウダー(ごま, 鶏肉を含む), 粉末酢/香料(乳成分を含む), 調味料(アミノ酸等), 酸味料, 甘味料(ステビア, 甘草), 着色料(ウコン)</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), パーム油, 米油, 食塩, デキストリン, 麦芽糖, でん粉, マルチトール, ごま, ごま油, 全粉乳, たん白加水分解物(大豆を含む), 酵母エキスパウダー, こしょう/調味料(アミノ酸等), 香料, 酸味料, 酸化防止剤(ビタミンC)</t>
+  </si>
+  <si>
+    <t>乾燥じゃがいも(アメリカ製造又はドイツ製造又はその他), 植物油, 食塩, デキストリン, でん粉, こんぶエキスパウダー/乳化剤, 調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>乾燥じゃがいも(遺伝子組換えでない), 植物油, 食塩, コーンスターチ, 砂糖, チキンコンソメパウダー(小麦, 大豆, 豚肉を含む), 粉末しょうゆ, 粉末ソース(りんごを含む), ビーフコンソメパウダー, 香辛料パウダー, オニオンエキスパウダー, トマトパウダー, 発酵トマトエキスパウダー, 調味動物油脂, キャロットパウダー, 梅肉パウダー/乳化剤, 調味料(アミノ酸等), 香料(ごまを含む), 酸味料, 着色料(カラメル, カロチノイド, 紅麹), 甘味料(ステビア), 香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産), 植物油, 食塩, 加工油脂, デキストリン, コーンスターチ, 香味油, こんぶエキスパウダー, 乳糖/糊料(加工デンプン, アルギン酸Na), トレハロース, 調味料(アミノ酸等), 酸化防止剤(V.C), 香料</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産), 植物油, 砂糖, 食塩, チキンコンソメパウダー, コーンスターチ, チキンパウダー, 香辛料パウダー, 粉末ソース(りんごを含む), 粉末しょうゆ(大豆を含む), 酵母エキスパウダー, マッシュルームエキスパウダー, ミルポワパウダー(豚肉を含む), オニオンエキスパウダー, トマトパウダー, オニオンパウダー, はくさいエキスパウダー, 梅肉パウダー, 発酵酵母エキスパウダー/糊料(加工デンプン, アルギン酸Na), トレハロース, 調味料(アミノ酸等), 香料, 酸味料, 酸化防止剤(V.C), 着色料(カロチノイド, 紅麹), 甘味料(ステビア:乳成分を含む)</t>
+  </si>
+  <si>
+    <t>乾燥ポテト, 植物油脂, 食塩, 昆布調味エキス, かつお節調味エキス, 果糖/乳化剤(大豆を含む), 調味料(アミノ酸)酸化防止剤(ビタミンE, ビタミンC), 香料, 微粒酸化ケイ素, 増粘剤(グアーガム)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, カカオマス, ココアパウダー, 液全卵, 植物油脂, バター, 油脂加工食品(乳成分を含む), 乳糖, 全粉乳, 食塩, 水飴, シナモン粉末/膨張剤, 乳化剤(大豆由来), 香料, カゼインナトリウム(乳由来)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造, タイ製造), 小麦粉, マーガリン(乳成分を含む), 液卵白(卵を含む), 全粉乳, 植物油脂, ココアパウダー, バター, カカオマス, 食塩/乳化剤(大豆由来), 香料(乳由来), 膨脹剤</t>
+  </si>
+  <si>
+    <t>乾燥ポテト, 植物油脂, 食塩, たまねぎ粉末, デキストリン, 砂糖, 野菜エキス粉末, 香辛料, 酵母エキス粉末(乳成分, 卵, 鶏肉を含む), たんぱく加水分解物(大豆を含む), ブドウ糖, 野菜粉末, チキンオイル, ローストしょうゆ調味料(小麦, 大豆を含む), でん粉, 大豆たんぱく, チキン粉末(小麦, 大豆を含む)/乳化剤(大豆由を含む), 調味料(アミノ酸), 酸味料, 酸化防止剤(ビタミンE, ビタミンC), 加工デンプン, 香料, 微粒ケイ素</t>
+  </si>
+  <si>
+    <t>でん粉, 植物油脂, 米粉, 食用加工油脂, えび粉, 食塩, 香味油(小麦, えび, 大豆を含む), えび調味料粉末, 青のり, 昆布粉, えびシーズニング(大豆を含む)/ソルビトール, 乳化剤(大豆由来), 加工デンプン, 調味料(アミノ酸), 香料(えび由来), セルロース, 酸化防止剤(ビタミンE, ビタミンC), 着色料(カロテノイド, ウコン), 微粒ケイ素</t>
+  </si>
+  <si>
+    <t>砂糖, 小麦粉。マーガリン(乳成分を含む), 液卵白(卵を含む), 植物油脂, 全粉乳, ホエイパウダー(乳成分を含む), 乳糖, バター, ココアパウダー脱脂粉乳, クリーミングパウダー(乳成分を含む), 食塩/トレハロース, 乳化剤(大豆由来), 膨張剤, 香料(乳由来)</t>
+  </si>
+  <si>
+    <t>乾燥ポテト, 植物油脂(ごまを含む), 食塩, アオサ粉末, かつお節調味エキス, 青のり粉, 昆布エキス粉末, 酵母エキス粉末, デキストリン/乳化剤(大豆を含む), 調味料(アミノ酸等), 酸化防止剤(ビタミンE, ビタミンC)リン酸三カルシウム, 微粒ケイ素, 香料, 増粘剤(グアーガム)</t>
+  </si>
+  <si>
+    <t>乾燥ポテト, 植物油脂, デキストリン, 食塩, ぶどう糖, 乳化剤(大豆を含む), 調味料(アミノ酸等), 酸化防止剤(ビタミンE, ビタミンC, チャ抽出物)</t>
+  </si>
+  <si>
+    <t>砂糖(韓国製造), ポテトペレット(乾燥ポテト, でん粉, 食塩), 植物油脂, カカオマス, 全粉乳/乳化剤(大豆由来), 香料, 着色料(ウコン), 酸化防止剤(ビタミンE, ビタミンC)</t>
+  </si>
+  <si>
+    <t>ポテトペレット(乾燥ポテト, でん粉, 食塩)(スペイン製造), 植物油脂, 砂糖, 全粉乳, 乳糖, デキストリン, ココアバター, クリーミングパウダー(乳成分を含む), 食塩/乳化剤(大豆由来), 香料(乳由来), 着色料(ウコン), 酸化防止剤(ビタミンE, ビタミンC)</t>
+  </si>
+  <si>
+    <t>野菜, 果実(トマト, たまねぎ, りんご, その他), 糖類(ぶどう糖果糖液糖, 砂糖), 醸造酢, 醤油, 食塩, アミノ酸液, 香辛料, オイスターエキス, 肉エキス, ホタテエキス, 魚肉エキス, 昆布, 酵母エキス, カラメル色素, 増粘剤(加工でんぷん, タマリンド), 調味料(アミノ酸等), (原材料の一部として小麦, 大豆, 鶏肉, 豚肉, もも, りんごを含む)</t>
+  </si>
+  <si>
+    <t>野菜, 果実(トマト, りんご, プルーン, レモン, にんじん, たまねぎ), 醸造酢, 糖類(ぶどう糖果糖液糖, 砂糖), 食塩, 澱粉, 酵母エキス, 香辛料(原材料の一部に大豆を含む)</t>
+  </si>
+  <si>
+    <t>野菜, 果実(トマト, プルーン, りんご, レモン, にんじん, たまねぎ, ), 醸造酢, 砂糖類(ぶどう糖果糖液糖, 砂糖), 食塩, 澱粉, 酵母エキス, 香辛料</t>
+  </si>
+  <si>
+    <t>果実(ぶどう, グレープフルーツ, ライチ), 砂糖類(果糖ぶどう糖液糖(国内製造), 果糖), 食塩(沖縄県産)/酸味料, 香料</t>
+  </si>
+  <si>
+    <t>めん (小麦粉(国内製造), 食塩, 植物性たん白, 還元水飴), スープ (ポークエキス, ポークオイル, 食塩, 煎りごま, 野菜粉末, 糖類(砂糖, 麦芽糖, ぶどう糖), 粉末油脂, 粉末しょうゆ, 植物油脂, たん白加水分解物, 香辛料, でん粉, ねぎ, すりごま, ホタテエキス, 酵母エキス)/調味料(アミノ酸等), かんすい, pH調整剤, クチナシ色素, カラメル色素, 香料, 酸化防止剤(ビタミンE), (一部に小麦, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, にんにく醤油シーズニング(ぶどう糖, しょうゆパウダー, 食塩, 砂糖, たん白加水分解物, でん粉, ビーフエキス調味料, 酵母エキスパウダー, ガーリックパウダー), 焦がししょうゆパウダー/調味料(アミノ酸等), 香辛料抽出物, 香料, 乳化剤, カラメル色素, 甘味料(スクラロース), (一部に小麦, 乳成分, 牛肉, ごま, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, バターしょうゆシーズニング(乳等を主要原料とする食品, 砂糖, しょうゆパウダー, 食塩, たん白加水分解物, バターパウダー, チーズパウダー, 酵母エキスパウダー, かつお節パウダー), バターミルクパウダー/調味料(アミノ酸等), 香料, 乳化剤, 甘味料(カンゾウ, スクラロース), (一部に小麦, 乳成分, 大豆を含む)</t>
   </si>
   <si>
     <t>ぶどう糖, 砂糖, イソマルトオリゴ糖, 乳化剤, 酸味料, 糊料(プルラン, 加工でん粉), 香料, 乳酸カルシウム</t>
   </si>
   <si>
-    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, 粉末卵, 糖類), スープ(みそ, 食塩, 糖類, ポークエキス, コチュジャン, 植物油脂, 豚脂, 豆板醤, 香辛料, 香味食用油, 調味油脂, たん白加水分解物), かやく(ねぎ, 鶏, 豚味付肉そぼろ, コーン), 加工でん粉, 調味料(アミノ酸等), 酒精, 炭酸カルシウム, カラメル色素, 香料, クチナシ色素, かんすい, 増粘剤(キサンタン), 酸味料, 酸化防止剤(ビタミンE, ローズマリー抽出物), ビタミンB2, ビタミンB1, 香辛料抽出物, (原材料の一部にごまを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, みそ, 糖類), スープ(豚脂, しょうゆ, 食塩, 糖類, ポークエキス, チキンエキス, たん白加水分解物, 植物油脂, 香辛料, 酵母エキス), かやく(チャーシュー, ねぎ), 加工でん粉, 調味料(アミノ酸等), 酒精, カラメル色素, 炭酸カルシウム, かんすい, レシチン, クチナシ色素, 増粘剤(キサンタン), 香料, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (原材料の一部に卵, 乳成分を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, 食塩), ソース(ソース, 糖類, 食塩, 豚脂, 植物油脂, 香辛料, たん白加水分解物, 香味調味料), かやく(キャベツ), カラメル色素, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, 酸味料, 酸化防止剤(ビタミンE), 香料, 増粘剤(キサンタン), ビタミンB2, ビタミンB1, (原材料の一部に乳成分, 大豆, りんご, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, 大豆食物繊維), スープ(しょうゆ, 食塩, たん白加水分解物, ポークエキス, 糖類, 豚脂, 植物油脂, かつお節エキス, 酵母エキス, 香辛料, 煮干いわし粉末), かやく(チャーシュー, メンマ, ナルト, ねぎ), 調味料(アミノ酸等), 酒精, カラメル色素, 炭酸カルシウム, 香料, かんすい, 増粘剤(キサンタン), レシチン, クチナシ色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, ベニコウジ色素, (原材料の一部に卵, 乳成分を含む)</t>
-  </si>
-  <si>
-    <t>牛乳, 砂糖, コーヒー, 脱脂粉乳/乳化剤</t>
-  </si>
-  <si>
-    <t>牛乳, コーヒー, 砂糖, 脱脂粉乳/乳化剤, カゼインNa, 甘味料(アセスルファムK, スクラロース)</t>
-  </si>
-  <si>
-    <t>牛乳, 砂糖, コーヒー, 加糖れん乳, クリーム/乳化剤, カゼインNa</t>
+    <t>コーングリッツ(国内製造), 植物油脂, でん粉, 砂糖, 食塩(アルペンザルツ88%使用), しょうゆパウダー, たん白加水分解物, チキンエキスパウダー, 香辛料, 鰹節エキスパウダー, 香味油, スイートコーンパウダー/加工デンプン, 調味料(アミノ酸等), 重曹, 香料, (一部に小麦, 乳成分, 大豆, 鶏肉を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油脂, でん粉, ショートニング, 乳糖, 砂糖, チーズパウダー, 食塩, ぶどう糖, たん白加水分解物, 乳等を主要原料とする食品, クリーミングパウダー, 酵母エキスパウダー, オニオンパウダー, 香辛料, デキストリン, みそパウダー/加工デンプン, 調味料(アミノ酸等), 香料, 重曹, パプリカ色素, 乳化剤, 甘味料(スクラロース), 香辛料抽出物, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油脂, でん粉, 砂糖, しょうゆ, しょうゆパウダー, 食塩, 還元麦芽糖水あめ, たん白加水分解物, スイートコーンパウダー, デキストリン, チキンパウダー/加工デンプン, 調味料(アミノ酸等), 重曹, 香料, カラメル色素, 甘味料(カンゾウ, スクラロース), (一部に小麦, 大豆, 鶏肉を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油脂, でん粉, 砂糖, ショートニング, 乳糖, 食塩, ぶどう糖, スイートコーンパウダー, 乳等を主要原料とする食品, 果糖, たん白加水分解物, 全粉乳, 酵母エキスパウダー, オニオンパウダー, バターパウダー, パセリ/加工デンプン, 調味料(アミノ酸等), 香料, 重曹, 紅花黄色素, 乳化剤, 甘味料(アスパルテーム, Lーフェニルアラニン化合物, スクラロース), (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖, ぶどう糖果糖液糖(国内製造)/炭酸ガス, 酸味料, 香料</t>
   </si>
   <si>
     <t>砂糖混合ぶどう糖果糖液糖, 酸味料, 香料, 着色料(赤色40号)</t>
   </si>
   <si>
-    <t>砂糖, ぶどう糖果糖液糖(国内製造)/炭酸ガス, 酸味料, 香料</t>
-  </si>
-  <si>
-    <t>砂糖混合ぶどう糖果糖液糖, 酸味料, 香料, 着色料(青色1号)</t>
-  </si>
-  <si>
-    <t>砂糖混合ぶどう糖果糖液糖, 食塩, 香料, 酸味料, 果実色素</t>
-  </si>
-  <si>
-    <t>砂糖混合ぶどう糖果糖液糖, 酸味料, 香料, 着色料(黄色4号, 赤色40号)</t>
+    <t>砂糖混合ぶどう糖果糖液糖, 酸味料, 香料, 着色料(黄色4号, 青色1号)</t>
+  </si>
+  <si>
+    <t>砂糖混合ぶどう糖果糖液糖, 酸味料, 香料, 着色料(黄色4号)</t>
+  </si>
+  <si>
+    <t>砂糖, ぶどう糖果糖液糖/炭酸ガス, カラメル色素, 酸味料, 香料</t>
+  </si>
+  <si>
+    <t>砂糖, ぶどう糖果糖液糖/炭酸ガス, 酸味料, 香料, 着色料(黄色4号, 青色1号)</t>
+  </si>
+  <si>
+    <t>砂糖, ぶどう糖果糖液糖(国内製造)/炭酸ガス, 香料, 酸味料, 着色料(黄色4号)</t>
   </si>
   <si>
     <t>砂糖, ぶどう糖果糖液糖(国内製造)/炭酸ガス, 香料, 酸味料</t>
   </si>
   <si>
-    <t>小麦粉, 砂糖, チョコレート(乳成分を含む), ショートニング(大豆を含む), 還元水あめ, 白練餡(生餡, 砂糖, 水あめ, 還元麦芽水あめ), ココアパウダー, 大豆粉, 鶏卵加工品(鶏卵, 砂糖), 水あめ, 脱脂粉乳, 卵黄粉末(卵を含む), 全粉乳, でん粉分解物, カカオマス, 食塩, 酵母エキス/加工でん粉, 乳化剤(大豆由来), 香料, 膨張剤</t>
-  </si>
-  <si>
-    <t>水飴, 砂糖, 澱粉, 餅粉, 植物油, ソルビトール, 乳化剤, 香料, 酸味料, 着色料(赤106)</t>
-  </si>
-  <si>
-    <t>水飴, 砂糖, 澱粉, 餅粉, 植物油, ソルビトール, 乳化剤, 香料, 酸味料, 着色料(青1, 黄4, 赤2)</t>
-  </si>
-  <si>
-    <t>水飴, 砂糖, でん粉(馬鈴薯), 植物油(パームヤシ), ソルビトール, 乳化剤(パームヤシ), 香料, 酸味料, 着色料(黄5)</t>
-  </si>
-  <si>
-    <t>めん(小麦粉(国内製造), 小麦全粒粉, 食塩, 小麦たん白, 植物油脂, 大豆食物繊維, たん白加水分解物), スープ(しょうゆ, ポークエキス, 動物油脂, 唐辛子, 糖類, 香味油, 粉末かつお節, たん白加水分解物, チキンエキス, ポーク調味油, しょうゆ調味料, デキストリン, 食塩, ポークパウダー, ガーリックペースト), かやく(ねぎ)/加工デンプン, 調味料(アミノ酸等), 増粘剤(加工デンプン, 増粘多糖類), 着色料(カラメル, クチナシ, パプリカ色素), 炭酸カルシウム, かんすい, 乳化剤, 香辛料抽出物, 酸化防止剤(V.E), 香料, (一部に卵, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>牛乳(国内製造), 砂糖, コーヒー, 食塩/香料, 乳化剤, カゼインNa, 安定剤(カラギナン)</t>
-  </si>
-  <si>
-    <t>コーヒー(コーヒー豆(ブラジル又はベトナム(5%未満)))/香料</t>
-  </si>
-  <si>
-    <t>牛乳(国内製造), コーヒー, 砂糖, 食塩/香料, カゼインNa, 乳化剤, 安定剤(カラギナン), 甘味料(アセスルファムK)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, ココナッツオイル, ショートニング, 玄米粉, 醤油風味シーズニング(大豆を含む), ココナッツ, 食塩, 乳糖/膨張剤, 調味料(アミノ酸), 乳化剤, カラメル色素</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, ココナッツオイル, ショートニング, 玄米粉, 食塩, ココナッツ, 梅干しエキスパウダー, コーンスターチ, 乳糖/膨張剤, 酸味料, 乳化剤(大豆由来), 香料</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, ホタテエキス, 乳たん白), スープ(食塩, ポークエキス, 香辛料, たん白加水分解物, 糖類, 香味調味料, 酵母エキス, しょうゆ, ローストオニオン粉末)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 炭酸マグネシウム, 増粘多糖類, 香料, 酸化防止剤(ビタミンE), カロチノイド色素, 酸味料, 甘味料(スクラロース), ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 卵粉, しょうゆ), スープ(食塩, 豚脂, ポークエキス, 香辛料, 香味油, たん白加水分解物, 酵母エキス, しょうゆ, デキストリン, 糖類, ローストオニオン粉末, 香味調味料, 植物油脂), かやく(卵, 豚, 鶏味付肉, ニラ)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 香料, 増粘多糖類, ソルビット, グリセリン, カロチノイド色素, 微粒二酸化ケイ素, 乳化剤, 酸化防止剤(ビタミンE), 酸味料, 甘味料(スクラロース), 香辛料抽出物, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 卵粉, しょうゆ), スープ(みそ, 糖類, 豚脂, 食塩, 豚, 鶏エキス, デキストリン, 香辛料, たん白加水分解物, 香味油, 植物油脂, 酵母エキス, とろみ粉末(でん粉, デキストリン, 植物油脂), ねぎ, ホタテエキス, 香味調味料), かやく(キャベツ, 味付豚肉, コーン, 人参)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, カラメル色素, 香料, 炭酸マグネシウム, 増粘多糖類, 乳化剤, カロチノイド色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, ごま, さば, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), スープ(食塩, ポークエキス, 香辛料, トマトペースト, デキストリン, 糖類, しょうゆ, たん白加水分解物, 酵母エキス, ローストオニオン粉末, 醸造酢, 豚脂, 香味調味料), かやく(豚, 鶏味付肉, 卵, ニラ, 赤唐辛子)/加工デンプン, 調味料(アミノ酸等), カラメル色素, 炭酸カルシウム, かんすい, 増粘多糖類, ソルビット, 酒精, 香料, グリセリン, カロチノイド色素, 酸化防止剤(ビタミンE), 酸味料, 甘味料(スクラロース), ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩), ソース(半固体状ドレッシング, しょうゆ, 糖類, 豚脂, 食塩, ポークエキス, 魚醤, 魚介エキス, たん白加水分解物, 香味調味料, 香辛料), かやく(キャベツ), ふりかけ(たらこ加工品, 香辛料, のり)/調味料(アミノ酸等), 炭酸カルシウム, 酒精, かんすい, 増粘剤(加工デンプン, キサンタンガム), 乳化剤, 酸味料, カロチノイド色素, ベニコウジ色素, 香料, 酸化防止剤(ビタミンE), 香辛料抽出物, カラメル色素, 炭酸マグネシウム, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, かに, いか, さけ, さば, 大豆, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>めん(小麦粉(国内製造), 食塩, 植物油脂, 植物性たん白, 卵粉, 米麹調味料(でん粉, 米麹加工品, 塩麹, 食塩), ポークエキス), スープ(食塩, 糖類, 香辛料, 豚脂, 香味調味料, 豚, 鶏エキス, しょうゆ, たん白加水分解物, 酵母エキス, しょうゆもろみ, ローストオニオン粉末, 植物油脂)/加工デンプン, 調味料(アミノ酸等), 膨張剤, 酒精, かんすい, 炭酸カルシウム, 増粘剤(加工デンプン, 増粘多糖類), 香料, カラメル色素, 炭酸マグネシウム, カロチノイド色素, 酸味料, 酸化防止剤(ビタミンE), 乳化剤, (一部に卵, 乳成分, 小麦, えび, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>めん(小麦粉(国内製造), 植物油脂, 食塩, でん粉, しょうゆ, 植物性たん白, 香味調味料), スープ(食塩, しょうゆ, チキンオイル, 糖類, 豚脂, たん白加水分解物, 香味調味料, 香辛料, 香味油, 植物油脂, 鶏肉エキス), かやく(わかめ, 卵, ごま)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, カラメル色素, 酒精, 増粘多糖類, 酸味料, 乳化剤, 香料, カロチノイド色素, 微粒二酸化ケイ素, 甘味料(スクラロース), ビタミンB2, ビタミンB1, 香辛料抽出物, (一部に卵, 乳成分, 小麦, えび, 牛肉, ごま, さけ, さば, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>砂糖(タイ製造), 水あめ, ゼラチン, 食用油脂/甘味料(ソルビトール), 酸味料, 香料, ゲル化剤(ペクチン:オレンジ由来), 着色料(クチナシ, 野菜色素)</t>
-  </si>
-  <si>
-    <t>めん(小麦粉(国内製造), 食塩, 植物油脂, 植物性たん白, 卵白), 添付調味料(しょうゆ, チキンエキス, 食塩, 植物油, 鶏脂, ポークエキス, 香辛料, 砂糖, 野菜エキス, 発酵調味料, たん白加水分解物, 酵母エキス, ミート風味パウダー, 香味油脂)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, 酒精, 炭酸カルシウム, レシチン, 酸化防止剤(ビタミンC, ビタミンE), カラメル色素, クチナシ色素, 増粘多糖類, 香料, 甘味料(カンゾウ), 香辛料抽出物, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>めん(小麦粉(国内製造), 食塩, 植物性たん白, 植物油脂, 卵白), 添付調味料(みそ, ポークエキス, 食塩, 香辛料, 香味油脂, 野菜エキス, 植物油, ラード, 砂糖, 発酵調味料, デーツ果汁, たん白加水分解物)/加工でん粉, 調味料(アミノ酸等), トレハロース, 酒精, かんすい, 炭酸カルシウム, カラメル色素, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, (一部に小麦, 卵, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>めん(小麦粉(国内製造), 食塩, 植物油脂, 植物性たん白, 卵白), 添付調味料(チキンエキス, 食塩, ポークエキス, 香味油脂, しょうゆ, 野菜エキス, 植物油, 砂糖, 香辛料, 魚介エキス, たん白加水分解物, 豚脂)/加工でん粉, 調味料(アミノ酸等), 酒精, トレハロース, かんすい, 炭酸カルシウム, レシチン, 酸化防止剤(ビタミンC, ビタミンE), 増粘多糖類, 香料, クチナシ色素, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>めん(小麦粉(国内製造), 食塩, 植物性たん白, 植物油脂, 卵白), 添付調味料(ポークエキス, しょうゆ, 鶏脂, 食塩, でん粉, 砂糖, 香辛料, たん白加水分解物, 野菜エキス, 植物油)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, カラメル色素, 炭酸カルシウム, 増粘多糖類, 酒精, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>めん(小麦粉(国内製造), 植物油脂, 食塩, 植物性たん白, 卵白), 添付調味料(しょうゆ, ラード, 魚介エキス, 食塩, チキンエキス, ポークエキス, 香味油脂, 砂糖, 香辛料, 酵母エキス)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, 酒精, 炭酸カルシウム, レシチン, 酸化防止剤(ビタミンC, ビタミンE), カラメル色素, クチナシ色素, 増粘多糖類, 香料, (一部に小麦, 卵, さば, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(醤油, 食塩, チキンエキス, ラード, 砂糖, 香味油脂, たん白加水分解物, 植物油, 粉末野菜, ポークエキス, 香辛料, ねぎ, 酵母エキス, 発酵調味料), かやく(ワンタン, 味付鶏挽肉, コーン), 加工でん粉, 調味料(アミノ酸等), カラメル色素, 炭酸カルシウム, 酒精, かんすい, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, 増粘多糖類, 香料, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, ごま, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(みそ, ポークエキス, 醤油, 香味油脂, ラード, 香辛料, 植物油, 砂糖, 食塩, たん白加水分解物, 酵母エキス, ねぎ, 発酵調味料), かやく(コーン, 味付鶏挽肉), 加工でん粉, 調味料(アミノ酸等), カラメル色素, 酒精, 炭酸カルシウム, かんすい, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, 香料, 香辛料抽出物, pH調整剤, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, ごま, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(醤油, ポークエキス, 食塩, ラード, でん粉, 植物油, 香味油脂, 砂糖, たん白加水分解物, 香辛料, ねぎ, 粉末煮干し), かやく(焼豚, なると), 加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, 増粘多糖類, 酒精, かんすい, レシチン, 酸化防止剤(ビタミンE, ビタミンC), クチナシ色素, pH調整剤, カラメル色素, 香料, ベニコウジ色素, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, 鶏肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), かやく(ワンタン, 味付鶏挽肉), 添付調味料(チキンエキス, 香辛料, 砂糖, 食塩, 粉末野菜, しょうゆ, ねぎ, 植物油)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, レシチン, クチナシ色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(チキンエキス, しょうゆ, 食塩, 植物油, 発酵調味料, 砂糖, 野菜エキス, こんぶエキス, 香辛料, 酵母エキス, 鶏脂, ラード, 魚介エキス), かやく(ワンタン, 卵)/加工でん粉, 調味料(アミノ酸等), 酒精, 炭酸カルシウム, かんすい, 酸化防止剤(ビタミンC, ビタミンE), レシチン, クチナシ色素, カラメル色素, 増粘多糖類, カロチン色素, ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 精製ラード, 食塩, 植物性たん白), 添付調味料(食塩, 香辛料, チキンエキス, しょうゆ, 酵母エキス, 砂糖, 植物油)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 酸化防止剤(ビタミンE), 酸味料, クチナシ色素, (一部に小麦, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 精製ラード, 食塩), 添付調味料(食塩, しょうゆ, デキストリン, チキンエキス, ポークエキス, 香辛料(黒こしょう, ガーリックパウダー))/加工でん粉, カラメル色素, 炭酸カルシウム, 調味料(アミノ酸等), かんすい, 酸化防止剤(ビタミンE), クチナシ色素, 香料, 香辛料抽出物, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造又は国内製造), 小麦粉, 植物油脂, 全粉乳, カカオマス, 乳糖, ココアバター, ショートニング, ココアパウダー, 加糖脱脂練乳, 異性化液糖, 生クリーム, 食塩/乳化剤, 膨脹剤, 香料, 着色料(カラメル), (一部に乳成分, 小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>麦芽, ホップ, 大麦, コーン, 糖類</t>
-  </si>
-  <si>
-    <t>発泡酒(国内製造)(麦芽, ホップ, 大麦), スピリッツ(大麦)</t>
-  </si>
-  <si>
-    <t>Biscuits (wheat flour, sugar, shortening, vegetable oils and fats, other) (made domestically), quasi chocolate (sugar, vegetable oils and fats, cocoa powder, whole milk powder, skim milk powder, other)/emulsifiers, flavoring, caramel coloring, swelling agent, (may contains egg, dairies, contains wheat)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, whole milk powder, shortening, cocoa butter, margarine (contains dairies), liquid whole egg, yeast, edible processed oils and fats (contains wheat), caramel powder (contains dairies), lactose, caramel powder (contains dairies), western liquor, Uruchihie puff, salt, liquid egg white (contains eggs), cacao mass, syrup/sorbitol, uncalcined eggshell calcium (eggs-derived), alcohol, emulsifiers (soybean-derived), flavoring (milk-derived), yeast food (wheat-derived), trehalose, Vitamin C, vitamin D, coloring (carotene)</t>
-  </si>
-  <si>
-    <t>Maltose (made domestically), syrup, rice cake flour, vegetable oils and fats, sugar, lactose, dextrin, whole milk powder, cocoa butter, skim milk powder, cocoa powder, whey powder (contains dairies), coffee, western liquor, cream (contains dairies), cheese powder/trehalose, emulsifiers (soybean-derived), seasoning (amino acids), modified starches, alcohol, flavoring, sodium caseinate (milk-derived)</t>
+    <t>糖類(果糖ぶどう糖液糖, 砂糖), 酸味料, 香料, ビタミンC</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖, 桜の花エキス(国産), 炭酸, 香料, 酸味料, アントシアニン色素</t>
+  </si>
+  <si>
+    <t>エリスリトール, 酸味料, 香料, 甘味料</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖, 緑茶(静岡県産), 香料, 酸味料, ベニバナ黄色素, クチナシ青色素</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖, みそ, 炭酸, カラメル色素, 香料, 酸味料, 塩化ナトリウム, エルダベリー色素, カフェイン(抽出物)</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖, はるみ果汁(静岡県産)/炭酸, 香料, カロテン色素, ビタミンC, 酸味料, カフェイン(抽出物)</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖, 酸味料, 香料</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖, 香料, 酸味料</t>
+  </si>
+  <si>
+    <t>植物油脂(国内製造), 砂糖, ビスケット(小麦粉, 砂糖, ショートニング, 食塩), カカオマス, 小麦粉, 全粉乳, 乳糖, ココアバター, ココアパウダー, キャラメルパウダー, 食塩, イースト/乳化剤, 膨脹剤, 重曹, イーストフード, 香料, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造, 国内製造), カカオマス, 植物油脂, 全粉乳, 小麦粉, 乳糖, ココアバター, 乾燥あんず加工品, ココアパウダー, イースト/乳化剤, 酸味料, 香料, イーストフード, 重曹, リンゴ酸, パプリカ色素, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>焼酎(国内製造), 烏龍茶/香料, ビタミンC</t>
+  </si>
+  <si>
+    <t>レモンエキス, グレープフルーツエキス, オレンジエキス, ウォッカ/炭酸, 酸味料, 香料, 甘味料(ステビア), ビタミンC</t>
+  </si>
+  <si>
+    <t>焼酎, レモン, グレープフルーツ, 香料, 紅花色素</t>
+  </si>
+  <si>
+    <t>ぶどう, ぶどうエキス, ぶどうスピリッツ(国内製造), 焼酎, 糖類/炭酸, 香料, 酸味料, アントシアニン色素</t>
+  </si>
+  <si>
+    <t>もも, ももエキス, ももスピリッツ(国内製造), 焼酎, 糖類/炭酸, 香料, 酸味料</t>
+  </si>
+  <si>
+    <t>グレープフルーツ果汁, スピリッツ(国内製造)/炭酸, 酸味料, 甘味料(アセスルファムK, スクラロース), 香料</t>
+  </si>
+  <si>
+    <t>○ソーダ味:砂糖(国内製造), 水飴(国内製造)/酸味料, 香料, 着色料(クチナシ, 紅花黄)○オレンジ味:砂糖(国内製造), 水飴(国内製造)/酸味料, 香料, カロテノイド色素○グレープ味:砂糖(国内製造), 水飴(国内製造), 濃縮グレープ果汁/酸味料, 香料, 野菜色素, クチナシ色素○コーラ味:砂糖(国内製造), 水飴(国内製造)/酸味料, カラメル色素, 香料</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), salt, vegetable oils and fats, vegetable protein, egg white), accompanying seasoning (soy sauce, chicken extract, salt, vegetable oils, chicken fat, pork extract, spices, sugar, vegetable extract, fermented seasoning, hydrolyzed protein, yeast extract, meat flavored powder, flavoring oil)/modified starches, seasoning (such as amino acids), trehalose, brine, alcohol, calcium carbonate, lecithin, antioxidant (Vitamin C, vitamin E), caramel coloring, gardenia pigment, thickening polysaccharides, flavoring, sweetener (licorice), spice extracts, (may contain wheat, eggs, dairies, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), salt, vegetable protein, vegetable oils and fats, egg white), accompanying seasoning (miso, pork extract, salt, spices, flavoring oil, vegetable extract, vegetable oils, lard, sugar, fermented seasoning, date juice, hydrolyzed protein)/modified starches, seasoning (such as amino acids), trehalose, alcohol, brine, calcium carbonate, caramel coloring, lecithin, antioxidant (vitamin E), gardenia pigment, (may contain wheat, eggs, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), salt, vegetable oils and fats, vegetable protein, egg white), accompanying seasoning (chicken extract, salt, pork extract, flavoring oil, soy sauce, vegetable extract, vegetable oils, sugar, spices, seafood extract, hydrolyzed protein, lard)/modified starches, seasoning (such as amino acids), alcohol, trehalose, brine, calcium carbonate, lecithin, antioxidant (Vitamin C, vitamin E), thickening polysaccharides, flavoring, gardenia pigment, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), salt, vegetable protein, vegetable oils and fats, egg white), accompanying seasoning (pork extract, soy sauce, chicken fat, salt, starch, sugar, spices, hydrolyzed protein, vegetable extract, vegetable oils)/modified starches, seasoning (such as amino acids), trehalose, brine, caramel coloring, calcium carbonate, thickening polysaccharides, alcohol, lecithin, antioxidant (vitamin E), gardenia pigment, (may contain wheat, eggs, dairies, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), vegetable oils and fats, salt, vegetable protein, egg white), accompanying seasoning (soy sauce, lard, seafood extract, salt, chicken extract, pork extract, flavoring oil, sugar, spices, yeast extract)/modified starches, seasoning (such as amino acids), trehalose, brine, alcohol, calcium carbonate, lecithin, antioxidant (Vitamin C, vitamin E), caramel coloring, gardenia pigment, thickening polysaccharides, flavoring, (may contain wheat, eggs, mackerel, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (soy sauce, salt, chicken extract, lard, sugar, flavoring oil, hydrolyzed protein, vegetable oils, vegetable powder, pork extract, spices, green onions, yeast extract, fermented seasoning), garnish (wonton, seasoned minced chicken, corn), modified starches, seasoning (such as amino acids), caramel coloring, calcium carbonate, alcohol, brine, lecithin, antioxidant (vitamin E), gardenia pigment, thickening polysaccharides, flavoring, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, sesame seeds, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (miso, pork extract, soy sauce, flavoring oil, lard, spices, vegetable oils, sugar, salt, hydrolyzed protein, yeast extract, green onions, fermented seasoning), garnish (corn, seasoned minced chicken), modified starches, seasoning (such as amino acids), caramel coloring, alcohol, calcium carbonate, brine, lecithin, antioxidant (vitamin E), gardenia pigment, flavoring, spice extracts, pH regulator, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, sesame seeds, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (soy sauce, pork extract, salt, lard, starch, vegetable oils, flavoring oil, sugar, hydrolyzed protein, spices, green onions, niboshi powder), garnish (roasted pork, naruto), modified starches, seasoning (such as amino acids), calcium carbonate, thickening polysaccharides, alcohol, brine, lecithin, antioxidant (vitamin E, Vitamin C), gardenia pigment, pH regulator, caramel coloring, flavoring, monascus pigment, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, chicken, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, spices, vegetable powder, egg white), garnish (wonton, seasoned minced chicken), accompanying seasoning (chicken extract, spices, sugar, salt, vegetable powder, soy sauce, green onions, vegetable oils)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, lecithin, gardenia pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (chicken extract, soy sauce, salt, vegetable oils, fermented seasoning, sugar, vegetable extract, seaweed extract, spices, yeast extract, chicken fat, lard, seafood extract), garnish (wonton, eggs)/modified starches, seasoning (such as amino acids), alcohol, calcium carbonate, brine, antioxidant (Vitamin C, vitamin E), lecithin, gardenia pigment, caramel coloring, thickening polysaccharides, carotene dye, vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, purified lard, salt, vegetable protein), accompanying seasoning (salt, spices, chicken extract, soy sauce, yeast extract, sugar, vegetable oils)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, antioxidant (vitamin E), acidulant, gardenia pigment, (may contain wheat, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, purified lard, salt), accompanying seasoning (salt, soy sauce, dextrin, chicken extract, pork extract, spices (black pepper, garlic powder))/modified starches, caramel coloring, calcium carbonate, seasoning (such as amino acids), brine, antioxidant (vitamin E), gardenia pigment, flavoring, spice extracts, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, scallop extract, milk protein), soup (salt, pork extract, spices, hydrolyzed protein, sugars, flavored seasoning, yeast extract, soy sauce, roasted onion powder)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, magnesium carbonate, thickening polysaccharides, flavoring, antioxidant (vitamin E), carotenoid pigment, acidulant, sweetener (sucralose), vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, egg powder, soy sauce), soup (salt, lard, pork extract, spices, flavor oils, hydrolyzed protein, yeast extract, soy sauce, dextrin, sugars, roasted onion powder, flavored seasoning, vegetable oils and fats), garnish (eggs, pork, seasoned chicken meat, garlic chives)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, flavoring, thickening polysaccharides, sorbitol, glycerin, carotenoid pigment, fine silicon dioxide, emulsifiers, antioxidant (vitamin E), acidulant, sweetener (sucralose), spice extracts, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, egg powder, soy sauce), soup (miso, sugars, lard, salt, pork, chicken extract, dextrin, spices, hydrolyzed protein, flavor oils, vegetable oils and fats, yeast extract, toromi powder (starch, dextrin, vegetable oils and fats), green onions, scallop extract, flavored seasoning), garnish (cabbage, seasoned pork, corn, carrot)/modified starches, seasoning (such as amino acids), calcium carbonate, brine, caramel coloring, flavoring, magnesium carbonate, thickening polysaccharides, emulsifiers, carotenoid pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, sesame seeds, mackerel, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), soup (salt, pork extract, spices, tomato paste, dextrin, sugars, soy sauce, hydrolyzed protein, yeast extract, roasted onion powder, sake-brewed vinegar, lard, flavored seasoning), garnish (pork, seasoned chicken meat, eggs, garlic chives, red pepper)/modified starches, seasoning (such as amino acids), caramel coloring, calcium carbonate, brine, thickening polysaccharides, sorbitol, alcohol, flavoring, glycerin, carotenoid pigment, antioxidant (vitamin E), acidulant, sweetener (sucralose), vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt), sauce (semi-solid dressing, soy sauce, sugars, lard, salt, pork extract, fish sauce, seafood extract, hydrolyzed protein, flavored seasoning, spices), garnish (cabbage), furikake (processed cod roe, spices, seaweed)/seasoning (such as amino acids), calcium carbonate, alcohol, brine, thickener (modified starches, xanthan gum), emulsifiers, acidulant, carotenoid pigment, monascus pigment, flavoring, antioxidant (vitamin E), spice extracts, caramel coloring, magnesium carbonate, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, crab, squid, salmon, mackerel, soybeans, contains pork)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), salt, vegetable oils and fats, vegetable protein, egg powder, rice koji seasoning (starch, processed rice koji product, salt koji, salt), pork extract), soup (salt, sugars, spices, lard, flavored seasoning, pork, chicken extract, soy sauce, hydrolyzed protein, yeast extract, moromi soy sauce, roasted onion powder, vegetable oils and fats)/modified starches, seasoning (such as amino acids), swelling agent, alcohol, brine, calcium carbonate, thickener (modified starches, thickening polysaccharides), flavoring, caramel coloring, magnesium carbonate, carotenoid pigment, acidulant, antioxidant (vitamin E), emulsifiers, (may contains egg, dairies, wheat, shrimp, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), vegetable oils and fats, salt, starch, soy sauce, vegetable protein, flavored seasoning), soup (salt, soy sauce, chicken oil, sugars, lard, hydrolyzed protein, flavored seasoning, spices, flavor oils, vegetable oils and fats, chicken extract), garnish (seaweed, eggs, sesame seeds)/modified starches, seasoning (such as amino acids), calcium carbonate, brine, caramel coloring, alcohol, thickening polysaccharides, acidulant, emulsifiers, flavoring, carotenoid pigment, fine silicon dioxide, sweetener (sucralose), vitamin B2, vitamin B1, spice extracts, (may contains egg, dairies, wheat, shrimp, beef, sesame seeds, salmon, mackerel, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, soy sauce, salt, spices), sauce (sugars, spices, salt, powdered soy sauce, chicken seasoning, sesame seeds, yeast extract, vegetable seasoning oil)/modified starches, emulsifiers, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, monascus pigment, carotenoid pigment, flavoring, spice extracts, acidulant, sweetener (licorice, sucralose), thickener (guar gum), antioxidant (vitamin E), vitamin B2, vitamin B1, (may contain wheat, dairies, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce, psyllium seed coat, soy dietary fiber, chicken extract, chicken seasoning), soup (spices, sugars, salt, powder miso, chili miso, fish sauce, pork seasoning, seafood seasoning, niboshi powder, yeast extract, emulsified fats and oils, powdered soy sauce, hydrolyzed protein)/modified starches, seasoning (such as amino acids), calcium carbonate, brine, thickener (xanthan gum), caramel coloring, flavoring, spice extracts, antioxidant (vitamin E), emulsifiers, sweetener (acesulfame K, sucralose), vitamin B2, vitamin B1, acidulant, (may contain wheat, dairies, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), whole-wheat flour, salt, wheat protein, vegetable oils and fats, soy dietary fiber, hydrolyzed protein), soup (soy sauce, pork extract, animal fat, pepper, sugars, flavor oils, dried bonito powder, hydrolyzed protein, chicken extract, pork seasoning oil, soy sauce seasoning, dextrin, salt, pork powder, garlic paste), garnish (green onions)/modified starches, seasoning (such as amino acids), thickener (modified starches, thickening polysaccharides), coloring (caramel, Gardia jasminoides, paprika pigment), calcium carbonate, brine, emulsifiers, spice extracts, antioxidant (V. E), flavoring, (may contains egg, wheat, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Chocolate (sugar, whole milk powder, vegetable oils and fats, cocoa butter, cacao mass, lactose), wafers (wheat flour, sugar, starch, vegetable oils and fats, salt)/modified starches, emulsifiers (soybean-derived), shellfish calcium, flavoring, coloring (caramel), swelling agent</t>
+  </si>
+  <si>
+    <t>Chocolate (lactose, cocoa butter, sugar, vegetable oils and fats, whole milk powder, dried strawberries), wafers (wheat flour, sugar, starch, vegetable oils and fats, salt)/modified starches, flavoring, emulsifiers (soybean-derived), coloring (red beet, red yeast)shellfish calcium, swelling agent, acidulant</t>
+  </si>
+  <si>
+    <t>&lt;pineapple	&gt;glucose (made domestically), starch/modified starches, acidulant, emulsifiers, safflower pigment, flavoring&lt;melon&gt;glucose (made domestically), starch/modified starches, acidulant, emulsifiers, flavoring, coloring (safflower yellow, Gardia jasminoides)&lt;cola&gt;glucose (made domestically), starch/modified starches, acidulant, emulsifiers, caramel coloring, flavoring&lt;soda&gt;glucose (made domestically), starch/modified starches, acidulant, emulsifiers, flavoring&lt;grape&gt;glucose (made domestically), starch/modified starches, acidulant, emulsifiers, flavoring, coloring (vegetable coloring, Gardia jasminoides)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, vegetable oils and fats, whole milk powder, starch, cacao mass, shortening, sweetened condensed milk, cocoa powder, cream powder, malt extract, salt, cocoa butter, soybean germ extract/swelling agent, emulsifiers, flavoring</t>
+  </si>
+  <si>
+    <t>Corn puff (corn grits, sugar, vegetable oils and fats, syrup, cocoa powder, salt) (made domestically), sugar, vegetable oils and fats, cacao mass, lactose, whole milk powder, cocoa butter, syrup/brightener, thickener (gum arabic), emulsifiers (soybean-derived), flavoring, caramel coloring</t>
+  </si>
+  <si>
+    <t>Sugar (domestic or Korean manufacturing), wheat flour, vegetable oils and fats, whole milk powder, lactose, cacao mass, whey powder, cookie crunch, cocoa powder, starch, shortening, salt/emulsifiers (soybean-derived), caramel coloring, swelling agent, flavoring</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), glucose, syrup, gelatin, oolong tea extract/gum base, acidulant, softening agent, flavoring, Vitamin C, gardenia pigment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (green apple)sugar (made domestically), syrup, gelatin, glucose-fructose syrup, concentrated green apple juice/acidulant, gelling agent (pectin), flavoring, brightener, coloring (Yellow No. 4, Blue No. 1), (may contain apple, contains gelatin) (lemon)sugar (made domestically), syrup, gelatin, glucose-fructose syrup, concentrated lemon juice/acidulant, flavoring, gelling agent (pectin), brightener, coloring (Yellow No. 4), (may contain gelatin) (grape)sugar (made domestically), syrup, gelatin, glucose-fructose syrup, concentrated grape juice/acidulant, flavoring, gelling agent (pectin), brightener, sweetener (acesulfame K, stevia), coloring (Red No. 40, Blue No. 1), (may contain gelatin) (strawberry)sugar (made domestically), syrup, gelatin, glucose-fructose syrup, concentrated strawberry juice/acidulant, gelling agent (pectin), flavoring, brightener, coloring (Red No. 40), (may contain gelatin)</t>
+  </si>
+  <si>
+    <t>Potato flakes (American made or German made or others), vegetable oils and fats, salt/emulsifiers, seasoning (amino acids)</t>
+  </si>
+  <si>
+    <t>Potato flakes (American made or German made or others), vegetable oils and fats, consomme seasoning (chicken extract powder, glucose, salt, sugar, onion powder, vegetable extract powder, yeast extract powder, dextrin, lactose, spices, hydrolyzed protein, vegetable oils and fats), sugar, onion powder, salt, spices/seasoning (such as amino acids), emulsifiers, paprika pigment, modified starches, flavoring, acidulant, sweetener (licorice), spice extracts, (may contain wheat, eggs, dairies, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, lard, soy sauce, salt, spices), accompanying seasoning (sugars, hydrolyzed protein, salt, soy sauce, sake-brewed vinegar, pork extract, vegetable oils and fats, apple, spices, tomato, vegetable extract, starch), garnish (cabbage, seasoned minced chicken), seasoning (such as amino acids), alcohol, caramel coloring, paprika pigment, spice extracts, thickener (guar gum), brine, antioxidant (vitamin E, rosemary extract), sweetener (stevia, licorice), baking soda, vitamin B2</t>
+  </si>
+  <si>
+    <t>Wheat flour, sugar, chocolate (contains dairies), shortening (contains soybeans), reduced starch syrup, white bean jam (raw bean paste, sugar, syrup, reduced malt syrup), cocoa powder, soy flour, egg processed products (chicken's egg, sugar), syrup, skim milk powder, egg yolk powder (contains eggs), whole milk powder, starch degradation products, cacao mass, salt, yeast extract/modified starches, emulsifiers (soybean-derived), flavoring, swelling agent</t>
+  </si>
+  <si>
+    <t>Sugar mixed high-fructose corn syrup sugar, acidulant, flavoring, coloring (Blue No. 1)</t>
+  </si>
+  <si>
+    <t>Sugar mixed high-fructose corn syrup sugar, acidulant, flavoring, coloring (Yellow No. 4, Red No. 40)</t>
+  </si>
+  <si>
+    <t>Sugar mixed high-fructose corn syrup sugar, salt, flavoring, acidulant, fruit dye</t>
+  </si>
+  <si>
+    <t>Vegetable oils and fats (made domestically), sugar, biscuits (wheat flour, sugar, shortening, cocoa powder, salt), wheat flour, cacao mass, lactose, whole milk powder, cocoa butter, cocoa powder, yeast/emulsifiers, swelling agent, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), whole grain biscuits (wheat flour, sugar, shortening, whole-wheat flour, salt), wheat flour, lactose, vegetable oils and fats, sugar, cocoa powder, whole milk powder, cacao mass, yeast, cocoa butter/emulsifiers, swelling agent, caramel coloring, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), biscuits (wheat flour, sugar, shortening, salt), wheat flour, vegetable oils and fats, lactose, matcha, sugar, cocoa powder, green tea, whole milk powder, cacao mass, yeast, cocoa butter/emulsifiers, swelling agent, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), biscuits (wheat flour, sugar, shortening, salt), wheat flour, lactose, vegetable oils and fats, sugar, strawberry fruit juice powder, processed dried strawberries, yeast, cocoa powder, whole milk powder, cacao mass, cocoa butter/emulsifiers, acidulant, swelling agent, flavoring, coloring (red beet, red yeast), baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Cacao mass (Côte d'Ivoire or domestic production or others), sugar, wheat flour, cocoa butter, lactose, cocoa powder, vegetable oils and fats, cacao nibs, whole milk powder, yeast/emulsifiers, baking soda, yeast food, flavoring, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production, made domestically), whole milk powder, lactose, cacao mass, wheat flour, vegetable oils and fats, cocoa butter, orange juice powder, yeast, cocoa powder/emulsifiers, flavoring, acidulant, baking soda, yeast food, (may contain wheat, dairies, orange, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Quasi chocolate (sugar, lactose, vegetable oils and fats, whole milk powder, cocoa butter) (made domestically), wheat flour, vegetable oils and fats, lactose, sugar, natural cheese, salt, yeast, cocoa powder, whole milk powder, cacao mass, cocoa butter/emulsifiers, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans</t>
+  </si>
+  <si>
+    <t>Cacao mass (Côte d'Ivoire or domestic production or others), sugar, wheat flour, lactose, vegetable oils and fats, cocoa butter, cacao nibs, cocoa powder, whole milk powder, yeast/emulsifiers, gum arabic, brightener, baking soda, yeast food, flavoring, (may contain wheat, dairies, contains soybeans</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production, made domestically), whole milk powder, lactose, wheat flour, vegetable oils and fats, cacao mass, cocoa butter, cocoa powder, yeast/emulsifiers, gum arabic, brightener, baking soda, yeast food, flavoring, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production, made domestically), whole milk powder, lactose, vegetable oils and fats, wheat flour, cacao mass, cocoa butter, strawberry fruit juice powder, yeast, cocoa powder/emulsifiers, acidulant, gum arabic, flavoring, brightener, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production, made domestically), lactose, wheat flour, whole milk powder, vegetable oils and fats, biscuits (wheat flour, sugar, shortening, cocoa powder, salt), cacao mass, cocoa butter, cocoa powder, yeast/emulsifiers, gum arabic, swelling agent, brightener, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Corn grits (not genetically modified) (made domestically), vegetable oils, dextrin, sugar, salt, glucose, cheese powder, yeast extract powder, concentrated whey powder protein, red pepper powder, onion powder/flavoring, seasoning (such as amino acids), coloring (carotenoids, caramel), acidulant, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Corn (not genetically modified) (made in the USA), vegetable oils, sugar, powdered soy sauce, glucose, salt, onion powder, spices, pork extract powder, yeast extract powder/seasoning (such as amino acids), flavoring, coloring (caramel, carotenoids), sweetener (acesulfame K, stevia, licorice), acidulant, (may contain wheat, sesame seeds, soybeans, contains pork)</t>
+  </si>
+  <si>
+    <t>Corn grits (not genetically modified) (made domestically), vegetable oils, sugar, powdered soy sauce, glucose, hydrolyzed protein, onion powder, salt, yeast extract powder, beef extract seasoning, black pepper/seasoning (such as amino acids), coloring (caramel, carotenoids), flavoring, acidulant, sweetener (aspartame, L-phenylalanine compound, sucralose), spice extracts, (may contain wheat, beef, sesame seeds, soybeans, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, powdered egg, sugars), soup (miso, salt, sugars, pork extract, red chili paste, vegetable oils and fats, lard, chili bean sauce, spices, flavored cooking oil, seasoning oil, hydrolyzed protein), garnish (green onions, chicken, seasoned minced pork, corn), modified starches, seasoning (such as amino acids), alcohol, calcium carbonate, caramel coloring, flavoring, gardenia pigment, brine, thickener (xanthan), acidulant, antioxidant (vitamin E, rosemary extract), vitamin B2, vitamin B1, spice extracts, (some part of raw materials may contains sesame)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, miso, sugars), soup (lard, soy sauce, salt, sugars, pork extract, chicken extract, hydrolyzed protein, vegetable oils and fats, spices, yeast extract), garnish (char siu, green onions), modified starches, seasoning (such as amino acids), alcohol, caramel coloring, calcium carbonate, brine, lecithin, gardenia pigment, thickener (xanthan), flavoring, antioxidant (vitamin E), vitamin B2, vitamin B1, (some parts of the raw materials may contain eggs, contains dairies)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, salt), sauce (sauce, sugars, salt, lard, vegetable oils and fats, spices, hydrolyzed protein, flavored seasoning), garnish (cabbage), caramel coloring, seasoning (such as amino acids), calcium carbonate, brine, acidulant, antioxidant (vitamin E), flavoring, thickener (xanthan), vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, soybeans, apple, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, soy dietary fiber), soup (soy sauce, salt, hydrolyzed protein, pork extract, sugars, lard, vegetable oils and fats, dried bonito extract, yeast extract, spices, niboshi sardine powder), garnish (char siu, menma, naruto, green onions), seasoning (such as amino acids), alcohol, caramel coloring, calcium carbonate, flavoring, brine, thickener (xanthan), lecithin, gardenia pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, monascus pigment, (some parts of the raw materials may contain eggs, contains dairies)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, starch, salt, soy sauce, hydrolyzed protein), soup (sugars, salt, soy sauce, shellfish extract, vegetable powder, chicken extract, pork extract, shrimp extract, spices, hydrolyzed protein), garnish (kamaboko, corn)/seasoning (such as amino acids), modified starches, calcium carbonate, caramel coloring, brine, thickening polysaccharides, acidulant, antioxidant (vitamin E), gardenia pigment, sepia dye, vitamin B2, vitamin B1, monascus pigment, (may contain shrimp, wheat, dairies, squid, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Malt (foreign or domestic manufacturing (5%less than)), hop, rice, corn, starch</t>
+  </si>
+  <si>
+    <t>Malt, hop</t>
+  </si>
+  <si>
+    <t>Low-malt beer (made domestically) (malt, hop, barley), spirits (barley)</t>
+  </si>
+  <si>
+    <t>Low-malt beer (made domestically) (malt (barley malt, wheat malt), hop, barley, coriander seed, orange peel), spirits (barley)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), glucose, syrup, reduced starch syrup/gum base, acidulant, flavoring</t>
+  </si>
+  <si>
+    <t>Glucose, sugar, isomaltooligosaccharide, starch, emulsifiers, acidulant, paste (pullulan), calcium lactate, anthocyanin pigment, flavoring</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), sugar/emulsifiers, acidulant, paste (pullulan, modified starches), flavoring, caramel coloring</t>
+  </si>
+  <si>
+    <t>(lemon flavor)sugar (made domestically), syrup, concentrated lemon juice, herbal extract (contains orange)
+(peach flavor)sugar (made domestically), syrup, concentrated peach juice, herbal extract (contains orange)
+(grape flavor)sugar (made domestically), syrup, concentrated grape juice, herbal extract (contains orange)
+(orange flavor)sugar (made domestically), syrup, concentrated orange juice, herbal extract (contains orange)
+(green apple flavor)sugar (made domestically), syrup, concentrated apple juice, herbal extract (contains orange)</t>
+  </si>
+  <si>
+    <t>Glucose, sugar, starch, gelatin, acidulant, emulsifiers, brightener, flavoring, coloring (Gardia jasminoides, vegetable coloring, carotenoids), paste (gum arabic)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), soup (powder miso, miso, sugar, salt, starch, spices, pork extract, pork seasoning, lard, emulsified fats and oils, yeast extract, miso processed product, flavored seasoning, hydrolyzed protein, seafood extract, vegetable oils and fats), garnish (processed soybean, menma, green onions, pepper)/modified starches, seasoning (such as amino acids), calcium carbonate, flavoring, alcohol, thickening polysaccharides, caramel coloring, carotenoid pigment, brine, antioxidant (vitamin E), fine silicon dioxide, sweetener (licorice), acidulant, spice extracts, vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Sugars (sugar, glucose), ginseng root extract, L‐carnitine L‐tartrate, sodium chloride, guarana seed extract, citric acid, flavoring, sweetener (D‐ribose, sucralose), L‐arginine, sodium citrate, caffeine, preservatives (benzoic acid), niacin, coloring (anthocyanin), inositol, V. B6, V. B2, V. B12</t>
+  </si>
+  <si>
+    <t>Fruits (apple, orange, guava, pineapple, passion fruit), sugars (sugar, glucose), ginseng root extract, L-carnitine L-tartrate, vegetable oils, sodium chloride, guarana seed extract/carbonic acid, citric acid, flavoring, preservatives (sodium benzoate), L-Arginine, sodium citrate, caffeine, sweetener (sucralose), niacin, inositol, vitamin B6, vitamin B2, coloring (β-carotene), vitamin B12</t>
+  </si>
+  <si>
+    <t>Sugar, vegetable oils and fats, corn grits (not genetically modified), bread crumbs, margarine, cocoa powder, sweetened condensed milk, caramel sauce, salt, cream (dairy products), fermentation flavor powder, lactose, cacao mass, whole milk powder, cream powder, calcium carbonate, caramel coloring, flavoring, emulsifiers, trehalose, (some parts of the raw materials may contain soybeans)</t>
+  </si>
+  <si>
+    <t>Corn grits (not genetically modified), sugar, vegetable oils and fats, margarine, cocoa powder, sweetened condensed milk, caramel sauce, salt, cream (dairy products), fermentation flavor powder, lactose, cacao mass, whole milk powder, protein hydrolyzate, cream powder, caramel coloring, calcium carbonate, flavoring, emulsifiers, trehalose, (some parts of the raw materials may contain wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>〈grape〉sugar (made domestically), syrup, grape paste/acidulant, flavoring, coloring (anthocyanin, Gardia jasminoides), tea extract〈orange〉sugar (made domestically), syrup, orange paste/acidulant, flavoring, coloring (carotenoids), tea extract〈strawberry〉sugar (made domestically), syrup, strawberry paste/acidulant, flavoring, coloring (anthocyanin, carotenoids), tea extract〈melon〉sugar (made domestically), syrup, concentrated melon juice/acidulant, coloring (red yeast, Gardia jasminoides), flavoring, tea extract</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sweetened condensed milk, white sugar, fresh cream (contains dairies), vegetable oils and fats, milk, salt/emulsifiers</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), starch/acidulant, emulsifiers, flavoring</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, soy sauce, sugar, salt, chicken extract, protein hydrolyzate, meat seasoning extract, meat seasoning powder, yeast extract powder, pork powder, seafood powder/modified starches, seasoning (such as amino acids), calcium carbonate, antioxidant (vitamin E), (may contain wheat, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, sauce (sugar, vegetables, fruits, sake-brewed vinegar, salt, amino acid solution, other), sugar, salt, sauce flavor powder, spices, sea lettuce powder, vegetable powder, meat seasoning extract, vegetable extract, seafood extract, fish sauce powder (seafood)/modified starches, seasoning (such as amino acids), calcium carbonate, flavoring, caramel coloring, emulsifiers, acidulant, antioxidant (vitamin E), spice extracts, (may contain wheat, eggs, dairies, fish sauce powder (seafood), beef, mackerel, soybeans, chicken, pork, peaches, contains apple)</t>
+  </si>
+  <si>
+    <t>Sugar (produced in Japan or other countries), wheat flour, vegetable oils and fats, cacao mass, starch, shortening, lactose, whole milk powder, liquid egg, whey powder, cream powder, skim milk powder, salt, cocoa powder, cocoa butter/calcium carbonate, swelling agent, caramel coloring, emulsifiers (soybean-derived), flavoring</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), wheat flour, vegetable oils and fats, lactose, starch, shortening, cocoa butter, whole milk powder, whey powder, liquid egg, maltitol, strawberry powder, cream powder, salt/calcium carbonate, swelling agent, coloring (caramel, red yeast, red beet), flavoring, emulsifiers (soybean-derived)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically, foreign production), wheat flour, vegetable oils and fats, lactose, starch, shortening, cocoa butter, whole milk powder, whey powder, liquid egg, whole-wheat flour, foods made mainly from milk (fermented butter, vegetable oils and fats, butter oil, skim milk powder, salt), skim milk powder, cream powder, salt/swelling agent, caramel coloring, flavoring, emulsifiers (soybean-derived)</t>
   </si>
   <si>
     <t>Wheat flour (made domestically), sugar, cacao mass, whole milk powder, vegetable oils and fats, shortening, margarine (contains dairies), lactose, butter, cocoa butter, skim milk powder, sweetened condensed milk, liquid whole egg, Uruchihie puff, sesame seeds, glucose, salt, dried egg white (contains eggs)/phosphate Ca, emulsifiers (soybean-derived), swelling agent, flavoring (milk-derived), coloring (carotenoids), vitamin D</t>
   </si>
   <si>
-    <t>Peanut (American product), dried potato, vegetable oils and fats, chili pepper powder, salt, garlic powder, onion powder, sugar, yeast extract powder, garlic flavored powder, protein hydrolyzate, glucose, vegetable extract powder, chili powder, chicken powder, lactose, white pepper powder, cumin powder, paprika powder, oligosaccharide, habanero paste/modified starches, seasoning (such as amino acids), calcium carbonate, flavoring, carotenoid pigment, antioxidant (vitamin E), spice extracts, acidulant, caramel coloring, (some parts of the raw materials may contain dairies, wheat, peanut, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Dried potato (foreign production), vegetable oils and fats, chili pepper powder, salt, garlic powder, onion powder, sugar, yeast extract powder, garlic flavored powder, protein hydrolyzate, glucose, vegetable extract powder, chili powder, chicken powder, lactose, white pepper powder, cumin powder, paprika powder, habanero paste/modified starches, seasoning (such as amino acids), calcium carbonate, flavoring, carotenoid pigment, antioxidant (vitamin E), spice extracts, acidulant, caramel coloring, (some parts of the raw materials may contain dairies, wheat, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Dried potato (foreign production), vegetable oils and fats, salt, sugar, potato flavored powder (dextrin, salt, potato powder, soy sauce seasoning, yeast extract powder, powdered flavor oil, beef flavored powder, flavor oils), glucose, powdered fats and oils, beef flavored powder (beef extract powder, salt, protein hydrolyzate, beef seasoning, lactose, vegetable extract powder, spices), starch, yeast extract powder/modified starches, trehalose, seasoning (such as amino acids), thickener (curdlan), calcium carbonate, flavoring, sweetener (sucralose), antioxidant (vitamin E), acidulant, (some parts of the raw materials may contain dairies, wheat, beef, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Dried potato (foreign production), vegetable oils and fats, sour cream onion flavored powder (salt, whey powder (dairy products), sugar, onion powder, powdered vinegar, protein hydrolyzate, green onion extract powder, dextrin, yeast extract powder), salt, onion powder, powdered fats and oils, sugar, starch/modified starches, trehalose, seasoning (such as amino acids), thickener (curdlan), acidulant, flavoring, calcium carbonate, spice extracts, sweetener (sucralose, stevia), antioxidant (vitamin E), (some parts may contain dairies)</t>
-  </si>
-  <si>
-    <t>Dried potato (foreign production), vegetable oils and fats, corn grits, wheat flour, powdered fats and oils, salt (Naruto roasted Salt 59%), sugar, beef oil, dextrin, glucose, yeast extract powder/trehalose, cellulose, seasoning (such as amino acids), flavoring, eggshell Ca, thickener (curdlan), lactic acid Ca, calcium chloride, calcium carbonate, (may contains egg, contains wheat)</t>
-  </si>
-  <si>
-    <t>Dried potato (foreign production), vegetable oils and fats (palm oil, coconut oil, rice oil, sesame oil), corn grits, wheat flour, powdered fats and oils, salt, sugar, sea lettuce, yeast extract powder, seasoning powder (salt, glucose, yeast extract powder), green seaweed, chili pepper powder/trehalose, cellulose, seasoning (such as amino acids), flavoring, eggshell Ca, thickener (curdlan), lactic acid Ca, calcium chloride, calcium carbonate, (may contains egg, wheat, shrimp, crab, contains sesame)</t>
-  </si>
-  <si>
-    <t>Sugar, vegetable oils and fats, corn grits (not genetically modified), bread crumbs, margarine, cocoa powder, sweetened condensed milk, caramel sauce, salt, cream (dairy products), fermentation flavor powder, lactose, cacao mass, whole milk powder, cream powder, calcium carbonate, caramel coloring, flavoring, emulsifiers, trehalose, (some parts of the raw materials may contain soybeans)</t>
-  </si>
-  <si>
-    <t>Dried potato (not genetically modified), vegetable oils and fats, corn powder (not genetically modified), sugar, shortening, starch, salt, cheese powder, butter powder, glucose, fermented seasoning powder, yeast extract powder, onion powder, spinach powder, dextrin, carrot extract powder, wheat flour, cabbage powder, powdered soy sauce, chicken extract powder/modified starches, trehalose, emulsifiers, calcium chloride, seasoning (such as amino acids), calcium carbonate, lactic acid Ca, flavoring, caramel coloring, carotenoid pigment, (some parts of the raw materials may contain dairies, wheat, soybeans, contains chicken)</t>
-  </si>
-  <si>
-    <t>Corn grits (not genetically modified), sugar, vegetable oils and fats, margarine, cocoa powder, sweetened condensed milk, caramel sauce, salt, cream (dairy products), fermentation flavor powder, lactose, cacao mass, whole milk powder, protein hydrolyzate, cream powder, caramel coloring, calcium carbonate, flavoring, emulsifiers, trehalose, (some parts of the raw materials may contain wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Glucose-fructose syrup (made domestically), salt, ginseng extract, prepared royal jelly, guarana, maca/carbonic acid, acidulant, flavoring, V. C, sweetener (acesulfame K, aspartame, L-phenylalanine compound), carotene dye, caffeine, arginine, alanine, glycine, leucine, niacin, isoleucine, valine, V. B6</t>
-  </si>
-  <si>
-    <t>Milk, coffee, sugar, skim milk powder, whole milk powder, dextrin, sodium caseinate, emulsifiers, flavoring, antioxidant (Vitamin C)</t>
-  </si>
-  <si>
-    <t>Milk, coffee, sugar, whole milk powder, dextrin/emulsifiers, sodium caseinate, flavoring, antioxidant (Vitamin C), sweetener (acesulfame K, sucralose)</t>
-  </si>
-  <si>
-    <t>Coffee (coffee beans (made in Brazil, from Ethiopia, other))/flavoring, antioxidant (Vitamin C)</t>
-  </si>
-  <si>
-    <t>Milk, sugar, coffee, skim milk powder, whole milk powder, milk sauce, dextrin, emulsifiers, flavoring, sodium caseinate, antioxidant (Vitamin C)</t>
-  </si>
-  <si>
-    <t>Coffee, milk, sugar, whole milk powder, skim milk powder, dextrin/flavoring, emulsifiers, sodium caseinate, sweetener (acesulfame K, sucralose)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), soup (powder miso, miso, sugar, salt, starch, spices, pork extract, pork seasoning, lard, emulsified fats and oils, yeast extract, miso processed product, flavored seasoning, hydrolyzed protein, seafood extract, vegetable oils and fats), garnish (processed soybean, menma, green onions, pepper)/modified starches, seasoning (such as amino acids), calcium carbonate, flavoring, alcohol, thickening polysaccharides, caramel coloring, carotenoid pigment, brine, antioxidant (vitamin E), fine silicon dioxide, sweetener (licorice), acidulant, spice extracts, vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Glucose, sugar, starch, gelatin, acidulant, emulsifiers, brightener, flavoring, coloring (Gardia jasminoides, vegetable coloring, carotenoids), paste (gum arabic)</t>
-  </si>
-  <si>
-    <t>Vegetables (carrots (import), kale, spinach, asparagus, watercress, parsley, pumpkin, lettuce, cabbage, beat, radish, chinese cabbage, onions, celery), fruits (grape, apple, lemon, banana), creaming powder, dietary fiber, agar, plant-derived lactic acid bacteria (sterilization)/pH regulator, emulsifiers, Vitamin C, flavoring, (some parts of the raw materials may contain dairies, banana, contains apple)</t>
+    <t>Wheat flour (made domestically), vegetable oils and fats, almond, starch, sugar, onion paste, pork extract powder, shortening, garlic powder, malt extract, chicken extract powder, wheat protein, salt, soy sauce seasoning, pepper, dried brewer's yeast, yeast extract powder, bacon extract, onion seasoning, yeast/modified starches, seasoning (such as amino acids), flavoring, emulsifiers, liquid smoke, (some parts of the raw materials may contain dairies, wheat, soybeans, chicken, pork, sesame seeds, contains almonds)</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, vegetable oils and fats, gelatin, concentrated strawberry juice, strawberry fruit juice powder, lactic fermenting beverage (contains dairies)/acidulant, red cabbage dye, glycerin, flavoring, emulsifiers</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, vegetable oils and fats, gelatin, grape juice, concentrated yogurt (contains dairies)/acidulant, glycerin, emulsifiers, flavoring, safflower yellow coloring, gardenia blue pigment</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, glucose, vegetable oils and fats, gelatin, concentrated mandarin orange juice/sorbitol, thickening polysaccharides, acidulant, glycerin, flavoring, emulsifiers, paprika pigment, safflower yellow coloring</t>
+  </si>
+  <si>
+    <t>Sugar, maltose, gelatin, concentrated apple juice, salt, other</t>
+  </si>
+  <si>
+    <t>Non-glutinous rice (domestic), vegetable oils and fats, bonito flavor seasoning (glucose, seasoned dried bonito powder, hydrolyzed protein, salt, other), starch, shrimp, other</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), margarine, sugar, whole-wheat flour, fermented flavor liquid, salt, sterilized lactic acid bacteria powder/flavoring, carotene dye, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), syrup, starch/modified starches, emulsifiers, caramel coloring, flavoring</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, vegetable oils and fats, concentrated grape juice/acidulant, flavoring, coloring (anthocyanin, Gardia jasminoides, red yeast, gold leaf), tea extract, tannin (extract), emulsifiers</t>
+  </si>
+  <si>
+    <t>Potato flakes (American made or German made or others), vegetable oils and fats, sweet shrimp powder, salt/modified starches, emulsifiers, seasoning (amino acids), (may contain shrimp)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, processed oils and fats, lactose, strawberry powder, salt, strawberry fruit juice powder/modified starches, trehalose, swelling agent, monascus pigment, acidulant, emulsifiers (soybean-derived), flavoring</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), shortening, whey powder, processed oils and fats, cheese powder, sugar, high-fructose corn syrup sugar, malt extract, salt, fermented seeds, malt flower, yeast/swelling agent, emulsifiers, annatto pigment, flavoring, modified starches, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), shortening, whey powder, processed oils and fats, cheese powder, sugar, high-fructose corn syrup sugar, garlic powder, olive oil, Ajillo Seasoning, malt extract, anchovy powder, salt, fermented seeds, malt flower, yeast/swelling agent, emulsifiers, flavoring, spice extracts, (may contain wheat, dairies, soybeans, fish sauce (seafood)is contained)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, processed oils and fats, lactose, foods made mainly from milk (sweetened condensed milk, defatted concentrated milk, concentrated milk, cream, skim milk powder, lactose, sugar), reduced starch syrup, eggs, vegetable oils and fats, skim milk powder, margarine, salt, maltose, wheat fiber, syrup/emulsifiers (soybean-derived), crystalline cellulose, flavoring</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils and fats, beef stew seasoning, sugar, salt/seasoning (such as amino acids), baking soda, flavoring, acidulant, sweetener (aspartame, L-phenylalanine compound, sucralose), antioxidant (vitamin E), spice extracts, (some parts of the raw materials may contain dairies, wheat, soybeans, contains pork)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, skim milk powder, strawberry juice/acidulant, flavoring, anthocyanin pigment</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, concentrated fruit juice (orange, unshu orange)/acidulant, flavoring, coloring (safflower yellow, paprika pigment), (may contain oranges)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, whole milk powder, vegetable oils and fats, grape juice, salt/acidulant, flavoring, coloring (anthocyanin, Gardia jasminoides), emulsifiers, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, whole milk powder, vegetable oils and fats, orange juice concentrate, salt/acidulant, flavoring, coloring (paprika pigment), emulsifiers, (some parts of the raw materials may contain dairies, orange, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, whole milk powder, vegetable oils and fats, cocoa powder, salt/flavoring, acidulant, coloring (caramel), emulsifiers, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Potato (made in Biei, Hokkaido 100%), vegetable oils, salt, dextrin, konbu extract powder/seasoning (such as amino acids)</t>
+  </si>
+  <si>
+    <t>Potato (made in Biei, Hokkaido 100%), vegetable oils, powdered soy sauce (wheat, contains soybeans), glucose, salt, starch, skim milk powder, maltitol, dextrin, whole milk powder, butter, butter milk powder, whey powder, alcohol powder/seasoning (such as amino acids), flavoring, caramel coloring, acidulant, bitterness</t>
+  </si>
+  <si>
+    <t>Potato (Hokkaido 100%), vegetable oils, salt, dextrin, starch/seasoning (such as amino acids)</t>
+  </si>
+  <si>
+    <t>Potato (Hokkaido 100%), vegetable oils, sugar, salt, skim milk powder, hydrolyzed protein, glucose, cheese powder (cheddar cheese powder, camembert cheese powder, gouda cheese powder), yeast extract powder/seasoning (such as amino acids), flavoring, acidulant, sweetener (stevia, licorice), paprika pigment</t>
+  </si>
+  <si>
+    <t>Dried potatoes (Made in USA or Made in Germany), vegetable oils, salt, sugar, dextrin, powdered soy sauce (wheat, contains soybeans), hydrolyzed protein, black pepper, yeast extract powder, chicken extract powder, garlic, ginger, celery seed, thymes, fennel, allspice, cumin, oregano, sage, paprika, nutmeg, coriander/emulsifiers, seasoning (such as amino acids), flavoring (eggs, contains sesame), coloring (carotenoids, caramel), acidulant</t>
+  </si>
+  <si>
+    <t>Potato (America), vegetable oils, powdered soy sauce (wheat, contains soybeans), dextrin, salt, concentrated whey powder protein, butter powder, yeast extract powder, butter/seasoning (such as amino acids), flavoring, caramel coloring, acidulant, sweetener (stevia), antioxidant (V. C)</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), vegetable oils, glucose, salt, hydrolyzed protein (wheat, soybeans, contains chicken), starch, dextrin, black pepper, whey powder, garlic powder, cheese powder, yeast extract powder, pepper/seasoning (such as amino acids), flavoring, paprika pigment, acidulant</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils, sweet corn powder, glucose, salt, sugar, cheese powder, hydrolyzed protein (contains soybeans), starch/seasoning (such as amino acids), flavoring (contains wheat), calcium carbonate, acidulant, paprika pigment, sweetener (stevia, licorice)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils, starch, shrimp, sugar, salt, creaming powder, oil adjustment powder, hydrolyzed protein (contains soybeans), onion powder, cheddar cheese powder, foods made mainly from milk/seasoning (such as amino acids), swelling agent, flavoring, sweetener (aspartame, L-phenylalanine compound, licorice, stevia), paprika pigment</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production, made domestically), syrup, maltose, gelatin, concentrated strawberry juice, vegetable oils and fats</t>
+  </si>
+  <si>
+    <t>Rice (non-glutinous rice (domestic), non-glutinous rice powder (domestic)), vegetable oils and fats, starch, sugar, salt, garlic powder, foods made mainly from milk, powdered fats and oils (dairies, contains soybeans), protein hydrolyzate (contains pork), cheese powder, butter powder, soy sauce powder (wheat, contains soybeans)/seasoning (such as amino acids), flavoring (eggs, milk, derived from chicken), acidulant, sweetener (stevia), caramel coloring</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, cacao mass, vegetable oils and fats, whole milk powder, cocoa butter, rye flour, shortening, skim milk powder, malt extract, butter seasoning, condensed milk powder, caramel sauce, salt/emulsifiers, swelling agent, flavoring, caramel coloring, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically, foreign production), syrup, gelatin, concentrated fruit juice (lemon, raspberry), vegetable oils and fats, starch/sorbitol, acidulant, thickening polysaccharides, flavoring, brightener, coloring (caramel, anthocyanin, blue spirulina, red yeast), (may contain apple, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Syrup, sugar, gelatin, concentrated fruit juice (banana, lemon, chinese plum), vegetable oils and fats/sorbitol, acidulant, bone Ca, flavoring, coloring (anthocyanin, Gardia jasminoides), brightener, (may contains banana, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically, foreign production), syrup, gelatin, concentrated fruit juice (grape, apple, lemon, raspberry), vegetable oils and fats, starch/sorbitol, acidulant, thickening polysaccharides, brightener, flavoring, coloring (flavonoids, anthocyanin, Gardia jasminoides, red yeast), (may contain apple, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, gelatin, vegetable oils and fats/sorbitol, acidulant, bone Ca, coloring (caramel, flavonoids, Gardia jasminoides, red yeast), flavoring, brightener, (may contain gelatin)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, vegetable oils and fats, chocolate chip (contains dairies), reduced starch syrup, white bean jam (contains dairies), eggs, full fat soy flour, cacao mass, syrup, skim milk powder, salt, egg yolk (contains eggs), whole milk powder/modified starches, emulsifiers (milk, soybean-derived), flavoring (milk, soybean-derived), stabilizer (modified starches), swelling agent, caramel coloring</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, vegetable oils and fats, butter, whole milk powder, fermented seeds (contains wheat), salt, foods with ingredients made mainly from milk/emulsifiers (wheat, soybean-derived), flavoring (milk, soybean-derived), carotenoid pigment</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, purified lard, starch, salt, vegetable protein, sugar, soy sauce, chicken extract, egg white), accompanying seasoning (miso, spices, sugar, pork extract, defatted soy flour, hydrolyzed protein, chicken extract, flavoring oil, salt, vegetable powder), garnish (seasoned pork, cabbage, corn)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, thickening polysaccharides, brine, gardenia pigment, antioxidant (vitamin E, rosemary extract), flavoring, vitamin B2, vitamin B1, spice extracts, (may contain shrimp, wheat, eggs, dairies, squid, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), salt, egg powder, vegetable oils, hydrolyzed protein, soy dietary fiber), accompanying seasoning (chicken extract, vegetable oils, pork extract, starch, salt, chicken fat, dextrin, spices, sugar, hydrolyzed protein, lard, yeast extract), garnish (bok choi, menma, green onions)/modified starches, seasoning (such as amino acids), calcium carbonate, brine, thickening polysaccharides, emulsifiers, pH regulator, gardenia pigment, antioxidant (vitamin E), flavoring, vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), salt, egg powder, vegetable oils, hydrolyzed protein, soy dietary fiber), accompanying seasoning (pork extract, salt, flavoring oil, lard, spices, soy sauce, sugar, chicken extract, vegetable powder, hydrolyzed protein, yeast extract, vegetable oils), garnish (seasoned minced meat, eggs, green onions)/modified starches, seasoning (such as amino acids), caramel coloring, calcium carbonate, brine, thickening polysaccharides, emulsifiers, gardenia pigment, paprika pigment, antioxidant (vitamin E, rosemary extract), spice extracts, carotene dye, vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, purified lard, starch, salt, vegetable protein, sugar, soy sauce, chicken extract, egg white), accompanying seasoning (pork extract, miso, spices, soy sauce, kimchi flavored seasoning, salt, vegetable powder, sugar, vegetable oils, hydrolyzed protein, yeast extract, fish sauce (seafood)), garnish (seasoned pork, cabbage kimchi, green onions)/modified starches, seasoning (such as amino acids), calcium carbonate, thickening polysaccharides, brine, coloring (Gardia jasminoides, paprika pigment, caramel, paprika powder, red yeast), acidulant, antioxidant (vitamin E, rosemary extract), flavoring, spice extracts, vitamin B2, vitamin B1, (may contain shrimp, wheat, eggs, dairies, squid, sesame seeds, soybeans, chicken, pork</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, starch, salt, vegetable protein, dried yeast, egg white), garnish (Aosa tempura, ulva agedama, kamaboko), accompanying seasoning (salt, soy sauce, sugar, powdered dried bonito, powdered kelp, seaweed, niboshi powder, hydrolyzed protein, green onions, spices, vegetable oils)/modified starches, seasoning (such as amino acids), phosphate (Na), calcium carbonate, caramel coloring, lecithin, thickening polysaccharides, antioxidant (vitamin E), gardenia pigment, monascus pigment, vitamin B2, vitamin B1, carotene dye, (may contain shrimp, wheat, eggs, dairies, soybeans, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), buckwheat flour, vegetable oils and fats, vegetable protein, salt, tororo yam, egg white), garnish (small shrimp tempura with red ginger, kamaboko), accompanying seasoning (sugar, salt, soy sauce, powdered dried bonito, hydrolyzed protein, green onions, spices, flavoring oil)/modified starches, seasoning (such as amino acids), calcium carbonate, phosphate (Na), caramel coloring, thickening polysaccharides, lecithin, antioxidant (vitamin E), monascus pigment, gardenia pigment, acidulant, flavoring, red radish color, vitamin B2, vitamin B1, carotene dye, spice extracts, (may contain shrimp, wheat, soba, eggs, dairies, soybeans, pork, yam, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce, spices), sauce (hydrolyzed protein, lard, beef tallow, sugars, flavored seasoning, salt, soy sauce, beef seasoning, dietary fiber, red wine, vegetable paste), garnish (carrots, processed soy protein product)/modified starches, seasoning (such as amino acids), caramel coloring, alcohol, flavoring, calcium carbonate, brine, acidulant, glycerin, thickener (xanthan gum), antioxidant (vitamin E), vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, beef, soybeans, chicken, pork, apple, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, vegetable protein, seaweed extract, soy dietary fiber, sugars), soup (sugars, salt, beef tallow, hydrolyzed protein, emulsified fats and oils, onion powder, reduced starch syrup, spices, curry powder, beef seasoning, coffee powder, wheat flour, foods made mainly from milk, vegetable oils and fats, red wine), garnish (processed soy protein product, carrots)/modified starches, seasoning (such as amino acids), caramel coloring, thickener (thickening polysaccharides, modified starches), calcium carbonate, phosphate (Na), flavoring, pH regulator, acidulant, antioxidant (vitamin E), emulsifiers, sweetener (sucralose, acesulfame K), vitamin B2, vitamin B1, (may contain wheat, dairies, beef, soybeans, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), sauce (sugar, salt, sauce, spices, dextrin, hydrolyzed protein), garnish (cabbage)/modified starches, seasoning (such as amino acids), caramel coloring, calcium carbonate, brine, acidulant, thickening polysaccharides, magnesium carbonate, antioxidant (vitamin E), flavoring, vitamin B2, vitamin B1, (may contain wheat, soybeans, contains sesame)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, vegetable extract, soy sauce), soup (sugars, salt, spices, pork seasoning, pork extract, hydrolyzed protein, yeast extract), garnish (fried potato, chicken, seasoned minced pork, kamaboko)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, gardenia pigment, flavoring, brine, fine silicon dioxide, lecithin, antioxidant (vitamin E), sepia dye, acidulant, vitamin B2, liquid smoke, vitamin B1, (may contain wheat, eggs, dairies, squid, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, starch, salt, vegetable protein, powdered egg, chicken seasoning), sauce (sauce, lard, vegetable oils and fats, seasoning oil), garnish (cabbage)/modified starches, caramel coloring, thickener (modified starches, tamarind), seasoning (such as amino acids), brine, calcinated calcium, flavoring, antioxidant (vitamin E, rosemary extract), spice extracts, paprika pigment, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, peaches, contains apple)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), soup (soy sauce, vegetable oils and fats, hydrolyzed protein, lard, salt, fermented seasoning, chicken extract, sugar, skipjack seasoning, niboshi extract, spices, yeast extract), furikake (glucose, foods made mainly from milk, mentaiko processed product, emulsified fats and oils, yeast extract, seafood extract, pork extract, whole egg powder), garnish (eggs, green onions)/modified starches, seasoning (such as amino acids), thickener (modified starches, xanthan gum), alcohol, calcium carbonate, carotenoid pigment, flavoring, caramel coloring, brine, antioxidant (vitamin E), fine silicon dioxide, monascus pigment, spice extracts, vitamin B2, vitamin B1, (may contain shrimp, wheat, eggs, dairies, salmon, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), soup (miso, lard, pork extract, garlic paste, vegetable oils and fats, pork seasoning, salt, onion paste, seafood extract, yeast extract, flavor oils, ginger paste, pepper), garnish (cabbage, corn, green onions, pepper)/modified starches, seasoning (such as amino acids), sorbitol, calcium carbonate, flavoring, caramel coloring, brine, carotenoid pigment, antioxidant (vitamin E), alcohol, vitamin B2, vitamin B1, spice extracts, (may contain wheat, eggs, dairies, beef, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, vegetable protein, salt), soup (vegetable oils and fats, pork extract, lard, emulsified fats and oils, salt, chili bean sauce, pork seasoning, miso, spices, soy sauce, hydrolyzed protein, yeast extract, flavored seasoning, onion powder, chicken extract, whole egg powder), garnish (processed soybean, wood ear fungus, green onions)/modified starches, seasoning (such as amino acids), calcium carbonate, sorbitol, thickener (thickening polysaccharides, alginate ester), baking soda, alcohol, fine silicon dioxide, brine, flavoring, monascus pigment, antioxidant (vitamin E), caramel coloring, sweetener (sucralose, acesulfame K), acidulant, vitamin B2, vitamin B1, spice extracts, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt), soup (emulsified fats and oils, edible processed oils and fats, salt, sugars, pork seasoning, spices, yeast extract, foods made mainly from milk, whole egg powder), garnish (processed soybean, corn, green onions)/modified starches, seasoning (such as amino acids), calcium carbonate, thickener (modified starches, thickening polysaccharides), brine, antioxidant (vitamin E), fine silicon dioxide, flavoring, carotenoid pigment, caramel coloring, vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, soybeans, contains pork)</t>
+  </si>
+  <si>
+    <t>Vermicelli (produced in China (starch, sake-brewed vinegar)), garnished soup (salt, cabbage, emulsified fats and oils, sugar, processed soybean, chicken seasoning, yeast extract, carrot, yuzu pepper powder, green onions, kelp extract, seafood seasoning, hydrolyzed protein, onion extract, spices)/seasoning (such as amino acids), thickener (modified starches, thickening polysaccharides), flavoring, fine silicon dioxide, caramel coloring, acidulant, (may contain wheat, eggs, dairies, sesame seeds, mackerel, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Sugar (produced in Thailand, made domestically), milk, whole milk powder, skim milk powder, dextrin, coconut oil, butter powder, salt/flavoring, emulsifiers, Vitamin C, carotene dye, sweetener (stevia)</t>
+  </si>
+  <si>
+    <t>Sugar, glucose, syrup, reduced starch syrup/gum base, acidulant, flavoring</t>
+  </si>
+  <si>
+    <t>Fruits (apple, tomato, onions, lemon, prune, carrots), sake-brewed vinegar, sugar, salt, yeast extract, spices, dried baby sardines extract</t>
+  </si>
+  <si>
+    <t>Fruits (apple, peaches, plum fruit), soy sauce, sugar, reduced starch syrup, amino acid solution, honey, apple vinegar, salt, white sesame seeds, onion extract, sesame oil, protein hydrolyzate, garlic, spices/caramel coloring, (may contain wheat, sesame seeds, soybeans, peaches, contains apple)</t>
+  </si>
+  <si>
+    <t>Fruits (apple, peaches, plum fruit), soy sauce, sugar, amino acid solution, garlic, reduced starch syrup, salt, honey, apple vinegar, white sesame seeds, sesame oil, protein hydrolyzate, onion extract, spices/caramel coloring, (may contain wheat, sesame seeds, soybeans, peaches, contains apple)</t>
+  </si>
+  <si>
+    <t>Fruits (apple, orange, peaches, tangerine, pineapple, grape), sugars (sugar, glucose), ginseng root extract, L-carnitine L-tartrate, sodium chloride, guarana seed extract, citric acid, flavoring, carbonate gas, sweetener (D-ribose, sucralose), L-Arginine, caffeine, sodium citrate, coloring (β-carotene, anthocyanin), niacin, inositol, V. B6, V. B2, V. B12</t>
+  </si>
+  <si>
+    <t>Sugars (sugar (made domestically), glucose), ginseng root extract, L-carnitine L-tartrate, sodium chloride, guarana seed extract/carbonic acid, phosphoric acid, sodium citrate, caramel coloring, citric acid, preservatives (sodium benzoate), flavoring, L-Arginine, caffeine, niacin, sweetener (sucralose), inositol, vitamin B6, vitamin B2, vitamin B12</t>
+  </si>
+  <si>
+    <t>Sugars (sugar, glucose), ginseng root extract, L-carnitine L-tartrate, sodium chloride, guarana seed extract/citric acid, carbonic acid, flavoring, sodium citrate, sweetener (D-ribose, sucralose), L-arginine, preservatives (benzoic acid), caffeine, niacin, coloring (anthocyanin), inositol, vitamin B6, vitamin B2, vitamin B12</t>
+  </si>
+  <si>
+    <t>Sugars (sugar (made domestically), glucose), ginseng root extract, L-Carnitine L-Sake, phosphate, sodium chloride, guarana seed extract/carbonic acid, phosphoric acid, sodium citrate, caramel coloring, citric acid, preservatives (sodium benzoate), L-Arginine, flavoring, caffeine, niacin, stabilizer (gum arabic), sweetener (sucralose), inositol, vitamin B6, vitamin B2, vitamin B12</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), sodium chloride/citric acid, sodium citrate, flavoring, L-Leucine, citric acid K, lactic acid Ca, L-isoleucine, L-valine, caffeine, sweetener (sucralose), magnesium chloride, niacin, inositol, vitamin B6, coloring (Yellow No. 4, Blue No. 1)</t>
+  </si>
+  <si>
+    <t>Soy sauce, sugar, miso, fruits (apple, lemon), fermented seasoning, salt, vegetables (onion, ginger, garlic), glucose-fructose syrup, rajan, honey, sesame oil, white sesame seeds</t>
+  </si>
+  <si>
+    <t>Soy sauce, sugar, apple, rajan, fermented seasoning, red chili paste, salt, glucose-fructose syrup, vegetables (garlic, onion), sesame oil, apple vinegar, white sesame seeds, honey, spices, caramel coloring</t>
+  </si>
+  <si>
+    <t>Soy sauce, sugar, fruits (apple, lemon), salt, glucose-fructose syrup, black honey, fermented seasoning, white sesame seeds, sesame oil, honey, fermentation mash, spices, garlic</t>
+  </si>
+  <si>
+    <t>Wafers (wheat flour, sugar, starch, vegetable oils and fats, salt) (made domestically), lactose, sugar, cocoa butter, vegetable oils and fats, whole milk powder, glucose, black tea extract, lemon juice powder/modified starches, emulsifiers (soybean-derived), coloring (red beet, caramel, annatto), flavoring, Vitamin C, shellfish calcium, swelling agent, acidulant</t>
+  </si>
+  <si>
+    <t>Potato flakes (American made or German made or others), vegetable oils and fats, salt, green seaweed, sea lettuce/emulsifiers, seasoning (amino acids)</t>
+  </si>
+  <si>
+    <t>Potato (not genetically modified) (domestic), vegetable oils and fats, sugar, hydrolyzed protein (contains soybeans), powdered soy sauce (contains wheat), salt, beef powder (chicken, contains gelatin), powdered sauce, yeast extract powder, garlic powder, pepper, onion powder, glucose, dextrin, wasabi powder/seasoning (such as amino acids), flavoring, sweetener (stevia, sucralose), acidulant, sodium caseinate (milk-derived), caramel coloring, spice extracts</t>
+  </si>
+  <si>
+    <t>Potato (not genetically modified) (domestic), vegetable oils and fats, sugar, salt, powdered soy sauce (wheat, contains soybeans), powdered fats and oils, yeast extract powder, spices, seasoning oil, hydrolyzed protein, lactose, butter (Hokkaido product used)/seasoning (such as amino acids), flavoring (derived from sesame seeds), sweetener (stevia), acidulant</t>
+  </si>
+  <si>
+    <t>Potato (not genetically modified) (domestic), vegetable oils and fats, sugar, salt, onion powder, onion extract powder, hydrolyzed protein (soybeans, contains pork), yeast extract powder, parsley, oligosaccharide, sour cream powder (made with Hokkaido sour cream), lactose/seasoning (such as amino acids), acidulant, flavoring, sweetener (sucralose, stevia, licorice)</t>
+  </si>
+  <si>
+    <t>Potato (not genetically modified) (domestic), vegetable oils and fats, sugar, spices, hydrolyzed protein (soybeans, contains pork), powdered soy sauce (contains wheat), salt, mayonnaise flavored powder (contains eggs), foods made mainly from milk, oligosaccharide, dextrin, mentaiko powder (contains gelatin), beef powder (contains chicken)/seasoning (such as amino acids), flavoring, acidulant, carotenoid pigment, sweetener (stevia, sucralose), spice extracts, turmeric pigment</t>
+  </si>
+  <si>
+    <t>Potato (not genetically modified) (domestic), vegetable oils and fats, sugar, hydrolyzed protein (soybeans, contains pork), powdered soy sauce (contains wheat), beef powder (chicken, contains gelatin), salt, garlic powder, dextrin, wasabi powder/seasoning (such as amino acids), flavoring, sweetener (stevia, sucralose), sodium caseinate (milk-derived), spice extracts, acidulant</t>
+  </si>
+  <si>
+    <t>Potato (not genetically modified) (domestic), vegetable oils and fats, sugar, glucose, salt, hydrolyzed protein, onion powder, dextrin, yeast extract powder, garlic powder, pepper, green onion powder/seasoning (amino acids), flavoring, paprika pigment, spice extracts</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, flavor oils, dextrin, rock salt, yeast extract powder, black pepper/seasoning (such as amino acids)</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, flavor oils, glucose, salt, protein hydrolyzate (soybeans, contains pork), powdered vinegar, creaming powder (contains dairies), powdered soy sauce (wheat, contains soybeans), chicken bouillon powder, yeast extract, lemon juice powder, alcohol powder/seasoning (such as amino acids), acidulant, flavoring</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils (contains sesame), flavor oils, dextrin, salt, roasted seaweed, sea lettuce, green seaweed, powdered sesame oil, yeast extract powder, spices/seasoning (such as amino acids)</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, dextrin, flavor oils, glucose, kelp, protein hydrolyzate (contains soybeans), yeast extract powder, kelp extract powder, oyster powder</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, sugar, spices (contains soybeans), protein hydrolyzate (contains soybeans), salt, meat extract seasoning powder (dairies, wheat, beef, sesame seeds, soybeans, chicken, contains pork), oligosaccharide, kelp, shiitake extract powder, yeast extract powder, powdered fats and oils, flavor oils (wheat, contains soybeans)/seasoning (such as amino acids), paprika pigment, spice extracts, sweetener (stevia), flavoring (soybean-derived)</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, sugar, salt, onion, cheese powder (contains dairies), protein hydrolyzate (contains soybeans), oligosaccharide, lemon juice powder, sour cream powder (contains dairies), yeast extract powder, parsley/seasoning (such as amino acids), flavoring (milk-derived), acidulant, sweetener (stevia, sucralose), carotenoid pigment</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, sugar, spices, salt, vegetable extract powder (dairies, soybeans, pork, contains gelatin), beef extract powder, protein hydrolyzate (contains soybeans), red paprika, flavor oils/seasoning (such as amino acids), flavoring (milk-derived), coloring (cocoa), spice extracts, caramel coloring, acidulant</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, salt, dextrin/seasoning (such as amino acids)</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, garlic powder, glucose, salt, sugar, protein hydrolyzate (contains soybeans), vegetable extract powder (dairies, soybeans, pork, contains gelatin), onion, white pepper, pepper/seasoning (such as amino acids), spice extracts, sweetener (stevia, licorice), flavoring, caramel coloring, acidulant</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, salt, green seaweed, sea lettuce, spices, yeast extract powder/seasoning (such as amino acids)</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, sugar, spices (contains soybeans), meat extract powder (dairies, wheat, sesame seeds, soybeans, chicken, contains pork), protein hydrolyzate (contains soybeans), salt, oligosaccharide, flavor oils (wheat, contains soybeans)/seasoning (such as amino acids), acidulant, paprika pigment, sweetener (stevia, licorice), flavoring, spice extracts</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, sugar, glucose, powdered soy sauce (wheat, contains soybeans), salt, roasted seaweed, protein hydrolyzate (soybeans, chicken, contains pork), sea lettuce, spices, fish extract powder (contains mackerel), powdered mirin flavor seasoning (wheat, contains soybeans), sesame seeds, green seaweed, flavor oils, oligosaccharide/seasoning (such as amino acids), flavoring</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, starch degradation products, salt (Okhotsk salt 50%, rock salt 50%), protein hydrolyzate (contains chicken), chicken oil/seasoning (such as amino acids)</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, salt, sugar, protein hydrolyzate (contains soybeans), powdered soy sauce (wheat, contains soybeans), oligosaccharide, powdered vinegar (contains wheat), spices/acidulant, seasoning (such as amino acids), flavoring, caramel coloring, sweetener (acesulfame K, licorice)</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, sugar, salt, spices, meat extract seasoning powder, powdered vinegar, protein hydrolyzate, yeast extract powder, powdered soy sauce, powdered fats and oils/seasoning (such as amino acids), flavoring, sweetener (aspartame, L-phenylalanine compound, sucralose), acidulant, paprika pigment, (some parts of the raw materials may contain dairies, wheat, sesame seeds, soybeans, chicken, pork, contains apple)</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, glucose, powdered vinegar (contains wheat), salt, protein hydrolyzate (contains chicken), sugar, powdered soy sauce (wheat, contains soybeans), whey powder (contains dairies), yeast extract, oligosaccharide, spices/seasoning (such as amino acids), acidulant, flavoring</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, sugar, glucose, plum vinegar powder, salt, powdered vinegar, powdered soy sauce (wheat, contains soybeans), plum seasoned powder, sea lettuce, oligosaccharide/seasoning (such as amino acids), acidulant, sweetener (stevia), flavoring, anthocyanin pigment</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, glucose, rock salt, truffle extract chips, black pepper, powdered fats and oils, onion extract powder, cheese powder, truffle/seasoning (amino acids), flavoring, sepia dye, caramel coloring, (some parts of the raw materials may contain dairies, wheat, squid, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils (palm oil, rice oil, sesame oil), glucose, dextrin, rock salt, protein hydrolyzate, powdered fats and oils, rice flour, chicken powder, pepper, kelp/seasoning (such as amino acids), flavoring, acidulant, liquid smoke, (some parts of the raw materials may contain dairies, sesame seeds, soybeans, contains chicken)</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, glucose, dextrin, rock salt, protein hydrolyzate (contains soybeans), meat extract seasoning powder (dairies, wheat, sesame seeds, soybeans, chicken, contains pork), black pepper (kampot pepper 3%), starch, pepper, lemon juice powder, flavor oils (contains pork)/seasoning (such as amino acids), acidulant, spice extracts, flavoring</t>
+  </si>
+  <si>
+    <t>Potato (domestic), vegetable oils, dried potatoes, milk powder, powdered vegetable oils and fats, sugar, powdered soy sauce (wheat, contains soybeans), salt, lactose, starch, dextrin, yeast extract powder, hydrolyzed protein, grilled seaweed, sake lees powder, chicken extract powder, mixed flakes extract powder (contains mackerel), wasabi powder/seasoning (such as amino acids), flavoring, modified starches, emulsifiers, acidulant, caramel coloring, antioxidant (V. C)</t>
+  </si>
+  <si>
+    <t>Potato (domestic), vegetable oils (palm oil, rice oil, sesame oil), dried potatoes, milk powder, powdered vegetable oils and fats, minced pork flavored flakes (soybeans, chicken, contains gelatin), dextrin, salt, glucose, lactose, doubanjiang powder (contains wheat), sugar, chili flavored flakes, hydrolyzed protein, pork extract powder, starch, yeast extract powder, powder miso, whey powder, pepper, pepper, Japanese pepper/seasoning (such as amino acids), flavoring, modified starches, emulsifiers, coloring (caramel, carotenoids, red yeast), acidulant, antioxidant (V. C), sweetener (stevia, licorice), spice extracts</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), vegetable oils, salt, dextrin/seasoning (such as amino acids)</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), vegetable oils, sugar, chicken consomme powder (wheat, soybeans, contains pork), salt, dextrin, starch, powdered soy sauce, powdered sauce (contains apple), onion extract powder, spices powder, beef consommé powder, vegetable powder (tomato, carrots), fermented tomato extract powder, plum pulp powder/seasoning (such as amino acids), flavoring (contains sesame), caramel coloring, acidulant, paprika pigment, sweetener (stevia), spice extracts, monascus pigment</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), palm oil, rice oil, salt, green seaweed, sea lettuce, pepper, sesame oil/seasoning (such as amino acids)</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), vegetable oils, salt, corn starch, scallop extract powder, konbu extract powder, glucose, dried bonito extract powder, flavor oils/seasoning (such as amino acids)</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), vegetable oils, sugar, salt, chicken consomme powder, corn starch, hydrolyzed protein (contains soybeans), powdered soy sauce (contains wheat), chicken powder, powdered sauce (contains apple), Chinese cabbage extract powder, spices powder, tomato powder, mirepoix powder (contains pork), onion extract powder, mushroom extract powder, yeast extract powder, onion powder, plum pulp powder/seasoning (such as amino acids), flavoring (contains sesame), acidulant, coloring (carotenoids, red yeast), sweetener (stevia (contains dairies)), spice extracts</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), palm oil, rice oil, glucose, salt, dextrin, grilled seaweed, starch, pepper, sesame powder, sesame oil, hydrolyzed protein (contains soybeans), pepper/seasoning (such as amino acids), flavoring, acidulant</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), vegetable oils, salt, sugar, onion powder, pork extract powder (wheat, soybeans, contains chicken), hydrolyzed protein, powdered vegetable oils and fats, garlic powder, starch, powdered soy sauce, chili powder, pepper, yeast extract powder, flavor oils/seasoning (such as amino acids), acidulant, paprika pigment, spice extracts, sweetener (stevia, licorice), flavoring</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), vegetable oils, salt, sugar, onion extract powder, onion powder, starch, whey powder, sour cream powder, garlic powder, skim milk powder, parsley, yeast extract powder/seasoning (such as amino acids), flavoring, acidulant, sweetener (aspartame, L-phenylalanine compound)</t>
   </si>
   <si>
     <t>Potato (domestic or american), vegetable oils, starch, salt, sugar, powdered soy sauce (wheat, contains soybeans), hydrolyzed protein, pepper, garlic powder, yeast extract powder (contains dairies), beef powder, pepper, powdered vegetable oils and fats/seasoning (such as amino acids), flavoring (contains gelatin), acidulant, coloring (caramel, carotenoids, charcoal powder, Gardia jasminoides), sweetener (stevia), spice extracts</t>
   </si>
   <si>
-    <t>Glucose, sugar/emulsifiers, acidulant, paste (pullulan, modified starches), flavoring</t>
-  </si>
-  <si>
-    <t>Glucose, sugar, isomaltooligosaccharide, starch, emulsifiers, acidulant, paste (pullulan), calcium lactate, anthocyanin pigment, flavoring</t>
-  </si>
-  <si>
-    <t>Glucose, sugar/emulsifiers, acidulant, paste (pullulan, modified starches), flavoring, coloring (anthocyanin, Gardia jasminoides)</t>
-  </si>
-  <si>
-    <t>Glucose (made domestically), sugar/emulsifiers, acidulant, paste (pullulan, modified starches), flavoring, caramel coloring</t>
-  </si>
-  <si>
-    <t>Glucose, sugar, syrup, reduced starch syrup/gum base, acidulant, flavoring, softening agent, coloring (caramel, flavonoids)</t>
-  </si>
-  <si>
-    <t>Glucose, sugar, syrup, reduced starch syrup/gum base, acidulant, flavoring, softening agent, coloring (Gardia jasminoides, flavonoids)</t>
-  </si>
-  <si>
-    <t>Glucose, sugar, syrup, reduced starch syrup, gum base, acidulant, flavoring, calcium lactate, softening agent, anthocyanin pigment, green tea extract</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), glucose, syrup, reduced starch syrup, yeast extract, dextrin/gum base, acidulant, flavoring, softening agent, carotenoid pigment</t>
-  </si>
-  <si>
-    <t>Sugar, glucose, starch, syrup/gum base, flavoring, acidulant, paste (gum arabic), flavonoid pigment, calcium phosphate</t>
-  </si>
-  <si>
-    <t>Sugar, processed oils and fats, syrup, starch, gelatin/acidulant, emulsifiers, thickener (pullulan), flavoring, gardenia pigment</t>
+    <t>Potato (domestic or american), vegetable oils, cheese flavor flakes, sugar, glucose, salt, garlic powder, yeast extract powder, beef powder (wheat, soybeans, chicken, contains gelatin), vegetable extract powder, powdered vegetable oils and fats, hydrolyzed protein, cheese powder, meat flavored seasoning, tomato powder, red pepper, parsley, salami-style chips (contains pork), oregano/seasoning (such as amino acids), flavoring (contains apple), acidulant, emulsifiers, coloring (carotenoids, caramel, red yeast), spice extracts, liquid smoke, sweetener (stevia)</t>
+  </si>
+  <si>
+    <t>Potato (not genetically modified), vegetable oils, salt, corn starch, konbu extract powder/seasoning (such as amino acids), antioxidant (Vitamin C)</t>
+  </si>
+  <si>
+    <t>Potato (not genetically modified), vegetable oils, salt, black pepper, dextrin, sugar, glucose, onion powder, corn starch, yeast extract powder (contains pork), reduced starch syrup, powdered soy sauce (wheat, contains soybeans), cinnamon, seasoned animal fats and oils/seasoning (such as amino acids), spice extracts, acidulant, flavoring, antioxidant (Vitamin C)</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), vegetable oils, sugar, salt, butter powder, fructose, corn starch, hydrolyzed protein (contains soybeans), mascarpone cheese powder, creaming powder, yeast extract powder, parsley, honey powder/seasoning (such as amino acids), flavoring, sweetener (aspartame, L-phenylalanine compound, sucralose, stevia), acidulant</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), vegetable oils, salt, lactose, onion, starch, olive oil powder, powder processed oil, glucose, sugar, red bell pepper, dietary fiber, parsley, powdered vinegar, garlic powder, black pepper, celery, tomato powder, mustard powder/acidulant, seasoning (such as amino acids), spice extracts, coloring (turmeric)</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), vegetable oils, powdered soy sauce (wheat, contains soybeans), dextrin, sugar, salt, pork extract powder, mustard powder, chili pepper powder, egg yolk powder (contains eggs), mayonnaise flavored powder (sesame seeds, contains chicken), powdered vinegar/flavoring (contains dairies), seasoning (such as amino acids), acidulant, sweetener (stevia, licorice), coloring (turmeric)</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), palm oil, rice oil, salt, dextrin, maltose, starch, maltitol, sesame seeds, sesame oil, whole milk powder, hydrolyzed protein (contains soybeans), yeast extract powder, pepper/seasoning (such as amino acids), flavoring, acidulant, antioxidant (Vitamin C)</t>
+  </si>
+  <si>
+    <t>Dried potatoes (American made or German made or others), vegetable oils, salt, dextrin, starch, konbu extract powder/emulsifiers, seasoning (such as amino acids)</t>
+  </si>
+  <si>
+    <t>Dried potatoes (not genetically modified), vegetable oils, salt, corn starch, sugar, chicken consomme powder (wheat, soybeans, contains pork), powdered soy sauce, powdered sauce (contains apple), beef consommé powder, spices powder, onion extract powder, tomato powder, fermented tomato extract powder, seasoned animal fats and oils, carrot powder, plum pulp powder/emulsifiers, seasoning (such as amino acids), flavoring (contains sesame), acidulant, coloring (caramel, carotenoids, red yeast), sweetener (stevia), spice extracts</t>
+  </si>
+  <si>
+    <t>Potato (domestic), vegetable oils, salt, processed oils and fats, dextrin, corn starch, flavor oils, konbu extract powder, lactose/paste (modified starches, sodium alginate), trehalose, seasoning (such as amino acids), antioxidant (V. C), flavoring</t>
+  </si>
+  <si>
+    <t>Potato (domestic), vegetable oils, sugar, salt, chicken consomme powder, corn starch, chicken powder, spices powder, powdered sauce (contains apple), powdered soy sauce (contains soybeans), yeast extract powder, mushroom extract powder, mirepoix powder (contains pork), onion extract powder, tomato powder, onion powder, Chinese cabbage extract powder, plum pulp powder, fermented yeast extract powder/paste (modified starches, sodium alginate), trehalose, seasoning (such as amino acids), flavoring, acidulant, antioxidant (V. C), coloring (carotenoids, red yeast), sweetener (stevia: contains dairies)</t>
+  </si>
+  <si>
+    <t>Dried potato, vegetable oils and fats, salt, kelp seasoning extract, dried bonito seasoning extract, fructose/emulsifiers (contains soybeans), seasoning (amino acids)antioxidant (vitamin E, Vitamin C), flavoring, particulate silicon oxide, thickener (guar gum)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, cacao mass, cocoa powder, liquid whole egg, vegetable oils and fats, butter, fat processed foods (contains dairies), lactose, whole milk powder, salt, syrup, cinnamon powder/swelling agent, emulsifiers (soybean-derived), flavoring, sodium caseinate (milk-derived)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically, produced in Thailand), wheat flour, margarine (contains dairies), liquid egg white (contains eggs), whole milk powder, vegetable oils and fats, cocoa powder, butter, cacao mass, salt/emulsifiers (soybean-derived), flavoring (milk-derived), swelling agent</t>
+  </si>
+  <si>
+    <t>Dried potato, vegetable oils and fats, salt, onion powder, dextrin, sugar, vegetable extract powder, spices, yeast extract powder (dairies, eggs, contains chicken), protein hydrolyzate (contains soybeans), glucose, vegetable powder, chicken oil, roasted soy sauce seasoning (wheat, contains soybeans), starch, soy protein, chicken powder (wheat, contains soybeans)/emulsifiers (including soybean), seasoning (amino acids), acidulant, antioxidant (vitamin E, Vitamin C), modified starches, flavoring, fine silicon</t>
+  </si>
+  <si>
+    <t>Starch, vegetable oils and fats, rice flour, edible processed oils and fats, shrimp powder, salt, flavor oils (wheat, shrimp, contains soybeans), shrimp seasoning powder, green seaweed, kelp powder, shrimp seasoning (contains soybeans)/sorbitol, emulsifiers (soybean-derived), modified starches, seasoning (amino acids), flavoring (shrimp-derived), cellulose, antioxidant (vitamin E, Vitamin C), coloring (carotenoids, turmeric), fine silicon</t>
+  </si>
+  <si>
+    <t>Sugar, wheat flour。margarine (contains dairies), liquid egg white (contains eggs), vegetable oils and fats, whole milk powder, whey powder (contains dairies), lactose, butter, cocoa powder skim milk powder, creaming powder (contains dairies), salt/trehalose, emulsifiers (soybean-derived), swelling agent, flavoring (milk-derived)</t>
+  </si>
+  <si>
+    <t>Dried potato, vegetable oils and fats (contains sesame), salt, sea lettuce powder, dried bonito seasoning extract, green laver, kelp extract powder, yeast extract powder, dextrin/emulsifiers (contains soybeans), seasoning (such as amino acids), antioxidant (vitamin E, Vitamin C)tricalcium phosphate, fine silicon, flavoring, thickener (guar gum)</t>
+  </si>
+  <si>
+    <t>Dried potato, vegetable oils and fats, dextrin, salt, glucose, emulsifiers (contains soybeans), seasoning (such as amino acids), antioxidant (vitamin E, Vitamin C, tea extract)</t>
+  </si>
+  <si>
+    <t>Sugar (made in Korea), potato pellets (dried potato, starch, salt), vegetable oils and fats, cacao mass, whole milk powder/emulsifiers (soybean-derived), flavoring, coloring (turmeric), antioxidant (vitamin E, Vitamin C)</t>
+  </si>
+  <si>
+    <t>Potato pellets (dried potato, starch, salt) (made in Spain), vegetable oils and fats, sugar, whole milk powder, lactose, dextrin, cocoa butter, creaming powder (contains dairies), salt/emulsifiers (soybean-derived), flavoring (milk-derived), coloring (turmeric), antioxidant (vitamin E, Vitamin C)</t>
+  </si>
+  <si>
+    <t>Vegetables, fruits (tomato, onions, apple, other), sugars (high-fructose corn syrup sugar, sugar), sake-brewed vinegar, soy sauce, salt, amino acid solution, spices, oyster extract, meat extract, scallop extract, fish meat extract, kelp, yeast extract, caramel coloring, thickener (modified starches, tamarind), seasoning (such as amino acids), (may contain wheat, soybeans, chicken, pork, peaches, contains apple)</t>
+  </si>
+  <si>
+    <t>Vegetables, fruits (tomato, apple, prune, lemon, carrots, onions), sake-brewed vinegar, sugars (high-fructose corn syrup sugar, sugar), salt, starch, yeast extract, spices (some parts of the raw materials may contain soybeans)</t>
+  </si>
+  <si>
+    <t>Vegetables, fruits (tomato, prune, apple, lemon, carrots, onions, ), sake-brewed vinegar, sugars (high-fructose corn syrup sugar, sugar), salt, starch, yeast extract, spices</t>
+  </si>
+  <si>
+    <t>Fruits (grape, grapefruit, lychee), sugars (glucose-fructose syrup (made domestically), fructose), salt (Okinawa product)/acidulant, flavoring</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), salt, vegetable protein, reduced starch syrup), soup (pork extract, pork oil, salt, roasted sesame seeds, vegetable powder, sugars (sugar, maltose, glucose), powdered fats and oils, powdered soy sauce, vegetable oils and fats, hydrolyzed protein, spices, starch, green onions, crushed sesame seeds, scallop extract, yeast extract)/seasoning (such as amino acids), brine, pH regulator, gardenia pigment, caramel coloring, flavoring, antioxidant (vitamin E), (may contain wheat, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Potato flakes (American made or German made or others), vegetable oils and fats, garlic soy sauce seasoning (glucose, soy sauce powder, salt, sugar, hydrolyzed protein, starch, beef extract seasoning, yeast extract powder, garlic powder), burnt soy sauce powder/seasoning (such as amino acids), spice extracts, flavoring, emulsifiers, caramel coloring, sweetener (sucralose), (may contain wheat, dairies, beef, sesame seeds, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Potato flakes (American made or German made or others), vegetable oils and fats, butter soy sauce seasoning (foods made mainly from milk, sugar, soy sauce powder, salt, hydrolyzed protein, butter powder, cheese powder, yeast extract powder, dried bonito powder), butter milk powder/seasoning (such as amino acids), flavoring, emulsifiers, sweetener (licorice, sucralose), (may contain wheat, dairies, contains soybeans)</t>
   </si>
   <si>
     <t>Glucose, sugar, isomaltooligosaccharide, emulsifiers, acidulant, paste (pullulan, modified starches), flavoring, calcium lactate</t>
   </si>
   <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, powdered egg, sugars), soup (miso, salt, sugars, pork extract, red chili paste, vegetable oils and fats, lard, chili bean sauce, spices, flavored cooking oil, seasoning oil, hydrolyzed protein), garnish (green onions, chicken, seasoned minced pork, corn), modified starches, seasoning (such as amino acids), alcohol, calcium carbonate, caramel coloring, flavoring, gardenia pigment, brine, thickener (xanthan), acidulant, antioxidant (vitamin E, rosemary extract), vitamin B2, vitamin B1, spice extracts, (some part of raw materials may contains sesame)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, miso, sugars), soup (lard, soy sauce, salt, sugars, pork extract, chicken extract, hydrolyzed protein, vegetable oils and fats, spices, yeast extract), garnish (char siu, green onions), modified starches, seasoning (such as amino acids), alcohol, caramel coloring, calcium carbonate, brine, lecithin, gardenia pigment, thickener (xanthan), flavoring, antioxidant (vitamin E), vitamin B2, vitamin B1, (some parts of the raw materials may contain eggs, contains dairies)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, salt), sauce (sauce, sugars, salt, lard, vegetable oils and fats, spices, hydrolyzed protein, flavored seasoning), garnish (cabbage), caramel coloring, seasoning (such as amino acids), calcium carbonate, brine, acidulant, antioxidant (vitamin E), flavoring, thickener (xanthan), vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, soybeans, apple, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, soy dietary fiber), soup (soy sauce, salt, hydrolyzed protein, pork extract, sugars, lard, vegetable oils and fats, dried bonito extract, yeast extract, spices, niboshi sardine powder), garnish (char siu, menma, naruto, green onions), seasoning (such as amino acids), alcohol, caramel coloring, calcium carbonate, flavoring, brine, thickener (xanthan), lecithin, gardenia pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, monascus pigment, (some parts of the raw materials may contain eggs, contains dairies)</t>
-  </si>
-  <si>
-    <t>Milk, sugar, coffee, skim milk powder/emulsifiers</t>
-  </si>
-  <si>
-    <t>Milk, coffee, sugar, skim milk powder/emulsifiers, sodium caseinate, sweetener (acesulfame K, sucralose)</t>
-  </si>
-  <si>
-    <t>Milk, sugar, coffee, sweetened condensed milk, cream/emulsifiers, sodium caseinate</t>
+    <t>Corn grits (made domestically), vegetable oils and fats, starch, sugar, salt (Alpine Salz 88%used), soy sauce powder, hydrolyzed protein, chicken extract powder, spices, dried bonito extract powder, flavor oils, sweet corn powder/modified starches, seasoning (such as amino acids), baking soda, flavoring, (may contain wheat, dairies, soybeans, contains chicken)</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils and fats, starch, shortening, lactose, sugar, cheese powder, salt, glucose, hydrolyzed protein, foods made mainly from milk, creaming powder, yeast extract powder, onion powder, spices, dextrin, miso powder/modified starches, seasoning (such as amino acids), flavoring, baking soda, paprika pigment, emulsifiers, sweetener (sucralose), spice extracts, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils and fats, starch, sugar, soy sauce, soy sauce powder, salt, reduced maltose syrup, hydrolyzed protein, sweet corn powder, dextrin, chicken powder/modified starches, seasoning (such as amino acids), baking soda, flavoring, caramel coloring, sweetener (licorice, sucralose), (may contain wheat, soybeans, contains chicken)</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils and fats, starch, sugar, shortening, lactose, salt, glucose, sweet corn powder, foods made mainly from milk, fructose, hydrolyzed protein, whole milk powder, yeast extract powder, onion powder, butter powder, parsley/modified starches, seasoning (such as amino acids), flavoring, baking soda, safflower yellow, emulsifiers, sweetener (aspartame, L-phenylalanine compound, sucralose), (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar, high-fructose corn syrup sugar (made domestically)/carbonate gas, acidulant, flavoring</t>
   </si>
   <si>
     <t>Sugar mixed high-fructose corn syrup sugar, acidulant, flavoring, coloring (Red No. 40)</t>
   </si>
   <si>
-    <t>Sugar, high-fructose corn syrup sugar (made domestically)/carbonate gas, acidulant, flavoring</t>
-  </si>
-  <si>
-    <t>Sugar mixed high-fructose corn syrup sugar, acidulant, flavoring, coloring (Blue No. 1)</t>
-  </si>
-  <si>
-    <t>Sugar mixed high-fructose corn syrup sugar, salt, flavoring, acidulant, fruit dye</t>
-  </si>
-  <si>
-    <t>Sugar mixed high-fructose corn syrup sugar, acidulant, flavoring, coloring (Yellow No. 4, Red No. 40)</t>
+    <t>Sugar mixed high-fructose corn syrup sugar, acidulant, flavoring, coloring (Yellow No. 4, Blue No. 1)</t>
+  </si>
+  <si>
+    <t>Sugar mixed high-fructose corn syrup sugar, acidulant, flavoring, coloring (Yellow No. 4)</t>
+  </si>
+  <si>
+    <t>Sugar, high-fructose corn syrup sugar/carbonate gas, caramel coloring, acidulant, flavoring</t>
+  </si>
+  <si>
+    <t>Sugar, high-fructose corn syrup sugar/carbonate gas, acidulant, flavoring, coloring (Yellow No. 4, Blue No. 1)</t>
+  </si>
+  <si>
+    <t>Sugar, high-fructose corn syrup sugar (made domestically)/carbonate gas, flavoring, acidulant, coloring (Yellow No. 4)</t>
   </si>
   <si>
     <t>Sugar, high-fructose corn syrup sugar (made domestically)/carbonate gas, flavoring, acidulant</t>
   </si>
   <si>
-    <t>Wheat flour, sugar, chocolate (contains dairies), shortening (contains soybeans), reduced starch syrup, white bean jam (raw bean paste, sugar, syrup, reduced malt syrup), cocoa powder, soy flour, egg processed products (chicken's egg, sugar), syrup, skim milk powder, egg yolk powder (contains eggs), whole milk powder, starch degradation products, cacao mass, salt, yeast extract/modified starches, emulsifiers (soybean-derived), flavoring, swelling agent</t>
-  </si>
-  <si>
-    <t>Syrup, sugar, starch, mochi flour, vegetable oils, sorbitol, emulsifiers, flavoring, acidulant, coloring (red 106)</t>
-  </si>
-  <si>
-    <t>Syrup, sugar, starch, mochi flour, vegetable oils, sorbitol, emulsifiers, flavoring, acidulant, coloring (blue 1, Yellow 4, red 2)</t>
-  </si>
-  <si>
-    <t>Syrup, sugar, starch (potato), vegetable oils (African oil palm), sorbitol, emulsifiers (African oil palm), flavoring, acidulant, coloring (yellow 5)</t>
-  </si>
-  <si>
-    <t>Noodles (wheat flour (made domestically), whole-wheat flour, salt, wheat protein, vegetable oils and fats, soy dietary fiber, hydrolyzed protein), soup (soy sauce, pork extract, animal fat, pepper, sugars, flavor oils, dried bonito powder, hydrolyzed protein, chicken extract, pork seasoning oil, soy sauce seasoning, dextrin, salt, pork powder, garlic paste), garnish (green onions)/modified starches, seasoning (such as amino acids), thickener (modified starches, thickening polysaccharides), coloring (caramel, Gardia jasminoides, paprika pigment), calcium carbonate, brine, emulsifiers, spice extracts, antioxidant (V. E), flavoring, (may contains egg, wheat, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Milk (made domestically), sugar, coffee, salt/flavoring, emulsifiers, sodium caseinate, stabilizer (carrageenan)</t>
-  </si>
-  <si>
-    <t>Coffee (coffee beans (Brazil or Vietnam (5%less than)))/flavoring</t>
-  </si>
-  <si>
-    <t>Milk (made domestically), coffee, sugar, salt/flavoring, sodium caseinate, emulsifiers, stabilizer (carrageenan), sweetener (acesulfame K)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, coconut oil, shortening, brown rice flour, soy sauce seasoning (contains soybeans), coconut, salt, lactose/swelling agent, seasoning (amino acids), emulsifiers, caramel coloring</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, coconut oil, shortening, brown rice flour, salt, coconut, umeboshi extract powder, corn starch, lactose/swelling agent, acidulant, emulsifiers (soybean-derived), flavoring</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, scallop extract, milk protein), soup (salt, pork extract, spices, hydrolyzed protein, sugars, flavored seasoning, yeast extract, soy sauce, roasted onion powder)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, magnesium carbonate, thickening polysaccharides, flavoring, antioxidant (vitamin E), carotenoid pigment, acidulant, sweetener (sucralose), vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, egg powder, soy sauce), soup (salt, lard, pork extract, spices, flavor oils, hydrolyzed protein, yeast extract, soy sauce, dextrin, sugars, roasted onion powder, flavored seasoning, vegetable oils and fats), garnish (eggs, pork, seasoned chicken meat, garlic chives)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, flavoring, thickening polysaccharides, sorbitol, glycerin, carotenoid pigment, fine silicon dioxide, emulsifiers, antioxidant (vitamin E), acidulant, sweetener (sucralose), spice extracts, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, egg powder, soy sauce), soup (miso, sugars, lard, salt, pork, chicken extract, dextrin, spices, hydrolyzed protein, flavor oils, vegetable oils and fats, yeast extract, toromi powder (starch, dextrin, vegetable oils and fats), green onions, scallop extract, flavored seasoning), garnish (cabbage, seasoned pork, corn, carrot)/modified starches, seasoning (such as amino acids), calcium carbonate, brine, caramel coloring, flavoring, magnesium carbonate, thickening polysaccharides, emulsifiers, carotenoid pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, sesame seeds, mackerel, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), soup (salt, pork extract, spices, tomato paste, dextrin, sugars, soy sauce, hydrolyzed protein, yeast extract, roasted onion powder, sake-brewed vinegar, lard, flavored seasoning), garnish (pork, seasoned chicken meat, eggs, garlic chives, red pepper)/modified starches, seasoning (such as amino acids), caramel coloring, calcium carbonate, brine, thickening polysaccharides, sorbitol, alcohol, flavoring, glycerin, carotenoid pigment, antioxidant (vitamin E), acidulant, sweetener (sucralose), vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt), sauce (semi-solid dressing, soy sauce, sugars, lard, salt, pork extract, fish sauce, seafood extract, hydrolyzed protein, flavored seasoning, spices), garnish (cabbage), furikake (processed cod roe, spices, seaweed)/seasoning (such as amino acids), calcium carbonate, alcohol, brine, thickener (modified starches, xanthan gum), emulsifiers, acidulant, carotenoid pigment, monascus pigment, flavoring, antioxidant (vitamin E), spice extracts, caramel coloring, magnesium carbonate, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, crab, squid, salmon, mackerel, soybeans, contains pork)</t>
-  </si>
-  <si>
-    <t>Noodles (wheat flour (made domestically), salt, vegetable oils and fats, vegetable protein, egg powder, rice koji seasoning (starch, processed rice koji product, salt koji, salt), pork extract), soup (salt, sugars, spices, lard, flavored seasoning, pork, chicken extract, soy sauce, hydrolyzed protein, yeast extract, moromi soy sauce, roasted onion powder, vegetable oils and fats)/modified starches, seasoning (such as amino acids), swelling agent, alcohol, brine, calcium carbonate, thickener (modified starches, thickening polysaccharides), flavoring, caramel coloring, magnesium carbonate, carotenoid pigment, acidulant, antioxidant (vitamin E), emulsifiers, (may contains egg, dairies, wheat, shrimp, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Noodles (wheat flour (made domestically), vegetable oils and fats, salt, starch, soy sauce, vegetable protein, flavored seasoning), soup (salt, soy sauce, chicken oil, sugars, lard, hydrolyzed protein, flavored seasoning, spices, flavor oils, vegetable oils and fats, chicken extract), garnish (seaweed, eggs, sesame seeds)/modified starches, seasoning (such as amino acids), calcium carbonate, brine, caramel coloring, alcohol, thickening polysaccharides, acidulant, emulsifiers, flavoring, carotenoid pigment, fine silicon dioxide, sweetener (sucralose), vitamin B2, vitamin B1, spice extracts, (may contains egg, dairies, wheat, shrimp, beef, sesame seeds, salmon, mackerel, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Sugar (produced in Thailand), syrup, gelatin, edible oils/sweetener (sorbitol), acidulant, flavoring, gelling agent (pectin: derived from orange), coloring (Gardia jasminoides, vegetable coloring)</t>
-  </si>
-  <si>
-    <t>Noodles (wheat flour (made domestically), salt, vegetable oils and fats, vegetable protein, egg white), accompanying seasoning (soy sauce, chicken extract, salt, vegetable oils, chicken fat, pork extract, spices, sugar, vegetable extract, fermented seasoning, hydrolyzed protein, yeast extract, meat flavored powder, flavoring oil)/modified starches, seasoning (such as amino acids), trehalose, brine, alcohol, calcium carbonate, lecithin, antioxidant (Vitamin C, vitamin E), caramel coloring, gardenia pigment, thickening polysaccharides, flavoring, sweetener (licorice), spice extracts, (may contain wheat, eggs, dairies, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Noodles (wheat flour (made domestically), salt, vegetable protein, vegetable oils and fats, egg white), accompanying seasoning (miso, pork extract, salt, spices, flavoring oil, vegetable extract, vegetable oils, lard, sugar, fermented seasoning, date juice, hydrolyzed protein)/modified starches, seasoning (such as amino acids), trehalose, alcohol, brine, calcium carbonate, caramel coloring, lecithin, antioxidant (vitamin E), gardenia pigment, (may contain wheat, eggs, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Noodles (wheat flour (made domestically), salt, vegetable oils and fats, vegetable protein, egg white), accompanying seasoning (chicken extract, salt, pork extract, flavoring oil, soy sauce, vegetable extract, vegetable oils, sugar, spices, seafood extract, hydrolyzed protein, lard)/modified starches, seasoning (such as amino acids), alcohol, trehalose, brine, calcium carbonate, lecithin, antioxidant (Vitamin C, vitamin E), thickening polysaccharides, flavoring, gardenia pigment, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Noodles (wheat flour (made domestically), salt, vegetable protein, vegetable oils and fats, egg white), accompanying seasoning (pork extract, soy sauce, chicken fat, salt, starch, sugar, spices, hydrolyzed protein, vegetable extract, vegetable oils)/modified starches, seasoning (such as amino acids), trehalose, brine, caramel coloring, calcium carbonate, thickening polysaccharides, alcohol, lecithin, antioxidant (vitamin E), gardenia pigment, (may contain wheat, eggs, dairies, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Noodles (wheat flour (made domestically), vegetable oils and fats, salt, vegetable protein, egg white), accompanying seasoning (soy sauce, lard, seafood extract, salt, chicken extract, pork extract, flavoring oil, sugar, spices, yeast extract)/modified starches, seasoning (such as amino acids), trehalose, brine, alcohol, calcium carbonate, lecithin, antioxidant (Vitamin C, vitamin E), caramel coloring, gardenia pigment, thickening polysaccharides, flavoring, (may contain wheat, eggs, mackerel, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (soy sauce, salt, chicken extract, lard, sugar, flavoring oil, hydrolyzed protein, vegetable oils, vegetable powder, pork extract, spices, green onions, yeast extract, fermented seasoning), garnish (wonton, seasoned minced chicken, corn), modified starches, seasoning (such as amino acids), caramel coloring, calcium carbonate, alcohol, brine, lecithin, antioxidant (vitamin E), gardenia pigment, thickening polysaccharides, flavoring, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, sesame seeds, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (miso, pork extract, soy sauce, flavoring oil, lard, spices, vegetable oils, sugar, salt, hydrolyzed protein, yeast extract, green onions, fermented seasoning), garnish (corn, seasoned minced chicken), modified starches, seasoning (such as amino acids), caramel coloring, alcohol, calcium carbonate, brine, lecithin, antioxidant (vitamin E), gardenia pigment, flavoring, spice extracts, pH regulator, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, sesame seeds, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (soy sauce, pork extract, salt, lard, starch, vegetable oils, flavoring oil, sugar, hydrolyzed protein, spices, green onions, niboshi powder), garnish (roasted pork, naruto), modified starches, seasoning (such as amino acids), calcium carbonate, thickening polysaccharides, alcohol, brine, lecithin, antioxidant (vitamin E, Vitamin C), gardenia pigment, pH regulator, caramel coloring, flavoring, monascus pigment, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, chicken, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, spices, vegetable powder, egg white), garnish (wonton, seasoned minced chicken), accompanying seasoning (chicken extract, spices, sugar, salt, vegetable powder, soy sauce, green onions, vegetable oils)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, lecithin, gardenia pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (chicken extract, soy sauce, salt, vegetable oils, fermented seasoning, sugar, vegetable extract, seaweed extract, spices, yeast extract, chicken fat, lard, seafood extract), garnish (wonton, eggs)/modified starches, seasoning (such as amino acids), alcohol, calcium carbonate, brine, antioxidant (Vitamin C, vitamin E), lecithin, gardenia pigment, caramel coloring, thickening polysaccharides, carotene dye, vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, purified lard, salt, vegetable protein), accompanying seasoning (salt, spices, chicken extract, soy sauce, yeast extract, sugar, vegetable oils)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, antioxidant (vitamin E), acidulant, gardenia pigment, (may contain wheat, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, purified lard, salt), accompanying seasoning (salt, soy sauce, dextrin, chicken extract, pork extract, spices (black pepper, garlic powder))/modified starches, caramel coloring, calcium carbonate, seasoning (such as amino acids), brine, antioxidant (vitamin E), gardenia pigment, flavoring, spice extracts, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Sugar (foreign or domestic manufacturing), wheat flour, vegetable oils and fats, whole milk powder, cacao mass, lactose, cocoa butter, shortening, cocoa powder, sweetened condensed skim milk, high-fructose corn syrup, fresh cream, salt/emulsifiers, swelling agent, flavoring, coloring (caramel), (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Malt, hop, barley, corn, sugars</t>
-  </si>
-  <si>
-    <t>Low-malt beer (made domestically) (malt, hop, barley), spirits (barley)</t>
+    <t>Sugars (glucose-fructose syrup, sugar), acidulant, flavoring, Vitamin C</t>
+  </si>
+  <si>
+    <t>Glucose-fructose syrup, cherry flower extract (domestic), carbonic acid, flavoring, acidulant, anthocyanin pigment</t>
+  </si>
+  <si>
+    <t>Erythritol, acidulant, flavoring, sweetener</t>
+  </si>
+  <si>
+    <t>Glucose-fructose syrup, green tea (Fukuoka product), flavoring, acidulant, safflower yellow coloring, gardenia blue pigment</t>
+  </si>
+  <si>
+    <t>Glucose-fructose syrup, miso, carbonic acid, caramel coloring, flavoring, acidulant, sodium chloride, erudaberi dye, caffeine (extract)</t>
+  </si>
+  <si>
+    <t>Glucose-fructose syrup, harumi Juice (Fukuoka product)/carbonic acid, flavoring, carotene dye, Vitamin C, acidulant, caffeine (extract)</t>
+  </si>
+  <si>
+    <t>Glucose-fructose syrup, acidulant, flavoring</t>
+  </si>
+  <si>
+    <t>Glucose-fructose syrup, flavoring, acidulant</t>
+  </si>
+  <si>
+    <t>Vegetable oils and fats (made domestically), sugar, biscuits (wheat flour, sugar, shortening, salt), cacao mass, wheat flour, whole milk powder, lactose, cocoa butter, cocoa powder, caramel powder, salt, yeast/emulsifiers, swelling agent, baking soda, yeast food, flavoring, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production, made domestically), cacao mass, vegetable oils and fats, whole milk powder, wheat flour, lactose, cocoa butter, processed dried apricots, cocoa powder, yeast/emulsifiers, acidulant, flavoring, yeast food, baking soda, malic acid, paprika pigment, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Shochu (made domestically), oolong tea/flavoring, Vitamin C</t>
+  </si>
+  <si>
+    <t>Lemon extract, grapefruit extract, orange extract, vodka/carbonic acid, acidulant, flavoring, sweetener (stevia), Vitamin C</t>
+  </si>
+  <si>
+    <t>Shochu, lemon, grapefruit, flavoring, safflower pigment</t>
+  </si>
+  <si>
+    <t>Grape, grape extract, grape spirits (made domestically), shochu, sugars/carbonic acid, flavoring, acidulant, anthocyanin pigment</t>
+  </si>
+  <si>
+    <t>Peaches, peach extract, peaches spirits (made domestically), shochu, sugars/carbonic acid, flavoring, acidulant</t>
+  </si>
+  <si>
+    <t>Grapefruit juice, spirits (made domestically)/carbonic acid, acidulant, sweetener (acesulfame K, sucralose), flavoring</t>
+  </si>
+  <si>
+    <t>○Soda flavor: sugar (made domestically), syrup (made domestically)/acidulant, flavoring, coloring (Gardia jasminoides, safflower yellow)○orange flavor: sugar (made domestically), syrup (made domestically)/acidulant, flavoring, carotenoid pigment○grape flavor: sugar (made domestically), syrup (made domestically), concentrated grape juice/acidulant, flavoring, vegetable coloring, gardenia pigment○Cola flavor: sugar (made domestically), syrup (made domestically)/acidulant, caramel coloring, flavoring</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +2582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1122,10 +2604,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1133,10 +2615,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1144,10 +2626,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1155,10 +2637,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1166,10 +2648,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1177,10 +2659,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1188,10 +2670,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1199,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1210,10 +2692,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1221,10 +2703,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1232,10 +2714,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1243,10 +2725,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1254,10 +2736,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1265,10 +2747,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1276,10 +2758,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1287,10 +2769,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1298,10 +2780,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1309,10 +2791,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1320,10 +2802,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1331,10 +2813,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1342,10 +2824,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1353,10 +2835,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1364,10 +2846,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1375,10 +2857,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1386,10 +2868,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1397,10 +2879,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>515</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1408,10 +2890,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1419,10 +2901,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1430,10 +2912,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1441,10 +2923,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1452,10 +2934,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1463,10 +2945,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>278</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1474,10 +2956,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1485,10 +2967,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>280</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>523</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1496,10 +2978,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>281</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1507,10 +2989,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1518,10 +3000,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1529,10 +3011,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1540,10 +3022,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1551,10 +3033,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1562,10 +3044,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1573,10 +3055,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1584,10 +3066,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1595,10 +3077,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>290</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1606,10 +3088,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1617,10 +3099,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>535</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1628,10 +3110,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1639,10 +3121,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>294</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>537</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1650,10 +3132,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1661,10 +3143,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1672,10 +3154,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1683,10 +3165,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1694,10 +3176,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>542</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1705,10 +3187,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1716,10 +3198,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1727,10 +3209,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>545</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1738,274 +3220,2177 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>303</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>304</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>306</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>549</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>307</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>308</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>551</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>309</v>
       </c>
       <c r="C66" t="s">
-        <v>227</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>310</v>
       </c>
       <c r="C67" t="s">
-        <v>228</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>311</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>554</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="C70" t="s">
-        <v>231</v>
+        <v>556</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="C71" t="s">
-        <v>232</v>
+        <v>557</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="C72" t="s">
-        <v>233</v>
+        <v>558</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="C74" t="s">
-        <v>235</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>318</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>319</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>562</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>320</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="C78" t="s">
-        <v>239</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>566</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="C81" t="s">
-        <v>242</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>328</v>
+      </c>
+      <c r="C85" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>329</v>
+      </c>
+      <c r="C86" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>331</v>
+      </c>
+      <c r="C88" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>332</v>
+      </c>
+      <c r="C89" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>335</v>
+      </c>
+      <c r="C92" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>336</v>
+      </c>
+      <c r="C93" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>337</v>
+      </c>
+      <c r="C94" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>338</v>
+      </c>
+      <c r="C95" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>339</v>
+      </c>
+      <c r="C96" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>340</v>
+      </c>
+      <c r="C97" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>341</v>
+      </c>
+      <c r="C98" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>342</v>
+      </c>
+      <c r="C99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>343</v>
+      </c>
+      <c r="C100" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>344</v>
+      </c>
+      <c r="C101" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>345</v>
+      </c>
+      <c r="C102" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>346</v>
+      </c>
+      <c r="C103" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>347</v>
+      </c>
+      <c r="C104" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>349</v>
+      </c>
+      <c r="C106" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>350</v>
+      </c>
+      <c r="C107" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>351</v>
+      </c>
+      <c r="C108" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>352</v>
+      </c>
+      <c r="C109" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>353</v>
+      </c>
+      <c r="C110" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>354</v>
+      </c>
+      <c r="C111" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>355</v>
+      </c>
+      <c r="C112" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>356</v>
+      </c>
+      <c r="C113" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>357</v>
+      </c>
+      <c r="C114" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>358</v>
+      </c>
+      <c r="C115" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>359</v>
+      </c>
+      <c r="C116" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>360</v>
+      </c>
+      <c r="C117" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>361</v>
+      </c>
+      <c r="C118" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>362</v>
+      </c>
+      <c r="C119" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>363</v>
+      </c>
+      <c r="C120" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>365</v>
+      </c>
+      <c r="C122" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>366</v>
+      </c>
+      <c r="C123" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>367</v>
+      </c>
+      <c r="C124" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>368</v>
+      </c>
+      <c r="C125" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>369</v>
+      </c>
+      <c r="C126" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>370</v>
+      </c>
+      <c r="C127" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>371</v>
+      </c>
+      <c r="C128" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>372</v>
+      </c>
+      <c r="C129" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>373</v>
+      </c>
+      <c r="C130" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>374</v>
+      </c>
+      <c r="C131" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>375</v>
+      </c>
+      <c r="C132" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>376</v>
+      </c>
+      <c r="C133" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>377</v>
+      </c>
+      <c r="C134" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>378</v>
+      </c>
+      <c r="C135" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>379</v>
+      </c>
+      <c r="C136" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>380</v>
+      </c>
+      <c r="C137" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>78</v>
+      </c>
+      <c r="B138" t="s">
+        <v>322</v>
+      </c>
+      <c r="C138" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>381</v>
+      </c>
+      <c r="C139" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>382</v>
+      </c>
+      <c r="C140" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>383</v>
+      </c>
+      <c r="C141" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>384</v>
+      </c>
+      <c r="C142" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>385</v>
+      </c>
+      <c r="C143" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>386</v>
+      </c>
+      <c r="C144" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>387</v>
+      </c>
+      <c r="C145" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>388</v>
+      </c>
+      <c r="C146" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>389</v>
+      </c>
+      <c r="C147" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>390</v>
+      </c>
+      <c r="C148" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>391</v>
+      </c>
+      <c r="C149" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>392</v>
+      </c>
+      <c r="C150" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>393</v>
+      </c>
+      <c r="C151" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>394</v>
+      </c>
+      <c r="C152" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>395</v>
+      </c>
+      <c r="C153" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>396</v>
+      </c>
+      <c r="C154" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>397</v>
+      </c>
+      <c r="C155" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>398</v>
+      </c>
+      <c r="C156" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>399</v>
+      </c>
+      <c r="C157" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>400</v>
+      </c>
+      <c r="C158" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>401</v>
+      </c>
+      <c r="C159" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>402</v>
+      </c>
+      <c r="C160" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>403</v>
+      </c>
+      <c r="C161" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>404</v>
+      </c>
+      <c r="C162" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>405</v>
+      </c>
+      <c r="C163" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
         <v>162</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B164" t="s">
+        <v>406</v>
+      </c>
+      <c r="C164" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>407</v>
+      </c>
+      <c r="C165" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>408</v>
+      </c>
+      <c r="C166" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>409</v>
+      </c>
+      <c r="C167" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>410</v>
+      </c>
+      <c r="C168" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>411</v>
+      </c>
+      <c r="C169" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>412</v>
+      </c>
+      <c r="C170" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>413</v>
+      </c>
+      <c r="C171" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>414</v>
+      </c>
+      <c r="C172" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>415</v>
+      </c>
+      <c r="C173" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>416</v>
+      </c>
+      <c r="C174" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>417</v>
+      </c>
+      <c r="C175" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>169</v>
+      </c>
+      <c r="B176" t="s">
+        <v>413</v>
+      </c>
+      <c r="C176" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>174</v>
+      </c>
+      <c r="B177" t="s">
+        <v>418</v>
+      </c>
+      <c r="C177" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
+        <v>419</v>
+      </c>
+      <c r="C178" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179" t="s">
+        <v>420</v>
+      </c>
+      <c r="C179" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180" t="s">
+        <v>421</v>
+      </c>
+      <c r="C180" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181" t="s">
+        <v>422</v>
+      </c>
+      <c r="C181" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
+        <v>423</v>
+      </c>
+      <c r="C182" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
+        <v>424</v>
+      </c>
+      <c r="C183" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>180</v>
+      </c>
+      <c r="B184" t="s">
+        <v>424</v>
+      </c>
+      <c r="C184" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185" t="s">
+        <v>425</v>
+      </c>
+      <c r="C185" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>182</v>
+      </c>
+      <c r="B186" t="s">
+        <v>426</v>
+      </c>
+      <c r="C186" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187" t="s">
+        <v>427</v>
+      </c>
+      <c r="C187" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>184</v>
+      </c>
+      <c r="B188" t="s">
+        <v>428</v>
+      </c>
+      <c r="C188" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>185</v>
+      </c>
+      <c r="B189" t="s">
+        <v>429</v>
+      </c>
+      <c r="C189" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>186</v>
+      </c>
+      <c r="B190" t="s">
+        <v>430</v>
+      </c>
+      <c r="C190" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" t="s">
+        <v>431</v>
+      </c>
+      <c r="C191" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>188</v>
+      </c>
+      <c r="B192" t="s">
+        <v>432</v>
+      </c>
+      <c r="C192" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>189</v>
+      </c>
+      <c r="B193" t="s">
+        <v>433</v>
+      </c>
+      <c r="C193" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>190</v>
+      </c>
+      <c r="B194" t="s">
+        <v>434</v>
+      </c>
+      <c r="C194" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>191</v>
+      </c>
+      <c r="B195" t="s">
+        <v>435</v>
+      </c>
+      <c r="C195" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>192</v>
+      </c>
+      <c r="B196" t="s">
+        <v>436</v>
+      </c>
+      <c r="C196" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197" t="s">
+        <v>437</v>
+      </c>
+      <c r="C197" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>194</v>
+      </c>
+      <c r="B198" t="s">
+        <v>438</v>
+      </c>
+      <c r="C198" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>195</v>
+      </c>
+      <c r="B199" t="s">
+        <v>439</v>
+      </c>
+      <c r="C199" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200" t="s">
+        <v>440</v>
+      </c>
+      <c r="C200" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>197</v>
+      </c>
+      <c r="B201" t="s">
+        <v>441</v>
+      </c>
+      <c r="C201" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>198</v>
+      </c>
+      <c r="B202" t="s">
+        <v>442</v>
+      </c>
+      <c r="C202" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>199</v>
+      </c>
+      <c r="B203" t="s">
+        <v>443</v>
+      </c>
+      <c r="C203" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204" t="s">
+        <v>444</v>
+      </c>
+      <c r="C204" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>201</v>
+      </c>
+      <c r="B205" t="s">
+        <v>445</v>
+      </c>
+      <c r="C205" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>202</v>
+      </c>
+      <c r="B206" t="s">
+        <v>446</v>
+      </c>
+      <c r="C206" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>203</v>
+      </c>
+      <c r="B207" t="s">
+        <v>447</v>
+      </c>
+      <c r="C207" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>204</v>
+      </c>
+      <c r="B208" t="s">
+        <v>448</v>
+      </c>
+      <c r="C208" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>205</v>
+      </c>
+      <c r="B209" t="s">
+        <v>449</v>
+      </c>
+      <c r="C209" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>206</v>
+      </c>
+      <c r="B210" t="s">
+        <v>450</v>
+      </c>
+      <c r="C210" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>207</v>
+      </c>
+      <c r="B211" t="s">
+        <v>451</v>
+      </c>
+      <c r="C211" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>208</v>
+      </c>
+      <c r="B212" t="s">
+        <v>452</v>
+      </c>
+      <c r="C212" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>209</v>
+      </c>
+      <c r="B213" t="s">
+        <v>453</v>
+      </c>
+      <c r="C213" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>210</v>
+      </c>
+      <c r="B214" t="s">
+        <v>454</v>
+      </c>
+      <c r="C214" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>211</v>
+      </c>
+      <c r="B215" t="s">
+        <v>455</v>
+      </c>
+      <c r="C215" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>212</v>
+      </c>
+      <c r="B216" t="s">
+        <v>456</v>
+      </c>
+      <c r="C216" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>213</v>
+      </c>
+      <c r="B217" t="s">
+        <v>457</v>
+      </c>
+      <c r="C217" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>214</v>
+      </c>
+      <c r="B218" t="s">
+        <v>458</v>
+      </c>
+      <c r="C218" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>215</v>
+      </c>
+      <c r="B219" t="s">
+        <v>459</v>
+      </c>
+      <c r="C219" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>216</v>
+      </c>
+      <c r="B220" t="s">
+        <v>460</v>
+      </c>
+      <c r="C220" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>217</v>
+      </c>
+      <c r="B221" t="s">
+        <v>461</v>
+      </c>
+      <c r="C221" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>218</v>
+      </c>
+      <c r="B222" t="s">
+        <v>462</v>
+      </c>
+      <c r="C222" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>219</v>
+      </c>
+      <c r="B223" t="s">
+        <v>463</v>
+      </c>
+      <c r="C223" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>220</v>
+      </c>
+      <c r="B224" t="s">
+        <v>464</v>
+      </c>
+      <c r="C224" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>221</v>
+      </c>
+      <c r="B225" t="s">
+        <v>465</v>
+      </c>
+      <c r="C225" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>222</v>
+      </c>
+      <c r="B226" t="s">
+        <v>466</v>
+      </c>
+      <c r="C226" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>223</v>
+      </c>
+      <c r="B227" t="s">
+        <v>467</v>
+      </c>
+      <c r="C227" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>224</v>
+      </c>
+      <c r="B228" t="s">
+        <v>468</v>
+      </c>
+      <c r="C228" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>225</v>
+      </c>
+      <c r="B229" t="s">
+        <v>469</v>
+      </c>
+      <c r="C229" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>226</v>
+      </c>
+      <c r="B230" t="s">
+        <v>465</v>
+      </c>
+      <c r="C230" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>227</v>
+      </c>
+      <c r="B231" t="s">
+        <v>470</v>
+      </c>
+      <c r="C231" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>228</v>
+      </c>
+      <c r="B232" t="s">
+        <v>471</v>
+      </c>
+      <c r="C232" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>229</v>
+      </c>
+      <c r="B233" t="s">
+        <v>472</v>
+      </c>
+      <c r="C233" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>229</v>
+      </c>
+      <c r="B234" t="s">
+        <v>472</v>
+      </c>
+      <c r="C234" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>230</v>
+      </c>
+      <c r="B235" t="s">
+        <v>473</v>
+      </c>
+      <c r="C235" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>231</v>
+      </c>
+      <c r="B236" t="s">
+        <v>474</v>
+      </c>
+      <c r="C236" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>232</v>
+      </c>
+      <c r="B237" t="s">
+        <v>475</v>
+      </c>
+      <c r="C237" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>233</v>
+      </c>
+      <c r="B238" t="s">
+        <v>476</v>
+      </c>
+      <c r="C238" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>234</v>
+      </c>
+      <c r="B239" t="s">
+        <v>477</v>
+      </c>
+      <c r="C239" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>235</v>
+      </c>
+      <c r="B240" t="s">
+        <v>478</v>
+      </c>
+      <c r="C240" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>236</v>
+      </c>
+      <c r="B241" t="s">
+        <v>479</v>
+      </c>
+      <c r="C241" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>236</v>
+      </c>
+      <c r="B242" t="s">
+        <v>479</v>
+      </c>
+      <c r="C242" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>236</v>
+      </c>
+      <c r="B243" t="s">
+        <v>479</v>
+      </c>
+      <c r="C243" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>237</v>
+      </c>
+      <c r="B244" t="s">
+        <v>480</v>
+      </c>
+      <c r="C244" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>237</v>
+      </c>
+      <c r="B245" t="s">
+        <v>480</v>
+      </c>
+      <c r="C245" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>237</v>
+      </c>
+      <c r="B246" t="s">
+        <v>480</v>
+      </c>
+      <c r="C246" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>238</v>
+      </c>
+      <c r="B247" t="s">
+        <v>481</v>
+      </c>
+      <c r="C247" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>239</v>
+      </c>
+      <c r="B248" t="s">
+        <v>482</v>
+      </c>
+      <c r="C248" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>240</v>
+      </c>
+      <c r="B249" t="s">
+        <v>483</v>
+      </c>
+      <c r="C249" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>241</v>
+      </c>
+      <c r="B250" t="s">
+        <v>484</v>
+      </c>
+      <c r="C250" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
         <v>242</v>
+      </c>
+      <c r="B251" t="s">
+        <v>485</v>
+      </c>
+      <c r="C251" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>243</v>
+      </c>
+      <c r="B252" t="s">
+        <v>486</v>
+      </c>
+      <c r="C252" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>244</v>
+      </c>
+      <c r="B253" t="s">
+        <v>487</v>
+      </c>
+      <c r="C253" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>245</v>
+      </c>
+      <c r="B254" t="s">
+        <v>488</v>
+      </c>
+      <c r="C254" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>246</v>
+      </c>
+      <c r="B255" t="s">
+        <v>489</v>
+      </c>
+      <c r="C255" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>

--- a/ingredients/result.xlsx
+++ b/ingredients/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="462">
   <si>
     <t>ingredients_ori</t>
   </si>
@@ -25,1159 +25,1393 @@
     <t>result</t>
   </si>
   <si>
+    <t>砂糖、全粉乳、ココアバター、カカオマス、植物油脂、脱脂粉乳、乳化剤、香料、アカビート色素、（原材料の一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、乳糖、ココアバター、全粉乳、植物油脂、ショートニング、抹茶、小麦たんぱく、食塩、イースト／乳化剤、香料、調味料（無機塩）、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、カカオマス、植物油脂、全粉乳、ショートニング、モルトエキス、でん粉、食塩、イースト、ココアバター、バター、乳化剤、香料、膨張剤、アナトー色素、調味料（無機塩）、（原材料の一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、全粉乳、カカオマス、植物油脂、小麦全粒粉、ココアバター、ショートニング、モルトエキス、小麦たんぱく、食塩、発酵バター、小麦胚芽、イースト／加工デンプン、乳化剤、香料、膨脹剤、酸化防止剤（ヤマモモ抽出物）、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、乳糖、全粉乳、いちごパウダー、小麦全粒粉、ココアパウダー、ショートニング、小麦たんぱく、イヌリン、食塩、イースト、キャラメルパウダー／香料、アカビート色素、乳化剤、調味料（無機塩）、膨脹剤、酸味料、V.C、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、アーモンド、全粉乳、植物油脂、カカオマス、ココアバター、小麦全粒粉、ショートニング、アーモンドプラリネペースト、小麦たんぱく、食塩、イースト／乳化剤、香料、膨脹剤、（一部に乳成分・小麦・大豆・アーモンドを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ココナッツ、全粉乳、植物油脂、ココアバター、カカオマス、小麦全粒粉、ショートニング、食塩、小麦たんぱく、イースト／乳化剤、香料、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、乳糖、ココアバター、全粉乳、小麦全粒粉、植物油脂、ショートニング、小麦たんぱく、バター加工品、食塩、イースト、岩塩、バニラビーンズシード／乳化剤、香料、調味料（無機塩）、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、植物油脂、加糖練乳、砂糖、ショー　トニング、イースト、食塩、バター加工品、　酵母エキス、炭酸Ca、調味料（無機塩等）、　乳化剤、甘味料（スクラロース）、（原材料　の一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、ショートニング、砂糖、でん粉、乾燥ポテト、野菜ペースト・ブイヨン混合品、イースト、小麦たんぱく、食塩、酒かす、コンソメシーズニング、香味油、こしょう／調味料（無機塩等）、加工デンプン、乳化剤、香料、酸味料、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、ショートニング、砂糖、トマトペースト、でん粉、醸造酢（トマト酢）、イースト、ベジタブルペースト、オニオンシーズニング、食塩、乾燥ほうれんそう、こしょう／加工デンプン、調味料（無機塩等）、香料、乳化剤、酸味料、香辛料抽出物、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、砂糖、加糖練乳、小麦全粒粉、ショートニング、でん粉、発酵バター、イースト、食塩、バター加工品、乾燥卵黄／加工デンプン、調味料（無機塩）、香料、乳化剤、（一部に卵・乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、砂糖、ショートニング、乾燥ポテト、イースト、食塩、しょうゆシーズニング、黒こしょう、レモン果汁パウダー、酵母エキス／加工デンプン、調味料（アミノ酸等）、酸味料、乳化剤、香料、（一部に小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、でん粉、乾燥ポテト、小麦たんぱく、砂糖、イヌリン、食塩、粉末しょうゆ、こんぶエキスパウダー、バター加工品、バター、酵母エキス、こしょう、たんぱく加水分解物／加工デンプン、調味料（アミノ酸等）、乳化剤、香料、着色料（カロチノイド）、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、でん粉、砂糖、小麦たんぱく、ポークエキス、オニオンペースト、食塩、しょうゆシーズニング、たんぱく加水分解物、にんにくパウダー、酵母エキス、こしょう、ベーコンエキス／調味料（アミノ酸等）、香料、乳化剤、増粘剤（キサンタンガム）、着色料（アナトー色素、カラメル）、酸味料、くん液、（一部に乳成分・小麦・大豆・豚肉を含む）</t>
+  </si>
+  <si>
     <t>小麦粉（国内製造）、植物油脂、でん粉、スモークチーズパウダー、砂糖、小麦たんぱく、食塩、発酵調味料、こしょう、酵母エキス、デキストリン、麦芽糖／調味料（アミノ酸等）、香料、増粘剤（キサンタンガム）、乳化剤、着色料（アナトー色素）、酸味料、（一部に乳成分・小麦・大豆を含む）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、植物油脂、でん粉、砂糖、小麦たんぱく、ポークエキス、オニオンペースト、食塩、しょうゆシーズニング、たんぱく加水分解物、にんにくパウダー、酵母エキス、こしょう、ベーコンエキス／調味料（アミノ酸等）、香料、乳化剤、増粘剤（キサンタンガム）、着色料（アナトー色素、カラメル）、酸味料、くん液、（一部に乳成分・小麦・大豆・豚肉を含む）</t>
+    <t>小麦粉（国内製造）、植物油脂、でん粉、乾燥ポテト、小麦たんぱく、砂糖、イヌリン、食塩、チキンエキスパウダー、香辛料、しょうゆシーズニング、ハーブシーズニング、ガーリックパウダー／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、着色料（カロチノイド）、酸味料、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、でん粉、乾燥ポテト、小麦たんぱく、砂糖、イヌリン、食塩、ホタテシーズニング、こんぶエキスパウダー、たんぱく加水分解物、だしパウダー、唐辛子／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、着色料（カロチノイド、カラメル色素）、酸味料、（一部に小麦・いか・大豆・ゼラチンを含む）</t>
   </si>
   <si>
     <t>小麦粉、植物油脂、ショートニング、砂糖、食塩、イースト、果糖ぶどう糖液糖、モルトエキス、コンソメシーズニング、しょうゆシーズニング、調味料（無機塩等）、香料、（原材料の一部に乳成分、大豆、鶏肉を含む）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、植物油脂、乾燥ポテト、でん粉、野菜エキスシーズニング、食塩、えだまめパウダー／トレハロース、調味料（アミノ酸等）、香料、乳化剤、クチナシ色素、酸味料、甘味料（スクラロース）、（一部に乳成分・小麦・大豆・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、小麦粉、植物油脂、全粉乳、カカオマス、乳糖、ココアバター、ショートニング、ココアパウダー、加糖脱脂練乳、異性化液糖、生クリーム、食塩／乳化剤、膨脹剤、香料、着色料(カラメル)、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、タピオカでん粉／酸味料、乳化剤、香料、アカキャベツ色素</t>
-  </si>
-  <si>
-    <t>水あめ、砂糖、植物油脂、ゼラチン、濃縮ストロベリー果汁、加糖練乳、ストロベリージャム、乳酸菌飲料、酸味料、乳化剤、香料、アカキャベツ色素</t>
-  </si>
-  <si>
-    <t>砂糖、水あめ、植物油脂、ラムネ菓子（エリスリトール、ポリデキストロース）、ゼラチン、デキストリン、濃縮レモン果汁、酸味料、乳化剤、香料、ステアリン酸カルシウム、ベニバナ黄色素</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、タイ製造）、水あめ、植物油脂、デキストリン、ゼラチン、濃縮りんご果汁／酸味料、グリセリン、香料、乳化剤、ベニバナ黄色素、クチナシ青色素</t>
+    <t>乾燥ポテト（遺伝子組換えでない）、植物油脂、コーンパウダー（遺伝子組換えでない）、砂糖、ショートニング、澱粉、食塩、チーズパウダー、バターパウダー、ブドウ糖、発酵調味パウダー、酵母エキスパウダー、オニオンパウダー、ほうれん草パウダー、デキストリン、キャロットエキスパウダー、小麦粉、キャベツパウダー、粉末醤油、チキンエキスパウダー/加工澱粉、トレハロース、乳化剤、塩化Ca、調味料（アミノ酸等）、炭酸Ca、乳酸Ca、香料、カラメル色素、カロチノイド色素、（一部に乳成分・小麦・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖、植物油脂、コーングリッツ（遺伝子組換えでない）、パン粉、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、クリーム粉末、卵殻未焼成Ｃａ、カラメル色素、香料、乳化剤、トレハロース、（原材料の一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、コーングリッツ、植物油脂、マーガリン、加糖れん乳、砂糖混合ブドウ糖果糖液糖、食塩、メロンピューレ、準チョコレート／未焼成Ca、香料、乳化剤、ｐH調整剤、クチナシ色素、甘味料（スクラロース）、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（遺伝子組換えでない）、砂糖、植物油脂、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、たんぱく加水分解物、クリーム粉末、カラメル色素、卵殻未焼成Ca、香料、乳化剤、トレハロース、（原材料の一部に小麦、大豆を含む）</t>
+  </si>
+  <si>
+    <t>もち米（国内産）、つゆ（醤油、砂糖、食塩、かつお節エキス、発酵調味料、魚醤、醸造酢、昆布）、麦芽糖、もち米粉（タイ産）、発酵調味料、澱粉、イソマルトオリゴ糖、水あめ、アミノ酸液、唐辛子パウダー（ハバネロ使用）／トレハロース、加工澱粉、調味料（アミノ酸等）、酸味料、カロチノイド色素、ソルビトール、（一部に小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、牛乳、ココアパウダー、カラメルソース、食塩、カカオマス、準チョコレート／香料、カラメル色素、未焼成Ca、乳化剤、甘味料（スクラロース）、トレハロース、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、かやく（ワンタン、味付鶏挽肉）、添付調味料（チキンエキス、香辛料、砂糖、食塩、粉末野菜、しょうゆ、ねぎ、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（チキンエキス、しょうゆ、食塩、植物油、発酵調味料、砂糖、野菜エキス、こんぶエキス、香辛料、酵母エキス、鶏脂、ラード、魚介エキス）、かやく（ワンタン、卵）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、かんすい、酸化防止剤（ビタミンＣ、ビタミンＥ）、レシチン、クチナシ色素、カラメル色素、増粘多糖類、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、ポークエキス、食塩、ラード、でん粉、植物油、香味油脂、砂糖、たん白加水分解物、香辛料、ねぎ、粉末煮干し）、かやく（焼豚、なると）、加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ、ビタミンＣ）、クチナシ色素、ｐＨ調整剤、カラメル色素、香料、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、鶏肉、ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（みそ、ポークエキス、醤油、香味油脂、ラード、香辛料、植物油、砂糖、食塩、たん白加水分解物、酵母エキス、ねぎ、発酵調味料）、かやく（コーン、味付鶏挽肉）、加工でん粉、調味料（アミノ酸等）、カラメル色素、酒精、炭酸カルシウム、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、ｐＨ調整剤、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
   </si>
   <si>
     <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、食塩、チキンエキス、ラード、砂糖、香味油脂、たん白加水分解物、植物油、粉末野菜、ポークエキス、香辛料、ねぎ、酵母エキス、発酵調味料）、かやく（ワンタン、味付鶏挽肉、コーン）、加工でん粉、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、増粘多糖類、香料、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（みそ、ポークエキス、醤油、香味油脂、ラード、香辛料、植物油、砂糖、食塩、たん白加水分解物、酵母エキス、ねぎ、発酵調味料）、かやく（コーン、味付鶏挽肉）、加工でん粉、調味料（アミノ酸等）、カラメル色素、酒精、炭酸カルシウム、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、ｐＨ調整剤、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、ポークエキス、食塩、ラード、でん粉、植物油、香味油脂、砂糖、たん白加水分解物、香辛料、ねぎ、粉末煮干し）、かやく（焼豚、なると）、加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ、ビタミンＣ）、クチナシ色素、ｐＨ調整剤、カラメル色素、香料、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、鶏肉、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（チキンエキス、しょうゆ、食塩、植物油、発酵調味料、砂糖、野菜エキス、こんぶエキス、香辛料、酵母エキス、鶏脂、ラード、魚介エキス）、かやく（ワンタン、卵）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、かんすい、酸化防止剤（ビタミンＣ、ビタミンＥ）、レシチン、クチナシ色素、カラメル色素、増粘多糖類、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、かやく（ワンタン、味付鶏挽肉）、添付調味料（チキンエキス、香辛料、砂糖、食塩、粉末野菜、しょうゆ、ねぎ、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
     <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（しょうゆ、チキンエキス、食塩、植物油、鶏脂、ポークエキス、香辛料、砂糖、野菜エキス、発酵調味料、たん白加水分解物、酵母エキス、ミート風味パウダー、香味油脂）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩、植物性たん白）、添付調味料（食塩、香辛料、チキンエキス、しょうゆ、酵母エキス、砂糖、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、酸味料、クチナシ色素、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
     <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（ポークエキス、しょうゆ、鶏脂、食塩、でん粉、砂糖、香辛料、たん白加水分解物、野菜エキス、植物油）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、カラメル色素、炭酸カルシウム、増粘多糖類、酒精、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
     <t>めん（小麦粉（国内製造）、植物油脂、食塩、植物性たん白、卵白）、添付調味料（しょうゆ、ラード、魚介エキス、食塩、チキンエキス、ポークエキス、香味油脂、砂糖、香辛料、酵母エキス）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、（一部に小麦・卵・さば・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩、植物性たん白）、添付調味料（食塩、香辛料、チキンエキス、しょうゆ、酵母エキス、砂糖、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、酸味料、クチナシ色素、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
+    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（みそ、ポークエキス、食塩、香辛料、香味油脂、野菜エキス、植物油、ラード、砂糖、発酵調味料、デーツ果汁、たん白加水分解物）／加工でん粉、調味料（アミノ酸等）、トレハロース、酒精、かんすい、炭酸カルシウム、カラメル色素、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩）、添付調味料（食塩、しょうゆ、デキストリン、チキンエキス、ポークエキス、香辛料（黒こしょう、ガーリックパウダー））／加工でん粉、カラメル色素、炭酸カルシウム、調味料（アミノ酸等）、かんすい、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（みそ、ポークエキス、食塩、香辛料、香味油脂、野菜エキス、植物油、ラード、砂糖、発酵調味料、デーツ果汁、たん白加水分解物）／加工でん粉、調味料（アミノ酸等）、トレハロース、酒精、かんすい、炭酸カルシウム、カラメル色素、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+    <t>砂糖（タイ製造）、水あめ、ゼラチン、食用油脂／甘味料（ソルビトール）、酸味料、香料、ゲル化剤（ペクチン：オレンジ由来）、着色料（クチナシ、野菜色素）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料（赤唐辛子、ガーリック、ペッパー）、デキストリン、糖類、たん白加水分解物、香味油、酵母エキス、しょうゆ、ローストオニオン粉末、香味調味料）、かやく（味付豚肉、卵、ニラ、赤唐辛子）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、酸化防止剤（ビタミンＥ）、カロチノイド色素、酸味料、甘味料（スクラロース）、くん液、ビタミンＢ２、香辛料抽出物、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･大豆･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料、香味油、たん白加水分解物、酵母エキス、しょうゆ、デキストリン、糖類、ローストオニオン粉末、香味調味料、植物油脂）、かやく（卵、豚・鶏味付肉、ニラ）/加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、カロチノイド色素、微粒二酸化ケイ素、乳化剤、酸化防止剤（ビタミンE）、酸味料、甘味料（スクラロース）、香辛料抽出物、ビタミンB2、ビタミンB1、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（半固体状ドレッシング、しょうゆ、糖類、豚脂、食塩、ポークエキス、魚醤、魚介エキス、たん白加水分解物、香味調味料、香辛料）、かやく（キャベツ）、ふりかけ（たらこ加工品、のり、香辛料）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、カラメル色素、酒精、香料、増粘剤（加工デンプン、キサンタンガム）、乳化剤、酸味料、カロチノイド色素、ベニコウジ色素、酸化防止剤（ビタミンＥ）、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･いか･さけ･さば･大豆･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（ペッパーガーリックマヨネーズ、しょうゆ、糖類、豚脂、植物油脂、食塩、ポークエキス、香味油、たん白加水分解物、香味調味料、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（香辛料、アオサ、赤唐辛子）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、酒精、香料、増粘剤（キサンタンガム）、乳化剤、酸味料、カロチノイド色素、酸化防止剤（ビタミンＥ）、カラメル色素、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･ごま･大豆･鶏肉･豚肉を含む）</t>
   </si>
   <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ソース、糖類）、ソース（ソース、からしマヨネーズ、糖類、植物油脂、食塩、香味油、たん白加水分解物、ソース加工品、香味調味料、ポークエキス、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（ソース加工品、マヨネーズ風ソースフレーク、アオサ、紅しょうが）／カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、乳化剤、香料、香辛料抽出物、酸化防止剤（ビタミンＥ）、炭酸マグネシウム、カロチノイド色素、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･オレンジ･ごま･大豆･豚肉･りんごを含む）</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ホタテエキス、乳たん白）、スープ（食塩、ポークエキス、香辛料、たん白加水分解物、糖類、香味調味料、酵母エキス、しょうゆ、ローストオニオン粉末）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、炭酸マグネシウム、増粘多糖類、香料、酸化防止剤（ビタミンＥ）、カロチノイド色素、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料、香味油、たん白加水分解物、酵母エキス、しょうゆ、デキストリン、糖類、ローストオニオン粉末、香味調味料、植物油脂）、かやく（卵、豚・鶏味付肉、ニラ）/加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、カロチノイド色素、微粒二酸化ケイ素、乳化剤、酸化防止剤（ビタミンE）、酸味料、甘味料（スクラロース）、香辛料抽出物、ビタミンB2、ビタミンB1、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（食塩、ポークエキス、香辛料、トマトペースト、デキストリン、糖類、しょうゆ、たん白加水分解物、酵母エキス、ローストオニオン粉末、醸造酢、豚脂、香味調味料）、かやく（豚･鶏味付肉、卵、ニラ、赤唐辛子）／加工デンプン、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、かんすい、増粘多糖類、ソルビット、酒精、香料、グリセリン、カロチノイド色素、酸化防止剤（ビタミンＥ）、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（ペッパーガーリックマヨネーズ、しょうゆ、糖類、豚脂、植物油脂、食塩、ポークエキス、香味油、たん白加水分解物、香味調味料、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（香辛料、アオサ、赤唐辛子）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、酒精、香料、増粘剤（キサンタンガム）、乳化剤、酸味料、カロチノイド色素、酸化防止剤（ビタミンＥ）、カラメル色素、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･ごま･大豆･鶏肉･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（半固体状ドレッシング、しょうゆ、糖類、豚脂、食塩、ポークエキス、魚醤、魚介エキス、たん白加水分解物、香味調味料、香辛料）、かやく（キャベツ）、ふりかけ（たらこ加工品、のり、香辛料）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、カラメル色素、酒精、香料、増粘剤（加工デンプン、キサンタンガム）、乳化剤、酸味料、カロチノイド色素、ベニコウジ色素、酸化防止剤（ビタミンＥ）、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･いか･さけ･さば･大豆･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>砂糖、マルトース、ゼラチン、濃縮リンゴ果汁、食塩、その他</t>
-  </si>
-  <si>
-    <t>麺［米粉（国産）、馬鈴薯でん粉／加工デンプン、アルギン酸エステル、ビタミンＢ２］、スープ［みそ、しょうゆ、植物油脂、発酵調味料、にんにく、砂糖、食塩、すりごま、たん白加水分解物、酵母エキス、香辛料／酒精、カラメル色素、調味料（有機酸等）、酸味料、（一部に大豆・ごまを含む］</t>
-  </si>
-  <si>
-    <t>麺［米粉（国産）、馬鈴薯でん粉／加工デンプン、アルギン酸エステル、ビタミンＢ２］、スープ［クリーミングパウダー、発酵調味料、食塩、たん白加水分解物、しょうゆ、植物油脂、砂糖、酵母エキス、ハクサイエキスパウダー、ガーリックパウダー、醸造酢、香辛料／カラメル色素、増粘剤（グァーガム）、調味料（有機酸等）、（一部に乳・大豆を含む］</t>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、チキンエキス、たん白加水分解物、香辛料、酵母エキス、ねぎ、ローストオニオン粉末、かつおぶし粉末、香味調味料、植物油脂）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、かんすい、香料、増粘多糖類、乳化剤、酸化防止剤（ビタミンＥ）、カロチノイド色素、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･大豆･鶏肉･豚肉･ゼラチンを含む）</t>
   </si>
   <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（砂糖、食塩、ソース、香辛料、デキストリン、たん白加水分解物）、かやく（キャベツ）/加工でんぷん、調味料（アミノ酸等）、カラメル色素、炭酸Ca、かんすい、酸味料、増粘多糖類、炭酸Mg、酸化防止剤（ビタミンE）、香料、ビタミンB2、ビタミンB1、（一部に小麦・大豆・ごまを含む）</t>
   </si>
   <si>
-    <t>チョコレート（乳糖、ココアバター、砂糖、植物油脂、全粉乳、乾燥いちご）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、香料、乳化剤（大豆由来）、着色料（アカビート、紅麹）貝カルシウム、膨張剤、酸味料</t>
-  </si>
-  <si>
-    <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）／加工でんぷん、乳化剤（大豆由来）貝カルシウム、香料、着色料（カラメル）、膨張剤</t>
-  </si>
-  <si>
-    <t>小麦粉・ショートニング・砂糖・全粒粉・乳糖・乳頭を主原料とする食品・乾燥全卵・でんぷん・食塩・膨張剤・香料・乳化剤</t>
-  </si>
-  <si>
-    <t>小麦粉・ショートニング・砂糖・ココアパウダー・乳糖・乳糖を主原料とする食品・乾燥全卵・でんぷん・食塩・炭酸カルシウム 膨張剤・香料・乳化剤</t>
-  </si>
-  <si>
-    <t>水飴、砂糖、澱粉、餅粉、植物油、ソルビトール、乳化剤、香料、酸味料、着色料（青１、黄４、赤２）</t>
-  </si>
-  <si>
-    <t>水飴、砂糖、澱粉、餅粉、植物油、ソルビトール、乳化剤、香料、酸味料、着色料（赤１０６）</t>
-  </si>
-  <si>
-    <t>野菜（じゃがいも（国産）、にんじん、コーン）、大豆油、豚肉、小麦粉ルウ、ソテーオニオン、砂糖、カレー粉、エキス（ポーク、酵母）、醤油、トマトペースト、食塩、チキンエキス調味料、ミルポワペースト、チーズパウダー、酵母エキスパウダー／増粘剤（加工でん粉）、調味料（アミノ酸等）、セルロース、（一部に乳成分・小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>欄外裏面に記載［たまご］小麦粉（国内製造）、いりごま、乳糖、砂糖、卵黄粉末、食塩、加工油脂、すりごま、大豆加工品、鰹削り節、こしあん、還元水あめ、エキス（チキン、酵母、鰹節、魚介）、鶏肉粉末、みそ、海藻カルシウム、のり、醤油、鶏脂、乳製品、ぶどう糖果糖液糖、イースト、みりん、あおさ、抹茶、デキストリン／調味料（アミノ酸）、卵殻カルシウム、酸化防止剤（ビタミンＥ）、カロチノイド色素、香料、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉を含む）［さけ］いりごま（国内製造）、乳糖、大豆加工品、砂糖、食塩、小麦粉、加工油脂、鮭、すりごま、卵黄粉末、還元水あめ、こしあん、海藻カルシウム、エキス（チキン、酵母）、鶏肉粉末、みそ、香味油、のり、鶏脂、醤油、乳製品、ぶどう糖果糖液糖、イースト／調味料（アミノ酸等）、卵殻カルシウム、着色料（紅麹、カロチノイド）、酸化防止剤（ビタミンＥ）、香料、（一部に卵・乳成分・小麦・ごま・さけ・大豆・鶏肉を含む）［おかか］いりごま（国内製造）、乳糖、鰹削り節、砂糖、食塩、小麦粉、すりごま、加工油脂、醤油、還元水あめ、大豆加工品、卵黄粉末、鰹節粉、エキス（チキン、鰹節、酵母</t>
-  </si>
-  <si>
-    <t>スイートコーンパウダー（アメリカ製造）、でん粉、砂糖、デキストリン、食塩、全粉乳、乳糖、脱脂粉乳、エキス（チキン、酵母、オニオン）、うきみ（クラッカー）／調味料（アミノ酸）、膨張剤、カカオ色素、（一部に乳成分・小麦・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>野菜（じゃがいも（国産）、にんじん）、ソテーオニオン、豚肉、砂糖、エキス（ポーク、酵母）、カレー粉、トマトペースト、ポテト粉末、食塩、なたね油、かぼちゃペースト、ほうれん草ペースト、コーンペースト／増粘剤（加工でん粉）、（一部に豚肉を含む）</t>
-  </si>
-  <si>
-    <t>野菜（じゃがいも、にんじん、コーン、玉ねぎ、かぼちゃ、グリーンアスパラガス）、豚肉、小麦粉、マーガリン、はちみつ、砂糖、カレー粉、食塩、エキス（ポーク、酵母）、豚脂、トマトペースト、チーズ、コーン油、増粘剤（加工澱粉）、調味料（アミノ酸）、セルロース、（原材料の一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>鶏肉（国産）、鶏卵、玉ねぎ、砂糖、発酵調味料、食塩、醤油、エキス（チキン、酵母）、鰹節粉、鶏脂／増粘剤（加工でん粉、キサンタン）、調味料（アミノ酸等）、トレハロース、カロチノイド色素、（一部に卵・小麦・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>トマトペースト（ポルトガル製造）、砂糖、ミルポワペースト、ウスターソース、りんごペースト、小麦粉ルウ、ソテーオニオン、チキンエキス、大豆油、食塩、粒状植物性たん白、牛肉、酵母エキスパウダー、かぼちゃペースト、グリーンアスパラガスペースト、コーンペースト／増粘剤（加工でん粉）、調味料（アミノ酸）、カラメル色素、（一部に小麦・牛肉・大豆・鶏肉・りんごを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、マーガリン、砂糖、小麦全粒粉、発酵風味液、食塩、殺菌乳酸菌末／香料、カロテン色素、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、ぶどう糖、水あめ、ゼラチン、ウーロン茶抽出物／ガムベース、酸味料、軟化剤、香料、ビタミンＣ、クチナシ色素</t>
-  </si>
-  <si>
-    <t>コーンパフ（コーングリッツ、砂糖、植物油脂、水あめ、ココアパウダー、食塩）（国内製造）、砂糖、植物油脂、カカオマス、乳糖、全粉乳、ココアバター、水あめ　／　光沢剤、増粘剤（アラビアガム）、乳化剤（大豆由来）、香料、カラメル色素</t>
+    <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、乳化剤（大豆由来）、貝カルシウム、香料、着色料（カラメル）、膨張剤</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、ストロベリーパウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、紅麹、アカビート）、香料、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、全粉乳、でん粉、カカオマス、ショートニング、加糖れん乳、ココアパウダー、クリームパウダー、モルトエキス、食塩、ココアバター、大豆胚芽エキス／膨脹剤、乳化剤、香料</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、食塩、植物性たん白、しょうゆ）、スープ（しょうゆ、糖類、食塩、動物油脂、ビーフエキス、たん白加水分解物、昆布エキス、鰹エキス）、かやく（かす入り揚げ玉、とろろ昆布、かまぼこ、ねぎ）／加工でん粉、調味料（アミノ酸等）、酒精、リン酸Na、香料、増粘剤（キサンタン）、酸化防止剤（ビタミンE)、カラメル色素、膨脹剤、紅麹色素、クチナシ色素、（一部に小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、乳糖、加工油脂、還元水あめ、さつまいもパウダー、卵、マーガリン、植物油脂、乳等を主要原料とする食品（バター、乳糖、カゼインカルシウム、食塩）、脱脂粉乳、食塩、麦芽糖、小麦ファイバー、水あめ／着色料（クチナシ、アナトー）、乳化剤（大豆由来）、結晶セルロース、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、小麦粉、加工油脂、脱脂粉乳、ぶどう糖果糖液糖、カカオマス、ココアパウダー、卵、加糖脱脂練乳、マーガリン、ココアバター、水あめ、植物油脂、乳糖、食塩、麦芽糖、ぶどう糖／着色料（カラメル、アナトー）、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、加工油脂、乳糖、全粉乳、ぶどう糖果糖液糖、卵、加糖脱脂練乳、マーガリン、いちごパウダー、水あめ、植物油脂、食塩、麦芽糖、ぶどう糖／乳化剤（大豆由来）、酸味料、着色料（紅麹、アカビート、アナトー）、香料</t>
+  </si>
+  <si>
+    <t>準チョコレート（砂糖、乳糖、植物油脂、全粉乳、ココアバター）、小麦粉、植物油脂、乳糖、砂糖、くりパウダー、ココアパウダー、イースト、全粉乳、カカオマス、ココアバター／乳化剤、香料、カラメル色素、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>準チョコレート（砂糖、乳糖、植物油脂、全粉乳、ココアバター）（国内製造）、小麦粉、植物油脂、乳糖、砂糖、さつまいもパウダー、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、香料、重曹、イーストフード、クチナシ色素、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、ココアパウダー、食塩）、砂糖、小麦粉、カカオマス、乳糖、全粉乳、ココアバター、ココアパウダー、イースト／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、植物油脂、乳糖、抹茶、砂糖、ココアパウダー、緑茶、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、小麦全粒粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、ココアパウダー、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、カラメル色素、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、いちご果汁パウダー、乾燥いちご加工品、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、酸味料、膨脹剤、香料、着色料（赤ビート、紅麹）、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、小麦全粒粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、砂糖、植物油脂、全粉乳、カカオマス、ココアバター、ココアパウダー、イースト／乳化剤（大豆由来）、膨脹剤、カラメル色素、香料、重曹、イーストフード</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、カカオマス、小麦粉、植物油脂、ココアバター、オレンジ果汁パウダー、イースト、ココアパウダー／乳化剤、香料、酸味料、重曹、イーストフード、（一部に小麦・乳成分・オレンジ・大豆を含む）</t>
+  </si>
+  <si>
+    <t>緑茶（国産）／ビタミンＣ</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、香辛料、チキンエキス、ポークエキス、えびエキス、たん白加水分解物）、かやく（かまぼこ、コーン、ねぎ）、調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ベニコウジ色素、ビタミンＢ１</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、粉末卵、糖類）、スープ（みそ、食塩、糖類、ポークエキス、コチュジャン、植物油脂、豚脂、豆板醤、香辛料、香味食用油、調味油脂、たん白加水分解物）、かやく（ねぎ、鶏・豚味付肉そぼろ、コーン）、加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、カラメル色素、香料、クチナシ色素、かんすい、増粘剤（キサンタン）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、ビタミンＢ2、ビタミンＢ１、香辛料抽出物、（原材料の一部にごまを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、みそ、糖類）、スープ（豚脂、しょうゆ、食塩、糖類、ポークエキス、チキンエキス、たん白加水分解物、植物油脂、香辛料、酵母エキス）、かやく（チャーシュー、ねぎ）、加工でん粉、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、かんすい、レシチン、クチナシ色素、増粘剤（キサンタン）、香料、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に卵、乳成分を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩）、ソース（ソース、糖類、食塩、豚脂、植物油脂、香辛料、たん白加水分解物、香味調味料）、かやく（キャベツ）、カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、酸化防止剤（ビタミンＥ）、香料、増粘剤（キサンタン）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、大豆、りんご、ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉(国内製造)、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、野菜粉末、チキンエキス、ポークエキス、えびエキス、香辛料、たん白加水分解物）、かやく（かまぼこ、コーン）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、大豆食物繊維）、スープ（しょうゆ、食塩、たん白加水分解物、ポークエキス、糖類、豚脂、植物油脂、かつお節エキス、酵母エキス、香辛料、煮干いわし粉末）、かやく（チャーシュー、メンマ、ナルト、ねぎ）、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、香料、かんすい、増粘剤（キサンタン）、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（原材料の一部に卵、乳成分を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、果汁（いちご、パインアップル、レモン、オレンジ、りんご、メロン、ぶどう、もも）/酸味料、香料、着色料（アントシアニン、パプリカ色素、カロチン、クチナシ、紅麹、紅花黄）、（一部にオレンジ・もも・りんごを含む）</t>
+  </si>
+  <si>
+    <t>（レモン味）砂糖（国内製造）、水飴、濃縮レモン果汁、ハーブエキス（オレンジを含む）
+（ピーチ味）砂糖（国内製造）、水飴、濃縮ピーチ果汁、ハーブエキス（オレンジを含む）
+（グレープ味）砂糖（国内製造）、水飴、濃縮グレープ果汁、ハーブエキス（オレンジを含む）
+（オレンジ味）砂糖（国内製造）、水飴、濃縮オレンジ果汁、ハーブエキス（オレンジを含む）
+（青りんご味）砂糖（国内製造）、水飴、濃縮りんご果汁、ハーブエキス（オレンジを含む）</t>
+  </si>
+  <si>
+    <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（食塩、砂糖、鶏油、香味油、たん白加水分解物、植物油脂、チキンエキス、香辛料、酵母エキス、チキン調味料、ネギエキス）、かやく（大豆加工品、ねぎ、もやし、コリアンダー）／加工でん粉、調味料（アミノ酸等）、酒精、増粘剤（加工でん粉、増粘多糖類）、香料、カラメル色素、乳化剤、酸味料、酸化防止剤（ビタミンＥ）、（一部に乳成分・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（たん白加水分解物、糖類、食塩、香辛料、牛脂、発酵調味料、植物油脂、醸造酢、トマトケチャップ、ビーフエキス、香味油、酵母エキス）、かやく（大豆加工品、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、酒精、香料、香辛料抽出物、増粘多糖類、カラメル色素、乳化剤、酸味料、甘味料（スクラロース、アセスルファムＫ）、酸化防止剤（ビタミンＥ）、（一部にえび・牛肉・大豆を含む）</t>
+  </si>
+  <si>
+    <t>米めん（ベトナム製造（米、でん粉、食塩））、かやく入りスープ（食塩、チンゲン菜、砂糖、トムヤムシーズニングパウダー、大豆加工品、香辛料、ねぎ、酵母エキス、たん白加水分解物、蝦醤、チキン調味料、エビエキス、コリアンダー、唐辛子）／加工でん粉、調味料（アミノ酸等）、酸味料、香料、微粒二酸化ケイ素、カロチノイド色素、甘味料（スクラロース、アセスルファムＫ）、乳化剤、増粘剤（グァーガム）、（一部にえび・大豆・鶏肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>牛乳（国内製造）、砂糖、コーヒー、脱脂粉乳、全粉乳、デキストリン／乳化剤、香料、セルロース</t>
+  </si>
+  <si>
+    <t>果実（りんご、オレンジ、グァバ、パインアップル、パッションフルーツ）、砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、植物油、塩化Ｎａ、ガラナ種子エキス／炭酸、クエン酸、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、クエン酸Ｎａ、カフェイン、甘味料（スクラロース）、ナイアシン、イノシトール、ビタミンＢ６、ビタミンＢ２、着色料（β－カロテン）、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／クエン酸、炭酸、香料、クエン酸Ｎａ、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギ二ン、保存料（安息香酸）、カフェイン、ナイアシン、着色料（アントシアニン）、イノシトール、ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産、タイ産）、植物油脂、粉末醸造酢、砂糖、食塩、酵母エキス粉末、香辛料（ごまを含む）、チキンエキス粉末、粉末しょうゆ（小麦・大豆を含む）、でん粉、デキストリン／加工デンプン、香料（鶏肉由来）、調味料（アミノ酸等）、酸味料、酸化防止剤（ビタミンＥ）、微粒酸化ケイ素、着色料（カロテン）、香辛料抽出物、ビタミンＢ１、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、植物油脂、えび粉末、えび塩風味パウダー、食塩、ローストしょうゆパウダー／加工デンプン、炭酸Ca、調味料（アミノ酸等）、酸化防止剤（ビタミンＥ、ビタミンC）、乳化剤、香料、カラメル色素、（一部にえび・小麦・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造）、カカオマス、乳糖、全粉乳、ココアバター、植物油脂、/乳化剤、香料、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ローストピーナッツ（国内製造）、植物油脂、イヌリン(食物繊維)、全粉乳、砂糖、ココアパウダー、カカオマス／乳化剤、香料、（一部に乳成分・落花生・大豆を含む）</t>
+  </si>
+  <si>
+    <t>レーズン（アメリカ製造）、カカオマス、砂糖、ココアバター、ココアパウダー、全粉乳、マルトデキストリン、植物油脂／光沢剤、乳化剤、香料、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、小麦パフ、全粉乳、カカオマス、ココアパウダー、マルトデキストリン／乳化剤、光沢剤、香料、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、コーングリッツ（分別生産流通管理済み）、全粉乳、カカオマス、ココアパウダー、小麦粉、マルトデキストリン／乳化剤、光沢剤、セルロース、香料、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂、カカオマス、小麦全粒粉、全粉乳、でん粉、水あめ、乳糖、小麦胚芽、ココアパウダー、脱脂粉乳、食塩／膨脹剤、乳化剤、香料、（一部に卵・乳成分・小麦・大豆・アーモンドを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、カカオマス、全粉乳、パフ（コーングリッツ、でん粉、砂糖）、乳糖、ココアパウダー／乳化剤、香料、膨脹剤、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、ファットスプレッド、マーガリン、乳等主要原料とする食品、バター、食塩、白ごまペースト、炭酸カルシウム、膨脹剤、加工でん粉、香料、着色料（カラメル、カロチン）調味料（アミノ酸）、（一部に乳成分・小麦・大豆・ごまを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、植物油脂、乳糖、デキストリン、ココアバター、小麦粉、全粉乳、脱脂粉乳、ホエイパウダー、小麦パフ、チーズパウダー、バターオイル、牛乳、マーガリン、ショートニング、ヨーグルトパウダー、レモン果汁パウダー、食塩、ぶどう糖果糖液糖、発酵風味液、たんぱく質濃縮ホエイパウダー／乳化剤（大豆由来）、香料、膨脹剤</t>
+  </si>
+  <si>
+    <t>昆布（北海道産）、醸造酢、かつおぶしエキス、発酵調味料、たんぱく加水分解物/調味料（アミノ酸等）、ソルビトール、酸味料、甘味料（ステビア抽出物）、（一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、着色料（クチナシ、野菜色素）、香料</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、野菜色素、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴（国内製造）、乾燥ゆず皮、食用油脂／酸味料、香料、クチナシ色素、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、添付調味料（植物油脂、食塩、ビーフ調味料、砂糖、でん粉、ポーク調味料、粉末しょうゆ、チキンエキス、たん白加水分解物、胡椒、酵母エキス）、かやく入り添付調味料（乳化油脂、ぶどう糖、チーズパウダー、にんにく、大豆加工品、乳等を主要原料とする食品、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、香料、カラメル色素、かんすい、微粒二酸化ケイ素、酸味料、香辛料抽出物、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、カロチノイド色素、アカビート色素、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・乳成分・牛肉・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ジャム（砂糖、いちご、水あめ）、ショートニング、砂糖、鶏卵、加糖練乳、脱脂粉乳、乳等を主要原料とする食品、澱粉分解物、食塩、チーズパウダー／ソルビトール、酸味料、ゲル化剤（増粘多糖類）、香料、膨張剤、乳化剤、紅麹色素、リン酸Ca、（一部に小麦・卵・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ジャム（砂糖、水あめ、ブルーベリー）、砂糖、ショートニング、鶏卵、乳等を主要原料とする食品、加糖練乳、プロセスチーズ、食塩／ソルビトール、酸味料、ゲル化剤（増粘多糖類）、香料、膨張剤、乳化剤、（一部に小麦・卵・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、ぶどうソース、全粉乳、カカオマス、ココアバター、乳糖、乳等を主要原料とする食品、紅茶エキスパウダー、脱脂粉乳、酒精飲料/トレハロース、乳化剤（大豆由来）、酸味料、香料（乳・大豆由来）、着色料（カラメル、野菜色素、クチナシ、紅花黄、紅麹）、環状オリゴ糖、増粘剤（ペクチン）</t>
+  </si>
+  <si>
+    <t>大豆（アメリカ）、納豆菌]、植物油脂、しょうゆ風味パウダー（粉末しょうゆ、食塩、コーンスターチ、デキストリン、その他)（小麦・さばを含む）／調味料（アミノ酸等）、香料</t>
+  </si>
+  <si>
+    <t>ブドウ糖（国内製造）、コーンスターチ、澱粉分解物／酸味料、香料、着色料（アントシアニン、クチナシ、アナトー、スピルリナ青）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、マルチトール、麦芽糖、クリーミングパウダー（水あめ、植物油脂、カゼイン（乳成分を含む））、デキストリン、濃縮梅果汁、ゼラチン、梅パウダー、希少糖含有シロップ、梅エキス、食物繊維、梅干エキスパウダー／酸味料、増粘剤（アラビアガム）、アントシアニン色素、香料、光沢剤</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、ココア、卵黄、カカオマス/セルロース、乳化剤、香料、（原料の一部に乳成分・卵・大豆を含む）</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、チェダーチーズパウダー/セルロース、乳化剤、パプリカ色素、香料、（原料の一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、ココア、カカオマス/セルロース、乳化剤、香料、（原料の一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、全粉乳、カカオマス、ショートニング、ココアバター、植物油脂、小麦全粒粉、小麦ふすま、食塩、脱脂小麦胚芽 ／ 膨脹剤、乳化剤(大豆由来)、香料</t>
+  </si>
+  <si>
+    <t>ピーナッツ（アメリカ）、砂糖、小麦粉、寒梅粉、澱粉、米粉、食塩、ガラクトオリゴ糖／膨張剤、炭酸カルシウム、着色料（クチナシ）、ピロリン酸鉄、 （一部に乳成分・小麦・落花生を含む）</t>
+  </si>
+  <si>
+    <t>マルトース（国内製造）、水飴、砂糖、もち粉、全粉乳、植物油脂、カカオマス、ココアパウダー、クリーム（乳成分を含む）、デキストリン、洋酒、乳糖 / トレハロース、乳化剤（大豆由来）、着色料（カラメル）、調味料（アミノ酸）、加工デンプン、香料、カゼインNa（乳由来）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、カカオマス、植物油脂、全粉乳、アーモンド、ココアバター、脱脂粉乳、米パフ、　 乳糖、バターオイル／乳化剤（大豆由来）、香料（アーモンド由来）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、植物油脂、全粉乳、カカオマス、ココアバター、脱脂粉乳、乳糖、いちご粉末／トレハロース、乳化剤（大豆由来）、香料（アーモンド由来）、着色料（ビートレッド）、酸味料</t>
+  </si>
+  <si>
+    <t>＜ストロベリーチョコレート＞砂糖（外国製造）、植物油脂、乳糖、全粉乳、ココアバター、カカオマス、ホエイパウダー、小麦パフ（でんぷん、小麦粉、食塩）、乾燥いちご／香料、乳化剤（大豆由来）、酸味料、着色料（アカダイコン）、膨脹剤 ＜クリスプチョコレート＞砂糖（外国製造、国内製造）、植物油脂、カカオマス、乳糖、全粉乳、ホエイパウダー、小麦パフ（でんぷん、小麦粉、食塩）／乳化剤（大豆由来）、香料、膨脹剤</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、乳糖、砂糖、ココアクッキークランチ（小麦粉、砂糖、ショートニング、ココアパウダー、デキストリン、ぶどう糖果糖液糖、カカオマス、ホエイパウダー、食塩）、ココアバター、全粉乳、小麦粉、ホエイパウダー、クリームチーズパウダー、でん粉、クリームパウダー、モルトエキス、食塩／乳化剤（大豆由来）、トレハロース、香料、膨脹剤、カラメル色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造又は韓国製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
+  </si>
+  <si>
+    <t>＜きゅんベリー味（丸型）＞ぶどう糖（国内製造）、いちご果汁パウダー、でん粉／乳化剤、加工でん粉、酸味料、ビタミンＣ、香料、野菜色素＜甘ずっぱいきゅんベリー味（ハート型）＞ぶどう糖（国内製造）、いちご果汁パウダー、でん粉／乳化剤、加工でん粉、酸味料、ビタミンＣ、香料、野菜色素</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、砂糖、粉末醤油、デキストリン、粉末みそ、ハバ ネロパウダー、チキンエキスパウダー、食塩、たん白加水分解物、酵母エキスパウダー、乳糖／調味料（アミノ酸等）、香辛料抽出物、香料、パプリカ色素、甘味料（ステビア、カンゾウ）、酸味料、（一部に小麦・乳成分・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、粉末卵、野菜エキス、しょうゆ）、スープ（食塩、糖類、チキン調味料、たまねぎ加工品、しょうゆ、香辛料、酵母エキス、野菜調味料、発酵調味料）、かやく（キャベツ、鶏・豚味付肉そぼろ、フライドオニオン、にんじん）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、トレハロース、香料、かんすい、レシチン、微粒二酸化ケイ素、酸味料、クチナシ色素、酸化防止剤（ビタミンＥ、ビタミンＣ）、ビタミンＢ２、ビタミンＢ１、パプリカ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、粉末卵、野菜エキス、しょうゆ）、スープ（糖類、食塩、チキン調味料、でん粉、粉末レモン果汁、香辛料、酵母エキス、植物油脂、野菜粉末）、かやく（キャベツ、味付鶏肉そぼろ、味付卵、赤ピーマン）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、香料、トレハロース、酸味料、微粒二酸化ケイ素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、カラメル色素、カロチン色素、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>難消化性デキストリン（中国製造）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、ガラナ種子エキス／炭酸、クエン酸、クエン酸Ｎａ、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、カフェイン、甘味料（スクラロース、アセスルファムＫ、ステビア）、ナイアシン、パントテン酸Ｃａ、イノシトール、ビタミンＢ６、着色料（黄色４号、黄色５号）、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない)、植物油、砂糖、ぶどう糖、香辛料、食塩、チキンエキスパウダー、野菜エキスパウダー(乳成分・大豆・豚肉・ゼラチンを含む)、たんぱく加水分解物(大豆を含む)、オリゴ糖/調味料(アミノ酸等)、パプリカ色素、酸味料、香辛料抽出物、カラメル色素、香料</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、植物油脂、麻婆豆腐風味パウダー（グラニュー糖、粉末しょうゆ、粉末みそ、ポーク風味調味料、たんぱく加水分解物、その他）、食塩、砂糖、ミート調味エキス、たんぱく加水分解物、しょうゆ／調味料（アミノ酸等）、炭酸Ca、香料、乳化剤、パプリカ色素、酸化防止剤（ビタミンE)、甘味料（ステビア、カンゾウ）、酸味料、香辛料抽出物、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、植物油脂、しょうゆラーメン風味パウダー、食塩、砂糖、ミート調味エキス、たんぱく加水分解物、しょうゆ／調味料（アミノ酸等）、炭酸Ca、香料、カラメル色素、乳化剤、酸味料、酸化防止剤（ビタミンE)、甘味料（ステビア）、香辛料抽出物、（一部に小麦・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、メロン果汁パウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、クチナシ、紅花黄）、香料、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>還元水飴（国内製造）、還元麦芽糖、砂糖、食物繊維（ポリデキストロース）、水飴、還元麦芽糖水飴、ゼラチン、こんにゃく粉、澱粉／酸味料、香料、炭酸カルシウム、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>澱粉（国内製造）、砂糖、デキストリン、濃縮いちご果汁／甘味料（キシリトール、アスパルテーム・Ｌ‐フェニルアラニン化合物、アセスルファムＫ）、酸味料、香料、増粘剤（アラビアガム）、着色料（赤色４０号）</t>
+  </si>
+  <si>
+    <t>砂糖、水飴、乾燥いちご加工品、いちご果汁、ハーブエキス／酸味料、香料、アントシアニン色素</t>
+  </si>
+  <si>
+    <t>トマト、ハラペーニョ、玉ねぎ、醸造酢、食塩、乾燥玉ねぎ、ガーリックパウダー／香辛料抽出物、塩化カルシウム、クエン酸</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油、でん粉、えび、砂糖、食塩 / 膨脹剤、調味料（アミノ酸等）、甘味料（甘草）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（濃厚ソース、砂糖、植物油脂、発酵調味料、豚脂、食塩、ポーク調味料、しょうゆ加工品、魚介エキス、カツオ調味料、香味調味料、香味油）、特製ペースト（半固体状ドレッシング、紅しょうが、果糖ぶどう糖液糖、還元水飴、醸造酢、食塩、植物油脂、全卵粉、酵母エキス、でん粉）、かやく（キャベツ）、ふりかけ（カツオブシ、あおさ）／加工でん粉、カラメル色素、調味料（アミノ酸等）、炭酸Ｃａ、増粘剤（加工でん粉、増粘多糖類）、酸化防止剤（ビタミンＥ）、カロチノイド色素、かんすい、乳化剤、甘味料（カンゾウ、スクラロース、アセスルファムＫ）、酸味料、香料、野菜色素、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・りんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造)、植物油、砂糖、ぶどう糖、食塩、チーズパウダー、粉末油脂、ホエイパウダー、香辛料、オリゴ糖／調味料(アミノ酸等)、香料、カロチノイド色素、香辛料抽出物、くん液、(一部に乳成分・大豆を含む)</t>
+  </si>
+  <si>
+    <t>生地(国内製造)(小麦粉、でん粉、えびエキスパウダー、えびパウダー、砂糖、 乾燥えび、発酵調味液、植物油、かつお節)、植物油、デキストリン、ぶどう糖、 魚介エキスパウダー、食塩、粉末しょうゆ、唐辛子、酵母エキスパウダー/加工デンプン、 調味料(アミノ酸等)、トレハロース、甘味料(スクラロース)、(一部に乳成分・小麦・えび・大豆・ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、米粉（うるち米（国産、米国産））、でん粉、食塩、魚介エキスパウダー（えびを含む）、砂糖、えび、デキストリン、粉末しょう油（小麦・大豆を含む）、香味油（えびを含む）、酵母エキス粉末／加工でん粉、調味料（アミノ酸等）、着色料（紅麹、カラメル）、酸味料</t>
+  </si>
+  <si>
+    <t>砂糖、カカオマス、全粉乳、ココアバター、植物油脂、乳化剤（大豆を含む）、光沢剤、香料</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、濃縮日本なし果汁、ゼラチン、還元難消化性デキストリン、植物油脂、でん粉／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、（一部にりんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>うるち米（国産、米国産）、植物油、砂糖、レモンシーズニング、しょうゆ、果糖ぶどう糖液糖、酵母エキス、食塩／加工でん粉、調味料（アミノ酸等）、酸味料、香料、カラメル色素、（一部に小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、全粉乳、カカオマス、ココアバター、乳糖、乳等を主要原料とする食品、りんごパウダー、脱脂粉乳、エリスリトール、ドライクレープ（乳成分・小麦を含む）、キャラメルパウダー（乳成分を含む）/乳化剤（大豆由来）、香料（乳・大豆由来）、着色料（紅麹、クチナシ）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造、国内製造）、植物油脂、ポテトペレット（乾燥ポテト、でん粉、食塩）、カカオマス、ココアパウダー、全粉乳／乳化剤（大豆由来）、香料、着色料（ウコン）、酸化防止剤（ビタミンE、ビタミンC)</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、植物油脂、全粉乳、カカオマス、ココアバター、乳糖、脱脂粉乳、オレンジ濃縮果汁、洋酒(カシスリキュール）、デキストリン、クリーミングパウダー（乳成分を含む）／ソルビトール、乳化剤（大豆由来）、酒精、香料（乳・アーモンド由来）、酸味料</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造）、カカオマス、小麦粉、液全卵、植物油脂、マーガリン（乳成分を含む）、ココアパウダー、ショートニング、加糖練乳、全粉乳、乳糖、ココアバター、食塩、洋酒／ソルビトール、酒精、乳化剤（大豆由来）、香料（乳由来）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造、国内製造）、液全卵、小麦粉、植物油脂、マーガリン（乳成分を含む）、チーズ粉末（カマンベールチーズ粉末、ゴーダチーズ粉末、クリームチーズ粉末）、ショートニング、コーンスターチ、食用加工油脂、クリームチーズ、ミルクシロップ、全粉乳、還元水飴、乾燥全卵、ホエイパウダー（乳成分を含む）、レモン濃縮果汁、水飴、乳糖、洋酒、デキストリン、ココアバター／ソルビトール、乳化剤（大豆由来）、酒精、香料（乳由来）、膨脹剤、増粘剤（ペクチン：りんご由来）、酸味料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、マーガリン（乳成分を含む）、バター、ココナッツ、液全卵、加糖脱脂練乳、食塩、植物油脂　／　香料（乳由来）、膨脹剤、乳化剤（大豆由来）、着色料（カロテン）</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、砂糖、ショートニング、植物油脂、全粉乳、小麦全粒粉、カカオマス、ココアパウダー、食塩、脱脂小麦胚芽 ／ 膨脹剤、乳化剤（大豆由来）、香料、着色料（アナトー）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂 還元水飴、白あん（生あん、砂糖、還元水飴、寒天、食塩）、 カカオマス、水飴、液全卵、ココアパウダー、乳糖、全粉乳 デキストリン、食塩、脱脂粉乳／ソルビトール、 加工デンプン、乳化剤（大豆由来）、着色料（カラメル） 香料、膨張剤、増粘剤（カラギーナン）</t>
+  </si>
+  <si>
+    <t>準チョコレート（植物油脂、砂糖、カカオマス、全粉乳、ココアパウダー）（国内製造）、小麦粉、砂糖、植物油脂、ショートニング、転化糖蜜、加糖れん乳、ココアパウダー、食塩（宮古島産塩38％使用）、全粉乳、ごま、コラーゲン／膨脹剤、着色料（カラメル）、乳化剤、炭酸Ca、香料、（一部に小麦・乳成分・大豆・ごま・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、食用油脂（パーム油、ラード、なたね油）、食塩）、スープ（食塩、砂糖、キムチ風味調味料、粉末しょうゆ、香辛料、ごま、粉末みそ、ポークエキスパウダー、オイスターエキスパウダー、たまねぎ、ねぎ）／加工でん粉、調味料（アミノ酸等）、カラメル色素、酸味料、かんすい、増粘多糖類、微粒二酸化ケイ素、酸化防止剤（V.E）、（一部に小麦、ごま、大豆、豚肉、魚醤（魚介類）を含む）</t>
+  </si>
+  <si>
+    <t>ローストピーナッツ（国内製造）、砂糖、植物油脂、乳糖、全粉乳、カカオマス、ココアパウダー／乳化剤、香料、（一部に乳成分・落花生・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造）、ビスケット（小麦を含む）、カカオマス、植物油脂、全粉乳、ココアバター、水あめ、シーズニングパウダー（デキストリン、黒トリュフ塩、砂糖、食塩、ガーリックパウダー、大豆たんぱく加水分解物、白こしょうパウダー、ナツメグパウダー）、バターオイル、ヘーゼルナッツペースト／乳化剤、膨脹剤、香料、光沢剤、調味料（アミノ酸等）、着色料（金箔）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、加糖練乳、砂糖、加糖脱脂練乳、植物油脂、小麦たんぱく加水分解物、バター、食塩／ソルビトール、香料、乳化剤（大豆由来）、ベニバナ黄色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、水あめ、植物油脂、デキストリン、ゼラチン、濃縮すいか果汁／酸味料、香料、グリセリン、乳化剤、ベニバナ黄色素、アカキャベツ色素、クチナシ青色素、パプリカ色素</t>
+  </si>
+  <si>
+    <t>コーンフレーク（コーングリッツ（とうもろこし（アメリカ産））、砂糖、食塩）、砂糖、植物油脂、全粉乳、カカオマス、ココアパウダー／香料、炭酸カルシウム、乳化剤（大豆由来）、ピロリン酸鉄</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ココナッツオイル、ショートニング、ココナッツ、食塩、レモンパウダー、脱脂粉乳／酸味料、膨張剤、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、マーガリン、砂糖、植物油脂、乳糖、麦芽糖、ココアバター、全粉乳、ホエイパウダー、クリームパウダー、食塩、チーズパウダー、抹茶、シナモン／乳化剤（大豆由来）、クチナシ色素、香料</t>
   </si>
   <si>
     <t>砂糖（国内製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
   </si>
   <si>
-    <t>砂糖（国内製造又は外国製造）、小麦粉、植物油脂、カカオマス、でん粉、ショートニング、乳糖、全粉乳、液卵、ホエイパウダー、クリームパウダー、脱脂粉乳、食塩、ココアパウダー、ココアバター／炭酸Ｃａ、膨脹剤、カラメル色素、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、ストロベリーパウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、紅麹、アカビート）、香料、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、外国製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、小麦全粒粉、乳等を主要原料とする食品（はっ酵バター、植物油脂、バターオイル、脱脂粉乳、食塩）、脱脂粉乳、クリームパウダー、食塩／膨脹剤、カラメル色素、香料、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t>＜れもん＞水あめ（国内製造）、砂糖、ゼラチン、濃縮レモン果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、乳化剤、紅花色素、光沢剤＜コーラ＞水あめ（国内製造）、砂糖、ゼラチン、コーラナッツエキス、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、カラメル色素、香料、乳化剤、光沢剤＜ソーダ＞水あめ（国内製造）、砂糖、ゼラチン、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、クチナシ色素、乳化剤、光沢剤＜ぶどう＞水あめ（国内製造）、砂糖、ゼラチン、濃縮グレープ果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、着色料（ブラックキャロットジュース、クチナシ）、乳化剤、光沢剤</t>
-  </si>
-  <si>
-    <t>水飴（国内製造）、砂糖、ゼラチン、でんぷん／ソルビトール、酸味料、マンニトール、増粘剤（ペクチン）、香料、光沢剤、着色料(アントシアニン、クチナシ、紅麹、カラメル、紅花黄、カロチン)、乳化剤、（一部にゼラチンを含む） 本品製造ラインでは、乳成分を含む製品を生産しています。</t>
-  </si>
-  <si>
-    <t>【青リンゴ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮青リンゴ果汁／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、着色料（黄色４号、青色１号）、（一部にりんご・ゼラチンを含む）　【レモン】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮レモン果汁／酸味料、香料、ゲル化剤（ペクチン）、光沢剤、着色料（黄色４号）、（一部にゼラチンを含む）　【グレープ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮グレープ果汁／酸味料、香料、ゲル化剤（ペクチン）、光沢剤、甘味料（アセスルファムＫ、ステビア）、着色料（赤色４０号、青色１号）、（一部にゼラチンを含む）　【イチゴ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮イチゴ果汁／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、着色料（赤色４０号）、（一部にゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、食塩、植物性たん白、しょうゆ）、スープ（しょうゆ、糖類、食塩、動物油脂、ビーフエキス、たん白加水分解物、昆布エキス、鰹エキス）、かやく（かす入り揚げ玉、とろろ昆布、かまぼこ、ねぎ）／加工でん粉、調味料（アミノ酸等）、酒精、リン酸Na、香料、増粘剤（キサンタン）、酸化防止剤（ビタミンE)、カラメル色素、膨脹剤、紅麹色素、クチナシ色素、（一部に小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、甘えびパウダー、食塩／加工デンプン、乳化剤、調味料（アミノ酸）、（一部にえびを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸化防止剤（V．Ｅ、V．Ｃ）、（原材料の一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸味料、酸化防止剤（Ｖ．Ｃ、Ｖ．Ｅ）、（一部に小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>準チョコレート（砂糖、植物油脂（大豆を含む）、全粉乳、乳糖、カカオマス、ココアパウダー）（国内製造）、小麦粉、鶏卵、砂糖、デキストリン、ショートニング、食塩/乳化剤（大豆由来）、膨張剤、香料</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、チョコレート（乳成分を含む）、ショートニング（大豆を含む）、還元水あめ、白練餡（生餡、砂糖、水あめ、還元麦芽糖水あめ）、ココアパウダー、大豆粉、鶏卵加工品（鶏卵、砂糖）、水あめ、脱脂粉乳、卵黄粉末（卵を含む）、卵黄粉末（卵を含む）、全粉乳、でん粉分解物、カカオマス、食塩、酵母エキス／加工でん粉、乳化剤（大豆由来）、香料、膨脹剤</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）（大豆を含む）、砂糖、砂糖粉乳調製品（砂糖、全粉乳、脱脂粉乳、ココアバター）、乳糖、カカオマス、全粉乳、ココアバター、脱脂粉乳／乳化剤（大豆由来）、香料（乳由来）</t>
-  </si>
-  <si>
-    <t>砂糖、ぶどう糖果糖液糖(国内製造)/炭酸ガス、酸味料、香料</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、小麦粉、植物油脂、カカオマス、ココアバター、ココアパウダー、イースト／乳化剤、アラビアガム、光沢剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、植物油脂、小麦粉、カカオマス、ココアバター、いちご果汁パウダー、イースト、ココアパウダー／乳化剤、酸味料、アラビアガム、香料、光沢剤、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>カカオマス（コートジボワール製造又は国内製造又はその他）、砂糖、小麦粉、乳糖、植物油脂、ココアバター、カカオニブ、ココアパウダー、全粉乳、イースト／乳化剤、アラビアガム、光沢剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、いちご果汁パウダー、乾燥いちご加工品、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、酸味料、膨脹剤、香料、着色料（赤ビート、紅麹）、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、植物油脂、乳糖、抹茶、砂糖、ココアパウダー、緑茶、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、ココアパウダー、食塩）、砂糖、小麦粉、カカオマス、乳糖、全粉乳、ココアバター、ココアパウダー、イースト／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、小麦全粒粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、砂糖、植物油脂、全粉乳、カカオマス、ココアバター、ココアパウダー、イースト／乳化剤（大豆由来）、膨脹剤、カラメル色素、香料、重曹、イーストフード</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、カカオマス、小麦粉、植物油脂、ココアバター、オレンジ果汁パウダー、イースト、ココアパウダー／乳化剤、香料、酸味料、重曹、イーストフード、（一部に小麦・乳成分・オレンジ・大豆を含む）</t>
-  </si>
-  <si>
-    <t>牛乳、砂糖、コーヒー、脱脂粉乳／乳化剤</t>
-  </si>
-  <si>
-    <t>大麦（六条大麦（カナダ、国産）、二条大麦）/粗製海水塩化マグネシウム、ビタミンＣ</t>
-  </si>
-  <si>
-    <t>緑茶（国産）／ビタミンＣ</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油、デキストリン、砂糖、食塩、ぶどう糖、チーズパウダー、酵母エキスパウダー、たんぱく質濃縮ホエイパウダー、赤唐辛子パウダー、、オニオンパウダー/香料、調味料（アミノ酸等）、着色料（カロチノイド、カラメル）、酸味料、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉(国内製造)、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、野菜粉末、チキンエキス、ポークエキス、えびエキス、香辛料、たん白加水分解物）、かやく（かまぼこ、コーン）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、香辛料、チキンエキス、ポークエキス、えびエキス、たん白加水分解物）、かやく（かまぼこ、コーン、ねぎ）、調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ベニコウジ色素、ビタミンＢ１</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、大豆食物繊維）、スープ（しょうゆ、食塩、たん白加水分解物、ポークエキス、糖類、豚脂、植物油脂、かつお節エキス、酵母エキス、香辛料、煮干いわし粉末）、かやく（チャーシュー、メンマ、ナルト、ねぎ）、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、香料、かんすい、増粘剤（キサンタン）、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（原材料の一部に卵、乳成分を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、粉末卵、糖類）、スープ（みそ、食塩、糖類、ポークエキス、コチュジャン、植物油脂、豚脂、豆板醤、香辛料、香味食用油、調味油脂、たん白加水分解物）、かやく（ねぎ、鶏・豚味付肉そぼろ、コーン）、加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、カラメル色素、香料、クチナシ色素、かんすい、増粘剤（キサンタン）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、ビタミンＢ2、ビタミンＢ１、香辛料抽出物、（原材料の一部にごまを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、みそ、糖類）、スープ（豚脂、しょうゆ、食塩、糖類、ポークエキス、チキンエキス、たん白加水分解物、植物油脂、香辛料、酵母エキス）、かやく（チャーシュー、ねぎ）、加工でん粉、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、かんすい、レシチン、クチナシ色素、増粘剤（キサンタン）、香料、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に卵、乳成分を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩）、ソース（ソース、糖類、食塩、豚脂、植物油脂、香辛料、たん白加水分解物、香味調味料）、かやく（キャベツ）、カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、酸化防止剤（ビタミンＥ）、香料、増粘剤（キサンタン）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、大豆、りんご、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴、果汁（いちご、パインアップル、レモン、オレンジ、りんご、メロン、ぶどう、もも）/酸味料、香料、着色料（アントシアニン、パプリカ色素、カロチン、クチナシ、紅麹、紅花黄）、（一部にオレンジ・もも・りんごを含む）</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、水あめ、還元水あめ、ガムベース、酸味料、香料、乳酸カルシウム、軟化剤、アントシアニン色素、緑茶抽出物</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、水あめ、還元水あめ/ガムベース、酸味料、香料、軟化剤、着色料（カラメル、フラボノイド）</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造)､ぶどう糖､水あめ､還元水あめ､ 酵母エキス､デキストリン／ガムベース､酸味料､ 香料､軟化剤､カロチノイド色素</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、水あめ、還元水あめ/ガムベース、酸味料、香料、軟化剤、着色料（クチナシ、フラボノイド）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）､ぶどう糖、水あめ､還元水あめ ／ガムベース、酸味料、香料</t>
-  </si>
-  <si>
-    <t>砂糖､ぶどう糖、水あめ､還元水あめ／ガムベース、酸味料、香料</t>
-  </si>
-  <si>
-    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ ／ガムベース､酸味料､香料､カラメル色素、軟化剤</t>
-  </si>
-  <si>
-    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ、濃縮ぶどう果汁 ／ガムベース､酸味料､香料､アントシアニン色素</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造)､ぶどう糖、水あめ／ガムベース､酸味料､ 糊料(アラビアガム)､香料､着色料(フラボノイド、アントシアニン)､光沢剤</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖（国内製造）、もも果汁、脱脂粉乳、乳酸菌飲料、ピーチソース／酸味料、安定剤（大豆多糖類）、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、アセスルファムＫ）、ベニバナ黄色素、野菜色素</t>
-  </si>
-  <si>
-    <t>砂糖、粉末麦芽調製品（混合麦芽エキス、砂糖、ココアパウダー、脱脂粉乳、植物油脂、乳清カルシウム）、モルトエキス、ココアパウダー、脱脂粉乳、乳化剤、炭酸カルシウム、炭酸マグネシウム、ビタミンC、ビタミンD、ｐH調整剤、ピロリン酸鉄、レシチン（大豆由来）、ナイアシン、ビタミンB1、酸化防止剤（ビタミンE）、ビタミンB2、ビタミンA</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、でん粉、ゼラチン、酸味料、乳化剤、光沢剤、香料、着色料（クチナシ、野菜色素、カロチノイド）、糊料（アラビアガム）</t>
-  </si>
-  <si>
-    <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（食塩、砂糖、鶏油、香味油、たん白加水分解物、植物油脂、チキンエキス、香辛料、酵母エキス、チキン調味料、ネギエキス）、かやく（大豆加工品、ねぎ、もやし、コリアンダー）／加工でん粉、調味料（アミノ酸等）、酒精、増粘剤（加工でん粉、増粘多糖類）、香料、カラメル色素、乳化剤、酸味料、酸化防止剤（ビタミンＥ）、（一部に乳成分・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>米めん（ベトナム製造（米、でん粉、食塩））、かやく入りスープ（食塩、チンゲン菜、砂糖、トムヤムシーズニングパウダー、大豆加工品、香辛料、ねぎ、酵母エキス、たん白加水分解物、蝦醤、チキン調味料、エビエキス、コリアンダー、唐辛子）／加工でん粉、調味料（アミノ酸等）、酸味料、香料、微粒二酸化ケイ素、カロチノイド色素、甘味料（スクラロース、アセスルファムＫ）、乳化剤、増粘剤（グァーガム）、（一部にえび・大豆・鶏肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（たん白加水分解物、糖類、食塩、香辛料、牛脂、発酵調味料、植物油脂、醸造酢、トマトケチャップ、ビーフエキス、香味油、酵母エキス）、かやく（大豆加工品、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、酒精、香料、香辛料抽出物、増粘多糖類、カラメル色素、乳化剤、酸味料、甘味料（スクラロース、アセスルファムＫ）、酸化防止剤（ビタミンＥ）、（一部にえび・牛肉・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、ショートニング、砂糖、チョコレートチップ、でん粉、鶏卵、ココアパウダー、食塩、スパイス／膨張剤、乳化剤、香料、カロテン色素、（一部に小麦・卵・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>果実（りんご、オレンジ、グァバ、パインアップル、パッションフルーツ）、砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、植物油、塩化Ｎａ、ガラナ種子エキス／炭酸、クエン酸、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、クエン酸Ｎａ、カフェイン、甘味料（スクラロース）、ナイアシン、イノシトール、ビタミンＢ６、ビタミンＢ２、着色料（β－カロテン）、ビタミンＢ１２</t>
-  </si>
-  <si>
-    <t>砂糖類（砂糖（国内製造）、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／炭酸、リン酸、クエン酸Ｎａ、カラメル色素、クエン酸、保存料（安息香酸Ｎａ）、香料、Ｌ－アルギニン、カフェイン、ナイアシン、甘味料（スクラロース）、イノシトール、　　　　　ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
-  </si>
-  <si>
-    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ‐カルニチンＬ‐酒石酸塩、塩化Ｎａ、　　　　　　　ガラナ種子エキス、クエン酸、香料、甘味料（Ｄ‐リボース、スクラロース）、Ｌ‐アルギニン、　　　　クエン酸Ｎａ、カフェイン、保存料（安息香酸）、ナイアシン、着色料（アントシアニン）、　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
-  </si>
-  <si>
-    <t>果実（りんご、オレンジ、もも、タンジェリン、パインアップル、ぶどう）、砂糖類 （砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子 エキス、クエン酸、香料、炭酸ガス、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギニン 、カフェイン、クエン酸Ｎａ、着色料（β－カロチン、アントシアニン）、ナイアシン、　　　　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
-  </si>
-  <si>
-    <t>牛乳（国内製造）、砂糖、コーヒー、脱脂粉乳、全粉乳、デキストリン／乳化剤、香料、セルロース</t>
-  </si>
-  <si>
-    <t>馬鈴薯(日本:遺伝子組換えでない)、植物油、香味油、砂糖、ぶどう糖、ブラックペパー、でん粉、粉末しょうゆ(小麦・大豆を含む)、食塩、オニオン、魚介エキスパウダー、酵母エキスパウダー/調味料(アミノ酸等)、香辛料抽出物、香料</t>
-  </si>
-  <si>
-    <t>生地(国内製造)(小麦粉、でん粉、ほたてエキスパウダー、えびパウダー、あさりエキスパウダー、砂糖、粉末しょうゆ、植物油、しじみペーストパウダー、かきエキスパウダー)、植物油、デキストリン、ぶどう糖、あさりエキスパウダー、粉末しょうゆ、いわしエキスパウダー、酒粕パウダー、食塩、唐辛子、乳糖/加工デンプン、トレハロース、調味料(アミノ酸等)、酸味料、香料、(一部に乳成分・小麦・えび・かに・さば・大豆・ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>コーングリッツ（遺伝子組換えでない）、砂糖、植物油脂、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、たんぱく加水分解物、クリーム粉末、カラメル色素、卵殻未焼成Ca、香料、乳化剤、トレハロース、（原材料の一部に小麦、大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖、植物油脂、コーングリッツ（遺伝子組換えでない）、パン粉、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、クリーム粉末、卵殻未焼成Ｃａ、カラメル色素、香料、乳化剤、トレハロース、（原材料の一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、加糖れん乳、食塩、ハチミツ、バター／ソルビトール、未焼成Ca、香料、乳化剤、甘味料（アドバンテーム）、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（遺伝子組換えでない）、植物油脂、コーンパウダー（遺伝子組換えでない）、砂糖、ショートニング、澱粉、食塩、チーズパウダー、バターパウダー、ブドウ糖、発酵調味パウダー、酵母エキスパウダー、オニオンパウダー、ほうれん草パウダー、デキストリン、キャロットエキスパウダー、小麦粉、キャベツパウダー、粉末醤油、チキンエキスパウダー/加工澱粉、トレハロース、乳化剤、塩化Ca、調味料（アミノ酸等）、炭酸Ca、乳酸Ca、香料、カラメル色素、カロチノイド色素、（一部に乳成分・小麦・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、サワークリームオニオン風味パウダー（食塩、ホエイパウダー（乳製品）、砂糖、オニオンパウダー、粉末酢、たんぱく加水分解物、ねぎエキスパウダー、デキストリン、酵母エキスパウダー）、食塩、オニオンパウダー、粉末油脂、砂糖、澱粉／加工澱粉、トレハロース、調味料（アミノ酸等）、増粘剤（カードラン）、酸味料、香料、炭酸Ca、香辛料抽出物、甘味料（スクラロース、ステビア）、酸化防止剤（ビタミンE）、（一部に乳成分を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、食塩、砂糖、ポテト風味パウダー（デキストリン、食塩、ポテトパウダー、醤油風味調味料、酵母エキスパウダー、粉末香味油、ビーフ風味パウダー、香味油）、ブドウ糖、粉末油脂、ビーフ風味パウダー（ビーフエキスパウダー、食塩、たんぱく加水分解物、ビーフ風味調味料、乳糖、野菜エキスパウダー、香辛料）、澱粉、酵母エキスパウダー／加工澱粉、トレハロース、調味料（アミノ酸等）、増粘剤（カードラン）、炭酸Ca、香料、甘味料（スクラロース）、酸化防止剤（ビタミンE）、酸味料、（一部に乳成分・小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、コーングリッツ、小麦粉、粉末油脂、食塩、砂糖、ポテト風味パウダー（デキストリン、食塩、ポテトパウダー、醤油風味調味料、酵母エキスパウダー、粉末香味油、ビーフ風味パウダー、香味油）、ブドウ糖、ビーフオイル、澱粉、酵母エキスパウダー／トレハロース、セルロース、調味料（アミノ酸等）、香料、卵殻Ca、増粘剤（カードラン）、乳化剤、炭酸Ca、酸味料、（一部に卵・乳成分・小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油脂、砂糖、マーガリン、加糖れん乳、食塩、卵黄粉末／ソルビトール、香料、卵殻Ca、乳化剤、甘味料（スクラロース）、カロチノイド色素、（一部に卵・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、砂糖、植物油脂、全粉乳、ココアバター、ライ麦粉、ショートニング、脱脂粉乳、麦芽エキス、いちごパウダー、バター風味調味料、練乳加工品、カラメルソース、食塩、乳化剤、膨脹剤、香料、着色料（ビートレッド、カラメル）、酸味料、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖､香料､酸味料</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、ぶどう糖、水飴、でん粉、ピーチ果汁／ガムベース、酸味料、軟化剤、香料、着色料（カラメル、アントシアニン、紅花黄、クチナシ）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、ぶどう糖、水飴、でん粉／ガムベース、酸味料、軟化剤、香料、着色料（クチナシ）</t>
-  </si>
-  <si>
-    <t>〈グレープ〉砂糖（国内製造）、水あめ、グレープペースト/酸味料、香料、着色料（アントシアニン、クチナシ）、チャ抽出物 〈オレンジ〉砂糖（国内製造）、水あめ、オレンジペースト/酸味料、香料、着色料（カロテノイド）、チャ抽出物 〈ストロベリー〉砂糖（国内製造）、水あめ、ストロベリーペースト/酸味料、香料、着色料（アントシアニン、カロテノイド）、チャ抽出物 〈メロン〉砂糖（国内製造）、水あめ、濃縮メロン果汁/酸味料、着色料（紅麹、クチナシ）、香料、チャ抽出物</t>
-  </si>
-  <si>
-    <t>アンパンマン：砂糖、全粉乳、植物油脂、カカオマス、ココアバター、乳糖、脱脂粉乳、乳化剤（大豆由来）、香料。ばいきんまん：砂糖、植物油脂、全粉乳、ココアバター、カカオマス、乳糖、脱脂粉乳、乳化剤（大豆由来）、野菜色素、香料。ドキンちゃん：砂糖、植物油脂、全粉乳、ココアバター、カカオマス、乳糖、脱脂粉乳、乳化剤（大豆由来）、野菜色素、香料</t>
-  </si>
-  <si>
-    <t>ビスケット（小麦粉、砂糖、植物油脂、その他：乳を含む）、砂糖、カカオマス、全粉乳、植物油脂、ココアバター、水あめ、膨脹剤、乳化剤（大豆由来）、光沢剤、卵殻カルシウム、香料</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造又は国内製造)、全粉乳、植物油脂、カカオマス、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、野菜色素、香料(乳・大豆由来)</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、チョコレートチップ（乳成分を含む）、還元水あめ、白ねりあん（乳成分を含む）、卵、全脂大豆粉、カカオマス、水あめ、脱脂粉乳、食塩、卵黄（卵を含む）、全粉乳／加工デンプン、乳化剤（乳・大豆由来）、香料（乳・大豆由来）、安定剤（加工デンプン）、膨脹剤、カラメル色素</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、バター、全粉乳、発酵種（小麦を含む）、食塩、乳等を主原料とする食品/乳化剤（小麦・大豆由来）、香料（乳・大豆由来）、カロテノイド色素</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、カカオマス、全粉乳、植物油脂、ショートニング、マーガリン（乳成分を含む）、乳糖、バター、ココアバター、脱脂粉乳、加糖練乳、液全卵、うるちひえパフ、ごま、ぶどう糖、食塩、乾燥卵白（卵を含む）／リン酸Ca、乳化剤（大豆由来）、膨脹剤、香料（乳由来）、着色料（カロテノイド）、ビタミンＤ</t>
-  </si>
-  <si>
-    <t>うるち米粉（国産、タイ産）、植物油脂、砂糖、チーズ粉末、食塩、たまねぎ粉末、トマト粉末、にんにく粉末、酵母エキス粉末、バジル粉末、たんぱく加水分解物（大豆を含む）、チキンエキス粉末、唐辛子粉末、白こしょう粉末、大豆たんぱく、黒こしょう粉末、香味油(小麦・大豆を含む)／加工デンプン、調味料（アミノ酸等）、香料（乳・小麦・大豆・鶏肉由来）、乳化剤(大豆由来)、酸味料、酸化防止剤（ビタミンE）、着色料（カロテノイド）、微粒酸化ケイ素、香辛料抽出物、リン酸三カルシウム</t>
-  </si>
-  <si>
-    <t>○ソーダ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、着色料（クチナシ、紅花黄）○オレンジ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、カロテノイド色素○グレープ味：砂糖（国内製造）、水飴（国内製造）、濃縮グレープ果汁／酸味料、香料、野菜色素、クチナシ色素○コーラ味：砂糖（国内製造）、水飴（国内製造）／酸味料、カラメル色素、香料</t>
-  </si>
-  <si>
-    <t>水飴（国内製造）、砂糖、ゼラチン、粉末オブラート／ソルビット、酸味料、糊料（ペクチン）、光沢剤、香料、乳化剤、着色料（クチナシ、野菜色素、紅花黄、パプリカ色素）</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、植物油脂、しょうゆ、砂糖、食塩、チキンエキス、たんぱく加水分解物、ミート調味エキス、ミート調味パウダー、酵母エキスパウダー、ポークパウダー、魚介パウダー/加工デンプン、調味料(アミノ酸等）、炭酸Ca、酸化防止剤（ビタミンE）、（一部に小麦・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、ソース(砂糖、野菜・果実、醸造酢、食塩、アミノ酸液、その他)、砂糖、食塩、ソース風味パウダー、香辛料、アオサ粉、野菜パウダー、ミート調味エキス、野菜エキス、魚介エキス、魚醤パウダー（魚介類）／加工デンプン、調味料(アミノ酸等)、炭酸Ca、香料、カラメル色素、乳化剤、酸味料、酸化防止剤(ビタミンE)、香辛料抽出物、（一部に小麦・卵・乳成分・魚醤パウダー（魚介類）・牛肉・さば・大豆・鶏肉・豚肉・もも・りんごを含む）</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖（国内製造）/炭酸、酸味料、香料</t>
+    <t>砂糖（国内製造）、澱粉、デキストリン、梅／酸味料、増粘剤（アラビアガム）、香料</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、水飴、マルトース、ゼラチン、濃縮パイナップル果汁、植物油脂</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、小麦粉、ココアバター、液卵白（卵を含む）、ショートニング、全粉乳、植物油脂、乳糖、マーガリン、ホエイパウダー（乳成分を含む）、ココアパウダー、バナナ粉末、食塩、水飴　／　乳化剤（大豆由来）、香料（大豆由来）、着色料（カロテノイド）、膨脹剤</t>
+  </si>
+  <si>
+    <t>でん粉（国内製造）、うるち米（国産）、もち米（タイ産）、植物油脂（ごま・大豆を含む）、カシューナッツ、砂糖、ぶどう糖、小麦粉、食塩、粉末しょうゆ（小麦・大豆を含む）、たんぱく加水分解物（大豆を含む）、デキストリン、昆布エキス粉末/加工デンプン、調味料(アミノ酸等）、ソルビトール、微粒酸化ケイ素、膨脹剤、着色料（カロテノイド）、酸味料、甘味料（アセスルファムＫ、スクラロース）、酸化防止剤（ビタミンＥ）</t>
+  </si>
+  <si>
+    <t>でん粉（国内製造）、うるち米（国産）、もち米（タイ産）、植物油脂、砂糖、カシューナッツ、ピーナッツバター、ぶどう糖、小麦粉、食塩、たんぱく加水分解物（大豆・ゼラチンを含む）、デキストリン/加工デンプン、ソルビトール、調味料（アミノ酸等）、乳化剤（大豆由来）、香料（乳由来）、膨脹剤、着色料（カロテノイド）、甘味料（アセスルファムＫ、スクラロース）、酸味料、酸化防止剤（ビタミンＥ）</t>
+  </si>
+  <si>
+    <t>大豆たんぱく（国内製造）、砂糖、ショートニング、小麦たんぱく、ファットスプレッド（乳成分を含む）、大豆パフ、水飴、ココアパウダー、液卵黄（卵を含む）、カカオマス、植物油脂、全粉乳、乳糖、ぶどう糖、食塩／ソルビトール、グリセリン、炭酸Ca、乳化剤(大豆由来)、ロイシン、トレハロース、バリン、イソロイシン、香料(乳由来)、V.E、ナイアシン、パントテン酸Ca、ピロリン酸第二鉄、V.B1、V.B2、V.B6、V.A、葉酸、着色料(アナトー)、V.D、V.B12</t>
+  </si>
+  <si>
+    <t>大豆たんぱく（国内製造）、ショートニング、砂糖、小麦たんぱく、大豆パフ、ファットスプレッド（乳成分を含む）、キャラメル（乳等を主要原料とする食品、水飴、砂糖）、液卵黄（卵を含む）、植物油脂、全粉乳、乳糖、カカオマス、ぶどう糖、ココアパウダー、食塩／ソルビトール、グリセリン、炭酸Ca、着色料(カラメル、アナトー)、乳化剤(大豆由来)、ロイシン、トレハロース、バリン、イソロイシン、香料(乳由来)、V.E、ナイアシン、ピロリン酸第二鉄、パントテン酸Ca、V.B1、V.B2、V.B6、V.A、葉酸、V.D、V.B12</t>
+  </si>
+  <si>
+    <t>砂糖, 全粉乳, ココアバター, カカオマス, 植物油脂, 脱脂粉乳, 乳化剤, 香料, アカビート色素, (原材料の一部に大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 乳糖, ココアバター, 全粉乳, 植物油脂, ショートニング, 抹茶, 小麦たんぱく, 食塩, イースト/乳化剤, 香料, 調味料(無機塩), 膨脹剤, (一部に乳成分, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉, 砂糖, カカオマス, 植物油脂, 全粉乳, ショートニング, モルトエキス, でん粉, 食塩, イースト, ココアバター, バター, 乳化剤, 香料, 膨張剤, アナトー色素, 調味料(無機塩), (原材料の一部に大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 全粉乳, カカオマス, 植物油脂, 小麦全粒粉, ココアバター, ショートニング, モルトエキス, 小麦たんぱく, 食塩, 発酵バター, 小麦胚芽, イースト/加工デンプン, 乳化剤, 香料, 膨脹剤, 酸化防止剤(ヤマモモ抽出物), (一部に乳成分, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 植物油脂, 乳糖, 全粉乳, いちごパウダー, 小麦全粒粉, ココアパウダー, ショートニング, 小麦たんぱく, イヌリン, 食塩, イースト, キャラメルパウダー/香料, アカビート色素, 乳化剤, 調味料(無機塩), 膨脹剤, 酸味料, V.C, (一部に乳成分, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, アーモンド, 全粉乳, 植物油脂, カカオマス, ココアバター, 小麦全粒粉, ショートニング, アーモンドプラリネペースト, 小麦たんぱく, 食塩, イースト/乳化剤, 香料, 膨脹剤, (一部に乳成分, 小麦, 大豆, アーモンドを含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ココナッツ, 全粉乳, 植物油脂, ココアバター, カカオマス, 小麦全粒粉, ショートニング, 食塩, 小麦たんぱく, イースト/乳化剤, 香料, 膨脹剤, (一部に乳成分, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 乳糖, ココアバター, 全粉乳, 小麦全粒粉, 植物油脂, ショートニング, 小麦たんぱく, バター加工品, 食塩, イースト, 岩塩, バニラビーンズシード/乳化剤, 香料, 調味料(無機塩), (一部に乳成分, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉, 植物油脂, 加糖練乳, 砂糖, ショートニング, イースト, 食塩, バター加工品, 酵母エキス, 炭酸Ca, 調味料(無機塩等), 乳化剤, 甘味料(スクラロース), (原材料の一部に大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, ショートニング, 砂糖, でん粉, 乾燥ポテト, 野菜ペースト, ブイヨン混合品, イースト, 小麦たんぱく, 食塩, 酒かす, コンソメシーズニング, 香味油, こしょう/調味料(無機塩等), 加工デンプン, 乳化剤, 香料, 酸味料, (一部に乳成分, 小麦を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, ショートニング, 砂糖, トマトペースト, でん粉, 醸造酢(トマト酢), イースト, ベジタブルペースト, オニオンシーズニング, 食塩, 乾燥ほうれんそう, こしょう/加工デンプン, 調味料(無機塩等), 香料, 乳化剤, 酸味料, 香辛料抽出物, (一部に乳成分, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, 砂糖, 加糖練乳, 小麦全粒粉, ショートニング, でん粉, 発酵バター, イースト, 食塩, バター加工品, 乾燥卵黄/加工デンプン, 調味料(無機塩), 香料, 乳化剤, (一部に卵, 乳成分, 小麦を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, 砂糖, ショートニング, 乾燥ポテト, イースト, 食塩, しょうゆシーズニング, 黒こしょう, レモン果汁パウダー, 酵母エキス/加工デンプン, 調味料(アミノ酸等), 酸味料, 乳化剤, 香料, (一部に小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, でん粉, 乾燥ポテト, 小麦たんぱく, 砂糖, イヌリン, 食塩, 粉末しょうゆ, こんぶエキスパウダー, バター加工品, バター, 酵母エキス, こしょう, たんぱく加水分解物/加工デンプン, 調味料(アミノ酸等), 乳化剤, 香料, 着色料(カロチノイド), (一部に乳成分, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, でん粉, 砂糖, 小麦たんぱく, ポークエキス, オニオンペースト, 食塩, しょうゆシーズニング, たんぱく加水分解物, にんにくパウダー, 酵母エキス, こしょう, ベーコンエキス/調味料(アミノ酸等), 香料, 乳化剤, 増粘剤(キサンタンガム), 着色料(アナトー色素, カラメル), 酸味料, くん液, (一部に乳成分, 小麦, 大豆, 豚肉を含む)</t>
   </si>
   <si>
     <t>小麦粉(国内製造), 植物油脂, でん粉, スモークチーズパウダー, 砂糖, 小麦たんぱく, 食塩, 発酵調味料, こしょう, 酵母エキス, デキストリン, 麦芽糖/調味料(アミノ酸等), 香料, 増粘剤(キサンタンガム), 乳化剤, 着色料(アナトー色素), 酸味料, (一部に乳成分, 小麦, 大豆を含む)</t>
   </si>
   <si>
-    <t>小麦粉(国内製造), 植物油脂, でん粉, 砂糖, 小麦たんぱく, ポークエキス, オニオンペースト, 食塩, しょうゆシーズニング, たんぱく加水分解物, にんにくパウダー, 酵母エキス, こしょう, ベーコンエキス/調味料(アミノ酸等), 香料, 乳化剤, 増粘剤(キサンタンガム), 着色料(アナトー色素, カラメル), 酸味料, くん液, (一部に乳成分, 小麦, 大豆, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>小麦粉(国内製造), 植物油脂, でん粉, 乾燥ポテト, 小麦たんぱく, 砂糖, イヌリン, 食塩, チキンエキスパウダー, 香辛料, しょうゆシーズニング, ハーブシーズニング, ガーリックパウダー/加工デンプン, 調味料(アミノ酸等), 香料, 乳化剤, 着色料(カロチノイド), 酸味料, (一部に小麦, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, でん粉, 乾燥ポテト, 小麦たんぱく, 砂糖, イヌリン, 食塩, ホタテシーズニング, こんぶエキスパウダー, たんぱく加水分解物, だしパウダー, 唐辛子/加工デンプン, 調味料(アミノ酸等), 香料, 乳化剤, 着色料(カロチノイド, カラメル色素), 酸味料, (一部に小麦, いか, 大豆, ゼラチンを含む)</t>
   </si>
   <si>
     <t>小麦粉, 植物油脂, ショートニング, 砂糖, 食塩, イースト, 果糖ぶどう糖液糖, モルトエキス, コンソメシーズニング, しょうゆシーズニング, 調味料(無機塩等), 香料, (原材料の一部に乳成分, 大豆, 鶏肉を含む)</t>
   </si>
   <si>
-    <t>小麦粉(国内製造), 植物油脂, 乾燥ポテト, でん粉, 野菜エキスシーズニング, 食塩, えだまめパウダー/トレハロース, 調味料(アミノ酸等), 香料, 乳化剤, クチナシ色素, 酸味料, 甘味料(スクラロース), (一部に乳成分, 小麦, 大豆, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造又は国内製造), 小麦粉, 植物油脂, 全粉乳, カカオマス, 乳糖, ココアバター, ショートニング, ココアパウダー, 加糖脱脂練乳, 異性化液糖, 生クリーム, 食塩/乳化剤, 膨脹剤, 香料, 着色料(カラメル), (一部に乳成分, 小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>ぶどう糖(国内製造), タピオカでん粉/酸味料, 乳化剤, 香料, アカキャベツ色素</t>
-  </si>
-  <si>
-    <t>水あめ, 砂糖, 植物油脂, ゼラチン, 濃縮ストロベリー果汁, 加糖練乳, ストロベリージャム, 乳酸菌飲料, 酸味料, 乳化剤, 香料, アカキャベツ色素</t>
-  </si>
-  <si>
-    <t>砂糖, 水あめ, 植物油脂, ラムネ菓子(エリスリトール, ポリデキストロース), ゼラチン, デキストリン, 濃縮レモン果汁, 酸味料, 乳化剤, 香料, ステアリン酸カルシウム, ベニバナ黄色素</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造, タイ製造), 水あめ, 植物油脂, デキストリン, ゼラチン, 濃縮りんご果汁/酸味料, グリセリン, 香料, 乳化剤, ベニバナ黄色素, クチナシ青色素</t>
+    <t>乾燥ポテト(遺伝子組換えでない), 植物油脂, コーンパウダー(遺伝子組換えでない), 砂糖, ショートニング, 澱粉, 食塩, チーズパウダー, バターパウダー, ブドウ糖, 発酵調味パウダー, 酵母エキスパウダー, オニオンパウダー, ほうれん草パウダー, デキストリン, キャロットエキスパウダー, 小麦粉, キャベツパウダー, 粉末醤油, チキンエキスパウダー/加工澱粉, トレハロース, 乳化剤, 塩化Ca, 調味料(アミノ酸等), 炭酸Ca, 乳酸Ca, 香料, カラメル色素, カロチノイド色素, (一部に乳成分, 小麦, 大豆, 鶏肉を含む)</t>
+  </si>
+  <si>
+    <t>砂糖, 植物油脂, コーングリッツ(遺伝子組換えでない), パン粉, マーガリン, ココアパウダー, 加糖れん乳, カラメルソース, 食塩, クリーム(乳製品), 発酵風味パウダー, 乳糖, カカオマス, 全粉乳, クリーム粉末, 卵殻未焼成Ca, カラメル色素, 香料, 乳化剤, トレハロース, (原材料の一部に大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), コーングリッツ, 植物油脂, マーガリン, 加糖れん乳, 砂糖混合ブドウ糖果糖液糖, 食塩, メロンピューレ, 準チョコレート/未焼成Ca, 香料, 乳化剤, pH調整剤, クチナシ色素, 甘味料(スクラロース), カロチノイド色素, (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(遺伝子組換えでない), 砂糖, 植物油脂, マーガリン, ココアパウダー, 加糖れん乳, カラメルソース, 食塩, クリーム(乳製品), 発酵風味パウダー, 乳糖, カカオマス, 全粉乳, たんぱく加水分解物, クリーム粉末, カラメル色素, 卵殻未焼成Ca, 香料, 乳化剤, トレハロース, (原材料の一部に小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>もち米(国内産), つゆ(醤油, 砂糖, 食塩, かつお節エキス, 発酵調味料, 魚醤, 醸造酢, 昆布), 麦芽糖, もち米粉(タイ産), 発酵調味料, 澱粉, イソマルトオリゴ糖, 水あめ, アミノ酸液, 唐辛子パウダー(ハバネロ使用)/トレハロース, 加工澱粉, 調味料(アミノ酸等), 酸味料, カロチノイド色素, ソルビトール, (一部に小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 砂糖, 植物油脂, マーガリン, 牛乳, ココアパウダー, カラメルソース, 食塩, カカオマス, 準チョコレート/香料, カラメル色素, 未焼成Ca, 乳化剤, 甘味料(スクラロース), トレハロース, (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), かやく(ワンタン, 味付鶏挽肉), 添付調味料(チキンエキス, 香辛料, 砂糖, 食塩, 粉末野菜, しょうゆ, ねぎ, 植物油)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, レシチン, クチナシ色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(チキンエキス, しょうゆ, 食塩, 植物油, 発酵調味料, 砂糖, 野菜エキス, こんぶエキス, 香辛料, 酵母エキス, 鶏脂, ラード, 魚介エキス), かやく(ワンタン, 卵)/加工でん粉, 調味料(アミノ酸等), 酒精, 炭酸カルシウム, かんすい, 酸化防止剤(ビタミンC, ビタミンE), レシチン, クチナシ色素, カラメル色素, 増粘多糖類, カロチン色素, ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(醤油, ポークエキス, 食塩, ラード, でん粉, 植物油, 香味油脂, 砂糖, たん白加水分解物, 香辛料, ねぎ, 粉末煮干し), かやく(焼豚, なると), 加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, 増粘多糖類, 酒精, かんすい, レシチン, 酸化防止剤(ビタミンE, ビタミンC), クチナシ色素, pH調整剤, カラメル色素, 香料, ベニコウジ色素, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, 鶏肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(みそ, ポークエキス, 醤油, 香味油脂, ラード, 香辛料, 植物油, 砂糖, 食塩, たん白加水分解物, 酵母エキス, ねぎ, 発酵調味料), かやく(コーン, 味付鶏挽肉), 加工でん粉, 調味料(アミノ酸等), カラメル色素, 酒精, 炭酸カルシウム, かんすい, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, 香料, 香辛料抽出物, pH調整剤, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, ごま, ゼラチンを含む)</t>
   </si>
   <si>
     <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(醤油, 食塩, チキンエキス, ラード, 砂糖, 香味油脂, たん白加水分解物, 植物油, 粉末野菜, ポークエキス, 香辛料, ねぎ, 酵母エキス, 発酵調味料), かやく(ワンタン, 味付鶏挽肉, コーン), 加工でん粉, 調味料(アミノ酸等), カラメル色素, 炭酸カルシウム, 酒精, かんすい, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, 増粘多糖類, 香料, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, ごま, ゼラチンを含む)</t>
   </si>
   <si>
-    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(みそ, ポークエキス, 醤油, 香味油脂, ラード, 香辛料, 植物油, 砂糖, 食塩, たん白加水分解物, 酵母エキス, ねぎ, 発酵調味料), かやく(コーン, 味付鶏挽肉), 加工でん粉, 調味料(アミノ酸等), カラメル色素, 酒精, 炭酸カルシウム, かんすい, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, 香料, 香辛料抽出物, pH調整剤, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, ごま, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(醤油, ポークエキス, 食塩, ラード, でん粉, 植物油, 香味油脂, 砂糖, たん白加水分解物, 香辛料, ねぎ, 粉末煮干し), かやく(焼豚, なると), 加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, 増粘多糖類, 酒精, かんすい, レシチン, 酸化防止剤(ビタミンE, ビタミンC), クチナシ色素, pH調整剤, カラメル色素, 香料, ベニコウジ色素, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, 鶏肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(チキンエキス, しょうゆ, 食塩, 植物油, 発酵調味料, 砂糖, 野菜エキス, こんぶエキス, 香辛料, 酵母エキス, 鶏脂, ラード, 魚介エキス), かやく(ワンタン, 卵)/加工でん粉, 調味料(アミノ酸等), 酒精, 炭酸カルシウム, かんすい, 酸化防止剤(ビタミンC, ビタミンE), レシチン, クチナシ色素, カラメル色素, 増粘多糖類, カロチン色素, ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), かやく(ワンタン, 味付鶏挽肉), 添付調味料(チキンエキス, 香辛料, 砂糖, 食塩, 粉末野菜, しょうゆ, ねぎ, 植物油)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, レシチン, クチナシ色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
     <t>めん(小麦粉(国内製造), 食塩, 植物油脂, 植物性たん白, 卵白), 添付調味料(しょうゆ, チキンエキス, 食塩, 植物油, 鶏脂, ポークエキス, 香辛料, 砂糖, 野菜エキス, 発酵調味料, たん白加水分解物, 酵母エキス, ミート風味パウダー, 香味油脂)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, 酒精, 炭酸カルシウム, レシチン, 酸化防止剤(ビタミンC, ビタミンE), カラメル色素, クチナシ色素, 増粘多糖類, 香料, 甘味料(カンゾウ), 香辛料抽出物, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
   </si>
   <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 精製ラード, 食塩, 植物性たん白), 添付調味料(食塩, 香辛料, チキンエキス, しょうゆ, 酵母エキス, 砂糖, 植物油)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 酸化防止剤(ビタミンE), 酸味料, クチナシ色素, (一部に小麦, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
     <t>めん(小麦粉(国内製造), 食塩, 植物性たん白, 植物油脂, 卵白), 添付調味料(ポークエキス, しょうゆ, 鶏脂, 食塩, でん粉, 砂糖, 香辛料, たん白加水分解物, 野菜エキス, 植物油)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, カラメル色素, 炭酸カルシウム, 増粘多糖類, 酒精, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
   </si>
   <si>
     <t>めん(小麦粉(国内製造), 植物油脂, 食塩, 植物性たん白, 卵白), 添付調味料(しょうゆ, ラード, 魚介エキス, 食塩, チキンエキス, ポークエキス, 香味油脂, 砂糖, 香辛料, 酵母エキス)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, 酒精, 炭酸カルシウム, レシチン, 酸化防止剤(ビタミンC, ビタミンE), カラメル色素, クチナシ色素, 増粘多糖類, 香料, (一部に小麦, 卵, さば, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
   </si>
   <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 精製ラード, 食塩, 植物性たん白), 添付調味料(食塩, 香辛料, チキンエキス, しょうゆ, 酵母エキス, 砂糖, 植物油)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 酸化防止剤(ビタミンE), 酸味料, クチナシ色素, (一部に小麦, 大豆, 鶏肉, 豚肉を含む)</t>
+    <t>めん(小麦粉(国内製造), 食塩, 植物性たん白, 植物油脂, 卵白), 添付調味料(みそ, ポークエキス, 食塩, 香辛料, 香味油脂, 野菜エキス, 植物油, ラード, 砂糖, 発酵調味料, デーツ果汁, たん白加水分解物)/加工でん粉, 調味料(アミノ酸等), トレハロース, 酒精, かんすい, 炭酸カルシウム, カラメル色素, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, (一部に小麦, 卵, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
   </si>
   <si>
     <t>油揚げめん(小麦粉(国内製造), 植物油脂, 精製ラード, 食塩), 添付調味料(食塩, しょうゆ, デキストリン, チキンエキス, ポークエキス, 香辛料(黒こしょう, ガーリックパウダー))/加工でん粉, カラメル色素, 炭酸カルシウム, 調味料(アミノ酸等), かんすい, 酸化防止剤(ビタミンE), クチナシ色素, 香料, 香辛料抽出物, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
   </si>
   <si>
-    <t>めん(小麦粉(国内製造), 食塩, 植物性たん白, 植物油脂, 卵白), 添付調味料(みそ, ポークエキス, 食塩, 香辛料, 香味油脂, 野菜エキス, 植物油, ラード, 砂糖, 発酵調味料, デーツ果汁, たん白加水分解物)/加工でん粉, 調味料(アミノ酸等), トレハロース, 酒精, かんすい, 炭酸カルシウム, カラメル色素, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, (一部に小麦, 卵, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+    <t>砂糖(タイ製造), 水あめ, ゼラチン, 食用油脂/甘味料(ソルビトール), 酸味料, 香料, ゲル化剤(ペクチン:オレンジ由来), 着色料(クチナシ, 野菜色素)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), スープ(食塩, 豚脂, ポークエキス, 香辛料(赤唐辛子, ガーリック, ペッパー), デキストリン, 糖類, たん白加水分解物, 香味油, 酵母エキス, しょうゆ, ローストオニオン粉末, 香味調味料), かやく(味付豚肉, 卵, ニラ, 赤唐辛子)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 香料, 増粘多糖類, ソルビット, グリセリン, 酸化防止剤(ビタミンE), カロチノイド色素, 酸味料, 甘味料(スクラロース), くん液, ビタミンB2, 香辛料抽出物, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, 大豆, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 卵粉, しょうゆ), スープ(食塩, 豚脂, ポークエキス, 香辛料, 香味油, たん白加水分解物, 酵母エキス, しょうゆ, デキストリン, 糖類, ローストオニオン粉末, 香味調味料, 植物油脂), かやく(卵, 豚, 鶏味付肉, ニラ)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 香料, 増粘多糖類, ソルビット, グリセリン, カロチノイド色素, 微粒二酸化ケイ素, 乳化剤, 酸化防止剤(ビタミンE), 酸味料, 甘味料(スクラロース), 香辛料抽出物, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, オニオン粉末), ソース(半固体状ドレッシング, しょうゆ, 糖類, 豚脂, 食塩, ポークエキス, 魚醤, 魚介エキス, たん白加水分解物, 香味調味料, 香辛料), かやく(キャベツ), ふりかけ(たらこ加工品, のり, 香辛料)/調味料(アミノ酸等), かんすい, 炭酸カルシウム, カラメル色素, 酒精, 香料, 増粘剤(加工デンプン, キサンタンガム), 乳化剤, 酸味料, カロチノイド色素, ベニコウジ色素, 酸化防止剤(ビタミンE), 香辛料抽出物, 炭酸マグネシウム, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, いか, さけ, さば, 大豆, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, オニオン粉末), ソース(ペッパーガーリックマヨネーズ, しょうゆ, 糖類, 豚脂, 植物油脂, 食塩, ポークエキス, 香味油, たん白加水分解物, 香味調味料, 香辛料, 醸造酢), かやく(キャベツ), ふりかけ(香辛料, アオサ, 赤唐辛子)/調味料(アミノ酸等), かんすい, 炭酸カルシウム, 酒精, 香料, 増粘剤(キサンタンガム), 乳化剤, 酸味料, カロチノイド色素, 酸化防止剤(ビタミンE), カラメル色素, 香辛料抽出物, 炭酸マグネシウム, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
   </si>
   <si>
     <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, ソース, 糖類), ソース(ソース, からしマヨネーズ, 糖類, 植物油脂, 食塩, 香味油, たん白加水分解物, ソース加工品, 香味調味料, ポークエキス, 香辛料, 醸造酢), かやく(キャベツ), ふりかけ(ソース加工品, マヨネーズ風ソースフレーク, アオサ, 紅しょうが)/カラメル色素, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, 酸味料, 乳化剤, 香料, 香辛料抽出物, 酸化防止剤(ビタミンE), 炭酸マグネシウム, カロチノイド色素, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, オレンジ, ごま, 大豆, 豚肉, りんごを含む)</t>
   </si>
   <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, ホタテエキス, 乳たん白), スープ(食塩, ポークエキス, 香辛料, たん白加水分解物, 糖類, 香味調味料, 酵母エキス, しょうゆ, ローストオニオン粉末)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 炭酸マグネシウム, 増粘多糖類, 香料, 酸化防止剤(ビタミンE), カロチノイド色素, 酸味料, 甘味料(スクラロース), ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 卵粉, しょうゆ), スープ(食塩, 豚脂, ポークエキス, 香辛料, 香味油, たん白加水分解物, 酵母エキス, しょうゆ, デキストリン, 糖類, ローストオニオン粉末, 香味調味料, 植物油脂), かやく(卵, 豚, 鶏味付肉, ニラ)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 香料, 増粘多糖類, ソルビット, グリセリン, カロチノイド色素, 微粒二酸化ケイ素, 乳化剤, 酸化防止剤(ビタミンE), 酸味料, 甘味料(スクラロース), 香辛料抽出物, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), スープ(食塩, ポークエキス, 香辛料, トマトペースト, デキストリン, 糖類, しょうゆ, たん白加水分解物, 酵母エキス, ローストオニオン粉末, 醸造酢, 豚脂, 香味調味料), かやく(豚, 鶏味付肉, 卵, ニラ, 赤唐辛子)/加工デンプン, 調味料(アミノ酸等), カラメル色素, 炭酸カルシウム, かんすい, 増粘多糖類, ソルビット, 酒精, 香料, グリセリン, カロチノイド色素, 酸化防止剤(ビタミンE), 酸味料, 甘味料(スクラロース), ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, オニオン粉末), ソース(ペッパーガーリックマヨネーズ, しょうゆ, 糖類, 豚脂, 植物油脂, 食塩, ポークエキス, 香味油, たん白加水分解物, 香味調味料, 香辛料, 醸造酢), かやく(キャベツ), ふりかけ(香辛料, アオサ, 赤唐辛子)/調味料(アミノ酸等), かんすい, 炭酸カルシウム, 酒精, 香料, 増粘剤(キサンタンガム), 乳化剤, 酸味料, カロチノイド色素, 酸化防止剤(ビタミンE), カラメル色素, 香辛料抽出物, 炭酸マグネシウム, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, オニオン粉末), ソース(半固体状ドレッシング, しょうゆ, 糖類, 豚脂, 食塩, ポークエキス, 魚醤, 魚介エキス, たん白加水分解物, 香味調味料, 香辛料), かやく(キャベツ), ふりかけ(たらこ加工品, のり, 香辛料)/調味料(アミノ酸等), かんすい, 炭酸カルシウム, カラメル色素, 酒精, 香料, 増粘剤(加工デンプン, キサンタンガム), 乳化剤, 酸味料, カロチノイド色素, ベニコウジ色素, 酸化防止剤(ビタミンE), 香辛料抽出物, 炭酸マグネシウム, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, いか, さけ, さば, 大豆, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>砂糖, マルトース, ゼラチン, 濃縮リンゴ果汁, 食塩, その他</t>
-  </si>
-  <si>
-    <t>麺[米粉(国産), 馬鈴薯でん粉/加工デンプン, アルギン酸エステル, ビタミンB2], スープ[みそ, しょうゆ, 植物油脂, 発酵調味料, にんにく, 砂糖, 食塩, すりごま, たん白加水分解物, 酵母エキス, 香辛料/酒精, カラメル色素, 調味料(有機酸等), 酸味料, (一部に大豆, ごまを含む]</t>
-  </si>
-  <si>
-    <t>麺[米粉(国産), 馬鈴薯でん粉/加工デンプン, アルギン酸エステル, ビタミンB2], スープ[クリーミングパウダー, 発酵調味料, 食塩, たん白加水分解物, しょうゆ, 植物油脂, 砂糖, 酵母エキス, ハクサイエキスパウダー, ガーリックパウダー, 醸造酢, 香辛料/カラメル色素, 増粘剤(グァーガム), 調味料(有機酸等), (一部に乳, 大豆を含む]</t>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 卵粉, しょうゆ), スープ(食塩, チキンエキス, たん白加水分解物, 香辛料, 酵母エキス, ねぎ, ローストオニオン粉末, かつおぶし粉末, 香味調味料, 植物油脂)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, 香料, 増粘多糖類, 乳化剤, 酸化防止剤(ビタミンE), カロチノイド色素, 甘味料(スクラロース), ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
   </si>
   <si>
     <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), ソース(砂糖, 食塩, ソース, 香辛料, デキストリン, たん白加水分解物), かやく(キャベツ)/加工でんぷん, 調味料(アミノ酸等), カラメル色素, 炭酸Ca, かんすい, 酸味料, 増粘多糖類, 炭酸Mg, 酸化防止剤(ビタミンE), 香料, ビタミンB2, ビタミンB1, (一部に小麦, 大豆, ごまを含む)</t>
   </si>
   <si>
-    <t>チョコレート(乳糖, ココアバター, 砂糖, 植物油脂, 全粉乳, 乾燥いちご), ウエハース(小麦粉, 砂糖, でんぷん, 植物油脂, 食塩)/加工でんぷん, 香料, 乳化剤(大豆由来), 着色料(アカビート, 紅麹)貝カルシウム, 膨張剤, 酸味料</t>
-  </si>
-  <si>
-    <t>チョコレート(砂糖, 全粉乳, 植物油脂, ココアバター, カカオマス, 乳糖), ウエハース(小麦粉, 砂糖, でんぷん, 植物油脂, 食塩)/加工でんぷん, 乳化剤(大豆由来)貝カルシウム, 香料, 着色料(カラメル), 膨張剤</t>
-  </si>
-  <si>
-    <t>小麦粉, ショートニング, 砂糖, 全粒粉, 乳糖, 乳頭を主原料とする食品, 乾燥全卵, でんぷん, 食塩, 膨張剤, 香料, 乳化剤</t>
-  </si>
-  <si>
-    <t>小麦粉, ショートニング, 砂糖, ココアパウダー, 乳糖, 乳糖を主原料とする食品, 乾燥全卵, でんぷん, 食塩, 炭酸カルシウム膨張剤, 香料, 乳化剤</t>
-  </si>
-  <si>
-    <t>水飴, 砂糖, 澱粉, 餅粉, 植物油, ソルビトール, 乳化剤, 香料, 酸味料, 着色料(青1, 黄4, 赤2)</t>
-  </si>
-  <si>
-    <t>水飴, 砂糖, 澱粉, 餅粉, 植物油, ソルビトール, 乳化剤, 香料, 酸味料, 着色料(赤106)</t>
-  </si>
-  <si>
-    <t>野菜(じゃがいも(国産), にんじん, コーン), 大豆油, 豚肉, 小麦粉ルウ, ソテーオニオン, 砂糖, カレー粉, エキス(ポーク, 酵母), 醤油, トマトペースト, 食塩, チキンエキス調味料, ミルポワペースト, チーズパウダー, 酵母エキスパウダー/増粘剤(加工でん粉), 調味料(アミノ酸等), セルロース, (一部に乳成分, 小麦, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>欄外裏面に記載[たまご]小麦粉(国内製造), いりごま, 乳糖, 砂糖, 卵黄粉末, 食塩, 加工油脂, すりごま, 大豆加工品, 鰹削り節, こしあん, 還元水あめ, エキス(チキン, 酵母, 鰹節, 魚介), 鶏肉粉末, みそ, 海藻カルシウム, のり, 醤油, 鶏脂, 乳製品, ぶどう糖果糖液糖, イースト, みりん, あおさ, 抹茶, デキストリン/調味料(アミノ酸), 卵殻カルシウム, 酸化防止剤(ビタミンE), カロチノイド色素, 香料, (一部に卵, 乳成分, 小麦, ごま, 大豆, 鶏肉を含む)[さけ]いりごま(国内製造), 乳糖, 大豆加工品, 砂糖, 食塩, 小麦粉, 加工油脂, 鮭, すりごま, 卵黄粉末, 還元水あめ, こしあん, 海藻カルシウム, エキス(チキン, 酵母), 鶏肉粉末, みそ, 香味油, のり, 鶏脂, 醤油, 乳製品, ぶどう糖果糖液糖, イースト/調味料(アミノ酸等), 卵殻カルシウム, 着色料(紅麹, カロチノイド), 酸化防止剤(ビタミンE), 香料, (一部に卵, 乳成分, 小麦, ごま, さけ, 大豆, 鶏肉を含む)[おかか]いりごま(国内製造), 乳糖, 鰹削り節, 砂糖, 食塩, 小麦粉, すりごま, 加工油脂, 醤油, 還元水あめ, 大豆加工品, 卵黄粉末, 鰹節粉, エキス(チキン, 鰹節, 酵母</t>
-  </si>
-  <si>
-    <t>スイートコーンパウダー(アメリカ製造), でん粉, 砂糖, デキストリン, 食塩, 全粉乳, 乳糖, 脱脂粉乳, エキス(チキン, 酵母, オニオン), うきみ(クラッカー)/調味料(アミノ酸), 膨張剤, カカオ色素, (一部に乳成分, 小麦, 鶏肉を含む)</t>
-  </si>
-  <si>
-    <t>野菜(じゃがいも(国産), にんじん), ソテーオニオン, 豚肉, 砂糖, エキス(ポーク, 酵母), カレー粉, トマトペースト, ポテト粉末, 食塩, なたね油, かぼちゃペースト, ほうれん草ペースト, コーンペースト/増粘剤(加工でん粉), (一部に豚肉を含む)</t>
-  </si>
-  <si>
-    <t>野菜(じゃがいも, にんじん, コーン, 玉ねぎ, かぼちゃ, グリーンアスパラガス), 豚肉, 小麦粉, マーガリン, はちみつ, 砂糖, カレー粉, 食塩, エキス(ポーク, 酵母), 豚脂, トマトペースト, チーズ, コーン油, 増粘剤(加工澱粉), 調味料(アミノ酸), セルロース, (原材料の一部に大豆を含む)</t>
-  </si>
-  <si>
-    <t>鶏肉(国産), 鶏卵, 玉ねぎ, 砂糖, 発酵調味料, 食塩, 醤油, エキス(チキン, 酵母), 鰹節粉, 鶏脂/増粘剤(加工でん粉, キサンタン), 調味料(アミノ酸等), トレハロース, カロチノイド色素, (一部に卵, 小麦, 大豆, 鶏肉を含む)</t>
-  </si>
-  <si>
-    <t>トマトペースト(ポルトガル製造), 砂糖, ミルポワペースト, ウスターソース, りんごペースト, 小麦粉ルウ, ソテーオニオン, チキンエキス, 大豆油, 食塩, 粒状植物性たん白, 牛肉, 酵母エキスパウダー, かぼちゃペースト, グリーンアスパラガスペースト, コーンペースト/増粘剤(加工でん粉), 調味料(アミノ酸), カラメル色素, (一部に小麦, 牛肉, 大豆, 鶏肉, りんごを含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), マーガリン, 砂糖, 小麦全粒粉, 発酵風味液, 食塩, 殺菌乳酸菌末/香料, カロテン色素, (一部に小麦, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), ぶどう糖, 水あめ, ゼラチン, ウーロン茶抽出物/ガムベース, 酸味料, 軟化剤, 香料, ビタミンC, クチナシ色素</t>
-  </si>
-  <si>
-    <t>コーンパフ(コーングリッツ, 砂糖, 植物油脂, 水あめ, ココアパウダー, 食塩)(国内製造), 砂糖, 植物油脂, カカオマス, 乳糖, 全粉乳, ココアバター, 水あめ/光沢剤, 増粘剤(アラビアガム), 乳化剤(大豆由来), 香料, カラメル色素</t>
+    <t>チョコレート(砂糖, 全粉乳, 植物油脂, ココアバター, カカオマス, 乳糖), ウエハース(小麦粉, 砂糖, でんぷん, 植物油脂, 食塩)/加工でんぷん, 乳化剤(大豆由来), 貝カルシウム, 香料, 着色料(カラメル), 膨張剤</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 小麦粉, 植物油脂, 乳糖, でん粉, ショートニング, ココアバター, 全粉乳, ホエイパウダー, 液卵, マルチトール, ストロベリーパウダー, クリームパウダー, 食塩/炭酸Ca, 膨脹剤, 着色料(カラメル, 紅麹, アカビート), 香料, 乳化剤(大豆由来)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 植物油脂, 全粉乳, でん粉, カカオマス, ショートニング, 加糖れん乳, ココアパウダー, クリームパウダー, モルトエキス, 食塩, ココアバター, 大豆胚芽エキス/膨脹剤, 乳化剤, 香料</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, ラード, 食塩, 植物性たん白, しょうゆ), スープ(しょうゆ, 糖類, 食塩, 動物油脂, ビーフエキス, たん白加水分解物, 昆布エキス, 鰹エキス), かやく(かす入り揚げ玉, とろろ昆布, かまぼこ, ねぎ)/加工でん粉, 調味料(アミノ酸等), 酒精, リン酸Na, 香料, 増粘剤(キサンタン), 酸化防止剤(ビタミンE), カラメル色素, 膨脹剤, 紅麹色素, クチナシ色素, (一部に小麦, 牛肉, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 乳糖, 加工油脂, 還元水あめ, さつまいもパウダー, 卵, マーガリン, 植物油脂, 乳等を主要原料とする食品(バター, 乳糖, カゼインカルシウム, 食塩), 脱脂粉乳, 食塩, 麦芽糖, 小麦ファイバー, 水あめ/着色料(クチナシ, アナトー), 乳化剤(大豆由来), 結晶セルロース, 香料</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 小麦粉, 加工油脂, 脱脂粉乳, ぶどう糖果糖液糖, カカオマス, ココアパウダー, 卵, 加糖脱脂練乳, マーガリン, ココアバター, 水あめ, 植物油脂, 乳糖, 食塩, 麦芽糖, ぶどう糖/着色料(カラメル, アナトー), 乳化剤(大豆由来), 香料</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 加工油脂, 乳糖, 全粉乳, ぶどう糖果糖液糖, 卵, 加糖脱脂練乳, マーガリン, いちごパウダー, 水あめ, 植物油脂, 食塩, 麦芽糖, ぶどう糖/乳化剤(大豆由来), 酸味料, 着色料(紅麹, アカビート, アナトー), 香料</t>
+  </si>
+  <si>
+    <t>準チョコレート(砂糖, 乳糖, 植物油脂, 全粉乳, ココアバター), 小麦粉, 植物油脂, 乳糖, 砂糖, くりパウダー, ココアパウダー, イースト, 全粉乳, カカオマス, ココアバター/乳化剤, 香料, カラメル色素, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>準チョコレート(砂糖, 乳糖, 植物油脂, 全粉乳, ココアバター)(国内製造), 小麦粉, 植物油脂, 乳糖, 砂糖, さつまいもパウダー, イースト, ココアパウダー, 全粉乳, カカオマス, ココアバター/乳化剤, 香料, 重曹, イーストフード, クチナシ色素, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>植物油脂(国内製造), ビスケット(小麦粉, 砂糖, ショートニング, ココアパウダー, 食塩), 砂糖, 小麦粉, カカオマス, 乳糖, 全粉乳, ココアバター, ココアパウダー, イースト/乳化剤, 膨脹剤, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), ビスケット(小麦粉, 砂糖, ショートニング, 食塩), 小麦粉, 植物油脂, 乳糖, 抹茶, 砂糖, ココアパウダー, 緑茶, 全粉乳, カカオマス, イースト, ココアバター/乳化剤, 膨脹剤, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), 全粒粉ビスケット(小麦粉, 小麦全粒粉, 砂糖, ショートニング, 食塩), 小麦粉, 乳糖, 植物油脂, 砂糖, ココアパウダー, 全粉乳, カカオマス, イースト, ココアバター/乳化剤, 膨脹剤, カラメル色素, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), ビスケット(小麦粉, 砂糖, ショートニング, 食塩), 小麦粉, 乳糖, 植物油脂, 砂糖, いちご果汁パウダー, 乾燥いちご加工品, イースト, ココアパウダー, 全粉乳, カカオマス, ココアバター/乳化剤, 酸味料, 膨脹剤, 香料, 着色料(赤ビート, 紅麹), 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), 全粒粉ビスケット(小麦粉, 小麦全粒粉, 砂糖, ショートニング, 食塩), 小麦粉, 乳糖, 砂糖, 植物油脂, 全粉乳, カカオマス, ココアバター, ココアパウダー, イースト/乳化剤(大豆由来), 膨脹剤, カラメル色素, 香料, 重曹, イーストフード</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造, 国内製造), 全粉乳, 乳糖, カカオマス, 小麦粉, 植物油脂, ココアバター, オレンジ果汁パウダー, イースト, ココアパウダー/乳化剤, 香料, 酸味料, 重曹, イーストフード, (一部に小麦, 乳成分, オレンジ, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>緑茶(国産)/ビタミンC</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, しょうゆ, たん白加水分解物), スープ(糖類, 食塩, しょうゆ, 貝エキス, 香辛料, チキンエキス, ポークエキス, えびエキス, たん白加水分解物), かやく(かまぼこ, コーン, ねぎ), 調味料(アミノ酸等), 加工でん粉, 炭酸カルシウム, カラメル色素, かんすい, 増粘多糖類, 酸味料, 酸化防止剤(ビタミンE), クチナシ色素, イカスミ色素, ビタミンB2, ベニコウジ色素, ビタミンB1</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, 粉末卵, 糖類), スープ(みそ, 食塩, 糖類, ポークエキス, コチュジャン, 植物油脂, 豚脂, 豆板醤, 香辛料, 香味食用油, 調味油脂, たん白加水分解物), かやく(ねぎ, 鶏, 豚味付肉そぼろ, コーン), 加工でん粉, 調味料(アミノ酸等), 酒精, 炭酸カルシウム, カラメル色素, 香料, クチナシ色素, かんすい, 増粘剤(キサンタン), 酸味料, 酸化防止剤(ビタミンE, ローズマリー抽出物), ビタミンB2, ビタミンB1, 香辛料抽出物, (原材料の一部にごまを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, みそ, 糖類), スープ(豚脂, しょうゆ, 食塩, 糖類, ポークエキス, チキンエキス, たん白加水分解物, 植物油脂, 香辛料, 酵母エキス), かやく(チャーシュー, ねぎ), 加工でん粉, 調味料(アミノ酸等), 酒精, カラメル色素, 炭酸カルシウム, かんすい, レシチン, クチナシ色素, 増粘剤(キサンタン), 香料, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (原材料の一部に卵, 乳成分を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, 食塩), ソース(ソース, 糖類, 食塩, 豚脂, 植物油脂, 香辛料, たん白加水分解物, 香味調味料), かやく(キャベツ), カラメル色素, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, 酸味料, 酸化防止剤(ビタミンE), 香料, 増粘剤(キサンタン), ビタミンB2, ビタミンB1, (原材料の一部に乳成分, 大豆, りんご, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, でん粉, 食塩, しょうゆ, たん白加水分解物), スープ(糖類, 食塩, しょうゆ, 貝エキス, 野菜粉末, チキンエキス, ポークエキス, えびエキス, 香辛料, たん白加水分解物), かやく(かまぼこ, コーン)/調味料(アミノ酸等), 加工でん粉, 炭酸カルシウム, カラメル色素, かんすい, 増粘多糖類, 酸味料, 酸化防止剤(ビタミンE), クチナシ色素, イカスミ色素, ビタミンB2, ビタミンB1, ベニコウジ色素, (一部にえび, 小麦, 乳成分, いか, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, 大豆食物繊維), スープ(しょうゆ, 食塩, たん白加水分解物, ポークエキス, 糖類, 豚脂, 植物油脂, かつお節エキス, 酵母エキス, 香辛料, 煮干いわし粉末), かやく(チャーシュー, メンマ, ナルト, ねぎ), 調味料(アミノ酸等), 酒精, カラメル色素, 炭酸カルシウム, 香料, かんすい, 増粘剤(キサンタン), レシチン, クチナシ色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, ベニコウジ色素, (原材料の一部に卵, 乳成分を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水飴, 果汁(いちご, パインアップル, レモン, オレンジ, りんご, メロン, ぶどう, もも)/酸味料, 香料, 着色料(アントシアニン, パプリカ色素, カロチン, クチナシ, 紅麹, 紅花黄), (一部にオレンジ, もも, りんごを含む)</t>
+  </si>
+  <si>
+    <t>(レモン味)砂糖(国内製造), 水飴, 濃縮レモン果汁, ハーブエキス(オレンジを含む)
+(ピーチ味)砂糖(国内製造), 水飴, 濃縮ピーチ果汁, ハーブエキス(オレンジを含む)
+(グレープ味)砂糖(国内製造), 水飴, 濃縮グレープ果汁, ハーブエキス(オレンジを含む)
+(オレンジ味)砂糖(国内製造), 水飴, 濃縮オレンジ果汁, ハーブエキス(オレンジを含む)
+(青りんご味)砂糖(国内製造), 水飴, 濃縮りんご果汁, ハーブエキス(オレンジを含む)</t>
+  </si>
+  <si>
+    <t>米めん(ベトナム製造(米, でん粉, 食塩)), スープ(食塩, 砂糖, 鶏油, 香味油, たん白加水分解物, 植物油脂, チキンエキス, 香辛料, 酵母エキス, チキン調味料, ネギエキス), かやく(大豆加工品, ねぎ, もやし, コリアンダー)/加工でん粉, 調味料(アミノ酸等), 酒精, 増粘剤(加工でん粉, 増粘多糖類), 香料, カラメル色素, 乳化剤, 酸味料, 酸化防止剤(ビタミンE), (一部に乳成分, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>米めん(ベトナム製造(米, でん粉, 食塩)), スープ(たん白加水分解物, 糖類, 食塩, 香辛料, 牛脂, 発酵調味料, 植物油脂, 醸造酢, トマトケチャップ, ビーフエキス, 香味油, 酵母エキス), かやく(大豆加工品, ねぎ, 唐辛子)/加工でん粉, 調味料(アミノ酸等), 酒精, 香料, 香辛料抽出物, 増粘多糖類, カラメル色素, 乳化剤, 酸味料, 甘味料(スクラロース, アセスルファムK), 酸化防止剤(ビタミンE), (一部にえび, 牛肉, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>米めん(ベトナム製造(米, でん粉, 食塩)), かやく入りスープ(食塩, チンゲン菜, 砂糖, トムヤムシーズニングパウダー, 大豆加工品, 香辛料, ねぎ, 酵母エキス, たん白加水分解物, 蝦醤, チキン調味料, エビエキス, コリアンダー, 唐辛子)/加工でん粉, 調味料(アミノ酸等), 酸味料, 香料, 微粒二酸化ケイ素, カロチノイド色素, 甘味料(スクラロース, アセスルファムK), 乳化剤, 増粘剤(グァーガム), (一部にえび, 大豆, 鶏肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>牛乳(国内製造), 砂糖, コーヒー, 脱脂粉乳, 全粉乳, デキストリン/乳化剤, 香料, セルロース</t>
+  </si>
+  <si>
+    <t>果実(りんご, オレンジ, グァバ, パインアップル, パッションフルーツ), 砂糖類(砂糖, ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒石酸塩, 植物油, 塩化Na, ガラナ種子エキス/炭酸, クエン酸, 香料, 保存料(安息香酸Na), Lーアルギニン, クエン酸Na, カフェイン, 甘味料(スクラロース), ナイアシン, イノシトール, ビタミンB6, ビタミンB2, 着色料(βーカロテン), ビタミンB12</t>
+  </si>
+  <si>
+    <t>砂糖類(砂糖, ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒石酸塩, 塩化Na, ガラナ種子エキス/クエン酸, 炭酸, 香料, クエン酸Na, 甘味料(Dーリボース, スクラロース), Lーアルギ二ン, 保存料(安息香酸), カフェイン, ナイアシン, 着色料(アントシアニン), イノシトール, ビタミンB6, ビタミンB2, ビタミンB12</t>
+  </si>
+  <si>
+    <t>うるち米粉(国産, タイ産), 植物油脂, 粉末醸造酢, 砂糖, 食塩, 酵母エキス粉末, 香辛料(ごまを含む), チキンエキス粉末, 粉末しょうゆ(小麦, 大豆を含む), でん粉, デキストリン/加工デンプン, 香料(鶏肉由来), 調味料(アミノ酸等), 酸味料, 酸化防止剤(ビタミンE), 微粒酸化ケイ素, 着色料(カロテン), 香辛料抽出物, ビタミンB1, 乳化剤(大豆由来)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, えび粉末, えび塩風味パウダー, 食塩, ローストしょうゆパウダー/加工デンプン, 炭酸Ca, 調味料(アミノ酸等), 酸化防止剤(ビタミンE, ビタミンC), 乳化剤, 香料, カラメル色素, (一部にえび, 小麦, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造), カカオマス, 乳糖, 全粉乳, ココアバター, 植物油脂, /乳化剤, 香料, (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>ローストピーナッツ(国内製造), 植物油脂, イヌリン(食物繊維), 全粉乳, 砂糖, ココアパウダー, カカオマス/乳化剤, 香料, (一部に乳成分, 落花生, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>レーズン(アメリカ製造), カカオマス, 砂糖, ココアバター, ココアパウダー, 全粉乳, マルトデキストリン, 植物油脂/光沢剤, 乳化剤, 香料, (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造又は国内製造), 植物油脂, 小麦パフ, 全粉乳, カカオマス, ココアパウダー, マルトデキストリン/乳化剤, 光沢剤, 香料, (一部に乳成分, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造又は国内製造), 植物油脂, コーングリッツ(分別生産流通管理済み), 全粉乳, カカオマス, ココアパウダー, 小麦粉, マルトデキストリン/乳化剤, 光沢剤, セルロース, 香料, (一部に乳成分, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, 植物油脂, カカオマス, 小麦全粒粉, 全粉乳, でん粉, 水あめ, 乳糖, 小麦胚芽, ココアパウダー, 脱脂粉乳, 食塩/膨脹剤, 乳化剤, 香料, (一部に卵, 乳成分, 小麦, 大豆, アーモンドを含む)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造又は国内製造), 植物油脂, カカオマス, 全粉乳, パフ(コーングリッツ, でん粉, 砂糖), 乳糖, ココアパウダー/乳化剤, 香料, 膨脹剤, (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 植物油脂, ファットスプレッド, マーガリン, 乳等主要原料とする食品, バター, 食塩, 白ごまペースト, 炭酸カルシウム, 膨脹剤, 加工でん粉, 香料, 着色料(カラメル, カロチン)調味料(アミノ酸), (一部に乳成分, 小麦, 大豆, ごまを含む)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造, 国内製造), 植物油脂, 乳糖, デキストリン, ココアバター, 小麦粉, 全粉乳, 脱脂粉乳, ホエイパウダー, 小麦パフ, チーズパウダー, バターオイル, 牛乳, マーガリン, ショートニング, ヨーグルトパウダー, レモン果汁パウダー, 食塩, ぶどう糖果糖液糖, 発酵風味液, たんぱく質濃縮ホエイパウダー/乳化剤(大豆由来), 香料, 膨脹剤</t>
+  </si>
+  <si>
+    <t>昆布(北海道産), 醸造酢, かつおぶしエキス, 発酵調味料, たんぱく加水分解物/調味料(アミノ酸等), ソルビトール, 酸味料, 甘味料(ステビア抽出物), (一部に大豆を含む)</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造), でん粉/加工でん粉, 酸味料, 乳化剤, 着色料(クチナシ, 野菜色素), 香料</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造), でん粉/加工でん粉, 酸味料, 乳化剤, 野菜色素, 香料</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水飴(国内製造), 乾燥ゆず皮, 食用油脂/酸味料, 香料, クチナシ色素, 乳化剤(大豆由来)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), 添付調味料(植物油脂, 食塩, ビーフ調味料, 砂糖, でん粉, ポーク調味料, 粉末しょうゆ, チキンエキス, たん白加水分解物, 胡椒, 酵母エキス), かやく入り添付調味料(乳化油脂, ぶどう糖, チーズパウダー, にんにく, 大豆加工品, 乳等を主要原料とする食品, ねぎ, 唐辛子)/加工でん粉, 調味料(アミノ酸等), 炭酸Ca, 香料, カラメル色素, かんすい, 微粒二酸化ケイ素, 酸味料, 香辛料抽出物, 酸化防止剤(ビタミンE, ローズマリー抽出物), カロチノイド色素, アカビート色素, ベニコウジ色素, ビタミンB2, ビタミンB1, (一部に小麦, 乳成分, 牛肉, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), ジャム(砂糖, いちご, 水あめ), ショートニング, 砂糖, 鶏卵, 加糖練乳, 脱脂粉乳, 乳等を主要原料とする食品, 澱粉分解物, 食塩, チーズパウダー/ソルビトール, 酸味料, ゲル化剤(増粘多糖類), 香料, 膨張剤, 乳化剤, 紅麹色素, リン酸Ca, (一部に小麦, 卵, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), ジャム(砂糖, 水あめ, ブルーベリー), 砂糖, ショートニング, 鶏卵, 乳等を主要原料とする食品, 加糖練乳, プロセスチーズ, 食塩/ソルビトール, 酸味料, ゲル化剤(増粘多糖類), 香料, 膨張剤, 乳化剤, (一部に小麦, 卵, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造又は国内製造), 植物油脂, ぶどうソース, 全粉乳, カカオマス, ココアバター, 乳糖, 乳等を主要原料とする食品, 紅茶エキスパウダー, 脱脂粉乳, 酒精飲料/トレハロース, 乳化剤(大豆由来), 酸味料, 香料(乳, 大豆由来), 着色料(カラメル, 野菜色素, クチナシ, 紅花黄, 紅麹), 環状オリゴ糖, 増粘剤(ペクチン)</t>
+  </si>
+  <si>
+    <t>大豆(アメリカ), 納豆菌], 植物油脂, しょうゆ風味パウダー(粉末しょうゆ, 食塩, コーンスターチ, デキストリン, その他)(小麦, さばを含む)/調味料(アミノ酸等), 香料</t>
+  </si>
+  <si>
+    <t>ブドウ糖(国内製造), コーンスターチ, 澱粉分解物/酸味料, 香料, 着色料(アントシアニン, クチナシ, アナトー, スピルリナ青)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), マルチトール, 麦芽糖, クリーミングパウダー(水あめ, 植物油脂, カゼイン(乳成分を含む)), デキストリン, 濃縮梅果汁, ゼラチン, 梅パウダー, 希少糖含有シロップ, 梅エキス, 食物繊維, 梅干エキスパウダー/酸味料, 増粘剤(アラビアガム), アントシアニン色素, 香料, 光沢剤</t>
+  </si>
+  <si>
+    <t>植物油脂(国内製造), 砂糖, 全粉乳, 乳糖, ココアバター, ココア, 卵黄, カカオマス/セルロース, 乳化剤, 香料, (原料の一部に乳成分, 卵, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>植物油脂(国内製造), 砂糖, 全粉乳, 乳糖, ココアバター, チェダーチーズパウダー/セルロース, 乳化剤, パプリカ色素, 香料, (原料の一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>植物油脂(国内製造), 砂糖, 全粉乳, 乳糖, ココアバター, ココア, カカオマス/セルロース, 乳化剤, 香料, (原料の一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 全粉乳, カカオマス, ショートニング, ココアバター, 植物油脂, 小麦全粒粉, 小麦ふすま, 食塩, 脱脂小麦胚芽/膨脹剤, 乳化剤(大豆由来), 香料</t>
+  </si>
+  <si>
+    <t>ピーナッツ(アメリカ), 砂糖, 小麦粉, 寒梅粉, 澱粉, 米粉, 食塩, ガラクトオリゴ糖/膨張剤, 炭酸カルシウム, 着色料(クチナシ), ピロリン酸鉄, (一部に乳成分, 小麦, 落花生を含む)</t>
+  </si>
+  <si>
+    <t>マルトース(国内製造), 水飴, 砂糖, もち粉, 全粉乳, 植物油脂, カカオマス, ココアパウダー, クリーム(乳成分を含む), デキストリン, 洋酒, 乳糖/トレハロース, 乳化剤(大豆由来), 着色料(カラメル), 調味料(アミノ酸), 加工デンプン, 香料, カゼインNa(乳由来)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造, タイ製造), カカオマス, 植物油脂, 全粉乳, アーモンド, ココアバター, 脱脂粉乳, 米パフ, 乳糖, バターオイル/乳化剤(大豆由来), 香料(アーモンド由来)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造, タイ製造), 植物油脂, 全粉乳, カカオマス, ココアバター, 脱脂粉乳, 乳糖, いちご粉末/トレハロース, 乳化剤(大豆由来), 香料(アーモンド由来), 着色料(ビートレッド), 酸味料</t>
+  </si>
+  <si>
+    <t>&lt;ストロベリーチョコレート&gt;砂糖(外国製造), 植物油脂, 乳糖, 全粉乳, ココアバター, カカオマス, ホエイパウダー, 小麦パフ(でんぷん, 小麦粉, 食塩), 乾燥いちご/香料, 乳化剤(大豆由来), 酸味料, 着色料(アカダイコン), 膨脹剤&lt;クリスプチョコレート&gt;砂糖(外国製造, 国内製造), 植物油脂, カカオマス, 乳糖, 全粉乳, ホエイパウダー, 小麦パフ(でんぷん, 小麦粉, 食塩)/乳化剤(大豆由来), 香料, 膨脹剤</t>
+  </si>
+  <si>
+    <t>植物油脂(国内製造), 乳糖, 砂糖, ココアクッキークランチ(小麦粉, 砂糖, ショートニング, ココアパウダー, デキストリン, ぶどう糖果糖液糖, カカオマス, ホエイパウダー, 食塩), ココアバター, 全粉乳, 小麦粉, ホエイパウダー, クリームチーズパウダー, でん粉, クリームパウダー, モルトエキス, 食塩/乳化剤(大豆由来), トレハロース, 香料, 膨脹剤, カラメル色素</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造又は韓国製造), 小麦粉, 植物油脂, 全粉乳, 乳糖, カカオマス, ホエイパウダー, クッキークランチ, ココアパウダー, でん粉, ショートニング, 食塩/乳化剤(大豆由来), カラメル色素, 膨脹剤, 香料</t>
+  </si>
+  <si>
+    <t>&lt;きゅんベリー味(丸型)&gt;ぶどう糖(国内製造), いちご果汁パウダー, でん粉/乳化剤, 加工でん粉, 酸味料, ビタミンC, 香料, 野菜色素&lt;甘ずっぱいきゅんベリー味(ハート型)&gt;ぶどう糖(国内製造), いちご果汁パウダー, でん粉/乳化剤, 加工でん粉, 酸味料, ビタミンC, 香料, 野菜色素</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油, 砂糖, 粉末醤油, デキストリン, 粉末みそ, ハバネロパウダー, チキンエキスパウダー, 食塩, たん白加水分解物, 酵母エキスパウダー, 乳糖/調味料(アミノ酸等), 香辛料抽出物, 香料, パプリカ色素, 甘味料(ステビア, カンゾウ), 酸味料, (一部に小麦, 乳成分, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 粉末卵, 野菜エキス, しょうゆ), スープ(食塩, 糖類, チキン調味料, たまねぎ加工品, しょうゆ, 香辛料, 酵母エキス, 野菜調味料, 発酵調味料), かやく(キャベツ, 鶏, 豚味付肉そぼろ, フライドオニオン, にんじん)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, トレハロース, 香料, かんすい, レシチン, 微粒二酸化ケイ素, 酸味料, クチナシ色素, 酸化防止剤(ビタミンE, ビタミンC), ビタミンB2, ビタミンB1, パプリカ色素, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 粉末卵, 野菜エキス, しょうゆ), スープ(糖類, 食塩, チキン調味料, でん粉, 粉末レモン果汁, 香辛料, 酵母エキス, 植物油脂, 野菜粉末), かやく(キャベツ, 味付鶏肉そぼろ, 味付卵, 赤ピーマン)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, 香料, トレハロース, 酸味料, 微粒二酸化ケイ素, かんすい, レシチン, クチナシ色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, カラメル色素, カロチン色素, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>難消化性デキストリン(中国製造), 高麗人参根エキス, LーカルニチンLー酒石酸塩, ガラナ種子エキス/炭酸, クエン酸, クエン酸Na, 香料, 保存料(安息香酸Na), Lーアルギニン, カフェイン, 甘味料(スクラロース, アセスルファムK, ステビア), ナイアシン, パントテン酸Ca, イノシトール, ビタミンB6, 着色料(黄色4号, 黄色5号), ビタミンB12</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 砂糖, ぶどう糖, 香辛料, 食塩, チキンエキスパウダー, 野菜エキスパウダー(乳成分, 大豆, 豚肉, ゼラチンを含む), たんぱく加水分解物(大豆を含む), オリゴ糖/調味料(アミノ酸等), パプリカ色素, 酸味料, 香辛料抽出物, カラメル色素, 香料</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, 麻婆豆腐風味パウダー(グラニュー糖, 粉末しょうゆ, 粉末みそ, ポーク風味調味料, たんぱく加水分解物, その他), 食塩, 砂糖, ミート調味エキス, たんぱく加水分解物, しょうゆ/調味料(アミノ酸等), 炭酸Ca, 香料, 乳化剤, パプリカ色素, 酸化防止剤(ビタミンE), 甘味料(ステビア, カンゾウ), 酸味料, 香辛料抽出物, (一部に小麦, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, しょうゆラーメン風味パウダー, 食塩, 砂糖, ミート調味エキス, たんぱく加水分解物, しょうゆ/調味料(アミノ酸等), 炭酸Ca, 香料, カラメル色素, 乳化剤, 酸味料, 酸化防止剤(ビタミンE), 甘味料(ステビア), 香辛料抽出物, (一部に小麦, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 小麦粉, 植物油脂, 乳糖, でん粉, ショートニング, ココアバター, 全粉乳, ホエイパウダー, 液卵, マルチトール, メロン果汁パウダー, クリームパウダー, 食塩/炭酸Ca, 膨脹剤, 着色料(カラメル, クチナシ, 紅花黄), 香料, 乳化剤(大豆由来)</t>
+  </si>
+  <si>
+    <t>還元水飴(国内製造), 還元麦芽糖, 砂糖, 食物繊維(ポリデキストロース), 水飴, 還元麦芽糖水飴, ゼラチン, こんにゃく粉, 澱粉/酸味料, 香料, 炭酸カルシウム, (一部にゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>澱粉(国内製造), 砂糖, デキストリン, 濃縮いちご果汁/甘味料(キシリトール, アスパルテーム, L‐フェニルアラニン化合物, アセスルファムK), 酸味料, 香料, 増粘剤(アラビアガム), 着色料(赤色40号)</t>
+  </si>
+  <si>
+    <t>砂糖, 水飴, 乾燥いちご加工品, いちご果汁, ハーブエキス/酸味料, 香料, アントシアニン色素</t>
+  </si>
+  <si>
+    <t>トマト, ハラペーニョ, 玉ねぎ, 醸造酢, 食塩, 乾燥玉ねぎ, ガーリックパウダー/香辛料抽出物, 塩化カルシウム, クエン酸</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油, でん粉, えび, 砂糖, 食塩/膨脹剤, 調味料(アミノ酸等), 甘味料(甘草)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), ソース(濃厚ソース, 砂糖, 植物油脂, 発酵調味料, 豚脂, 食塩, ポーク調味料, しょうゆ加工品, 魚介エキス, カツオ調味料, 香味調味料, 香味油), 特製ペースト(半固体状ドレッシング, 紅しょうが, 果糖ぶどう糖液糖, 還元水飴, 醸造酢, 食塩, 植物油脂, 全卵粉, 酵母エキス, でん粉), かやく(キャベツ), ふりかけ(カツオブシ, あおさ)/加工でん粉, カラメル色素, 調味料(アミノ酸等), 炭酸Ca, 増粘剤(加工でん粉, 増粘多糖類), 酸化防止剤(ビタミンE), カロチノイド色素, かんすい, 乳化剤, 甘味料(カンゾウ, スクラロース, アセスルファムK), 酸味料, 香料, 野菜色素, ビタミンB2, ビタミンB1, 香辛料抽出物, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, りんご, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油, 砂糖, ぶどう糖, 食塩, チーズパウダー, 粉末油脂, ホエイパウダー, 香辛料, オリゴ糖/調味料(アミノ酸等), 香料, カロチノイド色素, 香辛料抽出物, くん液, (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>生地(国内製造)(小麦粉, でん粉, えびエキスパウダー, えびパウダー, 砂糖, 乾燥えび, 発酵調味液, 植物油, かつお節), 植物油, デキストリン, ぶどう糖, 魚介エキスパウダー, 食塩, 粉末しょうゆ, 唐辛子, 酵母エキスパウダー/加工デンプン, 調味料(アミノ酸等), トレハロース, 甘味料(スクラロース), (一部に乳成分, 小麦, えび, 大豆, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>植物油脂(国内製造), 米粉(うるち米(国産, 米国産)), でん粉, 食塩, 魚介エキスパウダー(えびを含む), 砂糖, えび, デキストリン, 粉末しょう油(小麦, 大豆を含む), 香味油(えびを含む), 酵母エキス粉末/加工でん粉, 調味料(アミノ酸等), 着色料(紅麹, カラメル), 酸味料</t>
+  </si>
+  <si>
+    <t>砂糖, カカオマス, 全粉乳, ココアバター, 植物油脂, 乳化剤(大豆を含む), 光沢剤, 香料</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, 濃縮日本なし果汁, ゼラチン, 還元難消化性デキストリン, 植物油脂, でん粉/酸味料, ゲル化剤(ペクチン), 香料, 光沢剤, (一部にりんご, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>うるち米(国産, 米国産), 植物油, 砂糖, レモンシーズニング, しょうゆ, 果糖ぶどう糖液糖, 酵母エキス, 食塩/加工でん粉, 調味料(アミノ酸等), 酸味料, 香料, カラメル色素, (一部に小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造又は国内製造), 植物油脂, 全粉乳, カカオマス, ココアバター, 乳糖, 乳等を主要原料とする食品, りんごパウダー, 脱脂粉乳, エリスリトール, ドライクレープ(乳成分, 小麦を含む), キャラメルパウダー(乳成分を含む)/乳化剤(大豆由来), 香料(乳, 大豆由来), 着色料(紅麹, クチナシ)</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造, 国内製造), 植物油脂, ポテトペレット(乾燥ポテト, でん粉, 食塩), カカオマス, ココアパウダー, 全粉乳/乳化剤(大豆由来), 香料, 着色料(ウコン), 酸化防止剤(ビタミンE, ビタミンC)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造, 国内製造), 植物油脂, 全粉乳, カカオマス, ココアバター, 乳糖, 脱脂粉乳, オレンジ濃縮果汁, 洋酒(カシスリキュール), デキストリン, クリーミングパウダー(乳成分を含む)/ソルビトール, 乳化剤(大豆由来), 酒精, 香料(乳, アーモンド由来), 酸味料</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造), カカオマス, 小麦粉, 液全卵, 植物油脂, マーガリン(乳成分を含む), ココアパウダー, ショートニング, 加糖練乳, 全粉乳, 乳糖, ココアバター, 食塩, 洋酒/ソルビトール, 酒精, 乳化剤(大豆由来), 香料(乳由来)</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造, 国内製造), 液全卵, 小麦粉, 植物油脂, マーガリン(乳成分を含む), チーズ粉末(カマンベールチーズ粉末, ゴーダチーズ粉末, クリームチーズ粉末), ショートニング, コーンスターチ, 食用加工油脂, クリームチーズ, ミルクシロップ, 全粉乳, 還元水飴, 乾燥全卵, ホエイパウダー(乳成分を含む), レモン濃縮果汁, 水飴, 乳糖, 洋酒, デキストリン, ココアバター/ソルビトール, 乳化剤(大豆由来), 酒精, 香料(乳由来), 膨脹剤, 増粘剤(ペクチン:りんご由来), 酸味料</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, マーガリン(乳成分を含む), バター, ココナッツ, 液全卵, 加糖脱脂練乳, 食塩, 植物油脂/香料(乳由来), 膨脹剤, 乳化剤(大豆由来), 着色料(カロテン)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, 植物油脂, 全粉乳, 小麦全粒粉, カカオマス, ココアパウダー, 食塩, 脱脂小麦胚芽/膨脹剤, 乳化剤(大豆由来), 香料, 着色料(アナトー)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, 植物油脂還元水飴, 白あん(生あん, 砂糖, 還元水飴, 寒天, 食塩), カカオマス, 水飴, 液全卵, ココアパウダー, 乳糖, 全粉乳デキストリン, 食塩, 脱脂粉乳/ソルビトール, 加工デンプン, 乳化剤(大豆由来), 着色料(カラメル)香料, 膨張剤, 増粘剤(カラギーナン)</t>
+  </si>
+  <si>
+    <t>準チョコレート(植物油脂, 砂糖, カカオマス, 全粉乳, ココアパウダー)(国内製造), 小麦粉, 砂糖, 植物油脂, ショートニング, 転化糖蜜, 加糖れん乳, ココアパウダー, 食塩(宮古島産塩38%使用), 全粉乳, ごま, コラーゲン/膨脹剤, 着色料(カラメル), 乳化剤, 炭酸Ca, 香料, (一部に小麦, 乳成分, 大豆, ごま, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 食用油脂(パーム油, ラード, なたね油), 食塩), スープ(食塩, 砂糖, キムチ風味調味料, 粉末しょうゆ, 香辛料, ごま, 粉末みそ, ポークエキスパウダー, オイスターエキスパウダー, たまねぎ, ねぎ)/加工でん粉, 調味料(アミノ酸等), カラメル色素, 酸味料, かんすい, 増粘多糖類, 微粒二酸化ケイ素, 酸化防止剤(V.E), (一部に小麦, ごま, 大豆, 豚肉, 魚醤(魚介類)を含む)</t>
+  </si>
+  <si>
+    <t>ローストピーナッツ(国内製造), 砂糖, 植物油脂, 乳糖, 全粉乳, カカオマス, ココアパウダー/乳化剤, 香料, (一部に乳成分, 落花生, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造), ビスケット(小麦を含む), カカオマス, 植物油脂, 全粉乳, ココアバター, 水あめ, シーズニングパウダー(デキストリン, 黒トリュフ塩, 砂糖, 食塩, ガーリックパウダー, 大豆たんぱく加水分解物, 白こしょうパウダー, ナツメグパウダー), バターオイル, ヘーゼルナッツペースト/乳化剤, 膨脹剤, 香料, 光沢剤, 調味料(アミノ酸等), 着色料(金箔)</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 加糖練乳, 砂糖, 加糖脱脂練乳, 植物油脂, 小麦たんぱく加水分解物, バター, 食塩/ソルビトール, 香料, 乳化剤(大豆由来), ベニバナ黄色素</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造, タイ製造), 水あめ, 植物油脂, デキストリン, ゼラチン, 濃縮すいか果汁/酸味料, 香料, グリセリン, 乳化剤, ベニバナ黄色素, アカキャベツ色素, クチナシ青色素, パプリカ色素</t>
+  </si>
+  <si>
+    <t>コーンフレーク(コーングリッツ(とうもろこし(アメリカ産)), 砂糖, 食塩), 砂糖, 植物油脂, 全粉乳, カカオマス, ココアパウダー/香料, 炭酸カルシウム, 乳化剤(大豆由来), ピロリン酸鉄</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ココナッツオイル, ショートニング, ココナッツ, 食塩, レモンパウダー, 脱脂粉乳/酸味料, 膨張剤, 乳化剤(大豆由来), 香料</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), マーガリン, 砂糖, 植物油脂, 乳糖, 麦芽糖, ココアバター, 全粉乳, ホエイパウダー, クリームパウダー, 食塩, チーズパウダー, 抹茶, シナモン/乳化剤(大豆由来), クチナシ色素, 香料</t>
   </si>
   <si>
     <t>砂糖(国内製造), 小麦粉, 植物油脂, 全粉乳, 乳糖, カカオマス, ホエイパウダー, クッキークランチ, ココアパウダー, でん粉, ショートニング, 食塩/乳化剤(大豆由来), カラメル色素, 膨脹剤, 香料</t>
   </si>
   <si>
-    <t>砂糖(国内製造又は外国製造), 小麦粉, 植物油脂, カカオマス, でん粉, ショートニング, 乳糖, 全粉乳, 液卵, ホエイパウダー, クリームパウダー, 脱脂粉乳, 食塩, ココアパウダー, ココアバター/炭酸Ca, 膨脹剤, カラメル色素, 乳化剤(大豆由来), 香料</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), 小麦粉, 植物油脂, 乳糖, でん粉, ショートニング, ココアバター, 全粉乳, ホエイパウダー, 液卵, マルチトール, ストロベリーパウダー, クリームパウダー, 食塩/炭酸Ca, 膨脹剤, 着色料(カラメル, 紅麹, アカビート), 香料, 乳化剤(大豆由来)</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造, 外国製造), 小麦粉, 植物油脂, 乳糖, でん粉, ショートニング, ココアバター, 全粉乳, ホエイパウダー, 液卵, 小麦全粒粉, 乳等を主要原料とする食品(はっ酵バター, 植物油脂, バターオイル, 脱脂粉乳, 食塩), 脱脂粉乳, クリームパウダー, 食塩/膨脹剤, カラメル色素, 香料, 乳化剤(大豆由来)</t>
-  </si>
-  <si>
-    <t>&lt;れもん&gt;水あめ(国内製造), 砂糖, ゼラチン, 濃縮レモン果汁, オブラートパウダー/ソルビトール, グリセリン, 酸味料, ゲル化剤(ペクチン), 香料, 乳化剤, 紅花色素, 光沢剤&lt;コーラ&gt;水あめ(国内製造), 砂糖, ゼラチン, コーラナッツエキス, オブラートパウダー/ソルビトール, グリセリン, 酸味料, ゲル化剤(ペクチン), カラメル色素, 香料, 乳化剤, 光沢剤&lt;ソーダ&gt;水あめ(国内製造), 砂糖, ゼラチン, オブラートパウダー/ソルビトール, グリセリン, 酸味料, ゲル化剤(ペクチン), 香料, クチナシ色素, 乳化剤, 光沢剤&lt;ぶどう&gt;水あめ(国内製造), 砂糖, ゼラチン, 濃縮グレープ果汁, オブラートパウダー/ソルビトール, グリセリン, 酸味料, ゲル化剤(ペクチン), 香料, 着色料(ブラックキャロットジュース, クチナシ), 乳化剤, 光沢剤</t>
-  </si>
-  <si>
-    <t>水飴(国内製造), 砂糖, ゼラチン, でんぷん/ソルビトール, 酸味料, マンニトール, 増粘剤(ペクチン), 香料, 光沢剤, 着色料(アントシアニン, クチナシ, 紅麹, カラメル, 紅花黄, カロチン), 乳化剤, (一部にゼラチンを含む)本品製造ラインでは, 乳成分を含む製品を生産しています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (青リンゴ)砂糖(国内製造), 水飴, ゼラチン, 果糖ぶどう糖液糖, 濃縮青リンゴ果汁/酸味料, ゲル化剤(ペクチン), 香料, 光沢剤, 着色料(黄色4号, 青色1号), (一部にりんご, ゼラチンを含む) (レモン)砂糖(国内製造), 水飴, ゼラチン, 果糖ぶどう糖液糖, 濃縮レモン果汁/酸味料, 香料, ゲル化剤(ペクチン), 光沢剤, 着色料(黄色4号), (一部にゼラチンを含む) (グレープ)砂糖(国内製造), 水飴, ゼラチン, 果糖ぶどう糖液糖, 濃縮グレープ果汁/酸味料, 香料, ゲル化剤(ペクチン), 光沢剤, 甘味料(アセスルファムK, ステビア), 着色料(赤色40号, 青色1号), (一部にゼラチンを含む) (イチゴ)砂糖(国内製造), 水飴, ゼラチン, 果糖ぶどう糖液糖, 濃縮イチゴ果汁/酸味料, ゲル化剤(ペクチン), 香料, 光沢剤, 着色料(赤色40号), (一部にゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, ラード, 食塩, 植物性たん白, しょうゆ), スープ(しょうゆ, 糖類, 食塩, 動物油脂, ビーフエキス, たん白加水分解物, 昆布エキス, 鰹エキス), かやく(かす入り揚げ玉, とろろ昆布, かまぼこ, ねぎ)/加工でん粉, 調味料(アミノ酸等), 酒精, リン酸Na, 香料, 増粘剤(キサンタン), 酸化防止剤(ビタミンE), カラメル色素, 膨脹剤, 紅麹色素, クチナシ色素, (一部に小麦, 牛肉, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, 甘えびパウダー, 食塩/加工デンプン, 乳化剤, 調味料(アミノ酸), (一部にえびを含む)</t>
-  </si>
-  <si>
-    <t>小麦粉, 砂糖, 植物油脂, ココアパウダー, コーンスターチ, 食塩/膨張剤, 乳化剤, 香料, 酸化防止剤(V.E, V.C), (原材料の一部に小麦, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉, 砂糖, 植物油脂, ココアパウダー, コーンスターチ, 食塩/膨張剤, 乳化剤, 香料, 酸味料, 酸化防止剤(V.C, V.E), (一部に小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>準チョコレート(砂糖, 植物油脂(大豆を含む), 全粉乳, 乳糖, カカオマス, ココアパウダー)(国内製造), 小麦粉, 鶏卵, 砂糖, デキストリン, ショートニング, 食塩/乳化剤(大豆由来), 膨張剤, 香料</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, チョコレート(乳成分を含む), ショートニング(大豆を含む), 還元水あめ, 白練餡(生餡, 砂糖, 水あめ, 還元麦芽糖水あめ), ココアパウダー, 大豆粉, 鶏卵加工品(鶏卵, 砂糖), 水あめ, 脱脂粉乳, 卵黄粉末(卵を含む), 卵黄粉末(卵を含む), 全粉乳, でん粉分解物, カカオマス, 食塩, 酵母エキス/加工でん粉, 乳化剤(大豆由来), 香料, 膨脹剤</t>
-  </si>
-  <si>
-    <t>植物油脂(国内製造)(大豆を含む), 砂糖, 砂糖粉乳調製品(砂糖, 全粉乳, 脱脂粉乳, ココアバター), 乳糖, カカオマス, 全粉乳, ココアバター, 脱脂粉乳/乳化剤(大豆由来), 香料(乳由来)</t>
-  </si>
-  <si>
-    <t>砂糖, ぶどう糖果糖液糖(国内製造)/炭酸ガス, 酸味料, 香料</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造, 国内製造), 全粉乳, 乳糖, 小麦粉, 植物油脂, カカオマス, ココアバター, ココアパウダー, イースト/乳化剤, アラビアガム, 光沢剤, 重曹, イーストフード, 香料, (一部に小麦, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造, 国内製造), 全粉乳, 乳糖, 植物油脂, 小麦粉, カカオマス, ココアバター, いちご果汁パウダー, イースト, ココアパウダー/乳化剤, 酸味料, アラビアガム, 香料, 光沢剤, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>カカオマス(コートジボワール製造又は国内製造又はその他), 砂糖, 小麦粉, 乳糖, 植物油脂, ココアバター, カカオニブ, ココアパウダー, 全粉乳, イースト/乳化剤, アラビアガム, 光沢剤, 重曹, イーストフード, 香料, (一部に小麦, 乳成分, 大豆を含む</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), ビスケット(小麦粉, 砂糖, ショートニング, 食塩), 小麦粉, 乳糖, 植物油脂, 砂糖, いちご果汁パウダー, 乾燥いちご加工品, イースト, ココアパウダー, 全粉乳, カカオマス, ココアバター/乳化剤, 酸味料, 膨脹剤, 香料, 着色料(赤ビート, 紅麹), 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), ビスケット(小麦粉, 砂糖, ショートニング, 食塩), 小麦粉, 植物油脂, 乳糖, 抹茶, 砂糖, ココアパウダー, 緑茶, 全粉乳, カカオマス, イースト, ココアバター/乳化剤, 膨脹剤, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>植物油脂(国内製造), ビスケット(小麦粉, 砂糖, ショートニング, ココアパウダー, 食塩), 砂糖, 小麦粉, カカオマス, 乳糖, 全粉乳, ココアバター, ココアパウダー, イースト/乳化剤, 膨脹剤, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), 全粒粉ビスケット(小麦粉, 小麦全粒粉, 砂糖, ショートニング, 食塩), 小麦粉, 乳糖, 砂糖, 植物油脂, 全粉乳, カカオマス, ココアバター, ココアパウダー, イースト/乳化剤(大豆由来), 膨脹剤, カラメル色素, 香料, 重曹, イーストフード</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造, 国内製造), 全粉乳, 乳糖, カカオマス, 小麦粉, 植物油脂, ココアバター, オレンジ果汁パウダー, イースト, ココアパウダー/乳化剤, 香料, 酸味料, 重曹, イーストフード, (一部に小麦, 乳成分, オレンジ, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>牛乳, 砂糖, コーヒー, 脱脂粉乳/乳化剤</t>
-  </si>
-  <si>
-    <t>大麦(六条大麦(カナダ, 国産), 二条大麦)/粗製海水塩化マグネシウム, ビタミンC</t>
-  </si>
-  <si>
-    <t>緑茶(国産)/ビタミンC</t>
-  </si>
-  <si>
-    <t>コーングリッツ(国内製造), 植物油, デキストリン, 砂糖, 食塩, ぶどう糖, チーズパウダー, 酵母エキスパウダー, たんぱく質濃縮ホエイパウダー, 赤唐辛子パウダー, , オニオンパウダー/香料, 調味料(アミノ酸等), 着色料(カロチノイド, カラメル), 酸味料, (一部に乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, でん粉, 食塩, しょうゆ, たん白加水分解物), スープ(糖類, 食塩, しょうゆ, 貝エキス, 野菜粉末, チキンエキス, ポークエキス, えびエキス, 香辛料, たん白加水分解物), かやく(かまぼこ, コーン)/調味料(アミノ酸等), 加工でん粉, 炭酸カルシウム, カラメル色素, かんすい, 増粘多糖類, 酸味料, 酸化防止剤(ビタミンE), クチナシ色素, イカスミ色素, ビタミンB2, ビタミンB1, ベニコウジ色素, (一部にえび, 小麦, 乳成分, いか, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, しょうゆ, たん白加水分解物), スープ(糖類, 食塩, しょうゆ, 貝エキス, 香辛料, チキンエキス, ポークエキス, えびエキス, たん白加水分解物), かやく(かまぼこ, コーン, ねぎ), 調味料(アミノ酸等), 加工でん粉, 炭酸カルシウム, カラメル色素, かんすい, 増粘多糖類, 酸味料, 酸化防止剤(ビタミンE), クチナシ色素, イカスミ色素, ビタミンB2, ベニコウジ色素, ビタミンB1</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, 大豆食物繊維), スープ(しょうゆ, 食塩, たん白加水分解物, ポークエキス, 糖類, 豚脂, 植物油脂, かつお節エキス, 酵母エキス, 香辛料, 煮干いわし粉末), かやく(チャーシュー, メンマ, ナルト, ねぎ), 調味料(アミノ酸等), 酒精, カラメル色素, 炭酸カルシウム, 香料, かんすい, 増粘剤(キサンタン), レシチン, クチナシ色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, ベニコウジ色素, (原材料の一部に卵, 乳成分を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, 粉末卵, 糖類), スープ(みそ, 食塩, 糖類, ポークエキス, コチュジャン, 植物油脂, 豚脂, 豆板醤, 香辛料, 香味食用油, 調味油脂, たん白加水分解物), かやく(ねぎ, 鶏, 豚味付肉そぼろ, コーン), 加工でん粉, 調味料(アミノ酸等), 酒精, 炭酸カルシウム, カラメル色素, 香料, クチナシ色素, かんすい, 増粘剤(キサンタン), 酸味料, 酸化防止剤(ビタミンE, ローズマリー抽出物), ビタミンB2, ビタミンB1, 香辛料抽出物, (原材料の一部にごまを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, みそ, 糖類), スープ(豚脂, しょうゆ, 食塩, 糖類, ポークエキス, チキンエキス, たん白加水分解物, 植物油脂, 香辛料, 酵母エキス), かやく(チャーシュー, ねぎ), 加工でん粉, 調味料(アミノ酸等), 酒精, カラメル色素, 炭酸カルシウム, かんすい, レシチン, クチナシ色素, 増粘剤(キサンタン), 香料, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (原材料の一部に卵, 乳成分を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, 食塩), ソース(ソース, 糖類, 食塩, 豚脂, 植物油脂, 香辛料, たん白加水分解物, 香味調味料), かやく(キャベツ), カラメル色素, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, 酸味料, 酸化防止剤(ビタミンE), 香料, 増粘剤(キサンタン), ビタミンB2, ビタミンB1, (原材料の一部に乳成分, 大豆, りんご, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), 水飴, 果汁(いちご, パインアップル, レモン, オレンジ, りんご, メロン, ぶどう, もも)/酸味料, 香料, 着色料(アントシアニン, パプリカ色素, カロチン, クチナシ, 紅麹, 紅花黄), (一部にオレンジ, もも, りんごを含む)</t>
-  </si>
-  <si>
-    <t>ぶどう糖, 砂糖, 水あめ, 還元水あめ, ガムベース, 酸味料, 香料, 乳酸カルシウム, 軟化剤, アントシアニン色素, 緑茶抽出物</t>
-  </si>
-  <si>
-    <t>ぶどう糖, 砂糖, 水あめ, 還元水あめ/ガムベース, 酸味料, 香料, 軟化剤, 着色料(カラメル, フラボノイド)</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), ぶどう糖, 水あめ, 還元水あめ, 酵母エキス, デキストリン/ガムベース, 酸味料, 香料, 軟化剤, カロチノイド色素</t>
-  </si>
-  <si>
-    <t>ぶどう糖, 砂糖, 水あめ, 還元水あめ/ガムベース, 酸味料, 香料, 軟化剤, 着色料(クチナシ, フラボノイド)</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), ぶどう糖, 水あめ, 還元水あめ/ガムベース, 酸味料, 香料</t>
-  </si>
-  <si>
-    <t>砂糖, ぶどう糖, 水あめ, 還元水あめ/ガムベース, 酸味料, 香料</t>
-  </si>
-  <si>
-    <t>ぶどう糖(国内製造), 砂糖, 水あめ, 還元水あめ/ガムベース, 酸味料, 香料, カラメル色素, 軟化剤</t>
-  </si>
-  <si>
-    <t>ぶどう糖(国内製造), 砂糖, 水あめ, 還元水あめ, 濃縮ぶどう果汁/ガムベース, 酸味料, 香料, アントシアニン色素</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), ぶどう糖, 水あめ/ガムベース, 酸味料, 糊料(アラビアガム), 香料, 着色料(フラボノイド, アントシアニン), 光沢剤</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖(国内製造), もも果汁, 脱脂粉乳, 乳酸菌飲料, ピーチソース/酸味料, 安定剤(大豆多糖類), 香料, 甘味料(アスパルテーム, Lーフェニルアラニン化合物, アセスルファムK), ベニバナ黄色素, 野菜色素</t>
-  </si>
-  <si>
-    <t>砂糖, 粉末麦芽調製品(混合麦芽エキス, 砂糖, ココアパウダー, 脱脂粉乳, 植物油脂, 乳清カルシウム), モルトエキス, ココアパウダー, 脱脂粉乳, 乳化剤, 炭酸カルシウム, 炭酸マグネシウム, ビタミンC, ビタミンD, pH調整剤, ピロリン酸鉄, レシチン(大豆由来), ナイアシン, ビタミンB1, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンA</t>
-  </si>
-  <si>
-    <t>ぶどう糖, 砂糖, でん粉, ゼラチン, 酸味料, 乳化剤, 光沢剤, 香料, 着色料(クチナシ, 野菜色素, カロチノイド), 糊料(アラビアガム)</t>
-  </si>
-  <si>
-    <t>米めん(ベトナム製造(米, でん粉, 食塩)), スープ(食塩, 砂糖, 鶏油, 香味油, たん白加水分解物, 植物油脂, チキンエキス, 香辛料, 酵母エキス, チキン調味料, ネギエキス), かやく(大豆加工品, ねぎ, もやし, コリアンダー)/加工でん粉, 調味料(アミノ酸等), 酒精, 増粘剤(加工でん粉, 増粘多糖類), 香料, カラメル色素, 乳化剤, 酸味料, 酸化防止剤(ビタミンE), (一部に乳成分, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>米めん(ベトナム製造(米, でん粉, 食塩)), かやく入りスープ(食塩, チンゲン菜, 砂糖, トムヤムシーズニングパウダー, 大豆加工品, 香辛料, ねぎ, 酵母エキス, たん白加水分解物, 蝦醤, チキン調味料, エビエキス, コリアンダー, 唐辛子)/加工でん粉, 調味料(アミノ酸等), 酸味料, 香料, 微粒二酸化ケイ素, カロチノイド色素, 甘味料(スクラロース, アセスルファムK), 乳化剤, 増粘剤(グァーガム), (一部にえび, 大豆, 鶏肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>米めん(ベトナム製造(米, でん粉, 食塩)), スープ(たん白加水分解物, 糖類, 食塩, 香辛料, 牛脂, 発酵調味料, 植物油脂, 醸造酢, トマトケチャップ, ビーフエキス, 香味油, 酵母エキス), かやく(大豆加工品, ねぎ, 唐辛子)/加工でん粉, 調味料(アミノ酸等), 酒精, 香料, 香辛料抽出物, 増粘多糖類, カラメル色素, 乳化剤, 酸味料, 甘味料(スクラロース, アセスルファムK), 酸化防止剤(ビタミンE), (一部にえび, 牛肉, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), ショートニング, 砂糖, チョコレートチップ, でん粉, 鶏卵, ココアパウダー, 食塩, スパイス/膨張剤, 乳化剤, 香料, カロテン色素, (一部に小麦, 卵, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>果実(りんご, オレンジ, グァバ, パインアップル, パッションフルーツ), 砂糖類(砂糖, ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒石酸塩, 植物油, 塩化Na, ガラナ種子エキス/炭酸, クエン酸, 香料, 保存料(安息香酸Na), Lーアルギニン, クエン酸Na, カフェイン, 甘味料(スクラロース), ナイアシン, イノシトール, ビタミンB6, ビタミンB2, 着色料(βーカロテン), ビタミンB12</t>
-  </si>
-  <si>
-    <t>砂糖類(砂糖(国内製造), ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒石酸塩, 塩化Na, ガラナ種子エキス/炭酸, リン酸, クエン酸Na, カラメル色素, クエン酸, 保存料(安息香酸Na), 香料, Lーアルギニン, カフェイン, ナイアシン, 甘味料(スクラロース), イノシトール, ビタミンB6, ビタミンB2, ビタミンB12</t>
-  </si>
-  <si>
-    <t>砂糖類(砂糖, ぶどう糖), 高麗人参根エキス, L‐カルニチンL‐酒石酸塩, 塩化Na, ガラナ種子エキス, クエン酸, 香料, 甘味料(D‐リボース, スクラロース), L‐アルギニン, クエン酸Na, カフェイン, 保存料(安息香酸), ナイアシン, 着色料(アントシアニン), イノシトール, V.B6, V.B2, V.B12</t>
-  </si>
-  <si>
-    <t>果実(りんご, オレンジ, もも, タンジェリン, パインアップル, ぶどう), 砂糖類(砂糖, ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒石酸塩, 塩化Na, ガラナ種子エキス, クエン酸, 香料, 炭酸ガス, 甘味料(Dーリボース, スクラロース), Lーアルギニン, カフェイン, クエン酸Na, 着色料(βーカロチン, アントシアニン), ナイアシン, イノシトール, V.B6, V.B2, V.B12</t>
-  </si>
-  <si>
-    <t>牛乳(国内製造), 砂糖, コーヒー, 脱脂粉乳, 全粉乳, デキストリン/乳化剤, 香料, セルロース</t>
-  </si>
-  <si>
-    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 香味油, 砂糖, ぶどう糖, ブラックペパー, でん粉, 粉末しょうゆ(小麦, 大豆を含む), 食塩, オニオン, 魚介エキスパウダー, 酵母エキスパウダー/調味料(アミノ酸等), 香辛料抽出物, 香料</t>
-  </si>
-  <si>
-    <t>生地(国内製造)(小麦粉, でん粉, ほたてエキスパウダー, えびパウダー, あさりエキスパウダー, 砂糖, 粉末しょうゆ, 植物油, しじみペーストパウダー, かきエキスパウダー), 植物油, デキストリン, ぶどう糖, あさりエキスパウダー, 粉末しょうゆ, いわしエキスパウダー, 酒粕パウダー, 食塩, 唐辛子, 乳糖/加工デンプン, トレハロース, 調味料(アミノ酸等), 酸味料, 香料, (一部に乳成分, 小麦, えび, かに, さば, 大豆, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>コーングリッツ(遺伝子組換えでない), 砂糖, 植物油脂, マーガリン, ココアパウダー, 加糖れん乳, カラメルソース, 食塩, クリーム(乳製品), 発酵風味パウダー, 乳糖, カカオマス, 全粉乳, たんぱく加水分解物, クリーム粉末, カラメル色素, 卵殻未焼成Ca, 香料, 乳化剤, トレハロース, (原材料の一部に小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>砂糖, 植物油脂, コーングリッツ(遺伝子組換えでない), パン粉, マーガリン, ココアパウダー, 加糖れん乳, カラメルソース, 食塩, クリーム(乳製品), 発酵風味パウダー, 乳糖, カカオマス, 全粉乳, クリーム粉末, 卵殻未焼成Ca, カラメル色素, 香料, 乳化剤, トレハロース, (原材料の一部に大豆を含む)</t>
-  </si>
-  <si>
-    <t>コーングリッツ(国内製造), 砂糖, 植物油脂, マーガリン, 加糖れん乳, 食塩, ハチミツ, バター/ソルビトール, 未焼成Ca, 香料, 乳化剤, 甘味料(アドバンテーム), カロチノイド色素, (一部に乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>乾燥ポテト(遺伝子組換えでない), 植物油脂, コーンパウダー(遺伝子組換えでない), 砂糖, ショートニング, 澱粉, 食塩, チーズパウダー, バターパウダー, ブドウ糖, 発酵調味パウダー, 酵母エキスパウダー, オニオンパウダー, ほうれん草パウダー, デキストリン, キャロットエキスパウダー, 小麦粉, キャベツパウダー, 粉末醤油, チキンエキスパウダー/加工澱粉, トレハロース, 乳化剤, 塩化Ca, 調味料(アミノ酸等), 炭酸Ca, 乳酸Ca, 香料, カラメル色素, カロチノイド色素, (一部に乳成分, 小麦, 大豆, 鶏肉を含む)</t>
-  </si>
-  <si>
-    <t>乾燥ポテト(外国製造), 植物油脂, サワークリームオニオン風味パウダー(食塩, ホエイパウダー(乳製品), 砂糖, オニオンパウダー, 粉末酢, たんぱく加水分解物, ねぎエキスパウダー, デキストリン, 酵母エキスパウダー), 食塩, オニオンパウダー, 粉末油脂, 砂糖, 澱粉/加工澱粉, トレハロース, 調味料(アミノ酸等), 増粘剤(カードラン), 酸味料, 香料, 炭酸Ca, 香辛料抽出物, 甘味料(スクラロース, ステビア), 酸化防止剤(ビタミンE), (一部に乳成分を含む)</t>
-  </si>
-  <si>
-    <t>乾燥ポテト(外国製造), 植物油脂, 食塩, 砂糖, ポテト風味パウダー(デキストリン, 食塩, ポテトパウダー, 醤油風味調味料, 酵母エキスパウダー, 粉末香味油, ビーフ風味パウダー, 香味油), ブドウ糖, 粉末油脂, ビーフ風味パウダー(ビーフエキスパウダー, 食塩, たんぱく加水分解物, ビーフ風味調味料, 乳糖, 野菜エキスパウダー, 香辛料), 澱粉, 酵母エキスパウダー/加工澱粉, トレハロース, 調味料(アミノ酸等), 増粘剤(カードラン), 炭酸Ca, 香料, 甘味料(スクラロース), 酸化防止剤(ビタミンE), 酸味料, (一部に乳成分, 小麦, 牛肉, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>乾燥ポテト(外国製造), 植物油脂, コーングリッツ, 小麦粉, 粉末油脂, 食塩, 砂糖, ポテト風味パウダー(デキストリン, 食塩, ポテトパウダー, 醤油風味調味料, 酵母エキスパウダー, 粉末香味油, ビーフ風味パウダー, 香味油), ブドウ糖, ビーフオイル, 澱粉, 酵母エキスパウダー/トレハロース, セルロース, 調味料(アミノ酸等), 香料, 卵殻Ca, 増粘剤(カードラン), 乳化剤, 炭酸Ca, 酸味料, (一部に卵, 乳成分, 小麦, 牛肉, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>コーングリッツ(国内製造), 植物油脂, 砂糖, マーガリン, 加糖れん乳, 食塩, 卵黄粉末/ソルビトール, 香料, 卵殻Ca, 乳化剤, 甘味料(スクラロース), カロチノイド色素, (一部に卵, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉, 砂糖, 植物油脂, 全粉乳, ココアバター, ライ麦粉, ショートニング, 脱脂粉乳, 麦芽エキス, いちごパウダー, バター風味調味料, 練乳加工品, カラメルソース, 食塩, 乳化剤, 膨脹剤, 香料, 着色料(ビートレッド, カラメル), 酸味料, (一部に小麦, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖, 香料, 酸味料</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), ぶどう糖, 水飴, でん粉, ピーチ果汁/ガムベース, 酸味料, 軟化剤, 香料, 着色料(カラメル, アントシアニン, 紅花黄, クチナシ)</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), ぶどう糖, 水飴, でん粉/ガムベース, 酸味料, 軟化剤, 香料, 着色料(クチナシ)</t>
-  </si>
-  <si>
-    <t>〈グレープ〉砂糖(国内製造), 水あめ, グレープペースト/酸味料, 香料, 着色料(アントシアニン, クチナシ), チャ抽出物〈オレンジ〉砂糖(国内製造), 水あめ, オレンジペースト/酸味料, 香料, 着色料(カロテノイド), チャ抽出物〈ストロベリー〉砂糖(国内製造), 水あめ, ストロベリーペースト/酸味料, 香料, 着色料(アントシアニン, カロテノイド), チャ抽出物〈メロン〉砂糖(国内製造), 水あめ, 濃縮メロン果汁/酸味料, 着色料(紅麹, クチナシ), 香料, チャ抽出物</t>
-  </si>
-  <si>
-    <t>アンパンマン:砂糖, 全粉乳, 植物油脂, カカオマス, ココアバター, 乳糖, 脱脂粉乳, 乳化剤(大豆由来), 香料。ばいきんまん:砂糖, 植物油脂, 全粉乳, ココアバター, カカオマス, 乳糖, 脱脂粉乳, 乳化剤(大豆由来), 野菜色素, 香料。ドキンちゃん:砂糖, 植物油脂, 全粉乳, ココアバター, カカオマス, 乳糖, 脱脂粉乳, 乳化剤(大豆由来), 野菜色素, 香料</t>
-  </si>
-  <si>
-    <t>ビスケット(小麦粉, 砂糖, 植物油脂, その他:乳を含む), 砂糖, カカオマス, 全粉乳, 植物油脂, ココアバター, 水あめ, 膨脹剤, 乳化剤(大豆由来), 光沢剤, 卵殻カルシウム, 香料</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造又は国内製造), 全粉乳, 植物油脂, カカオマス, ココアバター, 乳糖, 脱脂粉乳, 油脂加工品/乳化剤(大豆由来), 野菜色素, 香料(乳, 大豆由来)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, 植物油脂, チョコレートチップ(乳成分を含む), 還元水あめ, 白ねりあん(乳成分を含む), 卵, 全脂大豆粉, カカオマス, 水あめ, 脱脂粉乳, 食塩, 卵黄(卵を含む), 全粉乳/加工デンプン, 乳化剤(乳, 大豆由来), 香料(乳, 大豆由来), 安定剤(加工デンプン), 膨脹剤, カラメル色素</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, 植物油脂, バター, 全粉乳, 発酵種(小麦を含む), 食塩, 乳等を主原料とする食品/乳化剤(小麦, 大豆由来), 香料(乳, 大豆由来), カロテノイド色素</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, カカオマス, 全粉乳, 植物油脂, ショートニング, マーガリン(乳成分を含む), 乳糖, バター, ココアバター, 脱脂粉乳, 加糖練乳, 液全卵, うるちひえパフ, ごま, ぶどう糖, 食塩, 乾燥卵白(卵を含む)/リン酸Ca, 乳化剤(大豆由来), 膨脹剤, 香料(乳由来), 着色料(カロテノイド), ビタミンD</t>
-  </si>
-  <si>
-    <t>うるち米粉(国産, タイ産), 植物油脂, 砂糖, チーズ粉末, 食塩, たまねぎ粉末, トマト粉末, にんにく粉末, 酵母エキス粉末, バジル粉末, たんぱく加水分解物(大豆を含む), チキンエキス粉末, 唐辛子粉末, 白こしょう粉末, 大豆たんぱく, 黒こしょう粉末, 香味油(小麦, 大豆を含む)/加工デンプン, 調味料(アミノ酸等), 香料(乳, 小麦, 大豆, 鶏肉由来), 乳化剤(大豆由来), 酸味料, 酸化防止剤(ビタミンE), 着色料(カロテノイド), 微粒酸化ケイ素, 香辛料抽出物, リン酸三カルシウム</t>
-  </si>
-  <si>
-    <t>○ソーダ味:砂糖(国内製造), 水飴(国内製造)/酸味料, 香料, 着色料(クチナシ, 紅花黄)○オレンジ味:砂糖(国内製造), 水飴(国内製造)/酸味料, 香料, カロテノイド色素○グレープ味:砂糖(国内製造), 水飴(国内製造), 濃縮グレープ果汁/酸味料, 香料, 野菜色素, クチナシ色素○コーラ味:砂糖(国内製造), 水飴(国内製造)/酸味料, カラメル色素, 香料</t>
-  </si>
-  <si>
-    <t>水飴(国内製造), 砂糖, ゼラチン, 粉末オブラート/ソルビット, 酸味料, 糊料(ペクチン), 光沢剤, 香料, 乳化剤, 着色料(クチナシ, 野菜色素, 紅花黄, パプリカ色素)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 植物油脂, しょうゆ, 砂糖, 食塩, チキンエキス, たんぱく加水分解物, ミート調味エキス, ミート調味パウダー, 酵母エキスパウダー, ポークパウダー, 魚介パウダー/加工デンプン, 調味料(アミノ酸等), 炭酸Ca, 酸化防止剤(ビタミンE), (一部に小麦, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 植物油脂, ソース(砂糖, 野菜, 果実, 醸造酢, 食塩, アミノ酸液, その他), 砂糖, 食塩, ソース風味パウダー, 香辛料, アオサ粉, 野菜パウダー, ミート調味エキス, 野菜エキス, 魚介エキス, 魚醤パウダー(魚介類)/加工デンプン, 調味料(アミノ酸等), 炭酸Ca, 香料, カラメル色素, 乳化剤, 酸味料, 酸化防止剤(ビタミンE), 香辛料抽出物, (一部に小麦, 卵, 乳成分, 魚醤パウダー(魚介類), 牛肉, さば, 大豆, 鶏肉, 豚肉, もも, りんごを含む)</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖(国内製造)/炭酸, 酸味料, 香料</t>
+    <t>砂糖(国内製造), 澱粉, デキストリン, 梅/酸味料, 増粘剤(アラビアガム), 香料</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造, 国内製造), 水飴, マルトース, ゼラチン, 濃縮パイナップル果汁, 植物油脂</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造, タイ製造), 小麦粉, ココアバター, 液卵白(卵を含む), ショートニング, 全粉乳, 植物油脂, 乳糖, マーガリン, ホエイパウダー(乳成分を含む), ココアパウダー, バナナ粉末, 食塩, 水飴/乳化剤(大豆由来), 香料(大豆由来), 着色料(カロテノイド), 膨脹剤</t>
+  </si>
+  <si>
+    <t>でん粉(国内製造), うるち米(国産), もち米(タイ産), 植物油脂(ごま, 大豆を含む), カシューナッツ, 砂糖, ぶどう糖, 小麦粉, 食塩, 粉末しょうゆ(小麦, 大豆を含む), たんぱく加水分解物(大豆を含む), デキストリン, 昆布エキス粉末/加工デンプン, 調味料(アミノ酸等), ソルビトール, 微粒酸化ケイ素, 膨脹剤, 着色料(カロテノイド), 酸味料, 甘味料(アセスルファムK, スクラロース), 酸化防止剤(ビタミンE)</t>
+  </si>
+  <si>
+    <t>でん粉(国内製造), うるち米(国産), もち米(タイ産), 植物油脂, 砂糖, カシューナッツ, ピーナッツバター, ぶどう糖, 小麦粉, 食塩, たんぱく加水分解物(大豆, ゼラチンを含む), デキストリン/加工デンプン, ソルビトール, 調味料(アミノ酸等), 乳化剤(大豆由来), 香料(乳由来), 膨脹剤, 着色料(カロテノイド), 甘味料(アセスルファムK, スクラロース), 酸味料, 酸化防止剤(ビタミンE)</t>
+  </si>
+  <si>
+    <t>大豆たんぱく(国内製造), 砂糖, ショートニング, 小麦たんぱく, ファットスプレッド(乳成分を含む), 大豆パフ, 水飴, ココアパウダー, 液卵黄(卵を含む), カカオマス, 植物油脂, 全粉乳, 乳糖, ぶどう糖, 食塩/ソルビトール, グリセリン, 炭酸Ca, 乳化剤(大豆由来), ロイシン, トレハロース, バリン, イソロイシン, 香料(乳由来), V.E, ナイアシン, パントテン酸Ca, ピロリン酸第二鉄, V.B1, V.B2, V.B6, V.A, 葉酸, 着色料(アナトー), V.D, V.B12</t>
+  </si>
+  <si>
+    <t>大豆たんぱく(国内製造), ショートニング, 砂糖, 小麦たんぱく, 大豆パフ, ファットスプレッド(乳成分を含む), キャラメル(乳等を主要原料とする食品, 水飴, 砂糖), 液卵黄(卵を含む), 植物油脂, 全粉乳, 乳糖, カカオマス, ぶどう糖, ココアパウダー, 食塩/ソルビトール, グリセリン, 炭酸Ca, 着色料(カラメル, アナトー), 乳化剤(大豆由来), ロイシン, トレハロース, バリン, イソロイシン, 香料(乳由来), V.E, ナイアシン, ピロリン酸第二鉄, パントテン酸Ca, V.B1, V.B2, V.B6, V.A, 葉酸, V.D, V.B12</t>
+  </si>
+  <si>
+    <t>Sugar, whole milk powder, cocoa butter, cacao mass, vegetable oils and fats, skim milk powder, emulsifiers, flavoring, red beet coloring, (some parts of the raw materials may contain soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, lactose, cocoa butter, whole milk powder, vegetable oils and fats, shortening, matcha, wheat protein, salt, yeast/emulsifiers, flavoring, seasoning (inorganic salts), swelling agent, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour, sugar, cacao mass, vegetable oils and fats, whole milk powder, shortening, malt extract, starch, salt, yeast, cocoa butter, butter, emulsifiers, flavoring, swelling agent, annatto pigment, seasoning (inorganic salts), (some parts of the raw materials may contain soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, whole milk powder, cacao mass, vegetable oils and fats, whole-wheat flour, cocoa butter, shortening, malt extract, wheat protein, salt, fermented butter, wheat germ, yeast/modified starches, emulsifiers, flavoring, swelling agent, antioxidant (yamamomo extract), (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, vegetable oils and fats, lactose, whole milk powder, strawberry powder, whole-wheat flour, cocoa powder, shortening, wheat protein, inulin, salt, yeast, caramel powder/flavoring, red beet coloring, emulsifiers, seasoning (inorganic salts), swelling agent, acidulant, V. C, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, almond, whole milk powder, vegetable oils and fats, cacao mass, cocoa butter, whole-wheat flour, shortening, almond praline paste, wheat protein, salt, yeast/emulsifiers, flavoring, swelling agent, (some parts of the raw materials may contain dairies, wheat, soybeans, contains almonds)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, coconut, whole milk powder, vegetable oils and fats, cocoa butter, cacao mass, whole-wheat flour, shortening, salt, wheat protein, yeast/emulsifiers, flavoring, swelling agent, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, lactose, cocoa butter, whole milk powder, whole-wheat flour, vegetable oils and fats, shortening, wheat protein, processed butter, salt, yeast, rock salt, vanilla beans seed/emulsifiers, flavoring, seasoning (inorganic salts), (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour, vegetable oils and fats, sweetened condensed milk, sugar, shortening, yeast, salt, processed butter, yeast extract, calcium carbonate, seasoning (inorganic salt etc. ), emulsifiers, sweetener (sucralose), (some parts of the raw materials may contain soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, shortening, sugar, starch, dried potato, vegetable paste, bouillon mixture, yeast, wheat protein, salt, wine lees, consomme seasoning, flavor oils, pepper/seasoning (inorganic salt etc. ), modified starches, emulsifiers, flavoring, acidulant, (some parts of the raw materials may contain dairies, contains wheat)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, shortening, sugar, tomato paste, starch, sake-brewed vinegar (tomato vinegar), yeast, vegetable paste, onion seasoning, salt, dried spinach, pepper/modified starches, seasoning (inorganic salt etc. ), flavoring, emulsifiers, acidulant, spice extracts, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, sugar, sweetened condensed milk, whole-wheat flour, shortening, starch, fermented butter, yeast, salt, processed butter, dried egg yolk/modified starches, seasoning (inorganic salts), flavoring, emulsifiers, (may contains egg, dairies, contains wheat)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, sugar, shortening, dried potato, yeast, salt, soy sauce seasoning, black pepper, lemon juice powder, yeast extract/modified starches, seasoning (such as amino acids), acidulant, emulsifiers, flavoring, (may contain wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, starch, dried potato, wheat protein, sugar, inulin, salt, powdered soy sauce, konbu extract powder, processed butter, butter, yeast extract, pepper, protein hydrolyzate/modified starches, seasoning (such as amino acids), emulsifiers, flavoring, coloring (carotenoids), (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, starch, sugar, wheat protein, pork extract, onion paste, salt, soy sauce seasoning, protein hydrolyzate, garlic powder, yeast extract, pepper, bacon extract/seasoning (such as amino acids), flavoring, emulsifiers, thickener (xanthan gum), coloring (annatto pigment, caramel), acidulant, liquid smoke, (some parts of the raw materials may contain dairies, wheat, soybeans, contains pork)</t>
   </si>
   <si>
     <t>Wheat flour (made domestically), vegetable oils and fats, starch, smoked cheese powder, sugar, wheat protein, salt, fermented seasoning, pepper, yeast extract, dextrin, maltose/seasoning (such as amino acids), flavoring, thickener (xanthan gum), emulsifiers, coloring (annatto pigment), acidulant, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
   </si>
   <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, starch, sugar, wheat protein, pork extract, onion paste, salt, soy sauce seasoning, protein hydrolyzate, garlic powder, yeast extract, pepper, bacon extract/seasoning (such as amino acids), flavoring, emulsifiers, thickener (xanthan gum), coloring (annatto pigment, caramel), acidulant, liquid smoke, (some parts of the raw materials may contain dairies, wheat, soybeans, contains pork)</t>
+    <t>Wheat flour (made domestically), vegetable oils and fats, starch, dried potato, wheat protein, sugar, inulin, salt, chicken extract powder, spices, soy sauce seasoning, herbal seasoning, garlic powder/modified starches, seasoning (such as amino acids), flavoring, emulsifiers, coloring (carotenoids), acidulant, (may contain wheat, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, starch, dried potato, wheat protein, sugar, inulin, salt, scallop seasoning, konbu extract powder, protein hydrolyzate, dashi powder, pepper/modified starches, seasoning (such as amino acids), flavoring, emulsifiers, coloring (carotenoids, caramel coloring), acidulant, (may contain wheat, squid, soybeans, contains gelatin)</t>
   </si>
   <si>
     <t>Wheat flour, vegetable oils and fats, shortening, sugar, salt, yeast, glucose-fructose syrup, malt extract, consomme seasoning, soy sauce seasoning, seasoning (inorganic salt etc. ), flavoring, (some parts of the raw materials may contain dairies, soybeans, contains chicken)</t>
   </si>
   <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, dried potato, starch, vegetable extract seasoning, salt, edamame powder/trehalose, seasoning (such as amino acids), flavoring, emulsifiers, gardenia pigment, acidulant, sweetener (sucralose), (some parts of the raw materials may contain dairies, wheat, soybeans, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Sugar (foreign or domestic manufacturing), wheat flour, vegetable oils and fats, whole milk powder, cacao mass, lactose, cocoa butter, shortening, cocoa powder, sweetened condensed skim milk, high-fructose corn syrup, fresh cream, salt/emulsifiers, swelling agent, flavoring, coloring (caramel), (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Glucose (made domestically), tapioca starch/acidulant, emulsifiers, flavoring, red cabbage dye</t>
-  </si>
-  <si>
-    <t>Syrup, sugar, vegetable oils and fats, gelatin, concentrated strawberry juice, sweetened condensed milk, strawberry jam, lactic fermenting beverage, acidulant, emulsifiers, flavoring, red cabbage dye</t>
-  </si>
-  <si>
-    <t>Sugar, syrup, vegetable oils and fats, ramune sweets (erythritol, polydextrose), gelatin, dextrin, concentrated lemon juice, acidulant, emulsifiers, flavoring, calcium stearate, safflower yellow coloring</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically, produced in Thailand), syrup, vegetable oils and fats, dextrin, gelatin, concentrated apple juice/acidulant, glycerin, flavoring, emulsifiers, safflower yellow coloring, gardenia blue pigment</t>
+    <t>Dried potato (not genetically modified), vegetable oils and fats, corn powder (not genetically modified), sugar, shortening, starch, salt, cheese powder, butter powder, glucose, fermented seasoning powder, yeast extract powder, onion powder, spinach powder, dextrin, carrot extract powder, wheat flour, cabbage powder, powdered soy sauce, chicken extract powder/modified starches, trehalose, emulsifiers, calcium chloride, seasoning (such as amino acids), calcium carbonate, lactic acid Ca, flavoring, caramel coloring, carotenoid pigment, (some parts of the raw materials may contain dairies, wheat, soybeans, contains chicken)</t>
+  </si>
+  <si>
+    <t>Sugar, vegetable oils and fats, corn grits (not genetically modified), bread crumbs, margarine, cocoa powder, sweetened condensed milk, caramel sauce, salt, cream (dairy products), fermentation flavor powder, lactose, cacao mass, whole milk powder, cream powder, calcium carbonate, caramel coloring, flavoring, emulsifiers, trehalose, (some parts of the raw materials may contain soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), corn grits, vegetable oils and fats, margarine, sweetened condensed milk, sugar mixed glucose fructose liquid sugar, salt, melon puree, quasi chocolate/calcium carbonate, flavoring, emulsifiers, pH regulator, gardenia pigment, sweetener (sucralose), carotenoid pigment, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Corn grits (not genetically modified), sugar, vegetable oils and fats, margarine, cocoa powder, sweetened condensed milk, caramel sauce, salt, cream (dairy products), fermentation flavor powder, lactose, cacao mass, whole milk powder, protein hydrolyzate, cream powder, caramel coloring, calcium carbonate, flavoring, emulsifiers, trehalose, (some parts of the raw materials may contain wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Glutinous rice (domestic product), soup base (soy sauce, sugar, salt, dried bonito extract, fermented seasoning, fish sauce, sake-brewed vinegar, kelp), maltose, mochi rice flour (Thailand product), fermented seasoning, starch, isomaltooligosaccharide, syrup, amino acid solution, chili pepper powder (habanero used)/trehalose, modified starches, seasoning (such as amino acids), acidulant, carotenoid pigment, sorbitol, (may contain wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), sugar, vegetable oils and fats, margarine, milk, cocoa powder, caramel sauce, salt, cacao mass, quasi chocolate/flavoring, caramel coloring, calcium carbonate, emulsifiers, sweetener (sucralose), trehalose, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, spices, vegetable powder, egg white), garnish (wonton, seasoned minced chicken), accompanying seasoning (chicken extract, spices, sugar, salt, vegetable powder, soy sauce, green onions, vegetable oils)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, lecithin, gardenia pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (chicken extract, soy sauce, salt, vegetable oils, fermented seasoning, sugar, vegetable extract, seaweed extract, spices, yeast extract, chicken fat, lard, seafood extract), garnish (wonton, eggs)/modified starches, seasoning (such as amino acids), alcohol, calcium carbonate, brine, antioxidant (Vitamin C, vitamin E), lecithin, gardenia pigment, caramel coloring, thickening polysaccharides, carotene dye, vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (soy sauce, pork extract, salt, lard, starch, vegetable oils, flavoring oil, sugar, hydrolyzed protein, spices, green onions, niboshi powder), garnish (roasted pork, naruto), modified starches, seasoning (such as amino acids), calcium carbonate, thickening polysaccharides, alcohol, brine, lecithin, antioxidant (vitamin E, Vitamin C), gardenia pigment, pH regulator, caramel coloring, flavoring, monascus pigment, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, chicken, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (miso, pork extract, soy sauce, flavoring oil, lard, spices, vegetable oils, sugar, salt, hydrolyzed protein, yeast extract, green onions, fermented seasoning), garnish (corn, seasoned minced chicken), modified starches, seasoning (such as amino acids), caramel coloring, alcohol, calcium carbonate, brine, lecithin, antioxidant (vitamin E), gardenia pigment, flavoring, spice extracts, pH regulator, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, sesame seeds, contains gelatin)</t>
   </si>
   <si>
     <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (soy sauce, salt, chicken extract, lard, sugar, flavoring oil, hydrolyzed protein, vegetable oils, vegetable powder, pork extract, spices, green onions, yeast extract, fermented seasoning), garnish (wonton, seasoned minced chicken, corn), modified starches, seasoning (such as amino acids), caramel coloring, calcium carbonate, alcohol, brine, lecithin, antioxidant (vitamin E), gardenia pigment, thickening polysaccharides, flavoring, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, sesame seeds, contains gelatin)</t>
   </si>
   <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (miso, pork extract, soy sauce, flavoring oil, lard, spices, vegetable oils, sugar, salt, hydrolyzed protein, yeast extract, green onions, fermented seasoning), garnish (corn, seasoned minced chicken), modified starches, seasoning (such as amino acids), caramel coloring, alcohol, calcium carbonate, brine, lecithin, antioxidant (vitamin E), gardenia pigment, flavoring, spice extracts, pH regulator, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, sesame seeds, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (soy sauce, pork extract, salt, lard, starch, vegetable oils, flavoring oil, sugar, hydrolyzed protein, spices, green onions, niboshi powder), garnish (roasted pork, naruto), modified starches, seasoning (such as amino acids), calcium carbonate, thickening polysaccharides, alcohol, brine, lecithin, antioxidant (vitamin E, Vitamin C), gardenia pigment, pH regulator, caramel coloring, flavoring, monascus pigment, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, chicken, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (chicken extract, soy sauce, salt, vegetable oils, fermented seasoning, sugar, vegetable extract, seaweed extract, spices, yeast extract, chicken fat, lard, seafood extract), garnish (wonton, eggs)/modified starches, seasoning (such as amino acids), alcohol, calcium carbonate, brine, antioxidant (Vitamin C, vitamin E), lecithin, gardenia pigment, caramel coloring, thickening polysaccharides, carotene dye, vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, spices, vegetable powder, egg white), garnish (wonton, seasoned minced chicken), accompanying seasoning (chicken extract, spices, sugar, salt, vegetable powder, soy sauce, green onions, vegetable oils)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, lecithin, gardenia pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
     <t>Noodles (wheat flour (made domestically), salt, vegetable oils and fats, vegetable protein, egg white), accompanying seasoning (soy sauce, chicken extract, salt, vegetable oils, chicken fat, pork extract, spices, sugar, vegetable extract, fermented seasoning, hydrolyzed protein, yeast extract, meat flavored powder, flavoring oil)/modified starches, seasoning (such as amino acids), trehalose, brine, alcohol, calcium carbonate, lecithin, antioxidant (Vitamin C, vitamin E), caramel coloring, gardenia pigment, thickening polysaccharides, flavoring, sweetener (licorice), spice extracts, (may contain wheat, eggs, dairies, soybeans, chicken, pork, contains gelatin)</t>
   </si>
   <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, purified lard, salt, vegetable protein), accompanying seasoning (salt, spices, chicken extract, soy sauce, yeast extract, sugar, vegetable oils)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, antioxidant (vitamin E), acidulant, gardenia pigment, (may contain wheat, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
     <t>Noodles (wheat flour (made domestically), salt, vegetable protein, vegetable oils and fats, egg white), accompanying seasoning (pork extract, soy sauce, chicken fat, salt, starch, sugar, spices, hydrolyzed protein, vegetable extract, vegetable oils)/modified starches, seasoning (such as amino acids), trehalose, brine, caramel coloring, calcium carbonate, thickening polysaccharides, alcohol, lecithin, antioxidant (vitamin E), gardenia pigment, (may contain wheat, eggs, dairies, soybeans, chicken, pork, contains gelatin)</t>
   </si>
   <si>
     <t>Noodles (wheat flour (made domestically), vegetable oils and fats, salt, vegetable protein, egg white), accompanying seasoning (soy sauce, lard, seafood extract, salt, chicken extract, pork extract, flavoring oil, sugar, spices, yeast extract)/modified starches, seasoning (such as amino acids), trehalose, brine, alcohol, calcium carbonate, lecithin, antioxidant (Vitamin C, vitamin E), caramel coloring, gardenia pigment, thickening polysaccharides, flavoring, (may contain wheat, eggs, mackerel, soybeans, chicken, pork, contains gelatin)</t>
   </si>
   <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, purified lard, salt, vegetable protein), accompanying seasoning (salt, spices, chicken extract, soy sauce, yeast extract, sugar, vegetable oils)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, antioxidant (vitamin E), acidulant, gardenia pigment, (may contain wheat, soybeans, chicken, contains pork)</t>
+    <t>Noodles (wheat flour (made domestically), salt, vegetable protein, vegetable oils and fats, egg white), accompanying seasoning (miso, pork extract, salt, spices, flavoring oil, vegetable extract, vegetable oils, lard, sugar, fermented seasoning, date juice, hydrolyzed protein)/modified starches, seasoning (such as amino acids), trehalose, alcohol, brine, calcium carbonate, caramel coloring, lecithin, antioxidant (vitamin E), gardenia pigment, (may contain wheat, eggs, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
   </si>
   <si>
     <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, purified lard, salt), accompanying seasoning (salt, soy sauce, dextrin, chicken extract, pork extract, spices (black pepper, garlic powder))/modified starches, caramel coloring, calcium carbonate, seasoning (such as amino acids), brine, antioxidant (vitamin E), gardenia pigment, flavoring, spice extracts, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, contains pork)</t>
   </si>
   <si>
-    <t>Noodles (wheat flour (made domestically), salt, vegetable protein, vegetable oils and fats, egg white), accompanying seasoning (miso, pork extract, salt, spices, flavoring oil, vegetable extract, vegetable oils, lard, sugar, fermented seasoning, date juice, hydrolyzed protein)/modified starches, seasoning (such as amino acids), trehalose, alcohol, brine, calcium carbonate, caramel coloring, lecithin, antioxidant (vitamin E), gardenia pigment, (may contain wheat, eggs, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+    <t>Sugar (produced in Thailand), syrup, gelatin, edible oils/sweetener (sorbitol), acidulant, flavoring, gelling agent (pectin: derived from orange), coloring (Gardia jasminoides, vegetable coloring)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), soup (salt, lard, pork extract, spices (red pepper, garlic, pepper), dextrin, sugars, hydrolyzed protein, flavor oils, yeast extract, soy sauce, roasted onion powder, flavored seasoning), garnish (seasoned pork, eggs, garlic chives, red pepper)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, flavoring, thickening polysaccharides, sorbitol, glycerin, antioxidant (vitamin E), carotenoid pigment, acidulant, sweetener (sucralose), liquid smoke, vitamin B2, spice extracts, vitamin B1, (may contains egg, dairies, wheat, shrimp, soybeans, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, egg powder, soy sauce), soup (salt, lard, pork extract, spices, flavor oils, hydrolyzed protein, yeast extract, soy sauce, dextrin, sugars, roasted onion powder, flavored seasoning, vegetable oils and fats), garnish (eggs, pork, seasoned chicken meat, garlic chives)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, flavoring, thickening polysaccharides, sorbitol, glycerin, carotenoid pigment, fine silicon dioxide, emulsifiers, antioxidant (vitamin E), acidulant, sweetener (sucralose), spice extracts, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, onion powder), sauce (semi-solid dressing, soy sauce, sugars, lard, salt, pork extract, fish sauce, seafood extract, hydrolyzed protein, flavored seasoning, spices), garnish (cabbage), furikake (processed cod roe, seaweed, spices)/seasoning (such as amino acids), brine, calcium carbonate, caramel coloring, alcohol, flavoring, thickener (modified starches, xanthan gum), emulsifiers, acidulant, carotenoid pigment, monascus pigment, antioxidant (vitamin E), spice extracts, magnesium carbonate, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, squid, salmon, mackerel, soybeans, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, onion powder), sauce (pepper garlic mayonnaise, soy sauce, sugars, lard, vegetable oils and fats, salt, pork extract, flavor oils, hydrolyzed protein, flavored seasoning, spices, sake-brewed vinegar), garnish (cabbage), furikake (spices, sea lettuce, red pepper)/seasoning (such as amino acids), brine, calcium carbonate, alcohol, flavoring, thickener (xanthan gum), emulsifiers, acidulant, carotenoid pigment, antioxidant (vitamin E), caramel coloring, spice extracts, magnesium carbonate, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, sesame seeds, soybeans, chicken, contains pork)</t>
   </si>
   <si>
     <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, sauce, sugars), sauce (sauce, mustard mayonnaise, sugars, vegetable oils and fats, salt, flavor oils, hydrolyzed protein, processed sauce, flavored seasoning, pork extract, spices, sake-brewed vinegar), garnish (cabbage), furikake (processed sauce, mayonnaise sauce flakes, sea lettuce, red pickled ginger)/caramel coloring, seasoning (such as amino acids), calcium carbonate, brine, acidulant, emulsifiers, flavoring, spice extracts, antioxidant (vitamin E), magnesium carbonate, carotenoid pigment, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, orange, sesame seeds, soybeans, pork, contains apple)</t>
   </si>
   <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, scallop extract, milk protein), soup (salt, pork extract, spices, hydrolyzed protein, sugars, flavored seasoning, yeast extract, soy sauce, roasted onion powder)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, magnesium carbonate, thickening polysaccharides, flavoring, antioxidant (vitamin E), carotenoid pigment, acidulant, sweetener (sucralose), vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, egg powder, soy sauce), soup (salt, lard, pork extract, spices, flavor oils, hydrolyzed protein, yeast extract, soy sauce, dextrin, sugars, roasted onion powder, flavored seasoning, vegetable oils and fats), garnish (eggs, pork, seasoned chicken meat, garlic chives)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, flavoring, thickening polysaccharides, sorbitol, glycerin, carotenoid pigment, fine silicon dioxide, emulsifiers, antioxidant (vitamin E), acidulant, sweetener (sucralose), spice extracts, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), soup (salt, pork extract, spices, tomato paste, dextrin, sugars, soy sauce, hydrolyzed protein, yeast extract, roasted onion powder, sake-brewed vinegar, lard, flavored seasoning), garnish (pork, seasoned chicken meat, eggs, garlic chives, red pepper)/modified starches, seasoning (such as amino acids), caramel coloring, calcium carbonate, brine, thickening polysaccharides, sorbitol, alcohol, flavoring, glycerin, carotenoid pigment, antioxidant (vitamin E), acidulant, sweetener (sucralose), vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, onion powder), sauce (pepper garlic mayonnaise, soy sauce, sugars, lard, vegetable oils and fats, salt, pork extract, flavor oils, hydrolyzed protein, flavored seasoning, spices, sake-brewed vinegar), garnish (cabbage), furikake (spices, sea lettuce, red pepper)/seasoning (such as amino acids), brine, calcium carbonate, alcohol, flavoring, thickener (xanthan gum), emulsifiers, acidulant, carotenoid pigment, antioxidant (vitamin E), caramel coloring, spice extracts, magnesium carbonate, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, onion powder), sauce (semi-solid dressing, soy sauce, sugars, lard, salt, pork extract, fish sauce, seafood extract, hydrolyzed protein, flavored seasoning, spices), garnish (cabbage), furikake (processed cod roe, seaweed, spices)/seasoning (such as amino acids), brine, calcium carbonate, caramel coloring, alcohol, flavoring, thickener (modified starches, xanthan gum), emulsifiers, acidulant, carotenoid pigment, monascus pigment, antioxidant (vitamin E), spice extracts, magnesium carbonate, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, squid, salmon, mackerel, soybeans, contains pork)</t>
-  </si>
-  <si>
-    <t>Sugar, maltose, gelatin, concentrated apple juice, salt, other</t>
-  </si>
-  <si>
-    <t>Noodles[rice flour (domestic), potato starch/modified starches, alginate ester, vitamin B2], soup[miso, soy sauce, vegetable oils and fats, fermented seasoning, garlic, sugar, salt, crushed sesame seeds, hydrolyzed protein, yeast extract, spices/alcohol, caramel coloring, seasoning (organic acid etc. ), acidulant, (some parts may contain soybean, contains sesame]</t>
-  </si>
-  <si>
-    <t>Noodles[rice flour (domestic), potato starch/modified starches, alginate ester, vitamin B2], soup[creaming powder, fermented seasoning, salt, hydrolyzed protein, soy sauce, vegetable oils and fats, sugar, yeast extract, chinese cabbage extract powder, garlic powder, sake-brewed vinegar, spices/caramel coloring, thickener (guar gum), seasoning (organic acid etc. ), (may contains milk, contains soybeans]</t>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, egg powder, soy sauce), soup (salt, chicken extract, hydrolyzed protein, spices, yeast extract, green onions, roasted onion powder, dried bonito powder, flavored seasoning, vegetable oils and fats)/modified starches, seasoning (such as amino acids), calcium carbonate, brine, flavoring, thickening polysaccharides, emulsifiers, antioxidant (vitamin E), carotenoid pigment, sweetener (sucralose), vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, soybeans, chicken, pork, contains gelatin)</t>
   </si>
   <si>
     <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), sauce (sugar, salt, sauce, spices, dextrin, hydrolyzed protein), garnish (cabbage)/modified starches, seasoning (such as amino acids), caramel coloring, calcium carbonate, brine, acidulant, thickening polysaccharides, magnesium carbonate, antioxidant (vitamin E), flavoring, vitamin B2, vitamin B1, (may contain wheat, soybeans, contains sesame)</t>
   </si>
   <si>
-    <t>Chocolate (lactose, cocoa butter, sugar, vegetable oils and fats, whole milk powder, dried strawberries), wafers (wheat flour, sugar, starch, vegetable oils and fats, salt)/modified starches, flavoring, emulsifiers (soybean-derived), coloring (red beet, red yeast)shellfish calcium, swelling agent, acidulant</t>
-  </si>
-  <si>
-    <t>Chocolate (sugar, whole milk powder, vegetable oils and fats, cocoa butter, cacao mass, lactose), wafers (wheat flour, sugar, starch, vegetable oils and fats, salt)/modified starches, emulsifiers (soybean-derived)shellfish calcium, flavoring, coloring (caramel), swelling agent</t>
-  </si>
-  <si>
-    <t>Wheat flour, shortening, sugar, whole grain flour, lactose, food made mainly from teat, dried whole egg, starch, salt, swelling agent, flavoring, emulsifiers</t>
-  </si>
-  <si>
-    <t>Wheat flour, shortening, sugar, cocoa powder, lactose, foods made mainly from lactose, dried whole egg, starch, salt, calcium carbonate swelling agent, flavoring, emulsifiers</t>
-  </si>
-  <si>
-    <t>Syrup, sugar, starch, mochi flour, vegetable oils, sorbitol, emulsifiers, flavoring, acidulant, coloring (blue 1, Yellow 4, red 2)</t>
-  </si>
-  <si>
-    <t>Syrup, sugar, starch, mochi flour, vegetable oils, sorbitol, emulsifiers, flavoring, acidulant, coloring (red 106)</t>
-  </si>
-  <si>
-    <t>Vegetables (potato (domestic), carrots, corn), soybean oil, pork, flour roux, sauteed onion, sugar, curry powder, extract (pork, yeast), soy sauce, tomato paste, salt, chicken extract seasoning, milpowa paste, cheese powder, yeast extract powder/thickener (modified starches), seasoning (such as amino acids), cellulose, (some parts of the raw materials may contain dairies, wheat, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>欄外裏面に記載[egg]wheat flour (made domestically), roasted sesame, lactose, sugar, egg yolk powder, salt, processed oils and fats, crushed sesame seeds, processed soybean, bonito flakes, bean jam, reduced starch syrup, extract (chicken, yeast, dried bonito, seafood), chicken powder, miso, seaweed calcium, seaweed, soy sauce, chicken fat, dairy products, high-fructose corn syrup sugar, yeast, mirin, sea lettuce, matcha, dextrin/seasoning (amino acids), eggshell calcium, antioxidant (vitamin E), carotenoid pigment, flavoring, (may contains egg, dairies, wheat, sesame seeds, soybeans, contains chicken)[salmon]roasted sesame (made domestically), lactose, processed soybean, sugar, salt, wheat flour, processed oils and fats, salmon, crushed sesame seeds, egg yolk powder, reduced starch syrup, bean jam, seaweed calcium, extract (chicken, yeast), chicken powder, miso, flavor oils, seaweed, chicken fat, soy sauce, dairy products, high-fructose corn syrup sugar, yeast/seasoning (such as amino acids), eggshell calcium, coloring (red yeast, carotenoids), antioxidant (vitamin E), flavoring, (may contains egg, dairies, wheat, sesame seeds, salmon, soybeans, contains chicken)[okaka]roasted sesame (made domestically), lactose, bonito flakes, sugar, salt, wheat flour, crushed sesame seeds, processed oils and fats, soy sauce, reduced starch syrup, processed soybean, egg yolk powder, dried bonito powder, extract (chicken, dried bonito, yeast</t>
-  </si>
-  <si>
-    <t>Sweet corn powder (produced in America), starch, sugar, dextrin, salt, whole milk powder, lactose, skim milk powder, extract (chicken, yeast, onion), floating garnish (cracker)/seasoning (amino acids), swelling agent, cacao dye, (some parts of the raw materials may contain dairies, wheat, contains chicken)</t>
-  </si>
-  <si>
-    <t>Vegetables (potato (domestic), carrots), sauteed onion, pork, sugar, extract (pork, yeast), curry powder, tomato paste, potato powder, salt, rapeseed oil, pumpkin paste, spinach paste, corn paste/thickener (modified starches), (may contains some pork)</t>
-  </si>
-  <si>
-    <t>Vegetables (potato, carrots, corn, onion, pumpkin, green asparagus), pork, wheat flour, margarine, honey, sugar, curry powder, salt, extract (pork, yeast), lard, tomato paste, cheese, corn oil, thickener (modified starches), seasoning (amino acids), cellulose, (some parts of the raw materials may contain soybeans)</t>
-  </si>
-  <si>
-    <t>Chicken (domestic), chicken's egg, onion, sugar, fermented seasoning, salt, soy sauce, extract (chicken, yeast), dried bonito powder, chicken fat/thickener (modified starches, xanthan), seasoning (such as amino acids), trehalose, carotenoid pigment, (may contains egg, wheat, soybeans, contains chicken)</t>
-  </si>
-  <si>
-    <t>Tomato paste (produced in Portugal), sugar, milpowa paste, worcestershire sauce, apple paste, flour roux, sauteed onion, chicken extract, soybean oil, salt, granular vegetable protein, beef, yeast extract powder, pumpkin paste, green asparagus paste, corn paste/thickener (modified starches), seasoning (amino acids), caramel coloring, (may contain wheat, beef, soybeans, chicken, contains apple)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), margarine, sugar, whole-wheat flour, fermented flavor liquid, salt, sterilized lactic acid bacteria powder/flavoring, carotene dye, (may contain wheat, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), glucose, syrup, gelatin, oolong tea extract/gum base, acidulant, softening agent, flavoring, Vitamin C, gardenia pigment</t>
-  </si>
-  <si>
-    <t>Corn puff (corn grits, sugar, vegetable oils and fats, syrup, cocoa powder, salt) (made domestically), sugar, vegetable oils and fats, cacao mass, lactose, whole milk powder, cocoa butter, syrup/brightener, thickener (gum arabic), emulsifiers (soybean-derived), flavoring, caramel coloring</t>
+    <t>Chocolate (sugar, whole milk powder, vegetable oils and fats, cocoa butter, cacao mass, lactose), wafers (wheat flour, sugar, starch, vegetable oils and fats, salt)/modified starches, emulsifiers (soybean-derived), shellfish calcium, flavoring, coloring (caramel), swelling agent</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), wheat flour, vegetable oils and fats, lactose, starch, shortening, cocoa butter, whole milk powder, whey powder, liquid egg, maltitol, strawberry powder, cream powder, salt/calcium carbonate, swelling agent, coloring (caramel, red yeast, red beet), flavoring, emulsifiers (soybean-derived)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, vegetable oils and fats, whole milk powder, starch, cacao mass, shortening, sweetened condensed milk, cocoa powder, cream powder, malt extract, salt, cocoa butter, soybean germ extract/swelling agent, emulsifiers, flavoring</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, lard, salt, vegetable protein, soy sauce), soup (soy sauce, sugars, salt, animal fat, beef extract, hydrolyzed protein, kelp extract, bonito extract), garnish (fried ball with kasu, tororo konbu, kamaboko, green onions)/modified starches, seasoning (such as amino acids), alcohol, trisodium phosphate, flavoring, thickener (xanthan), antioxidant (vitamin E), caramel coloring, swelling agent, monascus pigment, gardenia pigment, (may contain wheat, beef, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, lactose, processed oils and fats, reduced starch syrup, sweet potato powder, eggs, margarine, vegetable oils and fats, foods made mainly from milk (butter, lactose, calcium caseinate, salt), skim milk powder, salt, maltose, wheat fiber, syrup/coloring (Gardia jasminoides, annatto), emulsifiers (soybean-derived), crystalline cellulose, flavoring</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), wheat flour, processed oils and fats, skim milk powder, high-fructose corn syrup sugar, cacao mass, cocoa powder, eggs, sweetened condensed skim milk, margarine, cocoa butter, syrup, vegetable oils and fats, lactose, salt, maltose, glucose/coloring (caramel, annatto), emulsifiers (soybean-derived), flavoring</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, processed oils and fats, lactose, whole milk powder, high-fructose corn syrup sugar, eggs, sweetened condensed skim milk, margarine, strawberry powder, syrup, vegetable oils and fats, salt, maltose, glucose/emulsifiers (soybean-derived), acidulant, coloring (red yeast, red beet, annatto), flavoring</t>
+  </si>
+  <si>
+    <t>Quasi chocolate (sugar, lactose, vegetable oils and fats, whole milk powder, cocoa butter), wheat flour, vegetable oils and fats, lactose, sugar, chestnut powder, cocoa powder, yeast, whole milk powder, cacao mass, cocoa butter/emulsifiers, flavoring, caramel coloring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Quasi chocolate (sugar, lactose, vegetable oils and fats, whole milk powder, cocoa butter) (made domestically), wheat flour, vegetable oils and fats, lactose, sugar, sweet potato powder, yeast, cocoa powder, whole milk powder, cacao mass, cocoa butter/emulsifiers, flavoring, baking soda, yeast food, gardenia pigment, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Vegetable oils and fats (made domestically), biscuits (wheat flour, sugar, shortening, cocoa powder, salt), sugar, wheat flour, cacao mass, lactose, whole milk powder, cocoa butter, cocoa powder, yeast/emulsifiers, swelling agent, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), biscuits (wheat flour, sugar, shortening, salt), wheat flour, vegetable oils and fats, lactose, matcha, sugar, cocoa powder, green tea, whole milk powder, cacao mass, yeast, cocoa butter/emulsifiers, swelling agent, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), whole grain biscuits (wheat flour, whole-wheat flour, sugar, shortening, salt), wheat flour, lactose, vegetable oils and fats, sugar, cocoa powder, whole milk powder, cacao mass, yeast, cocoa butter/emulsifiers, swelling agent, caramel coloring, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), biscuits (wheat flour, sugar, shortening, salt), wheat flour, lactose, vegetable oils and fats, sugar, strawberry fruit juice powder, processed dried strawberries, yeast, cocoa powder, whole milk powder, cacao mass, cocoa butter/emulsifiers, acidulant, swelling agent, flavoring, coloring (red beet, red yeast), baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), whole grain biscuits (wheat flour, whole-wheat flour, sugar, shortening, salt), wheat flour, lactose, sugar, vegetable oils and fats, whole milk powder, cacao mass, cocoa butter, cocoa powder, yeast/emulsifiers (soybean-derived), swelling agent, caramel coloring, flavoring, baking soda, yeast food</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production, made domestically), whole milk powder, lactose, cacao mass, wheat flour, vegetable oils and fats, cocoa butter, orange juice powder, yeast, cocoa powder/emulsifiers, flavoring, acidulant, baking soda, yeast food, (may contain wheat, dairies, orange, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Green tea (domestic)/Vitamin C</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, soy sauce, hydrolyzed protein), soup (sugars, salt, soy sauce, shellfish extract, spices, chicken extract, pork extract, shrimp extract, hydrolyzed protein), garnish (kamaboko, corn, green onions), seasoning (such as amino acids), modified starches, calcium carbonate, caramel coloring, brine, thickening polysaccharides, acidulant, antioxidant (vitamin E), gardenia pigment, sepia dye, vitamin B2, monascus pigment, vitamin B1</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, powdered egg, sugars), soup (miso, salt, sugars, pork extract, red chili paste, vegetable oils and fats, lard, chili bean sauce, spices, flavored cooking oil, seasoning oil, hydrolyzed protein), garnish (green onions, chicken, seasoned minced pork, corn), modified starches, seasoning (such as amino acids), alcohol, calcium carbonate, caramel coloring, flavoring, gardenia pigment, brine, thickener (xanthan), acidulant, antioxidant (vitamin E, rosemary extract), vitamin B2, vitamin B1, spice extracts, (some part of raw materials may contains sesame)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, miso, sugars), soup (lard, soy sauce, salt, sugars, pork extract, chicken extract, hydrolyzed protein, vegetable oils and fats, spices, yeast extract), garnish (char siu, green onions), modified starches, seasoning (such as amino acids), alcohol, caramel coloring, calcium carbonate, brine, lecithin, gardenia pigment, thickener (xanthan), flavoring, antioxidant (vitamin E), vitamin B2, vitamin B1, (some parts of the raw materials may contain eggs, contains dairies)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, salt), sauce (sauce, sugars, salt, lard, vegetable oils and fats, spices, hydrolyzed protein, flavored seasoning), garnish (cabbage), caramel coloring, seasoning (such as amino acids), calcium carbonate, brine, acidulant, antioxidant (vitamin E), flavoring, thickener (xanthan), vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, soybeans, apple, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, starch, salt, soy sauce, hydrolyzed protein), soup (sugars, salt, soy sauce, shellfish extract, vegetable powder, chicken extract, pork extract, shrimp extract, spices, hydrolyzed protein), garnish (kamaboko, corn)/seasoning (such as amino acids), modified starches, calcium carbonate, caramel coloring, brine, thickening polysaccharides, acidulant, antioxidant (vitamin E), gardenia pigment, sepia dye, vitamin B2, vitamin B1, monascus pigment, (may contain shrimp, wheat, dairies, squid, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, soy dietary fiber), soup (soy sauce, salt, hydrolyzed protein, pork extract, sugars, lard, vegetable oils and fats, dried bonito extract, yeast extract, spices, niboshi sardine powder), garnish (char siu, menma, naruto, green onions), seasoning (such as amino acids), alcohol, caramel coloring, calcium carbonate, flavoring, brine, thickener (xanthan), lecithin, gardenia pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, monascus pigment, (some parts of the raw materials may contain eggs, contains dairies)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, juice (strawberry, pineapple, lemon, orange, apple, melon, grape, peaches)/acidulant, flavoring, coloring (anthocyanin, paprika pigment, carotene, Gardia jasminoides, red yeast, safflower yellow), (some parts may container orange, peaches, contains apple)</t>
+  </si>
+  <si>
+    <t>(lemon flavor)sugar (made domestically), syrup, concentrated lemon juice, herbal extract (contains orange)
+(peach flavor)sugar (made domestically), syrup, concentrated peach juice, herbal extract (contains orange)
+(grape flavor)sugar (made domestically), syrup, concentrated grape juice, herbal extract (contains orange)
+(orange flavor)sugar (made domestically), syrup, concentrated orange juice, herbal extract (contains orange)
+(green apple flavor)sugar (made domestically), syrup, concentrated apple juice, herbal extract (contains orange)</t>
+  </si>
+  <si>
+    <t>Rice noodles (produced in vietnam (rice, starch, salt)), soup (salt, sugar, chicken oil, flavor oils, hydrolyzed protein, vegetable oils and fats, chicken extract, spices, yeast extract, chicken seasoning, green onion extract), garnish (processed soybean, green onions, bean sprouts, coriander)/modified starches, seasoning (such as amino acids), alcohol, thickener (modified starches, thickening polysaccharides), flavoring, caramel coloring, emulsifiers, acidulant, antioxidant (vitamin E), (some parts of the raw materials may contain dairies, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Rice noodles (produced in vietnam (rice, starch, salt)), soup (hydrolyzed protein, sugars, salt, spices, beef tallow, fermented seasoning, vegetable oils and fats, sake-brewed vinegar, tomato ketchup, beef extract, flavor oils, yeast extract), garnish (processed soybean, green onions, pepper)/modified starches, seasoning (such as amino acids), alcohol, flavoring, spice extracts, thickening polysaccharides, caramel coloring, emulsifiers, acidulant, sweetener (sucralose, acesulfame K), antioxidant (vitamin E), (may contain shrimp, beef, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Rice noodles (produced in vietnam (rice, starch, salt)), garnished soup (salt, bok choi, sugar, tom yum seasoning powder, processed soybean, spices, green onions, yeast extract, hydrolyzed protein, shrimp sauce, chicken seasoning, shrimp extract, coriander, pepper)/modified starches, seasoning (such as amino acids), acidulant, flavoring, fine silicon dioxide, carotenoid pigment, sweetener (sucralose, acesulfame K), emulsifiers, thickener (guar gum), (may contain shrimp, soybeans, chicken, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Milk (made domestically), sugar, coffee, skim milk powder, whole milk powder, dextrin/emulsifiers, flavoring, cellulose</t>
+  </si>
+  <si>
+    <t>Fruits (apple, orange, guava, pineapple, passion fruit), sugars (sugar, glucose), ginseng root extract, L-carnitine L-tartrate, vegetable oils, sodium chloride, guarana seed extract/carbonic acid, citric acid, flavoring, preservatives (sodium benzoate), L-Arginine, sodium citrate, caffeine, sweetener (sucralose), niacin, inositol, vitamin B6, vitamin B2, coloring (β-carotene), vitamin B12</t>
+  </si>
+  <si>
+    <t>Sugars (sugar, glucose), ginseng root extract, L-carnitine L-tartrate, sodium chloride, guarana seed extract/citric acid, carbonic acid, flavoring, sodium citrate, sweetener (D-ribose, sucralose), L-arginine, preservatives (benzoic acid), caffeine, niacin, coloring (anthocyanin), inositol, vitamin B6, vitamin B2, vitamin B12</t>
+  </si>
+  <si>
+    <t>Non-glutinous rice powder (domestic, Thailand product), vegetable oils and fats, powdered brewed vinegar, sugar, salt, yeast extract powder, spices (contains sesame), chicken extract powder, powdered soy sauce (wheat, contains soybeans), starch, dextrin/modified starches, flavoring (derived from chicken), seasoning (such as amino acids), acidulant, antioxidant (vitamin E), particulate silicon oxide, coloring (carotene), spice extracts, vitamin B1, emulsifiers (soybean-derived)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, shrimp powder, shrimp salt flavor powder, salt, roasted soy sauce powder/modified starches, calcium carbonate, seasoning (such as amino acids), antioxidant (vitamin E, Vitamin C), emulsifiers, flavoring, caramel coloring, (may contain shrimp, wheat, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production), cacao mass, lactose, whole milk powder, cocoa butter, vegetable oils and fats, /emulsifiers, flavoring, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Roasted peanuts (made domestically), vegetable oils and fats, inulin (dietary fiber), whole milk powder, sugar, cocoa powder, cacao mass/emulsifiers, flavoring, (some parts of the raw materials may contain dairies, peanut, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Raisins (produced in America), cacao mass, sugar, cocoa butter, cocoa powder, whole milk powder, maltodextrin, vegetable oils and fats/brightener, emulsifiers, flavoring, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign or domestic manufacturing), vegetable oils and fats, wheat puff, whole milk powder, cacao mass, cocoa powder, maltodextrin/emulsifiers, brightener, flavoring, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign or domestic manufacturing), vegetable oils and fats, corn grits (separate production and distribution management), whole milk powder, cacao mass, cocoa powder, wheat flour, maltodextrin/emulsifiers, brightener, cellulose, flavoring, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, vegetable oils and fats, cacao mass, whole-wheat flour, whole milk powder, starch, syrup, lactose, wheat germ, cocoa powder, skim milk powder, salt/swelling agent, emulsifiers, flavoring, (may contains egg, dairies, wheat, soybeans, contains almonds)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign or domestic manufacturing), vegetable oils and fats, cacao mass, whole milk powder, puff (corn grits, starch, sugar), lactose, cocoa powder/emulsifiers, flavoring, swelling agent, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, vegetable oils and fats, fat spread, margarine, foods that use milk as a main ingredient, butter, salt, white sesame paste, calcium carbonate, swelling agent, modified starches, flavoring, coloring (caramel, carotene)seasoning (amino acids), (some parts of the raw materials may contain dairies, wheat, soybeans, contains sesame)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production, made domestically), vegetable oils and fats, lactose, dextrin, cocoa butter, wheat flour, whole milk powder, skim milk powder, whey powder, wheat puff, cheese powder, butter oil, milk, margarine, shortening, yogurt powder, lemon juice powder, salt, high-fructose corn syrup sugar, fermented flavor liquid, concentrated whey powder protein/emulsifiers (soybean-derived), flavoring, swelling agent</t>
+  </si>
+  <si>
+    <t>Kelp (made in Hokkaido), sake-brewed vinegar, dried bonito extract, fermented seasoning, protein hydrolyzate/seasoning (such as amino acids), sorbitol, acidulant, sweetener (stevia extract), (some parts may contain soybean)</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), starch/modified starches, acidulant, emulsifiers, coloring (Gardia jasminoides, vegetable coloring), flavoring</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), starch/modified starches, acidulant, emulsifiers, vegetable coloring, flavoring</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup (made domestically), dried yuzu peel, edible oils/acidulant, flavoring, gardenia pigment, emulsifiers (soybean-derived)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), accompanying seasoning (vegetable oils and fats, salt, beef seasoning, sugar, starch, pork seasoning, powdered soy sauce, chicken extract, hydrolyzed protein, pepper, yeast extract), accompanying seasoning (emulsified fats and oils, glucose, cheese powder, garlic, processed soybean, foods made mainly from milk, green onions, pepper)/modified starches, seasoning (such as amino acids), calcium carbonate, flavoring, caramel coloring, brine, fine silicon dioxide, acidulant, spice extracts, antioxidant (vitamin E, rosemary extract), carotenoid pigment, red beet coloring, monascus pigment, vitamin B2, vitamin B1, (may contain wheat, dairies, beef, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), jam (sugar, strawberry, syrup), shortening, sugar, chicken's egg, sweetened condensed milk, skim milk powder, foods made mainly from milk, starch hydrolysate, salt, cheese powder/sorbitol, acidulant, gelling agent (thickening polysaccharides), flavoring, swelling agent, emulsifiers, monascus pigment, phosphate Ca, (may contain wheat, eggs, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), jam (sugar, syrup, blueberry), sugar, shortening, chicken's egg, foods made mainly from milk, sweetened condensed milk, processed cheese, salt/sorbitol, acidulant, gelling agent (thickening polysaccharides), flavoring, swelling agent, emulsifiers, (may contain wheat, eggs, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign or domestic manufacturing), vegetable oils and fats, grape sauce, whole milk powder, cacao mass, cocoa butter, lactose, foods made mainly from milk, black tea extract powder, skim milk powder, alcohol/trehalose, emulsifiers (soybean-derived), acidulant, flavoring (milk, soybean-derived), coloring (caramel, vegetable coloring, Gardia jasminoides, safflower yellow, red yeast), cyclic oligosaccharide, thickener (pectin)</t>
+  </si>
+  <si>
+    <t>Soybeans (America), bacillus natto], vegetable oils and fats, soy sauce flavored powder (powdered soy sauce, salt, corn starch, dextrin, other) (wheat, contains mackerel)/seasoning (such as amino acids), flavoring</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), corn starch, starch hydrolysate/acidulant, flavoring, coloring (anthocyanin, Gardia jasminoides, annatto, blue spirulina)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), maltitol, maltose, creaming powder (syrup, vegetable oils and fats, casein (contains dairies)), dextrin, concentrated plum juice, gelatin, plum powder, rare sugar sweet syrup, plum extract, dietary fiber, umeboshi extract powder/acidulant, thickener (gum arabic), anthocyanin pigment, flavoring, brightener</t>
+  </si>
+  <si>
+    <t>Vegetable oils and fats (made domestically), sugar, whole milk powder, lactose, cocoa butter, cocoa, egg yolk, cacao mass/cellulose, emulsifiers, flavoring, (some parts of the raw material may contain dairies, eggs, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Vegetable oils and fats (made domestically), sugar, whole milk powder, lactose, cocoa butter, cheddar cheese powder/cellulose, emulsifiers, paprika pigment, flavoring, (some parts of the raw material may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Vegetable oils and fats (made domestically), sugar, whole milk powder, lactose, cocoa butter, cocoa, cacao mass/cellulose, emulsifiers, flavoring, (some parts of the raw material may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, whole milk powder, cacao mass, shortening, cocoa butter, vegetable oils and fats, whole-wheat flour, wheat bran, salt, non-fat wheat germ/swelling agent, emulsifiers (soybean-derived), flavoring</t>
+  </si>
+  <si>
+    <t>Peanuts (America), sugar, wheat flour, fine rice flour, starch, rice flour, salt, galacto-oligosaccharide/swelling agent, calcium carbonate, coloring (Gardia jasminoides), iron pyrophosphate, (some parts of the raw materials may contain dairies, wheat, contains peanut)</t>
+  </si>
+  <si>
+    <t>Maltose (made domestically), syrup, sugar, rice cake flour, whole milk powder, vegetable oils and fats, cacao mass, cocoa powder, cream (contains dairies), dextrin, western liquor, lactose/trehalose, emulsifiers (soybean-derived), coloring (caramel), seasoning (amino acids), modified starches, flavoring, sodium caseinate (milk-derived)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically, produced in Thailand), cacao mass, vegetable oils and fats, whole milk powder, almond, cocoa butter, skim milk powder, rice puff, lactose, butter oil/emulsifiers (soybean-derived), flavoring (almond-derived)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically, produced in Thailand), vegetable oils and fats, whole milk powder, cacao mass, cocoa butter, skim milk powder, lactose, strawberry powder/trehalose, emulsifiers (soybean-derived), flavoring (almond-derived), coloring (beet red), acidulant</t>
+  </si>
+  <si>
+    <t>&lt;strawberry chocolate&gt;sugar (foreign production), vegetable oils and fats, lactose, whole milk powder, cocoa butter, cacao mass, whey powder, wheat puff (starch, wheat flour, salt), dried strawberries/flavoring, emulsifiers (soybean-derived), acidulant, coloring (red radish), swelling agent&lt;crisp chocolate&gt;sugar (foreign production, made domestically), vegetable oils and fats, cacao mass, lactose, whole milk powder, whey powder, wheat puff (starch, wheat flour, salt)/emulsifiers (soybean-derived), flavoring, swelling agent</t>
+  </si>
+  <si>
+    <t>Vegetable oils and fats (made domestically), lactose, sugar, cocoa cookie crunch (wheat flour, sugar, shortening, cocoa powder, dextrin, high-fructose corn syrup sugar, cacao mass, whey powder, salt), cocoa butter, whole milk powder, wheat flour, whey powder, cream cheese powder, starch, cream powder, malt extract, salt/emulsifiers (soybean-derived), trehalose, flavoring, swelling agent, caramel coloring</t>
+  </si>
+  <si>
+    <t>Sugar (domestic or Korean manufacturing), wheat flour, vegetable oils and fats, whole milk powder, lactose, cacao mass, whey powder, cookie crunch, cocoa powder, starch, shortening, salt/emulsifiers (soybean-derived), caramel coloring, swelling agent, flavoring</t>
+  </si>
+  <si>
+    <t>&lt;Kyun berry flavor (round-shaped)&gt;glucose (made domestically), strawberry fruit juice powder, starch/emulsifiers, modified starches, acidulant, Vitamin C, flavoring, vegetable coloring&lt;sweet and sour kyun berry flavor (heart-shaped)&gt;glucose (made domestically), strawberry fruit juice powder, starch/emulsifiers, modified starches, acidulant, Vitamin C, flavoring, vegetable coloring</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils, sugar, powdered soy sauce, dextrin, powder miso, habanero powder, chicken extract powder, salt, hydrolyzed protein, yeast extract powder, lactose/seasoning (such as amino acids), spice extracts, flavoring, paprika pigment, sweetener (stevia, licorice), acidulant, (may contain wheat, dairies, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, powdered egg, vegetable extract, soy sauce), soup (salt, sugars, chicken seasoning, processed onion, soy sauce, spices, yeast extract, vegetable seasoning, fermented seasoning), garnish (cabbage, chicken, seasoned minced pork, fried onions, carrots)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, trehalose, flavoring, brine, lecithin, fine silicon dioxide, acidulant, gardenia pigment, antioxidant (vitamin E, Vitamin C), vitamin B2, vitamin B1, paprika pigment, (may contain wheat, eggs, dairies, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, powdered egg, vegetable extract, soy sauce), soup (sugars, salt, chicken seasoning, starch, lemon juice powder, spices, yeast extract, vegetable oils and fats, vegetable powder), garnish (cabbage, seasoned chicken soboro, seasoned eggs, red bell pepper)/modified starches, seasoning (such as amino acids), calcium carbonate, flavoring, trehalose, acidulant, fine silicon dioxide, brine, lecithin, gardenia pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, caramel coloring, carotene dye, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Indigestible dextrin (produced in China), ginseng root extract, L-carnitine L-tartrate, guarana seed extract/carbonic acid, citric acid, sodium citrate, flavoring, preservatives (sodium benzoate), L-Arginine, caffeine, sweetener (sucralose, acesulfame K, stevia), niacin, pantothenic acid Ca, inositol, vitamin B6, coloring (Yellow No. 4, yellow No. 5), vitamin B12</t>
+  </si>
+  <si>
+    <t>Potato (Japan: not genetically modified), vegetable oils, sugar, glucose, spices, salt, chicken extract powder, vegetable extract powder (dairies, soybeans, pork, contains gelatin), protein hydrolyzate (contains soybeans), oligosaccharide/seasoning (such as amino acids), paprika pigment, acidulant, spice extracts, caramel coloring, flavoring</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, mapo tofu flavored powder (granulated sugar, powdered soy sauce, powder miso, pork flavor seasonings, protein hydrolyzate, other), salt, sugar, meat seasoning extract, protein hydrolyzate, soy sauce/seasoning (such as amino acids), calcium carbonate, flavoring, emulsifiers, paprika pigment, antioxidant (vitamin E), sweetener (stevia, licorice), acidulant, spice extracts, (may contain wheat, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, soy sauce ramen flavored powder, salt, sugar, meat seasoning extract, protein hydrolyzate, soy sauce/seasoning (such as amino acids), calcium carbonate, flavoring, caramel coloring, emulsifiers, acidulant, antioxidant (vitamin E), sweetener (stevia), spice extracts, (may contain wheat, dairies, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), wheat flour, vegetable oils and fats, lactose, starch, shortening, cocoa butter, whole milk powder, whey powder, liquid egg, maltitol, melon juice powder, cream powder, salt/calcium carbonate, swelling agent, coloring (caramel, Gardia jasminoides, safflower yellow), flavoring, emulsifiers (soybean-derived)</t>
+  </si>
+  <si>
+    <t>Reduced starch syrup (made domestically), reduced maltose, sugar, dietary fiber (polydextrose), syrup, reduced maltose starch syrup, gelatin, konjac flour, starch/acidulant, flavoring, calcium carbonate, (may contain gelatin)</t>
+  </si>
+  <si>
+    <t>Starch (made domestically), sugar, dextrin, concentrated strawberry juice/sweetener (xylitol, aspartame, L‐phenylalanine compound, acesulfame K), acidulant, flavoring, thickener (gum arabic), coloring (Red No. 40)</t>
+  </si>
+  <si>
+    <t>Sugar, syrup, processed dried strawberries, strawberry fruit juice, herbal extract/acidulant, flavoring, anthocyanin pigment</t>
+  </si>
+  <si>
+    <t>Tomato, jalapeno pepper, onion, sake-brewed vinegar, salt, dried onions, garlic powder/spice extracts, calcium chloride, citric acid</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils, starch, shrimp, sugar, salt/swelling agent, seasoning (such as amino acids), sweetener (licorice)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), sauce (thick sauce, sugar, vegetable oils and fats, fermented seasoning, lard, salt, pork seasoning, soy sauce processed products, seafood extract, skipjack seasoning, flavored seasoning, flavor oils), special paste (semi-solid dressing, red pickled ginger, glucose-fructose syrup, reduced starch syrup, sake-brewed vinegar, salt, vegetable oils and fats, whole egg powder, yeast extract, starch), garnish (cabbage), furikake (bonito shavings, sea lettuce)/modified starches, caramel coloring, seasoning (such as amino acids), calcium carbonate, thickener (modified starches, thickening polysaccharides), antioxidant (vitamin E), carotenoid pigment, brine, emulsifiers, sweetener (licorice, sucralose, acesulfame K), acidulant, flavoring, vegetable coloring, vitamin B2, vitamin B1, spice extracts, (may contain wheat, eggs, dairies, soybeans, chicken, pork, apple, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils, sugar, glucose, salt, cheese powder, powdered fats and oils, whey powder, spices, oligosaccharide/seasoning (such as amino acids), flavoring, carotenoid pigment, spice extracts, liquid smoke, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Dough (made domestically) (wheat flour, starch, shrimp extract powder, shrimp powder, sugar, dried shrimp, fermented seasoning liquid, vegetable oils, dried bonito), vegetable oils, dextrin, glucose, fish extract powder, salt, powdered soy sauce, pepper, yeast extract powder/modified starches, seasoning (such as amino acids), trehalose, sweetener (sucralose), (some parts of the raw materials may contain dairies, wheat, shrimp, soybeans, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Vegetable oils and fats (made domestically), rice flour (non-glutinous rice (domestic, made in the USA)), starch, salt, fish extract powder (may contain shrimp), sugar, shrimp, dextrin, soy sauce powder (wheat, contains soybeans), flavor oils (may contain shrimp), yeast extract powder/modified starches, seasoning (such as amino acids), coloring (red yeast, caramel), acidulant</t>
+  </si>
+  <si>
+    <t>Sugar, cacao mass, whole milk powder, cocoa butter, vegetable oils and fats, emulsifiers (contains soybeans), brightener, flavoring</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, concentrated Japanese pear juice, gelatin, reduced indigestible dextrin, vegetable oils and fats, starch/acidulant, gelling agent (pectin), flavoring, brightener, (may contain apple, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Non-glutinous rice (domestic, made in the USA), vegetable oils, sugar, lemon seasoning, soy sauce, glucose-fructose syrup, yeast extract, salt/modified starches, seasoning (such as amino acids), acidulant, flavoring, caramel coloring, (may contain wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign or domestic manufacturing), vegetable oils and fats, whole milk powder, cacao mass, cocoa butter, lactose, foods made mainly from milk, apple powder, skim milk powder, erythritol, dry crepe (dairies, contains wheat), caramel powder (contains dairies)/emulsifiers (soybean-derived), flavoring (milk, soybean-derived), coloring (red yeast, Gardia jasminoides)</t>
+  </si>
+  <si>
+    <t>Sugar (produced in Thailand, made domestically), vegetable oils and fats, potato pellets (dried potato, starch, salt), cacao mass, cocoa powder, whole milk powder/emulsifiers (soybean-derived), flavoring, coloring (turmeric), antioxidant (vitamin E, Vitamin C)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production, made domestically), vegetable oils and fats, whole milk powder, cacao mass, cocoa butter, lactose, skim milk powder, orange juice concentrate, western liquor (cassis liqueur), dextrin, creaming powder (contains dairies)/sorbitol, emulsifiers (soybean-derived), alcohol, flavoring (milk, almond-derived), acidulant</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production), cacao mass, wheat flour, liquid whole egg, vegetable oils and fats, margarine (contains dairies), cocoa powder, shortening, sweetened condensed milk, whole milk powder, lactose, cocoa butter, salt, western liquor/sorbitol, alcohol, emulsifiers (soybean-derived), flavoring (milk-derived)</t>
+  </si>
+  <si>
+    <t>Sugar (produced in Thailand, made domestically), liquid whole egg, wheat flour, vegetable oils and fats, margarine (contains dairies), cheese powder (camembert cheese powder, gouda cheese powder, cream cheese powder), shortening, corn starch, edible processed oils and fats, cream cheese, milk syrup, whole milk powder, reduced starch syrup, dried whole egg, whey powder (contains dairies), lemon concentrated juice, syrup, lactose, western liquor, dextrin, cocoa butter/sorbitol, emulsifiers (soybean-derived), alcohol, flavoring (milk-derived), swelling agent, thickener (pectin: apple-derived), acidulant</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, margarine (contains dairies), butter, coconut, liquid whole egg, sweetened condensed skim milk, salt, vegetable oils and fats/flavoring (milk-derived), swelling agent, emulsifiers (soybean-derived), coloring (carotene)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, vegetable oils and fats, whole milk powder, whole-wheat flour, cacao mass, cocoa powder, salt, non-fat wheat germ/swelling agent, emulsifiers (soybean-derived), flavoring, coloring (annatto)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, vegetable oil-reduced starch syrup, white bean (raw bean paste, sugar, reduced starch syrup, agar, salt), cacao mass, syrup, liquid whole egg, cocoa powder, lactose, whole milk powder dextrin, salt, skim milk powder/sorbitol, modified starches, emulsifiers (soybean-derived), coloring (caramel)flavoring, swelling agent, thickener (carrageenan)</t>
+  </si>
+  <si>
+    <t>Quasi chocolate (vegetable oils and fats, sugar, cacao mass, whole milk powder, cocoa powder) (made domestically), wheat flour, sugar, vegetable oils and fats, shortening, converted molasses, sweetened condensed milk, cocoa powder, salt (Miyakojima Salt 38%used), whole milk powder, sesame seeds, collagen/swelling agent, coloring (caramel), emulsifiers, calcium carbonate, flavoring, (may contain wheat, dairies, soybeans, sesame seeds, contains pork)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), edible oils (palm oil, lard, rapeseed oil), salt), soup (salt, sugar, kimchi flavored seasoning, powdered soy sauce, spices, sesame seeds, powder miso, pork extract powder, oyster extract powder, onions, green onions)/modified starches, seasoning (such as amino acids), caramel coloring, acidulant, brine, thickening polysaccharides, fine silicon dioxide, antioxidant (V. E), (may contain wheat, sesame seeds, soybeans, pork, fish sauce (seafood)is contained)</t>
+  </si>
+  <si>
+    <t>Roasted peanuts (made domestically), sugar, vegetable oils and fats, lactose, whole milk powder, cacao mass, cocoa powder/emulsifiers, flavoring, (some parts of the raw materials may contain dairies, peanut, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (produced in Thailand), biscuits (contains wheat), cacao mass, vegetable oils and fats, whole milk powder, cocoa butter, syrup, seasoning powder (dextrin, black truffle salt, sugar, salt, garlic powder, soy protein hydrolyzate, white pepper powder, nutmeg powder), butter oil, hazelnut paste/emulsifiers, swelling agent, flavoring, brightener, seasoning (such as amino acids), coloring (gold leaf)</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sweetened condensed milk, sugar, sweetened condensed skim milk, vegetable oils and fats, wheat protein hydrolyzate, butter, salt/sorbitol, flavoring, emulsifiers (soybean-derived), safflower yellow coloring</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically, produced in Thailand), syrup, vegetable oils and fats, dextrin, gelatin, concentrated watermelon juice/acidulant, flavoring, glycerin, emulsifiers, safflower yellow coloring, red cabbage dye, gardenia blue pigment, paprika pigment</t>
+  </si>
+  <si>
+    <t>Cornflakes (corn grits (corn (American product)), sugar, salt), sugar, vegetable oils and fats, whole milk powder, cacao mass, cocoa powder/flavoring, calcium carbonate, emulsifiers (soybean-derived), iron pyrophosphate</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, coconut oil, shortening, coconut, salt, lemon powder, skim milk powder/acidulant, swelling agent, emulsifiers (soybean-derived), flavoring</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), margarine, sugar, vegetable oils and fats, lactose, maltose, cocoa butter, whole milk powder, whey powder, cream powder, salt, cheese powder, matcha, cinnamon/emulsifiers (soybean-derived), gardenia pigment, flavoring</t>
   </si>
   <si>
     <t>Sugar (made domestically), wheat flour, vegetable oils and fats, whole milk powder, lactose, cacao mass, whey powder, cookie crunch, cocoa powder, starch, shortening, salt/emulsifiers (soybean-derived), caramel coloring, swelling agent, flavoring</t>
   </si>
   <si>
-    <t>Sugar (produced in Japan or other countries), wheat flour, vegetable oils and fats, cacao mass, starch, shortening, lactose, whole milk powder, liquid egg, whey powder, cream powder, skim milk powder, salt, cocoa powder, cocoa butter/calcium carbonate, swelling agent, caramel coloring, emulsifiers (soybean-derived), flavoring</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), wheat flour, vegetable oils and fats, lactose, starch, shortening, cocoa butter, whole milk powder, whey powder, liquid egg, maltitol, strawberry powder, cream powder, salt/calcium carbonate, swelling agent, coloring (caramel, red yeast, red beet), flavoring, emulsifiers (soybean-derived)</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically, foreign production), wheat flour, vegetable oils and fats, lactose, starch, shortening, cocoa butter, whole milk powder, whey powder, liquid egg, whole-wheat flour, foods made mainly from milk (fermented butter, vegetable oils and fats, butter oil, skim milk powder, salt), skim milk powder, cream powder, salt/swelling agent, caramel coloring, flavoring, emulsifiers (soybean-derived)</t>
-  </si>
-  <si>
-    <t>&lt;lemon&gt;syrup (made domestically), sugar, gelatin, concentrated lemon juice, oblaat powder/sorbitol, glycerin, acidulant, gelling agent (pectin), flavoring, emulsifiers, safflower pigment, brightener&lt;cola&gt;syrup (made domestically), sugar, gelatin, cola nuts extract, oblaat powder/sorbitol, glycerin, acidulant, gelling agent (pectin), caramel coloring, flavoring, emulsifiers, brightener&lt;soda&gt;syrup (made domestically), sugar, gelatin, oblaat powder/sorbitol, glycerin, acidulant, gelling agent (pectin), flavoring, gardenia pigment, emulsifiers, brightener&lt;grape&gt;syrup (made domestically), sugar, gelatin, concentrated grape juice, oblaat powder/sorbitol, glycerin, acidulant, gelling agent (pectin), flavoring, coloring (black carrot juice, Gardia jasminoides), emulsifiers, brightener</t>
-  </si>
-  <si>
-    <t>Syrup (made domestically), sugar, gelatin, starch/sorbitol, acidulant, mannitol, thickener (pectin), flavoring, brightener, coloring (anthocyanin, Gardia jasminoides, red yeast, caramel, safflower yellow, carotene), emulsifiers, (may contain gelatin)in this product production line, may contains dairy ingredients。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (green apple)sugar (made domestically), syrup, gelatin, glucose-fructose syrup, concentrated green apple juice/acidulant, gelling agent (pectin), flavoring, brightener, coloring (Yellow No. 4, Blue No. 1), (may contain apple, contains gelatin) (lemon)sugar (made domestically), syrup, gelatin, glucose-fructose syrup, concentrated lemon juice/acidulant, flavoring, gelling agent (pectin), brightener, coloring (Yellow No. 4), (may contain gelatin) (grape)sugar (made domestically), syrup, gelatin, glucose-fructose syrup, concentrated grape juice/acidulant, flavoring, gelling agent (pectin), brightener, sweetener (acesulfame K, stevia), coloring (Red No. 40, Blue No. 1), (may contain gelatin) (strawberry)sugar (made domestically), syrup, gelatin, glucose-fructose syrup, concentrated strawberry juice/acidulant, gelling agent (pectin), flavoring, brightener, coloring (Red No. 40), (may contain gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, lard, salt, vegetable protein, soy sauce), soup (soy sauce, sugars, salt, animal fat, beef extract, hydrolyzed protein, kelp extract, bonito extract), garnish (fried ball with kasu, tororo konbu, kamaboko, green onions)/modified starches, seasoning (such as amino acids), alcohol, trisodium phosphate, flavoring, thickener (xanthan), antioxidant (vitamin E), caramel coloring, swelling agent, monascus pigment, gardenia pigment, (may contain wheat, beef, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Potato flakes (American made or German made or others), vegetable oils and fats, sweet shrimp powder, salt/modified starches, emulsifiers, seasoning (amino acids), (may contain shrimp)</t>
-  </si>
-  <si>
-    <t>Wheat flour, sugar, vegetable oils and fats, cocoa powder, corn starch, salt/swelling agent, emulsifiers, flavoring, antioxidant (V. E, V. C), (some parts of the raw materials may contain wheat, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour, sugar, vegetable oils and fats, cocoa powder, corn starch, salt/swelling agent, emulsifiers, flavoring, acidulant, antioxidant (V. C, V. E), (may contain wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Quasi chocolate (sugar, vegetable oils and fats (contains soybeans), whole milk powder, lactose, cacao mass, cocoa powder) (made domestically), wheat flour, chicken's egg, sugar, dextrin, shortening, salt/emulsifiers (soybean-derived), swelling agent, flavoring</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, chocolate (contains dairies), shortening (contains soybeans), reduced starch syrup, white bean jam (raw bean paste, sugar, syrup, reduced maltose syrup), cocoa powder, soy flour, egg processed products (chicken's egg, sugar), syrup, skim milk powder, egg yolk powder (contains eggs), egg yolk powder (contains eggs), whole milk powder, starch degradation products, cacao mass, salt, yeast extract/modified starches, emulsifiers (soybean-derived), flavoring, swelling agent</t>
-  </si>
-  <si>
-    <t>Vegetable oils and fats (made domestically) (contains soybeans), sugar, sugar milk powder adjusted products (sugar, whole milk powder, skim milk powder, cocoa butter), lactose, cacao mass, whole milk powder, cocoa butter, skim milk powder/emulsifiers (soybean-derived), flavoring (milk-derived)</t>
-  </si>
-  <si>
-    <t>Sugar, high-fructose corn syrup sugar (made domestically)/carbonate gas, acidulant, flavoring</t>
-  </si>
-  <si>
-    <t>Sugar (foreign production, made domestically), whole milk powder, lactose, wheat flour, vegetable oils and fats, cacao mass, cocoa butter, cocoa powder, yeast/emulsifiers, gum arabic, brightener, baking soda, yeast food, flavoring, (may contain wheat, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Sugar (foreign production, made domestically), whole milk powder, lactose, vegetable oils and fats, wheat flour, cacao mass, cocoa butter, strawberry fruit juice powder, yeast, cocoa powder/emulsifiers, acidulant, gum arabic, flavoring, brightener, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Cacao mass (Côte d'Ivoire or domestic production or others), sugar, wheat flour, lactose, vegetable oils and fats, cocoa butter, cacao nibs, cocoa powder, whole milk powder, yeast/emulsifiers, gum arabic, brightener, baking soda, yeast food, flavoring, (may contain wheat, dairies, contains soybeans</t>
-  </si>
-  <si>
-    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), biscuits (wheat flour, sugar, shortening, salt), wheat flour, lactose, vegetable oils and fats, sugar, strawberry fruit juice powder, processed dried strawberries, yeast, cocoa powder, whole milk powder, cacao mass, cocoa butter/emulsifiers, acidulant, swelling agent, flavoring, coloring (red beet, red yeast), baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), biscuits (wheat flour, sugar, shortening, salt), wheat flour, vegetable oils and fats, lactose, matcha, sugar, cocoa powder, green tea, whole milk powder, cacao mass, yeast, cocoa butter/emulsifiers, swelling agent, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Vegetable oils and fats (made domestically), biscuits (wheat flour, sugar, shortening, cocoa powder, salt), sugar, wheat flour, cacao mass, lactose, whole milk powder, cocoa butter, cocoa powder, yeast/emulsifiers, swelling agent, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), whole grain biscuits (wheat flour, whole-wheat flour, sugar, shortening, salt), wheat flour, lactose, sugar, vegetable oils and fats, whole milk powder, cacao mass, cocoa butter, cocoa powder, yeast/emulsifiers (soybean-derived), swelling agent, caramel coloring, flavoring, baking soda, yeast food</t>
-  </si>
-  <si>
-    <t>Sugar (foreign production, made domestically), whole milk powder, lactose, cacao mass, wheat flour, vegetable oils and fats, cocoa butter, orange juice powder, yeast, cocoa powder/emulsifiers, flavoring, acidulant, baking soda, yeast food, (may contain wheat, dairies, orange, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Milk, sugar, coffee, skim milk powder/emulsifiers</t>
-  </si>
-  <si>
-    <t>Barley (rojo barley (Canada, domestic), nijo barley)/crude seawater magnesium chloride, Vitamin C</t>
-  </si>
-  <si>
-    <t>Green tea (domestic)/Vitamin C</t>
-  </si>
-  <si>
-    <t>Corn grits (made domestically), vegetable oils, dextrin, sugar, salt, glucose, cheese powder, yeast extract powder, concentrated whey powder protein, red pepper powder, , onion powder/flavoring, seasoning (such as amino acids), coloring (carotenoids, caramel), acidulant, (some parts of the raw materials may contain dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, starch, salt, soy sauce, hydrolyzed protein), soup (sugars, salt, soy sauce, shellfish extract, vegetable powder, chicken extract, pork extract, shrimp extract, spices, hydrolyzed protein), garnish (kamaboko, corn)/seasoning (such as amino acids), modified starches, calcium carbonate, caramel coloring, brine, thickening polysaccharides, acidulant, antioxidant (vitamin E), gardenia pigment, sepia dye, vitamin B2, vitamin B1, monascus pigment, (may contain shrimp, wheat, dairies, squid, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, soy sauce, hydrolyzed protein), soup (sugars, salt, soy sauce, shellfish extract, spices, chicken extract, pork extract, shrimp extract, hydrolyzed protein), garnish (kamaboko, corn, green onions), seasoning (such as amino acids), modified starches, calcium carbonate, caramel coloring, brine, thickening polysaccharides, acidulant, antioxidant (vitamin E), gardenia pigment, sepia dye, vitamin B2, monascus pigment, vitamin B1</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, soy dietary fiber), soup (soy sauce, salt, hydrolyzed protein, pork extract, sugars, lard, vegetable oils and fats, dried bonito extract, yeast extract, spices, niboshi sardine powder), garnish (char siu, menma, naruto, green onions), seasoning (such as amino acids), alcohol, caramel coloring, calcium carbonate, flavoring, brine, thickener (xanthan), lecithin, gardenia pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, monascus pigment, (some parts of the raw materials may contain eggs, contains dairies)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, powdered egg, sugars), soup (miso, salt, sugars, pork extract, red chili paste, vegetable oils and fats, lard, chili bean sauce, spices, flavored cooking oil, seasoning oil, hydrolyzed protein), garnish (green onions, chicken, seasoned minced pork, corn), modified starches, seasoning (such as amino acids), alcohol, calcium carbonate, caramel coloring, flavoring, gardenia pigment, brine, thickener (xanthan), acidulant, antioxidant (vitamin E, rosemary extract), vitamin B2, vitamin B1, spice extracts, (some part of raw materials may contains sesame)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, miso, sugars), soup (lard, soy sauce, salt, sugars, pork extract, chicken extract, hydrolyzed protein, vegetable oils and fats, spices, yeast extract), garnish (char siu, green onions), modified starches, seasoning (such as amino acids), alcohol, caramel coloring, calcium carbonate, brine, lecithin, gardenia pigment, thickener (xanthan), flavoring, antioxidant (vitamin E), vitamin B2, vitamin B1, (some parts of the raw materials may contain eggs, contains dairies)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, salt), sauce (sauce, sugars, salt, lard, vegetable oils and fats, spices, hydrolyzed protein, flavored seasoning), garnish (cabbage), caramel coloring, seasoning (such as amino acids), calcium carbonate, brine, acidulant, antioxidant (vitamin E), flavoring, thickener (xanthan), vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, soybeans, apple, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), syrup, juice (strawberry, pineapple, lemon, orange, apple, melon, grape, peaches)/acidulant, flavoring, coloring (anthocyanin, paprika pigment, carotene, Gardia jasminoides, red yeast, safflower yellow), (some parts may container orange, peaches, contains apple)</t>
-  </si>
-  <si>
-    <t>Glucose, sugar, syrup, reduced starch syrup, gum base, acidulant, flavoring, calcium lactate, softening agent, anthocyanin pigment, green tea extract</t>
-  </si>
-  <si>
-    <t>Glucose, sugar, syrup, reduced starch syrup/gum base, acidulant, flavoring, softening agent, coloring (caramel, flavonoids)</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), glucose, syrup, reduced starch syrup, yeast extract, dextrin/gum base, acidulant, flavoring, softening agent, carotenoid pigment</t>
-  </si>
-  <si>
-    <t>Glucose, sugar, syrup, reduced starch syrup/gum base, acidulant, flavoring, softening agent, coloring (Gardia jasminoides, flavonoids)</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), glucose, syrup, reduced starch syrup/gum base, acidulant, flavoring</t>
-  </si>
-  <si>
-    <t>Sugar, glucose, syrup, reduced starch syrup/gum base, acidulant, flavoring</t>
-  </si>
-  <si>
-    <t>Glucose (made domestically), sugar, syrup, reduced starch syrup/gum base, acidulant, flavoring, caramel coloring, softening agent</t>
-  </si>
-  <si>
-    <t>Glucose (made domestically), sugar, syrup, reduced starch syrup, concentrated grape juice/gum base, acidulant, flavoring, anthocyanin pigment</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), glucose, syrup/gum base, acidulant, paste (gum arabic), flavoring, coloring (flavonoids, anthocyanin), brightener</t>
-  </si>
-  <si>
-    <t>Glucose-fructose syrup (made domestically), Peach juice, skim milk powder, lactic fermenting beverage, peach sauce/acidulant, stabilizer (soybean polysaccharide), flavoring, sweetener (aspartame, L-phenylalanine compound, acesulfame K), safflower yellow coloring, vegetable coloring</t>
-  </si>
-  <si>
-    <t>Sugar, powdered malt prepared products (mixed malt extract, sugar, cocoa powder, skim milk powder, vegetable oils and fats, whey calcium), malt extract, cocoa powder, skim milk powder, emulsifiers, calcium carbonate, magnesium carbonate, Vitamin C, vitamin D, pH regulator, iron pyrophosphate, lecithin (soybean-derived), niacin, vitamin B1, antioxidant (vitamin E), vitamin B2, vitamin a</t>
-  </si>
-  <si>
-    <t>Glucose, sugar, starch, gelatin, acidulant, emulsifiers, brightener, flavoring, coloring (Gardia jasminoides, vegetable coloring, carotenoids), paste (gum arabic)</t>
-  </si>
-  <si>
-    <t>Rice noodles (produced in vietnam (rice, starch, salt)), soup (salt, sugar, chicken oil, flavor oils, hydrolyzed protein, vegetable oils and fats, chicken extract, spices, yeast extract, chicken seasoning, green onion extract), garnish (processed soybean, green onions, bean sprouts, coriander)/modified starches, seasoning (such as amino acids), alcohol, thickener (modified starches, thickening polysaccharides), flavoring, caramel coloring, emulsifiers, acidulant, antioxidant (vitamin E), (some parts of the raw materials may contain dairies, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Rice noodles (produced in vietnam (rice, starch, salt)), garnished soup (salt, bok choi, sugar, tom yum seasoning powder, processed soybean, spices, green onions, yeast extract, hydrolyzed protein, shrimp sauce, chicken seasoning, shrimp extract, coriander, pepper)/modified starches, seasoning (such as amino acids), acidulant, flavoring, fine silicon dioxide, carotenoid pigment, sweetener (sucralose, acesulfame K), emulsifiers, thickener (guar gum), (may contain shrimp, soybeans, chicken, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Rice noodles (produced in vietnam (rice, starch, salt)), soup (hydrolyzed protein, sugars, salt, spices, beef tallow, fermented seasoning, vegetable oils and fats, sake-brewed vinegar, tomato ketchup, beef extract, flavor oils, yeast extract), garnish (processed soybean, green onions, pepper)/modified starches, seasoning (such as amino acids), alcohol, flavoring, spice extracts, thickening polysaccharides, caramel coloring, emulsifiers, acidulant, sweetener (sucralose, acesulfame K), antioxidant (vitamin E), (may contain shrimp, beef, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), shortening, sugar, chocolate chip, starch, chicken's egg, cocoa powder, salt, spices/swelling agent, emulsifiers, flavoring, carotene dye, (may contain wheat, eggs, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Fruits (apple, orange, guava, pineapple, passion fruit), sugars (sugar, glucose), ginseng root extract, L-carnitine L-tartrate, vegetable oils, sodium chloride, guarana seed extract/carbonic acid, citric acid, flavoring, preservatives (sodium benzoate), L-Arginine, sodium citrate, caffeine, sweetener (sucralose), niacin, inositol, vitamin B6, vitamin B2, coloring (β-carotene), vitamin B12</t>
-  </si>
-  <si>
-    <t>Sugars (sugar (made domestically), glucose), ginseng root extract, L-carnitine L-tartrate, sodium chloride, guarana seed extract/carbonic acid, phosphoric acid, sodium citrate, caramel coloring, citric acid, preservatives (sodium benzoate), flavoring, L-Arginine, caffeine, niacin, sweetener (sucralose), inositol, vitamin B6, vitamin B2, vitamin B12</t>
-  </si>
-  <si>
-    <t>Sugars (sugar, glucose), ginseng root extract, L‐carnitine L‐tartrate, sodium chloride, guarana seed extract, citric acid, flavoring, sweetener (D‐ribose, sucralose), L‐arginine, sodium citrate, caffeine, preservatives (benzoic acid), niacin, coloring (anthocyanin), inositol, V. B6, V. B2, V. B12</t>
-  </si>
-  <si>
-    <t>Fruits (apple, orange, peaches, tangerine, pineapple, grape), sugars (sugar, glucose), ginseng root extract, L-carnitine L-tartrate, sodium chloride, guarana seed extract, citric acid, flavoring, carbonate gas, sweetener (D-ribose, sucralose), L-Arginine, caffeine, sodium citrate, coloring (β-carotene, anthocyanin), niacin, inositol, V. B6, V. B2, V. B12</t>
-  </si>
-  <si>
-    <t>Milk (made domestically), sugar, coffee, skim milk powder, whole milk powder, dextrin/emulsifiers, flavoring, cellulose</t>
-  </si>
-  <si>
-    <t>Potato (Japan: not genetically modified), vegetable oils, flavor oils, sugar, glucose, black pepper, starch, powdered soy sauce (wheat, contains soybeans), salt, onion, fish extract powder, yeast extract powder/seasoning (such as amino acids), spice extracts, flavoring</t>
-  </si>
-  <si>
-    <t>Dough (made domestically) (wheat flour, starch, scallop extract powder, shrimp powder, clam extract powder, sugar, powdered soy sauce, vegetable oils, clam paste powder, oyster extract powder), vegetable oils, dextrin, glucose, clam extract powder, powdered soy sauce, sardine extract powder, sake lees powder, salt, pepper, lactose/modified starches, trehalose, seasoning (such as amino acids), acidulant, flavoring, (some parts of the raw materials may contain dairies, wheat, shrimp, crab, mackerel, soybeans, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Corn grits (not genetically modified), sugar, vegetable oils and fats, margarine, cocoa powder, sweetened condensed milk, caramel sauce, salt, cream (dairy products), fermentation flavor powder, lactose, cacao mass, whole milk powder, protein hydrolyzate, cream powder, caramel coloring, calcium carbonate, flavoring, emulsifiers, trehalose, (some parts of the raw materials may contain wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Sugar, vegetable oils and fats, corn grits (not genetically modified), bread crumbs, margarine, cocoa powder, sweetened condensed milk, caramel sauce, salt, cream (dairy products), fermentation flavor powder, lactose, cacao mass, whole milk powder, cream powder, calcium carbonate, caramel coloring, flavoring, emulsifiers, trehalose, (some parts of the raw materials may contain soybeans)</t>
-  </si>
-  <si>
-    <t>Corn grits (made domestically), sugar, vegetable oils and fats, margarine, sweetened condensed milk, salt, honey, butter/sorbitol, calcium carbonate, flavoring, emulsifiers, sweetener (advantame), carotenoid pigment, (some parts of the raw materials may contain dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Dried potato (not genetically modified), vegetable oils and fats, corn powder (not genetically modified), sugar, shortening, starch, salt, cheese powder, butter powder, glucose, fermented seasoning powder, yeast extract powder, onion powder, spinach powder, dextrin, carrot extract powder, wheat flour, cabbage powder, powdered soy sauce, chicken extract powder/modified starches, trehalose, emulsifiers, calcium chloride, seasoning (such as amino acids), calcium carbonate, lactic acid Ca, flavoring, caramel coloring, carotenoid pigment, (some parts of the raw materials may contain dairies, wheat, soybeans, contains chicken)</t>
-  </si>
-  <si>
-    <t>Dried potato (foreign production), vegetable oils and fats, sour cream onion flavored powder (salt, whey powder (dairy products), sugar, onion powder, powdered vinegar, protein hydrolyzate, green onion extract powder, dextrin, yeast extract powder), salt, onion powder, powdered fats and oils, sugar, starch/modified starches, trehalose, seasoning (such as amino acids), thickener (curdlan), acidulant, flavoring, calcium carbonate, spice extracts, sweetener (sucralose, stevia), antioxidant (vitamin E), (some parts may contain dairies)</t>
-  </si>
-  <si>
-    <t>Dried potato (foreign production), vegetable oils and fats, salt, sugar, potato flavored powder (dextrin, salt, potato powder, soy sauce seasoning, yeast extract powder, powdered flavor oil, beef flavored powder, flavor oils), glucose, powdered fats and oils, beef flavored powder (beef extract powder, salt, protein hydrolyzate, beef seasoning, lactose, vegetable extract powder, spices), starch, yeast extract powder/modified starches, trehalose, seasoning (such as amino acids), thickener (curdlan), calcium carbonate, flavoring, sweetener (sucralose), antioxidant (vitamin E), acidulant, (some parts of the raw materials may contain dairies, wheat, beef, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Dried potato (foreign production), vegetable oils and fats, corn grits, wheat flour, powdered fats and oils, salt, sugar, potato flavored powder (dextrin, salt, potato powder, soy sauce seasoning, yeast extract powder, powdered flavor oil, beef flavored powder, flavor oils), glucose, beef oil, starch, yeast extract powder/trehalose, cellulose, seasoning (such as amino acids), flavoring, eggshell Ca, thickener (curdlan), emulsifiers, calcium carbonate, acidulant, (may contains egg, dairies, wheat, beef, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Corn grits (made domestically), vegetable oils and fats, sugar, margarine, sweetened condensed milk, salt, egg yolk powder/sorbitol, flavoring, eggshell Ca, emulsifiers, sweetener (sucralose), carotenoid pigment, (may contains egg, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour, sugar, vegetable oils and fats, whole milk powder, cocoa butter, rye flour, shortening, skim milk powder, malt extract, strawberry powder, butter flavor seasoning, processed condensed milk, caramel sauce, salt, emulsifiers, swelling agent, flavoring, coloring (beet red, caramel), acidulant, (may contain wheat, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Glucose-fructose syrup, flavoring, acidulant</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), glucose, syrup, starch, peach juice/gum base, acidulant, softening agent, flavoring, coloring (caramel, anthocyanin, safflower yellow, Gardia jasminoides)</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), glucose, syrup, starch/gum base, acidulant, softening agent, flavoring, coloring (Gardia jasminoides)</t>
-  </si>
-  <si>
-    <t>〈grape〉sugar (made domestically), syrup, grape paste/acidulant, flavoring, coloring (anthocyanin, Gardia jasminoides), tea extract〈orange〉sugar (made domestically), syrup, orange paste/acidulant, flavoring, coloring (carotenoids), tea extract〈strawberry〉sugar (made domestically), syrup, strawberry paste/acidulant, flavoring, coloring (anthocyanin, carotenoids), tea extract〈melon〉sugar (made domestically), syrup, concentrated melon juice/acidulant, coloring (red yeast, Gardia jasminoides), flavoring, tea extract</t>
-  </si>
-  <si>
-    <t>Anpanman: sugar, whole milk powder, vegetable oils and fats, cacao mass, cocoa butter, lactose, skim milk powder, emulsifiers (soybean-derived), flavoring。Baikinman: sugar, vegetable oils and fats, whole milk powder, cocoa butter, cacao mass, lactose, skim milk powder, emulsifiers (soybean-derived), vegetable coloring, flavoring。Dokin-chan: sugar, vegetable oils and fats, whole milk powder, cocoa butter, cacao mass, lactose, skim milk powder, emulsifiers (soybean-derived), vegetable coloring, flavoring</t>
-  </si>
-  <si>
-    <t>Biscuits (wheat flour, sugar, vegetable oils and fats, other: contains milk), sugar, cacao mass, whole milk powder, vegetable oils and fats, cocoa butter, syrup, swelling agent, emulsifiers (soybean-derived), brightener, eggshell calcium, flavoring</t>
-  </si>
-  <si>
-    <t>Sugar (foreign or domestic manufacturing), whole milk powder, vegetable oils and fats, cacao mass, cocoa butter, lactose, skim milk powder, processed fat/emulsifiers (soybean-derived), vegetable coloring, flavoring (milk, soybean-derived)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, vegetable oils and fats, chocolate chip (contains dairies), reduced starch syrup, white bean jam (contains dairies), eggs, full fat soy flour, cacao mass, syrup, skim milk powder, salt, egg yolk (contains eggs), whole milk powder/modified starches, emulsifiers (milk, soybean-derived), flavoring (milk, soybean-derived), stabilizer (modified starches), swelling agent, caramel coloring</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, vegetable oils and fats, butter, whole milk powder, fermented seeds (contains wheat), salt, foods with ingredients made mainly from milk/emulsifiers (wheat, soybean-derived), flavoring (milk, soybean-derived), carotenoid pigment</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, cacao mass, whole milk powder, vegetable oils and fats, shortening, margarine (contains dairies), lactose, butter, cocoa butter, skim milk powder, sweetened condensed milk, liquid whole egg, Uruchihie puff, sesame seeds, glucose, salt, dried egg white (contains eggs)/phosphate Ca, emulsifiers (soybean-derived), swelling agent, flavoring (milk-derived), coloring (carotenoids), vitamin D</t>
-  </si>
-  <si>
-    <t>Non-glutinous rice powder (domestic, Thailand product), vegetable oils and fats, sugar, cheese powder, salt, onion powder, tomato powder, garlic powder, yeast extract powder, basil powder, protein hydrolyzate (contains soybeans), chicken extract powder, chili powder, white pepper powder, soy protein, black pepper powder, flavor oils (wheat, contains soybeans)/modified starches, seasoning (such as amino acids), flavoring (milk, wheat, soybeans, derived from chicken), emulsifiers (soybean-derived), acidulant, antioxidant (vitamin E), coloring (carotenoids), particulate silicon oxide, spice extracts, tricalcium phosphate</t>
-  </si>
-  <si>
-    <t>○Soda flavor: sugar (made domestically), syrup (made domestically)/acidulant, flavoring, coloring (Gardia jasminoides, safflower yellow)○orange flavor: sugar (made domestically), syrup (made domestically)/acidulant, flavoring, carotenoid pigment○grape flavor: sugar (made domestically), syrup (made domestically), concentrated grape juice/acidulant, flavoring, vegetable coloring, gardenia pigment○Cola flavor: sugar (made domestically), syrup (made domestically)/acidulant, caramel coloring, flavoring</t>
-  </si>
-  <si>
-    <t>Syrup (made domestically), sugar, gelatin, oblaat powder/sorbitol, acidulant, paste (pectin), brightener, flavoring, emulsifiers, coloring (Gardia jasminoides, vegetable coloring, safflower yellow, paprika pigment)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, soy sauce, sugar, salt, chicken extract, protein hydrolyzate, meat seasoning extract, meat seasoning powder, yeast extract powder, pork powder, seafood powder/modified starches, seasoning (such as amino acids), calcium carbonate, antioxidant (vitamin E), (may contain wheat, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, sauce (sugar, vegetables, fruits, sake-brewed vinegar, salt, amino acid solution, other), sugar, salt, sauce flavor powder, spices, sea lettuce powder, vegetable powder, meat seasoning extract, vegetable extract, seafood extract, fish sauce powder (seafood)/modified starches, seasoning (such as amino acids), calcium carbonate, flavoring, caramel coloring, emulsifiers, acidulant, antioxidant (vitamin E), spice extracts, (may contain wheat, eggs, dairies, fish sauce powder (seafood), beef, mackerel, soybeans, chicken, pork, peaches, contains apple)</t>
-  </si>
-  <si>
-    <t>Glucose-fructose syrup (made domestically)/carbonic acid, acidulant, flavoring</t>
+    <t>Sugar (made domestically), starch, dextrin, plum/acidulant, thickener (gum arabic), flavoring</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production, made domestically), syrup, maltose, gelatin, concentrated pineapple juice, vegetable oils and fats</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically, produced in Thailand), wheat flour, cocoa butter, liquid egg white (contains eggs), shortening, whole milk powder, vegetable oils and fats, lactose, margarine, whey powder (contains dairies), cocoa powder, banana powder, salt, syrup/emulsifiers (soybean-derived), flavoring (soybean-derived), coloring (carotenoids), swelling agent</t>
+  </si>
+  <si>
+    <t>Starch (made domestically), non-glutinous rice (domestic), glutinous rice (Thailand product), vegetable oils and fats (sesame seeds, contains soybeans), cashew nuts, sugar, glucose, wheat flour, salt, powdered soy sauce (wheat, contains soybeans), protein hydrolyzate (contains soybeans), dextrin, kelp extract powder/modified starches, seasoning (such as amino acids), sorbitol, particulate silicon oxide, swelling agent, coloring (carotenoids), acidulant, sweetener (acesulfame K, sucralose), antioxidant (vitamin E)</t>
+  </si>
+  <si>
+    <t>Starch (made domestically), non-glutinous rice (domestic), glutinous rice (Thailand product), vegetable oils and fats, sugar, cashew nuts, peanut butter, glucose, wheat flour, salt, protein hydrolyzate (soybeans, contains gelatin), dextrin/modified starches, sorbitol, seasoning (such as amino acids), emulsifiers (soybean-derived), flavoring (milk-derived), swelling agent, coloring (carotenoids), sweetener (acesulfame K, sucralose), acidulant, antioxidant (vitamin E)</t>
+  </si>
+  <si>
+    <t>Soy protein (made domestically), sugar, shortening, wheat protein, fat spread (contains dairies), soy puff, syrup, cocoa powder, liquid egg yolk (contains eggs), cacao mass, vegetable oils and fats, whole milk powder, lactose, glucose, salt/sorbitol, glycerin, calcium carbonate, emulsifiers (soybean-derived), leucine, trehalose, valine, isoleucine, flavoring (milk-derived), V. E, niacin, pantothenic acid Ca, ferric pyrophosphate, V. B1, V. B2, V. B6, V. A, folic acid, coloring (annatto), V. D, V. B12</t>
+  </si>
+  <si>
+    <t>Soy protein (made domestically), shortening, sugar, wheat protein, soy puff, fat spread (contains dairies), caramel (foods made mainly from milk, syrup, sugar), liquid egg yolk (contains eggs), vegetable oils and fats, whole milk powder, lactose, cacao mass, glucose, cocoa powder, salt/sorbitol, glycerin, calcium carbonate, coloring (caramel, annatto), emulsifiers (soybean-derived), leucine, trehalose, valine, isoleucine, flavoring (milk-derived), V. E, niacin, ferric pyrophosphate, pantothenic acid Ca, V. B1, V. B2, V. B6, V. A, folic acid, V. D, V. B12</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,10 +1791,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1568,1524 +1802,1704 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C33" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>188</v>
+      </c>
+      <c r="C34" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>189</v>
+      </c>
+      <c r="C35" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C44" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="C47" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>296</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C50" t="s">
-        <v>302</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C54" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="C55" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>307</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C57" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C58" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="C60" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C61" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="C65" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="C66" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="C68" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C69" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="C70" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C73" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="C75" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="C76" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="C77" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C78" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="C79" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="C80" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C81" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C83" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C84" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C85" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="C86" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="C87" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C88" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="C89" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C90" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C91" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="C92" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C93" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C94" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C95" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C96" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C97" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="C98" t="s">
-        <v>347</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C99" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="C101" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C102" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="C103" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C104" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="C105" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C106" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C108" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C109" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="C112" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="C113" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>265</v>
+      </c>
+      <c r="C114" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>266</v>
+      </c>
+      <c r="C115" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="C116" t="s">
-        <v>361</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="C117" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="C118" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="C119" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="C120" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="C121" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="C122" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="C123" t="s">
-        <v>368</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="C124" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="C125" t="s">
-        <v>370</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="C126" t="s">
-        <v>371</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="C127" t="s">
-        <v>372</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C128" t="s">
-        <v>373</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="C129" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="C130" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="C131" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="C132" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="C133" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="C134" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="C135" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="C136" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="C137" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="C138" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="C139" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
     </row>
     <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>291</v>
+      </c>
+      <c r="C140" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="C141" t="s">
-        <v>385</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="C142" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>142</v>
+      </c>
       <c r="B144" t="s">
-        <v>133</v>
+        <v>295</v>
+      </c>
+      <c r="C144" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="C145" t="s">
-        <v>387</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>297</v>
+      </c>
+      <c r="C146" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>298</v>
+      </c>
+      <c r="C147" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>299</v>
+      </c>
+      <c r="C148" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>302</v>
+      </c>
+      <c r="C151" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+      <c r="C152" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>307</v>
+      </c>
+      <c r="C156" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>308</v>
+      </c>
+      <c r="C157" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/ingredients/result.xlsx
+++ b/ingredients/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="575">
   <si>
     <t>ingredients_ori</t>
   </si>
@@ -25,46 +25,19 @@
     <t>result</t>
   </si>
   <si>
+    <t>小麦粉、植物油脂、加糖練乳、砂糖、ショー　トニング、イースト、食塩、バター加工品、　酵母エキス、炭酸Ca、調味料（無機塩等）、　乳化剤、甘味料（スクラロース）、（原材料　の一部に大豆を含む）</t>
+  </si>
+  <si>
     <t>砂糖、全粉乳、ココアバター、カカオマス、植物油脂、脱脂粉乳、乳化剤、香料、アカビート色素、（原材料の一部に大豆を含む）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、乳糖、ココアバター、全粉乳、植物油脂、ショートニング、抹茶、小麦たんぱく、食塩、イースト／乳化剤、香料、調味料（無機塩）、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、砂糖、カカオマス、植物油脂、全粉乳、ショートニング、モルトエキス、でん粉、食塩、イースト、ココアバター、バター、乳化剤、香料、膨張剤、アナトー色素、調味料（無機塩）、（原材料の一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、全粉乳、カカオマス、植物油脂、小麦全粒粉、ココアバター、ショートニング、モルトエキス、小麦たんぱく、食塩、発酵バター、小麦胚芽、イースト／加工デンプン、乳化剤、香料、膨脹剤、酸化防止剤（ヤマモモ抽出物）、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
     <t>小麦粉（国内製造）、砂糖、植物油脂、乳糖、全粉乳、いちごパウダー、小麦全粒粉、ココアパウダー、ショートニング、小麦たんぱく、イヌリン、食塩、イースト、キャラメルパウダー／香料、アカビート色素、乳化剤、調味料（無機塩）、膨脹剤、酸味料、V.C、（一部に乳成分・小麦・大豆を含む）</t>
   </si>
   <si>
     <t>小麦粉（国内製造）、砂糖、アーモンド、全粉乳、植物油脂、カカオマス、ココアバター、小麦全粒粉、ショートニング、アーモンドプラリネペースト、小麦たんぱく、食塩、イースト／乳化剤、香料、膨脹剤、（一部に乳成分・小麦・大豆・アーモンドを含む）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、ココナッツ、全粉乳、植物油脂、ココアバター、カカオマス、小麦全粒粉、ショートニング、食塩、小麦たんぱく、イースト／乳化剤、香料、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、乳糖、ココアバター、全粉乳、小麦全粒粉、植物油脂、ショートニング、小麦たんぱく、バター加工品、食塩、イースト、岩塩、バニラビーンズシード／乳化剤、香料、調味料（無機塩）、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、植物油脂、加糖練乳、砂糖、ショー　トニング、イースト、食塩、バター加工品、　酵母エキス、炭酸Ca、調味料（無機塩等）、　乳化剤、甘味料（スクラロース）、（原材料　の一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、ショートニング、砂糖、でん粉、乾燥ポテト、野菜ペースト・ブイヨン混合品、イースト、小麦たんぱく、食塩、酒かす、コンソメシーズニング、香味油、こしょう／調味料（無機塩等）、加工デンプン、乳化剤、香料、酸味料、（一部に乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、ショートニング、砂糖、トマトペースト、でん粉、醸造酢（トマト酢）、イースト、ベジタブルペースト、オニオンシーズニング、食塩、乾燥ほうれんそう、こしょう／加工デンプン、調味料（無機塩等）、香料、乳化剤、酸味料、香辛料抽出物、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、砂糖、加糖練乳、小麦全粒粉、ショートニング、でん粉、発酵バター、イースト、食塩、バター加工品、乾燥卵黄／加工デンプン、調味料（無機塩）、香料、乳化剤、（一部に卵・乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、砂糖、ショートニング、乾燥ポテト、イースト、食塩、しょうゆシーズニング、黒こしょう、レモン果汁パウダー、酵母エキス／加工デンプン、調味料（アミノ酸等）、酸味料、乳化剤、香料、（一部に小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、でん粉、乾燥ポテト、小麦たんぱく、砂糖、イヌリン、食塩、粉末しょうゆ、こんぶエキスパウダー、バター加工品、バター、酵母エキス、こしょう、たんぱく加水分解物／加工デンプン、調味料（アミノ酸等）、乳化剤、香料、着色料（カロチノイド）、（一部に乳成分・小麦・大豆を含む）</t>
+    <t>小麦粉、植物油脂、ショートニング、砂糖、食塩、イースト、果糖ぶどう糖液糖、モルトエキス、コンソメシーズニング、しょうゆシーズニング、調味料（無機塩等）、香料、（原材料の一部に乳成分、大豆、鶏肉を含む）</t>
   </si>
   <si>
     <t>小麦粉（国内製造）、植物油脂、でん粉、砂糖、小麦たんぱく、ポークエキス、オニオンペースト、食塩、しょうゆシーズニング、たんぱく加水分解物、にんにくパウダー、酵母エキス、こしょう、ベーコンエキス／調味料（アミノ酸等）、香料、乳化剤、増粘剤（キサンタンガム）、着色料（アナトー色素、カラメル）、酸味料、くん液、（一部に乳成分・小麦・大豆・豚肉を含む）</t>
@@ -73,157 +46,349 @@
     <t>小麦粉（国内製造）、植物油脂、でん粉、スモークチーズパウダー、砂糖、小麦たんぱく、食塩、発酵調味料、こしょう、酵母エキス、デキストリン、麦芽糖／調味料（アミノ酸等）、香料、増粘剤（キサンタンガム）、乳化剤、着色料（アナトー色素）、酸味料、（一部に乳成分・小麦・大豆を含む）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、植物油脂、でん粉、乾燥ポテト、小麦たんぱく、砂糖、イヌリン、食塩、チキンエキスパウダー、香辛料、しょうゆシーズニング、ハーブシーズニング、ガーリックパウダー／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、着色料（カロチノイド）、酸味料、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、でん粉、乾燥ポテト、小麦たんぱく、砂糖、イヌリン、食塩、ホタテシーズニング、こんぶエキスパウダー、たんぱく加水分解物、だしパウダー、唐辛子／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、着色料（カロチノイド、カラメル色素）、酸味料、（一部に小麦・いか・大豆・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、植物油脂、ショートニング、砂糖、食塩、イースト、果糖ぶどう糖液糖、モルトエキス、コンソメシーズニング、しょうゆシーズニング、調味料（無機塩等）、香料、（原材料の一部に乳成分、大豆、鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（遺伝子組換えでない）、植物油脂、コーンパウダー（遺伝子組換えでない）、砂糖、ショートニング、澱粉、食塩、チーズパウダー、バターパウダー、ブドウ糖、発酵調味パウダー、酵母エキスパウダー、オニオンパウダー、ほうれん草パウダー、デキストリン、キャロットエキスパウダー、小麦粉、キャベツパウダー、粉末醤油、チキンエキスパウダー/加工澱粉、トレハロース、乳化剤、塩化Ca、調味料（アミノ酸等）、炭酸Ca、乳酸Ca、香料、カラメル色素、カロチノイド色素、（一部に乳成分・小麦・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>砂糖、植物油脂、コーングリッツ（遺伝子組換えでない）、パン粉、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、クリーム粉末、卵殻未焼成Ｃａ、カラメル色素、香料、乳化剤、トレハロース、（原材料の一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、コーングリッツ、植物油脂、マーガリン、加糖れん乳、砂糖混合ブドウ糖果糖液糖、食塩、メロンピューレ、準チョコレート／未焼成Ca、香料、乳化剤、ｐH調整剤、クチナシ色素、甘味料（スクラロース）、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（遺伝子組換えでない）、砂糖、植物油脂、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、たんぱく加水分解物、クリーム粉末、カラメル色素、卵殻未焼成Ca、香料、乳化剤、トレハロース、（原材料の一部に小麦、大豆を含む）</t>
-  </si>
-  <si>
-    <t>もち米（国内産）、つゆ（醤油、砂糖、食塩、かつお節エキス、発酵調味料、魚醤、醸造酢、昆布）、麦芽糖、もち米粉（タイ産）、発酵調味料、澱粉、イソマルトオリゴ糖、水あめ、アミノ酸液、唐辛子パウダー（ハバネロ使用）／トレハロース、加工澱粉、調味料（アミノ酸等）、酸味料、カロチノイド色素、ソルビトール、（一部に小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、牛乳、ココアパウダー、カラメルソース、食塩、カカオマス、準チョコレート／香料、カラメル色素、未焼成Ca、乳化剤、甘味料（スクラロース）、トレハロース、（一部に乳成分・大豆を含む）</t>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、乳糖、小麦全粒粉、植物油脂、イヌリン、全粉乳、いちごパウダー、食塩、小麦たんぱく、でん粉、乳酸菌／炭酸Ca、膨脹剤、香料、乳化剤、調味料（アミノ酸）、酸味料、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、乳糖、植物油脂、全粉乳、イヌリン、食塩、でん粉、小麦たんぱく、乳酸菌／炭酸Ca、膨脹剤、香料、乳化剤、調味料（アミノ酸）、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、乳糖、小麦全粒粉、植物油脂、全粉乳、イヌリン、メープルシュガー、キャラメルパウダー、食塩、小麦たんぱく、でん粉、乳酸菌／炭酸Ca、膨脹剤、香料、乳化剤、調味料（アミノ酸）、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、全粉乳、植物油脂、発酵バター、乳糖、イヌリン、食塩、バターミルクパウダー、小麦たんぱく、乳酸菌、バニラビーンズシード／炭酸Ca、膨脹剤、乳化剤、香料、調味料（アミノ酸）、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、タピオカでん粉／酸味料、乳化剤、香料、アカキャベツ色素</t>
+  </si>
+  <si>
+    <t>水あめ、砂糖、植物油脂、ゼラチン、濃縮ストロベリー果汁、加糖練乳、ストロベリージャム、乳酸菌飲料、酸味料、乳化剤、香料、アカキャベツ色素</t>
+  </si>
+  <si>
+    <t>砂糖、水あめ、植物油脂、ラムネ菓子（エリスリトール、ポリデキストロース）、ゼラチン、デキストリン、濃縮レモン果汁、酸味料、乳化剤、香料、ステアリン酸カルシウム、ベニバナ黄色素</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、水あめ、砂糖、植物油脂、ゼラチン／グリセリン、ソルビトール、増粘多糖類、酸味料、香料、乳化剤、クチナシ青色素</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、タピオカでん粉／酸味料、乳化剤、香料、アカキャベツ色素、クチナシ青色素、増粘剤（アラビアガム）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、食塩、チキンエキス、ラード、砂糖、香味油脂、たん白加水分解物、植物油、粉末野菜、ポークエキス、香辛料、ねぎ、酵母エキス、発酵調味料）、かやく（ワンタン、味付鶏挽肉、コーン）、加工でん粉、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、増粘多糖類、香料、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（みそ、ポークエキス、醤油、香味油脂、ラード、香辛料、植物油、砂糖、食塩、たん白加水分解物、酵母エキス、ねぎ、発酵調味料）、かやく（コーン、味付鶏挽肉）、加工でん粉、調味料（アミノ酸等）、カラメル色素、酒精、炭酸カルシウム、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、ｐＨ調整剤、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、ポークエキス、食塩、ラード、でん粉、植物油、香味油脂、砂糖、たん白加水分解物、香辛料、ねぎ、粉末煮干し）、かやく（焼豚、なると）、加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ、ビタミンＣ）、クチナシ色素、ｐＨ調整剤、カラメル色素、香料、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、鶏肉、ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（チキンエキス、しょうゆ、食塩、植物油、発酵調味料、砂糖、野菜エキス、こんぶエキス、香辛料、酵母エキス、鶏脂、ラード、魚介エキス）、かやく（ワンタン、卵）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、かんすい、酸化防止剤（ビタミンＣ、ビタミンＥ）、レシチン、クチナシ色素、カラメル色素、増粘多糖類、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、かやく（ワンタン、味付鶏挽肉）、添付調味料（チキンエキス、香辛料、砂糖、食塩、粉末野菜、しょうゆ、ねぎ、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（チキンエキス、しょうゆ、食塩、植物油、発酵調味料、砂糖、野菜エキス、こんぶエキス、香辛料、酵母エキス、鶏脂、ラード、魚介エキス）、かやく（ワンタン、卵）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、かんすい、酸化防止剤（ビタミンＣ、ビタミンＥ）、レシチン、クチナシ色素、カラメル色素、増粘多糖類、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、ポークエキス、食塩、ラード、でん粉、植物油、香味油脂、砂糖、たん白加水分解物、香辛料、ねぎ、粉末煮干し）、かやく（焼豚、なると）、加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ、ビタミンＣ）、クチナシ色素、ｐＨ調整剤、カラメル色素、香料、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、鶏肉、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（みそ、ポークエキス、醤油、香味油脂、ラード、香辛料、植物油、砂糖、食塩、たん白加水分解物、酵母エキス、ねぎ、発酵調味料）、かやく（コーン、味付鶏挽肉）、加工でん粉、調味料（アミノ酸等）、カラメル色素、酒精、炭酸カルシウム、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、ｐＨ調整剤、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、食塩、チキンエキス、ラード、砂糖、香味油脂、たん白加水分解物、植物油、粉末野菜、ポークエキス、香辛料、ねぎ、酵母エキス、発酵調味料）、かやく（ワンタン、味付鶏挽肉、コーン）、加工でん粉、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、増粘多糖類、香料、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
-  </si>
-  <si>
     <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（しょうゆ、チキンエキス、食塩、植物油、鶏脂、ポークエキス、香辛料、砂糖、野菜エキス、発酵調味料、たん白加水分解物、酵母エキス、ミート風味パウダー、香味油脂）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（みそ、ポークエキス、食塩、香辛料、香味油脂、野菜エキス、植物油、ラード、砂糖、発酵調味料、デーツ果汁、たん白加水分解物）／加工でん粉、調味料（アミノ酸等）、トレハロース、酒精、かんすい、炭酸カルシウム、カラメル色素、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（チキンエキス、食塩、ポークエキス、香味油脂、しょうゆ、野菜エキス、植物油、砂糖、香辛料、魚介エキス、たん白加水分解物、豚脂）／加工でん粉、調味料（アミノ酸等）、酒精、トレハロース、かんすい、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、増粘多糖類、香料、クチナシ色素、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（ポークエキス、しょうゆ、鶏脂、食塩、でん粉、砂糖、香辛料、たん白加水分解物、野菜エキス、植物油）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、カラメル色素、炭酸カルシウム、増粘多糖類、酒精、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、植物油脂、食塩、植物性たん白、卵白）、添付調味料（しょうゆ、ラード、魚介エキス、食塩、チキンエキス、ポークエキス、香味油脂、砂糖、香辛料、酵母エキス）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、（一部に小麦・卵・さば・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩、植物性たん白）、添付調味料（食塩、香辛料、チキンエキス、しょうゆ、酵母エキス、砂糖、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、酸味料、クチナシ色素、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（ポークエキス、しょうゆ、鶏脂、食塩、でん粉、砂糖、香辛料、たん白加水分解物、野菜エキス、植物油）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、カラメル色素、炭酸カルシウム、増粘多糖類、酒精、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、植物油脂、食塩、植物性たん白、卵白）、添付調味料（しょうゆ、ラード、魚介エキス、食塩、チキンエキス、ポークエキス、香味油脂、砂糖、香辛料、酵母エキス）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、（一部に小麦・卵・さば・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（みそ、ポークエキス、食塩、香辛料、香味油脂、野菜エキス、植物油、ラード、砂糖、発酵調味料、デーツ果汁、たん白加水分解物）／加工でん粉、調味料（アミノ酸等）、トレハロース、酒精、かんすい、炭酸カルシウム、カラメル色素、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩）、添付調味料（食塩、しょうゆ、デキストリン、チキンエキス、ポークエキス、香辛料（黒こしょう、ガーリックパウダー））／加工でん粉、カラメル色素、炭酸カルシウム、調味料（アミノ酸等）、かんすい、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
     <t>砂糖（タイ製造）、水あめ、ゼラチン、食用油脂／甘味料（ソルビトール）、酸味料、香料、ゲル化剤（ペクチン：オレンジ由来）、着色料（クチナシ、野菜色素）</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料（赤唐辛子、ガーリック、ペッパー）、デキストリン、糖類、たん白加水分解物、香味油、酵母エキス、しょうゆ、ローストオニオン粉末、香味調味料）、かやく（味付豚肉、卵、ニラ、赤唐辛子）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、酸化防止剤（ビタミンＥ）、カロチノイド色素、酸味料、甘味料（スクラロース）、くん液、ビタミンＢ２、香辛料抽出物、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･大豆･豚肉を含む）</t>
+    <t>砂糖（タイ製造又は韓国製造）、生あん、水あめ、カカオマス、寒天／甘味料（ソルビトール）、香料、乳化剤</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造、国内製造)、水あめ、ゼラチン、乳糖、乳酸菌乾燥粉末（殺菌）、ビフィズス菌乾燥粉末(殺菌)／ソルビトール、酸味料、香料、ゲル化剤（ペクチン）、アラビアガム、光沢剤、着色料(赤キャベツ、紅花黄、クチナシ)、乳化剤、（一部に乳成分・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、でん粉、食塩／香料、重曹、酸味料、糊料（プルラン）、赤キャベツ色素</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮マスカット果汁、紅茶エキスパウダー、オブラートパウダー／ソルビトール、酸味料、香料、ゲル化剤（ペクチン）、乳化剤、光沢剤、（一部に大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造)、砂糖、ゼラチン、濃縮レモン果汁、カルダモン末、シナモン末、クローブ末、バニラシロップ、オブラートパウダー／ソルビトール、酸味料、ゲル化剤（ペクチン）、香料、乳化剤、光沢剤、（一部に大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造、国内製造）、水あめ、ゼラチン、乳糖／ソルビトール、酸味料、香料、ゲル化剤（ペクチン）、着色料（カラメル、赤キャベツ、クチナシ、カロチン）、アラビアガム、光沢剤、乳化剤、（一部に乳成分・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、せとか果汁/酸味料、香料、アナトー色素</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮マスカット果汁、濃縮ぶどう果汁、植物油脂、でん粉/ソルビトール、酸味料、加工デンプン、香料、着色料（クチナシ、フラボノイド）、光沢剤、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、植物油脂、でん粉、ソルビトール、酸味料、加工デンプン、香料、着色料（カラメル、クチナシ）、光沢剤、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮ぶどう果汁、濃縮マスカット果汁、植物油脂/ソルビトール、酸味料、骨Ca、香料、着色料（フラボノイド、アントシアニン、クチナシ、紅麹）、光沢剤、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮バナナ果汁、濃縮レモン果汁、濃縮すもも果汁、植物油脂/ソルビトール、酸味料、骨Ca、香料、着色料（アントシアニン、クチナシ）、光沢剤、（一部にバナナ・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、でん粉、濃縮オレンジ果汁、濃縮レモン果汁、植物油脂/ソルビトール、酸味料、増粘剤（増粘多糖類、CMC-Na）、香料、着色料（フラボノイド、カロチノイド）、光沢剤、（一部にオレンジ・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、植物油脂、ゼラチン、濃縮マスカット果汁、加糖練乳、でん粉/乳化剤、ソルビトール、増粘多糖類、加工デンプン、酸味料、香料、着色料（フラボノイド、クチナシ）、（一部に乳成分・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ソース、糖類）、ソース（ソース、からしマヨネーズ、糖類、植物油脂、食塩、香味油、たん白加水分解物、ソース加工品、香味調味料、ポークエキス、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（ソース加工品、マヨネーズ風ソースフレーク、アオサ、紅しょうが）／カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、乳化剤、香料、香辛料抽出物、酸化防止剤（ビタミンＥ）、炭酸マグネシウム、カロチノイド色素、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･オレンジ･ごま･大豆･豚肉･りんごを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉(国内製造）、食塩、植物油脂、植物性たん白、卵粉、米麹調味料（でん粉、米麹加工品、塩麹、食塩）、ポークエキス）、スープ（食塩、糖類、香辛料、豚脂、香味調味料、豚･鶏エキス、しょうゆ、デキストリン、たん白加水分解物、酵母エキス、しょうゆもろみ、ローストオニオン粉末、植物油脂）／加工デンプン、膨張剤、調味料（アミノ酸等）、酒精、かんすい、炭酸カルシウム、増粘剤（加工デンプン、増粘多糖類）、香料、カラメル色素、炭酸マグネシウム、カロチノイド色素、酸味料、酸化防止剤（ビタミンＥ）、乳化剤、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉･ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ホタテエキス、乳たん白）、スープ（食塩、ポークエキス、香辛料、たん白加水分解物、糖類、香味調味料、酵母エキス、しょうゆ、ローストオニオン粉末）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、炭酸マグネシウム、増粘多糖類、香料、酸化防止剤（ビタミンＥ）、カロチノイド色素、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
   </si>
   <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料、香味油、たん白加水分解物、酵母エキス、しょうゆ、デキストリン、糖類、ローストオニオン粉末、香味調味料、植物油脂）、かやく（卵、豚・鶏味付肉、ニラ）/加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、カロチノイド色素、微粒二酸化ケイ素、乳化剤、酸化防止剤（ビタミンE）、酸味料、甘味料（スクラロース）、香辛料抽出物、ビタミンB2、ビタミンB1、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（ペッパーガーリックマヨネーズ、しょうゆ、糖類、豚脂、植物油脂、食塩、ポークエキス、香味油、たん白加水分解物、香味調味料、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（香辛料、アオサ、赤唐辛子）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、酒精、香料、増粘剤（キサンタンガム）、乳化剤、酸味料、カロチノイド色素、酸化防止剤（ビタミンＥ）、カラメル色素、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･ごま･大豆･鶏肉･豚肉を含む）</t>
+  </si>
+  <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（半固体状ドレッシング、しょうゆ、糖類、豚脂、食塩、ポークエキス、魚醤、魚介エキス、たん白加水分解物、香味調味料、香辛料）、かやく（キャベツ）、ふりかけ（たらこ加工品、のり、香辛料）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、カラメル色素、酒精、香料、増粘剤（加工デンプン、キサンタンガム）、乳化剤、酸味料、カロチノイド色素、ベニコウジ色素、酸化防止剤（ビタミンＥ）、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･いか･さけ･さば･大豆･豚肉を含む）</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（ペッパーガーリックマヨネーズ、しょうゆ、糖類、豚脂、植物油脂、食塩、ポークエキス、香味油、たん白加水分解物、香味調味料、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（香辛料、アオサ、赤唐辛子）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、酒精、香料、増粘剤（キサンタンガム）、乳化剤、酸味料、カロチノイド色素、酸化防止剤（ビタミンＥ）、カラメル色素、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･ごま･大豆･鶏肉･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ソース、糖類）、ソース（ソース、からしマヨネーズ、糖類、植物油脂、食塩、香味油、たん白加水分解物、ソース加工品、香味調味料、ポークエキス、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（ソース加工品、マヨネーズ風ソースフレーク、アオサ、紅しょうが）／カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、乳化剤、香料、香辛料抽出物、酸化防止剤（ビタミンＥ）、炭酸マグネシウム、カロチノイド色素、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･オレンジ･ごま･大豆･豚肉･りんごを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、チキンエキス、たん白加水分解物、香辛料、酵母エキス、ねぎ、ローストオニオン粉末、かつおぶし粉末、香味調味料、植物油脂）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、かんすい、香料、増粘多糖類、乳化剤、酸化防止剤（ビタミンＥ）、カロチノイド色素、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･大豆･鶏肉･豚肉･ゼラチンを含む）</t>
+    <t>砂糖、マルトース、ゼラチン、濃縮リンゴ果汁、食塩、その他</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（砂糖、植物油脂、ココアパウダー）、小麦粉、砂糖、鶏卵、ぶどう糖果糖液糖、その他</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、カレー粉、しょうゆ、食塩、チキンエキス、植物性たん白、卵粉、香辛料、香味調味料、砂糖、デキストリン、オニオンパウダー／加工でん粉、調味料（アミノ酸等）、かんすい、炭酸Ｃａ、カロチノイド色素、増粘剤（アルギン酸エステル）、酸化防止剤（ビタミンＥ）、香辛料抽出物、甘味料（アセスルファムＫ、スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、砂糖、ショートニング、抹茶(京都産宇治抹茶100%)、食塩、乳糖/膨張剤、クチナシ色素、香料、乳化剤(大豆由来)、酸化防止剤(ビタミンE)</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、粉末しょうゆ（小麦・大豆を含む）、たん白加水分解物、食塩、でん粉、かつお節パウダー、唐辛子、ごま、しょうがパウダー、あおさ、昆布パウダー、花椒、陳皮パウダー、赤しそパウダー、ぶどう糖、デキストリン、ビーフエキス調味料／調味料（アミノ酸等）、香料、甘味料（ステビア）、香辛料抽出物</t>
   </si>
   <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（砂糖、食塩、ソース、香辛料、デキストリン、たん白加水分解物）、かやく（キャベツ）/加工でんぷん、調味料（アミノ酸等）、カラメル色素、炭酸Ca、かんすい、酸味料、増粘多糖類、炭酸Mg、酸化防止剤（ビタミンE）、香料、ビタミンB2、ビタミンB1、（一部に小麦・大豆・ごまを含む）</t>
   </si>
   <si>
+    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖／酸味料、乳酸Ca、ゲル化剤（増粘多糖類）、香料、V.B2、V.B1、V.B6</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖、植物性乳酸菌末（殺菌）／酸味料、乳酸Ca、ゲル化剤（増粘多糖類）、香料、V.B2、V.B1、V.B6</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖、添加物：酸味料、ゲル化剤（増粘多糖類）、乳酸Ca、香料、野菜色素、V.B2、V.B1、V.B6</t>
+  </si>
+  <si>
     <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、乳化剤（大豆由来）、貝カルシウム、香料、着色料（カラメル）、膨張剤</t>
   </si>
   <si>
+    <t>チョコレート（乳糖、ココアバター、砂糖、植物油脂、全粉乳、乾燥いちご）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、香料、乳化剤（大豆由来）、着色料（アカビート、紅麹）貝カルシウム、膨張剤、酸味料</t>
+  </si>
+  <si>
+    <t>ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）（国内製造）、乳糖、ココアバター、砂糖、植物油脂、全粉乳、脱脂粉乳、発酵乳パウダー、殺菌乳酸菌粉末／加工デンプン、貝カルシウム、乳化剤（大豆由来）、香料、着色料（カラメル、クチナシ）、膨脹剤</t>
+  </si>
+  <si>
+    <t>ぶどう味グミ（水あめ、砂糖、ゼラチン、濃縮ぶどう果汁、その他）（国内製造）、砂糖、全粉乳、ココアバター、カカオマス、植物油脂、乳糖／香料、ソルビトール、光沢剤、酸味料、乳化剤（大豆由来）、着色料（アカキャベツ、クチナシ）</t>
+  </si>
+  <si>
+    <t>カカオマス（カカオ豆（ガーナ、エクアドル））、砂糖、ココアパウダー、ココアバター、カカオニブ加工品、全粉乳／乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造）、全粉乳、カカオマス、乳糖、ココアバター、植物油脂、還元水あめ、酒精、ラム酒、ラム酒漬けレーズン／乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>＜コーラ＞砂糖（国内製造）、水あめ／酸味料、重曹、着色料（カラメル）、香料＜ラムネ＞砂糖（国内製造）、水あめ／酸味料、重曹、香料、着色料（クチナシ）＜グレープソーダ＞砂糖（国内製造）、水あめ／酸味料、重曹、香料、着色料（アカキャベツ、クチナシ）＜ヨーグルトソーダ＞砂糖（国内製造）、水あめ／酸味料、重曹、香料＜メロンクリームソーダ＞砂糖（国内製造）、水あめ、加糖れん乳、乳等を主要原料とする食品／酸味料、重曹、香料、着色料（紅麹、クチナシ）、乳化剤</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、食塩（ぬちまーす100%）、植物油脂、濃縮レモン果汁／酸味料（クエン酸）、ビタミンC、香料、乳化剤、着色料（クチナシ、紅麹）</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、ショートニング、砂糖、全粒粉、乳糖、乳等を主要原料とする食品、乾燥全卵、でん粉、食塩／膨張剤、香料、乳化剤(大豆由来)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、砂糖、ショートニング、ココアパウダー、乳糖、乳等を主要原料とする食品、乾燥全卵、でん粉、食塩／膨張剤、香料、乳化剤(大豆由来)</t>
+  </si>
+  <si>
+    <t>〈ミルク味〉小麦粉（国内製造）、ショートニング、砂糖、全粒粉、乳糖、乳等を主要原料とする食品、乾燥全卵、でん粉、食塩／膨張剤、香料、乳化剤（大豆由来）　〈チョコ味〉小麦粉（国内製造）、砂糖、ショートニング、ココアパウダー、乳糖、乳等を主要原料とする食品、乾燥全卵、でん粉、食塩／膨張剤、香料、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産）、でん粉、しょうゆ、わさび風味シーズニング、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、粉末わさび／調味料（アミノ酸等）、加工でん粉、ソルビトール、着色料（カラメル、パプリカ色素）、香料、香辛料抽出物、チャ抽出物、（一部に小麦・卵・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産）、でん粉、しょうゆ、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、食塩／加工でん粉、調味料（アミノ酸等）、ソルビトール、着色料（カラメル、パプリカ色素）、香辛料抽出物、（一部に小麦・卵・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産）、でん粉、しょうゆ、梅しそシーズニング、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、乾燥梅肉／調味料（アミノ酸等）、加工でん粉、酸味料、ソルビトール、香料、着色料（カラメル、パプリカ色素、ムラサキトウモロコシ色素）、甘味料（スクラロース、ネオテーム）、香辛料抽出物、（一部に小麦・卵・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産）、でん粉、ピーナッツ（ピーナッツ、植物油脂、食塩）、しょうゆ、わさび風味シーズニング、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、粉末わさび／調味料（アミノ酸等）、加工でん粉、ソルビトール、着色料（カラメル、パプリカ色素）、香料、香辛料抽出物、チャ抽出物、乳化剤、（一部に小麦・卵・落花生・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>原材料：うるち米粉（国産）、でん粉、ピーナッツ（ピーナッツ、植物油脂、食塩）、しょうゆ、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、食塩／加工でん粉、調味料（アミノ酸等）、ソルビトール、着色料（カラメル、パプリカ色素）、乳化剤、香辛料抽出物、（一部に小麦・卵・落花生・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>野菜（じゃがいも（国産）、にんじん、コーン）、大豆油、豚肉、小麦粉ルウ、ソテーオニオン、砂糖、カレー粉、エキス（ポーク、酵母）、醤油、トマトペースト、食塩、チキンエキス調味料、ミルポワペースト、チーズパウダー、酵母エキスパウダー／増粘剤（加工でん粉）、調味料（アミノ酸等）、セルロース、（一部に乳成分・小麦・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>昆布（国内産）、醸造酢、かつおぶしエキス、食塩、たんぱく加水分解物、発酵調味料/調味料（アミノ酸等）、酸味料、ソルビトール、加工でん粉、甘味料（ステビア抽出物）、（一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>米（国産）、ホエイパウダー（乳成分を含む）、砂糖、チーズ風味シーズニング（乳成分を含む）、乳糖、食塩、オニオンエキスパウダー、しょうゆ（小麦・大豆を含む）、ピザ風味シーズニング（小麦・乳成分・大豆・豚肉を含む）、チーズパウダー（チェダーチーズ45%、カマンベールチーズ30%、ゴーダチーズ1%）、植物油脂、唐辛子、たんぱく加水分解物（大豆を含む）／調味料（アミノ酸等）、香料、甘味料（ステビア、スクラロース）、乳化剤、パプリカ色素、くん液、香辛料抽出物</t>
+  </si>
+  <si>
     <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、ストロベリーパウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、紅麹、アカビート）、香料、乳化剤（大豆由来）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、全粉乳、でん粉、カカオマス、ショートニング、加糖れん乳、ココアパウダー、クリームパウダー、モルトエキス、食塩、ココアバター、大豆胚芽エキス／膨脹剤、乳化剤、香料</t>
+    <t>＜れもん＞水あめ（国内製造）、砂糖、ゼラチン、濃縮レモン果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、乳化剤、紅花色素、光沢剤＜コーラ＞水あめ（国内製造）、砂糖、ゼラチン、コーラナッツエキス、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、カラメル色素、香料、乳化剤、光沢剤＜ソーダ＞水あめ（国内製造）、砂糖、ゼラチン、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、クチナシ色素、乳化剤、光沢剤＜ぶどう＞水あめ（国内製造）、砂糖、ゼラチン、濃縮グレープ果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、着色料（ブラックキャロットジュース、クチナシ）、乳化剤、光沢剤</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造又は外国製造）、小麦粉、植物油脂、カカオマス、でん粉、ショートニング、乳糖、全粉乳、液卵、ホエイパウダー、クリームパウダー、脱脂粉乳、食塩、ココアパウダー、ココアバター／炭酸Ｃａ、膨脹剤、カラメル色素、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>コーンパフ（コーングリッツ、砂糖、植物油脂、水あめ、ココアパウダー、食塩）（国内製造）、砂糖、植物油脂、カカオマス、乳糖、全粉乳、ココアバター、水あめ　／　光沢剤、増粘剤（アラビアガム）、乳化剤（大豆由来）、香料、カラメル色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、植物油脂、乳糖、全粉乳、カカオマス、ココアバター、れん乳パウダー、ストロベリーパウダー／乳化剤（大豆由来）、アカビート色素、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、植物性加工油脂、水飴、ゼラチン、濃縮りんご果汁／セルロース、酸味料、乳化剤、香料、甘味料（アスパルテーム・Ｌ‐フェニルアラニン化合物、アセスルファムＫ）、着色料（青色１号）、（一部にりんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>ピーナッツ（中国）、植物油脂、食塩、香味食用油、唐辛子、花椒、豆板醤、水飴、ネギ、ガーリック／調味料（アミノ酸等）、香辛料抽出物、（一部に小麦・ピーナッツ・大豆を含む）</t>
   </si>
   <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、食塩、植物性たん白、しょうゆ）、スープ（しょうゆ、糖類、食塩、動物油脂、ビーフエキス、たん白加水分解物、昆布エキス、鰹エキス）、かやく（かす入り揚げ玉、とろろ昆布、かまぼこ、ねぎ）／加工でん粉、調味料（アミノ酸等）、酒精、リン酸Na、香料、増粘剤（キサンタン）、酸化防止剤（ビタミンE)、カラメル色素、膨脹剤、紅麹色素、クチナシ色素、（一部に小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、乳糖、加工油脂、還元水あめ、さつまいもパウダー、卵、マーガリン、植物油脂、乳等を主要原料とする食品（バター、乳糖、カゼインカルシウム、食塩）、脱脂粉乳、食塩、麦芽糖、小麦ファイバー、水あめ／着色料（クチナシ、アナトー）、乳化剤（大豆由来）、結晶セルロース、香料</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、小麦粉、加工油脂、脱脂粉乳、ぶどう糖果糖液糖、カカオマス、ココアパウダー、卵、加糖脱脂練乳、マーガリン、ココアバター、水あめ、植物油脂、乳糖、食塩、麦芽糖、ぶどう糖／着色料（カラメル、アナトー）、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、加工油脂、乳糖、全粉乳、ぶどう糖果糖液糖、卵、加糖脱脂練乳、マーガリン、いちごパウダー、水あめ、植物油脂、食塩、麦芽糖、ぶどう糖／乳化剤（大豆由来）、酸味料、着色料（紅麹、アカビート、アナトー）、香料</t>
-  </si>
-  <si>
-    <t>準チョコレート（砂糖、乳糖、植物油脂、全粉乳、ココアバター）、小麦粉、植物油脂、乳糖、砂糖、くりパウダー、ココアパウダー、イースト、全粉乳、カカオマス、ココアバター／乳化剤、香料、カラメル色素、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>準チョコレート（砂糖、乳糖、植物油脂、全粉乳、ココアバター）（国内製造）、小麦粉、植物油脂、乳糖、砂糖、さつまいもパウダー、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、香料、重曹、イーストフード、クチナシ色素、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、ココアパウダー、食塩）、砂糖、小麦粉、カカオマス、乳糖、全粉乳、ココアバター、ココアパウダー、イースト／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、食塩／乳化剤、調味料（アミノ酸）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、コンソメシーズニング（チキンエキスパウダー、砂糖、ぶどう糖、食塩、オニオンパウダー、野菜エキスパウダー、酵母エキスパウダー、デキストリン、乳糖、香辛料、たん白加水分解物、植物油脂）、砂糖、オニオンパウダー、食塩、香辛料／調味料（アミノ酸等）、乳化剤、着色料（パプリカ粉末、パプリカ色素）、加工デンプン、香料、酸味料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、食塩、青のり、あおさ／乳化剤、調味料（アミノ酸）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、サワークリームオニオン風味シーズニング（オニオンパウダー、食塩、乳等を主要原料とする食品、砂糖、ぶどう糖、酵母エキスパウダー、でん粉、粉末酢、サワークリームパウダー）、オニオンペースト／調味料（アミノ酸等）、酸味料、香料、乳化剤、香辛料抽出物、甘味料（カンゾウ）、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、バターしょうゆシーズニング（乳等を主要原料とする食品、砂糖、しょうゆパウダー、食塩、たん白加水分解物、バターパウダー、チーズパウダー、酵母エキスパウダー、かつお節パウダー）、バターミルクパウダー／調味料（アミノ酸等）、香料、乳化剤、甘味料（カンゾウ、スクラロース）、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、甘えびパウダー、食塩／加工デンプン、乳化剤、調味料（アミノ酸）、（一部にえびを含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、でん粉、砂糖、ショートニング、乳糖、しょうゆパウダー、食塩、ブラックペッパー、たん白加水分解物、ガーリックパウダー、コーンスターチ、香味粉末油脂、ローストしょうゆ調味料、乳等を主要原料とする食品、ビーフエキスパウダー、ナツメグパウダー／加工デンプン、調味料（アミノ酸等）、香料、重曹、香辛料抽出物、乳化剤、カラメル色素、甘味料（スクラロース）、（一部に小麦・乳成分・牛肉・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸化防止剤（V．Ｅ、V．Ｃ）、（原材料の一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸味料、酸化防止剤（Ｖ．Ｃ、Ｖ．Ｅ）、（一部に小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>生地（小麦粉、コーンスターチ、食塩）（国内製造）、植物油脂、砂糖、水あめ、しょうゆ（小麦・大豆を含む）、食塩/膨張剤、卵殻カルシウム（卵由来）</t>
+  </si>
+  <si>
+    <t>生地（小麦粉、コーンスターチ、食塩）（国内製造）、植物油脂、砂糖、水あめ、しょうゆ（小麦・大豆を含む）、食塩、アオサ粉/膨張剤、卵殻カルシウム（卵由来）</t>
+  </si>
+  <si>
+    <t>うるち米（国内産、米国産）、植物油脂、しょうゆ（小麦・大豆を含む）、砂糖、かつおだし粉末、昆布だし/加工デンプン、調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>もち米（国内産、米国産）、植物油脂、ピーナッツ、食塩、砂糖、かつおだし粉末、昆布粉末、チキンコンソメシーズニング、調味料（アミノ酸等）、香料、（原材料の一部に小麦、大豆を含む）</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）（大豆を含む）、砂糖、砂糖粉乳調製品（砂糖、全粉乳、脱脂粉乳、ココアバター）、乳糖、カカオマス、全粉乳、ココアバター、脱脂粉乳／乳化剤（大豆由来）、香料（乳由来）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、アーモンド、カカオマス、全粉乳、植物油脂、ココアバター、小麦パフ（小麦粉、コーンスターチ、甘藷でん粉、モルトエキス、食塩）、乳糖／乳化剤、香料、膨脹剤、（一部にアーモンド・乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖粉乳調製品（砂糖、全粉乳、ココアバター）（シンガポール製造）、乳糖、アーモンド、ココアバター、植物油脂、小麦パフ（小麦粉、コーンスターチ、甘藷でん粉、モルトエキス、食塩）、脱脂粉乳、全粉乳／乳化剤、香料、膨脹剤、（一部に乳成分・アーモンド・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>じゃがいもでんぷん（じゃがいも（北海道））、コーンスターチ／増粘剤（ＣＭＣ、増粘多糖類）</t>
   </si>
   <si>
     <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、植物油脂、乳糖、抹茶、砂糖、ココアパウダー、緑茶、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
   </si>
   <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、小麦全粒粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、ココアパウダー、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、カラメル色素、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、いちご果汁パウダー、乾燥いちご加工品、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、酸味料、膨脹剤、香料、着色料（赤ビート、紅麹）、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、小麦全粒粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、砂糖、植物油脂、全粉乳、カカオマス、ココアバター、ココアパウダー、イースト／乳化剤（大豆由来）、膨脹剤、カラメル色素、香料、重曹、イーストフード</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、カカオマス、小麦粉、植物油脂、ココアバター、オレンジ果汁パウダー、イースト、ココアパウダー／乳化剤、香料、酸味料、重曹、イーストフード、（一部に小麦・乳成分・オレンジ・大豆を含む）</t>
+    <t>【ミルク】砂糖(外国製造)、全粉乳、カカオマス、ココアバター、植物油脂／乳化剤(大豆由来)、香料【いちご】砂糖(外国製造)、植物油脂、乳糖、全粉乳、ココアバター／乳化剤(大豆由来)、酸味料、野菜色素、香料【きなこ】植物油脂(国内製造)、砂糖、乳糖、きなこ(大豆を含む)、全粉乳、ココアバター、脱脂粉乳／乳化剤、香料【バナナ】砂糖(外国製造)、植物油脂、乳糖、全粉乳、ココアバター、バナナパウダー／乳化剤(大豆由来)、香料、カロチノイド色素【メロン】砂糖(外国製造)、乳糖、植物油脂、ココアバター、全粉乳／乳化剤(大豆由来)、酸味料、着色料(スピルリナ青、クチナシ)、香料</t>
   </si>
   <si>
     <t>緑茶（国産）／ビタミンＣ</t>
   </si>
   <si>
+    <t>牛乳、砂糖、コーヒー、脱脂粉乳／乳化剤</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、チーズパウダー、食塩、砂糖、デキストリン、クリーミングパウダー、たん白加水分解物、酵母エキスパウダー、オニオンパウダー、粉末醤油／調味料（アミノ酸等）、香料、カロチノイド色素、甘味料（ステビア、スクラロース、カンゾウ）、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、デキストリン、砂糖、食塩、ぶどう糖、チーズパウダー、酵母エキスパウダー、オニオンパウダー、ハラペーニョパウダー、パセリフレーク／香料、調味料（アミノ酸等）、酸味料、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、砂糖、粉末醤油、たん白加水分解物、でん粉、食塩、ガーリックパウダー、オニオンパウダー、酵母エキスパウダー、ビーフエキス調味料、香味粉末油脂、ブラックペッパー／調味料（アミノ酸等）、着色料（カラメル、カロチノイド）、香料、酸味料、甘味料（アスパルテーム・L-フェニルアラニン化合物、スクラロース）、香辛料抽出物、（一部に小麦・牛肉・ごま・大豆・豚肉を含む）</t>
+  </si>
+  <si>
     <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、香辛料、チキンエキス、ポークエキス、えびエキス、たん白加水分解物）、かやく（かまぼこ、コーン、ねぎ）、調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ベニコウジ色素、ビタミンＢ１</t>
   </si>
   <si>
+    <t>油揚げめん（小麦粉(国内製造)、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、野菜粉末、チキンエキス、ポークエキス、えびエキス、香辛料、たん白加水分解物）、かやく（かまぼこ、コーン）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
     <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、粉末卵、糖類）、スープ（みそ、食塩、糖類、ポークエキス、コチュジャン、植物油脂、豚脂、豆板醤、香辛料、香味食用油、調味油脂、たん白加水分解物）、かやく（ねぎ、鶏・豚味付肉そぼろ、コーン）、加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、カラメル色素、香料、クチナシ色素、かんすい、増粘剤（キサンタン）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、ビタミンＢ2、ビタミンＢ１、香辛料抽出物、（原材料の一部にごまを含む）</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、みそ、糖類）、スープ（豚脂、しょうゆ、食塩、糖類、ポークエキス、チキンエキス、たん白加水分解物、植物油脂、香辛料、酵母エキス）、かやく（チャーシュー、ねぎ）、加工でん粉、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、かんすい、レシチン、クチナシ色素、増粘剤（キサンタン）、香料、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に卵、乳成分を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩）、ソース（ソース、糖類、食塩、豚脂、植物油脂、香辛料、たん白加水分解物、香味調味料）、かやく（キャベツ）、カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、酸化防止剤（ビタミンＥ）、香料、増粘剤（キサンタン）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、大豆、りんご、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉(国内製造)、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、野菜粉末、チキンエキス、ポークエキス、えびエキス、香辛料、たん白加水分解物）、かやく（かまぼこ、コーン）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、大豆食物繊維）、スープ（しょうゆ、食塩、たん白加水分解物、ポークエキス、糖類、豚脂、植物油脂、かつお節エキス、酵母エキス、香辛料、煮干いわし粉末）、かやく（チャーシュー、メンマ、ナルト、ねぎ）、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、香料、かんすい、増粘剤（キサンタン）、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（原材料の一部に卵、乳成分を含む）</t>
+    <t>牛乳（国内製造）、コーヒー（エチオピア産コーヒー豆51%）、砂糖、全粉乳、 脱脂粉乳、デキストリン／カゼインNa、乳化剤、香料、甘味料（アセスルファムK）</t>
   </si>
   <si>
     <t>砂糖（国内製造）、水飴、果汁（いちご、パインアップル、レモン、オレンジ、りんご、メロン、ぶどう、もも）/酸味料、香料、着色料（アントシアニン、パプリカ色素、カロチン、クチナシ、紅麹、紅花黄）、（一部にオレンジ・もも・りんごを含む）</t>
+  </si>
+  <si>
+    <t>砂糖、水飴、濃縮果汁（いちご、レモン、オレンジ、パインアップル、りんご、メロン、すもも）、酸味料、香料、着色料（紫コーン色素、パプリカ色素、カロチン、紅麹、クチナシ、紅花黄）</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ ／ガムベース､酸味料､香料､カラメル色素、軟化剤</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ、濃縮ぶどう果汁 ／ガムベース､酸味料､香料､アントシアニン色素</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造)､ぶどう糖、水あめ／ガムベース､酸味料､ 糊料(アラビアガム)､香料､着色料(フラボノイド、アントシアニン)､光沢剤</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造)､ぶどう糖､水あめ､還元水あめ､ 酵母エキス､デキストリン／ガムベース､酸味料､ 香料､軟化剤､カロチノイド色素</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、ゼラチン、パラチニット/酸味料、香料、着色料（クチナシ、アントシアニン、カロチノイド）、甘味料（スクラロース）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、粉末ソース、砂糖、トマト風味パウダー、たん白加水分解物（大 豆を含む）、小麦粉、粉末鰹節、あおさ、食塩、たこパウダー / 調味料（アミノ酸等）、酸味料、炭酸 カルシウム、着色料（カラメル、カロチノイド）、香料（鶏肉・りんご由来）、甘味料（スクラロース、 ステビア：乳由来、甘草）、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、砂糖、でん粉、香辛料パウダー、たん白加水分解物（大豆を含む）、粉末ソース、オニオンパウダー、ビーフパウダー、トマトパウダー、酵母エキスパウダー、調味動物油脂（豚肉を含む） / 調味料（アミノ酸等）、酸味料、香料（小麦・いか・ゼラチン由来）、着色料（カラメル、クチナシ）、甘味料（ステビア、スクラロース）、香辛料抽出物</t>
   </si>
   <si>
     <t>（レモン味）砂糖（国内製造）、水飴、濃縮レモン果汁、ハーブエキス（オレンジを含む）
@@ -233,301 +398,223 @@
 （青りんご味）砂糖（国内製造）、水飴、濃縮りんご果汁、ハーブエキス（オレンジを含む）</t>
   </si>
   <si>
+    <t>砂糖（外国製造、国内製造）、水飴、マルトース、ゼラチン、濃縮ぶどう果汁、植物油脂</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、小麦粉、植物油脂、全粉乳、ココアバター、カカオマス、マーガリン、ショートニング、鶏卵、乳糖、ホエイパウダー、ココアパウダー、キャラメルパウダー、乾燥全卵、食塩、バター</t>
+  </si>
+  <si>
+    <t>ぶどう糖、砂糖、でん粉、ゼラチン、酸味料、乳化剤、光沢剤、香料、着色料（クチナシ、野菜色素、カロチノイド）、糊料（アラビアガム）</t>
+  </si>
+  <si>
     <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（食塩、砂糖、鶏油、香味油、たん白加水分解物、植物油脂、チキンエキス、香辛料、酵母エキス、チキン調味料、ネギエキス）、かやく（大豆加工品、ねぎ、もやし、コリアンダー）／加工でん粉、調味料（アミノ酸等）、酒精、増粘剤（加工でん粉、増粘多糖類）、香料、カラメル色素、乳化剤、酸味料、酸化防止剤（ビタミンＥ）、（一部に乳成分・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
+    <t>米めん（ベトナム製造（米、でん粉、食塩））、かやく入りスープ（食塩、チンゲン菜、砂糖、トムヤムシーズニングパウダー、大豆加工品、香辛料、ねぎ、酵母エキス、たん白加水分解物、蝦醤、チキン調味料、エビエキス、コリアンダー、唐辛子）／加工でん粉、調味料（アミノ酸等）、酸味料、香料、微粒二酸化ケイ素、カロチノイド色素、甘味料（スクラロース、アセスルファムＫ）、乳化剤、増粘剤（グァーガム）、（一部にえび・大豆・鶏肉・ゼラチンを含む）</t>
+  </si>
+  <si>
     <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（たん白加水分解物、糖類、食塩、香辛料、牛脂、発酵調味料、植物油脂、醸造酢、トマトケチャップ、ビーフエキス、香味油、酵母エキス）、かやく（大豆加工品、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、酒精、香料、香辛料抽出物、増粘多糖類、カラメル色素、乳化剤、酸味料、甘味料（スクラロース、アセスルファムＫ）、酸化防止剤（ビタミンＥ）、（一部にえび・牛肉・大豆を含む）</t>
   </si>
   <si>
-    <t>米めん（ベトナム製造（米、でん粉、食塩））、かやく入りスープ（食塩、チンゲン菜、砂糖、トムヤムシーズニングパウダー、大豆加工品、香辛料、ねぎ、酵母エキス、たん白加水分解物、蝦醤、チキン調味料、エビエキス、コリアンダー、唐辛子）／加工でん粉、調味料（アミノ酸等）、酸味料、香料、微粒二酸化ケイ素、カロチノイド色素、甘味料（スクラロース、アセスルファムＫ）、乳化剤、増粘剤（グァーガム）、（一部にえび・大豆・鶏肉・ゼラチンを含む）</t>
-  </si>
-  <si>
     <t>牛乳（国内製造）、砂糖、コーヒー、脱脂粉乳、全粉乳、デキストリン／乳化剤、香料、セルロース</t>
   </si>
   <si>
+    <t>コーヒー（コーヒー豆（ブラジル産、エチオピア産、その他））</t>
+  </si>
+  <si>
+    <t>果実（りんご、オレンジ、もも、タンジェリン、パインアップル、ぶどう）、砂糖類 （砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子 エキス、クエン酸、香料、炭酸ガス、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギニン 、カフェイン、クエン酸Ｎａ、着色料（β－カロチン、アントシアニン）、ナイアシン、　　　　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
+  </si>
+  <si>
     <t>果実（りんご、オレンジ、グァバ、パインアップル、パッションフルーツ）、砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、植物油、塩化Ｎａ、ガラナ種子エキス／炭酸、クエン酸、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、クエン酸Ｎａ、カフェイン、甘味料（スクラロース）、ナイアシン、イノシトール、ビタミンＢ６、ビタミンＢ２、着色料（β－カロテン）、ビタミンＢ１２</t>
   </si>
   <si>
-    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／クエン酸、炭酸、香料、クエン酸Ｎａ、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギ二ン、保存料（安息香酸）、カフェイン、ナイアシン、着色料（アントシアニン）、イノシトール、ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
+    <t>砂糖(外国製造又は国内製造）、乳糖、ワッフルクランチ（小麦粉、砂糖、でん粉、その他）、植物油脂、小麦粉、全粉乳、ココアバター、レモン果汁パウダー、ショートニング、異性化液糖、食塩／乳化剤、着色料（カロテノイド、アナトー）、香料、酸味料、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ワッフルクランチ（国内製造）（小麦粉、砂糖、でん粉、その他）、砂糖、乳糖、植物油脂、全粉乳、ココアバター、糖漬け乾燥いちご(いちご、砂糖、ぶどう糖)、糖漬け乾燥クランベリー（クランベリー、砂糖、植物油脂）、いちごパウダー、ぶどう糖、いちごパウダー（乳糖、いちご、デキストリン）、コーンスターチ／乳化剤、着色料（野菜色素、アナトー、紅麹）、香料、酸味料、膨脹剤、糊料(ペクチン)、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>うるち米（国産）、植物油脂、米粉（うるち米（国産））、でん粉、食物繊維（イヌリン）、食塩、野菜粉末（ほうれん草、オニオン、にんじん、トマト、かぼちゃ、コーン）、発酵調味料（小麦・大豆を含む）、たんぱく加水分解物（大豆を含む）、粉末しょう油（小麦・大豆を含む）、ガーリックパウダー（大豆を含む）、チキンブイヨンパウダー（乳成分を含む)、チーズパウダー、黒胡椒、黒糖パウダー、ココアパウダー、酵母エキスパウダー</t>
+  </si>
+  <si>
+    <t>米粉（うるち米（国産））、砂糖、食塩、フラクトオリゴ糖／加工でん粉</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、米粉（うるち米（国産、米国産））、でん粉、食塩、魚介エキスパウダー（えびを含む）、砂糖、えび、デキストリン、粉末しょう油（小麦・大豆を含む）、香味油（えびを含む）、酵母エキス粉末／加工でん粉、調味料（アミノ酸等）、着色料（紅麹、カラメル）、酸味料</t>
+  </si>
+  <si>
+    <t>コーングリッツ（遺伝子組換えでない）、砂糖、植物油脂、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、たんぱく加水分解物、クリーム粉末、カラメル色素、卵殻未焼成Ca、香料、乳化剤、トレハロース、（原材料の一部に小麦、大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、砂糖、マーガリン、加糖れん乳、食塩、卵黄粉末／ソルビトール、香料、卵殻Ca、乳化剤、甘味料（スクラロース）、カロチノイド色素、（一部に卵・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、食塩、唐辛子パウダー（ブート・ジョロキアパウダー2%使用）、砂糖、ガーリックパウダー、酵母エキスパウダー、たんぱく加水分解物、ブドウ糖、オニオンパウダー、レモングラスパウダー、澱粉、乳糖、チリパウダー、チキンパウダー、香味油、ホワイトペッパーパウダー、醤油風味調味料、唐辛子ピューレ、チキンエキス調味料、クミンパウダー、パプリカパウダー、調味エキス／加工澱粉、調味料（アミノ酸等）、酸味料、炭酸Ca、香料、酸化防止剤（ビタミンE）、香辛料抽出物、カラメル色素、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造、国内製造)、牛乳、全粉乳、メロン果汁、脱脂粉乳、ココナッツオイル、デキストリン、クリーム、食塩／乳化剤、香料、ビタミンC、クチナシ色素、カロテン色素、甘味料(ステビア)、クエン酸</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、酒粕、デキストリン、はちみつ、食塩、米糀粉末／酸味料、香料、着色料（アントシアニン､ウコン）、Ｌ‐ロイシン、Ｌ‐バリン、Ｌ‐イソロイシン、安定剤（キサンタンガム）、甘味料（アスパルテーム・Ｌ‐フェニルアラニン化合物）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、マヌカハニー、カラメルソース（砂糖）、ハーブエキス／香料、酸味料、着色料（カラメル）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、濃縮果汁（マスカット、アセロラ、レモン）、ハーブエキス／酸味料、ビタミンＣ、香料、着色料（アントシアニン、クチナシ、ウコン）、抽出ビタミンＥ、ナイアシン、パントテン酸Ｃａ、ビタミンＢ１、ビタミンＢ６、ビタミンＢ２、ビタミンＡ、葉酸、ビタミンＤ、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、巨峰濃縮果汁／酸味料、香料、着色料（アントシアニン）</t>
+  </si>
+  <si>
+    <t>ばれいしょでん粉（ばれいしょ（北海道））、砂糖、加糖卵黄（卵黄（卵を含む）、砂糖）、水飴、ぶどう糖、小麦粉、寒梅粉ミックス（とうもろこしでん粉、もち米）、脱脂粉乳／卵殻カルシウム、膨張剤</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造又は国内製造)、全粉乳、植物油脂、カカオマス、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、野菜色素、香料(乳・大豆由来)</t>
+  </si>
+  <si>
+    <t>＜ハローキティ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素 ＜マイメロディ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素 ＜ポチャッコ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来) ＜ポムポムプリン＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、カロテノイド色素 ＜シナモロール＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、チョコレートチップ（乳成分を含む）、還元水あめ、白ねりあん（乳成分を含む）、卵、全脂大豆粉、カカオマス、水あめ、脱脂粉乳、食塩、卵黄（卵を含む）、全粉乳／加工デンプン、乳化剤（乳・大豆由来）、香料（乳・大豆由来）、安定剤（加工デンプン）、膨脹剤、カラメル色素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、バター、全粉乳、発酵種（小麦を含む）、食塩、乳等を主原料とする食品/乳化剤（小麦・大豆由来）、香料（乳・大豆由来）、カロテノイド色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、ぶどう糖、水あめ、ゼラチン、ウーロン茶抽出物／ガムベース、酸味料、軟化剤、香料、ビタミンＣ、クチナシ色素</t>
+  </si>
+  <si>
+    <t>含蜜糖（国内製造)、黒砂糖、砂糖、小麦粉、小麦蛋白（グルテン）／カラメル色素、膨張剤</t>
+  </si>
+  <si>
+    <t>グルコースシロップ、砂糖、ゼラチン、植物油脂/ソルビトール、酸味料、増　剤（寒天）、香料、着色料（黄4、黄5、赤40、青1）、光沢剤</t>
+  </si>
+  <si>
+    <t>うるち米（国産、アメリカ産）、植物油脂、砂糖、しょうゆ（小麦・大豆を含む）、果糖ぶどう糖液糖、食塩、調味エキス（大豆を含む）／加工デンプン（小麦由来）、調味料（アミノ酸等）、着色料（カラメル）</t>
   </si>
   <si>
     <t>うるち米粉（国産、タイ産）、植物油脂、粉末醸造酢、砂糖、食塩、酵母エキス粉末、香辛料（ごまを含む）、チキンエキス粉末、粉末しょうゆ（小麦・大豆を含む）、でん粉、デキストリン／加工デンプン、香料（鶏肉由来）、調味料（アミノ酸等）、酸味料、酸化防止剤（ビタミンＥ）、微粒酸化ケイ素、着色料（カロテン）、香辛料抽出物、ビタミンＢ１、乳化剤（大豆由来）</t>
   </si>
   <si>
-    <t>小麦粉(国内製造)、植物油脂、えび粉末、えび塩風味パウダー、食塩、ローストしょうゆパウダー／加工デンプン、炭酸Ca、調味料（アミノ酸等）、酸化防止剤（ビタミンＥ、ビタミンC）、乳化剤、香料、カラメル色素、（一部にえび・小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造）、カカオマス、乳糖、全粉乳、ココアバター、植物油脂、/乳化剤、香料、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>ローストピーナッツ（国内製造）、植物油脂、イヌリン(食物繊維)、全粉乳、砂糖、ココアパウダー、カカオマス／乳化剤、香料、（一部に乳成分・落花生・大豆を含む）</t>
-  </si>
-  <si>
-    <t>レーズン（アメリカ製造）、カカオマス、砂糖、ココアバター、ココアパウダー、全粉乳、マルトデキストリン、植物油脂／光沢剤、乳化剤、香料、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、植物油脂、小麦パフ、全粉乳、カカオマス、ココアパウダー、マルトデキストリン／乳化剤、光沢剤、香料、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、植物油脂、コーングリッツ（分別生産流通管理済み）、全粉乳、カカオマス、ココアパウダー、小麦粉、マルトデキストリン／乳化剤、光沢剤、セルロース、香料、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂、カカオマス、小麦全粒粉、全粉乳、でん粉、水あめ、乳糖、小麦胚芽、ココアパウダー、脱脂粉乳、食塩／膨脹剤、乳化剤、香料、（一部に卵・乳成分・小麦・大豆・アーモンドを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、植物油脂、カカオマス、全粉乳、パフ（コーングリッツ、でん粉、砂糖）、乳糖、ココアパウダー／乳化剤、香料、膨脹剤、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、ファットスプレッド、マーガリン、乳等主要原料とする食品、バター、食塩、白ごまペースト、炭酸カルシウム、膨脹剤、加工でん粉、香料、着色料（カラメル、カロチン）調味料（アミノ酸）、（一部に乳成分・小麦・大豆・ごまを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、植物油脂、乳糖、デキストリン、ココアバター、小麦粉、全粉乳、脱脂粉乳、ホエイパウダー、小麦パフ、チーズパウダー、バターオイル、牛乳、マーガリン、ショートニング、ヨーグルトパウダー、レモン果汁パウダー、食塩、ぶどう糖果糖液糖、発酵風味液、たんぱく質濃縮ホエイパウダー／乳化剤（大豆由来）、香料、膨脹剤</t>
-  </si>
-  <si>
-    <t>昆布（北海道産）、醸造酢、かつおぶしエキス、発酵調味料、たんぱく加水分解物/調味料（アミノ酸等）、ソルビトール、酸味料、甘味料（ステビア抽出物）、（一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、着色料（クチナシ、野菜色素）、香料</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、野菜色素、香料</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴（国内製造）、乾燥ゆず皮、食用油脂／酸味料、香料、クチナシ色素、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、添付調味料（植物油脂、食塩、ビーフ調味料、砂糖、でん粉、ポーク調味料、粉末しょうゆ、チキンエキス、たん白加水分解物、胡椒、酵母エキス）、かやく入り添付調味料（乳化油脂、ぶどう糖、チーズパウダー、にんにく、大豆加工品、乳等を主要原料とする食品、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、香料、カラメル色素、かんすい、微粒二酸化ケイ素、酸味料、香辛料抽出物、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、カロチノイド色素、アカビート色素、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・乳成分・牛肉・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、ジャム（砂糖、いちご、水あめ）、ショートニング、砂糖、鶏卵、加糖練乳、脱脂粉乳、乳等を主要原料とする食品、澱粉分解物、食塩、チーズパウダー／ソルビトール、酸味料、ゲル化剤（増粘多糖類）、香料、膨張剤、乳化剤、紅麹色素、リン酸Ca、（一部に小麦・卵・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、ジャム（砂糖、水あめ、ブルーベリー）、砂糖、ショートニング、鶏卵、乳等を主要原料とする食品、加糖練乳、プロセスチーズ、食塩／ソルビトール、酸味料、ゲル化剤（増粘多糖類）、香料、膨張剤、乳化剤、（一部に小麦・卵・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、植物油脂、ぶどうソース、全粉乳、カカオマス、ココアバター、乳糖、乳等を主要原料とする食品、紅茶エキスパウダー、脱脂粉乳、酒精飲料/トレハロース、乳化剤（大豆由来）、酸味料、香料（乳・大豆由来）、着色料（カラメル、野菜色素、クチナシ、紅花黄、紅麹）、環状オリゴ糖、増粘剤（ペクチン）</t>
-  </si>
-  <si>
-    <t>大豆（アメリカ）、納豆菌]、植物油脂、しょうゆ風味パウダー（粉末しょうゆ、食塩、コーンスターチ、デキストリン、その他)（小麦・さばを含む）／調味料（アミノ酸等）、香料</t>
-  </si>
-  <si>
-    <t>ブドウ糖（国内製造）、コーンスターチ、澱粉分解物／酸味料、香料、着色料（アントシアニン、クチナシ、アナトー、スピルリナ青）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、マルチトール、麦芽糖、クリーミングパウダー（水あめ、植物油脂、カゼイン（乳成分を含む））、デキストリン、濃縮梅果汁、ゼラチン、梅パウダー、希少糖含有シロップ、梅エキス、食物繊維、梅干エキスパウダー／酸味料、増粘剤（アラビアガム）、アントシアニン色素、香料、光沢剤</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、ココア、卵黄、カカオマス/セルロース、乳化剤、香料、（原料の一部に乳成分・卵・大豆を含む）</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、チェダーチーズパウダー/セルロース、乳化剤、パプリカ色素、香料、（原料の一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、ココア、カカオマス/セルロース、乳化剤、香料、（原料の一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、全粉乳、カカオマス、ショートニング、ココアバター、植物油脂、小麦全粒粉、小麦ふすま、食塩、脱脂小麦胚芽 ／ 膨脹剤、乳化剤(大豆由来)、香料</t>
-  </si>
-  <si>
-    <t>ピーナッツ（アメリカ）、砂糖、小麦粉、寒梅粉、澱粉、米粉、食塩、ガラクトオリゴ糖／膨張剤、炭酸カルシウム、着色料（クチナシ）、ピロリン酸鉄、 （一部に乳成分・小麦・落花生を含む）</t>
-  </si>
-  <si>
-    <t>マルトース（国内製造）、水飴、砂糖、もち粉、全粉乳、植物油脂、カカオマス、ココアパウダー、クリーム（乳成分を含む）、デキストリン、洋酒、乳糖 / トレハロース、乳化剤（大豆由来）、着色料（カラメル）、調味料（アミノ酸）、加工デンプン、香料、カゼインNa（乳由来）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、タイ製造）、カカオマス、植物油脂、全粉乳、アーモンド、ココアバター、脱脂粉乳、米パフ、　 乳糖、バターオイル／乳化剤（大豆由来）、香料（アーモンド由来）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、タイ製造）、植物油脂、全粉乳、カカオマス、ココアバター、脱脂粉乳、乳糖、いちご粉末／トレハロース、乳化剤（大豆由来）、香料（アーモンド由来）、着色料（ビートレッド）、酸味料</t>
-  </si>
-  <si>
-    <t>＜ストロベリーチョコレート＞砂糖（外国製造）、植物油脂、乳糖、全粉乳、ココアバター、カカオマス、ホエイパウダー、小麦パフ（でんぷん、小麦粉、食塩）、乾燥いちご／香料、乳化剤（大豆由来）、酸味料、着色料（アカダイコン）、膨脹剤 ＜クリスプチョコレート＞砂糖（外国製造、国内製造）、植物油脂、カカオマス、乳糖、全粉乳、ホエイパウダー、小麦パフ（でんぷん、小麦粉、食塩）／乳化剤（大豆由来）、香料、膨脹剤</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、乳糖、砂糖、ココアクッキークランチ（小麦粉、砂糖、ショートニング、ココアパウダー、デキストリン、ぶどう糖果糖液糖、カカオマス、ホエイパウダー、食塩）、ココアバター、全粉乳、小麦粉、ホエイパウダー、クリームチーズパウダー、でん粉、クリームパウダー、モルトエキス、食塩／乳化剤（大豆由来）、トレハロース、香料、膨脹剤、カラメル色素</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造又は韓国製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
-  </si>
-  <si>
-    <t>＜きゅんベリー味（丸型）＞ぶどう糖（国内製造）、いちご果汁パウダー、でん粉／乳化剤、加工でん粉、酸味料、ビタミンＣ、香料、野菜色素＜甘ずっぱいきゅんベリー味（ハート型）＞ぶどう糖（国内製造）、いちご果汁パウダー、でん粉／乳化剤、加工でん粉、酸味料、ビタミンＣ、香料、野菜色素</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油、砂糖、粉末醤油、デキストリン、粉末みそ、ハバ ネロパウダー、チキンエキスパウダー、食塩、たん白加水分解物、酵母エキスパウダー、乳糖／調味料（アミノ酸等）、香辛料抽出物、香料、パプリカ色素、甘味料（ステビア、カンゾウ）、酸味料、（一部に小麦・乳成分・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、粉末卵、野菜エキス、しょうゆ）、スープ（食塩、糖類、チキン調味料、たまねぎ加工品、しょうゆ、香辛料、酵母エキス、野菜調味料、発酵調味料）、かやく（キャベツ、鶏・豚味付肉そぼろ、フライドオニオン、にんじん）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、トレハロース、香料、かんすい、レシチン、微粒二酸化ケイ素、酸味料、クチナシ色素、酸化防止剤（ビタミンＥ、ビタミンＣ）、ビタミンＢ２、ビタミンＢ１、パプリカ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、粉末卵、野菜エキス、しょうゆ）、スープ（糖類、食塩、チキン調味料、でん粉、粉末レモン果汁、香辛料、酵母エキス、植物油脂、野菜粉末）、かやく（キャベツ、味付鶏肉そぼろ、味付卵、赤ピーマン）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、香料、トレハロース、酸味料、微粒二酸化ケイ素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、カラメル色素、カロチン色素、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>難消化性デキストリン（中国製造）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、ガラナ種子エキス／炭酸、クエン酸、クエン酸Ｎａ、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、カフェイン、甘味料（スクラロース、アセスルファムＫ、ステビア）、ナイアシン、パントテン酸Ｃａ、イノシトール、ビタミンＢ６、着色料（黄色４号、黄色５号）、ビタミンＢ１２</t>
-  </si>
-  <si>
-    <t>馬鈴薯(日本:遺伝子組換えでない)、植物油、砂糖、ぶどう糖、香辛料、食塩、チキンエキスパウダー、野菜エキスパウダー(乳成分・大豆・豚肉・ゼラチンを含む)、たんぱく加水分解物(大豆を含む)、オリゴ糖/調味料(アミノ酸等)、パプリカ色素、酸味料、香辛料抽出物、カラメル色素、香料</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、植物油脂、麻婆豆腐風味パウダー（グラニュー糖、粉末しょうゆ、粉末みそ、ポーク風味調味料、たんぱく加水分解物、その他）、食塩、砂糖、ミート調味エキス、たんぱく加水分解物、しょうゆ／調味料（アミノ酸等）、炭酸Ca、香料、乳化剤、パプリカ色素、酸化防止剤（ビタミンE)、甘味料（ステビア、カンゾウ）、酸味料、香辛料抽出物、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、植物油脂、しょうゆラーメン風味パウダー、食塩、砂糖、ミート調味エキス、たんぱく加水分解物、しょうゆ／調味料（アミノ酸等）、炭酸Ca、香料、カラメル色素、乳化剤、酸味料、酸化防止剤（ビタミンE)、甘味料（ステビア）、香辛料抽出物、（一部に小麦・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、メロン果汁パウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、クチナシ、紅花黄）、香料、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t>還元水飴（国内製造）、還元麦芽糖、砂糖、食物繊維（ポリデキストロース）、水飴、還元麦芽糖水飴、ゼラチン、こんにゃく粉、澱粉／酸味料、香料、炭酸カルシウム、（一部にゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>澱粉（国内製造）、砂糖、デキストリン、濃縮いちご果汁／甘味料（キシリトール、アスパルテーム・Ｌ‐フェニルアラニン化合物、アセスルファムＫ）、酸味料、香料、増粘剤（アラビアガム）、着色料（赤色４０号）</t>
-  </si>
-  <si>
-    <t>砂糖、水飴、乾燥いちご加工品、いちご果汁、ハーブエキス／酸味料、香料、アントシアニン色素</t>
-  </si>
-  <si>
-    <t>トマト、ハラペーニョ、玉ねぎ、醸造酢、食塩、乾燥玉ねぎ、ガーリックパウダー／香辛料抽出物、塩化カルシウム、クエン酸</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油、でん粉、えび、砂糖、食塩 / 膨脹剤、調味料（アミノ酸等）、甘味料（甘草）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（濃厚ソース、砂糖、植物油脂、発酵調味料、豚脂、食塩、ポーク調味料、しょうゆ加工品、魚介エキス、カツオ調味料、香味調味料、香味油）、特製ペースト（半固体状ドレッシング、紅しょうが、果糖ぶどう糖液糖、還元水飴、醸造酢、食塩、植物油脂、全卵粉、酵母エキス、でん粉）、かやく（キャベツ）、ふりかけ（カツオブシ、あおさ）／加工でん粉、カラメル色素、調味料（アミノ酸等）、炭酸Ｃａ、増粘剤（加工でん粉、増粘多糖類）、酸化防止剤（ビタミンＥ）、カロチノイド色素、かんすい、乳化剤、甘味料（カンゾウ、スクラロース、アセスルファムＫ）、酸味料、香料、野菜色素、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・りんご・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ(国内製造)、植物油、砂糖、ぶどう糖、食塩、チーズパウダー、粉末油脂、ホエイパウダー、香辛料、オリゴ糖／調味料(アミノ酸等)、香料、カロチノイド色素、香辛料抽出物、くん液、(一部に乳成分・大豆を含む)</t>
-  </si>
-  <si>
-    <t>生地(国内製造)(小麦粉、でん粉、えびエキスパウダー、えびパウダー、砂糖、 乾燥えび、発酵調味液、植物油、かつお節)、植物油、デキストリン、ぶどう糖、 魚介エキスパウダー、食塩、粉末しょうゆ、唐辛子、酵母エキスパウダー/加工デンプン、 調味料(アミノ酸等)、トレハロース、甘味料(スクラロース)、(一部に乳成分・小麦・えび・大豆・ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、米粉（うるち米（国産、米国産））、でん粉、食塩、魚介エキスパウダー（えびを含む）、砂糖、えび、デキストリン、粉末しょう油（小麦・大豆を含む）、香味油（えびを含む）、酵母エキス粉末／加工でん粉、調味料（アミノ酸等）、着色料（紅麹、カラメル）、酸味料</t>
-  </si>
-  <si>
-    <t>砂糖、カカオマス、全粉乳、ココアバター、植物油脂、乳化剤（大豆を含む）、光沢剤、香料</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、濃縮日本なし果汁、ゼラチン、還元難消化性デキストリン、植物油脂、でん粉／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、（一部にりんご・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>うるち米（国産、米国産）、植物油、砂糖、レモンシーズニング、しょうゆ、果糖ぶどう糖液糖、酵母エキス、食塩／加工でん粉、調味料（アミノ酸等）、酸味料、香料、カラメル色素、（一部に小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、植物油脂、全粉乳、カカオマス、ココアバター、乳糖、乳等を主要原料とする食品、りんごパウダー、脱脂粉乳、エリスリトール、ドライクレープ（乳成分・小麦を含む）、キャラメルパウダー（乳成分を含む）/乳化剤（大豆由来）、香料（乳・大豆由来）、着色料（紅麹、クチナシ）</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造、国内製造）、植物油脂、ポテトペレット（乾燥ポテト、でん粉、食塩）、カカオマス、ココアパウダー、全粉乳／乳化剤（大豆由来）、香料、着色料（ウコン）、酸化防止剤（ビタミンE、ビタミンC)</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、植物油脂、全粉乳、カカオマス、ココアバター、乳糖、脱脂粉乳、オレンジ濃縮果汁、洋酒(カシスリキュール）、デキストリン、クリーミングパウダー（乳成分を含む）／ソルビトール、乳化剤（大豆由来）、酒精、香料（乳・アーモンド由来）、酸味料</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造）、カカオマス、小麦粉、液全卵、植物油脂、マーガリン（乳成分を含む）、ココアパウダー、ショートニング、加糖練乳、全粉乳、乳糖、ココアバター、食塩、洋酒／ソルビトール、酒精、乳化剤（大豆由来）、香料（乳由来）</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造、国内製造）、液全卵、小麦粉、植物油脂、マーガリン（乳成分を含む）、チーズ粉末（カマンベールチーズ粉末、ゴーダチーズ粉末、クリームチーズ粉末）、ショートニング、コーンスターチ、食用加工油脂、クリームチーズ、ミルクシロップ、全粉乳、還元水飴、乾燥全卵、ホエイパウダー（乳成分を含む）、レモン濃縮果汁、水飴、乳糖、洋酒、デキストリン、ココアバター／ソルビトール、乳化剤（大豆由来）、酒精、香料（乳由来）、膨脹剤、増粘剤（ペクチン：りんご由来）、酸味料</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、マーガリン（乳成分を含む）、バター、ココナッツ、液全卵、加糖脱脂練乳、食塩、植物油脂　／　香料（乳由来）、膨脹剤、乳化剤（大豆由来）、着色料（カロテン）</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、砂糖、ショートニング、植物油脂、全粉乳、小麦全粒粉、カカオマス、ココアパウダー、食塩、脱脂小麦胚芽 ／ 膨脹剤、乳化剤（大豆由来）、香料、着色料（アナトー）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂 還元水飴、白あん（生あん、砂糖、還元水飴、寒天、食塩）、 カカオマス、水飴、液全卵、ココアパウダー、乳糖、全粉乳 デキストリン、食塩、脱脂粉乳／ソルビトール、 加工デンプン、乳化剤（大豆由来）、着色料（カラメル） 香料、膨張剤、増粘剤（カラギーナン）</t>
-  </si>
-  <si>
-    <t>準チョコレート（植物油脂、砂糖、カカオマス、全粉乳、ココアパウダー）（国内製造）、小麦粉、砂糖、植物油脂、ショートニング、転化糖蜜、加糖れん乳、ココアパウダー、食塩（宮古島産塩38％使用）、全粉乳、ごま、コラーゲン／膨脹剤、着色料（カラメル）、乳化剤、炭酸Ca、香料、（一部に小麦・乳成分・大豆・ごま・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、食用油脂（パーム油、ラード、なたね油）、食塩）、スープ（食塩、砂糖、キムチ風味調味料、粉末しょうゆ、香辛料、ごま、粉末みそ、ポークエキスパウダー、オイスターエキスパウダー、たまねぎ、ねぎ）／加工でん粉、調味料（アミノ酸等）、カラメル色素、酸味料、かんすい、増粘多糖類、微粒二酸化ケイ素、酸化防止剤（V.E）、（一部に小麦、ごま、大豆、豚肉、魚醤（魚介類）を含む）</t>
-  </si>
-  <si>
-    <t>ローストピーナッツ（国内製造）、砂糖、植物油脂、乳糖、全粉乳、カカオマス、ココアパウダー／乳化剤、香料、（一部に乳成分・落花生・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造）、ビスケット（小麦を含む）、カカオマス、植物油脂、全粉乳、ココアバター、水あめ、シーズニングパウダー（デキストリン、黒トリュフ塩、砂糖、食塩、ガーリックパウダー、大豆たんぱく加水分解物、白こしょうパウダー、ナツメグパウダー）、バターオイル、ヘーゼルナッツペースト／乳化剤、膨脹剤、香料、光沢剤、調味料（アミノ酸等）、着色料（金箔）</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、加糖練乳、砂糖、加糖脱脂練乳、植物油脂、小麦たんぱく加水分解物、バター、食塩／ソルビトール、香料、乳化剤（大豆由来）、ベニバナ黄色素</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、タイ製造）、水あめ、植物油脂、デキストリン、ゼラチン、濃縮すいか果汁／酸味料、香料、グリセリン、乳化剤、ベニバナ黄色素、アカキャベツ色素、クチナシ青色素、パプリカ色素</t>
-  </si>
-  <si>
-    <t>コーンフレーク（コーングリッツ（とうもろこし（アメリカ産））、砂糖、食塩）、砂糖、植物油脂、全粉乳、カカオマス、ココアパウダー／香料、炭酸カルシウム、乳化剤（大豆由来）、ピロリン酸鉄</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ココナッツオイル、ショートニング、ココナッツ、食塩、レモンパウダー、脱脂粉乳／酸味料、膨張剤、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、マーガリン、砂糖、植物油脂、乳糖、麦芽糖、ココアバター、全粉乳、ホエイパウダー、クリームパウダー、食塩、チーズパウダー、抹茶、シナモン／乳化剤（大豆由来）、クチナシ色素、香料</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、澱粉、デキストリン、梅／酸味料、増粘剤（アラビアガム）、香料</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、水飴、マルトース、ゼラチン、濃縮パイナップル果汁、植物油脂</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、タイ製造）、小麦粉、ココアバター、液卵白（卵を含む）、ショートニング、全粉乳、植物油脂、乳糖、マーガリン、ホエイパウダー（乳成分を含む）、ココアパウダー、バナナ粉末、食塩、水飴　／　乳化剤（大豆由来）、香料（大豆由来）、着色料（カロテノイド）、膨脹剤</t>
-  </si>
-  <si>
-    <t>でん粉（国内製造）、うるち米（国産）、もち米（タイ産）、植物油脂（ごま・大豆を含む）、カシューナッツ、砂糖、ぶどう糖、小麦粉、食塩、粉末しょうゆ（小麦・大豆を含む）、たんぱく加水分解物（大豆を含む）、デキストリン、昆布エキス粉末/加工デンプン、調味料(アミノ酸等）、ソルビトール、微粒酸化ケイ素、膨脹剤、着色料（カロテノイド）、酸味料、甘味料（アセスルファムＫ、スクラロース）、酸化防止剤（ビタミンＥ）</t>
-  </si>
-  <si>
-    <t>でん粉（国内製造）、うるち米（国産）、もち米（タイ産）、植物油脂、砂糖、カシューナッツ、ピーナッツバター、ぶどう糖、小麦粉、食塩、たんぱく加水分解物（大豆・ゼラチンを含む）、デキストリン/加工デンプン、ソルビトール、調味料（アミノ酸等）、乳化剤（大豆由来）、香料（乳由来）、膨脹剤、着色料（カロテノイド）、甘味料（アセスルファムＫ、スクラロース）、酸味料、酸化防止剤（ビタミンＥ）</t>
-  </si>
-  <si>
-    <t>大豆たんぱく（国内製造）、砂糖、ショートニング、小麦たんぱく、ファットスプレッド（乳成分を含む）、大豆パフ、水飴、ココアパウダー、液卵黄（卵を含む）、カカオマス、植物油脂、全粉乳、乳糖、ぶどう糖、食塩／ソルビトール、グリセリン、炭酸Ca、乳化剤(大豆由来)、ロイシン、トレハロース、バリン、イソロイシン、香料(乳由来)、V.E、ナイアシン、パントテン酸Ca、ピロリン酸第二鉄、V.B1、V.B2、V.B6、V.A、葉酸、着色料(アナトー)、V.D、V.B12</t>
-  </si>
-  <si>
-    <t>大豆たんぱく（国内製造）、ショートニング、砂糖、小麦たんぱく、大豆パフ、ファットスプレッド（乳成分を含む）、キャラメル（乳等を主要原料とする食品、水飴、砂糖）、液卵黄（卵を含む）、植物油脂、全粉乳、乳糖、カカオマス、ぶどう糖、ココアパウダー、食塩／ソルビトール、グリセリン、炭酸Ca、着色料(カラメル、アナトー)、乳化剤(大豆由来)、ロイシン、トレハロース、バリン、イソロイシン、香料(乳由来)、V.E、ナイアシン、ピロリン酸第二鉄、パントテン酸Ca、V.B1、V.B2、V.B6、V.A、葉酸、V.D、V.B12</t>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、全粉乳、ココアバター、マーガリン（乳成分を含む）、デキストリン、ホエイパウダー（乳成分を含む）、液全卵、イースト、食用加工油脂（小麦を含む）、乳糖、練乳粉末、カラメル粉末（乳成分を含む）、洋酒、キャラメル粉末（乳成分を含む）、うるちひえパフ、食塩、水飴、乾燥卵白（卵を含む）、バニラシード／ソルビトール、卵殻未焼成カルシウム（卵由来）、酒精、乳化剤（大豆由来）、香料（乳由来）、イーストフード（小麦由来）、トレハロース、ビタミンC、ビタミンD、着色料（カロテン）</t>
+  </si>
+  <si>
+    <t>でん粉(国内製造)、植物油脂、米粉、えび粉、食塩、香味油（小麦・えび・大豆を含む）、小麦たんぱく、えびシーズニング(大豆を含む)、昆布粉、青のり粉　/加工デンプン　乳化剤（大豆由来）、ソルビトール、調味料(アミノ酸等)、着色料（カロテノイド）、酸化防止剤（ビタミンE、ビタミンC）、香料（えび由来）、微粒酸化ケイ素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、ココアパウダー、小麦全粒粉、乳糖、異性化液糖、ホエイパウダー（乳成分を含む）、デキストリン、食塩　／　膨脹剤、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ショートニング、砂糖、加糖練乳、乳糖、ぶどう糖、全粉乳、いちご粉末、食塩、クリーミングパウダー（乳成分を含む）、ココアバター ／ 膨脹剤、酸味料、乳化剤（大豆由来）、香料、着色料（ビートレッド、カロテン）、卵殻未焼成カルシウム（卵由来）</t>
+  </si>
+  <si>
+    <t>原材料：小麦粉（国内製造）、砂糖、液全卵、ショートニング、植物油脂、カカオマス、水飴、ほうじ茶粉末、加糖練乳、クリーミングパウダー（乳成分を含む）、食塩、洋酒/ソルビトール、酒精、乳化剤（大豆由来）、加工デンプン、香料、膨張剤</t>
+  </si>
+  <si>
+    <t>原材料：小麦粉（国内製造）、砂糖、液全卵、マーガリン（乳成分を含む）、ごまペースト、水飴、ココアバター、食塩、洋酒/ ソルビトール、酒精、加工デンプン、乳化剤（大豆由来）、香料（ごま由来）、膨張剤</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂、小麦全粒粉、全粉乳、ココアパウダー、カカオマス、デキストリン、乳糖、食塩／膨脹剤、乳化剤（大豆由来）、着色料（カラメル）、香料</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造、国内製造）、カカオマス、液全卵、小麦粉、植物油脂、ショートニング、ココアパウダー、洋酒、水飴、異性化液糖、加糖練乳、全粉乳、還元水飴、クリーム（乳成分を含む）、ココアバター、乳糖、バター、脱脂粉乳、ぶどう糖、デキストリン、食塩／ソルビトール、酒精、乳化剤（大豆由来）、香料、膨脹剤</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、砂糖、ショートニング、カカオマス、全粉乳、マーガリン（乳成分を含む）、ココアパウダー、液全卵、イースト、食用加工油脂（小麦を含む）、乳糖、洋酒、うるちひえパフ、食塩、水飴、乾燥卵白（卵を含む）　／　ソルビトール、卵殻未焼成カルシウム（卵由来）、酒精、乳化剤（大豆由来）、香料（乳由来）、イーストフード（小麦由来）、ビタミンC、ビタミンD、着色料（カロテン）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、全粉乳、エリスリトール、マーガリン（乳成分を含む）、液全卵、イースト、食用加工油脂（小麦を含む）、乳糖、デキストリン、脱脂粉乳、洋酒、ココアバター、うるちひえパフ、食塩、クリーミングパウダー（乳成分を含む）、水飴、乾燥卵白（卵を含む）　/　ソルビトール、卵殻未焼成カルシウム（卵由来）、酒精、乳化剤（大豆由来）、香料（乳由来）、イーストフード（小麦由来）、ビタミンC、ビタミンD、着色料（カロテン）</t>
+  </si>
+  <si>
+    <t>チョコレート（砂糖、乳糖、ココアバター、全粉乳、カカオマス、植物油脂、その他）（国内製造）、小麦パフ（小麦粉、コーンスターチ、その他）、植物油脂、砂糖、乳糖、澱粉／トレハロース、乳化剤、香料、着色料（紅麹、野菜色素）、膨脹剤、酸味料、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>ソーダ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、着色料（クチナシ、紅花黄）、オレンジ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、カロテノイド色素、グレープ味：砂糖（国内製造）、水飴（国内製造）、濃縮グレープ果汁／酸味料、香料、野菜色素、クチナシ色素、コーラ味：砂糖（国内製造）、水飴（国内製造）／酸味料、カラメル色素、香料</t>
+  </si>
+  <si>
+    <t>準チョコレート（砂糖、植物油脂、ココアパウダー、全粉乳、脱脂粉乳、その他）（国内製造）、チョコレート（砂糖、ココアバター、乳糖、植物油脂、全粉乳、その他）、小麦パフ（小麦粉、コーンスターチ、その他）／乳化剤、香料、膨脹剤、着色料（紅花黄、カロチノイド）、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、コーングリッツ、植物油脂、マーガリン、加糖れん乳、ココアパウダー、カラメルソース、食塩、準チョコレート、牛乳／未焼成Ca、カラメル色素、香料、乳化剤、トレハロース、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、コーングリッツ、植物油脂、マーガリン、加糖れん乳、砂糖混合ブドウ糖果糖液糖、食塩、メロンピューレ、準チョコレート／未焼成Ca、香料、乳化剤、ｐH調整剤、クチナシ色素、甘味料（スクラロース）、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂糖（国内製造）、砂糖（国内製造）、菜種油/pH調整剤、ゲル化剤(アルギン酸Na)、甘味料(アスパルテーム・L-フェニルアラニン化合物、スクラロース、アセスルファムK)、香料、リン酸Ca、着色料（赤40） </t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ／酸味料、香料、着色料（アカキャベツ）</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、砂糖、ショートニング、ポテトでん粉、青大豆、枝豆パウダー（秋田県産）、チーズ、マルチトール、乾燥ポテト、食塩、バター、クロレラパウダー、香辛料、たん白加水分解物、酵母エキスパウダー、大豆イソフラボン抽出物、デキストリン／加工でん粉、カゼインNa、乳化剤、膨脹剤、炭酸Ca、香料、調味料（アミノ酸）、（一部に小麦・乳成分・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、カカオマス、ショートニング、ココアパウダー、全粉乳、転化糖蜜、加糖れん乳、ごま、食塩、コラーゲン(豚肉を含む)／着色料（カラメル）、膨脹剤、乳化剤（大豆由来）、炭酸Ｃａ、香料</t>
+  </si>
+  <si>
+    <t>準チョコレート（植物油脂、砂糖、カカオマス、全粉乳、ココアパウダー）（国内製造）、コーングリッツ、小麦全粒粉、砂糖、ココアパウダー、食塩／乳化剤、炭酸Ca、香料、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、植物油脂、しょうゆ、砂糖、食塩、チキンエキス、たんぱく加水分解物、ミート調味エキス、ミート調味パウダー、酵母エキスパウダー、ポークパウダー、魚介パウダー/加工デンプン、調味料(アミノ酸等）、炭酸Ca、酸化防止剤（ビタミンE）、（一部に小麦・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、わさびビーフ風味パウダー、食塩、粉末卵、ビーフエキスパウダー、粉末油脂、砂糖、しょうゆ、わさびペースト、ミート調味エキス、ガーリックパウダー、野菜エキス、たんぱく加水分解物、ミート調味パウダー／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、着色料（カラメル、紅麹、クチナシ）、酸化防止剤（ビタミンＥ）、甘味料（ステビア、スクラロース）、酸味料、香辛料抽出物、（一部に小麦・卵・乳成分・牛肉・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ（遺伝子組換えでない）、イソマルトオリゴ糖、乳製品（殺菌乳酸菌飲料）、はちみつ、発酵乳パウダー、レモンリキュール、大豆たんぱく（遺伝子組換えでない）、有胞子性乳酸菌／ソルビトール、ゲル化剤（ペクチン：りんご由来）、酸味料、香料、着色料（紅花黄）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、コーンスターチ、大豆たんぱく／香料</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ、濃縮ブルーベリー果汁、大豆たんぱく／ソルビトール、ゲル化剤（ペクチン：りんご由来）、酸味料、着色料（ビートレッド、クチナシ）、香料</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ、濃縮イチゴ果汁、濃縮リンゴ果汁、大豆たんぱく、イチゴパウダー、砂糖混合ぶどう糖果糖液糖／ソルビトール、酸味料、ゲル化剤（ペクチン）、着色料（ビートレッド）、香料</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ、乳製品（殺菌乳酸菌飲料）、発酵乳パウダー、大豆たんぱく／ソルビトール、酸味料、ゲル化剤（ペクチン：りんご由来）、香料</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、乳糖、ココアバター、砂糖、アップルソース、マルトデキストリン、ビスケット（小麦粉、砂糖、植物油脂、シュガーシロップ、大豆粉、食塩、シナモン）、脱脂粉乳、全粉乳、乾燥パン粉／乳化剤、香料、酸味料、着色料（カラメル、クチナシ、カロチノイド、フラボノイド）、膨脹剤、増粘剤（ペクチン）</t>
+  </si>
+  <si>
+    <t>粉糖（国内製造）、コーンスターチ（遺伝子組換えでない）／酸味料、香料、着色料（青1）</t>
+  </si>
+  <si>
+    <t>砂糖、澱粉（遺伝子組換えでない）、酸味料、香料、重曹</t>
+  </si>
+  <si>
+    <t>牛乳、砂糖、コーヒー、乳製品、デキストリン、カゼインＮａ、乳化剤、香料</t>
+  </si>
+  <si>
+    <t>牛乳、コーヒー、砂糖、全粉乳、脱脂粉乳、カゼインＮａ、乳化剤、香料、甘味料（アセスルファムＫ）</t>
+  </si>
+  <si>
+    <t>コーヒー</t>
+  </si>
+  <si>
+    <t>牛乳、砂糖、コーヒー、脱脂粉乳、クリーム、脱脂濃縮乳、全粉乳、デキストリン、カゼインＮａ、香料、乳化剤、安定剤（カラギナン）</t>
+  </si>
+  <si>
+    <t>牛乳、コーヒー、砂糖、ぶどう糖、乳加工品、カゼインＮａ、香料、乳化剤</t>
+  </si>
+  <si>
+    <t>小麦粉, 植物油脂, 加糖練乳, 砂糖, ショートニング, イースト, 食塩, バター加工品, 酵母エキス, 炭酸Ca, 調味料(無機塩等), 乳化剤, 甘味料(スクラロース), (原材料の一部に大豆を含む)</t>
   </si>
   <si>
     <t>砂糖, 全粉乳, ココアバター, カカオマス, 植物油脂, 脱脂粉乳, 乳化剤, 香料, アカビート色素, (原材料の一部に大豆を含む)</t>
   </si>
   <si>
-    <t>小麦粉(国内製造), 砂糖, 乳糖, ココアバター, 全粉乳, 植物油脂, ショートニング, 抹茶, 小麦たんぱく, 食塩, イースト/乳化剤, 香料, 調味料(無機塩), 膨脹剤, (一部に乳成分, 小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉, 砂糖, カカオマス, 植物油脂, 全粉乳, ショートニング, モルトエキス, でん粉, 食塩, イースト, ココアバター, バター, 乳化剤, 香料, 膨張剤, アナトー色素, 調味料(無機塩), (原材料の一部に大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, 全粉乳, カカオマス, 植物油脂, 小麦全粒粉, ココアバター, ショートニング, モルトエキス, 小麦たんぱく, 食塩, 発酵バター, 小麦胚芽, イースト/加工デンプン, 乳化剤, 香料, 膨脹剤, 酸化防止剤(ヤマモモ抽出物), (一部に乳成分, 小麦, 大豆を含む)</t>
-  </si>
-  <si>
     <t>小麦粉(国内製造), 砂糖, 植物油脂, 乳糖, 全粉乳, いちごパウダー, 小麦全粒粉, ココアパウダー, ショートニング, 小麦たんぱく, イヌリン, 食塩, イースト, キャラメルパウダー/香料, アカビート色素, 乳化剤, 調味料(無機塩), 膨脹剤, 酸味料, V.C, (一部に乳成分, 小麦, 大豆を含む)</t>
   </si>
   <si>
     <t>小麦粉(国内製造), 砂糖, アーモンド, 全粉乳, 植物油脂, カカオマス, ココアバター, 小麦全粒粉, ショートニング, アーモンドプラリネペースト, 小麦たんぱく, 食塩, イースト/乳化剤, 香料, 膨脹剤, (一部に乳成分, 小麦, 大豆, アーモンドを含む)</t>
   </si>
   <si>
-    <t>小麦粉(国内製造), 砂糖, ココナッツ, 全粉乳, 植物油脂, ココアバター, カカオマス, 小麦全粒粉, ショートニング, 食塩, 小麦たんぱく, イースト/乳化剤, 香料, 膨脹剤, (一部に乳成分, 小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, 乳糖, ココアバター, 全粉乳, 小麦全粒粉, 植物油脂, ショートニング, 小麦たんぱく, バター加工品, 食塩, イースト, 岩塩, バニラビーンズシード/乳化剤, 香料, 調味料(無機塩), (一部に乳成分, 小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉, 植物油脂, 加糖練乳, 砂糖, ショートニング, イースト, 食塩, バター加工品, 酵母エキス, 炭酸Ca, 調味料(無機塩等), 乳化剤, 甘味料(スクラロース), (原材料の一部に大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 植物油脂, ショートニング, 砂糖, でん粉, 乾燥ポテト, 野菜ペースト, ブイヨン混合品, イースト, 小麦たんぱく, 食塩, 酒かす, コンソメシーズニング, 香味油, こしょう/調味料(無機塩等), 加工デンプン, 乳化剤, 香料, 酸味料, (一部に乳成分, 小麦を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 植物油脂, ショートニング, 砂糖, トマトペースト, でん粉, 醸造酢(トマト酢), イースト, ベジタブルペースト, オニオンシーズニング, 食塩, 乾燥ほうれんそう, こしょう/加工デンプン, 調味料(無機塩等), 香料, 乳化剤, 酸味料, 香辛料抽出物, (一部に乳成分, 小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 植物油脂, 砂糖, 加糖練乳, 小麦全粒粉, ショートニング, でん粉, 発酵バター, イースト, 食塩, バター加工品, 乾燥卵黄/加工デンプン, 調味料(無機塩), 香料, 乳化剤, (一部に卵, 乳成分, 小麦を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 植物油脂, 砂糖, ショートニング, 乾燥ポテト, イースト, 食塩, しょうゆシーズニング, 黒こしょう, レモン果汁パウダー, 酵母エキス/加工デンプン, 調味料(アミノ酸等), 酸味料, 乳化剤, 香料, (一部に小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 植物油脂, でん粉, 乾燥ポテト, 小麦たんぱく, 砂糖, イヌリン, 食塩, 粉末しょうゆ, こんぶエキスパウダー, バター加工品, バター, 酵母エキス, こしょう, たんぱく加水分解物/加工デンプン, 調味料(アミノ酸等), 乳化剤, 香料, 着色料(カロチノイド), (一部に乳成分, 小麦, 大豆を含む)</t>
+    <t>小麦粉, 植物油脂, ショートニング, 砂糖, 食塩, イースト, 果糖ぶどう糖液糖, モルトエキス, コンソメシーズニング, しょうゆシーズニング, 調味料(無機塩等), 香料, (原材料の一部に乳成分, 大豆, 鶏肉を含む)</t>
   </si>
   <si>
     <t>小麦粉(国内製造), 植物油脂, でん粉, 砂糖, 小麦たんぱく, ポークエキス, オニオンペースト, 食塩, しょうゆシーズニング, たんぱく加水分解物, にんにくパウダー, 酵母エキス, こしょう, ベーコンエキス/調味料(アミノ酸等), 香料, 乳化剤, 増粘剤(キサンタンガム), 着色料(アナトー色素, カラメル), 酸味料, くん液, (一部に乳成分, 小麦, 大豆, 豚肉を含む)</t>
@@ -536,157 +623,349 @@
     <t>小麦粉(国内製造), 植物油脂, でん粉, スモークチーズパウダー, 砂糖, 小麦たんぱく, 食塩, 発酵調味料, こしょう, 酵母エキス, デキストリン, 麦芽糖/調味料(アミノ酸等), 香料, 増粘剤(キサンタンガム), 乳化剤, 着色料(アナトー色素), 酸味料, (一部に乳成分, 小麦, 大豆を含む)</t>
   </si>
   <si>
-    <t>小麦粉(国内製造), 植物油脂, でん粉, 乾燥ポテト, 小麦たんぱく, 砂糖, イヌリン, 食塩, チキンエキスパウダー, 香辛料, しょうゆシーズニング, ハーブシーズニング, ガーリックパウダー/加工デンプン, 調味料(アミノ酸等), 香料, 乳化剤, 着色料(カロチノイド), 酸味料, (一部に小麦, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 植物油脂, でん粉, 乾燥ポテト, 小麦たんぱく, 砂糖, イヌリン, 食塩, ホタテシーズニング, こんぶエキスパウダー, たんぱく加水分解物, だしパウダー, 唐辛子/加工デンプン, 調味料(アミノ酸等), 香料, 乳化剤, 着色料(カロチノイド, カラメル色素), 酸味料, (一部に小麦, いか, 大豆, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>小麦粉, 植物油脂, ショートニング, 砂糖, 食塩, イースト, 果糖ぶどう糖液糖, モルトエキス, コンソメシーズニング, しょうゆシーズニング, 調味料(無機塩等), 香料, (原材料の一部に乳成分, 大豆, 鶏肉を含む)</t>
-  </si>
-  <si>
-    <t>乾燥ポテト(遺伝子組換えでない), 植物油脂, コーンパウダー(遺伝子組換えでない), 砂糖, ショートニング, 澱粉, 食塩, チーズパウダー, バターパウダー, ブドウ糖, 発酵調味パウダー, 酵母エキスパウダー, オニオンパウダー, ほうれん草パウダー, デキストリン, キャロットエキスパウダー, 小麦粉, キャベツパウダー, 粉末醤油, チキンエキスパウダー/加工澱粉, トレハロース, 乳化剤, 塩化Ca, 調味料(アミノ酸等), 炭酸Ca, 乳酸Ca, 香料, カラメル色素, カロチノイド色素, (一部に乳成分, 小麦, 大豆, 鶏肉を含む)</t>
-  </si>
-  <si>
-    <t>砂糖, 植物油脂, コーングリッツ(遺伝子組換えでない), パン粉, マーガリン, ココアパウダー, 加糖れん乳, カラメルソース, 食塩, クリーム(乳製品), 発酵風味パウダー, 乳糖, カカオマス, 全粉乳, クリーム粉末, 卵殻未焼成Ca, カラメル色素, 香料, 乳化剤, トレハロース, (原材料の一部に大豆を含む)</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), コーングリッツ, 植物油脂, マーガリン, 加糖れん乳, 砂糖混合ブドウ糖果糖液糖, 食塩, メロンピューレ, 準チョコレート/未焼成Ca, 香料, 乳化剤, pH調整剤, クチナシ色素, 甘味料(スクラロース), カロチノイド色素, (一部に乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>コーングリッツ(遺伝子組換えでない), 砂糖, 植物油脂, マーガリン, ココアパウダー, 加糖れん乳, カラメルソース, 食塩, クリーム(乳製品), 発酵風味パウダー, 乳糖, カカオマス, 全粉乳, たんぱく加水分解物, クリーム粉末, カラメル色素, 卵殻未焼成Ca, 香料, 乳化剤, トレハロース, (原材料の一部に小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>もち米(国内産), つゆ(醤油, 砂糖, 食塩, かつお節エキス, 発酵調味料, 魚醤, 醸造酢, 昆布), 麦芽糖, もち米粉(タイ産), 発酵調味料, 澱粉, イソマルトオリゴ糖, 水あめ, アミノ酸液, 唐辛子パウダー(ハバネロ使用)/トレハロース, 加工澱粉, 調味料(アミノ酸等), 酸味料, カロチノイド色素, ソルビトール, (一部に小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>コーングリッツ(国内製造), 砂糖, 植物油脂, マーガリン, 牛乳, ココアパウダー, カラメルソース, 食塩, カカオマス, 準チョコレート/香料, カラメル色素, 未焼成Ca, 乳化剤, 甘味料(スクラロース), トレハロース, (一部に乳成分, 大豆を含む)</t>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, 乳糖, 小麦全粒粉, 植物油脂, イヌリン, 全粉乳, いちごパウダー, 食塩, 小麦たんぱく, でん粉, 乳酸菌/炭酸Ca, 膨脹剤, 香料, 乳化剤, 調味料(アミノ酸), 酸味料, V.B1, V.B2, V.D, (一部に乳成分, 小麦を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, 乳糖, 植物油脂, 全粉乳, イヌリン, 食塩, でん粉, 小麦たんぱく, 乳酸菌/炭酸Ca, 膨脹剤, 香料, 乳化剤, 調味料(アミノ酸), V.B1, V.B2, V.D, (一部に乳成分, 小麦を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, 乳糖, 小麦全粒粉, 植物油脂, 全粉乳, イヌリン, メープルシュガー, キャラメルパウダー, 食塩, 小麦たんぱく, でん粉, 乳酸菌/炭酸Ca, 膨脹剤, 香料, 乳化剤, 調味料(アミノ酸), V.B1, V.B2, V.D, (一部に乳成分, 小麦を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, 全粉乳, 植物油脂, 発酵バター, 乳糖, イヌリン, 食塩, バターミルクパウダー, 小麦たんぱく, 乳酸菌, バニラビーンズシード/炭酸Ca, 膨脹剤, 乳化剤, 香料, 調味料(アミノ酸), V.B1, V.B2, V.D, (一部に乳成分, 小麦を含む)</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造), タピオカでん粉/酸味料, 乳化剤, 香料, アカキャベツ色素</t>
+  </si>
+  <si>
+    <t>水あめ, 砂糖, 植物油脂, ゼラチン, 濃縮ストロベリー果汁, 加糖練乳, ストロベリージャム, 乳酸菌飲料, 酸味料, 乳化剤, 香料, アカキャベツ色素</t>
+  </si>
+  <si>
+    <t>砂糖, 水あめ, 植物油脂, ラムネ菓子(エリスリトール, ポリデキストロース), ゼラチン, デキストリン, 濃縮レモン果汁, 酸味料, 乳化剤, 香料, ステアリン酸カルシウム, ベニバナ黄色素</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造), 水あめ, 砂糖, 植物油脂, ゼラチン/グリセリン, ソルビトール, 増粘多糖類, 酸味料, 香料, 乳化剤, クチナシ青色素</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造), タピオカでん粉/酸味料, 乳化剤, 香料, アカキャベツ色素, クチナシ青色素, 増粘剤(アラビアガム)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(醤油, 食塩, チキンエキス, ラード, 砂糖, 香味油脂, たん白加水分解物, 植物油, 粉末野菜, ポークエキス, 香辛料, ねぎ, 酵母エキス, 発酵調味料), かやく(ワンタン, 味付鶏挽肉, コーン), 加工でん粉, 調味料(アミノ酸等), カラメル色素, 炭酸カルシウム, 酒精, かんすい, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, 増粘多糖類, 香料, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, ごま, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(みそ, ポークエキス, 醤油, 香味油脂, ラード, 香辛料, 植物油, 砂糖, 食塩, たん白加水分解物, 酵母エキス, ねぎ, 発酵調味料), かやく(コーン, 味付鶏挽肉), 加工でん粉, 調味料(アミノ酸等), カラメル色素, 酒精, 炭酸カルシウム, かんすい, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, 香料, 香辛料抽出物, pH調整剤, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, ごま, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(醤油, ポークエキス, 食塩, ラード, でん粉, 植物油, 香味油脂, 砂糖, たん白加水分解物, 香辛料, ねぎ, 粉末煮干し), かやく(焼豚, なると), 加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, 増粘多糖類, 酒精, かんすい, レシチン, 酸化防止剤(ビタミンE, ビタミンC), クチナシ色素, pH調整剤, カラメル色素, 香料, ベニコウジ色素, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, 鶏肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(チキンエキス, しょうゆ, 食塩, 植物油, 発酵調味料, 砂糖, 野菜エキス, こんぶエキス, 香辛料, 酵母エキス, 鶏脂, ラード, 魚介エキス), かやく(ワンタン, 卵)/加工でん粉, 調味料(アミノ酸等), 酒精, 炭酸カルシウム, かんすい, 酸化防止剤(ビタミンC, ビタミンE), レシチン, クチナシ色素, カラメル色素, 増粘多糖類, カロチン色素, ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
   </si>
   <si>
     <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), かやく(ワンタン, 味付鶏挽肉), 添付調味料(チキンエキス, 香辛料, 砂糖, 食塩, 粉末野菜, しょうゆ, ねぎ, 植物油)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, レシチン, クチナシ色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
   </si>
   <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(チキンエキス, しょうゆ, 食塩, 植物油, 発酵調味料, 砂糖, 野菜エキス, こんぶエキス, 香辛料, 酵母エキス, 鶏脂, ラード, 魚介エキス), かやく(ワンタン, 卵)/加工でん粉, 調味料(アミノ酸等), 酒精, 炭酸カルシウム, かんすい, 酸化防止剤(ビタミンC, ビタミンE), レシチン, クチナシ色素, カラメル色素, 増粘多糖類, カロチン色素, ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(醤油, ポークエキス, 食塩, ラード, でん粉, 植物油, 香味油脂, 砂糖, たん白加水分解物, 香辛料, ねぎ, 粉末煮干し), かやく(焼豚, なると), 加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, 増粘多糖類, 酒精, かんすい, レシチン, 酸化防止剤(ビタミンE, ビタミンC), クチナシ色素, pH調整剤, カラメル色素, 香料, ベニコウジ色素, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, 鶏肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(みそ, ポークエキス, 醤油, 香味油脂, ラード, 香辛料, 植物油, 砂糖, 食塩, たん白加水分解物, 酵母エキス, ねぎ, 発酵調味料), かやく(コーン, 味付鶏挽肉), 加工でん粉, 調味料(アミノ酸等), カラメル色素, 酒精, 炭酸カルシウム, かんすい, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, 香料, 香辛料抽出物, pH調整剤, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, ごま, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, 食塩, 香辛料, 粉末野菜, 卵白), 添付調味料(醤油, 食塩, チキンエキス, ラード, 砂糖, 香味油脂, たん白加水分解物, 植物油, 粉末野菜, ポークエキス, 香辛料, ねぎ, 酵母エキス, 発酵調味料), かやく(ワンタン, 味付鶏挽肉, コーン), 加工でん粉, 調味料(アミノ酸等), カラメル色素, 炭酸カルシウム, 酒精, かんすい, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, 増粘多糖類, 香料, ビタミンB2, ビタミンB1, (原材料の一部に乳成分, ごま, ゼラチンを含む)</t>
-  </si>
-  <si>
     <t>めん(小麦粉(国内製造), 食塩, 植物油脂, 植物性たん白, 卵白), 添付調味料(しょうゆ, チキンエキス, 食塩, 植物油, 鶏脂, ポークエキス, 香辛料, 砂糖, 野菜エキス, 発酵調味料, たん白加水分解物, 酵母エキス, ミート風味パウダー, 香味油脂)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, 酒精, 炭酸カルシウム, レシチン, 酸化防止剤(ビタミンC, ビタミンE), カラメル色素, クチナシ色素, 増粘多糖類, 香料, 甘味料(カンゾウ), 香辛料抽出物, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
   </si>
   <si>
+    <t>めん(小麦粉(国内製造), 食塩, 植物性たん白, 植物油脂, 卵白), 添付調味料(みそ, ポークエキス, 食塩, 香辛料, 香味油脂, 野菜エキス, 植物油, ラード, 砂糖, 発酵調味料, デーツ果汁, たん白加水分解物)/加工でん粉, 調味料(アミノ酸等), トレハロース, 酒精, かんすい, 炭酸カルシウム, カラメル色素, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, (一部に小麦, 卵, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 食塩, 植物油脂, 植物性たん白, 卵白), 添付調味料(チキンエキス, 食塩, ポークエキス, 香味油脂, しょうゆ, 野菜エキス, 植物油, 砂糖, 香辛料, 魚介エキス, たん白加水分解物, 豚脂)/加工でん粉, 調味料(アミノ酸等), 酒精, トレハロース, かんすい, 炭酸カルシウム, レシチン, 酸化防止剤(ビタミンC, ビタミンE), 増粘多糖類, 香料, クチナシ色素, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 食塩, 植物性たん白, 植物油脂, 卵白), 添付調味料(ポークエキス, しょうゆ, 鶏脂, 食塩, でん粉, 砂糖, 香辛料, たん白加水分解物, 野菜エキス, 植物油)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, カラメル色素, 炭酸カルシウム, 増粘多糖類, 酒精, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 植物油脂, 食塩, 植物性たん白, 卵白), 添付調味料(しょうゆ, ラード, 魚介エキス, 食塩, チキンエキス, ポークエキス, 香味油脂, 砂糖, 香辛料, 酵母エキス)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, 酒精, 炭酸カルシウム, レシチン, 酸化防止剤(ビタミンC, ビタミンE), カラメル色素, クチナシ色素, 増粘多糖類, 香料, (一部に小麦, 卵, さば, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
     <t>油揚げめん(小麦粉(国内製造), 植物油脂, 精製ラード, 食塩, 植物性たん白), 添付調味料(食塩, 香辛料, チキンエキス, しょうゆ, 酵母エキス, 砂糖, 植物油)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 酸化防止剤(ビタミンE), 酸味料, クチナシ色素, (一部に小麦, 大豆, 鶏肉, 豚肉を含む)</t>
   </si>
   <si>
-    <t>めん(小麦粉(国内製造), 食塩, 植物性たん白, 植物油脂, 卵白), 添付調味料(ポークエキス, しょうゆ, 鶏脂, 食塩, でん粉, 砂糖, 香辛料, たん白加水分解物, 野菜エキス, 植物油)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, カラメル色素, 炭酸カルシウム, 増粘多糖類, 酒精, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>めん(小麦粉(国内製造), 植物油脂, 食塩, 植物性たん白, 卵白), 添付調味料(しょうゆ, ラード, 魚介エキス, 食塩, チキンエキス, ポークエキス, 香味油脂, 砂糖, 香辛料, 酵母エキス)/加工でん粉, 調味料(アミノ酸等), トレハロース, かんすい, 酒精, 炭酸カルシウム, レシチン, 酸化防止剤(ビタミンC, ビタミンE), カラメル色素, クチナシ色素, 増粘多糖類, 香料, (一部に小麦, 卵, さば, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>めん(小麦粉(国内製造), 食塩, 植物性たん白, 植物油脂, 卵白), 添付調味料(みそ, ポークエキス, 食塩, 香辛料, 香味油脂, 野菜エキス, 植物油, ラード, 砂糖, 発酵調味料, デーツ果汁, たん白加水分解物)/加工でん粉, 調味料(アミノ酸等), トレハロース, 酒精, かんすい, 炭酸カルシウム, カラメル色素, レシチン, 酸化防止剤(ビタミンE), クチナシ色素, (一部に小麦, 卵, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
     <t>油揚げめん(小麦粉(国内製造), 植物油脂, 精製ラード, 食塩), 添付調味料(食塩, しょうゆ, デキストリン, チキンエキス, ポークエキス, 香辛料(黒こしょう, ガーリックパウダー))/加工でん粉, カラメル色素, 炭酸カルシウム, 調味料(アミノ酸等), かんすい, 酸化防止剤(ビタミンE), クチナシ色素, 香料, 香辛料抽出物, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
   </si>
   <si>
     <t>砂糖(タイ製造), 水あめ, ゼラチン, 食用油脂/甘味料(ソルビトール), 酸味料, 香料, ゲル化剤(ペクチン:オレンジ由来), 着色料(クチナシ, 野菜色素)</t>
   </si>
   <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), スープ(食塩, 豚脂, ポークエキス, 香辛料(赤唐辛子, ガーリック, ペッパー), デキストリン, 糖類, たん白加水分解物, 香味油, 酵母エキス, しょうゆ, ローストオニオン粉末, 香味調味料), かやく(味付豚肉, 卵, ニラ, 赤唐辛子)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 香料, 増粘多糖類, ソルビット, グリセリン, 酸化防止剤(ビタミンE), カロチノイド色素, 酸味料, 甘味料(スクラロース), くん液, ビタミンB2, 香辛料抽出物, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, 大豆, 豚肉を含む)</t>
+    <t>砂糖(タイ製造又は韓国製造), 生あん, 水あめ, カカオマス, 寒天/甘味料(ソルビトール), 香料, 乳化剤</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造, 国内製造), 水あめ, ゼラチン, 乳糖, 乳酸菌乾燥粉末(殺菌), ビフィズス菌乾燥粉末(殺菌)/ソルビトール, 酸味料, 香料, ゲル化剤(ペクチン), アラビアガム, 光沢剤, 着色料(赤キャベツ, 紅花黄, クチナシ), 乳化剤, (一部に乳成分, 大豆, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造), でん粉, 食塩/香料, 重曹, 酸味料, 糊料(プルラン), 赤キャベツ色素</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, ゼラチン, 濃縮マスカット果汁, 紅茶エキスパウダー, オブラートパウダー/ソルビトール, 酸味料, 香料, ゲル化剤(ペクチン), 乳化剤, 光沢剤, (一部に大豆, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, ゼラチン, 濃縮レモン果汁, カルダモン末, シナモン末, クローブ末, バニラシロップ, オブラートパウダー/ソルビトール, 酸味料, ゲル化剤(ペクチン), 香料, 乳化剤, 光沢剤, (一部に大豆, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造, 国内製造), 水あめ, ゼラチン, 乳糖/ソルビトール, 酸味料, 香料, ゲル化剤(ペクチン), 着色料(カラメル, 赤キャベツ, クチナシ, カロチン), アラビアガム, 光沢剤, 乳化剤, (一部に乳成分, 大豆, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水あめ, せとか果汁/酸味料, 香料, アナトー色素</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, ゼラチン, 濃縮マスカット果汁, 濃縮ぶどう果汁, 植物油脂, でん粉/ソルビトール, 酸味料, 加工デンプン, 香料, 着色料(クチナシ, フラボノイド), 光沢剤, (一部にゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, ゼラチン, 植物油脂, でん粉, ソルビトール, 酸味料, 加工デンプン, 香料, 着色料(カラメル, クチナシ), 光沢剤, (一部にゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, ゼラチン, 濃縮ぶどう果汁, 濃縮マスカット果汁, 植物油脂/ソルビトール, 酸味料, 骨Ca, 香料, 着色料(フラボノイド, アントシアニン, クチナシ, 紅麹), 光沢剤, (一部にゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, ゼラチン, 濃縮バナナ果汁, 濃縮レモン果汁, 濃縮すもも果汁, 植物油脂/ソルビトール, 酸味料, 骨Ca, 香料, 着色料(アントシアニン, クチナシ), 光沢剤, (一部にバナナ, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, ゼラチン, でん粉, 濃縮オレンジ果汁, 濃縮レモン果汁, 植物油脂/ソルビトール, 酸味料, 増粘剤(増粘多糖類, CMCーNa), 香料, 着色料(フラボノイド, カロチノイド), 光沢剤, (一部にオレンジ, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水あめ, 植物油脂, ゼラチン, 濃縮マスカット果汁, 加糖練乳, でん粉/乳化剤, ソルビトール, 増粘多糖類, 加工デンプン, 酸味料, 香料, 着色料(フラボノイド, クチナシ), (一部に乳成分, 大豆, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, ソース, 糖類), ソース(ソース, からしマヨネーズ, 糖類, 植物油脂, 食塩, 香味油, たん白加水分解物, ソース加工品, 香味調味料, ポークエキス, 香辛料, 醸造酢), かやく(キャベツ), ふりかけ(ソース加工品, マヨネーズ風ソースフレーク, アオサ, 紅しょうが)/カラメル色素, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, 酸味料, 乳化剤, 香料, 香辛料抽出物, 酸化防止剤(ビタミンE), 炭酸マグネシウム, カロチノイド色素, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, オレンジ, ごま, 大豆, 豚肉, りんごを含む)</t>
+  </si>
+  <si>
+    <t>めん(小麦粉(国内製造), 食塩, 植物油脂, 植物性たん白, 卵粉, 米麹調味料(でん粉, 米麹加工品, 塩麹, 食塩), ポークエキス), スープ(食塩, 糖類, 香辛料, 豚脂, 香味調味料, 豚, 鶏エキス, しょうゆ, デキストリン, たん白加水分解物, 酵母エキス, しょうゆもろみ, ローストオニオン粉末, 植物油脂)/加工デンプン, 膨張剤, 調味料(アミノ酸等), 酒精, かんすい, 炭酸カルシウム, 増粘剤(加工デンプン, 増粘多糖類), 香料, カラメル色素, 炭酸マグネシウム, カロチノイド色素, 酸味料, 酸化防止剤(ビタミンE), 乳化剤, (一部に卵, 乳成分, 小麦, えび, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, ホタテエキス, 乳たん白), スープ(食塩, ポークエキス, 香辛料, たん白加水分解物, 糖類, 香味調味料, 酵母エキス, しょうゆ, ローストオニオン粉末)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 炭酸マグネシウム, 増粘多糖類, 香料, 酸化防止剤(ビタミンE), カロチノイド色素, 酸味料, 甘味料(スクラロース), ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
   </si>
   <si>
     <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 卵粉, しょうゆ), スープ(食塩, 豚脂, ポークエキス, 香辛料, 香味油, たん白加水分解物, 酵母エキス, しょうゆ, デキストリン, 糖類, ローストオニオン粉末, 香味調味料, 植物油脂), かやく(卵, 豚, 鶏味付肉, ニラ)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, かんすい, 香料, 増粘多糖類, ソルビット, グリセリン, カロチノイド色素, 微粒二酸化ケイ素, 乳化剤, 酸化防止剤(ビタミンE), 酸味料, 甘味料(スクラロース), 香辛料抽出物, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
   </si>
   <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, オニオン粉末), ソース(ペッパーガーリックマヨネーズ, しょうゆ, 糖類, 豚脂, 植物油脂, 食塩, ポークエキス, 香味油, たん白加水分解物, 香味調味料, 香辛料, 醸造酢), かやく(キャベツ), ふりかけ(香辛料, アオサ, 赤唐辛子)/調味料(アミノ酸等), かんすい, 炭酸カルシウム, 酒精, 香料, 増粘剤(キサンタンガム), 乳化剤, 酸味料, カロチノイド色素, 酸化防止剤(ビタミンE), カラメル色素, 香辛料抽出物, 炭酸マグネシウム, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
     <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, オニオン粉末), ソース(半固体状ドレッシング, しょうゆ, 糖類, 豚脂, 食塩, ポークエキス, 魚醤, 魚介エキス, たん白加水分解物, 香味調味料, 香辛料), かやく(キャベツ), ふりかけ(たらこ加工品, のり, 香辛料)/調味料(アミノ酸等), かんすい, 炭酸カルシウム, カラメル色素, 酒精, 香料, 増粘剤(加工デンプン, キサンタンガム), 乳化剤, 酸味料, カロチノイド色素, ベニコウジ色素, 酸化防止剤(ビタミンE), 香辛料抽出物, 炭酸マグネシウム, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, いか, さけ, さば, 大豆, 豚肉を含む)</t>
   </si>
   <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, オニオン粉末), ソース(ペッパーガーリックマヨネーズ, しょうゆ, 糖類, 豚脂, 植物油脂, 食塩, ポークエキス, 香味油, たん白加水分解物, 香味調味料, 香辛料, 醸造酢), かやく(キャベツ), ふりかけ(香辛料, アオサ, 赤唐辛子)/調味料(アミノ酸等), かんすい, 炭酸カルシウム, 酒精, 香料, 増粘剤(キサンタンガム), 乳化剤, 酸味料, カロチノイド色素, 酸化防止剤(ビタミンE), カラメル色素, 香辛料抽出物, 炭酸マグネシウム, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, ソース, 糖類), ソース(ソース, からしマヨネーズ, 糖類, 植物油脂, 食塩, 香味油, たん白加水分解物, ソース加工品, 香味調味料, ポークエキス, 香辛料, 醸造酢), かやく(キャベツ), ふりかけ(ソース加工品, マヨネーズ風ソースフレーク, アオサ, 紅しょうが)/カラメル色素, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, 酸味料, 乳化剤, 香料, 香辛料抽出物, 酸化防止剤(ビタミンE), 炭酸マグネシウム, カロチノイド色素, ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, オレンジ, ごま, 大豆, 豚肉, りんごを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 卵粉, しょうゆ), スープ(食塩, チキンエキス, たん白加水分解物, 香辛料, 酵母エキス, ねぎ, ローストオニオン粉末, かつおぶし粉末, 香味調味料, 植物油脂)/加工デンプン, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, 香料, 増粘多糖類, 乳化剤, 酸化防止剤(ビタミンE), カロチノイド色素, 甘味料(スクラロース), ビタミンB2, ビタミンB1, (一部に卵, 乳成分, 小麦, えび, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+    <t>砂糖, マルトース, ゼラチン, 濃縮リンゴ果汁, 食塩, その他</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング(砂糖, 植物油脂, ココアパウダー), 小麦粉, 砂糖, 鶏卵, ぶどう糖果糖液糖, その他</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, カレー粉, しょうゆ, 食塩, チキンエキス, 植物性たん白, 卵粉, 香辛料, 香味調味料, 砂糖, デキストリン, オニオンパウダー/加工でん粉, 調味料(アミノ酸等), かんすい, 炭酸Ca, カロチノイド色素, 増粘剤(アルギン酸エステル), 酸化防止剤(ビタミンE), 香辛料抽出物, 甘味料(アセスルファムK, スクラロース), ビタミンB2, ビタミンB1, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, 抹茶(京都産宇治抹茶100%), 食塩, 乳糖/膨張剤, クチナシ色素, 香料, 乳化剤(大豆由来), 酸化防止剤(ビタミンE)</t>
+  </si>
+  <si>
+    <t>じゃがいも(遺伝子組換えでない)(国産), 植物油脂, 砂糖, 粉末しょうゆ(小麦, 大豆を含む), たん白加水分解物, 食塩, でん粉, かつお節パウダー, 唐辛子, ごま, しょうがパウダー, あおさ, 昆布パウダー, 花椒, 陳皮パウダー, 赤しそパウダー, ぶどう糖, デキストリン, ビーフエキス調味料/調味料(アミノ酸等), 香料, 甘味料(ステビア), 香辛料抽出物</t>
   </si>
   <si>
     <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), ソース(砂糖, 食塩, ソース, 香辛料, デキストリン, たん白加水分解物), かやく(キャベツ)/加工でんぷん, 調味料(アミノ酸等), カラメル色素, 炭酸Ca, かんすい, 酸味料, 増粘多糖類, 炭酸Mg, 酸化防止剤(ビタミンE), 香料, ビタミンB2, ビタミンB1, (一部に小麦, 大豆, ごまを含む)</t>
   </si>
   <si>
+    <t>砂糖(国内製造), 果糖ぶどう糖液糖, パラチノース, ぶどう糖/酸味料, 乳酸Ca, ゲル化剤(増粘多糖類), 香料, V.B2, V.B1, V.B6</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 果糖ぶどう糖液糖, パラチノース, ぶどう糖, 植物性乳酸菌末(殺菌)/酸味料, 乳酸Ca, ゲル化剤(増粘多糖類), 香料, V.B2, V.B1, V.B6</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 果糖ぶどう糖液糖, パラチノース, ぶどう糖, 添加物:酸味料, ゲル化剤(増粘多糖類), 乳酸Ca, 香料, 野菜色素, V.B2, V.B1, V.B6</t>
+  </si>
+  <si>
     <t>チョコレート(砂糖, 全粉乳, 植物油脂, ココアバター, カカオマス, 乳糖), ウエハース(小麦粉, 砂糖, でんぷん, 植物油脂, 食塩)/加工でんぷん, 乳化剤(大豆由来), 貝カルシウム, 香料, 着色料(カラメル), 膨張剤</t>
   </si>
   <si>
+    <t>チョコレート(乳糖, ココアバター, 砂糖, 植物油脂, 全粉乳, 乾燥いちご), ウエハース(小麦粉, 砂糖, でんぷん, 植物油脂, 食塩)/加工でんぷん, 香料, 乳化剤(大豆由来), 着色料(アカビート, 紅麹)貝カルシウム, 膨張剤, 酸味料</t>
+  </si>
+  <si>
+    <t>ウエハース(小麦粉, 砂糖, でんぷん, 植物油脂, 食塩)(国内製造), 乳糖, ココアバター, 砂糖, 植物油脂, 全粉乳, 脱脂粉乳, 発酵乳パウダー, 殺菌乳酸菌粉末/加工デンプン, 貝カルシウム, 乳化剤(大豆由来), 香料, 着色料(カラメル, クチナシ), 膨脹剤</t>
+  </si>
+  <si>
+    <t>ぶどう味グミ(水あめ, 砂糖, ゼラチン, 濃縮ぶどう果汁, その他)(国内製造), 砂糖, 全粉乳, ココアバター, カカオマス, 植物油脂, 乳糖/香料, ソルビトール, 光沢剤, 酸味料, 乳化剤(大豆由来), 着色料(アカキャベツ, クチナシ)</t>
+  </si>
+  <si>
+    <t>カカオマス(カカオ豆(ガーナ, エクアドル)), 砂糖, ココアパウダー, ココアバター, カカオニブ加工品, 全粉乳/乳化剤(大豆由来), 香料</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造), 全粉乳, カカオマス, 乳糖, ココアバター, 植物油脂, 還元水あめ, 酒精, ラム酒, ラム酒漬けレーズン/乳化剤(大豆由来), 香料</t>
+  </si>
+  <si>
+    <t>&lt;コーラ&gt;砂糖(国内製造), 水あめ/酸味料, 重曹, 着色料(カラメル), 香料&lt;ラムネ&gt;砂糖(国内製造), 水あめ/酸味料, 重曹, 香料, 着色料(クチナシ)&lt;グレープソーダ&gt;砂糖(国内製造), 水あめ/酸味料, 重曹, 香料, 着色料(アカキャベツ, クチナシ)&lt;ヨーグルトソーダ&gt;砂糖(国内製造), 水あめ/酸味料, 重曹, 香料&lt;メロンクリームソーダ&gt;砂糖(国内製造), 水あめ, 加糖れん乳, 乳等を主要原料とする食品/酸味料, 重曹, 香料, 着色料(紅麹, クチナシ), 乳化剤</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水あめ, 食塩(ぬちまーす100%), 植物油脂, 濃縮レモン果汁/酸味料(クエン酸), ビタミンC, 香料, 乳化剤, 着色料(クチナシ, 紅麹)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), ショートニング, 砂糖, 全粒粉, 乳糖, 乳等を主要原料とする食品, 乾燥全卵, でん粉, 食塩/膨張剤, 香料, 乳化剤(大豆由来)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, ココアパウダー, 乳糖, 乳等を主要原料とする食品, 乾燥全卵, でん粉, 食塩/膨張剤, 香料, 乳化剤(大豆由来)</t>
+  </si>
+  <si>
+    <t>〈ミルク味〉小麦粉(国内製造), ショートニング, 砂糖, 全粒粉, 乳糖, 乳等を主要原料とする食品, 乾燥全卵, でん粉, 食塩/膨張剤, 香料, 乳化剤(大豆由来)〈チョコ味〉小麦粉(国内製造), 砂糖, ショートニング, ココアパウダー, 乳糖, 乳等を主要原料とする食品, 乾燥全卵, でん粉, 食塩/膨張剤, 香料, 乳化剤(大豆由来)</t>
+  </si>
+  <si>
+    <t>うるち米粉(国産), でん粉, しょうゆ, わさび風味シーズニング, 砂糖, 魚介エキス調味料, たん白加水分解物, こんぶエキス, 粉末わさび/調味料(アミノ酸等), 加工でん粉, ソルビトール, 着色料(カラメル, パプリカ色素), 香料, 香辛料抽出物, チャ抽出物, (一部に小麦, 卵, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>うるち米粉(国産), でん粉, しょうゆ, 砂糖, 魚介エキス調味料, たん白加水分解物, こんぶエキス, 食塩/加工でん粉, 調味料(アミノ酸等), ソルビトール, 着色料(カラメル, パプリカ色素), 香辛料抽出物, (一部に小麦, 卵, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>うるち米粉(国産), でん粉, しょうゆ, 梅しそシーズニング, 砂糖, 魚介エキス調味料, たん白加水分解物, こんぶエキス, 乾燥梅肉/調味料(アミノ酸等), 加工でん粉, 酸味料, ソルビトール, 香料, 着色料(カラメル, パプリカ色素, ムラサキトウモロコシ色素), 甘味料(スクラロース, ネオテーム), 香辛料抽出物, (一部に小麦, 卵, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>うるち米粉(国産), でん粉, ピーナッツ(ピーナッツ, 植物油脂, 食塩), しょうゆ, わさび風味シーズニング, 砂糖, 魚介エキス調味料, たん白加水分解物, こんぶエキス, 粉末わさび/調味料(アミノ酸等), 加工でん粉, ソルビトール, 着色料(カラメル, パプリカ色素), 香料, 香辛料抽出物, チャ抽出物, 乳化剤, (一部に小麦, 卵, 落花生, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>原材料:うるち米粉(国産), でん粉, ピーナッツ(ピーナッツ, 植物油脂, 食塩), しょうゆ, 砂糖, 魚介エキス調味料, たん白加水分解物, こんぶエキス, 食塩/加工でん粉, 調味料(アミノ酸等), ソルビトール, 着色料(カラメル, パプリカ色素), 乳化剤, 香辛料抽出物, (一部に小麦, 卵, 落花生, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>野菜(じゃがいも(国産), にんじん, コーン), 大豆油, 豚肉, 小麦粉ルウ, ソテーオニオン, 砂糖, カレー粉, エキス(ポーク, 酵母), 醤油, トマトペースト, 食塩, チキンエキス調味料, ミルポワペースト, チーズパウダー, 酵母エキスパウダー/増粘剤(加工でん粉), 調味料(アミノ酸等), セルロース, (一部に乳成分, 小麦, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
+    <t>昆布(国内産), 醸造酢, かつおぶしエキス, 食塩, たんぱく加水分解物, 発酵調味料/調味料(アミノ酸等), 酸味料, ソルビトール, 加工でん粉, 甘味料(ステビア抽出物), (一部に大豆を含む)</t>
+  </si>
+  <si>
+    <t>米(国産), ホエイパウダー(乳成分を含む), 砂糖, チーズ風味シーズニング(乳成分を含む), 乳糖, 食塩, オニオンエキスパウダー, しょうゆ(小麦, 大豆を含む), ピザ風味シーズニング(小麦, 乳成分, 大豆, 豚肉を含む), チーズパウダー(チェダーチーズ45%, カマンベールチーズ30%, ゴーダチーズ1%), 植物油脂, 唐辛子, たんぱく加水分解物(大豆を含む)/調味料(アミノ酸等), 香料, 甘味料(ステビア, スクラロース), 乳化剤, パプリカ色素, くん液, 香辛料抽出物</t>
+  </si>
+  <si>
     <t>砂糖(国内製造), 小麦粉, 植物油脂, 乳糖, でん粉, ショートニング, ココアバター, 全粉乳, ホエイパウダー, 液卵, マルチトール, ストロベリーパウダー, クリームパウダー, 食塩/炭酸Ca, 膨脹剤, 着色料(カラメル, 紅麹, アカビート), 香料, 乳化剤(大豆由来)</t>
   </si>
   <si>
-    <t>小麦粉(国内製造), 砂糖, 植物油脂, 全粉乳, でん粉, カカオマス, ショートニング, 加糖れん乳, ココアパウダー, クリームパウダー, モルトエキス, 食塩, ココアバター, 大豆胚芽エキス/膨脹剤, 乳化剤, 香料</t>
+    <t>&lt;れもん&gt;水あめ(国内製造), 砂糖, ゼラチン, 濃縮レモン果汁, オブラートパウダー/ソルビトール, グリセリン, 酸味料, ゲル化剤(ペクチン), 香料, 乳化剤, 紅花色素, 光沢剤&lt;コーラ&gt;水あめ(国内製造), 砂糖, ゼラチン, コーラナッツエキス, オブラートパウダー/ソルビトール, グリセリン, 酸味料, ゲル化剤(ペクチン), カラメル色素, 香料, 乳化剤, 光沢剤&lt;ソーダ&gt;水あめ(国内製造), 砂糖, ゼラチン, オブラートパウダー/ソルビトール, グリセリン, 酸味料, ゲル化剤(ペクチン), 香料, クチナシ色素, 乳化剤, 光沢剤&lt;ぶどう&gt;水あめ(国内製造), 砂糖, ゼラチン, 濃縮グレープ果汁, オブラートパウダー/ソルビトール, グリセリン, 酸味料, ゲル化剤(ペクチン), 香料, 着色料(ブラックキャロットジュース, クチナシ), 乳化剤, 光沢剤</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造又は外国製造), 小麦粉, 植物油脂, カカオマス, でん粉, ショートニング, 乳糖, 全粉乳, 液卵, ホエイパウダー, クリームパウダー, 脱脂粉乳, 食塩, ココアパウダー, ココアバター/炭酸Ca, 膨脹剤, カラメル色素, 乳化剤(大豆由来), 香料</t>
+  </si>
+  <si>
+    <t>コーンパフ(コーングリッツ, 砂糖, 植物油脂, 水あめ, ココアパウダー, 食塩)(国内製造), 砂糖, 植物油脂, カカオマス, 乳糖, 全粉乳, ココアバター, 水あめ/光沢剤, 増粘剤(アラビアガム), 乳化剤(大豆由来), 香料, カラメル色素</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 小麦粉, 植物油脂, 全粉乳, 乳糖, カカオマス, ホエイパウダー, クッキークランチ, ココアパウダー, でん粉, ショートニング, 食塩/乳化剤(大豆由来), カラメル色素, 膨脹剤, 香料</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 植物油脂, 乳糖, 全粉乳, カカオマス, ココアバター, れん乳パウダー, ストロベリーパウダー/乳化剤(大豆由来), アカビート色素, 香料</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 植物性加工油脂, 水飴, ゼラチン, 濃縮りんご果汁/セルロース, 酸味料, 乳化剤, 香料, 甘味料(アスパルテーム, L‐フェニルアラニン化合物, アセスルファムK), 着色料(青色1号), (一部にりんご, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>ピーナッツ(中国), 植物油脂, 食塩, 香味食用油, 唐辛子, 花椒, 豆板醤, 水飴, ネギ, ガーリック/調味料(アミノ酸等), 香辛料抽出物, (一部に小麦, ピーナッツ, 大豆を含む)</t>
   </si>
   <si>
     <t>油揚げめん(小麦粉(国内製造), 植物油脂, ラード, 食塩, 植物性たん白, しょうゆ), スープ(しょうゆ, 糖類, 食塩, 動物油脂, ビーフエキス, たん白加水分解物, 昆布エキス, 鰹エキス), かやく(かす入り揚げ玉, とろろ昆布, かまぼこ, ねぎ)/加工でん粉, 調味料(アミノ酸等), 酒精, リン酸Na, 香料, 増粘剤(キサンタン), 酸化防止剤(ビタミンE), カラメル色素, 膨脹剤, 紅麹色素, クチナシ色素, (一部に小麦, 牛肉, 大豆, 鶏肉, 豚肉を含む)</t>
   </si>
   <si>
-    <t>小麦粉(国内製造), 砂糖, 乳糖, 加工油脂, 還元水あめ, さつまいもパウダー, 卵, マーガリン, 植物油脂, 乳等を主要原料とする食品(バター, 乳糖, カゼインカルシウム, 食塩), 脱脂粉乳, 食塩, 麦芽糖, 小麦ファイバー, 水あめ/着色料(クチナシ, アナトー), 乳化剤(大豆由来), 結晶セルロース, 香料</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), 小麦粉, 加工油脂, 脱脂粉乳, ぶどう糖果糖液糖, カカオマス, ココアパウダー, 卵, 加糖脱脂練乳, マーガリン, ココアバター, 水あめ, 植物油脂, 乳糖, 食塩, 麦芽糖, ぶどう糖/着色料(カラメル, アナトー), 乳化剤(大豆由来), 香料</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, 加工油脂, 乳糖, 全粉乳, ぶどう糖果糖液糖, 卵, 加糖脱脂練乳, マーガリン, いちごパウダー, 水あめ, 植物油脂, 食塩, 麦芽糖, ぶどう糖/乳化剤(大豆由来), 酸味料, 着色料(紅麹, アカビート, アナトー), 香料</t>
-  </si>
-  <si>
-    <t>準チョコレート(砂糖, 乳糖, 植物油脂, 全粉乳, ココアバター), 小麦粉, 植物油脂, 乳糖, 砂糖, くりパウダー, ココアパウダー, イースト, 全粉乳, カカオマス, ココアバター/乳化剤, 香料, カラメル色素, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>準チョコレート(砂糖, 乳糖, 植物油脂, 全粉乳, ココアバター)(国内製造), 小麦粉, 植物油脂, 乳糖, 砂糖, さつまいもパウダー, イースト, ココアパウダー, 全粉乳, カカオマス, ココアバター/乳化剤, 香料, 重曹, イーストフード, クチナシ色素, (一部に小麦, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>植物油脂(国内製造), ビスケット(小麦粉, 砂糖, ショートニング, ココアパウダー, 食塩), 砂糖, 小麦粉, カカオマス, 乳糖, 全粉乳, ココアバター, ココアパウダー, イースト/乳化剤, 膨脹剤, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
+    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, 食塩/乳化剤, 調味料(アミノ酸)</t>
+  </si>
+  <si>
+    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, コンソメシーズニング(チキンエキスパウダー, 砂糖, ぶどう糖, 食塩, オニオンパウダー, 野菜エキスパウダー, 酵母エキスパウダー, デキストリン, 乳糖, 香辛料, たん白加水分解物, 植物油脂), 砂糖, オニオンパウダー, 食塩, 香辛料/調味料(アミノ酸等), 乳化剤, 着色料(パプリカ粉末, パプリカ色素), 加工デンプン, 香料, 酸味料, 甘味料(カンゾウ), 香辛料抽出物, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, 食塩, 青のり, あおさ/乳化剤, 調味料(アミノ酸)</t>
+  </si>
+  <si>
+    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, サワークリームオニオン風味シーズニング(オニオンパウダー, 食塩, 乳等を主要原料とする食品, 砂糖, ぶどう糖, 酵母エキスパウダー, でん粉, 粉末酢, サワークリームパウダー), オニオンペースト/調味料(アミノ酸等), 酸味料, 香料, 乳化剤, 香辛料抽出物, 甘味料(カンゾウ), (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, バターしょうゆシーズニング(乳等を主要原料とする食品, 砂糖, しょうゆパウダー, 食塩, たん白加水分解物, バターパウダー, チーズパウダー, 酵母エキスパウダー, かつお節パウダー), バターミルクパウダー/調味料(アミノ酸等), 香料, 乳化剤, 甘味料(カンゾウ, スクラロース), (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>ポテトフレーク(アメリカ製造又はドイツ製造又はその他), 植物油脂, 甘えびパウダー, 食塩/加工デンプン, 乳化剤, 調味料(アミノ酸), (一部にえびを含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油脂, でん粉, 砂糖, ショートニング, 乳糖, しょうゆパウダー, 食塩, ブラックペッパー, たん白加水分解物, ガーリックパウダー, コーンスターチ, 香味粉末油脂, ローストしょうゆ調味料, 乳等を主要原料とする食品, ビーフエキスパウダー, ナツメグパウダー/加工デンプン, 調味料(アミノ酸等), 香料, 重曹, 香辛料抽出物, 乳化剤, カラメル色素, 甘味料(スクラロース), (一部に小麦, 乳成分, 牛肉, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉, 砂糖, 植物油脂, ココアパウダー, コーンスターチ, 食塩/膨張剤, 乳化剤, 香料, 酸化防止剤(V.E, V.C), (原材料の一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉, 砂糖, 植物油脂, ココアパウダー, コーンスターチ, 食塩/膨張剤, 乳化剤, 香料, 酸味料, 酸化防止剤(V.C, V.E), (一部に小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>生地(小麦粉, コーンスターチ, 食塩)(国内製造), 植物油脂, 砂糖, 水あめ, しょうゆ(小麦, 大豆を含む), 食塩/膨張剤, 卵殻カルシウム(卵由来)</t>
+  </si>
+  <si>
+    <t>生地(小麦粉, コーンスターチ, 食塩)(国内製造), 植物油脂, 砂糖, 水あめ, しょうゆ(小麦, 大豆を含む), 食塩, アオサ粉/膨張剤, 卵殻カルシウム(卵由来)</t>
+  </si>
+  <si>
+    <t>うるち米(国内産, 米国産), 植物油脂, しょうゆ(小麦, 大豆を含む), 砂糖, かつおだし粉末, 昆布だし/加工デンプン, 調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>もち米(国内産, 米国産), 植物油脂, ピーナッツ, 食塩, 砂糖, かつおだし粉末, 昆布粉末, チキンコンソメシーズニング, 調味料(アミノ酸等), 香料, (原材料の一部に小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>植物油脂(国内製造)(大豆を含む), 砂糖, 砂糖粉乳調製品(砂糖, 全粉乳, 脱脂粉乳, ココアバター), 乳糖, カカオマス, 全粉乳, ココアバター, 脱脂粉乳/乳化剤(大豆由来), 香料(乳由来)</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造, 国内製造), アーモンド, カカオマス, 全粉乳, 植物油脂, ココアバター, 小麦パフ(小麦粉, コーンスターチ, 甘藷でん粉, モルトエキス, 食塩), 乳糖/乳化剤, 香料, 膨脹剤, (一部にアーモンド, 乳成分, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖粉乳調製品(砂糖, 全粉乳, ココアバター)(シンガポール製造), 乳糖, アーモンド, ココアバター, 植物油脂, 小麦パフ(小麦粉, コーンスターチ, 甘藷でん粉, モルトエキス, 食塩), 脱脂粉乳, 全粉乳/乳化剤, 香料, 膨脹剤, (一部に乳成分, アーモンド, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>じゃがいもでんぷん(じゃがいも(北海道)), コーンスターチ/増粘剤(CMC, 増粘多糖類)</t>
   </si>
   <si>
     <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), ビスケット(小麦粉, 砂糖, ショートニング, 食塩), 小麦粉, 植物油脂, 乳糖, 抹茶, 砂糖, ココアパウダー, 緑茶, 全粉乳, カカオマス, イースト, ココアバター/乳化剤, 膨脹剤, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
   </si>
   <si>
-    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), 全粒粉ビスケット(小麦粉, 小麦全粒粉, 砂糖, ショートニング, 食塩), 小麦粉, 乳糖, 植物油脂, 砂糖, ココアパウダー, 全粉乳, カカオマス, イースト, ココアバター/乳化剤, 膨脹剤, カラメル色素, 香料, 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), ビスケット(小麦粉, 砂糖, ショートニング, 食塩), 小麦粉, 乳糖, 植物油脂, 砂糖, いちご果汁パウダー, 乾燥いちご加工品, イースト, ココアパウダー, 全粉乳, カカオマス, ココアバター/乳化剤, 酸味料, 膨脹剤, 香料, 着色料(赤ビート, 紅麹), 重曹, イーストフード, (一部に小麦, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング(植物油脂, 砂糖, 乳糖, 全粉乳, ココアバター)(国内製造), 全粒粉ビスケット(小麦粉, 小麦全粒粉, 砂糖, ショートニング, 食塩), 小麦粉, 乳糖, 砂糖, 植物油脂, 全粉乳, カカオマス, ココアバター, ココアパウダー, イースト/乳化剤(大豆由来), 膨脹剤, カラメル色素, 香料, 重曹, イーストフード</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造, 国内製造), 全粉乳, 乳糖, カカオマス, 小麦粉, 植物油脂, ココアバター, オレンジ果汁パウダー, イースト, ココアパウダー/乳化剤, 香料, 酸味料, 重曹, イーストフード, (一部に小麦, 乳成分, オレンジ, 大豆を含む)</t>
+    <t xml:space="preserve"> (ミルク)砂糖(外国製造), 全粉乳, カカオマス, ココアバター, 植物油脂/乳化剤(大豆由来), 香料 (いちご)砂糖(外国製造), 植物油脂, 乳糖, 全粉乳, ココアバター/乳化剤(大豆由来), 酸味料, 野菜色素, 香料 (きなこ)植物油脂(国内製造), 砂糖, 乳糖, きなこ(大豆を含む), 全粉乳, ココアバター, 脱脂粉乳/乳化剤, 香料 (バナナ)砂糖(外国製造), 植物油脂, 乳糖, 全粉乳, ココアバター, バナナパウダー/乳化剤(大豆由来), 香料, カロチノイド色素 (メロン)砂糖(外国製造), 乳糖, 植物油脂, ココアバター, 全粉乳/乳化剤(大豆由来), 酸味料, 着色料(スピルリナ青, クチナシ), 香料</t>
   </si>
   <si>
     <t>緑茶(国産)/ビタミンC</t>
   </si>
   <si>
+    <t>牛乳, 砂糖, コーヒー, 脱脂粉乳/乳化剤</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油, チーズパウダー, 食塩, 砂糖, デキストリン, クリーミングパウダー, たん白加水分解物, 酵母エキスパウダー, オニオンパウダー, 粉末醤油/調味料(アミノ酸等), 香料, カロチノイド色素, 甘味料(ステビア, スクラロース, カンゾウ), (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油, デキストリン, 砂糖, 食塩, ぶどう糖, チーズパウダー, 酵母エキスパウダー, オニオンパウダー, ハラペーニョパウダー, パセリフレーク/香料, 調味料(アミノ酸等), 酸味料, カロチノイド色素, (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油, 砂糖, 粉末醤油, たん白加水分解物, でん粉, 食塩, ガーリックパウダー, オニオンパウダー, 酵母エキスパウダー, ビーフエキス調味料, 香味粉末油脂, ブラックペッパー/調味料(アミノ酸等), 着色料(カラメル, カロチノイド), 香料, 酸味料, 甘味料(アスパルテーム, Lーフェニルアラニン化合物, スクラロース), 香辛料抽出物, (一部に小麦, 牛肉, ごま, 大豆, 豚肉を含む)</t>
+  </si>
+  <si>
     <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, しょうゆ, たん白加水分解物), スープ(糖類, 食塩, しょうゆ, 貝エキス, 香辛料, チキンエキス, ポークエキス, えびエキス, たん白加水分解物), かやく(かまぼこ, コーン, ねぎ), 調味料(アミノ酸等), 加工でん粉, 炭酸カルシウム, カラメル色素, かんすい, 増粘多糖類, 酸味料, 酸化防止剤(ビタミンE), クチナシ色素, イカスミ色素, ビタミンB2, ベニコウジ色素, ビタミンB1</t>
   </si>
   <si>
+    <t>油揚げめん(小麦粉(国内製造), 植物油脂, でん粉, 食塩, しょうゆ, たん白加水分解物), スープ(糖類, 食塩, しょうゆ, 貝エキス, 野菜粉末, チキンエキス, ポークエキス, えびエキス, 香辛料, たん白加水分解物), かやく(かまぼこ, コーン)/調味料(アミノ酸等), 加工でん粉, 炭酸カルシウム, カラメル色素, かんすい, 増粘多糖類, 酸味料, 酸化防止剤(ビタミンE), クチナシ色素, イカスミ色素, ビタミンB2, ビタミンB1, ベニコウジ色素, (一部にえび, 小麦, 乳成分, いか, 大豆, 鶏肉, 豚肉を含む)</t>
+  </si>
+  <si>
     <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, 粉末卵, 糖類), スープ(みそ, 食塩, 糖類, ポークエキス, コチュジャン, 植物油脂, 豚脂, 豆板醤, 香辛料, 香味食用油, 調味油脂, たん白加水分解物), かやく(ねぎ, 鶏, 豚味付肉そぼろ, コーン), 加工でん粉, 調味料(アミノ酸等), 酒精, 炭酸カルシウム, カラメル色素, 香料, クチナシ色素, かんすい, 増粘剤(キサンタン), 酸味料, 酸化防止剤(ビタミンE, ローズマリー抽出物), ビタミンB2, ビタミンB1, 香辛料抽出物, (原材料の一部にごまを含む)</t>
   </si>
   <si>
-    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, みそ, 糖類), スープ(豚脂, しょうゆ, 食塩, 糖類, ポークエキス, チキンエキス, たん白加水分解物, 植物油脂, 香辛料, 酵母エキス), かやく(チャーシュー, ねぎ), 加工でん粉, 調味料(アミノ酸等), 酒精, カラメル色素, 炭酸カルシウム, かんすい, レシチン, クチナシ色素, 増粘剤(キサンタン), 香料, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, (原材料の一部に卵, 乳成分を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, 食塩), ソース(ソース, 糖類, 食塩, 豚脂, 植物油脂, 香辛料, たん白加水分解物, 香味調味料), かやく(キャベツ), カラメル色素, 調味料(アミノ酸等), 炭酸カルシウム, かんすい, 酸味料, 酸化防止剤(ビタミンE), 香料, 増粘剤(キサンタン), ビタミンB2, ビタミンB1, (原材料の一部に乳成分, 大豆, りんご, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, でん粉, 食塩, しょうゆ, たん白加水分解物), スープ(糖類, 食塩, しょうゆ, 貝エキス, 野菜粉末, チキンエキス, ポークエキス, えびエキス, 香辛料, たん白加水分解物), かやく(かまぼこ, コーン)/調味料(アミノ酸等), 加工でん粉, 炭酸カルシウム, カラメル色素, かんすい, 増粘多糖類, 酸味料, 酸化防止剤(ビタミンE), クチナシ色素, イカスミ色素, ビタミンB2, ビタミンB1, ベニコウジ色素, (一部にえび, 小麦, 乳成分, いか, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉, 植物油脂, でん粉, 食塩, 大豆食物繊維), スープ(しょうゆ, 食塩, たん白加水分解物, ポークエキス, 糖類, 豚脂, 植物油脂, かつお節エキス, 酵母エキス, 香辛料, 煮干いわし粉末), かやく(チャーシュー, メンマ, ナルト, ねぎ), 調味料(アミノ酸等), 酒精, カラメル色素, 炭酸カルシウム, 香料, かんすい, 増粘剤(キサンタン), レシチン, クチナシ色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, ベニコウジ色素, (原材料の一部に卵, 乳成分を含む)</t>
+    <t>牛乳(国内製造), コーヒー(エチオピア産コーヒー豆51%), 砂糖, 全粉乳, 脱脂粉乳, デキストリン/カゼインNa, 乳化剤, 香料, 甘味料(アセスルファムK)</t>
   </si>
   <si>
     <t>砂糖(国内製造), 水飴, 果汁(いちご, パインアップル, レモン, オレンジ, りんご, メロン, ぶどう, もも)/酸味料, 香料, 着色料(アントシアニン, パプリカ色素, カロチン, クチナシ, 紅麹, 紅花黄), (一部にオレンジ, もも, りんごを含む)</t>
+  </si>
+  <si>
+    <t>砂糖, 水飴, 濃縮果汁(いちご, レモン, オレンジ, パインアップル, りんご, メロン, すもも), 酸味料, 香料, 着色料(紫コーン色素, パプリカ色素, カロチン, 紅麹, クチナシ, 紅花黄)</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造), 砂糖, 水あめ, 還元水あめ/ガムベース, 酸味料, 香料, カラメル色素, 軟化剤</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造), 砂糖, 水あめ, 還元水あめ, 濃縮ぶどう果汁/ガムベース, 酸味料, 香料, アントシアニン色素</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), ぶどう糖, 水あめ/ガムベース, 酸味料, 糊料(アラビアガム), 香料, 着色料(フラボノイド, アントシアニン), 光沢剤</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), ぶどう糖, 水あめ, 還元水あめ, 酵母エキス, デキストリン/ガムベース, 酸味料, 香料, 軟化剤, カロチノイド色素</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), ゼラチン, パラチニット/酸味料, 香料, 着色料(クチナシ, アントシアニン, カロチノイド), 甘味料(スクラロース)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油, 粉末ソース, 砂糖, トマト風味パウダー, たん白加水分解物(大豆を含む), 小麦粉, 粉末鰹節, あおさ, 食塩, たこパウダー/調味料(アミノ酸等), 酸味料, 炭酸カルシウム, 着色料(カラメル, カロチノイド), 香料(鶏肉, りんご由来), 甘味料(スクラロース, ステビア:乳由来, 甘草), 香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも(国産又はアメリカ), 植物油, 食塩, 砂糖, でん粉, 香辛料パウダー, たん白加水分解物(大豆を含む), 粉末ソース, オニオンパウダー, ビーフパウダー, トマトパウダー, 酵母エキスパウダー, 調味動物油脂(豚肉を含む)/調味料(アミノ酸等), 酸味料, 香料(小麦, いか, ゼラチン由来), 着色料(カラメル, クチナシ), 甘味料(ステビア, スクラロース), 香辛料抽出物</t>
   </si>
   <si>
     <t>(レモン味)砂糖(国内製造), 水飴, 濃縮レモン果汁, ハーブエキス(オレンジを含む)
@@ -696,301 +975,220 @@
 (青りんご味)砂糖(国内製造), 水飴, 濃縮りんご果汁, ハーブエキス(オレンジを含む)</t>
   </si>
   <si>
+    <t>砂糖(外国製造, 国内製造), 水飴, マルトース, ゼラチン, 濃縮ぶどう果汁, 植物油脂</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造, 国内製造), 小麦粉, 植物油脂, 全粉乳, ココアバター, カカオマス, マーガリン, ショートニング, 鶏卵, 乳糖, ホエイパウダー, ココアパウダー, キャラメルパウダー, 乾燥全卵, 食塩, バター</t>
+  </si>
+  <si>
+    <t>ぶどう糖, 砂糖, でん粉, ゼラチン, 酸味料, 乳化剤, 光沢剤, 香料, 着色料(クチナシ, 野菜色素, カロチノイド), 糊料(アラビアガム)</t>
+  </si>
+  <si>
     <t>米めん(ベトナム製造(米, でん粉, 食塩)), スープ(食塩, 砂糖, 鶏油, 香味油, たん白加水分解物, 植物油脂, チキンエキス, 香辛料, 酵母エキス, チキン調味料, ネギエキス), かやく(大豆加工品, ねぎ, もやし, コリアンダー)/加工でん粉, 調味料(アミノ酸等), 酒精, 増粘剤(加工でん粉, 増粘多糖類), 香料, カラメル色素, 乳化剤, 酸味料, 酸化防止剤(ビタミンE), (一部に乳成分, 大豆, 鶏肉, 豚肉を含む)</t>
   </si>
   <si>
+    <t>米めん(ベトナム製造(米, でん粉, 食塩)), かやく入りスープ(食塩, チンゲン菜, 砂糖, トムヤムシーズニングパウダー, 大豆加工品, 香辛料, ねぎ, 酵母エキス, たん白加水分解物, 蝦醤, チキン調味料, エビエキス, コリアンダー, 唐辛子)/加工でん粉, 調味料(アミノ酸等), 酸味料, 香料, 微粒二酸化ケイ素, カロチノイド色素, 甘味料(スクラロース, アセスルファムK), 乳化剤, 増粘剤(グァーガム), (一部にえび, 大豆, 鶏肉, ゼラチンを含む)</t>
+  </si>
+  <si>
     <t>米めん(ベトナム製造(米, でん粉, 食塩)), スープ(たん白加水分解物, 糖類, 食塩, 香辛料, 牛脂, 発酵調味料, 植物油脂, 醸造酢, トマトケチャップ, ビーフエキス, 香味油, 酵母エキス), かやく(大豆加工品, ねぎ, 唐辛子)/加工でん粉, 調味料(アミノ酸等), 酒精, 香料, 香辛料抽出物, 増粘多糖類, カラメル色素, 乳化剤, 酸味料, 甘味料(スクラロース, アセスルファムK), 酸化防止剤(ビタミンE), (一部にえび, 牛肉, 大豆を含む)</t>
   </si>
   <si>
-    <t>米めん(ベトナム製造(米, でん粉, 食塩)), かやく入りスープ(食塩, チンゲン菜, 砂糖, トムヤムシーズニングパウダー, 大豆加工品, 香辛料, ねぎ, 酵母エキス, たん白加水分解物, 蝦醤, チキン調味料, エビエキス, コリアンダー, 唐辛子)/加工でん粉, 調味料(アミノ酸等), 酸味料, 香料, 微粒二酸化ケイ素, カロチノイド色素, 甘味料(スクラロース, アセスルファムK), 乳化剤, 増粘剤(グァーガム), (一部にえび, 大豆, 鶏肉, ゼラチンを含む)</t>
-  </si>
-  <si>
     <t>牛乳(国内製造), 砂糖, コーヒー, 脱脂粉乳, 全粉乳, デキストリン/乳化剤, 香料, セルロース</t>
   </si>
   <si>
+    <t>コーヒー(コーヒー豆(ブラジル産, エチオピア産, その他))</t>
+  </si>
+  <si>
+    <t>果実(りんご, オレンジ, もも, タンジェリン, パインアップル, ぶどう), 砂糖類(砂糖, ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒石酸塩, 塩化Na, ガラナ種子エキス, クエン酸, 香料, 炭酸ガス, 甘味料(Dーリボース, スクラロース), Lーアルギニン, カフェイン, クエン酸Na, 着色料(βーカロチン, アントシアニン), ナイアシン, イノシトール, V.B6, V.B2, V.B12</t>
+  </si>
+  <si>
     <t>果実(りんご, オレンジ, グァバ, パインアップル, パッションフルーツ), 砂糖類(砂糖, ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒石酸塩, 植物油, 塩化Na, ガラナ種子エキス/炭酸, クエン酸, 香料, 保存料(安息香酸Na), Lーアルギニン, クエン酸Na, カフェイン, 甘味料(スクラロース), ナイアシン, イノシトール, ビタミンB6, ビタミンB2, 着色料(βーカロテン), ビタミンB12</t>
   </si>
   <si>
-    <t>砂糖類(砂糖, ぶどう糖), 高麗人参根エキス, LーカルニチンLー酒石酸塩, 塩化Na, ガラナ種子エキス/クエン酸, 炭酸, 香料, クエン酸Na, 甘味料(Dーリボース, スクラロース), Lーアルギ二ン, 保存料(安息香酸), カフェイン, ナイアシン, 着色料(アントシアニン), イノシトール, ビタミンB6, ビタミンB2, ビタミンB12</t>
+    <t>砂糖(外国製造又は国内製造), 乳糖, ワッフルクランチ(小麦粉, 砂糖, でん粉, その他), 植物油脂, 小麦粉, 全粉乳, ココアバター, レモン果汁パウダー, ショートニング, 異性化液糖, 食塩/乳化剤, 着色料(カロテノイド, アナトー), 香料, 酸味料, 膨脹剤, (一部に乳成分, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>ワッフルクランチ(国内製造)(小麦粉, 砂糖, でん粉, その他), 砂糖, 乳糖, 植物油脂, 全粉乳, ココアバター, 糖漬け乾燥いちご(いちご, 砂糖, ぶどう糖), 糖漬け乾燥クランベリー(クランベリー, 砂糖, 植物油脂), いちごパウダー, ぶどう糖, いちごパウダー(乳糖, いちご, デキストリン), コーンスターチ/乳化剤, 着色料(野菜色素, アナトー, 紅麹), 香料, 酸味料, 膨脹剤, 糊料(ペクチン), (一部に乳成分, 小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>うるち米(国産), 植物油脂, 米粉(うるち米(国産)), でん粉, 食物繊維(イヌリン), 食塩, 野菜粉末(ほうれん草, オニオン, にんじん, トマト, かぼちゃ, コーン), 発酵調味料(小麦, 大豆を含む), たんぱく加水分解物(大豆を含む), 粉末しょう油(小麦, 大豆を含む), ガーリックパウダー(大豆を含む), チキンブイヨンパウダー(乳成分を含む), チーズパウダー, 黒胡椒, 黒糖パウダー, ココアパウダー, 酵母エキスパウダー</t>
+  </si>
+  <si>
+    <t>米粉(うるち米(国産)), 砂糖, 食塩, フラクトオリゴ糖/加工でん粉</t>
+  </si>
+  <si>
+    <t>植物油脂(国内製造), 米粉(うるち米(国産, 米国産)), でん粉, 食塩, 魚介エキスパウダー(えびを含む), 砂糖, えび, デキストリン, 粉末しょう油(小麦, 大豆を含む), 香味油(えびを含む), 酵母エキス粉末/加工でん粉, 調味料(アミノ酸等), 着色料(紅麹, カラメル), 酸味料</t>
+  </si>
+  <si>
+    <t>コーングリッツ(遺伝子組換えでない), 砂糖, 植物油脂, マーガリン, ココアパウダー, 加糖れん乳, カラメルソース, 食塩, クリーム(乳製品), 発酵風味パウダー, 乳糖, カカオマス, 全粉乳, たんぱく加水分解物, クリーム粉末, カラメル色素, 卵殻未焼成Ca, 香料, 乳化剤, トレハロース, (原材料の一部に小麦, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造), 植物油脂, 砂糖, マーガリン, 加糖れん乳, 食塩, 卵黄粉末/ソルビトール, 香料, 卵殻Ca, 乳化剤, 甘味料(スクラロース), カロチノイド色素, (一部に卵, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>乾燥ポテト(外国製造), 植物油脂, 食塩, 唐辛子パウダー(ブート, ジョロキアパウダー2%使用), 砂糖, ガーリックパウダー, 酵母エキスパウダー, たんぱく加水分解物, ブドウ糖, オニオンパウダー, レモングラスパウダー, 澱粉, 乳糖, チリパウダー, チキンパウダー, 香味油, ホワイトペッパーパウダー, 醤油風味調味料, 唐辛子ピューレ, チキンエキス調味料, クミンパウダー, パプリカパウダー, 調味エキス/加工澱粉, 調味料(アミノ酸等), 酸味料, 炭酸Ca, 香料, 酸化防止剤(ビタミンE), 香辛料抽出物, カラメル色素, (一部に乳成分, 小麦, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造, 国内製造), 牛乳, 全粉乳, メロン果汁, 脱脂粉乳, ココナッツオイル, デキストリン, クリーム, 食塩/乳化剤, 香料, ビタミンC, クチナシ色素, カロテン色素, 甘味料(ステビア), クエン酸</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水飴, 酒粕, デキストリン, はちみつ, 食塩, 米糀粉末/酸味料, 香料, 着色料(アントシアニン, ウコン), L‐ロイシン, L‐バリン, L‐イソロイシン, 安定剤(キサンタンガム), 甘味料(アスパルテーム, L‐フェニルアラニン化合物)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水飴, マヌカハニー, カラメルソース(砂糖), ハーブエキス/香料, 酸味料, 着色料(カラメル)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水飴, 濃縮果汁(マスカット, アセロラ, レモン), ハーブエキス/酸味料, ビタミンC, 香料, 着色料(アントシアニン, クチナシ, ウコン), 抽出ビタミンE, ナイアシン, パントテン酸Ca, ビタミンB1, ビタミンB6, ビタミンB2, ビタミンA, 葉酸, ビタミンD, ビタミンB12</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水飴, 巨峰濃縮果汁/酸味料, 香料, 着色料(アントシアニン)</t>
+  </si>
+  <si>
+    <t>ばれいしょでん粉(ばれいしょ(北海道)), 砂糖, 加糖卵黄(卵黄(卵を含む), 砂糖), 水飴, ぶどう糖, 小麦粉, 寒梅粉ミックス(とうもろこしでん粉, もち米), 脱脂粉乳/卵殻カルシウム, 膨張剤</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造又は国内製造), 全粉乳, 植物油脂, カカオマス, ココアバター, 乳糖, 脱脂粉乳, 油脂加工品/乳化剤(大豆由来), 野菜色素, 香料(乳, 大豆由来)</t>
+  </si>
+  <si>
+    <t>&lt;ハローキティ&gt;砂糖(外国製造又は国内製造), 全粉乳, カカオマス, 植物油脂, ココアバター, 乳糖, 脱脂粉乳, 油脂加工品/乳化剤(大豆由来), 香料(乳, 大豆由来), 野菜色素&lt;マイメロディ&gt;砂糖(外国製造又は国内製造), 全粉乳, カカオマス, 植物油脂, ココアバター, 乳糖, 脱脂粉乳, 油脂加工品/乳化剤(大豆由来), 香料(乳, 大豆由来), 野菜色素&lt;ポチャッコ&gt;砂糖(外国製造又は国内製造), 全粉乳, カカオマス, 植物油脂, ココアバター, 乳糖, 脱脂粉乳, 油脂加工品/乳化剤(大豆由来), 香料(乳, 大豆由来)&lt;ポムポムプリン&gt;砂糖(外国製造又は国内製造), 全粉乳, カカオマス, 植物油脂, ココアバター, 乳糖, 脱脂粉乳, 油脂加工品/乳化剤(大豆由来), 香料(乳, 大豆由来), カロテノイド色素&lt;シナモロール&gt;砂糖(外国製造又は国内製造), 全粉乳, カカオマス, 植物油脂, ココアバター, 乳糖, 脱脂粉乳, 油脂加工品/乳化剤(大豆由来), 香料(乳, 大豆由来), 野菜色素</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 植物油脂, チョコレートチップ(乳成分を含む), 還元水あめ, 白ねりあん(乳成分を含む), 卵, 全脂大豆粉, カカオマス, 水あめ, 脱脂粉乳, 食塩, 卵黄(卵を含む), 全粉乳/加工デンプン, 乳化剤(乳, 大豆由来), 香料(乳, 大豆由来), 安定剤(加工デンプン), 膨脹剤, カラメル色素</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, 植物油脂, バター, 全粉乳, 発酵種(小麦を含む), 食塩, 乳等を主原料とする食品/乳化剤(小麦, 大豆由来), 香料(乳, 大豆由来), カロテノイド色素</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), ぶどう糖, 水あめ, ゼラチン, ウーロン茶抽出物/ガムベース, 酸味料, 軟化剤, 香料, ビタミンC, クチナシ色素</t>
+  </si>
+  <si>
+    <t>含蜜糖(国内製造), 黒砂糖, 砂糖, 小麦粉, 小麦蛋白(グルテン)/カラメル色素, 膨張剤</t>
+  </si>
+  <si>
+    <t>グルコースシロップ, 砂糖, ゼラチン, 植物油脂/ソルビトール, 酸味料, 増剤(寒天), 香料, 着色料(黄4, 黄5, 赤40, 青1), 光沢剤</t>
+  </si>
+  <si>
+    <t>うるち米(国産, アメリカ産), 植物油脂, 砂糖, しょうゆ(小麦, 大豆を含む), 果糖ぶどう糖液糖, 食塩, 調味エキス(大豆を含む)/加工デンプン(小麦由来), 調味料(アミノ酸等), 着色料(カラメル)</t>
   </si>
   <si>
     <t>うるち米粉(国産, タイ産), 植物油脂, 粉末醸造酢, 砂糖, 食塩, 酵母エキス粉末, 香辛料(ごまを含む), チキンエキス粉末, 粉末しょうゆ(小麦, 大豆を含む), でん粉, デキストリン/加工デンプン, 香料(鶏肉由来), 調味料(アミノ酸等), 酸味料, 酸化防止剤(ビタミンE), 微粒酸化ケイ素, 着色料(カロテン), 香辛料抽出物, ビタミンB1, 乳化剤(大豆由来)</t>
   </si>
   <si>
-    <t>小麦粉(国内製造), 植物油脂, えび粉末, えび塩風味パウダー, 食塩, ローストしょうゆパウダー/加工デンプン, 炭酸Ca, 調味料(アミノ酸等), 酸化防止剤(ビタミンE, ビタミンC), 乳化剤, 香料, カラメル色素, (一部にえび, 小麦, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造), カカオマス, 乳糖, 全粉乳, ココアバター, 植物油脂, /乳化剤, 香料, (一部に乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>ローストピーナッツ(国内製造), 植物油脂, イヌリン(食物繊維), 全粉乳, 砂糖, ココアパウダー, カカオマス/乳化剤, 香料, (一部に乳成分, 落花生, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>レーズン(アメリカ製造), カカオマス, 砂糖, ココアバター, ココアパウダー, 全粉乳, マルトデキストリン, 植物油脂/光沢剤, 乳化剤, 香料, (一部に乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造又は国内製造), 植物油脂, 小麦パフ, 全粉乳, カカオマス, ココアパウダー, マルトデキストリン/乳化剤, 光沢剤, 香料, (一部に乳成分, 小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造又は国内製造), 植物油脂, コーングリッツ(分別生産流通管理済み), 全粉乳, カカオマス, ココアパウダー, 小麦粉, マルトデキストリン/乳化剤, 光沢剤, セルロース, 香料, (一部に乳成分, 小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, ショートニング, 植物油脂, カカオマス, 小麦全粒粉, 全粉乳, でん粉, 水あめ, 乳糖, 小麦胚芽, ココアパウダー, 脱脂粉乳, 食塩/膨脹剤, 乳化剤, 香料, (一部に卵, 乳成分, 小麦, 大豆, アーモンドを含む)</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造又は国内製造), 植物油脂, カカオマス, 全粉乳, パフ(コーングリッツ, でん粉, 砂糖), 乳糖, ココアパウダー/乳化剤, 香料, 膨脹剤, (一部に乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, 植物油脂, ファットスプレッド, マーガリン, 乳等主要原料とする食品, バター, 食塩, 白ごまペースト, 炭酸カルシウム, 膨脹剤, 加工でん粉, 香料, 着色料(カラメル, カロチン)調味料(アミノ酸), (一部に乳成分, 小麦, 大豆, ごまを含む)</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造, 国内製造), 植物油脂, 乳糖, デキストリン, ココアバター, 小麦粉, 全粉乳, 脱脂粉乳, ホエイパウダー, 小麦パフ, チーズパウダー, バターオイル, 牛乳, マーガリン, ショートニング, ヨーグルトパウダー, レモン果汁パウダー, 食塩, ぶどう糖果糖液糖, 発酵風味液, たんぱく質濃縮ホエイパウダー/乳化剤(大豆由来), 香料, 膨脹剤</t>
-  </si>
-  <si>
-    <t>昆布(北海道産), 醸造酢, かつおぶしエキス, 発酵調味料, たんぱく加水分解物/調味料(アミノ酸等), ソルビトール, 酸味料, 甘味料(ステビア抽出物), (一部に大豆を含む)</t>
-  </si>
-  <si>
-    <t>ぶどう糖(国内製造), でん粉/加工でん粉, 酸味料, 乳化剤, 着色料(クチナシ, 野菜色素), 香料</t>
-  </si>
-  <si>
-    <t>ぶどう糖(国内製造), でん粉/加工でん粉, 酸味料, 乳化剤, 野菜色素, 香料</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), 水飴(国内製造), 乾燥ゆず皮, 食用油脂/酸味料, 香料, クチナシ色素, 乳化剤(大豆由来)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), 添付調味料(植物油脂, 食塩, ビーフ調味料, 砂糖, でん粉, ポーク調味料, 粉末しょうゆ, チキンエキス, たん白加水分解物, 胡椒, 酵母エキス), かやく入り添付調味料(乳化油脂, ぶどう糖, チーズパウダー, にんにく, 大豆加工品, 乳等を主要原料とする食品, ねぎ, 唐辛子)/加工でん粉, 調味料(アミノ酸等), 炭酸Ca, 香料, カラメル色素, かんすい, 微粒二酸化ケイ素, 酸味料, 香辛料抽出物, 酸化防止剤(ビタミンE, ローズマリー抽出物), カロチノイド色素, アカビート色素, ベニコウジ色素, ビタミンB2, ビタミンB1, (一部に小麦, 乳成分, 牛肉, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), ジャム(砂糖, いちご, 水あめ), ショートニング, 砂糖, 鶏卵, 加糖練乳, 脱脂粉乳, 乳等を主要原料とする食品, 澱粉分解物, 食塩, チーズパウダー/ソルビトール, 酸味料, ゲル化剤(増粘多糖類), 香料, 膨張剤, 乳化剤, 紅麹色素, リン酸Ca, (一部に小麦, 卵, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), ジャム(砂糖, 水あめ, ブルーベリー), 砂糖, ショートニング, 鶏卵, 乳等を主要原料とする食品, 加糖練乳, プロセスチーズ, 食塩/ソルビトール, 酸味料, ゲル化剤(増粘多糖類), 香料, 膨張剤, 乳化剤, (一部に小麦, 卵, 乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造又は国内製造), 植物油脂, ぶどうソース, 全粉乳, カカオマス, ココアバター, 乳糖, 乳等を主要原料とする食品, 紅茶エキスパウダー, 脱脂粉乳, 酒精飲料/トレハロース, 乳化剤(大豆由来), 酸味料, 香料(乳, 大豆由来), 着色料(カラメル, 野菜色素, クチナシ, 紅花黄, 紅麹), 環状オリゴ糖, 増粘剤(ペクチン)</t>
-  </si>
-  <si>
-    <t>大豆(アメリカ), 納豆菌], 植物油脂, しょうゆ風味パウダー(粉末しょうゆ, 食塩, コーンスターチ, デキストリン, その他)(小麦, さばを含む)/調味料(アミノ酸等), 香料</t>
-  </si>
-  <si>
-    <t>ブドウ糖(国内製造), コーンスターチ, 澱粉分解物/酸味料, 香料, 着色料(アントシアニン, クチナシ, アナトー, スピルリナ青)</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), マルチトール, 麦芽糖, クリーミングパウダー(水あめ, 植物油脂, カゼイン(乳成分を含む)), デキストリン, 濃縮梅果汁, ゼラチン, 梅パウダー, 希少糖含有シロップ, 梅エキス, 食物繊維, 梅干エキスパウダー/酸味料, 増粘剤(アラビアガム), アントシアニン色素, 香料, 光沢剤</t>
-  </si>
-  <si>
-    <t>植物油脂(国内製造), 砂糖, 全粉乳, 乳糖, ココアバター, ココア, 卵黄, カカオマス/セルロース, 乳化剤, 香料, (原料の一部に乳成分, 卵, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>植物油脂(国内製造), 砂糖, 全粉乳, 乳糖, ココアバター, チェダーチーズパウダー/セルロース, 乳化剤, パプリカ色素, 香料, (原料の一部に乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>植物油脂(国内製造), 砂糖, 全粉乳, 乳糖, ココアバター, ココア, カカオマス/セルロース, 乳化剤, 香料, (原料の一部に乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, 全粉乳, カカオマス, ショートニング, ココアバター, 植物油脂, 小麦全粒粉, 小麦ふすま, 食塩, 脱脂小麦胚芽/膨脹剤, 乳化剤(大豆由来), 香料</t>
-  </si>
-  <si>
-    <t>ピーナッツ(アメリカ), 砂糖, 小麦粉, 寒梅粉, 澱粉, 米粉, 食塩, ガラクトオリゴ糖/膨張剤, 炭酸カルシウム, 着色料(クチナシ), ピロリン酸鉄, (一部に乳成分, 小麦, 落花生を含む)</t>
-  </si>
-  <si>
-    <t>マルトース(国内製造), 水飴, 砂糖, もち粉, 全粉乳, 植物油脂, カカオマス, ココアパウダー, クリーム(乳成分を含む), デキストリン, 洋酒, 乳糖/トレハロース, 乳化剤(大豆由来), 着色料(カラメル), 調味料(アミノ酸), 加工デンプン, 香料, カゼインNa(乳由来)</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造, タイ製造), カカオマス, 植物油脂, 全粉乳, アーモンド, ココアバター, 脱脂粉乳, 米パフ, 乳糖, バターオイル/乳化剤(大豆由来), 香料(アーモンド由来)</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造, タイ製造), 植物油脂, 全粉乳, カカオマス, ココアバター, 脱脂粉乳, 乳糖, いちご粉末/トレハロース, 乳化剤(大豆由来), 香料(アーモンド由来), 着色料(ビートレッド), 酸味料</t>
-  </si>
-  <si>
-    <t>&lt;ストロベリーチョコレート&gt;砂糖(外国製造), 植物油脂, 乳糖, 全粉乳, ココアバター, カカオマス, ホエイパウダー, 小麦パフ(でんぷん, 小麦粉, 食塩), 乾燥いちご/香料, 乳化剤(大豆由来), 酸味料, 着色料(アカダイコン), 膨脹剤&lt;クリスプチョコレート&gt;砂糖(外国製造, 国内製造), 植物油脂, カカオマス, 乳糖, 全粉乳, ホエイパウダー, 小麦パフ(でんぷん, 小麦粉, 食塩)/乳化剤(大豆由来), 香料, 膨脹剤</t>
-  </si>
-  <si>
-    <t>植物油脂(国内製造), 乳糖, 砂糖, ココアクッキークランチ(小麦粉, 砂糖, ショートニング, ココアパウダー, デキストリン, ぶどう糖果糖液糖, カカオマス, ホエイパウダー, 食塩), ココアバター, 全粉乳, 小麦粉, ホエイパウダー, クリームチーズパウダー, でん粉, クリームパウダー, モルトエキス, 食塩/乳化剤(大豆由来), トレハロース, 香料, 膨脹剤, カラメル色素</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造又は韓国製造), 小麦粉, 植物油脂, 全粉乳, 乳糖, カカオマス, ホエイパウダー, クッキークランチ, ココアパウダー, でん粉, ショートニング, 食塩/乳化剤(大豆由来), カラメル色素, 膨脹剤, 香料</t>
-  </si>
-  <si>
-    <t>&lt;きゅんベリー味(丸型)&gt;ぶどう糖(国内製造), いちご果汁パウダー, でん粉/乳化剤, 加工でん粉, 酸味料, ビタミンC, 香料, 野菜色素&lt;甘ずっぱいきゅんベリー味(ハート型)&gt;ぶどう糖(国内製造), いちご果汁パウダー, でん粉/乳化剤, 加工でん粉, 酸味料, ビタミンC, 香料, 野菜色素</t>
-  </si>
-  <si>
-    <t>コーングリッツ(国内製造), 植物油, 砂糖, 粉末醤油, デキストリン, 粉末みそ, ハバネロパウダー, チキンエキスパウダー, 食塩, たん白加水分解物, 酵母エキスパウダー, 乳糖/調味料(アミノ酸等), 香辛料抽出物, 香料, パプリカ色素, 甘味料(ステビア, カンゾウ), 酸味料, (一部に小麦, 乳成分, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 粉末卵, 野菜エキス, しょうゆ), スープ(食塩, 糖類, チキン調味料, たまねぎ加工品, しょうゆ, 香辛料, 酵母エキス, 野菜調味料, 発酵調味料), かやく(キャベツ, 鶏, 豚味付肉そぼろ, フライドオニオン, にんじん)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, カラメル色素, トレハロース, 香料, かんすい, レシチン, 微粒二酸化ケイ素, 酸味料, クチナシ色素, 酸化防止剤(ビタミンE, ビタミンC), ビタミンB2, ビタミンB1, パプリカ色素, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, 粉末卵, 野菜エキス, しょうゆ), スープ(糖類, 食塩, チキン調味料, でん粉, 粉末レモン果汁, 香辛料, 酵母エキス, 植物油脂, 野菜粉末), かやく(キャベツ, 味付鶏肉そぼろ, 味付卵, 赤ピーマン)/加工でん粉, 調味料(アミノ酸等), 炭酸カルシウム, 香料, トレハロース, 酸味料, 微粒二酸化ケイ素, かんすい, レシチン, クチナシ色素, 酸化防止剤(ビタミンE), ビタミンB2, ビタミンB1, カラメル色素, カロチン色素, (一部に小麦, 卵, 乳成分, ごま, 大豆, 鶏肉, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>難消化性デキストリン(中国製造), 高麗人参根エキス, LーカルニチンLー酒石酸塩, ガラナ種子エキス/炭酸, クエン酸, クエン酸Na, 香料, 保存料(安息香酸Na), Lーアルギニン, カフェイン, 甘味料(スクラロース, アセスルファムK, ステビア), ナイアシン, パントテン酸Ca, イノシトール, ビタミンB6, 着色料(黄色4号, 黄色5号), ビタミンB12</t>
-  </si>
-  <si>
-    <t>馬鈴薯(日本:遺伝子組換えでない), 植物油, 砂糖, ぶどう糖, 香辛料, 食塩, チキンエキスパウダー, 野菜エキスパウダー(乳成分, 大豆, 豚肉, ゼラチンを含む), たんぱく加水分解物(大豆を含む), オリゴ糖/調味料(アミノ酸等), パプリカ色素, 酸味料, 香辛料抽出物, カラメル色素, 香料</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 植物油脂, 麻婆豆腐風味パウダー(グラニュー糖, 粉末しょうゆ, 粉末みそ, ポーク風味調味料, たんぱく加水分解物, その他), 食塩, 砂糖, ミート調味エキス, たんぱく加水分解物, しょうゆ/調味料(アミノ酸等), 炭酸Ca, 香料, 乳化剤, パプリカ色素, 酸化防止剤(ビタミンE), 甘味料(ステビア, カンゾウ), 酸味料, 香辛料抽出物, (一部に小麦, 乳成分, ごま, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 植物油脂, しょうゆラーメン風味パウダー, 食塩, 砂糖, ミート調味エキス, たんぱく加水分解物, しょうゆ/調味料(アミノ酸等), 炭酸Ca, 香料, カラメル色素, 乳化剤, 酸味料, 酸化防止剤(ビタミンE), 甘味料(ステビア), 香辛料抽出物, (一部に小麦, 乳成分, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), 小麦粉, 植物油脂, 乳糖, でん粉, ショートニング, ココアバター, 全粉乳, ホエイパウダー, 液卵, マルチトール, メロン果汁パウダー, クリームパウダー, 食塩/炭酸Ca, 膨脹剤, 着色料(カラメル, クチナシ, 紅花黄), 香料, 乳化剤(大豆由来)</t>
-  </si>
-  <si>
-    <t>還元水飴(国内製造), 還元麦芽糖, 砂糖, 食物繊維(ポリデキストロース), 水飴, 還元麦芽糖水飴, ゼラチン, こんにゃく粉, 澱粉/酸味料, 香料, 炭酸カルシウム, (一部にゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>澱粉(国内製造), 砂糖, デキストリン, 濃縮いちご果汁/甘味料(キシリトール, アスパルテーム, L‐フェニルアラニン化合物, アセスルファムK), 酸味料, 香料, 増粘剤(アラビアガム), 着色料(赤色40号)</t>
-  </si>
-  <si>
-    <t>砂糖, 水飴, 乾燥いちご加工品, いちご果汁, ハーブエキス/酸味料, 香料, アントシアニン色素</t>
-  </si>
-  <si>
-    <t>トマト, ハラペーニョ, 玉ねぎ, 醸造酢, 食塩, 乾燥玉ねぎ, ガーリックパウダー/香辛料抽出物, 塩化カルシウム, クエン酸</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 植物油, でん粉, えび, 砂糖, 食塩/膨脹剤, 調味料(アミノ酸等), 甘味料(甘草)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 植物油脂, 食塩, しょうゆ), ソース(濃厚ソース, 砂糖, 植物油脂, 発酵調味料, 豚脂, 食塩, ポーク調味料, しょうゆ加工品, 魚介エキス, カツオ調味料, 香味調味料, 香味油), 特製ペースト(半固体状ドレッシング, 紅しょうが, 果糖ぶどう糖液糖, 還元水飴, 醸造酢, 食塩, 植物油脂, 全卵粉, 酵母エキス, でん粉), かやく(キャベツ), ふりかけ(カツオブシ, あおさ)/加工でん粉, カラメル色素, 調味料(アミノ酸等), 炭酸Ca, 増粘剤(加工でん粉, 増粘多糖類), 酸化防止剤(ビタミンE), カロチノイド色素, かんすい, 乳化剤, 甘味料(カンゾウ, スクラロース, アセスルファムK), 酸味料, 香料, 野菜色素, ビタミンB2, ビタミンB1, 香辛料抽出物, (一部に小麦, 卵, 乳成分, 大豆, 鶏肉, 豚肉, りんご, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>コーングリッツ(国内製造), 植物油, 砂糖, ぶどう糖, 食塩, チーズパウダー, 粉末油脂, ホエイパウダー, 香辛料, オリゴ糖/調味料(アミノ酸等), 香料, カロチノイド色素, 香辛料抽出物, くん液, (一部に乳成分, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>生地(国内製造)(小麦粉, でん粉, えびエキスパウダー, えびパウダー, 砂糖, 乾燥えび, 発酵調味液, 植物油, かつお節), 植物油, デキストリン, ぶどう糖, 魚介エキスパウダー, 食塩, 粉末しょうゆ, 唐辛子, 酵母エキスパウダー/加工デンプン, 調味料(アミノ酸等), トレハロース, 甘味料(スクラロース), (一部に乳成分, 小麦, えび, 大豆, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>植物油脂(国内製造), 米粉(うるち米(国産, 米国産)), でん粉, 食塩, 魚介エキスパウダー(えびを含む), 砂糖, えび, デキストリン, 粉末しょう油(小麦, 大豆を含む), 香味油(えびを含む), 酵母エキス粉末/加工でん粉, 調味料(アミノ酸等), 着色料(紅麹, カラメル), 酸味料</t>
-  </si>
-  <si>
-    <t>砂糖, カカオマス, 全粉乳, ココアバター, 植物油脂, 乳化剤(大豆を含む), 光沢剤, 香料</t>
-  </si>
-  <si>
-    <t>水あめ(国内製造), 砂糖, 濃縮日本なし果汁, ゼラチン, 還元難消化性デキストリン, 植物油脂, でん粉/酸味料, ゲル化剤(ペクチン), 香料, 光沢剤, (一部にりんご, ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>うるち米(国産, 米国産), 植物油, 砂糖, レモンシーズニング, しょうゆ, 果糖ぶどう糖液糖, 酵母エキス, 食塩/加工でん粉, 調味料(アミノ酸等), 酸味料, 香料, カラメル色素, (一部に小麦, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造又は国内製造), 植物油脂, 全粉乳, カカオマス, ココアバター, 乳糖, 乳等を主要原料とする食品, りんごパウダー, 脱脂粉乳, エリスリトール, ドライクレープ(乳成分, 小麦を含む), キャラメルパウダー(乳成分を含む)/乳化剤(大豆由来), 香料(乳, 大豆由来), 着色料(紅麹, クチナシ)</t>
-  </si>
-  <si>
-    <t>砂糖(タイ製造, 国内製造), 植物油脂, ポテトペレット(乾燥ポテト, でん粉, 食塩), カカオマス, ココアパウダー, 全粉乳/乳化剤(大豆由来), 香料, 着色料(ウコン), 酸化防止剤(ビタミンE, ビタミンC)</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造, 国内製造), 植物油脂, 全粉乳, カカオマス, ココアバター, 乳糖, 脱脂粉乳, オレンジ濃縮果汁, 洋酒(カシスリキュール), デキストリン, クリーミングパウダー(乳成分を含む)/ソルビトール, 乳化剤(大豆由来), 酒精, 香料(乳, アーモンド由来), 酸味料</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造), カカオマス, 小麦粉, 液全卵, 植物油脂, マーガリン(乳成分を含む), ココアパウダー, ショートニング, 加糖練乳, 全粉乳, 乳糖, ココアバター, 食塩, 洋酒/ソルビトール, 酒精, 乳化剤(大豆由来), 香料(乳由来)</t>
-  </si>
-  <si>
-    <t>砂糖(タイ製造, 国内製造), 液全卵, 小麦粉, 植物油脂, マーガリン(乳成分を含む), チーズ粉末(カマンベールチーズ粉末, ゴーダチーズ粉末, クリームチーズ粉末), ショートニング, コーンスターチ, 食用加工油脂, クリームチーズ, ミルクシロップ, 全粉乳, 還元水飴, 乾燥全卵, ホエイパウダー(乳成分を含む), レモン濃縮果汁, 水飴, 乳糖, 洋酒, デキストリン, ココアバター/ソルビトール, 乳化剤(大豆由来), 酒精, 香料(乳由来), 膨脹剤, 増粘剤(ペクチン:りんご由来), 酸味料</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, ショートニング, マーガリン(乳成分を含む), バター, ココナッツ, 液全卵, 加糖脱脂練乳, 食塩, 植物油脂/香料(乳由来), 膨脹剤, 乳化剤(大豆由来), 着色料(カロテン)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, ショートニング, 植物油脂, 全粉乳, 小麦全粒粉, カカオマス, ココアパウダー, 食塩, 脱脂小麦胚芽/膨脹剤, 乳化剤(大豆由来), 香料, 着色料(アナトー)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, ショートニング, 植物油脂還元水飴, 白あん(生あん, 砂糖, 還元水飴, 寒天, 食塩), カカオマス, 水飴, 液全卵, ココアパウダー, 乳糖, 全粉乳デキストリン, 食塩, 脱脂粉乳/ソルビトール, 加工デンプン, 乳化剤(大豆由来), 着色料(カラメル)香料, 膨張剤, 増粘剤(カラギーナン)</t>
-  </si>
-  <si>
-    <t>準チョコレート(植物油脂, 砂糖, カカオマス, 全粉乳, ココアパウダー)(国内製造), 小麦粉, 砂糖, 植物油脂, ショートニング, 転化糖蜜, 加糖れん乳, ココアパウダー, 食塩(宮古島産塩38%使用), 全粉乳, ごま, コラーゲン/膨脹剤, 着色料(カラメル), 乳化剤, 炭酸Ca, 香料, (一部に小麦, 乳成分, 大豆, ごま, 豚肉を含む)</t>
-  </si>
-  <si>
-    <t>油揚げめん(小麦粉(国内製造), 食用油脂(パーム油, ラード, なたね油), 食塩), スープ(食塩, 砂糖, キムチ風味調味料, 粉末しょうゆ, 香辛料, ごま, 粉末みそ, ポークエキスパウダー, オイスターエキスパウダー, たまねぎ, ねぎ)/加工でん粉, 調味料(アミノ酸等), カラメル色素, 酸味料, かんすい, 増粘多糖類, 微粒二酸化ケイ素, 酸化防止剤(V.E), (一部に小麦, ごま, 大豆, 豚肉, 魚醤(魚介類)を含む)</t>
-  </si>
-  <si>
-    <t>ローストピーナッツ(国内製造), 砂糖, 植物油脂, 乳糖, 全粉乳, カカオマス, ココアパウダー/乳化剤, 香料, (一部に乳成分, 落花生, 大豆を含む)</t>
-  </si>
-  <si>
-    <t>砂糖(タイ製造), ビスケット(小麦を含む), カカオマス, 植物油脂, 全粉乳, ココアバター, 水あめ, シーズニングパウダー(デキストリン, 黒トリュフ塩, 砂糖, 食塩, ガーリックパウダー, 大豆たんぱく加水分解物, 白こしょうパウダー, ナツメグパウダー), バターオイル, ヘーゼルナッツペースト/乳化剤, 膨脹剤, 香料, 光沢剤, 調味料(アミノ酸等), 着色料(金箔)</t>
-  </si>
-  <si>
-    <t>水あめ(国内製造), 加糖練乳, 砂糖, 加糖脱脂練乳, 植物油脂, 小麦たんぱく加水分解物, バター, 食塩/ソルビトール, 香料, 乳化剤(大豆由来), ベニバナ黄色素</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造, タイ製造), 水あめ, 植物油脂, デキストリン, ゼラチン, 濃縮すいか果汁/酸味料, 香料, グリセリン, 乳化剤, ベニバナ黄色素, アカキャベツ色素, クチナシ青色素, パプリカ色素</t>
-  </si>
-  <si>
-    <t>コーンフレーク(コーングリッツ(とうもろこし(アメリカ産)), 砂糖, 食塩), 砂糖, 植物油脂, 全粉乳, カカオマス, ココアパウダー/香料, 炭酸カルシウム, 乳化剤(大豆由来), ピロリン酸鉄</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), 砂糖, ココナッツオイル, ショートニング, ココナッツ, 食塩, レモンパウダー, 脱脂粉乳/酸味料, 膨張剤, 乳化剤(大豆由来), 香料</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造), マーガリン, 砂糖, 植物油脂, 乳糖, 麦芽糖, ココアバター, 全粉乳, ホエイパウダー, クリームパウダー, 食塩, チーズパウダー, 抹茶, シナモン/乳化剤(大豆由来), クチナシ色素, 香料</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), 小麦粉, 植物油脂, 全粉乳, 乳糖, カカオマス, ホエイパウダー, クッキークランチ, ココアパウダー, でん粉, ショートニング, 食塩/乳化剤(大豆由来), カラメル色素, 膨脹剤, 香料</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造), 澱粉, デキストリン, 梅/酸味料, 増粘剤(アラビアガム), 香料</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造, 国内製造), 水飴, マルトース, ゼラチン, 濃縮パイナップル果汁, 植物油脂</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造, タイ製造), 小麦粉, ココアバター, 液卵白(卵を含む), ショートニング, 全粉乳, 植物油脂, 乳糖, マーガリン, ホエイパウダー(乳成分を含む), ココアパウダー, バナナ粉末, 食塩, 水飴/乳化剤(大豆由来), 香料(大豆由来), 着色料(カロテノイド), 膨脹剤</t>
-  </si>
-  <si>
-    <t>でん粉(国内製造), うるち米(国産), もち米(タイ産), 植物油脂(ごま, 大豆を含む), カシューナッツ, 砂糖, ぶどう糖, 小麦粉, 食塩, 粉末しょうゆ(小麦, 大豆を含む), たんぱく加水分解物(大豆を含む), デキストリン, 昆布エキス粉末/加工デンプン, 調味料(アミノ酸等), ソルビトール, 微粒酸化ケイ素, 膨脹剤, 着色料(カロテノイド), 酸味料, 甘味料(アセスルファムK, スクラロース), 酸化防止剤(ビタミンE)</t>
-  </si>
-  <si>
-    <t>でん粉(国内製造), うるち米(国産), もち米(タイ産), 植物油脂, 砂糖, カシューナッツ, ピーナッツバター, ぶどう糖, 小麦粉, 食塩, たんぱく加水分解物(大豆, ゼラチンを含む), デキストリン/加工デンプン, ソルビトール, 調味料(アミノ酸等), 乳化剤(大豆由来), 香料(乳由来), 膨脹剤, 着色料(カロテノイド), 甘味料(アセスルファムK, スクラロース), 酸味料, 酸化防止剤(ビタミンE)</t>
-  </si>
-  <si>
-    <t>大豆たんぱく(国内製造), 砂糖, ショートニング, 小麦たんぱく, ファットスプレッド(乳成分を含む), 大豆パフ, 水飴, ココアパウダー, 液卵黄(卵を含む), カカオマス, 植物油脂, 全粉乳, 乳糖, ぶどう糖, 食塩/ソルビトール, グリセリン, 炭酸Ca, 乳化剤(大豆由来), ロイシン, トレハロース, バリン, イソロイシン, 香料(乳由来), V.E, ナイアシン, パントテン酸Ca, ピロリン酸第二鉄, V.B1, V.B2, V.B6, V.A, 葉酸, 着色料(アナトー), V.D, V.B12</t>
-  </si>
-  <si>
-    <t>大豆たんぱく(国内製造), ショートニング, 砂糖, 小麦たんぱく, 大豆パフ, ファットスプレッド(乳成分を含む), キャラメル(乳等を主要原料とする食品, 水飴, 砂糖), 液卵黄(卵を含む), 植物油脂, 全粉乳, 乳糖, カカオマス, ぶどう糖, ココアパウダー, 食塩/ソルビトール, グリセリン, 炭酸Ca, 着色料(カラメル, アナトー), 乳化剤(大豆由来), ロイシン, トレハロース, バリン, イソロイシン, 香料(乳由来), V.E, ナイアシン, ピロリン酸第二鉄, パントテン酸Ca, V.B1, V.B2, V.B6, V.A, 葉酸, V.D, V.B12</t>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, 全粉乳, ココアバター, マーガリン(乳成分を含む), デキストリン, ホエイパウダー(乳成分を含む), 液全卵, イースト, 食用加工油脂(小麦を含む), 乳糖, 練乳粉末, カラメル粉末(乳成分を含む), 洋酒, キャラメル粉末(乳成分を含む), うるちひえパフ, 食塩, 水飴, 乾燥卵白(卵を含む), バニラシード/ソルビトール, 卵殻未焼成カルシウム(卵由来), 酒精, 乳化剤(大豆由来), 香料(乳由来), イーストフード(小麦由来), トレハロース, ビタミンC, ビタミンD, 着色料(カロテン)</t>
+  </si>
+  <si>
+    <t>でん粉(国内製造), 植物油脂, 米粉, えび粉, 食塩, 香味油(小麦, えび, 大豆を含む), 小麦たんぱく, えびシーズニング(大豆を含む), 昆布粉, 青のり粉/加工デンプン乳化剤(大豆由来), ソルビトール, 調味料(アミノ酸等), 着色料(カロテノイド), 酸化防止剤(ビタミンE, ビタミンC), 香料(えび由来), 微粒酸化ケイ素</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, ココアパウダー, 小麦全粒粉, 乳糖, 異性化液糖, ホエイパウダー(乳成分を含む), デキストリン, 食塩/膨脹剤, 乳化剤(大豆由来), 香料</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), ショートニング, 砂糖, 加糖練乳, 乳糖, ぶどう糖, 全粉乳, いちご粉末, 食塩, クリーミングパウダー(乳成分を含む), ココアバター/膨脹剤, 酸味料, 乳化剤(大豆由来), 香料, 着色料(ビートレッド, カロテン), 卵殻未焼成カルシウム(卵由来)</t>
+  </si>
+  <si>
+    <t>原材料:小麦粉(国内製造), 砂糖, 液全卵, ショートニング, 植物油脂, カカオマス, 水飴, ほうじ茶粉末, 加糖練乳, クリーミングパウダー(乳成分を含む), 食塩, 洋酒/ソルビトール, 酒精, 乳化剤(大豆由来), 加工デンプン, 香料, 膨張剤</t>
+  </si>
+  <si>
+    <t>原材料:小麦粉(国内製造), 砂糖, 液全卵, マーガリン(乳成分を含む), ごまペースト, 水飴, ココアバター, 食塩, 洋酒/ソルビトール, 酒精, 加工デンプン, 乳化剤(大豆由来), 香料(ごま由来), 膨張剤</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, 植物油脂, 小麦全粒粉, 全粉乳, ココアパウダー, カカオマス, デキストリン, 乳糖, 食塩/膨脹剤, 乳化剤(大豆由来), 着色料(カラメル), 香料</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造, 国内製造), カカオマス, 液全卵, 小麦粉, 植物油脂, ショートニング, ココアパウダー, 洋酒, 水飴, 異性化液糖, 加糖練乳, 全粉乳, 還元水飴, クリーム(乳成分を含む), ココアバター, 乳糖, バター, 脱脂粉乳, ぶどう糖, デキストリン, 食塩/ソルビトール, 酒精, 乳化剤(大豆由来), 香料, 膨脹剤</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, カカオマス, 全粉乳, マーガリン(乳成分を含む), ココアパウダー, 液全卵, イースト, 食用加工油脂(小麦を含む), 乳糖, 洋酒, うるちひえパフ, 食塩, 水飴, 乾燥卵白(卵を含む)/ソルビトール, 卵殻未焼成カルシウム(卵由来), 酒精, 乳化剤(大豆由来), 香料(乳由来), イーストフード(小麦由来), ビタミンC, ビタミンD, 着色料(カロテン)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 砂糖, ショートニング, 全粉乳, エリスリトール, マーガリン(乳成分を含む), 液全卵, イースト, 食用加工油脂(小麦を含む), 乳糖, デキストリン, 脱脂粉乳, 洋酒, ココアバター, うるちひえパフ, 食塩, クリーミングパウダー(乳成分を含む), 水飴, 乾燥卵白(卵を含む)/ソルビトール, 卵殻未焼成カルシウム(卵由来), 酒精, 乳化剤(大豆由来), 香料(乳由来), イーストフード(小麦由来), ビタミンC, ビタミンD, 着色料(カロテン)</t>
+  </si>
+  <si>
+    <t>チョコレート(砂糖, 乳糖, ココアバター, 全粉乳, カカオマス, 植物油脂, その他)(国内製造), 小麦パフ(小麦粉, コーンスターチ, その他), 植物油脂, 砂糖, 乳糖, 澱粉/トレハロース, 乳化剤, 香料, 着色料(紅麹, 野菜色素), 膨脹剤, 酸味料, (一部に乳成分, 小麦を含む)</t>
+  </si>
+  <si>
+    <t>ソーダ味:砂糖(国内製造), 水飴(国内製造)/酸味料, 香料, 着色料(クチナシ, 紅花黄), オレンジ味:砂糖(国内製造), 水飴(国内製造)/酸味料, 香料, カロテノイド色素, グレープ味:砂糖(国内製造), 水飴(国内製造), 濃縮グレープ果汁/酸味料, 香料, 野菜色素, クチナシ色素, コーラ味:砂糖(国内製造), 水飴(国内製造)/酸味料, カラメル色素, 香料</t>
+  </si>
+  <si>
+    <t>準チョコレート(砂糖, 植物油脂, ココアパウダー, 全粉乳, 脱脂粉乳, その他)(国内製造), チョコレート(砂糖, ココアバター, 乳糖, 植物油脂, 全粉乳, その他), 小麦パフ(小麦粉, コーンスターチ, その他)/乳化剤, 香料, 膨脹剤, 着色料(紅花黄, カロチノイド), (一部に乳成分, 小麦を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), コーングリッツ, 植物油脂, マーガリン, 加糖れん乳, ココアパウダー, カラメルソース, 食塩, 準チョコレート, 牛乳/未焼成Ca, カラメル色素, 香料, 乳化剤, トレハロース, (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), コーングリッツ, 植物油脂, マーガリン, 加糖れん乳, 砂糖混合ブドウ糖果糖液糖, 食塩, メロンピューレ, 準チョコレート/未焼成Ca, 香料, 乳化剤, pH調整剤, クチナシ色素, 甘味料(スクラロース), カロチノイド色素, (一部に乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 砂糖(国内製造), 菜種油/pH調整剤, ゲル化剤(アルギン酸Na), 甘味料(アスパルテーム, Lーフェニルアラニン化合物, スクラロース, アセスルファムK), 香料, リン酸Ca, 着色料(赤40)</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造), 水あめ/酸味料, 香料, 着色料(アカキャベツ)</t>
+  </si>
+  <si>
+    <t>植物油脂(国内製造), 砂糖, ショートニング, ポテトでん粉, 青大豆, 枝豆パウダー(秋田県産), チーズ, マルチトール, 乾燥ポテト, 食塩, バター, クロレラパウダー, 香辛料, たん白加水分解物, 酵母エキスパウダー, 大豆イソフラボン抽出物, デキストリン/加工でん粉, カゼインNa, 乳化剤, 膨脹剤, 炭酸Ca, 香料, 調味料(アミノ酸), (一部に小麦, 乳成分, 大豆, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>小麦粉, 砂糖, 植物油脂, カカオマス, ショートニング, ココアパウダー, 全粉乳, 転化糖蜜, 加糖れん乳, ごま, 食塩, コラーゲン(豚肉を含む)/着色料(カラメル), 膨脹剤, 乳化剤(大豆由来), 炭酸Ca, 香料</t>
+  </si>
+  <si>
+    <t>準チョコレート(植物油脂, 砂糖, カカオマス, 全粉乳, ココアパウダー)(国内製造), コーングリッツ, 小麦全粒粉, 砂糖, ココアパウダー, 食塩/乳化剤, 炭酸Ca, 香料, (一部に小麦, 乳成分, 大豆を含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, しょうゆ, 砂糖, 食塩, チキンエキス, たんぱく加水分解物, ミート調味エキス, ミート調味パウダー, 酵母エキスパウダー, ポークパウダー, 魚介パウダー/加工デンプン, 調味料(アミノ酸等), 炭酸Ca, 酸化防止剤(ビタミンE), (一部に小麦, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造), 植物油脂, わさびビーフ風味パウダー, 食塩, 粉末卵, ビーフエキスパウダー, 粉末油脂, 砂糖, しょうゆ, わさびペースト, ミート調味エキス, ガーリックパウダー, 野菜エキス, たんぱく加水分解物, ミート調味パウダー/加工デンプン, 調味料(アミノ酸等), 香料, 乳化剤, 着色料(カラメル, 紅麹, クチナシ), 酸化防止剤(ビタミンE), 甘味料(ステビア, スクラロース), 酸味料, 香辛料抽出物, (一部に小麦, 卵, 乳成分, 牛肉, 大豆, 鶏肉, 豚肉, ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, 麦芽糖, ぶどう糖, ゼラチン, コーンスターチ(遺伝子組換えでない), イソマルトオリゴ糖, 乳製品(殺菌乳酸菌飲料), はちみつ, 発酵乳パウダー, レモンリキュール, 大豆たんぱく(遺伝子組換えでない), 有胞子性乳酸菌/ソルビトール, ゲル化剤(ペクチン:りんご由来), 酸味料, 香料, 着色料(紅花黄)</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, ゼラチン, コーンスターチ, 大豆たんぱく/香料</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, 麦芽糖, ぶどう糖, ゼラチン, コーンスターチ, 濃縮ブルーベリー果汁, 大豆たんぱく/ソルビトール, ゲル化剤(ペクチン:りんご由来), 酸味料, 着色料(ビートレッド, クチナシ), 香料</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, 麦芽糖, ぶどう糖, ゼラチン, コーンスターチ, 濃縮イチゴ果汁, 濃縮リンゴ果汁, 大豆たんぱく, イチゴパウダー, 砂糖混合ぶどう糖果糖液糖/ソルビトール, 酸味料, ゲル化剤(ペクチン), 着色料(ビートレッド), 香料</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造), 砂糖, 麦芽糖, ぶどう糖, ゼラチン, コーンスターチ, 乳製品(殺菌乳酸菌飲料), 発酵乳パウダー, 大豆たんぱく/ソルビトール, 酸味料, ゲル化剤(ペクチン:りんご由来), 香料</t>
+  </si>
+  <si>
+    <t>植物油脂(国内製造), 乳糖, ココアバター, 砂糖, アップルソース, マルトデキストリン, ビスケット(小麦粉, 砂糖, 植物油脂, シュガーシロップ, 大豆粉, 食塩, シナモン), 脱脂粉乳, 全粉乳, 乾燥パン粉/乳化剤, 香料, 酸味料, 着色料(カラメル, クチナシ, カロチノイド, フラボノイド), 膨脹剤, 増粘剤(ペクチン)</t>
+  </si>
+  <si>
+    <t>粉糖(国内製造), コーンスターチ(遺伝子組換えでない)/酸味料, 香料, 着色料(青1)</t>
+  </si>
+  <si>
+    <t>砂糖, 澱粉(遺伝子組換えでない), 酸味料, 香料, 重曹</t>
+  </si>
+  <si>
+    <t>牛乳, 砂糖, コーヒー, 乳製品, デキストリン, カゼインNa, 乳化剤, 香料</t>
+  </si>
+  <si>
+    <t>牛乳, コーヒー, 砂糖, 全粉乳, 脱脂粉乳, カゼインNa, 乳化剤, 香料, 甘味料(アセスルファムK)</t>
+  </si>
+  <si>
+    <t>牛乳, 砂糖, コーヒー, 脱脂粉乳, クリーム, 脱脂濃縮乳, 全粉乳, デキストリン, カゼインNa, 香料, 乳化剤, 安定剤(カラギナン)</t>
+  </si>
+  <si>
+    <t>牛乳, コーヒー, 砂糖, ぶどう糖, 乳加工品, カゼインNa, 香料, 乳化剤</t>
+  </si>
+  <si>
+    <t>Wheat flour, vegetable oils and fats, sweetened condensed milk, sugar, shortening, yeast, salt, processed butter, yeast extract, calcium carbonate, seasoning (inorganic salt etc. ), emulsifiers, sweetener (sucralose), (some parts of the raw materials may contain soybeans)</t>
   </si>
   <si>
     <t>Sugar, whole milk powder, cocoa butter, cacao mass, vegetable oils and fats, skim milk powder, emulsifiers, flavoring, red beet coloring, (some parts of the raw materials may contain soybeans)</t>
   </si>
   <si>
-    <t>Wheat flour (made domestically), sugar, lactose, cocoa butter, whole milk powder, vegetable oils and fats, shortening, matcha, wheat protein, salt, yeast/emulsifiers, flavoring, seasoning (inorganic salts), swelling agent, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour, sugar, cacao mass, vegetable oils and fats, whole milk powder, shortening, malt extract, starch, salt, yeast, cocoa butter, butter, emulsifiers, flavoring, swelling agent, annatto pigment, seasoning (inorganic salts), (some parts of the raw materials may contain soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, whole milk powder, cacao mass, vegetable oils and fats, whole-wheat flour, cocoa butter, shortening, malt extract, wheat protein, salt, fermented butter, wheat germ, yeast/modified starches, emulsifiers, flavoring, swelling agent, antioxidant (yamamomo extract), (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
-  </si>
-  <si>
     <t>Wheat flour (made domestically), sugar, vegetable oils and fats, lactose, whole milk powder, strawberry powder, whole-wheat flour, cocoa powder, shortening, wheat protein, inulin, salt, yeast, caramel powder/flavoring, red beet coloring, emulsifiers, seasoning (inorganic salts), swelling agent, acidulant, V. C, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
   </si>
   <si>
     <t>Wheat flour (made domestically), sugar, almond, whole milk powder, vegetable oils and fats, cacao mass, cocoa butter, whole-wheat flour, shortening, almond praline paste, wheat protein, salt, yeast/emulsifiers, flavoring, swelling agent, (some parts of the raw materials may contain dairies, wheat, soybeans, contains almonds)</t>
   </si>
   <si>
-    <t>Wheat flour (made domestically), sugar, coconut, whole milk powder, vegetable oils and fats, cocoa butter, cacao mass, whole-wheat flour, shortening, salt, wheat protein, yeast/emulsifiers, flavoring, swelling agent, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, lactose, cocoa butter, whole milk powder, whole-wheat flour, vegetable oils and fats, shortening, wheat protein, processed butter, salt, yeast, rock salt, vanilla beans seed/emulsifiers, flavoring, seasoning (inorganic salts), (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour, vegetable oils and fats, sweetened condensed milk, sugar, shortening, yeast, salt, processed butter, yeast extract, calcium carbonate, seasoning (inorganic salt etc. ), emulsifiers, sweetener (sucralose), (some parts of the raw materials may contain soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, shortening, sugar, starch, dried potato, vegetable paste, bouillon mixture, yeast, wheat protein, salt, wine lees, consomme seasoning, flavor oils, pepper/seasoning (inorganic salt etc. ), modified starches, emulsifiers, flavoring, acidulant, (some parts of the raw materials may contain dairies, contains wheat)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, shortening, sugar, tomato paste, starch, sake-brewed vinegar (tomato vinegar), yeast, vegetable paste, onion seasoning, salt, dried spinach, pepper/modified starches, seasoning (inorganic salt etc. ), flavoring, emulsifiers, acidulant, spice extracts, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, sugar, sweetened condensed milk, whole-wheat flour, shortening, starch, fermented butter, yeast, salt, processed butter, dried egg yolk/modified starches, seasoning (inorganic salts), flavoring, emulsifiers, (may contains egg, dairies, contains wheat)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, sugar, shortening, dried potato, yeast, salt, soy sauce seasoning, black pepper, lemon juice powder, yeast extract/modified starches, seasoning (such as amino acids), acidulant, emulsifiers, flavoring, (may contain wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, starch, dried potato, wheat protein, sugar, inulin, salt, powdered soy sauce, konbu extract powder, processed butter, butter, yeast extract, pepper, protein hydrolyzate/modified starches, seasoning (such as amino acids), emulsifiers, flavoring, coloring (carotenoids), (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
+    <t>Wheat flour, vegetable oils and fats, shortening, sugar, salt, yeast, glucose-fructose syrup, malt extract, consomme seasoning, soy sauce seasoning, seasoning (inorganic salt etc. ), flavoring, (some parts of the raw materials may contain dairies, soybeans, contains chicken)</t>
   </si>
   <si>
     <t>Wheat flour (made domestically), vegetable oils and fats, starch, sugar, wheat protein, pork extract, onion paste, salt, soy sauce seasoning, protein hydrolyzate, garlic powder, yeast extract, pepper, bacon extract/seasoning (such as amino acids), flavoring, emulsifiers, thickener (xanthan gum), coloring (annatto pigment, caramel), acidulant, liquid smoke, (some parts of the raw materials may contain dairies, wheat, soybeans, contains pork)</t>
@@ -999,157 +1197,349 @@
     <t>Wheat flour (made domestically), vegetable oils and fats, starch, smoked cheese powder, sugar, wheat protein, salt, fermented seasoning, pepper, yeast extract, dextrin, maltose/seasoning (such as amino acids), flavoring, thickener (xanthan gum), emulsifiers, coloring (annatto pigment), acidulant, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
   </si>
   <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, starch, dried potato, wheat protein, sugar, inulin, salt, chicken extract powder, spices, soy sauce seasoning, herbal seasoning, garlic powder/modified starches, seasoning (such as amino acids), flavoring, emulsifiers, coloring (carotenoids), acidulant, (may contain wheat, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, starch, dried potato, wheat protein, sugar, inulin, salt, scallop seasoning, konbu extract powder, protein hydrolyzate, dashi powder, pepper/modified starches, seasoning (such as amino acids), flavoring, emulsifiers, coloring (carotenoids, caramel coloring), acidulant, (may contain wheat, squid, soybeans, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Wheat flour, vegetable oils and fats, shortening, sugar, salt, yeast, glucose-fructose syrup, malt extract, consomme seasoning, soy sauce seasoning, seasoning (inorganic salt etc. ), flavoring, (some parts of the raw materials may contain dairies, soybeans, contains chicken)</t>
-  </si>
-  <si>
-    <t>Dried potato (not genetically modified), vegetable oils and fats, corn powder (not genetically modified), sugar, shortening, starch, salt, cheese powder, butter powder, glucose, fermented seasoning powder, yeast extract powder, onion powder, spinach powder, dextrin, carrot extract powder, wheat flour, cabbage powder, powdered soy sauce, chicken extract powder/modified starches, trehalose, emulsifiers, calcium chloride, seasoning (such as amino acids), calcium carbonate, lactic acid Ca, flavoring, caramel coloring, carotenoid pigment, (some parts of the raw materials may contain dairies, wheat, soybeans, contains chicken)</t>
-  </si>
-  <si>
-    <t>Sugar, vegetable oils and fats, corn grits (not genetically modified), bread crumbs, margarine, cocoa powder, sweetened condensed milk, caramel sauce, salt, cream (dairy products), fermentation flavor powder, lactose, cacao mass, whole milk powder, cream powder, calcium carbonate, caramel coloring, flavoring, emulsifiers, trehalose, (some parts of the raw materials may contain soybeans)</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), corn grits, vegetable oils and fats, margarine, sweetened condensed milk, sugar mixed glucose fructose liquid sugar, salt, melon puree, quasi chocolate/calcium carbonate, flavoring, emulsifiers, pH regulator, gardenia pigment, sweetener (sucralose), carotenoid pigment, (some parts of the raw materials may contain dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Corn grits (not genetically modified), sugar, vegetable oils and fats, margarine, cocoa powder, sweetened condensed milk, caramel sauce, salt, cream (dairy products), fermentation flavor powder, lactose, cacao mass, whole milk powder, protein hydrolyzate, cream powder, caramel coloring, calcium carbonate, flavoring, emulsifiers, trehalose, (some parts of the raw materials may contain wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Glutinous rice (domestic product), soup base (soy sauce, sugar, salt, dried bonito extract, fermented seasoning, fish sauce, sake-brewed vinegar, kelp), maltose, mochi rice flour (Thailand product), fermented seasoning, starch, isomaltooligosaccharide, syrup, amino acid solution, chili pepper powder (habanero used)/trehalose, modified starches, seasoning (such as amino acids), acidulant, carotenoid pigment, sorbitol, (may contain wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Corn grits (made domestically), sugar, vegetable oils and fats, margarine, milk, cocoa powder, caramel sauce, salt, cacao mass, quasi chocolate/flavoring, caramel coloring, calcium carbonate, emulsifiers, sweetener (sucralose), trehalose, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+    <t>Wheat flour (made domestically), sugar, shortening, lactose, whole-wheat flour, vegetable oils and fats, inulin, whole milk powder, strawberry powder, salt, wheat protein, starch, lactic acid bacteria/calcium carbonate, swelling agent, flavoring, emulsifiers, seasoning (amino acids), acidulant, V. B1, V. B2, V. D, (some parts of the raw materials may contain dairies, contains wheat)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, lactose, vegetable oils and fats, whole milk powder, inulin, salt, starch, wheat protein, lactic acid bacteria/calcium carbonate, swelling agent, flavoring, emulsifiers, seasoning (amino acids), V. B1, V. B2, V. D, (some parts of the raw materials may contain dairies, contains wheat)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, lactose, whole-wheat flour, vegetable oils and fats, whole milk powder, inulin, maple sugar, caramel powder, salt, wheat protein, starch, lactic acid bacteria/calcium carbonate, swelling agent, flavoring, emulsifiers, seasoning (amino acids), V. B1, V. B2, V. D, (some parts of the raw materials may contain dairies, contains wheat)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, whole milk powder, vegetable oils and fats, fermented butter, lactose, inulin, salt, butter milk powder, wheat protein, lactic acid bacteria, vanilla beans seed/calcium carbonate, swelling agent, emulsifiers, flavoring, seasoning (amino acids), V. B1, V. B2, V. D, (some parts of the raw materials may contain dairies, contains wheat)</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), tapioca starch/acidulant, emulsifiers, flavoring, red cabbage dye</t>
+  </si>
+  <si>
+    <t>Syrup, sugar, vegetable oils and fats, gelatin, concentrated strawberry juice, sweetened condensed milk, strawberry jam, lactic fermenting beverage, acidulant, emulsifiers, flavoring, red cabbage dye</t>
+  </si>
+  <si>
+    <t>Sugar, syrup, vegetable oils and fats, ramune sweets (erythritol, polydextrose), gelatin, dextrin, concentrated lemon juice, acidulant, emulsifiers, flavoring, calcium stearate, safflower yellow coloring</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), syrup, sugar, vegetable oils and fats, gelatin/glycerin, sorbitol, thickening polysaccharides, acidulant, flavoring, emulsifiers, gardenia blue pigment</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), tapioca starch/acidulant, emulsifiers, flavoring, red cabbage dye, gardenia blue pigment, thickener (gum arabic)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (soy sauce, salt, chicken extract, lard, sugar, flavoring oil, hydrolyzed protein, vegetable oils, vegetable powder, pork extract, spices, green onions, yeast extract, fermented seasoning), garnish (wonton, seasoned minced chicken, corn), modified starches, seasoning (such as amino acids), caramel coloring, calcium carbonate, alcohol, brine, lecithin, antioxidant (vitamin E), gardenia pigment, thickening polysaccharides, flavoring, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, sesame seeds, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (miso, pork extract, soy sauce, flavoring oil, lard, spices, vegetable oils, sugar, salt, hydrolyzed protein, yeast extract, green onions, fermented seasoning), garnish (corn, seasoned minced chicken), modified starches, seasoning (such as amino acids), caramel coloring, alcohol, calcium carbonate, brine, lecithin, antioxidant (vitamin E), gardenia pigment, flavoring, spice extracts, pH regulator, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, sesame seeds, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (soy sauce, pork extract, salt, lard, starch, vegetable oils, flavoring oil, sugar, hydrolyzed protein, spices, green onions, niboshi powder), garnish (roasted pork, naruto), modified starches, seasoning (such as amino acids), calcium carbonate, thickening polysaccharides, alcohol, brine, lecithin, antioxidant (vitamin E, Vitamin C), gardenia pigment, pH regulator, caramel coloring, flavoring, monascus pigment, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, chicken, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (chicken extract, soy sauce, salt, vegetable oils, fermented seasoning, sugar, vegetable extract, seaweed extract, spices, yeast extract, chicken fat, lard, seafood extract), garnish (wonton, eggs)/modified starches, seasoning (such as amino acids), alcohol, calcium carbonate, brine, antioxidant (Vitamin C, vitamin E), lecithin, gardenia pigment, caramel coloring, thickening polysaccharides, carotene dye, vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
   </si>
   <si>
     <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, spices, vegetable powder, egg white), garnish (wonton, seasoned minced chicken), accompanying seasoning (chicken extract, spices, sugar, salt, vegetable powder, soy sauce, green onions, vegetable oils)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, lecithin, gardenia pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
   </si>
   <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (chicken extract, soy sauce, salt, vegetable oils, fermented seasoning, sugar, vegetable extract, seaweed extract, spices, yeast extract, chicken fat, lard, seafood extract), garnish (wonton, eggs)/modified starches, seasoning (such as amino acids), alcohol, calcium carbonate, brine, antioxidant (Vitamin C, vitamin E), lecithin, gardenia pigment, caramel coloring, thickening polysaccharides, carotene dye, vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (soy sauce, pork extract, salt, lard, starch, vegetable oils, flavoring oil, sugar, hydrolyzed protein, spices, green onions, niboshi powder), garnish (roasted pork, naruto), modified starches, seasoning (such as amino acids), calcium carbonate, thickening polysaccharides, alcohol, brine, lecithin, antioxidant (vitamin E, Vitamin C), gardenia pigment, pH regulator, caramel coloring, flavoring, monascus pigment, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, chicken, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (miso, pork extract, soy sauce, flavoring oil, lard, spices, vegetable oils, sugar, salt, hydrolyzed protein, yeast extract, green onions, fermented seasoning), garnish (corn, seasoned minced chicken), modified starches, seasoning (such as amino acids), caramel coloring, alcohol, calcium carbonate, brine, lecithin, antioxidant (vitamin E), gardenia pigment, flavoring, spice extracts, pH regulator, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, sesame seeds, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, salt, spices, vegetable powder, egg white), accompanying seasoning (soy sauce, salt, chicken extract, lard, sugar, flavoring oil, hydrolyzed protein, vegetable oils, vegetable powder, pork extract, spices, green onions, yeast extract, fermented seasoning), garnish (wonton, seasoned minced chicken, corn), modified starches, seasoning (such as amino acids), caramel coloring, calcium carbonate, alcohol, brine, lecithin, antioxidant (vitamin E), gardenia pigment, thickening polysaccharides, flavoring, vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, sesame seeds, contains gelatin)</t>
-  </si>
-  <si>
     <t>Noodles (wheat flour (made domestically), salt, vegetable oils and fats, vegetable protein, egg white), accompanying seasoning (soy sauce, chicken extract, salt, vegetable oils, chicken fat, pork extract, spices, sugar, vegetable extract, fermented seasoning, hydrolyzed protein, yeast extract, meat flavored powder, flavoring oil)/modified starches, seasoning (such as amino acids), trehalose, brine, alcohol, calcium carbonate, lecithin, antioxidant (Vitamin C, vitamin E), caramel coloring, gardenia pigment, thickening polysaccharides, flavoring, sweetener (licorice), spice extracts, (may contain wheat, eggs, dairies, soybeans, chicken, pork, contains gelatin)</t>
   </si>
   <si>
+    <t>Noodles (wheat flour (made domestically), salt, vegetable protein, vegetable oils and fats, egg white), accompanying seasoning (miso, pork extract, salt, spices, flavoring oil, vegetable extract, vegetable oils, lard, sugar, fermented seasoning, date juice, hydrolyzed protein)/modified starches, seasoning (such as amino acids), trehalose, alcohol, brine, calcium carbonate, caramel coloring, lecithin, antioxidant (vitamin E), gardenia pigment, (may contain wheat, eggs, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), salt, vegetable oils and fats, vegetable protein, egg white), accompanying seasoning (chicken extract, salt, pork extract, flavoring oil, soy sauce, vegetable extract, vegetable oils, sugar, spices, seafood extract, hydrolyzed protein, lard)/modified starches, seasoning (such as amino acids), alcohol, trehalose, brine, calcium carbonate, lecithin, antioxidant (Vitamin C, vitamin E), thickening polysaccharides, flavoring, gardenia pigment, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), salt, vegetable protein, vegetable oils and fats, egg white), accompanying seasoning (pork extract, soy sauce, chicken fat, salt, starch, sugar, spices, hydrolyzed protein, vegetable extract, vegetable oils)/modified starches, seasoning (such as amino acids), trehalose, brine, caramel coloring, calcium carbonate, thickening polysaccharides, alcohol, lecithin, antioxidant (vitamin E), gardenia pigment, (may contain wheat, eggs, dairies, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), vegetable oils and fats, salt, vegetable protein, egg white), accompanying seasoning (soy sauce, lard, seafood extract, salt, chicken extract, pork extract, flavoring oil, sugar, spices, yeast extract)/modified starches, seasoning (such as amino acids), trehalose, brine, alcohol, calcium carbonate, lecithin, antioxidant (Vitamin C, vitamin E), caramel coloring, gardenia pigment, thickening polysaccharides, flavoring, (may contain wheat, eggs, mackerel, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
     <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, purified lard, salt, vegetable protein), accompanying seasoning (salt, spices, chicken extract, soy sauce, yeast extract, sugar, vegetable oils)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, antioxidant (vitamin E), acidulant, gardenia pigment, (may contain wheat, soybeans, chicken, contains pork)</t>
   </si>
   <si>
-    <t>Noodles (wheat flour (made domestically), salt, vegetable protein, vegetable oils and fats, egg white), accompanying seasoning (pork extract, soy sauce, chicken fat, salt, starch, sugar, spices, hydrolyzed protein, vegetable extract, vegetable oils)/modified starches, seasoning (such as amino acids), trehalose, brine, caramel coloring, calcium carbonate, thickening polysaccharides, alcohol, lecithin, antioxidant (vitamin E), gardenia pigment, (may contain wheat, eggs, dairies, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Noodles (wheat flour (made domestically), vegetable oils and fats, salt, vegetable protein, egg white), accompanying seasoning (soy sauce, lard, seafood extract, salt, chicken extract, pork extract, flavoring oil, sugar, spices, yeast extract)/modified starches, seasoning (such as amino acids), trehalose, brine, alcohol, calcium carbonate, lecithin, antioxidant (Vitamin C, vitamin E), caramel coloring, gardenia pigment, thickening polysaccharides, flavoring, (may contain wheat, eggs, mackerel, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Noodles (wheat flour (made domestically), salt, vegetable protein, vegetable oils and fats, egg white), accompanying seasoning (miso, pork extract, salt, spices, flavoring oil, vegetable extract, vegetable oils, lard, sugar, fermented seasoning, date juice, hydrolyzed protein)/modified starches, seasoning (such as amino acids), trehalose, alcohol, brine, calcium carbonate, caramel coloring, lecithin, antioxidant (vitamin E), gardenia pigment, (may contain wheat, eggs, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
     <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, purified lard, salt), accompanying seasoning (salt, soy sauce, dextrin, chicken extract, pork extract, spices (black pepper, garlic powder))/modified starches, caramel coloring, calcium carbonate, seasoning (such as amino acids), brine, antioxidant (vitamin E), gardenia pigment, flavoring, spice extracts, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, contains pork)</t>
   </si>
   <si>
     <t>Sugar (produced in Thailand), syrup, gelatin, edible oils/sweetener (sorbitol), acidulant, flavoring, gelling agent (pectin: derived from orange), coloring (Gardia jasminoides, vegetable coloring)</t>
   </si>
   <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), soup (salt, lard, pork extract, spices (red pepper, garlic, pepper), dextrin, sugars, hydrolyzed protein, flavor oils, yeast extract, soy sauce, roasted onion powder, flavored seasoning), garnish (seasoned pork, eggs, garlic chives, red pepper)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, flavoring, thickening polysaccharides, sorbitol, glycerin, antioxidant (vitamin E), carotenoid pigment, acidulant, sweetener (sucralose), liquid smoke, vitamin B2, spice extracts, vitamin B1, (may contains egg, dairies, wheat, shrimp, soybeans, contains pork)</t>
+    <t>Sugar (made in Thailand or Korea), raw bean paste, syrup, cacao mass, agar/sweetener (sorbitol), flavoring, emulsifiers</t>
+  </si>
+  <si>
+    <t>Sugar (produced in Thailand, made domestically), syrup, gelatin, lactose, lactic acid bacteria dry powder (sterilization), Bifidobacterium dry powder (sterilization)/sorbitol, acidulant, flavoring, gelling agent (pectin), gum arabic, brightener, coloring (red cabbage, safflower yellow, Gardia jasminoides), emulsifiers, (some parts of the raw materials may contain dairies, soybeans, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), starch, salt/flavoring, baking soda, acidulant, paste (pullulan), red cabbage dye</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, gelatin, concentrated Muscat juice, black tea extract powder, oblaat powder/sorbitol, acidulant, flavoring, gelling agent (pectin), emulsifiers, brightener, (some parts may contain soybean, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, gelatin, concentrated lemon juice, cardamom flavor, cinnamon powder, clove powder, vanilla syrup, oblaat powder/sorbitol, acidulant, gelling agent (pectin), flavoring, emulsifiers, brightener, (some parts may contain soybean, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Sugar (produced in Thailand, made domestically), syrup, gelatin, lactose/sorbitol, acidulant, flavoring, gelling agent (pectin), coloring (caramel, red cabbage, Gardia jasminoides, carotene), gum arabic, brightener, emulsifiers, (some parts of the raw materials may contain dairies, soybeans, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, Setoka fruit juice/acidulant, flavoring, annatto pigment</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, gelatin, concentrated Muscat juice, concentrated grape juice, vegetable oils and fats, starch/sorbitol, acidulant, modified starches, flavoring, coloring (Gardia jasminoides, flavonoids), brightener, (may contain gelatin)</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, gelatin, vegetable oils and fats, starch, sorbitol, acidulant, modified starches, flavoring, coloring (caramel, Gardia jasminoides), brightener, (may contain gelatin)</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, gelatin, concentrated grape juice, concentrated Muscat juice, vegetable oils and fats/sorbitol, acidulant, bone Ca, flavoring, coloring (flavonoids, anthocyanin, Gardia jasminoides, red yeast), brightener, (may contain gelatin)</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, gelatin, concentrated banana juice, concentrated lemon juice, concentrated plum juice, vegetable oils and fats/sorbitol, acidulant, bone Ca, flavoring, coloring (anthocyanin, Gardia jasminoides), brightener, (may contains banana, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, gelatin, starch, concentrated orange juice, concentrated lemon juice, vegetable oils and fats/sorbitol, acidulant, thickener (thickening polysaccharides, CMC-Na), flavoring, coloring (flavonoids, carotenoids), brightener, (some parts may container orange, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, vegetable oils and fats, gelatin, concentrated Muscat juice, sweetened condensed milk, starch/emulsifiers, sorbitol, thickening polysaccharides, modified starches, acidulant, flavoring, coloring (flavonoids, Gardia jasminoides), (some parts of the raw materials may contain dairies, soybeans, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, sauce, sugars), sauce (sauce, mustard mayonnaise, sugars, vegetable oils and fats, salt, flavor oils, hydrolyzed protein, processed sauce, flavored seasoning, pork extract, spices, sake-brewed vinegar), garnish (cabbage), furikake (processed sauce, mayonnaise sauce flakes, sea lettuce, red pickled ginger)/caramel coloring, seasoning (such as amino acids), calcium carbonate, brine, acidulant, emulsifiers, flavoring, spice extracts, antioxidant (vitamin E), magnesium carbonate, carotenoid pigment, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, orange, sesame seeds, soybeans, pork, contains apple)</t>
+  </si>
+  <si>
+    <t>Noodles (wheat flour (made domestically), salt, vegetable oils and fats, vegetable protein, egg powder, rice koji seasoning (starch, processed rice koji product, salt koji, salt), pork extract), soup (salt, sugars, spices, lard, flavored seasoning, pork, chicken extract, soy sauce, dextrin, hydrolyzed protein, yeast extract, moromi soy sauce, roasted onion powder, vegetable oils and fats)/modified starches, swelling agent, seasoning (such as amino acids), alcohol, brine, calcium carbonate, thickener (modified starches, thickening polysaccharides), flavoring, caramel coloring, magnesium carbonate, carotenoid pigment, acidulant, antioxidant (vitamin E), emulsifiers, (may contains egg, dairies, wheat, shrimp, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, scallop extract, milk protein), soup (salt, pork extract, spices, hydrolyzed protein, sugars, flavored seasoning, yeast extract, soy sauce, roasted onion powder)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, magnesium carbonate, thickening polysaccharides, flavoring, antioxidant (vitamin E), carotenoid pigment, acidulant, sweetener (sucralose), vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, sesame seeds, soybeans, chicken, contains pork)</t>
   </si>
   <si>
     <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, egg powder, soy sauce), soup (salt, lard, pork extract, spices, flavor oils, hydrolyzed protein, yeast extract, soy sauce, dextrin, sugars, roasted onion powder, flavored seasoning, vegetable oils and fats), garnish (eggs, pork, seasoned chicken meat, garlic chives)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, brine, flavoring, thickening polysaccharides, sorbitol, glycerin, carotenoid pigment, fine silicon dioxide, emulsifiers, antioxidant (vitamin E), acidulant, sweetener (sucralose), spice extracts, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, sesame seeds, soybeans, chicken, contains pork)</t>
   </si>
   <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, onion powder), sauce (pepper garlic mayonnaise, soy sauce, sugars, lard, vegetable oils and fats, salt, pork extract, flavor oils, hydrolyzed protein, flavored seasoning, spices, sake-brewed vinegar), garnish (cabbage), furikake (spices, sea lettuce, red pepper)/seasoning (such as amino acids), brine, calcium carbonate, alcohol, flavoring, thickener (xanthan gum), emulsifiers, acidulant, carotenoid pigment, antioxidant (vitamin E), caramel coloring, spice extracts, magnesium carbonate, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, sesame seeds, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
     <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, onion powder), sauce (semi-solid dressing, soy sauce, sugars, lard, salt, pork extract, fish sauce, seafood extract, hydrolyzed protein, flavored seasoning, spices), garnish (cabbage), furikake (processed cod roe, seaweed, spices)/seasoning (such as amino acids), brine, calcium carbonate, caramel coloring, alcohol, flavoring, thickener (modified starches, xanthan gum), emulsifiers, acidulant, carotenoid pigment, monascus pigment, antioxidant (vitamin E), spice extracts, magnesium carbonate, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, squid, salmon, mackerel, soybeans, contains pork)</t>
   </si>
   <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, onion powder), sauce (pepper garlic mayonnaise, soy sauce, sugars, lard, vegetable oils and fats, salt, pork extract, flavor oils, hydrolyzed protein, flavored seasoning, spices, sake-brewed vinegar), garnish (cabbage), furikake (spices, sea lettuce, red pepper)/seasoning (such as amino acids), brine, calcium carbonate, alcohol, flavoring, thickener (xanthan gum), emulsifiers, acidulant, carotenoid pigment, antioxidant (vitamin E), caramel coloring, spice extracts, magnesium carbonate, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, sauce, sugars), sauce (sauce, mustard mayonnaise, sugars, vegetable oils and fats, salt, flavor oils, hydrolyzed protein, processed sauce, flavored seasoning, pork extract, spices, sake-brewed vinegar), garnish (cabbage), furikake (processed sauce, mayonnaise sauce flakes, sea lettuce, red pickled ginger)/caramel coloring, seasoning (such as amino acids), calcium carbonate, brine, acidulant, emulsifiers, flavoring, spice extracts, antioxidant (vitamin E), magnesium carbonate, carotenoid pigment, vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, orange, sesame seeds, soybeans, pork, contains apple)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, egg powder, soy sauce), soup (salt, chicken extract, hydrolyzed protein, spices, yeast extract, green onions, roasted onion powder, dried bonito powder, flavored seasoning, vegetable oils and fats)/modified starches, seasoning (such as amino acids), calcium carbonate, brine, flavoring, thickening polysaccharides, emulsifiers, antioxidant (vitamin E), carotenoid pigment, sweetener (sucralose), vitamin B2, vitamin B1, (may contains egg, dairies, wheat, shrimp, soybeans, chicken, pork, contains gelatin)</t>
+    <t>Sugar, maltose, gelatin, concentrated apple juice, salt, other</t>
+  </si>
+  <si>
+    <t>Chocolate coating (sugar, vegetable oils and fats, cocoa powder), wheat flour, sugar, chicken's egg, high-fructose corn syrup sugar, other</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, curry powder, soy sauce, salt, chicken extract, vegetable protein, egg powder, spices, flavored seasoning, sugar, dextrin, onion powder/modified starches, seasoning (such as amino acids), brine, calcium carbonate, carotenoid pigment, thickener (alginate ester), antioxidant (vitamin E), spice extracts, sweetener (acesulfame K, sucralose), vitamin B2, vitamin B1, (may contain wheat, eggs, dairies, soybeans, contains chicken)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, matcha (Kyoto uji matcha 100%), salt, lactose/swelling agent, gardenia pigment, flavoring, emulsifiers (soybean-derived), antioxidant (vitamin E)</t>
+  </si>
+  <si>
+    <t>Potato (not genetically modified) (domestic), vegetable oils and fats, sugar, powdered soy sauce (wheat, contains soybeans), hydrolyzed protein, salt, starch, dried bonito powder, pepper, sesame seeds, ginger powder, sea lettuce, kelp powder, pepper, chenpi powder, ped perilla powder, glucose, dextrin, beef extract seasoning/seasoning (such as amino acids), flavoring, sweetener (stevia), spice extracts</t>
   </si>
   <si>
     <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), sauce (sugar, salt, sauce, spices, dextrin, hydrolyzed protein), garnish (cabbage)/modified starches, seasoning (such as amino acids), caramel coloring, calcium carbonate, brine, acidulant, thickening polysaccharides, magnesium carbonate, antioxidant (vitamin E), flavoring, vitamin B2, vitamin B1, (may contain wheat, soybeans, contains sesame)</t>
   </si>
   <si>
+    <t>Sugar (made domestically), glucose-fructose syrup, palatinose, glucose/acidulant, lactic acid Ca, gelling agent (thickening polysaccharides), flavoring, V. B2, V. B1, V. B6</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), glucose-fructose syrup, palatinose, glucose, vegetable lactic acid bacteria powder (sterilization)/acidulant, lactic acid Ca, gelling agent (thickening polysaccharides), flavoring, V. B2, V. B1, V. B6</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), glucose-fructose syrup, palatinose, glucose, Additives: acidulant, gelling agent (thickening polysaccharides), lactic acid Ca, flavoring, vegetable coloring, V. B2, V. B1, V. B6</t>
+  </si>
+  <si>
     <t>Chocolate (sugar, whole milk powder, vegetable oils and fats, cocoa butter, cacao mass, lactose), wafers (wheat flour, sugar, starch, vegetable oils and fats, salt)/modified starches, emulsifiers (soybean-derived), shellfish calcium, flavoring, coloring (caramel), swelling agent</t>
   </si>
   <si>
+    <t>Chocolate (lactose, cocoa butter, sugar, vegetable oils and fats, whole milk powder, dried strawberries), wafers (wheat flour, sugar, starch, vegetable oils and fats, salt)/modified starches, flavoring, emulsifiers (soybean-derived), coloring (red beet, red yeast)shellfish calcium, swelling agent, acidulant</t>
+  </si>
+  <si>
+    <t>Wafers (wheat flour, sugar, starch, vegetable oils and fats, salt) (made domestically), lactose, cocoa butter, sugar, vegetable oils and fats, whole milk powder, skim milk powder, fermented milk powder, sterilized lactic acid bacteria powder/modified starches, shellfish calcium, emulsifiers (soybean-derived), flavoring, coloring (caramel, Gardia jasminoides), swelling agent</t>
+  </si>
+  <si>
+    <t>Grape flavor gummy (syrup, sugar, gelatin, concentrated grape juice, other) (made domestically), sugar, whole milk powder, cocoa butter, cacao mass, vegetable oils and fats, lactose/flavoring, sorbitol, brightener, acidulant, emulsifiers (soybean-derived), coloring (red cabbage, Gardia jasminoides)</t>
+  </si>
+  <si>
+    <t>Cacao mass (cacao beans (ghana, ecuador)), sugar, cocoa powder, cocoa butter, cacao nib processed products, whole milk powder/emulsifiers (soybean-derived), flavoring</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production), whole milk powder, cacao mass, lactose, cocoa butter, vegetable oils and fats, reduced starch syrup, alcohol, rum, rum soaked raisins/emulsifiers (soybean-derived), flavoring</t>
+  </si>
+  <si>
+    <t>&lt;cola&gt;sugar (made domestically), syrup/acidulant, baking soda, coloring (caramel), flavoring&lt;ramune&gt;sugar (made domestically), syrup/acidulant, baking soda, flavoring, coloring (Gardia jasminoides)&lt;grape soda&gt;sugar (made domestically), syrup/acidulant, baking soda, flavoring, coloring (red cabbage, Gardia jasminoides)&lt;yogurt soda&gt;sugar (made domestically), syrup/acidulant, baking soda, flavoring&lt;melon cream soda&gt;sugar (made domestically), syrup, sweetened condensed milk, foods made mainly from milk/acidulant, baking soda, flavoring, coloring (red yeast, Gardia jasminoides), emulsifiers</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, salt (Nuchi Masu 100%), vegetable oils and fats, concentrated lemon juice/acidulant (citric acid), Vitamin C, flavoring, emulsifiers, coloring (Gardia jasminoides, red yeast)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), shortening, sugar, whole grain flour, lactose, foods made mainly from milk, dried whole egg, starch, salt/swelling agent, flavoring, emulsifiers (soybean-derived)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, cocoa powder, lactose, foods made mainly from milk, dried whole egg, starch, salt/swelling agent, flavoring, emulsifiers (soybean-derived)</t>
+  </si>
+  <si>
+    <t>〈milk flavor〉wheat flour (made domestically), shortening, sugar, whole grain flour, lactose, foods made mainly from milk, dried whole egg, starch, salt/swelling agent, flavoring, emulsifiers (soybean-derived)〈chocolate flavor〉wheat flour (made domestically), sugar, shortening, cocoa powder, lactose, foods made mainly from milk, dried whole egg, starch, salt/swelling agent, flavoring, emulsifiers (soybean-derived)</t>
+  </si>
+  <si>
+    <t>Non-glutinous rice powder (domestic), starch, soy sauce, wasabi-flavored seasoning, sugar, fish extract seasoning, hydrolyzed protein, seaweed extract, powdered wasabi/seasoning (such as amino acids), modified starches, sorbitol, coloring (caramel, paprika pigment), flavoring, spice extracts, tea extract, (may contain wheat, eggs, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Non-glutinous rice powder (domestic), starch, soy sauce, sugar, fish extract seasoning, hydrolyzed protein, seaweed extract, salt/modified starches, seasoning (such as amino acids), sorbitol, coloring (caramel, paprika pigment), spice extracts, (may contain wheat, eggs, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Non-glutinous rice powder (domestic), starch, soy sauce, plum shiso seasoning, sugar, fish extract seasoning, hydrolyzed protein, seaweed extract, dried plum meat/seasoning (such as amino acids), modified starches, acidulant, sorbitol, flavoring, coloring (caramel, paprika pigment, purple corn pigment), sweetener (sucralose, neotame), spice extracts, (may contain wheat, eggs, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Non-glutinous rice powder (domestic), starch, peanuts (peanuts, vegetable oils and fats, salt), soy sauce, wasabi-flavored seasoning, sugar, fish extract seasoning, hydrolyzed protein, seaweed extract, powdered wasabi/seasoning (such as amino acids), modified starches, sorbitol, coloring (caramel, paprika pigment), flavoring, spice extracts, tea extract, emulsifiers, (may contain wheat, eggs, peanut, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Ingredients: non-glutinous rice powder (domestic), starch, peanuts (peanuts, vegetable oils and fats, salt), soy sauce, sugar, fish extract seasoning, hydrolyzed protein, seaweed extract, salt/modified starches, seasoning (such as amino acids), sorbitol, coloring (caramel, paprika pigment), emulsifiers, spice extracts, (may contain wheat, eggs, peanut, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Vegetables (potato (domestic), carrots, corn), soybean oil, pork, flour roux, sauteed onion, sugar, curry powder, extract (pork, yeast), soy sauce, tomato paste, salt, chicken extract seasoning, milpowa paste, cheese powder, yeast extract powder/thickener (modified starches), seasoning (such as amino acids), cellulose, (some parts of the raw materials may contain dairies, wheat, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
+    <t>Kelp (domestic product), sake-brewed vinegar, dried bonito extract, salt, protein hydrolyzate, fermented seasoning/seasoning (such as amino acids), acidulant, sorbitol, modified starches, sweetener (stevia extract), (some parts may contain soybean)</t>
+  </si>
+  <si>
+    <t>Rice (domestic), whey powder (contains dairies), sugar, cheese flavored seasoning (contains dairies), lactose, salt, onion extract powder, soy sauce (wheat, contains soybeans), pizza seasoning (wheat, dairies, soybeans, contains pork), cheese powder (cheddar cheese 45%, camembert cheese 30%, Gouda cheese 1%), vegetable oils and fats, pepper, protein hydrolyzate (contains soybeans)/seasoning (such as amino acids), flavoring, sweetener (stevia, sucralose), emulsifiers, paprika pigment, liquid smoke, spice extracts</t>
+  </si>
+  <si>
     <t>Sugar (made domestically), wheat flour, vegetable oils and fats, lactose, starch, shortening, cocoa butter, whole milk powder, whey powder, liquid egg, maltitol, strawberry powder, cream powder, salt/calcium carbonate, swelling agent, coloring (caramel, red yeast, red beet), flavoring, emulsifiers (soybean-derived)</t>
   </si>
   <si>
-    <t>Wheat flour (made domestically), sugar, vegetable oils and fats, whole milk powder, starch, cacao mass, shortening, sweetened condensed milk, cocoa powder, cream powder, malt extract, salt, cocoa butter, soybean germ extract/swelling agent, emulsifiers, flavoring</t>
+    <t>&lt;lemon&gt;syrup (made domestically), sugar, gelatin, concentrated lemon juice, oblaat powder/sorbitol, glycerin, acidulant, gelling agent (pectin), flavoring, emulsifiers, safflower pigment, brightener&lt;cola&gt;syrup (made domestically), sugar, gelatin, cola nuts extract, oblaat powder/sorbitol, glycerin, acidulant, gelling agent (pectin), caramel coloring, flavoring, emulsifiers, brightener&lt;soda&gt;syrup (made domestically), sugar, gelatin, oblaat powder/sorbitol, glycerin, acidulant, gelling agent (pectin), flavoring, gardenia pigment, emulsifiers, brightener&lt;grape&gt;syrup (made domestically), sugar, gelatin, concentrated grape juice, oblaat powder/sorbitol, glycerin, acidulant, gelling agent (pectin), flavoring, coloring (black carrot juice, Gardia jasminoides), emulsifiers, brightener</t>
+  </si>
+  <si>
+    <t>Sugar (produced in Japan or other countries), wheat flour, vegetable oils and fats, cacao mass, starch, shortening, lactose, whole milk powder, liquid egg, whey powder, cream powder, skim milk powder, salt, cocoa powder, cocoa butter/calcium carbonate, swelling agent, caramel coloring, emulsifiers (soybean-derived), flavoring</t>
+  </si>
+  <si>
+    <t>Corn puff (corn grits, sugar, vegetable oils and fats, syrup, cocoa powder, salt) (made domestically), sugar, vegetable oils and fats, cacao mass, lactose, whole milk powder, cocoa butter, syrup/brightener, thickener (gum arabic), emulsifiers (soybean-derived), flavoring, caramel coloring</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), wheat flour, vegetable oils and fats, whole milk powder, lactose, cacao mass, whey powder, cookie crunch, cocoa powder, starch, shortening, salt/emulsifiers (soybean-derived), caramel coloring, swelling agent, flavoring</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), vegetable oils and fats, lactose, whole milk powder, cacao mass, cocoa butter, condensed milk powder, strawberry powder/emulsifiers (soybean-derived), red beet coloring, flavoring</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), processed vegetable fats and oils, syrup, gelatin, concentrated apple juice/cellulose, acidulant, emulsifiers, flavoring, sweetener (aspartame, L‐phenylalanine compound, acesulfame K), coloring (Blue No. 1), (may contain apple, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Peanuts (China), vegetable oils and fats, salt, flavored cooking oil, pepper, pepper, chili bean sauce, syrup, green onions, garlic/seasoning (such as amino acids), spice extracts, (may contain wheat, peanuts, contains soybeans)</t>
   </si>
   <si>
     <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, lard, salt, vegetable protein, soy sauce), soup (soy sauce, sugars, salt, animal fat, beef extract, hydrolyzed protein, kelp extract, bonito extract), garnish (fried ball with kasu, tororo konbu, kamaboko, green onions)/modified starches, seasoning (such as amino acids), alcohol, trisodium phosphate, flavoring, thickener (xanthan), antioxidant (vitamin E), caramel coloring, swelling agent, monascus pigment, gardenia pigment, (may contain wheat, beef, soybeans, chicken, contains pork)</t>
   </si>
   <si>
-    <t>Wheat flour (made domestically), sugar, lactose, processed oils and fats, reduced starch syrup, sweet potato powder, eggs, margarine, vegetable oils and fats, foods made mainly from milk (butter, lactose, calcium caseinate, salt), skim milk powder, salt, maltose, wheat fiber, syrup/coloring (Gardia jasminoides, annatto), emulsifiers (soybean-derived), crystalline cellulose, flavoring</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), wheat flour, processed oils and fats, skim milk powder, high-fructose corn syrup sugar, cacao mass, cocoa powder, eggs, sweetened condensed skim milk, margarine, cocoa butter, syrup, vegetable oils and fats, lactose, salt, maltose, glucose/coloring (caramel, annatto), emulsifiers (soybean-derived), flavoring</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, processed oils and fats, lactose, whole milk powder, high-fructose corn syrup sugar, eggs, sweetened condensed skim milk, margarine, strawberry powder, syrup, vegetable oils and fats, salt, maltose, glucose/emulsifiers (soybean-derived), acidulant, coloring (red yeast, red beet, annatto), flavoring</t>
-  </si>
-  <si>
-    <t>Quasi chocolate (sugar, lactose, vegetable oils and fats, whole milk powder, cocoa butter), wheat flour, vegetable oils and fats, lactose, sugar, chestnut powder, cocoa powder, yeast, whole milk powder, cacao mass, cocoa butter/emulsifiers, flavoring, caramel coloring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Quasi chocolate (sugar, lactose, vegetable oils and fats, whole milk powder, cocoa butter) (made domestically), wheat flour, vegetable oils and fats, lactose, sugar, sweet potato powder, yeast, cocoa powder, whole milk powder, cacao mass, cocoa butter/emulsifiers, flavoring, baking soda, yeast food, gardenia pigment, (may contain wheat, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Vegetable oils and fats (made domestically), biscuits (wheat flour, sugar, shortening, cocoa powder, salt), sugar, wheat flour, cacao mass, lactose, whole milk powder, cocoa butter, cocoa powder, yeast/emulsifiers, swelling agent, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
+    <t>Potato flakes (American made or German made or others), vegetable oils and fats, salt/emulsifiers, seasoning (amino acids)</t>
+  </si>
+  <si>
+    <t>Potato flakes (American made or German made or others), vegetable oils and fats, consomme seasoning (chicken extract powder, sugar, glucose, salt, onion powder, vegetable extract powder, yeast extract powder, dextrin, lactose, spices, hydrolyzed protein, vegetable oils and fats), sugar, onion powder, salt, spices/seasoning (such as amino acids), emulsifiers, coloring (paprika powder, paprika pigment), modified starches, flavoring, acidulant, sweetener (licorice), spice extracts, (may contain wheat, eggs, dairies, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Potato flakes (American made or German made or others), vegetable oils and fats, salt, green seaweed, sea lettuce/emulsifiers, seasoning (amino acids)</t>
+  </si>
+  <si>
+    <t>Potato flakes (American made or German made or others), vegetable oils and fats, sour cream onion flavor seasoning (onion powder, salt, foods made mainly from milk, sugar, glucose, yeast extract powder, starch, powdered vinegar, sour cream powder), onion paste/seasoning (such as amino acids), acidulant, flavoring, emulsifiers, spice extracts, sweetener (licorice), (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Potato flakes (American made or German made or others), vegetable oils and fats, butter soy sauce seasoning (foods made mainly from milk, sugar, soy sauce powder, salt, hydrolyzed protein, butter powder, cheese powder, yeast extract powder, dried bonito powder), butter milk powder/seasoning (such as amino acids), flavoring, emulsifiers, sweetener (licorice, sucralose), (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Potato flakes (American made or German made or others), vegetable oils and fats, sweet shrimp powder, salt/modified starches, emulsifiers, seasoning (amino acids), (may contain shrimp)</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils and fats, starch, sugar, shortening, lactose, soy sauce powder, salt, black pepper, hydrolyzed protein, garlic powder, corn starch, flavored powder oil, roasted soy sauce seasoning, foods made mainly from milk, beef extract powder, nutmeg powder/modified starches, seasoning (such as amino acids), flavoring, baking soda, spice extracts, emulsifiers, caramel coloring, sweetener (sucralose), (may contain wheat, dairies, beef, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour, sugar, vegetable oils and fats, cocoa powder, corn starch, salt/swelling agent, emulsifiers, flavoring, antioxidant (V. E, V. C), (some parts of the raw materials may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour, sugar, vegetable oils and fats, cocoa powder, corn starch, salt/swelling agent, emulsifiers, flavoring, acidulant, antioxidant (V. C, V. E), (may contain wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Dough (wheat flour, corn starch, salt) (made domestically), vegetable oils and fats, sugar, syrup, soy sauce (wheat, contains soybeans), salt/swelling agent, eggshell calcium (eggs-derived)</t>
+  </si>
+  <si>
+    <t>Dough (wheat flour, corn starch, salt) (made domestically), vegetable oils and fats, sugar, syrup, soy sauce (wheat, contains soybeans), salt, sea lettuce powder/swelling agent, eggshell calcium (eggs-derived)</t>
+  </si>
+  <si>
+    <t>Non-glutinous rice (domestic product, made in the USA), vegetable oils and fats, soy sauce (wheat, contains soybeans), sugar, bonito dashi powder, kelp stock/modified starches, seasoning (such as amino acids)</t>
+  </si>
+  <si>
+    <t>Glutinous rice (domestic product, made in the USA), vegetable oils and fats, peanuts, salt, sugar, bonito dashi powder, kelp powder, chicken consommé seasoning, seasoning (such as amino acids), flavoring, (some parts of the raw materials may contain wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Vegetable oils and fats (made domestically) (contains soybeans), sugar, sugar milk powder adjusted products (sugar, whole milk powder, skim milk powder, cocoa butter), lactose, cacao mass, whole milk powder, cocoa butter, skim milk powder/emulsifiers (soybean-derived), flavoring (milk-derived)</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production, made domestically), almond, cacao mass, whole milk powder, vegetable oils and fats, cocoa butter, wheat puff (wheat flour, corn starch, sweet potato starch, malt extract, salt), lactose/emulsifiers, flavoring, swelling agent, (may contain almonds, dairies, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar milk powder adjusted products (sugar, whole milk powder, cocoa butter) (singapore manufacturing), lactose, almond, cocoa butter, vegetable oils and fats, wheat puff (wheat flour, corn starch, sweet potato starch, malt extract, salt), skim milk powder, whole milk powder/emulsifiers, flavoring, swelling agent, (some parts of the raw materials may contain dairies, almond, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Potato starch (potato (Hokkaido)), corn starch/thickener (CMC, thickening polysaccharides)</t>
   </si>
   <si>
     <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), biscuits (wheat flour, sugar, shortening, salt), wheat flour, vegetable oils and fats, lactose, matcha, sugar, cocoa powder, green tea, whole milk powder, cacao mass, yeast, cocoa butter/emulsifiers, swelling agent, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
   </si>
   <si>
-    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), whole grain biscuits (wheat flour, whole-wheat flour, sugar, shortening, salt), wheat flour, lactose, vegetable oils and fats, sugar, cocoa powder, whole milk powder, cacao mass, yeast, cocoa butter/emulsifiers, swelling agent, caramel coloring, flavoring, baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), biscuits (wheat flour, sugar, shortening, salt), wheat flour, lactose, vegetable oils and fats, sugar, strawberry fruit juice powder, processed dried strawberries, yeast, cocoa powder, whole milk powder, cacao mass, cocoa butter/emulsifiers, acidulant, swelling agent, flavoring, coloring (red beet, red yeast), baking soda, yeast food, (may contain wheat, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Chocolate coating (vegetable oils and fats, sugar, lactose, whole milk powder, cocoa butter) (made domestically), whole grain biscuits (wheat flour, whole-wheat flour, sugar, shortening, salt), wheat flour, lactose, sugar, vegetable oils and fats, whole milk powder, cacao mass, cocoa butter, cocoa powder, yeast/emulsifiers (soybean-derived), swelling agent, caramel coloring, flavoring, baking soda, yeast food</t>
-  </si>
-  <si>
-    <t>Sugar (foreign production, made domestically), whole milk powder, lactose, cacao mass, wheat flour, vegetable oils and fats, cocoa butter, orange juice powder, yeast, cocoa powder/emulsifiers, flavoring, acidulant, baking soda, yeast food, (may contain wheat, dairies, orange, contains soybeans)</t>
+    <t xml:space="preserve"> (milk)sugar (foreign production), whole milk powder, cacao mass, cocoa butter, vegetable oils and fats/emulsifiers (soybean-derived), flavoring (strawberry)sugar (foreign production), vegetable oils and fats, lactose, whole milk powder, cocoa butter/emulsifiers (soybean-derived), acidulant, vegetable coloring, flavoring (kinako)vegetable oils and fats (made domestically), sugar, lactose, kinako (contains soybeans), whole milk powder, cocoa butter, skim milk powder/emulsifiers, flavoring (banana)sugar (foreign production), vegetable oils and fats, lactose, whole milk powder, cocoa butter, banana powder/emulsifiers (soybean-derived), flavoring, carotenoid pigment (melon)sugar (foreign production), lactose, vegetable oils and fats, cocoa butter, whole milk powder/emulsifiers (soybean-derived), acidulant, coloring (blue spirulina, Gardia jasminoides), flavoring</t>
   </si>
   <si>
     <t>Green tea (domestic)/Vitamin C</t>
   </si>
   <si>
+    <t>Milk, sugar, coffee, skim milk powder/emulsifiers</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils, cheese powder, salt, sugar, dextrin, creaming powder, hydrolyzed protein, yeast extract powder, onion powder, powdered soy sauce/seasoning (such as amino acids), flavoring, carotenoid pigment, sweetener (stevia, sucralose, licorice), (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils, dextrin, sugar, salt, glucose, cheese powder, yeast extract powder, onion powder, jalapeno powder, parsley flakes/flavoring, seasoning (such as amino acids), acidulant, carotenoid pigment, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils, sugar, powdered soy sauce, hydrolyzed protein, starch, salt, garlic powder, onion powder, yeast extract powder, beef extract seasoning, flavored powder oil, black pepper/seasoning (such as amino acids), coloring (caramel, carotenoids), flavoring, acidulant, sweetener (aspartame, L-phenylalanine compound, sucralose), spice extracts, (may contain wheat, beef, sesame seeds, soybeans, contains pork)</t>
+  </si>
+  <si>
     <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, soy sauce, hydrolyzed protein), soup (sugars, salt, soy sauce, shellfish extract, spices, chicken extract, pork extract, shrimp extract, hydrolyzed protein), garnish (kamaboko, corn, green onions), seasoning (such as amino acids), modified starches, calcium carbonate, caramel coloring, brine, thickening polysaccharides, acidulant, antioxidant (vitamin E), gardenia pigment, sepia dye, vitamin B2, monascus pigment, vitamin B1</t>
   </si>
   <si>
+    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, starch, salt, soy sauce, hydrolyzed protein), soup (sugars, salt, soy sauce, shellfish extract, vegetable powder, chicken extract, pork extract, shrimp extract, spices, hydrolyzed protein), garnish (kamaboko, corn)/seasoning (such as amino acids), modified starches, calcium carbonate, caramel coloring, brine, thickening polysaccharides, acidulant, antioxidant (vitamin E), gardenia pigment, sepia dye, vitamin B2, vitamin B1, monascus pigment, (may contain shrimp, wheat, dairies, squid, soybeans, chicken, contains pork)</t>
+  </si>
+  <si>
     <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, powdered egg, sugars), soup (miso, salt, sugars, pork extract, red chili paste, vegetable oils and fats, lard, chili bean sauce, spices, flavored cooking oil, seasoning oil, hydrolyzed protein), garnish (green onions, chicken, seasoned minced pork, corn), modified starches, seasoning (such as amino acids), alcohol, calcium carbonate, caramel coloring, flavoring, gardenia pigment, brine, thickener (xanthan), acidulant, antioxidant (vitamin E, rosemary extract), vitamin B2, vitamin B1, spice extracts, (some part of raw materials may contains sesame)</t>
   </si>
   <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, miso, sugars), soup (lard, soy sauce, salt, sugars, pork extract, chicken extract, hydrolyzed protein, vegetable oils and fats, spices, yeast extract), garnish (char siu, green onions), modified starches, seasoning (such as amino acids), alcohol, caramel coloring, calcium carbonate, brine, lecithin, gardenia pigment, thickener (xanthan), flavoring, antioxidant (vitamin E), vitamin B2, vitamin B1, (some parts of the raw materials may contain eggs, contains dairies)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, salt), sauce (sauce, sugars, salt, lard, vegetable oils and fats, spices, hydrolyzed protein, flavored seasoning), garnish (cabbage), caramel coloring, seasoning (such as amino acids), calcium carbonate, brine, acidulant, antioxidant (vitamin E), flavoring, thickener (xanthan), vitamin B2, vitamin B1, (some parts of the raw materials may contain dairies, soybeans, apple, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, starch, salt, soy sauce, hydrolyzed protein), soup (sugars, salt, soy sauce, shellfish extract, vegetable powder, chicken extract, pork extract, shrimp extract, spices, hydrolyzed protein), garnish (kamaboko, corn)/seasoning (such as amino acids), modified starches, calcium carbonate, caramel coloring, brine, thickening polysaccharides, acidulant, antioxidant (vitamin E), gardenia pigment, sepia dye, vitamin B2, vitamin B1, monascus pigment, (may contain shrimp, wheat, dairies, squid, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour, vegetable oils and fats, starch, salt, soy dietary fiber), soup (soy sauce, salt, hydrolyzed protein, pork extract, sugars, lard, vegetable oils and fats, dried bonito extract, yeast extract, spices, niboshi sardine powder), garnish (char siu, menma, naruto, green onions), seasoning (such as amino acids), alcohol, caramel coloring, calcium carbonate, flavoring, brine, thickener (xanthan), lecithin, gardenia pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, monascus pigment, (some parts of the raw materials may contain eggs, contains dairies)</t>
+    <t>Milk (made domestically), coffee (Ethiopian coffee beans 51%), sugar, whole milk powder, skim milk powder, dextrin/sodium caseinate, emulsifiers, flavoring, sweetener (acesulfame K)</t>
   </si>
   <si>
     <t>Sugar (made domestically), syrup, juice (strawberry, pineapple, lemon, orange, apple, melon, grape, peaches)/acidulant, flavoring, coloring (anthocyanin, paprika pigment, carotene, Gardia jasminoides, red yeast, safflower yellow), (some parts may container orange, peaches, contains apple)</t>
+  </si>
+  <si>
+    <t>Sugar, syrup, concentrated fruit juice (strawberry, lemon, orange, pineapple, apple, melon, chinese plum), acidulant, flavoring, coloring (purple corn dye, paprika pigment, carotene, red yeast, Gardia jasminoides, safflower yellow)</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), sugar, syrup, reduced starch syrup/gum base, acidulant, flavoring, caramel coloring, softening agent</t>
+  </si>
+  <si>
+    <t>Glucose (made domestically), sugar, syrup, reduced starch syrup, concentrated grape juice/gum base, acidulant, flavoring, anthocyanin pigment</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), glucose, syrup/gum base, acidulant, paste (gum arabic), flavoring, coloring (flavonoids, anthocyanin), brightener</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), glucose, syrup, reduced starch syrup, yeast extract, dextrin/gum base, acidulant, flavoring, softening agent, carotenoid pigment</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), gelatin, palatinit/acidulant, flavoring, coloring (Gardia jasminoides, anthocyanin, carotenoids), sweetener (sucralose)</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils, powdered sauce, sugar, tomato flavor powder, hydrolyzed protein (contains soybeans), wheat flour, powdered bonito flakes, sea lettuce, salt, octopus powder/seasoning (such as amino acids), acidulant, calcium carbonate, coloring (caramel, carotenoids), flavoring (chicken, apple-derived), sweetener (sucralose, stevia: milk-derived, licorice), spice extracts</t>
+  </si>
+  <si>
+    <t>Potato (domestic or american), vegetable oils, salt, sugar, starch, spices powder, hydrolyzed protein (contains soybeans), powdered sauce, onion powder, beef powder, tomato powder, yeast extract powder, seasoned animal fats and oils (contains pork)/seasoning (such as amino acids), acidulant, flavoring (wheat, squid, derived from gelatin), coloring (caramel, Gardia jasminoides), sweetener (stevia, sucralose), spice extracts</t>
   </si>
   <si>
     <t>(lemon flavor)sugar (made domestically), syrup, concentrated lemon juice, herbal extract (contains orange)
@@ -1159,259 +1549,208 @@
 (green apple flavor)sugar (made domestically), syrup, concentrated apple juice, herbal extract (contains orange)</t>
   </si>
   <si>
+    <t>Sugar (foreign production, made domestically), syrup, maltose, gelatin, concentrated grape juice, vegetable oils and fats</t>
+  </si>
+  <si>
+    <t>Sugar (foreign production, made domestically), wheat flour, vegetable oils and fats, whole milk powder, cocoa butter, cacao mass, margarine, shortening, chicken's egg, lactose, whey powder, cocoa powder, caramel powder, dried whole egg, salt, butter</t>
+  </si>
+  <si>
+    <t>Glucose, sugar, starch, gelatin, acidulant, emulsifiers, brightener, flavoring, coloring (Gardia jasminoides, vegetable coloring, carotenoids), paste (gum arabic)</t>
+  </si>
+  <si>
     <t>Rice noodles (produced in vietnam (rice, starch, salt)), soup (salt, sugar, chicken oil, flavor oils, hydrolyzed protein, vegetable oils and fats, chicken extract, spices, yeast extract, chicken seasoning, green onion extract), garnish (processed soybean, green onions, bean sprouts, coriander)/modified starches, seasoning (such as amino acids), alcohol, thickener (modified starches, thickening polysaccharides), flavoring, caramel coloring, emulsifiers, acidulant, antioxidant (vitamin E), (some parts of the raw materials may contain dairies, soybeans, chicken, contains pork)</t>
   </si>
   <si>
+    <t>Rice noodles (produced in vietnam (rice, starch, salt)), garnished soup (salt, bok choi, sugar, tom yum seasoning powder, processed soybean, spices, green onions, yeast extract, hydrolyzed protein, shrimp sauce, chicken seasoning, shrimp extract, coriander, pepper)/modified starches, seasoning (such as amino acids), acidulant, flavoring, fine silicon dioxide, carotenoid pigment, sweetener (sucralose, acesulfame K), emulsifiers, thickener (guar gum), (may contain shrimp, soybeans, chicken, contains gelatin)</t>
+  </si>
+  <si>
     <t>Rice noodles (produced in vietnam (rice, starch, salt)), soup (hydrolyzed protein, sugars, salt, spices, beef tallow, fermented seasoning, vegetable oils and fats, sake-brewed vinegar, tomato ketchup, beef extract, flavor oils, yeast extract), garnish (processed soybean, green onions, pepper)/modified starches, seasoning (such as amino acids), alcohol, flavoring, spice extracts, thickening polysaccharides, caramel coloring, emulsifiers, acidulant, sweetener (sucralose, acesulfame K), antioxidant (vitamin E), (may contain shrimp, beef, contains soybeans)</t>
   </si>
   <si>
-    <t>Rice noodles (produced in vietnam (rice, starch, salt)), garnished soup (salt, bok choi, sugar, tom yum seasoning powder, processed soybean, spices, green onions, yeast extract, hydrolyzed protein, shrimp sauce, chicken seasoning, shrimp extract, coriander, pepper)/modified starches, seasoning (such as amino acids), acidulant, flavoring, fine silicon dioxide, carotenoid pigment, sweetener (sucralose, acesulfame K), emulsifiers, thickener (guar gum), (may contain shrimp, soybeans, chicken, contains gelatin)</t>
-  </si>
-  <si>
     <t>Milk (made domestically), sugar, coffee, skim milk powder, whole milk powder, dextrin/emulsifiers, flavoring, cellulose</t>
   </si>
   <si>
+    <t>Coffee (coffee beans (made in Brazil, from Ethiopia, other))</t>
+  </si>
+  <si>
+    <t>Fruits (apple, orange, peaches, tangerine, pineapple, grape), sugars (sugar, glucose), ginseng root extract, L-carnitine L-tartrate, sodium chloride, guarana seed extract, citric acid, flavoring, carbonate gas, sweetener (D-ribose, sucralose), L-Arginine, caffeine, sodium citrate, coloring (β-carotene, anthocyanin), niacin, inositol, V. B6, V. B2, V. B12</t>
+  </si>
+  <si>
     <t>Fruits (apple, orange, guava, pineapple, passion fruit), sugars (sugar, glucose), ginseng root extract, L-carnitine L-tartrate, vegetable oils, sodium chloride, guarana seed extract/carbonic acid, citric acid, flavoring, preservatives (sodium benzoate), L-Arginine, sodium citrate, caffeine, sweetener (sucralose), niacin, inositol, vitamin B6, vitamin B2, coloring (β-carotene), vitamin B12</t>
   </si>
   <si>
-    <t>Sugars (sugar, glucose), ginseng root extract, L-carnitine L-tartrate, sodium chloride, guarana seed extract/citric acid, carbonic acid, flavoring, sodium citrate, sweetener (D-ribose, sucralose), L-arginine, preservatives (benzoic acid), caffeine, niacin, coloring (anthocyanin), inositol, vitamin B6, vitamin B2, vitamin B12</t>
+    <t>Sugar (foreign or domestic manufacturing), lactose, waffle crunch (wheat flour, sugar, starch, other), vegetable oils and fats, wheat flour, whole milk powder, cocoa butter, lemon juice powder, shortening, high-fructose corn syrup, salt/emulsifiers, coloring (carotenoids, annatto), flavoring, acidulant, swelling agent, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Waffle crunch (made domestically) (wheat flour, sugar, starch, other), sugar, lactose, vegetable oils and fats, whole milk powder, cocoa butter, candied dried strawberries (strawberry, sugar, glucose), candied fruit dried cranberries (cranberry, sugar, vegetable oils and fats), strawberry powder, glucose, strawberry powder (lactose, strawberry, dextrin), corn starch/emulsifiers, coloring (vegetable coloring, annatto, red yeast), flavoring, acidulant, swelling agent, paste (pectin), (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Non-glutinous rice (domestic), vegetable oils and fats, rice flour (non-glutinous rice (domestic)), starch, dietary fiber (inulin), salt, vegetable powder (spinach, onion, carrots, tomato, pumpkin, corn), fermented seasoning (wheat, contains soybeans), protein hydrolyzate (contains soybeans), soy sauce powder (wheat, contains soybeans), garlic powder (contains soybeans), chicken bouillon powder (contains dairies), cheese powder, black pepper, brown sugar powder, cocoa powder, yeast extract powder</t>
+  </si>
+  <si>
+    <t>Rice flour (non-glutinous rice (domestic)), sugar, salt, fructo-oligosaccharide/modified starches</t>
+  </si>
+  <si>
+    <t>Vegetable oils and fats (made domestically), rice flour (non-glutinous rice (domestic, made in the USA)), starch, salt, fish extract powder (may contain shrimp), sugar, shrimp, dextrin, soy sauce powder (wheat, contains soybeans), flavor oils (may contain shrimp), yeast extract powder/modified starches, seasoning (such as amino acids), coloring (red yeast, caramel), acidulant</t>
+  </si>
+  <si>
+    <t>Corn grits (not genetically modified), sugar, vegetable oils and fats, margarine, cocoa powder, sweetened condensed milk, caramel sauce, salt, cream (dairy products), fermentation flavor powder, lactose, cacao mass, whole milk powder, protein hydrolyzate, cream powder, caramel coloring, calcium carbonate, flavoring, emulsifiers, trehalose, (some parts of the raw materials may contain wheat, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Corn grits (made domestically), vegetable oils and fats, sugar, margarine, sweetened condensed milk, salt, egg yolk powder/sorbitol, flavoring, eggshell Ca, emulsifiers, sweetener (sucralose), carotenoid pigment, (may contains egg, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Dried potato (foreign production), vegetable oils and fats, salt, chili pepper powder (bhut, jolokia powder 2%used), sugar, garlic powder, yeast extract powder, protein hydrolyzate, glucose, onion powder, lemongrass powder, starch, lactose, chili powder, chicken powder, flavor oils, white pepper powder, soy sauce seasoning, chili puree, chicken extract seasoning, cumin powder, paprika powder, seasoning extract/modified starches, seasoning (such as amino acids), acidulant, calcium carbonate, flavoring, antioxidant (vitamin E), spice extracts, caramel coloring, (some parts of the raw materials may contain dairies, wheat, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Sugar (produced in Thailand, made domestically), milk, whole milk powder, melon juice, skim milk powder, coconut oil, dextrin, cream, salt/emulsifiers, flavoring, Vitamin C, gardenia pigment, carotene dye, sweetener (stevia), citric acid</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, sake lees, dextrin, honey, salt, rice koji powder/acidulant, flavoring, coloring (anthocyanin, turmeric), L‐leucine, L‐valine, L‐isoleucine, stabilizer (xanthan gum), sweetener (aspartame, L‐phenylalanine compound)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, manuka honey, caramel sauce (sugar), herbal extract/flavoring, acidulant, coloring (caramel)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, concentrated fruit juice (muscat, acerola, lemon), herbal extract/acidulant, Vitamin C, flavoring, coloring (anthocyanin, Gardia jasminoides, turmeric), extracted vitamin E, niacin, pantothenic acid Ca, vitamin B1, vitamin B6, vitamin B2, vitamin a, folic acid, vitamin D, vitamin B12</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup, Kyoho concentrated fruit juice/acidulant, flavoring, coloring (anthocyanin)</t>
+  </si>
+  <si>
+    <t>Potato starch (potato (Hokkaido)), sugar, sweetened egg yolk (egg yolk (contains eggs), sugar), syrup, glucose, wheat flour, fine rice flour mix (corn starch, glutinous rice), skim milk powder/eggshell calcium, swelling agent</t>
+  </si>
+  <si>
+    <t>Sugar (foreign or domestic manufacturing), whole milk powder, vegetable oils and fats, cacao mass, cocoa butter, lactose, skim milk powder, processed fat/emulsifiers (soybean-derived), vegetable coloring, flavoring (milk, soybean-derived)</t>
+  </si>
+  <si>
+    <t>&lt;Hello Kitty&gt;sugar (foreign or domestic manufacturing), whole milk powder, cacao mass, vegetable oils and fats, cocoa butter, lactose, skim milk powder, processed fat/emulsifiers (soybean-derived), flavoring (milk, soybean-derived), vegetable coloring&lt;My Melody&gt;sugar (foreign or domestic manufacturing), whole milk powder, cacao mass, vegetable oils and fats, cocoa butter, lactose, skim milk powder, processed fat/emulsifiers (soybean-derived), flavoring (milk, soybean-derived), vegetable coloring&lt;Pochacco&gt;sugar (foreign or domestic manufacturing), whole milk powder, cacao mass, vegetable oils and fats, cocoa butter, lactose, skim milk powder, processed fat/emulsifiers (soybean-derived), flavoring (milk, soybean-derived)&lt;Pompompurin&gt;sugar (foreign or domestic manufacturing), whole milk powder, cacao mass, vegetable oils and fats, cocoa butter, lactose, skim milk powder, processed fat/emulsifiers (soybean-derived), flavoring (milk, soybean-derived), carotenoid pigment&lt;Cinnamoroll&gt;sugar (foreign or domestic manufacturing), whole milk powder, cacao mass, vegetable oils and fats, cocoa butter, lactose, skim milk powder, processed fat/emulsifiers (soybean-derived), flavoring (milk, soybean-derived), vegetable coloring</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, vegetable oils and fats, chocolate chip (contains dairies), reduced starch syrup, white bean jam (contains dairies), eggs, full fat soy flour, cacao mass, syrup, skim milk powder, salt, egg yolk (contains eggs), whole milk powder/modified starches, emulsifiers (milk, soybean-derived), flavoring (milk, soybean-derived), stabilizer (modified starches), swelling agent, caramel coloring</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, vegetable oils and fats, butter, whole milk powder, fermented seeds (contains wheat), salt, foods with ingredients made mainly from milk/emulsifiers (wheat, soybean-derived), flavoring (milk, soybean-derived), carotenoid pigment</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), glucose, syrup, gelatin, oolong tea extract/gum base, acidulant, softening agent, flavoring, Vitamin C, gardenia pigment</t>
+  </si>
+  <si>
+    <t>Nectar sugar (made domestically), brown sugar, sugar, wheat flour, wheat protein (gluten)/caramel coloring, swelling agent</t>
+  </si>
+  <si>
+    <t>Glucose syrup, sugar, gelatin, vegetable oils and fats/sorbitol, acidulant, addition agent (agar), flavoring, coloring (Yellow 4, yellow 5, red 40, blue 1), brightener</t>
+  </si>
+  <si>
+    <t>Non-glutinous rice (domestic, American product), vegetable oils and fats, sugar, soy sauce (wheat, contains soybeans), glucose-fructose syrup, salt, seasoning extract (contains soybeans)/modified starches (wheat-derived), seasoning (such as amino acids), coloring (caramel)</t>
   </si>
   <si>
     <t>Non-glutinous rice powder (domestic, Thailand product), vegetable oils and fats, powdered brewed vinegar, sugar, salt, yeast extract powder, spices (contains sesame), chicken extract powder, powdered soy sauce (wheat, contains soybeans), starch, dextrin/modified starches, flavoring (derived from chicken), seasoning (such as amino acids), acidulant, antioxidant (vitamin E), particulate silicon oxide, coloring (carotene), spice extracts, vitamin B1, emulsifiers (soybean-derived)</t>
   </si>
   <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, shrimp powder, shrimp salt flavor powder, salt, roasted soy sauce powder/modified starches, calcium carbonate, seasoning (such as amino acids), antioxidant (vitamin E, Vitamin C), emulsifiers, flavoring, caramel coloring, (may contain shrimp, wheat, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Sugar (foreign production), cacao mass, lactose, whole milk powder, cocoa butter, vegetable oils and fats, /emulsifiers, flavoring, (some parts of the raw materials may contain dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Roasted peanuts (made domestically), vegetable oils and fats, inulin (dietary fiber), whole milk powder, sugar, cocoa powder, cacao mass/emulsifiers, flavoring, (some parts of the raw materials may contain dairies, peanut, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Raisins (produced in America), cacao mass, sugar, cocoa butter, cocoa powder, whole milk powder, maltodextrin, vegetable oils and fats/brightener, emulsifiers, flavoring, (some parts of the raw materials may contain dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Sugar (foreign or domestic manufacturing), vegetable oils and fats, wheat puff, whole milk powder, cacao mass, cocoa powder, maltodextrin/emulsifiers, brightener, flavoring, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Sugar (foreign or domestic manufacturing), vegetable oils and fats, corn grits (separate production and distribution management), whole milk powder, cacao mass, cocoa powder, wheat flour, maltodextrin/emulsifiers, brightener, cellulose, flavoring, (some parts of the raw materials may contain dairies, wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, shortening, vegetable oils and fats, cacao mass, whole-wheat flour, whole milk powder, starch, syrup, lactose, wheat germ, cocoa powder, skim milk powder, salt/swelling agent, emulsifiers, flavoring, (may contains egg, dairies, wheat, soybeans, contains almonds)</t>
-  </si>
-  <si>
-    <t>Sugar (foreign or domestic manufacturing), vegetable oils and fats, cacao mass, whole milk powder, puff (corn grits, starch, sugar), lactose, cocoa powder/emulsifiers, flavoring, swelling agent, (some parts of the raw materials may contain dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, vegetable oils and fats, fat spread, margarine, foods that use milk as a main ingredient, butter, salt, white sesame paste, calcium carbonate, swelling agent, modified starches, flavoring, coloring (caramel, carotene)seasoning (amino acids), (some parts of the raw materials may contain dairies, wheat, soybeans, contains sesame)</t>
-  </si>
-  <si>
-    <t>Sugar (foreign production, made domestically), vegetable oils and fats, lactose, dextrin, cocoa butter, wheat flour, whole milk powder, skim milk powder, whey powder, wheat puff, cheese powder, butter oil, milk, margarine, shortening, yogurt powder, lemon juice powder, salt, high-fructose corn syrup sugar, fermented flavor liquid, concentrated whey powder protein/emulsifiers (soybean-derived), flavoring, swelling agent</t>
-  </si>
-  <si>
-    <t>Kelp (made in Hokkaido), sake-brewed vinegar, dried bonito extract, fermented seasoning, protein hydrolyzate/seasoning (such as amino acids), sorbitol, acidulant, sweetener (stevia extract), (some parts may contain soybean)</t>
-  </si>
-  <si>
-    <t>Glucose (made domestically), starch/modified starches, acidulant, emulsifiers, coloring (Gardia jasminoides, vegetable coloring), flavoring</t>
-  </si>
-  <si>
-    <t>Glucose (made domestically), starch/modified starches, acidulant, emulsifiers, vegetable coloring, flavoring</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), syrup (made domestically), dried yuzu peel, edible oils/acidulant, flavoring, gardenia pigment, emulsifiers (soybean-derived)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), accompanying seasoning (vegetable oils and fats, salt, beef seasoning, sugar, starch, pork seasoning, powdered soy sauce, chicken extract, hydrolyzed protein, pepper, yeast extract), accompanying seasoning (emulsified fats and oils, glucose, cheese powder, garlic, processed soybean, foods made mainly from milk, green onions, pepper)/modified starches, seasoning (such as amino acids), calcium carbonate, flavoring, caramel coloring, brine, fine silicon dioxide, acidulant, spice extracts, antioxidant (vitamin E, rosemary extract), carotenoid pigment, red beet coloring, monascus pigment, vitamin B2, vitamin B1, (may contain wheat, dairies, beef, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), jam (sugar, strawberry, syrup), shortening, sugar, chicken's egg, sweetened condensed milk, skim milk powder, foods made mainly from milk, starch hydrolysate, salt, cheese powder/sorbitol, acidulant, gelling agent (thickening polysaccharides), flavoring, swelling agent, emulsifiers, monascus pigment, phosphate Ca, (may contain wheat, eggs, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), jam (sugar, syrup, blueberry), sugar, shortening, chicken's egg, foods made mainly from milk, sweetened condensed milk, processed cheese, salt/sorbitol, acidulant, gelling agent (thickening polysaccharides), flavoring, swelling agent, emulsifiers, (may contain wheat, eggs, dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Sugar (foreign or domestic manufacturing), vegetable oils and fats, grape sauce, whole milk powder, cacao mass, cocoa butter, lactose, foods made mainly from milk, black tea extract powder, skim milk powder, alcohol/trehalose, emulsifiers (soybean-derived), acidulant, flavoring (milk, soybean-derived), coloring (caramel, vegetable coloring, Gardia jasminoides, safflower yellow, red yeast), cyclic oligosaccharide, thickener (pectin)</t>
-  </si>
-  <si>
-    <t>Soybeans (America), bacillus natto], vegetable oils and fats, soy sauce flavored powder (powdered soy sauce, salt, corn starch, dextrin, other) (wheat, contains mackerel)/seasoning (such as amino acids), flavoring</t>
-  </si>
-  <si>
-    <t>Glucose (made domestically), corn starch, starch hydrolysate/acidulant, flavoring, coloring (anthocyanin, Gardia jasminoides, annatto, blue spirulina)</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), maltitol, maltose, creaming powder (syrup, vegetable oils and fats, casein (contains dairies)), dextrin, concentrated plum juice, gelatin, plum powder, rare sugar sweet syrup, plum extract, dietary fiber, umeboshi extract powder/acidulant, thickener (gum arabic), anthocyanin pigment, flavoring, brightener</t>
-  </si>
-  <si>
-    <t>Vegetable oils and fats (made domestically), sugar, whole milk powder, lactose, cocoa butter, cocoa, egg yolk, cacao mass/cellulose, emulsifiers, flavoring, (some parts of the raw material may contain dairies, eggs, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Vegetable oils and fats (made domestically), sugar, whole milk powder, lactose, cocoa butter, cheddar cheese powder/cellulose, emulsifiers, paprika pigment, flavoring, (some parts of the raw material may contain dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Vegetable oils and fats (made domestically), sugar, whole milk powder, lactose, cocoa butter, cocoa, cacao mass/cellulose, emulsifiers, flavoring, (some parts of the raw material may contain dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, whole milk powder, cacao mass, shortening, cocoa butter, vegetable oils and fats, whole-wheat flour, wheat bran, salt, non-fat wheat germ/swelling agent, emulsifiers (soybean-derived), flavoring</t>
-  </si>
-  <si>
-    <t>Peanuts (America), sugar, wheat flour, fine rice flour, starch, rice flour, salt, galacto-oligosaccharide/swelling agent, calcium carbonate, coloring (Gardia jasminoides), iron pyrophosphate, (some parts of the raw materials may contain dairies, wheat, contains peanut)</t>
-  </si>
-  <si>
-    <t>Maltose (made domestically), syrup, sugar, rice cake flour, whole milk powder, vegetable oils and fats, cacao mass, cocoa powder, cream (contains dairies), dextrin, western liquor, lactose/trehalose, emulsifiers (soybean-derived), coloring (caramel), seasoning (amino acids), modified starches, flavoring, sodium caseinate (milk-derived)</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically, produced in Thailand), cacao mass, vegetable oils and fats, whole milk powder, almond, cocoa butter, skim milk powder, rice puff, lactose, butter oil/emulsifiers (soybean-derived), flavoring (almond-derived)</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically, produced in Thailand), vegetable oils and fats, whole milk powder, cacao mass, cocoa butter, skim milk powder, lactose, strawberry powder/trehalose, emulsifiers (soybean-derived), flavoring (almond-derived), coloring (beet red), acidulant</t>
-  </si>
-  <si>
-    <t>&lt;strawberry chocolate&gt;sugar (foreign production), vegetable oils and fats, lactose, whole milk powder, cocoa butter, cacao mass, whey powder, wheat puff (starch, wheat flour, salt), dried strawberries/flavoring, emulsifiers (soybean-derived), acidulant, coloring (red radish), swelling agent&lt;crisp chocolate&gt;sugar (foreign production, made domestically), vegetable oils and fats, cacao mass, lactose, whole milk powder, whey powder, wheat puff (starch, wheat flour, salt)/emulsifiers (soybean-derived), flavoring, swelling agent</t>
-  </si>
-  <si>
-    <t>Vegetable oils and fats (made domestically), lactose, sugar, cocoa cookie crunch (wheat flour, sugar, shortening, cocoa powder, dextrin, high-fructose corn syrup sugar, cacao mass, whey powder, salt), cocoa butter, whole milk powder, wheat flour, whey powder, cream cheese powder, starch, cream powder, malt extract, salt/emulsifiers (soybean-derived), trehalose, flavoring, swelling agent, caramel coloring</t>
-  </si>
-  <si>
-    <t>Sugar (domestic or Korean manufacturing), wheat flour, vegetable oils and fats, whole milk powder, lactose, cacao mass, whey powder, cookie crunch, cocoa powder, starch, shortening, salt/emulsifiers (soybean-derived), caramel coloring, swelling agent, flavoring</t>
-  </si>
-  <si>
-    <t>&lt;Kyun berry flavor (round-shaped)&gt;glucose (made domestically), strawberry fruit juice powder, starch/emulsifiers, modified starches, acidulant, Vitamin C, flavoring, vegetable coloring&lt;sweet and sour kyun berry flavor (heart-shaped)&gt;glucose (made domestically), strawberry fruit juice powder, starch/emulsifiers, modified starches, acidulant, Vitamin C, flavoring, vegetable coloring</t>
-  </si>
-  <si>
-    <t>Corn grits (made domestically), vegetable oils, sugar, powdered soy sauce, dextrin, powder miso, habanero powder, chicken extract powder, salt, hydrolyzed protein, yeast extract powder, lactose/seasoning (such as amino acids), spice extracts, flavoring, paprika pigment, sweetener (stevia, licorice), acidulant, (may contain wheat, dairies, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, powdered egg, vegetable extract, soy sauce), soup (salt, sugars, chicken seasoning, processed onion, soy sauce, spices, yeast extract, vegetable seasoning, fermented seasoning), garnish (cabbage, chicken, seasoned minced pork, fried onions, carrots)/modified starches, seasoning (such as amino acids), calcium carbonate, caramel coloring, trehalose, flavoring, brine, lecithin, fine silicon dioxide, acidulant, gardenia pigment, antioxidant (vitamin E, Vitamin C), vitamin B2, vitamin B1, paprika pigment, (may contain wheat, eggs, dairies, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, powdered egg, vegetable extract, soy sauce), soup (sugars, salt, chicken seasoning, starch, lemon juice powder, spices, yeast extract, vegetable oils and fats, vegetable powder), garnish (cabbage, seasoned chicken soboro, seasoned eggs, red bell pepper)/modified starches, seasoning (such as amino acids), calcium carbonate, flavoring, trehalose, acidulant, fine silicon dioxide, brine, lecithin, gardenia pigment, antioxidant (vitamin E), vitamin B2, vitamin B1, caramel coloring, carotene dye, (may contain wheat, eggs, dairies, sesame seeds, soybeans, chicken, contains pork)</t>
-  </si>
-  <si>
-    <t>Indigestible dextrin (produced in China), ginseng root extract, L-carnitine L-tartrate, guarana seed extract/carbonic acid, citric acid, sodium citrate, flavoring, preservatives (sodium benzoate), L-Arginine, caffeine, sweetener (sucralose, acesulfame K, stevia), niacin, pantothenic acid Ca, inositol, vitamin B6, coloring (Yellow No. 4, yellow No. 5), vitamin B12</t>
-  </si>
-  <si>
-    <t>Potato (Japan: not genetically modified), vegetable oils, sugar, glucose, spices, salt, chicken extract powder, vegetable extract powder (dairies, soybeans, pork, contains gelatin), protein hydrolyzate (contains soybeans), oligosaccharide/seasoning (such as amino acids), paprika pigment, acidulant, spice extracts, caramel coloring, flavoring</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, mapo tofu flavored powder (granulated sugar, powdered soy sauce, powder miso, pork flavor seasonings, protein hydrolyzate, other), salt, sugar, meat seasoning extract, protein hydrolyzate, soy sauce/seasoning (such as amino acids), calcium carbonate, flavoring, emulsifiers, paprika pigment, antioxidant (vitamin E), sweetener (stevia, licorice), acidulant, spice extracts, (may contain wheat, dairies, sesame seeds, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), vegetable oils and fats, soy sauce ramen flavored powder, salt, sugar, meat seasoning extract, protein hydrolyzate, soy sauce/seasoning (such as amino acids), calcium carbonate, flavoring, caramel coloring, emulsifiers, acidulant, antioxidant (vitamin E), sweetener (stevia), spice extracts, (may contain wheat, dairies, soybeans, chicken, pork, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), wheat flour, vegetable oils and fats, lactose, starch, shortening, cocoa butter, whole milk powder, whey powder, liquid egg, maltitol, melon juice powder, cream powder, salt/calcium carbonate, swelling agent, coloring (caramel, Gardia jasminoides, safflower yellow), flavoring, emulsifiers (soybean-derived)</t>
-  </si>
-  <si>
-    <t>Reduced starch syrup (made domestically), reduced maltose, sugar, dietary fiber (polydextrose), syrup, reduced maltose starch syrup, gelatin, konjac flour, starch/acidulant, flavoring, calcium carbonate, (may contain gelatin)</t>
-  </si>
-  <si>
-    <t>Starch (made domestically), sugar, dextrin, concentrated strawberry juice/sweetener (xylitol, aspartame, L‐phenylalanine compound, acesulfame K), acidulant, flavoring, thickener (gum arabic), coloring (Red No. 40)</t>
-  </si>
-  <si>
-    <t>Sugar, syrup, processed dried strawberries, strawberry fruit juice, herbal extract/acidulant, flavoring, anthocyanin pigment</t>
-  </si>
-  <si>
-    <t>Tomato, jalapeno pepper, onion, sake-brewed vinegar, salt, dried onions, garlic powder/spice extracts, calcium chloride, citric acid</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), vegetable oils, starch, shrimp, sugar, salt/swelling agent, seasoning (such as amino acids), sweetener (licorice)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), vegetable oils and fats, salt, soy sauce), sauce (thick sauce, sugar, vegetable oils and fats, fermented seasoning, lard, salt, pork seasoning, soy sauce processed products, seafood extract, skipjack seasoning, flavored seasoning, flavor oils), special paste (semi-solid dressing, red pickled ginger, glucose-fructose syrup, reduced starch syrup, sake-brewed vinegar, salt, vegetable oils and fats, whole egg powder, yeast extract, starch), garnish (cabbage), furikake (bonito shavings, sea lettuce)/modified starches, caramel coloring, seasoning (such as amino acids), calcium carbonate, thickener (modified starches, thickening polysaccharides), antioxidant (vitamin E), carotenoid pigment, brine, emulsifiers, sweetener (licorice, sucralose, acesulfame K), acidulant, flavoring, vegetable coloring, vitamin B2, vitamin B1, spice extracts, (may contain wheat, eggs, dairies, soybeans, chicken, pork, apple, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Corn grits (made domestically), vegetable oils, sugar, glucose, salt, cheese powder, powdered fats and oils, whey powder, spices, oligosaccharide/seasoning (such as amino acids), flavoring, carotenoid pigment, spice extracts, liquid smoke, (some parts of the raw materials may contain dairies, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Dough (made domestically) (wheat flour, starch, shrimp extract powder, shrimp powder, sugar, dried shrimp, fermented seasoning liquid, vegetable oils, dried bonito), vegetable oils, dextrin, glucose, fish extract powder, salt, powdered soy sauce, pepper, yeast extract powder/modified starches, seasoning (such as amino acids), trehalose, sweetener (sucralose), (some parts of the raw materials may contain dairies, wheat, shrimp, soybeans, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Vegetable oils and fats (made domestically), rice flour (non-glutinous rice (domestic, made in the USA)), starch, salt, fish extract powder (may contain shrimp), sugar, shrimp, dextrin, soy sauce powder (wheat, contains soybeans), flavor oils (may contain shrimp), yeast extract powder/modified starches, seasoning (such as amino acids), coloring (red yeast, caramel), acidulant</t>
-  </si>
-  <si>
-    <t>Sugar, cacao mass, whole milk powder, cocoa butter, vegetable oils and fats, emulsifiers (contains soybeans), brightener, flavoring</t>
-  </si>
-  <si>
-    <t>Syrup (made domestically), sugar, concentrated Japanese pear juice, gelatin, reduced indigestible dextrin, vegetable oils and fats, starch/acidulant, gelling agent (pectin), flavoring, brightener, (may contain apple, contains gelatin)</t>
-  </si>
-  <si>
-    <t>Non-glutinous rice (domestic, made in the USA), vegetable oils, sugar, lemon seasoning, soy sauce, glucose-fructose syrup, yeast extract, salt/modified starches, seasoning (such as amino acids), acidulant, flavoring, caramel coloring, (may contain wheat, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Sugar (foreign or domestic manufacturing), vegetable oils and fats, whole milk powder, cacao mass, cocoa butter, lactose, foods made mainly from milk, apple powder, skim milk powder, erythritol, dry crepe (dairies, contains wheat), caramel powder (contains dairies)/emulsifiers (soybean-derived), flavoring (milk, soybean-derived), coloring (red yeast, Gardia jasminoides)</t>
-  </si>
-  <si>
-    <t>Sugar (produced in Thailand, made domestically), vegetable oils and fats, potato pellets (dried potato, starch, salt), cacao mass, cocoa powder, whole milk powder/emulsifiers (soybean-derived), flavoring, coloring (turmeric), antioxidant (vitamin E, Vitamin C)</t>
-  </si>
-  <si>
-    <t>Sugar (foreign production, made domestically), vegetable oils and fats, whole milk powder, cacao mass, cocoa butter, lactose, skim milk powder, orange juice concentrate, western liquor (cassis liqueur), dextrin, creaming powder (contains dairies)/sorbitol, emulsifiers (soybean-derived), alcohol, flavoring (milk, almond-derived), acidulant</t>
-  </si>
-  <si>
-    <t>Sugar (foreign production), cacao mass, wheat flour, liquid whole egg, vegetable oils and fats, margarine (contains dairies), cocoa powder, shortening, sweetened condensed milk, whole milk powder, lactose, cocoa butter, salt, western liquor/sorbitol, alcohol, emulsifiers (soybean-derived), flavoring (milk-derived)</t>
-  </si>
-  <si>
-    <t>Sugar (produced in Thailand, made domestically), liquid whole egg, wheat flour, vegetable oils and fats, margarine (contains dairies), cheese powder (camembert cheese powder, gouda cheese powder, cream cheese powder), shortening, corn starch, edible processed oils and fats, cream cheese, milk syrup, whole milk powder, reduced starch syrup, dried whole egg, whey powder (contains dairies), lemon concentrated juice, syrup, lactose, western liquor, dextrin, cocoa butter/sorbitol, emulsifiers (soybean-derived), alcohol, flavoring (milk-derived), swelling agent, thickener (pectin: apple-derived), acidulant</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, shortening, margarine (contains dairies), butter, coconut, liquid whole egg, sweetened condensed skim milk, salt, vegetable oils and fats/flavoring (milk-derived), swelling agent, emulsifiers (soybean-derived), coloring (carotene)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, shortening, vegetable oils and fats, whole milk powder, whole-wheat flour, cacao mass, cocoa powder, salt, non-fat wheat germ/swelling agent, emulsifiers (soybean-derived), flavoring, coloring (annatto)</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, shortening, vegetable oil-reduced starch syrup, white bean (raw bean paste, sugar, reduced starch syrup, agar, salt), cacao mass, syrup, liquid whole egg, cocoa powder, lactose, whole milk powder dextrin, salt, skim milk powder/sorbitol, modified starches, emulsifiers (soybean-derived), coloring (caramel)flavoring, swelling agent, thickener (carrageenan)</t>
-  </si>
-  <si>
-    <t>Quasi chocolate (vegetable oils and fats, sugar, cacao mass, whole milk powder, cocoa powder) (made domestically), wheat flour, sugar, vegetable oils and fats, shortening, converted molasses, sweetened condensed milk, cocoa powder, salt (Miyakojima Salt 38%used), whole milk powder, sesame seeds, collagen/swelling agent, coloring (caramel), emulsifiers, calcium carbonate, flavoring, (may contain wheat, dairies, soybeans, sesame seeds, contains pork)</t>
-  </si>
-  <si>
-    <t>Fried noodles (wheat flour (made domestically), edible oils (palm oil, lard, rapeseed oil), salt), soup (salt, sugar, kimchi flavored seasoning, powdered soy sauce, spices, sesame seeds, powder miso, pork extract powder, oyster extract powder, onions, green onions)/modified starches, seasoning (such as amino acids), caramel coloring, acidulant, brine, thickening polysaccharides, fine silicon dioxide, antioxidant (V. E), (may contain wheat, sesame seeds, soybeans, pork, fish sauce (seafood)is contained)</t>
-  </si>
-  <si>
-    <t>Roasted peanuts (made domestically), sugar, vegetable oils and fats, lactose, whole milk powder, cacao mass, cocoa powder/emulsifiers, flavoring, (some parts of the raw materials may contain dairies, peanut, contains soybeans)</t>
-  </si>
-  <si>
-    <t>Sugar (produced in Thailand), biscuits (contains wheat), cacao mass, vegetable oils and fats, whole milk powder, cocoa butter, syrup, seasoning powder (dextrin, black truffle salt, sugar, salt, garlic powder, soy protein hydrolyzate, white pepper powder, nutmeg powder), butter oil, hazelnut paste/emulsifiers, swelling agent, flavoring, brightener, seasoning (such as amino acids), coloring (gold leaf)</t>
-  </si>
-  <si>
-    <t>Syrup (made domestically), sweetened condensed milk, sugar, sweetened condensed skim milk, vegetable oils and fats, wheat protein hydrolyzate, butter, salt/sorbitol, flavoring, emulsifiers (soybean-derived), safflower yellow coloring</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically, produced in Thailand), syrup, vegetable oils and fats, dextrin, gelatin, concentrated watermelon juice/acidulant, flavoring, glycerin, emulsifiers, safflower yellow coloring, red cabbage dye, gardenia blue pigment, paprika pigment</t>
-  </si>
-  <si>
-    <t>Cornflakes (corn grits (corn (American product)), sugar, salt), sugar, vegetable oils and fats, whole milk powder, cacao mass, cocoa powder/flavoring, calcium carbonate, emulsifiers (soybean-derived), iron pyrophosphate</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), sugar, coconut oil, shortening, coconut, salt, lemon powder, skim milk powder/acidulant, swelling agent, emulsifiers (soybean-derived), flavoring</t>
-  </si>
-  <si>
-    <t>Wheat flour (made domestically), margarine, sugar, vegetable oils and fats, lactose, maltose, cocoa butter, whole milk powder, whey powder, cream powder, salt, cheese powder, matcha, cinnamon/emulsifiers (soybean-derived), gardenia pigment, flavoring</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), wheat flour, vegetable oils and fats, whole milk powder, lactose, cacao mass, whey powder, cookie crunch, cocoa powder, starch, shortening, salt/emulsifiers (soybean-derived), caramel coloring, swelling agent, flavoring</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically), starch, dextrin, plum/acidulant, thickener (gum arabic), flavoring</t>
-  </si>
-  <si>
-    <t>Sugar (foreign production, made domestically), syrup, maltose, gelatin, concentrated pineapple juice, vegetable oils and fats</t>
-  </si>
-  <si>
-    <t>Sugar (made domestically, produced in Thailand), wheat flour, cocoa butter, liquid egg white (contains eggs), shortening, whole milk powder, vegetable oils and fats, lactose, margarine, whey powder (contains dairies), cocoa powder, banana powder, salt, syrup/emulsifiers (soybean-derived), flavoring (soybean-derived), coloring (carotenoids), swelling agent</t>
-  </si>
-  <si>
-    <t>Starch (made domestically), non-glutinous rice (domestic), glutinous rice (Thailand product), vegetable oils and fats (sesame seeds, contains soybeans), cashew nuts, sugar, glucose, wheat flour, salt, powdered soy sauce (wheat, contains soybeans), protein hydrolyzate (contains soybeans), dextrin, kelp extract powder/modified starches, seasoning (such as amino acids), sorbitol, particulate silicon oxide, swelling agent, coloring (carotenoids), acidulant, sweetener (acesulfame K, sucralose), antioxidant (vitamin E)</t>
-  </si>
-  <si>
-    <t>Starch (made domestically), non-glutinous rice (domestic), glutinous rice (Thailand product), vegetable oils and fats, sugar, cashew nuts, peanut butter, glucose, wheat flour, salt, protein hydrolyzate (soybeans, contains gelatin), dextrin/modified starches, sorbitol, seasoning (such as amino acids), emulsifiers (soybean-derived), flavoring (milk-derived), swelling agent, coloring (carotenoids), sweetener (acesulfame K, sucralose), acidulant, antioxidant (vitamin E)</t>
-  </si>
-  <si>
-    <t>Soy protein (made domestically), sugar, shortening, wheat protein, fat spread (contains dairies), soy puff, syrup, cocoa powder, liquid egg yolk (contains eggs), cacao mass, vegetable oils and fats, whole milk powder, lactose, glucose, salt/sorbitol, glycerin, calcium carbonate, emulsifiers (soybean-derived), leucine, trehalose, valine, isoleucine, flavoring (milk-derived), V. E, niacin, pantothenic acid Ca, ferric pyrophosphate, V. B1, V. B2, V. B6, V. A, folic acid, coloring (annatto), V. D, V. B12</t>
-  </si>
-  <si>
-    <t>Soy protein (made domestically), shortening, sugar, wheat protein, soy puff, fat spread (contains dairies), caramel (foods made mainly from milk, syrup, sugar), liquid egg yolk (contains eggs), vegetable oils and fats, whole milk powder, lactose, cacao mass, glucose, cocoa powder, salt/sorbitol, glycerin, calcium carbonate, coloring (caramel, annatto), emulsifiers (soybean-derived), leucine, trehalose, valine, isoleucine, flavoring (milk-derived), V. E, niacin, ferric pyrophosphate, pantothenic acid Ca, V. B1, V. B2, V. B6, V. A, folic acid, V. D, V. B12</t>
+    <t>Wheat flour (made domestically), sugar, shortening, whole milk powder, cocoa butter, margarine (contains dairies), dextrin, whey powder (contains dairies), liquid whole egg, yeast, edible processed oils and fats (contains wheat), lactose, condensed milk powder, caramel powder (contains dairies), western liquor, caramel powder (contains dairies), Uruchihie puff, salt, syrup, dried egg white (contains eggs), vanilla seeds/sorbitol, uncalcined eggshell calcium (eggs-derived), alcohol, emulsifiers (soybean-derived), flavoring (milk-derived), yeast food (wheat-derived), trehalose, Vitamin C, vitamin D, coloring (carotene)</t>
+  </si>
+  <si>
+    <t>Starch (made domestically), vegetable oils and fats, rice flour, shrimp powder, salt, flavor oils (wheat, shrimp, contains soybeans), wheat protein, shrimp seasoning (contains soybeans), kelp powder, green laver/modified starch emulsifier (soybean-derived), sorbitol, seasoning (such as amino acids), coloring (carotenoids), antioxidant (vitamin E, Vitamin C), flavoring (shrimp-derived), particulate silicon oxide</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, cocoa powder, whole-wheat flour, lactose, high-fructose corn syrup, whey powder (contains dairies), dextrin, salt/swelling agent, emulsifiers (soybean-derived), flavoring</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), shortening, sugar, sweetened condensed milk, lactose, glucose, whole milk powder, strawberry powder, salt, creaming powder (contains dairies), cocoa butter/swelling agent, acidulant, emulsifiers (soybean-derived), flavoring, coloring (beet red, carotene), uncalcined eggshell calcium (eggs-derived)</t>
+  </si>
+  <si>
+    <t>Ingredients: wheat flour (made domestically), sugar, liquid whole egg, shortening, vegetable oils and fats, cacao mass, syrup, roasted green tea powder, sweetened condensed milk, creaming powder (contains dairies), salt, western liquor/sorbitol, alcohol, emulsifiers (soybean-derived), modified starches, flavoring, swelling agent</t>
+  </si>
+  <si>
+    <t>Ingredients: wheat flour (made domestically), sugar, liquid whole egg, margarine (contains dairies), sesame paste, syrup, cocoa butter, salt, western liquor/sorbitol, alcohol, modified starches, emulsifiers (soybean-derived), flavoring (derived from sesame seeds), swelling agent</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, vegetable oils and fats, whole-wheat flour, whole milk powder, cocoa powder, cacao mass, dextrin, lactose, salt/swelling agent, emulsifiers (soybean-derived), coloring (caramel), flavoring</t>
+  </si>
+  <si>
+    <t>Sugar (produced in Thailand, made domestically), cacao mass, liquid whole egg, wheat flour, vegetable oils and fats, shortening, cocoa powder, western liquor, syrup, high-fructose corn syrup, sweetened condensed milk, whole milk powder, reduced starch syrup, cream (contains dairies), cocoa butter, lactose, butter, skim milk powder, glucose, dextrin, salt/sorbitol, alcohol, emulsifiers (soybean-derived), flavoring, swelling agent</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, cacao mass, whole milk powder, margarine (contains dairies), cocoa powder, liquid whole egg, yeast, edible processed oils and fats (contains wheat), lactose, western liquor, Uruchihie puff, salt, syrup, dried egg white (contains eggs)/sorbitol, uncalcined eggshell calcium (eggs-derived), alcohol, emulsifiers (soybean-derived), flavoring (milk-derived), yeast food (wheat-derived), Vitamin C, vitamin D, coloring (carotene)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), sugar, shortening, whole milk powder, erythritol, margarine (contains dairies), liquid whole egg, yeast, edible processed oils and fats (contains wheat), lactose, dextrin, skim milk powder, western liquor, cocoa butter, Uruchihie puff, salt, creaming powder (contains dairies), syrup, dried egg white (contains eggs)/sorbitol, uncalcined eggshell calcium (eggs-derived), alcohol, emulsifiers (soybean-derived), flavoring (milk-derived), yeast food (wheat-derived), Vitamin C, vitamin D, coloring (carotene)</t>
+  </si>
+  <si>
+    <t>Chocolate (sugar, lactose, cocoa butter, whole milk powder, cacao mass, vegetable oils and fats, other) (made domestically), wheat puff (wheat flour, corn starch, other), vegetable oils and fats, sugar, lactose, starch/trehalose, emulsifiers, flavoring, coloring (red yeast, vegetable coloring), swelling agent, acidulant, (some parts of the raw materials may contain dairies, contains wheat)</t>
+  </si>
+  <si>
+    <t>Soda flavor: sugar (made domestically), syrup (made domestically)/acidulant, flavoring, coloring (Gardia jasminoides, safflower yellow), orange flavor: sugar (made domestically), syrup (made domestically)/acidulant, flavoring, carotenoid pigment, grape flavor: sugar (made domestically), syrup (made domestically), concentrated grape juice/acidulant, flavoring, vegetable coloring, gardenia pigment, Cola flavor: sugar (made domestically), syrup (made domestically)/acidulant, caramel coloring, flavoring</t>
+  </si>
+  <si>
+    <t>Quasi chocolate (sugar, vegetable oils and fats, cocoa powder, whole milk powder, skim milk powder, other) (made domestically), chocolate (sugar, cocoa butter, lactose, vegetable oils and fats, whole milk powder, other), wheat puff (wheat flour, corn starch, other)/emulsifiers, flavoring, swelling agent, coloring (safflower yellow, carotenoids), (some parts of the raw materials may contain dairies, contains wheat)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), corn grits, vegetable oils and fats, margarine, sweetened condensed milk, cocoa powder, caramel sauce, salt, quasi chocolate, milk/calcium carbonate, caramel coloring, flavoring, emulsifiers, trehalose, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), corn grits, vegetable oils and fats, margarine, sweetened condensed milk, sugar mixed glucose fructose liquid sugar, salt, melon puree, quasi chocolate/calcium carbonate, flavoring, emulsifiers, pH regulator, gardenia pigment, sweetener (sucralose), carotenoid pigment, (some parts of the raw materials may contain dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), sugar (made domestically), rapeseed oil/pH regulator, gelling agent (sodium alginate), sweetener (aspartame, L-phenylalanine compound, sucralose, acesulfame K), flavoring, phosphate Ca, coloring (red 40)</t>
+  </si>
+  <si>
+    <t>Sugar (made domestically), syrup/acidulant, flavoring, coloring (red cabbage)</t>
+  </si>
+  <si>
+    <t>Vegetable oils and fats (made domestically), sugar, shortening, potato starch, blue soybeans, edamame powder (made in Akita prefecture), cheese, maltitol, dried potato, salt, butter, chlorella powder, spices, hydrolyzed protein, yeast extract powder, soy isoflavone extract, dextrin/modified starches, sodium caseinate, emulsifiers, swelling agent, calcium carbonate, flavoring, seasoning (amino acids), (may contain wheat, dairies, soybeans, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Wheat flour, sugar, vegetable oils and fats, cacao mass, shortening, cocoa powder, whole milk powder, converted molasses, sweetened condensed milk, sesame seeds, salt, collagen (contains pork)/coloring (caramel), swelling agent, emulsifiers (soybean-derived), calcium carbonate, flavoring</t>
+  </si>
+  <si>
+    <t>Quasi chocolate (vegetable oils and fats, sugar, cacao mass, whole milk powder, cocoa powder) (made domestically), corn grits, whole-wheat flour, sugar, cocoa powder, salt/emulsifiers, calcium carbonate, flavoring, (may contain wheat, dairies, contains soybeans)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, soy sauce, sugar, salt, chicken extract, protein hydrolyzate, meat seasoning extract, meat seasoning powder, yeast extract powder, pork powder, seafood powder/modified starches, seasoning (such as amino acids), calcium carbonate, antioxidant (vitamin E), (may contain wheat, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Wheat flour (made domestically), vegetable oils and fats, wasabi beef flavor powder, salt, powdered egg, beef extract powder, powdered fats and oils, sugar, soy sauce, wasabi paste, meat seasoning extract, garlic powder, vegetable extract, protein hydrolyzate, meat seasoning powder/modified starches, seasoning (such as amino acids), flavoring, emulsifiers, coloring (caramel, red yeast, Gardia jasminoides), antioxidant (vitamin E), sweetener (stevia, sucralose), acidulant, spice extracts, (may contain wheat, eggs, dairies, beef, soybeans, chicken, pork, contains gelatin)</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, maltose, glucose, gelatin, corn starch (not genetically modified), isomaltooligosaccharide, dairy products (sterilized lactic acid bacteria beverage), honey, fermented milk powder, lemon liqueur, soy protein (not genetically modified), Bacillus coagulans/sorbitol, gelling agent (pectin: apple-derived), acidulant, flavoring, coloring (safflower yellow)</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, gelatin, corn starch, soy protein/flavoring</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, maltose, glucose, gelatin, corn starch, concentrated blueberry juice, soy protein/sorbitol, gelling agent (pectin: apple-derived), acidulant, coloring (beet red, Gardia jasminoides), flavoring</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, maltose, glucose, gelatin, corn starch, concentrated strawberry juice, concentrated apple juice, soy protein, strawberry powder, sugar mixed high-fructose corn syrup sugar/sorbitol, acidulant, gelling agent (pectin), coloring (beet red), flavoring</t>
+  </si>
+  <si>
+    <t>Syrup (made domestically), sugar, maltose, glucose, gelatin, corn starch, dairy products (sterilized lactic acid bacteria beverage), fermented milk powder, soy protein/sorbitol, acidulant, gelling agent (pectin: apple-derived), flavoring</t>
+  </si>
+  <si>
+    <t>Vegetable oils and fats (made domestically), lactose, cocoa butter, sugar, apple sauce, maltodextrin, biscuits (wheat flour, sugar, vegetable oils and fats, sugar syrup, soy flour, salt, cinnamon), skim milk powder, whole milk powder, dried bread crumbs/emulsifiers, flavoring, acidulant, coloring (caramel, Gardia jasminoides, carotenoids, flavonoids), swelling agent, thickener (pectin)</t>
+  </si>
+  <si>
+    <t>Powdered sugar (made domestically), corn starch (not genetically modified)/acidulant, flavoring, coloring (blue 1)</t>
+  </si>
+  <si>
+    <t>Sugar, starch (not genetically modified), acidulant, flavoring, baking soda</t>
+  </si>
+  <si>
+    <t>Milk, sugar, coffee, dairy products, dextrin, sodium caseinate, emulsifiers, flavoring</t>
+  </si>
+  <si>
+    <t>Milk, coffee, sugar, whole milk powder, skim milk powder, sodium caseinate, emulsifiers, flavoring, sweetener (acesulfame K)</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Milk, sugar, coffee, skim milk powder, cream, defatted concentrated milk, whole milk powder, dextrin, sodium caseinate, flavoring, emulsifiers, stabilizer (carrageenan)</t>
+  </si>
+  <si>
+    <t>Milk, coffee, sugar, glucose, processed milk, sodium caseinate, flavoring, emulsifiers</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +2108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1791,10 +2130,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1802,10 +2141,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1813,10 +2152,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1824,10 +2163,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1835,10 +2174,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1846,10 +2185,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1857,10 +2196,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1868,10 +2207,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>316</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1879,835 +2218,835 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>322</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>324</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>325</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>326</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s">
-        <v>327</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s">
-        <v>329</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="C24" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="C25" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="C26" t="s">
-        <v>333</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C29" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="C30" t="s">
-        <v>337</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
-        <v>338</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>340</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>342</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s">
-        <v>343</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C37" t="s">
-        <v>344</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
-        <v>345</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C39" t="s">
-        <v>346</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="C40" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="C41" t="s">
-        <v>348</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="C42" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C44" t="s">
-        <v>351</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="C45" t="s">
-        <v>352</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="C46" t="s">
-        <v>353</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>354</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="C48" t="s">
-        <v>355</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="C49" t="s">
-        <v>356</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C50" t="s">
-        <v>357</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="C51" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
-        <v>359</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>360</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="C54" t="s">
-        <v>361</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="C55" t="s">
-        <v>362</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="C56" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C57" t="s">
-        <v>364</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="C58" t="s">
-        <v>365</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="C59" t="s">
-        <v>366</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="C60" t="s">
-        <v>367</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="C61" t="s">
-        <v>368</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="C62" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="C63" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="C64" t="s">
-        <v>370</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="C65" t="s">
-        <v>371</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="C66" t="s">
-        <v>372</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="C67" t="s">
-        <v>373</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="C68" t="s">
-        <v>374</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="C69" t="s">
-        <v>375</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="C70" t="s">
-        <v>376</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="C71" t="s">
-        <v>377</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="C72" t="s">
-        <v>378</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="C73" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="C74" t="s">
-        <v>380</v>
+        <v>454</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="C75" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="C76" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="C77" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C78" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="C79" t="s">
-        <v>385</v>
+        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C80" t="s">
-        <v>386</v>
+        <v>460</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="C81" t="s">
-        <v>387</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="C82" t="s">
-        <v>388</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="C83" t="s">
-        <v>389</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="C84" t="s">
-        <v>390</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C85" t="s">
-        <v>391</v>
+        <v>465</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2715,10 +3054,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="C86" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2726,10 +3065,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="C87" t="s">
-        <v>392</v>
+        <v>467</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2737,10 +3076,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="C88" t="s">
-        <v>393</v>
+        <v>468</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2748,10 +3087,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="C89" t="s">
-        <v>394</v>
+        <v>469</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2759,10 +3098,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="C90" t="s">
-        <v>395</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2770,10 +3109,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="C91" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2781,10 +3120,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="C92" t="s">
-        <v>397</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2792,10 +3131,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="C93" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2803,10 +3142,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="C94" t="s">
-        <v>399</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2814,10 +3153,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>400</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2825,142 +3164,142 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="C96" t="s">
-        <v>401</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="C97" t="s">
-        <v>391</v>
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C98" t="s">
-        <v>402</v>
+        <v>478</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>403</v>
+        <v>479</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="C100" t="s">
-        <v>404</v>
+        <v>480</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="C101" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="C102" t="s">
-        <v>406</v>
+        <v>482</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="C103" t="s">
-        <v>407</v>
+        <v>483</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="C104" t="s">
-        <v>408</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="C105" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="C106" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="C107" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="C108" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2968,10 +3307,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C109" t="s">
-        <v>413</v>
+        <v>488</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2979,10 +3318,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="C110" t="s">
-        <v>414</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2990,10 +3329,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="C111" t="s">
-        <v>415</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3001,10 +3340,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="C112" t="s">
-        <v>416</v>
+        <v>491</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3012,10 +3351,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="C113" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3023,10 +3362,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="C114" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3034,10 +3373,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="C115" t="s">
-        <v>419</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3045,10 +3384,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="C116" t="s">
-        <v>420</v>
+        <v>495</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3056,10 +3395,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="C117" t="s">
-        <v>421</v>
+        <v>496</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3067,10 +3406,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="C118" t="s">
-        <v>422</v>
+        <v>497</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3078,10 +3417,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s">
-        <v>423</v>
+        <v>498</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3089,10 +3428,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="C120" t="s">
-        <v>424</v>
+        <v>499</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3100,10 +3439,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="C121" t="s">
-        <v>425</v>
+        <v>500</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3111,10 +3450,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="C122" t="s">
-        <v>426</v>
+        <v>501</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3122,10 +3461,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="C123" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3133,10 +3472,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="C124" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3144,10 +3483,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="C125" t="s">
-        <v>429</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3155,10 +3494,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="C126" t="s">
-        <v>430</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3166,10 +3505,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="C127" t="s">
-        <v>431</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3177,10 +3516,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="C128" t="s">
-        <v>432</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3188,10 +3527,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="C129" t="s">
-        <v>433</v>
+        <v>508</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3199,10 +3538,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="C130" t="s">
-        <v>434</v>
+        <v>509</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3210,10 +3549,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="C131" t="s">
-        <v>435</v>
+        <v>510</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3221,10 +3560,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="C132" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3232,10 +3571,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="C133" t="s">
-        <v>437</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3243,10 +3582,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="C134" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3254,10 +3593,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="C135" t="s">
-        <v>439</v>
+        <v>514</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3265,10 +3604,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="C136" t="s">
-        <v>440</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3276,10 +3615,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="C137" t="s">
-        <v>441</v>
+        <v>516</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3287,10 +3626,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="C138" t="s">
-        <v>442</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3298,10 +3637,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="C139" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3309,10 +3648,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="C140" t="s">
-        <v>444</v>
+        <v>519</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3320,10 +3659,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="C141" t="s">
-        <v>445</v>
+        <v>520</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3331,10 +3670,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="C142" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3342,10 +3681,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C143" t="s">
-        <v>447</v>
+        <v>522</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3353,10 +3692,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="C144" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3364,10 +3703,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="C145" t="s">
-        <v>449</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3375,10 +3714,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="C146" t="s">
-        <v>450</v>
+        <v>525</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3386,10 +3725,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="C147" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3397,10 +3736,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="C148" t="s">
-        <v>452</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3408,10 +3747,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="C149" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3419,10 +3758,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="C150" t="s">
-        <v>454</v>
+        <v>529</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3430,10 +3769,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="C151" t="s">
-        <v>455</v>
+        <v>530</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3441,10 +3780,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="C152" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3452,10 +3791,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="C153" t="s">
-        <v>457</v>
+        <v>532</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3463,10 +3802,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="C154" t="s">
-        <v>458</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3474,10 +3813,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="C155" t="s">
-        <v>459</v>
+        <v>534</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3485,10 +3824,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="C156" t="s">
-        <v>460</v>
+        <v>535</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3496,10 +3835,439 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="C157" t="s">
-        <v>461</v>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>347</v>
+      </c>
+      <c r="C158" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>348</v>
+      </c>
+      <c r="C159" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>349</v>
+      </c>
+      <c r="C160" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>350</v>
+      </c>
+      <c r="C161" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>351</v>
+      </c>
+      <c r="C162" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>352</v>
+      </c>
+      <c r="C163" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>353</v>
+      </c>
+      <c r="C164" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>354</v>
+      </c>
+      <c r="C165" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>355</v>
+      </c>
+      <c r="C166" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>356</v>
+      </c>
+      <c r="C167" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>357</v>
+      </c>
+      <c r="C168" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>358</v>
+      </c>
+      <c r="C169" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>359</v>
+      </c>
+      <c r="C170" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>360</v>
+      </c>
+      <c r="C171" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>361</v>
+      </c>
+      <c r="C172" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>362</v>
+      </c>
+      <c r="C173" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>363</v>
+      </c>
+      <c r="C174" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>364</v>
+      </c>
+      <c r="C175" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>365</v>
+      </c>
+      <c r="C176" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>366</v>
+      </c>
+      <c r="C177" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>367</v>
+      </c>
+      <c r="C178" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>368</v>
+      </c>
+      <c r="C179" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>369</v>
+      </c>
+      <c r="C180" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>370</v>
+      </c>
+      <c r="C181" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>371</v>
+      </c>
+      <c r="C182" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>372</v>
+      </c>
+      <c r="C183" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>373</v>
+      </c>
+      <c r="C184" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>374</v>
+      </c>
+      <c r="C185" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>375</v>
+      </c>
+      <c r="C186" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>378</v>
+      </c>
+      <c r="C189" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>379</v>
+      </c>
+      <c r="C190" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>101</v>
+      </c>
+      <c r="B191" t="s">
+        <v>292</v>
+      </c>
+      <c r="C191" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192" t="s">
+        <v>380</v>
+      </c>
+      <c r="C192" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193" t="s">
+        <v>381</v>
+      </c>
+      <c r="C193" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194" t="s">
+        <v>191</v>
+      </c>
+      <c r="C194" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>192</v>
+      </c>
+      <c r="B195" t="s">
+        <v>382</v>
+      </c>
+      <c r="C195" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196" t="s">
+        <v>383</v>
+      </c>
+      <c r="C196" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
